--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mech Staff data\Amit Jangra\Website\MechanicalCodingThunder.github.io\static\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\Teaching\MechanicalCodingThunder.github.io\static\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
   <si>
     <t>S.N</t>
   </si>
@@ -400,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -455,12 +455,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -526,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,12 +578,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1083,34 +1071,34 @@
   <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23"/>
-    <col min="5" max="6" width="9.140625" style="25"/>
-    <col min="7" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="4" style="21" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="21"/>
+    <col min="5" max="6" width="9.140625" style="23"/>
+    <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -1125,10 +1113,10 @@
       <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="20" t="s">
@@ -1150,4504 +1138,1899 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="22">
-        <v>220041700001</v>
-      </c>
-      <c r="D3" s="17">
-        <v>17</v>
-      </c>
-      <c r="E3" s="17">
-        <v>15</v>
-      </c>
-      <c r="F3" s="17">
-        <v>28</v>
-      </c>
-      <c r="G3" s="17">
-        <v>10</v>
-      </c>
-      <c r="H3" s="17">
-        <v>20</v>
-      </c>
-      <c r="I3" s="17">
-        <v>20</v>
-      </c>
-      <c r="J3" s="17">
-        <v>81.48</v>
-      </c>
-      <c r="K3" s="17">
-        <v>33</v>
-      </c>
-      <c r="L3" s="23">
-        <v>39</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="22">
-        <v>220041700002</v>
-      </c>
-      <c r="D4" s="17">
-        <v>7</v>
-      </c>
-      <c r="E4" s="17">
-        <v>11</v>
-      </c>
-      <c r="F4" s="17">
-        <v>16.5</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <v>16</v>
-      </c>
-      <c r="I4" s="17">
-        <v>22</v>
-      </c>
-      <c r="J4" s="17">
-        <v>85.19</v>
-      </c>
-      <c r="K4" s="17">
-        <v>24</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="22">
-        <v>220041700003</v>
-      </c>
-      <c r="D5" s="17">
-        <v>14</v>
-      </c>
-      <c r="E5" s="17">
-        <v>10</v>
-      </c>
-      <c r="F5" s="17">
-        <v>19.5</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <v>81.48</v>
-      </c>
-      <c r="K5" s="17">
-        <v>27</v>
-      </c>
-      <c r="L5" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="22">
-        <v>220041700004</v>
-      </c>
-      <c r="D6" s="17">
-        <v>8</v>
-      </c>
-      <c r="E6" s="17">
-        <v>17</v>
-      </c>
-      <c r="F6" s="17">
-        <v>24.5</v>
-      </c>
-      <c r="G6" s="17">
-        <v>10</v>
-      </c>
-      <c r="H6" s="17">
-        <v>23</v>
-      </c>
-      <c r="I6" s="17">
-        <v>25</v>
-      </c>
-      <c r="J6" s="17">
-        <v>92.59</v>
-      </c>
-      <c r="K6" s="17">
-        <v>31</v>
-      </c>
-      <c r="L6" s="23">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="22">
-        <v>220041700005</v>
-      </c>
-      <c r="D7" s="17">
-        <v>17</v>
-      </c>
-      <c r="E7" s="17">
-        <v>21</v>
-      </c>
-      <c r="F7" s="17">
-        <v>6</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <v>37.04</v>
-      </c>
-      <c r="K7" s="17">
-        <v>20</v>
-      </c>
-      <c r="L7" s="23">
-        <v>40</v>
-      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="22">
-        <v>220041700006</v>
-      </c>
-      <c r="D8" s="17">
-        <v>14</v>
-      </c>
-      <c r="E8" s="17">
-        <v>8</v>
-      </c>
-      <c r="F8" s="17">
-        <v>21</v>
-      </c>
-      <c r="G8" s="17">
-        <v>10</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>25</v>
-      </c>
-      <c r="J8" s="17">
-        <v>70.37</v>
-      </c>
-      <c r="K8" s="17">
-        <v>28</v>
-      </c>
-      <c r="L8" s="23">
-        <v>29</v>
-      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="22">
-        <v>220041700007</v>
-      </c>
-      <c r="D9" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="17">
-        <v>12</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <v>59.26</v>
-      </c>
-      <c r="K9" s="17">
-        <v>18</v>
-      </c>
-      <c r="L9" s="23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="22">
-        <v>220041700008</v>
-      </c>
-      <c r="D10" s="17">
-        <v>11</v>
-      </c>
-      <c r="E10" s="17">
-        <v>14</v>
-      </c>
-      <c r="F10" s="17">
-        <v>12</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <v>21</v>
-      </c>
-      <c r="I10" s="17">
-        <v>25</v>
-      </c>
-      <c r="J10" s="17">
-        <v>92.59</v>
-      </c>
-      <c r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="22">
-        <v>220041700009</v>
-      </c>
-      <c r="D11" s="17">
-        <v>13</v>
-      </c>
-      <c r="E11" s="17">
-        <v>10</v>
-      </c>
-      <c r="F11" s="17">
-        <v>16</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>21</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>81.48</v>
-      </c>
-      <c r="K11" s="17">
-        <v>25</v>
-      </c>
-      <c r="L11" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="22">
-        <v>220041700010</v>
-      </c>
-      <c r="D12" s="17">
-        <v>8</v>
-      </c>
-      <c r="E12" s="17">
-        <v>10.5</v>
-      </c>
-      <c r="F12" s="17">
-        <v>12</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>14</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>59.26</v>
-      </c>
-      <c r="K12" s="17">
-        <v>18</v>
-      </c>
-      <c r="L12" s="23">
-        <v>20</v>
-      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="22">
-        <v>220041700011</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="17">
-        <v>16</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="17">
-        <v>8</v>
-      </c>
-      <c r="H13" s="17">
-        <v>16</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <v>37.04</v>
-      </c>
-      <c r="K13" s="17">
-        <v>18</v>
-      </c>
-      <c r="L13" s="23">
-        <v>26</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="22">
-        <v>220041700012</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <v>22.22</v>
-      </c>
-      <c r="K14" s="17">
-        <v>6</v>
-      </c>
-      <c r="L14" s="23">
-        <v>26</v>
-      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="22">
-        <v>220041700013</v>
-      </c>
-      <c r="D15" s="17">
-        <v>15</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="17">
-        <v>18</v>
-      </c>
-      <c r="G15" s="17">
-        <v>5</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>20</v>
-      </c>
-      <c r="J15" s="17">
-        <v>74.069999999999993</v>
-      </c>
-      <c r="K15" s="17">
-        <v>26</v>
-      </c>
-      <c r="L15" s="23">
-        <v>47</v>
-      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>14</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="22">
-        <v>220041700014</v>
-      </c>
-      <c r="D16" s="17">
-        <v>10</v>
-      </c>
-      <c r="E16" s="17">
-        <v>11</v>
-      </c>
-      <c r="F16" s="17">
-        <v>16</v>
-      </c>
-      <c r="G16" s="17">
-        <v>9</v>
-      </c>
-      <c r="H16" s="17">
-        <v>21</v>
-      </c>
-      <c r="I16" s="17">
-        <v>25</v>
-      </c>
-      <c r="J16" s="17">
-        <v>74.069999999999993</v>
-      </c>
-      <c r="K16" s="17">
-        <v>24</v>
-      </c>
-      <c r="L16" s="23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="22">
-        <v>220041700016</v>
-      </c>
-      <c r="D17" s="17">
-        <v>10</v>
-      </c>
-      <c r="E17" s="17">
-        <v>12</v>
-      </c>
-      <c r="F17" s="17">
-        <v>14</v>
-      </c>
-      <c r="G17" s="17">
-        <v>10</v>
-      </c>
-      <c r="H17" s="17">
-        <v>21</v>
-      </c>
-      <c r="I17" s="17">
-        <v>22</v>
-      </c>
-      <c r="J17" s="17">
-        <v>74.069999999999993</v>
-      </c>
-      <c r="K17" s="17">
-        <v>23</v>
-      </c>
-      <c r="L17" s="23">
-        <v>46</v>
-      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="22">
-        <v>220041700017</v>
-      </c>
-      <c r="D18" s="17">
-        <v>14</v>
-      </c>
-      <c r="E18" s="17">
-        <v>20</v>
-      </c>
-      <c r="F18" s="17">
-        <v>23</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>18</v>
-      </c>
-      <c r="I18" s="17">
-        <v>25</v>
-      </c>
-      <c r="J18" s="17">
-        <v>88.89</v>
-      </c>
-      <c r="K18" s="17">
-        <v>32</v>
-      </c>
-      <c r="L18" s="23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>19</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="22">
-        <v>220041700020</v>
-      </c>
-      <c r="D19" s="17">
-        <v>19</v>
-      </c>
-      <c r="E19" s="17">
-        <v>12</v>
-      </c>
-      <c r="F19" s="17">
-        <v>21.5</v>
-      </c>
-      <c r="G19" s="17">
-        <v>10</v>
-      </c>
-      <c r="H19" s="17">
-        <v>18</v>
-      </c>
-      <c r="I19" s="17">
-        <v>25</v>
-      </c>
-      <c r="J19" s="17">
-        <v>81.48</v>
-      </c>
-      <c r="K19" s="17">
-        <v>31</v>
-      </c>
-      <c r="L19" s="23">
-        <v>31</v>
-      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>20</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="22">
-        <v>220041700021</v>
-      </c>
-      <c r="D20" s="17">
-        <v>4</v>
-      </c>
-      <c r="E20" s="17">
-        <v>11.5</v>
-      </c>
-      <c r="F20" s="17">
-        <v>5.5</v>
-      </c>
-      <c r="G20" s="17">
-        <v>10</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <v>29.63</v>
-      </c>
-      <c r="K20" s="17">
-        <v>17</v>
-      </c>
-      <c r="L20" s="23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>21</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="22">
-        <v>220041700022</v>
-      </c>
-      <c r="D21" s="17">
-        <v>26</v>
-      </c>
-      <c r="E21" s="17">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17">
-        <v>27</v>
-      </c>
-      <c r="G21" s="17">
-        <v>10</v>
-      </c>
-      <c r="H21" s="17">
-        <v>18</v>
-      </c>
-      <c r="I21" s="17">
-        <v>25</v>
-      </c>
-      <c r="J21" s="17">
-        <v>85.19</v>
-      </c>
-      <c r="K21" s="17">
-        <v>37</v>
-      </c>
-      <c r="L21" s="23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>22</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="22">
-        <v>220041700023</v>
-      </c>
-      <c r="D22" s="17">
-        <v>16</v>
-      </c>
-      <c r="E22" s="17">
-        <v>14.5</v>
-      </c>
-      <c r="F22" s="17">
-        <v>26.5</v>
-      </c>
-      <c r="G22" s="17">
-        <v>10</v>
-      </c>
-      <c r="H22" s="17">
-        <v>21</v>
-      </c>
-      <c r="I22" s="17">
-        <v>25</v>
-      </c>
-      <c r="J22" s="17">
-        <v>92.59</v>
-      </c>
-      <c r="K22" s="17">
-        <v>32</v>
-      </c>
-      <c r="L22" s="23">
-        <v>43</v>
-      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>23</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="22">
-        <v>220041700024</v>
-      </c>
-      <c r="D23" s="17">
-        <v>13</v>
-      </c>
-      <c r="E23" s="17">
-        <v>8</v>
-      </c>
-      <c r="F23" s="17">
-        <v>10</v>
-      </c>
-      <c r="G23" s="17">
-        <v>10</v>
-      </c>
-      <c r="H23" s="17">
-        <v>21</v>
-      </c>
-      <c r="I23" s="17">
-        <v>21</v>
-      </c>
-      <c r="J23" s="17">
-        <v>85.19</v>
-      </c>
-      <c r="K23" s="17">
-        <v>22</v>
-      </c>
-      <c r="L23" s="23">
-        <v>28</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>24</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="22">
-        <v>220041700025</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="17">
-        <v>4</v>
-      </c>
-      <c r="F24" s="17">
-        <v>15.5</v>
-      </c>
-      <c r="G24" s="17">
-        <v>10</v>
-      </c>
-      <c r="H24" s="17">
-        <v>9</v>
-      </c>
-      <c r="I24" s="17">
-        <v>25</v>
-      </c>
-      <c r="J24" s="17">
-        <v>48.15</v>
-      </c>
-      <c r="K24" s="17">
-        <v>19</v>
-      </c>
-      <c r="L24" s="23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>25</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="22">
-        <v>220041700026</v>
-      </c>
-      <c r="D25" s="17">
-        <v>7</v>
-      </c>
-      <c r="E25" s="17">
-        <v>8</v>
-      </c>
-      <c r="F25" s="17">
-        <v>13.5</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>25</v>
-      </c>
-      <c r="J25" s="17">
-        <v>48.15</v>
-      </c>
-      <c r="K25" s="17">
-        <v>18</v>
-      </c>
-      <c r="L25" s="23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>26</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="22">
-        <v>220041700027</v>
-      </c>
-      <c r="D26" s="17">
-        <v>12</v>
-      </c>
-      <c r="E26" s="17">
-        <v>12</v>
-      </c>
-      <c r="F26" s="17">
-        <v>17</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>16</v>
-      </c>
-      <c r="I26" s="17">
-        <v>25</v>
-      </c>
-      <c r="J26" s="17">
-        <v>92.59</v>
-      </c>
-      <c r="K26" s="17">
-        <v>24</v>
-      </c>
-      <c r="L26" s="23">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>27</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="22">
-        <v>220041700028</v>
-      </c>
-      <c r="D27" s="17">
-        <v>15</v>
-      </c>
-      <c r="E27" s="17">
-        <v>22</v>
-      </c>
-      <c r="F27" s="17">
-        <v>27</v>
-      </c>
-      <c r="G27" s="17">
-        <v>10</v>
-      </c>
-      <c r="H27" s="17">
-        <v>24</v>
-      </c>
-      <c r="I27" s="17">
-        <v>25</v>
-      </c>
-      <c r="J27" s="17">
-        <v>81.48</v>
-      </c>
-      <c r="K27" s="17">
-        <v>35</v>
-      </c>
-      <c r="L27" s="23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>28</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="22">
-        <v>220041700029</v>
-      </c>
-      <c r="D28" s="17">
-        <v>6</v>
-      </c>
-      <c r="E28" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="F28" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="G28" s="17">
-        <v>10</v>
-      </c>
-      <c r="H28" s="17">
-        <v>16</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
-        <v>59.26</v>
-      </c>
-      <c r="K28" s="17">
-        <v>17</v>
-      </c>
-      <c r="L28" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>29</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="22">
-        <v>220041700030</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="17">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
-        <v>14.81</v>
-      </c>
-      <c r="K29" s="17">
-        <v>6</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>30</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="22">
-        <v>220041700031</v>
-      </c>
-      <c r="D30" s="17">
-        <v>10</v>
-      </c>
-      <c r="E30" s="17">
-        <v>9</v>
-      </c>
-      <c r="F30" s="17">
-        <v>15.5</v>
-      </c>
-      <c r="G30" s="17">
-        <v>10</v>
-      </c>
-      <c r="H30" s="17">
-        <v>13</v>
-      </c>
-      <c r="I30" s="17">
-        <v>25</v>
-      </c>
-      <c r="J30" s="17">
-        <v>81.48</v>
-      </c>
-      <c r="K30" s="17">
-        <v>22</v>
-      </c>
-      <c r="L30" s="23">
-        <v>33</v>
-      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>31</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="22">
-        <v>220041700032</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="17">
-        <v>1</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
-        <v>11.11</v>
-      </c>
-      <c r="K31" s="17">
-        <v>2</v>
-      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>32</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="22">
-        <v>220041700033</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="17">
-        <v>13.5</v>
-      </c>
-      <c r="F32" s="17">
-        <v>12</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
-        <v>16</v>
-      </c>
-      <c r="I32" s="17">
-        <v>25</v>
-      </c>
-      <c r="J32" s="17">
-        <v>59.26</v>
-      </c>
-      <c r="K32" s="17">
-        <v>23</v>
-      </c>
-      <c r="L32" s="23">
-        <v>35</v>
-      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>33</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="22">
-        <v>220041700034</v>
-      </c>
-      <c r="D33" s="17">
-        <v>15.5</v>
-      </c>
-      <c r="E33" s="17">
-        <v>13.5</v>
-      </c>
-      <c r="F33" s="17">
-        <v>12</v>
-      </c>
-      <c r="G33" s="17">
-        <v>10</v>
-      </c>
-      <c r="H33" s="17">
-        <v>20</v>
-      </c>
-      <c r="I33" s="17">
-        <v>25</v>
-      </c>
-      <c r="J33" s="17">
-        <v>77.78</v>
-      </c>
-      <c r="K33" s="17">
-        <v>19</v>
-      </c>
-      <c r="L33" s="23">
-        <v>35</v>
-      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>34</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="22">
-        <v>220041700035</v>
-      </c>
-      <c r="D34" s="17">
-        <v>14</v>
-      </c>
-      <c r="E34" s="17">
-        <v>9</v>
-      </c>
-      <c r="F34" s="17">
-        <v>15</v>
-      </c>
-      <c r="G34" s="17">
-        <v>10</v>
-      </c>
-      <c r="H34" s="17">
-        <v>15</v>
-      </c>
-      <c r="I34" s="17">
-        <v>25</v>
-      </c>
-      <c r="J34" s="17">
-        <v>96.3</v>
-      </c>
-      <c r="K34" s="17">
-        <v>25</v>
-      </c>
-      <c r="L34" s="23">
-        <v>23</v>
-      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>35</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="22">
-        <v>220041700036</v>
-      </c>
-      <c r="D35" s="17">
-        <v>16.5</v>
-      </c>
-      <c r="E35" s="17">
-        <v>16</v>
-      </c>
-      <c r="F35" s="17">
-        <v>21</v>
-      </c>
-      <c r="G35" s="17">
-        <v>0</v>
-      </c>
-      <c r="H35" s="17">
-        <v>24</v>
-      </c>
-      <c r="I35" s="17">
-        <v>25</v>
-      </c>
-      <c r="J35" s="17">
-        <v>77.78</v>
-      </c>
-      <c r="K35" s="17">
-        <v>29</v>
-      </c>
-      <c r="L35" s="23">
-        <v>42</v>
-      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>36</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="22">
-        <v>220041700037</v>
-      </c>
-      <c r="D36" s="17">
-        <v>10</v>
-      </c>
-      <c r="E36" s="17">
-        <v>6</v>
-      </c>
-      <c r="F36" s="17">
-        <v>12</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17">
-        <v>20</v>
-      </c>
-      <c r="I36" s="17">
-        <v>25</v>
-      </c>
-      <c r="J36" s="17">
-        <v>62.96</v>
-      </c>
-      <c r="K36" s="17">
-        <v>21</v>
-      </c>
-      <c r="L36" s="23">
-        <v>22</v>
-      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>37</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="22">
-        <v>220041700038</v>
-      </c>
-      <c r="D37" s="17">
-        <v>13</v>
-      </c>
-      <c r="E37" s="17">
-        <v>8</v>
-      </c>
-      <c r="F37" s="17">
-        <v>6</v>
-      </c>
-      <c r="G37" s="17">
-        <v>10</v>
-      </c>
-      <c r="H37" s="17">
-        <v>21</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
-        <v>74.069999999999993</v>
-      </c>
-      <c r="K37" s="17">
-        <v>21</v>
-      </c>
-      <c r="L37" s="23">
-        <v>23</v>
-      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>38</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="22">
-        <v>220041700039</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="17">
-        <v>3</v>
-      </c>
-      <c r="F38" s="17">
-        <v>18</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0</v>
-      </c>
-      <c r="H38" s="17">
-        <v>14</v>
-      </c>
-      <c r="I38" s="17">
-        <v>24</v>
-      </c>
-      <c r="J38" s="17">
-        <v>66.67</v>
-      </c>
-      <c r="K38" s="17">
-        <v>21</v>
-      </c>
-      <c r="L38" s="23">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>39</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="22">
-        <v>220041700040</v>
-      </c>
-      <c r="D39" s="17">
-        <v>7</v>
-      </c>
-      <c r="E39" s="17">
-        <v>14.5</v>
-      </c>
-      <c r="F39" s="17">
-        <v>12</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0</v>
-      </c>
-      <c r="H39" s="17">
-        <v>21</v>
-      </c>
-      <c r="I39" s="17">
-        <v>25</v>
-      </c>
-      <c r="J39" s="17">
-        <v>92.59</v>
-      </c>
-      <c r="K39" s="17">
-        <v>23</v>
-      </c>
-      <c r="L39" s="23">
-        <v>28</v>
-      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>40</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="22">
-        <v>220041700042</v>
-      </c>
-      <c r="D40" s="17">
-        <v>10</v>
-      </c>
-      <c r="E40" s="17">
-        <v>12</v>
-      </c>
-      <c r="F40" s="17">
-        <v>8</v>
-      </c>
-      <c r="G40" s="17">
-        <v>10</v>
-      </c>
-      <c r="H40" s="17">
-        <v>21</v>
-      </c>
-      <c r="I40" s="17">
-        <v>25</v>
-      </c>
-      <c r="J40" s="17">
-        <v>77.78</v>
-      </c>
-      <c r="K40" s="17">
-        <v>21</v>
-      </c>
-      <c r="L40" s="23">
-        <v>38</v>
-      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>41</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="22">
-        <v>220041700043</v>
-      </c>
-      <c r="D41" s="17">
-        <v>15</v>
-      </c>
-      <c r="E41" s="17">
-        <v>12</v>
-      </c>
-      <c r="F41" s="17">
-        <v>16</v>
-      </c>
-      <c r="G41" s="17">
-        <v>10</v>
-      </c>
-      <c r="H41" s="17">
-        <v>20</v>
-      </c>
-      <c r="I41" s="17">
-        <v>0</v>
-      </c>
-      <c r="J41" s="17">
-        <v>66.67</v>
-      </c>
-      <c r="K41" s="17">
-        <v>26</v>
-      </c>
-      <c r="L41" s="23">
-        <v>52</v>
-      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>42</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="22">
-        <v>220041700044</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="17">
-        <v>7</v>
-      </c>
-      <c r="F42" s="17">
-        <v>13</v>
-      </c>
-      <c r="G42" s="17">
-        <v>0</v>
-      </c>
-      <c r="H42" s="17">
-        <v>21</v>
-      </c>
-      <c r="I42" s="17">
-        <v>25</v>
-      </c>
-      <c r="J42" s="17">
-        <v>62.96</v>
-      </c>
-      <c r="K42" s="17">
-        <v>20</v>
-      </c>
-      <c r="L42" s="23">
-        <v>21</v>
-      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>43</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="22">
-        <v>220041700045</v>
-      </c>
-      <c r="D43" s="17">
-        <v>10</v>
-      </c>
-      <c r="E43" s="17">
-        <v>12.5</v>
-      </c>
-      <c r="F43" s="17">
-        <v>15.5</v>
-      </c>
-      <c r="G43" s="17">
-        <v>10</v>
-      </c>
-      <c r="H43" s="17">
-        <v>21</v>
-      </c>
-      <c r="I43" s="17">
-        <v>25</v>
-      </c>
-      <c r="J43" s="17">
-        <v>55.56</v>
-      </c>
-      <c r="K43" s="17">
-        <v>24</v>
-      </c>
-      <c r="L43" s="23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>44</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="22">
-        <v>220041700046</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="17">
-        <v>5</v>
-      </c>
-      <c r="F44" s="17">
-        <v>19</v>
-      </c>
-      <c r="G44" s="17">
-        <v>10</v>
-      </c>
-      <c r="H44" s="17">
-        <v>16</v>
-      </c>
-      <c r="I44" s="17">
-        <v>21</v>
-      </c>
-      <c r="J44" s="17">
-        <v>51.85</v>
-      </c>
-      <c r="K44" s="17">
-        <v>22</v>
-      </c>
-      <c r="L44" s="23">
-        <v>41</v>
-      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>45</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="22">
-        <v>220041700047</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="17">
-        <v>0</v>
-      </c>
-      <c r="H45" s="17">
-        <v>0</v>
-      </c>
-      <c r="I45" s="17">
-        <v>0</v>
-      </c>
-      <c r="J45" s="17">
-        <v>7.41</v>
-      </c>
-      <c r="K45" s="17">
-        <v>1</v>
-      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>46</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="22">
-        <v>220041700048</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="F46" s="17">
-        <v>12</v>
-      </c>
-      <c r="G46" s="17">
-        <v>10</v>
-      </c>
-      <c r="H46" s="17">
-        <v>9</v>
-      </c>
-      <c r="I46" s="17">
-        <v>0</v>
-      </c>
-      <c r="J46" s="17">
-        <v>18.52</v>
-      </c>
-      <c r="K46" s="17">
-        <v>10</v>
-      </c>
-      <c r="L46" s="23">
-        <v>23</v>
-      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>47</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="22">
-        <v>220041700049</v>
-      </c>
-      <c r="D47" s="17">
-        <v>20</v>
-      </c>
-      <c r="E47" s="17">
-        <v>13</v>
-      </c>
-      <c r="F47" s="17">
-        <v>19</v>
-      </c>
-      <c r="G47" s="17">
-        <v>10</v>
-      </c>
-      <c r="H47" s="17">
-        <v>18</v>
-      </c>
-      <c r="I47" s="17">
-        <v>25</v>
-      </c>
-      <c r="J47" s="17">
-        <v>70.37</v>
-      </c>
-      <c r="K47" s="17">
-        <v>30</v>
-      </c>
-      <c r="L47" s="23">
-        <v>31</v>
-      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>49</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="22">
-        <v>220041700051</v>
-      </c>
-      <c r="D48" s="17">
-        <v>8</v>
-      </c>
-      <c r="E48" s="17">
-        <v>12</v>
-      </c>
-      <c r="F48" s="17">
-        <v>22</v>
-      </c>
-      <c r="G48" s="17">
-        <v>10</v>
-      </c>
-      <c r="H48" s="17">
-        <v>19</v>
-      </c>
-      <c r="I48" s="17">
-        <v>25</v>
-      </c>
-      <c r="J48" s="17">
-        <v>77.78</v>
-      </c>
-      <c r="K48" s="17">
-        <v>27</v>
-      </c>
-      <c r="L48" s="23">
-        <v>30</v>
-      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>50</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="22">
-        <v>220041700052</v>
-      </c>
-      <c r="D49" s="17">
-        <v>16</v>
-      </c>
-      <c r="E49" s="17">
-        <v>5</v>
-      </c>
-      <c r="F49" s="17">
-        <v>13</v>
-      </c>
-      <c r="G49" s="17">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17">
-        <v>13</v>
-      </c>
-      <c r="I49" s="17">
-        <v>0</v>
-      </c>
-      <c r="J49" s="17">
-        <v>77.78</v>
-      </c>
-      <c r="K49" s="17">
-        <v>23</v>
-      </c>
-      <c r="L49" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>51</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="22">
-        <v>220041700053</v>
-      </c>
-      <c r="D50" s="17">
-        <v>4</v>
-      </c>
-      <c r="E50" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="F50" s="17">
-        <v>1</v>
-      </c>
-      <c r="G50" s="17">
-        <v>0</v>
-      </c>
-      <c r="H50" s="17">
-        <v>0</v>
-      </c>
-      <c r="I50" s="17">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17">
-        <v>25.93</v>
-      </c>
-      <c r="K50" s="17">
-        <v>5</v>
-      </c>
-      <c r="L50" s="23">
-        <v>7</v>
-      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>52</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="22">
-        <v>220041700054</v>
-      </c>
-      <c r="D51" s="17">
-        <v>6</v>
-      </c>
-      <c r="E51" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="F51" s="17">
-        <v>9</v>
-      </c>
-      <c r="G51" s="17">
-        <v>10</v>
-      </c>
-      <c r="H51" s="17">
-        <v>21</v>
-      </c>
-      <c r="I51" s="17">
-        <v>25</v>
-      </c>
-      <c r="J51" s="17">
-        <v>88.89</v>
-      </c>
-      <c r="K51" s="17">
-        <v>19</v>
-      </c>
-      <c r="L51" s="23">
-        <v>47</v>
-      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>53</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="22">
-        <v>220041700055</v>
-      </c>
-      <c r="D52" s="17">
-        <v>6</v>
-      </c>
-      <c r="E52" s="17">
-        <v>6</v>
-      </c>
-      <c r="F52" s="17">
-        <v>4</v>
-      </c>
-      <c r="G52" s="17">
-        <v>10</v>
-      </c>
-      <c r="H52" s="17">
-        <v>0</v>
-      </c>
-      <c r="I52" s="17">
-        <v>0</v>
-      </c>
-      <c r="J52" s="17">
-        <v>66.67</v>
-      </c>
-      <c r="K52" s="17">
-        <v>17</v>
-      </c>
-      <c r="L52" s="23">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>54</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="22">
-        <v>220041700056</v>
-      </c>
-      <c r="D53" s="17">
-        <v>8</v>
-      </c>
-      <c r="E53" s="17">
-        <v>9</v>
-      </c>
-      <c r="F53" s="17">
-        <v>10</v>
-      </c>
-      <c r="G53" s="17">
-        <v>10</v>
-      </c>
-      <c r="H53" s="17">
-        <v>17</v>
-      </c>
-      <c r="I53" s="17">
-        <v>25</v>
-      </c>
-      <c r="J53" s="17">
-        <v>66.67</v>
-      </c>
-      <c r="K53" s="17">
-        <v>19</v>
-      </c>
-      <c r="L53" s="23">
-        <v>37</v>
-      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>55</v>
       </c>
-      <c r="B54" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="22">
-        <v>220041700057</v>
-      </c>
-      <c r="D54" s="17">
-        <v>13</v>
-      </c>
-      <c r="E54" s="17">
-        <v>13</v>
-      </c>
-      <c r="F54" s="17">
-        <v>17</v>
-      </c>
-      <c r="G54" s="17">
-        <v>0</v>
-      </c>
-      <c r="H54" s="17">
-        <v>20</v>
-      </c>
-      <c r="I54" s="17">
-        <v>0</v>
-      </c>
-      <c r="J54" s="17">
-        <v>77.78</v>
-      </c>
-      <c r="K54" s="17">
-        <v>25</v>
-      </c>
-      <c r="L54" s="23">
-        <v>21</v>
-      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>56</v>
       </c>
-      <c r="B55" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="22">
-        <v>220041700058</v>
-      </c>
-      <c r="D55" s="17">
-        <v>11</v>
-      </c>
-      <c r="E55" s="17">
-        <v>13</v>
-      </c>
-      <c r="F55" s="17">
-        <v>10</v>
-      </c>
-      <c r="G55" s="17">
-        <v>0</v>
-      </c>
-      <c r="H55" s="17">
-        <v>0</v>
-      </c>
-      <c r="I55" s="17">
-        <v>0</v>
-      </c>
-      <c r="J55" s="17">
-        <v>55.56</v>
-      </c>
-      <c r="K55" s="17">
-        <v>17</v>
-      </c>
-      <c r="L55" s="23">
-        <v>29</v>
-      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>57</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="22">
-        <v>220041700059</v>
-      </c>
-      <c r="D56" s="17">
-        <v>15</v>
-      </c>
-      <c r="E56" s="17">
-        <v>6</v>
-      </c>
-      <c r="F56" s="17">
-        <v>12</v>
-      </c>
-      <c r="G56" s="17">
-        <v>0</v>
-      </c>
-      <c r="H56" s="17">
-        <v>0</v>
-      </c>
-      <c r="I56" s="17">
-        <v>0</v>
-      </c>
-      <c r="J56" s="17">
-        <v>51.85</v>
-      </c>
-      <c r="K56" s="17">
-        <v>19</v>
-      </c>
-      <c r="L56" s="23">
-        <v>10</v>
-      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>58</v>
       </c>
-      <c r="B57" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="22">
-        <v>220041700060</v>
-      </c>
-      <c r="D57" s="17">
-        <v>3</v>
-      </c>
-      <c r="E57" s="17">
-        <v>4</v>
-      </c>
-      <c r="F57" s="17">
-        <v>13</v>
-      </c>
-      <c r="G57" s="17">
-        <v>0</v>
-      </c>
-      <c r="H57" s="17">
-        <v>21</v>
-      </c>
-      <c r="I57" s="17">
-        <v>25</v>
-      </c>
-      <c r="J57" s="17">
-        <v>77.78</v>
-      </c>
-      <c r="K57" s="17">
-        <v>18</v>
-      </c>
-      <c r="L57" s="23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>59</v>
       </c>
-      <c r="B58" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="22">
-        <v>220041700061</v>
-      </c>
-      <c r="D58" s="17">
-        <v>6</v>
-      </c>
-      <c r="E58" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="F58" s="17">
-        <v>15.5</v>
-      </c>
-      <c r="G58" s="17">
-        <v>10</v>
-      </c>
-      <c r="H58" s="17">
-        <v>0</v>
-      </c>
-      <c r="I58" s="17">
-        <v>25</v>
-      </c>
-      <c r="J58" s="17">
-        <v>55.56</v>
-      </c>
-      <c r="K58" s="17">
-        <v>22</v>
-      </c>
-      <c r="L58" s="23">
-        <v>21</v>
-      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>60</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="22">
-        <v>220041700063</v>
-      </c>
-      <c r="D59" s="17">
-        <v>2</v>
-      </c>
-      <c r="E59" s="17">
-        <v>9</v>
-      </c>
-      <c r="F59" s="17">
-        <v>5</v>
-      </c>
-      <c r="G59" s="17">
-        <v>10</v>
-      </c>
-      <c r="H59" s="17">
-        <v>0</v>
-      </c>
-      <c r="I59" s="17">
-        <v>0</v>
-      </c>
-      <c r="J59" s="17">
-        <v>81.48</v>
-      </c>
-      <c r="K59" s="17">
-        <v>19</v>
-      </c>
-      <c r="L59" s="23">
-        <v>30</v>
-      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>61</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="22">
-        <v>220041700064</v>
-      </c>
-      <c r="D60" s="17">
-        <v>6</v>
-      </c>
-      <c r="E60" s="17">
-        <v>3</v>
-      </c>
-      <c r="F60" s="17">
-        <v>14</v>
-      </c>
-      <c r="G60" s="17">
-        <v>0</v>
-      </c>
-      <c r="H60" s="17">
-        <v>20</v>
-      </c>
-      <c r="I60" s="17">
-        <v>19</v>
-      </c>
-      <c r="J60" s="17">
-        <v>51.85</v>
-      </c>
-      <c r="K60" s="17">
-        <v>18</v>
-      </c>
-      <c r="L60" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>62</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="22">
-        <v>220041700065</v>
-      </c>
-      <c r="D61" s="17">
-        <v>10</v>
-      </c>
-      <c r="E61" s="17">
-        <v>11</v>
-      </c>
-      <c r="F61" s="17">
-        <v>10</v>
-      </c>
-      <c r="G61" s="17">
-        <v>10</v>
-      </c>
-      <c r="H61" s="17">
-        <v>18</v>
-      </c>
-      <c r="I61" s="17">
-        <v>25</v>
-      </c>
-      <c r="J61" s="17">
-        <v>70.37</v>
-      </c>
-      <c r="K61" s="17">
-        <v>20</v>
-      </c>
-      <c r="L61" s="23">
-        <v>44</v>
-      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>63</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="22">
-        <v>220041700066</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="17">
-        <v>9</v>
-      </c>
-      <c r="F62" s="17">
-        <v>14</v>
-      </c>
-      <c r="G62" s="17">
-        <v>8</v>
-      </c>
-      <c r="H62" s="17">
-        <v>21</v>
-      </c>
-      <c r="I62" s="17">
-        <v>25</v>
-      </c>
-      <c r="J62" s="17">
-        <v>74.069999999999993</v>
-      </c>
-      <c r="K62" s="17">
-        <v>21</v>
-      </c>
-      <c r="L62" s="23">
-        <v>36</v>
-      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>64</v>
       </c>
-      <c r="B63" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="22">
-        <v>220041700067</v>
-      </c>
-      <c r="D63" s="17">
-        <v>21</v>
-      </c>
-      <c r="E63" s="17">
-        <v>14</v>
-      </c>
-      <c r="F63" s="17">
-        <v>19</v>
-      </c>
-      <c r="G63" s="17">
-        <v>10</v>
-      </c>
-      <c r="H63" s="17">
-        <v>21</v>
-      </c>
-      <c r="I63" s="17">
-        <v>25</v>
-      </c>
-      <c r="J63" s="17">
-        <v>92.59</v>
-      </c>
-      <c r="K63" s="17">
-        <v>30</v>
-      </c>
-      <c r="L63" s="23">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>65</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="22">
-        <v>220041700068</v>
-      </c>
-      <c r="D64" s="17">
-        <v>14</v>
-      </c>
-      <c r="E64" s="17">
-        <v>10</v>
-      </c>
-      <c r="F64" s="17">
-        <v>12</v>
-      </c>
-      <c r="G64" s="17">
-        <v>10</v>
-      </c>
-      <c r="H64" s="17">
-        <v>10</v>
-      </c>
-      <c r="I64" s="17">
-        <v>0</v>
-      </c>
-      <c r="J64" s="17">
-        <v>60.61</v>
-      </c>
-      <c r="K64" s="17">
-        <v>23</v>
-      </c>
-      <c r="L64" s="23">
-        <v>29</v>
-      </c>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>66</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="22">
-        <v>220041700069</v>
-      </c>
-      <c r="D65" s="17">
-        <v>13</v>
-      </c>
-      <c r="E65" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="F65" s="17">
-        <v>15</v>
-      </c>
-      <c r="G65" s="17">
-        <v>0</v>
-      </c>
-      <c r="H65" s="17">
-        <v>10</v>
-      </c>
-      <c r="I65" s="17">
-        <v>25</v>
-      </c>
-      <c r="J65" s="17">
-        <v>57.58</v>
-      </c>
-      <c r="K65" s="17">
-        <v>24</v>
-      </c>
-      <c r="L65" s="23">
-        <v>30</v>
-      </c>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>67</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="22">
-        <v>220041700070</v>
-      </c>
-      <c r="D66" s="17">
-        <v>10</v>
-      </c>
-      <c r="E66" s="17">
-        <v>16</v>
-      </c>
-      <c r="F66" s="17">
-        <v>7</v>
-      </c>
-      <c r="G66" s="17">
-        <v>0</v>
-      </c>
-      <c r="H66" s="17">
-        <v>14</v>
-      </c>
-      <c r="I66" s="17">
-        <v>25</v>
-      </c>
-      <c r="J66" s="17">
-        <v>78.790000000000006</v>
-      </c>
-      <c r="K66" s="17">
-        <v>23</v>
-      </c>
-      <c r="L66" s="23">
-        <v>31</v>
-      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>68</v>
       </c>
-      <c r="B67" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="22">
-        <v>220041700071</v>
-      </c>
-      <c r="D67" s="17">
-        <v>22</v>
-      </c>
-      <c r="E67" s="17">
-        <v>13.5</v>
-      </c>
-      <c r="F67" s="17">
-        <v>23</v>
-      </c>
-      <c r="G67" s="17">
-        <v>10</v>
-      </c>
-      <c r="H67" s="17">
-        <v>17</v>
-      </c>
-      <c r="I67" s="17">
-        <v>25</v>
-      </c>
-      <c r="J67" s="17">
-        <v>100</v>
-      </c>
-      <c r="K67" s="17">
-        <v>33</v>
-      </c>
-      <c r="L67" s="23">
-        <v>43</v>
-      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>69</v>
       </c>
-      <c r="B68" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="22">
-        <v>220041700072</v>
-      </c>
-      <c r="D68" s="17">
-        <v>10</v>
-      </c>
-      <c r="E68" s="17">
-        <v>10.5</v>
-      </c>
-      <c r="F68" s="17">
-        <v>4</v>
-      </c>
-      <c r="G68" s="17">
-        <v>0</v>
-      </c>
-      <c r="H68" s="17">
-        <v>25</v>
-      </c>
-      <c r="I68" s="17">
-        <v>0</v>
-      </c>
-      <c r="J68" s="17">
-        <v>48.48</v>
-      </c>
-      <c r="K68" s="17">
-        <v>20</v>
-      </c>
-      <c r="L68" s="23">
-        <v>28</v>
-      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>70</v>
       </c>
-      <c r="B69" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="22">
-        <v>220041700073</v>
-      </c>
-      <c r="D69" s="17">
-        <v>14</v>
-      </c>
-      <c r="E69" s="17">
-        <v>4</v>
-      </c>
-      <c r="F69" s="17">
-        <v>1</v>
-      </c>
-      <c r="G69" s="17">
-        <v>0</v>
-      </c>
-      <c r="H69" s="17">
-        <v>0</v>
-      </c>
-      <c r="I69" s="17">
-        <v>25</v>
-      </c>
-      <c r="J69" s="17">
-        <v>57.58</v>
-      </c>
-      <c r="K69" s="17">
-        <v>19</v>
-      </c>
-      <c r="L69" s="23">
-        <v>27</v>
-      </c>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>71</v>
       </c>
-      <c r="B70" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="22">
-        <v>220041700074</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="17">
-        <v>12</v>
-      </c>
-      <c r="F70" s="17">
-        <v>20</v>
-      </c>
-      <c r="G70" s="17">
-        <v>0</v>
-      </c>
-      <c r="H70" s="17">
-        <v>17</v>
-      </c>
-      <c r="I70" s="17">
-        <v>0</v>
-      </c>
-      <c r="J70" s="17">
-        <v>57.58</v>
-      </c>
-      <c r="K70" s="17">
-        <v>25</v>
-      </c>
-      <c r="L70" s="23">
-        <v>41</v>
-      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>72</v>
       </c>
-      <c r="B71" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="22">
-        <v>220041700076</v>
-      </c>
-      <c r="D71" s="17">
-        <v>24</v>
-      </c>
-      <c r="E71" s="17">
-        <v>12</v>
-      </c>
-      <c r="F71" s="17">
-        <v>19</v>
-      </c>
-      <c r="G71" s="17">
-        <v>0</v>
-      </c>
-      <c r="H71" s="17">
-        <v>12</v>
-      </c>
-      <c r="I71" s="17">
-        <v>0</v>
-      </c>
-      <c r="J71" s="17">
-        <v>60.61</v>
-      </c>
-      <c r="K71" s="17">
-        <v>28</v>
-      </c>
-      <c r="L71" s="23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>73</v>
       </c>
-      <c r="B72" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="22">
-        <v>220041700077</v>
-      </c>
-      <c r="D72" s="17">
-        <v>18</v>
-      </c>
-      <c r="E72" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="F72" s="17">
-        <v>5</v>
-      </c>
-      <c r="G72" s="17">
-        <v>10</v>
-      </c>
-      <c r="H72" s="17">
-        <v>13</v>
-      </c>
-      <c r="I72" s="17">
-        <v>25</v>
-      </c>
-      <c r="J72" s="17">
-        <v>78.790000000000006</v>
-      </c>
-      <c r="K72" s="17">
-        <v>23</v>
-      </c>
-      <c r="L72" s="23">
-        <v>35</v>
-      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>74</v>
       </c>
-      <c r="B73" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="22">
-        <v>220041700078</v>
-      </c>
-      <c r="D73" s="17">
-        <v>22</v>
-      </c>
-      <c r="E73" s="17">
-        <v>14</v>
-      </c>
-      <c r="F73" s="17">
-        <v>23</v>
-      </c>
-      <c r="G73" s="17">
-        <v>10</v>
-      </c>
-      <c r="H73" s="17">
-        <v>23</v>
-      </c>
-      <c r="I73" s="17">
-        <v>25</v>
-      </c>
-      <c r="J73" s="17">
-        <v>100</v>
-      </c>
-      <c r="K73" s="17">
-        <v>33</v>
-      </c>
-      <c r="L73" s="23">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>75</v>
       </c>
-      <c r="B74" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="22">
-        <v>220041700079</v>
-      </c>
-      <c r="D74" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="E74" s="17">
-        <v>7.5</v>
-      </c>
-      <c r="F74" s="17">
-        <v>15</v>
-      </c>
-      <c r="G74" s="17">
-        <v>10</v>
-      </c>
-      <c r="H74" s="17">
-        <v>10</v>
-      </c>
-      <c r="I74" s="17">
-        <v>0</v>
-      </c>
-      <c r="J74" s="17">
-        <v>78.790000000000006</v>
-      </c>
-      <c r="K74" s="17">
-        <v>21</v>
-      </c>
-      <c r="L74" s="23">
-        <v>23</v>
-      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>76</v>
       </c>
-      <c r="B75" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="22">
-        <v>220041700080</v>
-      </c>
-      <c r="D75" s="17">
-        <v>11</v>
-      </c>
-      <c r="E75" s="17">
-        <v>13</v>
-      </c>
-      <c r="F75" s="17">
-        <v>15</v>
-      </c>
-      <c r="G75" s="17">
-        <v>0</v>
-      </c>
-      <c r="H75" s="17">
-        <v>15</v>
-      </c>
-      <c r="I75" s="17">
-        <v>0</v>
-      </c>
-      <c r="J75" s="17">
-        <v>81.819999999999993</v>
-      </c>
-      <c r="K75" s="17">
-        <v>21</v>
-      </c>
-      <c r="L75" s="23">
-        <v>41</v>
-      </c>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>77</v>
       </c>
-      <c r="B76" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="22">
-        <v>220041700081</v>
-      </c>
-      <c r="D76" s="17">
-        <v>12.5</v>
-      </c>
-      <c r="E76" s="17">
-        <v>11</v>
-      </c>
-      <c r="F76" s="17">
-        <v>14</v>
-      </c>
-      <c r="G76" s="17">
-        <v>0</v>
-      </c>
-      <c r="H76" s="17">
-        <v>0</v>
-      </c>
-      <c r="I76" s="17">
-        <v>25</v>
-      </c>
-      <c r="J76" s="17">
-        <v>63.64</v>
-      </c>
-      <c r="K76" s="17">
-        <v>20</v>
-      </c>
-      <c r="L76" s="23">
-        <v>24</v>
-      </c>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>78</v>
       </c>
-      <c r="B77" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="22">
-        <v>220041700082</v>
-      </c>
-      <c r="D77" s="17">
-        <v>10</v>
-      </c>
-      <c r="E77" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="F77" s="17">
-        <v>1</v>
-      </c>
-      <c r="G77" s="17">
-        <v>0</v>
-      </c>
-      <c r="H77" s="17">
-        <v>0</v>
-      </c>
-      <c r="I77" s="17">
-        <v>0</v>
-      </c>
-      <c r="J77" s="17">
-        <v>21.21</v>
-      </c>
-      <c r="K77" s="17">
-        <v>11</v>
-      </c>
-      <c r="L77" s="23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>79</v>
       </c>
-      <c r="B78" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="22">
-        <v>220041700084</v>
-      </c>
-      <c r="D78" s="17">
-        <v>21.5</v>
-      </c>
-      <c r="E78" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="F78" s="17">
-        <v>16</v>
-      </c>
-      <c r="G78" s="17">
-        <v>0</v>
-      </c>
-      <c r="H78" s="17">
-        <v>13</v>
-      </c>
-      <c r="I78" s="17">
-        <v>25</v>
-      </c>
-      <c r="J78" s="17">
-        <v>66.67</v>
-      </c>
-      <c r="K78" s="17">
-        <v>29</v>
-      </c>
-      <c r="L78" s="23">
-        <v>32</v>
-      </c>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>80</v>
       </c>
-      <c r="B79" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" s="22">
-        <v>220041700085</v>
-      </c>
-      <c r="D79" s="17">
-        <v>10.5</v>
-      </c>
-      <c r="E79" s="17">
-        <v>14.5</v>
-      </c>
-      <c r="F79" s="17">
-        <v>15</v>
-      </c>
-      <c r="G79" s="17">
-        <v>9</v>
-      </c>
-      <c r="H79" s="17">
-        <v>0</v>
-      </c>
-      <c r="I79" s="17">
-        <v>25</v>
-      </c>
-      <c r="J79" s="17">
-        <v>57.58</v>
-      </c>
-      <c r="K79" s="17">
-        <v>25</v>
-      </c>
-      <c r="L79" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>81</v>
       </c>
-      <c r="B80" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="22">
-        <v>220041700086</v>
-      </c>
-      <c r="D80" s="17">
-        <v>14</v>
-      </c>
-      <c r="E80" s="17">
-        <v>11</v>
-      </c>
-      <c r="F80" s="17">
-        <v>12</v>
-      </c>
-      <c r="G80" s="17">
-        <v>0</v>
-      </c>
-      <c r="H80" s="17">
-        <v>12</v>
-      </c>
-      <c r="I80" s="17">
-        <v>25</v>
-      </c>
-      <c r="J80" s="17">
-        <v>75.760000000000005</v>
-      </c>
-      <c r="K80" s="17">
-        <v>23</v>
-      </c>
-      <c r="L80" s="23">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>82</v>
       </c>
-      <c r="B81" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="22">
-        <v>220041700087</v>
-      </c>
-      <c r="D81" s="17">
-        <v>7</v>
-      </c>
-      <c r="E81" s="17">
-        <v>18.5</v>
-      </c>
-      <c r="F81" s="17">
-        <v>17</v>
-      </c>
-      <c r="G81" s="17">
-        <v>0</v>
-      </c>
-      <c r="H81" s="17">
-        <v>12</v>
-      </c>
-      <c r="I81" s="17">
-        <v>25</v>
-      </c>
-      <c r="J81" s="17">
-        <v>30.3</v>
-      </c>
-      <c r="K81" s="17">
-        <v>27</v>
-      </c>
-      <c r="L81" s="23">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>83</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="22">
-        <v>220041700088</v>
-      </c>
-      <c r="D82" s="17">
-        <v>2</v>
-      </c>
-      <c r="E82" s="17">
-        <v>15</v>
-      </c>
-      <c r="F82" s="17">
-        <v>10</v>
-      </c>
-      <c r="G82" s="17">
-        <v>0</v>
-      </c>
-      <c r="H82" s="17">
-        <v>0</v>
-      </c>
-      <c r="I82" s="17">
-        <v>0</v>
-      </c>
-      <c r="J82" s="17">
-        <v>45.45</v>
-      </c>
-      <c r="K82" s="17">
-        <v>17</v>
-      </c>
-      <c r="L82" s="23">
-        <v>26</v>
-      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>84</v>
       </c>
-      <c r="B83" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="22">
-        <v>220041700089</v>
-      </c>
-      <c r="D83" s="17">
-        <v>2</v>
-      </c>
-      <c r="E83" s="17">
-        <v>14</v>
-      </c>
-      <c r="F83" s="17">
-        <v>1</v>
-      </c>
-      <c r="G83" s="17">
-        <v>0</v>
-      </c>
-      <c r="H83" s="17">
-        <v>0</v>
-      </c>
-      <c r="I83" s="17">
-        <v>0</v>
-      </c>
-      <c r="J83" s="17">
-        <v>21.21</v>
-      </c>
-      <c r="K83" s="17">
-        <v>13</v>
-      </c>
-      <c r="L83" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>85</v>
       </c>
-      <c r="B84" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="22">
-        <v>220041700090</v>
-      </c>
-      <c r="D84" s="17">
-        <v>0</v>
-      </c>
-      <c r="E84" s="17">
-        <v>11</v>
-      </c>
-      <c r="F84" s="17">
-        <v>5</v>
-      </c>
-      <c r="G84" s="17">
-        <v>0</v>
-      </c>
-      <c r="H84" s="17">
-        <v>0</v>
-      </c>
-      <c r="I84" s="17">
-        <v>0</v>
-      </c>
-      <c r="J84" s="17">
-        <v>33.33</v>
-      </c>
-      <c r="K84" s="17">
-        <v>14</v>
-      </c>
-      <c r="L84" s="23">
-        <v>7</v>
-      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>86</v>
       </c>
-      <c r="B85" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" s="22">
-        <v>220041700091</v>
-      </c>
-      <c r="D85" s="17">
-        <v>7</v>
-      </c>
-      <c r="E85" s="17">
-        <v>10</v>
-      </c>
-      <c r="F85" s="17">
-        <v>12</v>
-      </c>
-      <c r="G85" s="17">
-        <v>3</v>
-      </c>
-      <c r="H85" s="17">
-        <v>10</v>
-      </c>
-      <c r="I85" s="17">
-        <v>23</v>
-      </c>
-      <c r="J85" s="17">
-        <v>57.58</v>
-      </c>
-      <c r="K85" s="17">
-        <v>21</v>
-      </c>
-      <c r="L85" s="23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>87</v>
       </c>
-      <c r="B86" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" s="22">
-        <v>220041700092</v>
-      </c>
-      <c r="D86" s="17">
-        <v>4</v>
-      </c>
-      <c r="E86" s="17">
-        <v>12.5</v>
-      </c>
-      <c r="F86" s="17">
-        <v>12</v>
-      </c>
-      <c r="G86" s="17">
-        <v>0</v>
-      </c>
-      <c r="H86" s="17">
-        <v>0</v>
-      </c>
-      <c r="I86" s="17">
-        <v>25</v>
-      </c>
-      <c r="J86" s="17">
-        <v>66.67</v>
-      </c>
-      <c r="K86" s="17">
-        <v>22</v>
-      </c>
-      <c r="L86" s="23">
-        <v>28</v>
-      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>88</v>
       </c>
-      <c r="B87" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="22">
-        <v>220041700096</v>
-      </c>
-      <c r="D87" s="17">
-        <v>20</v>
-      </c>
-      <c r="E87" s="17">
-        <v>16</v>
-      </c>
-      <c r="F87" s="17">
-        <v>26</v>
-      </c>
-      <c r="G87" s="17">
-        <v>0</v>
-      </c>
-      <c r="H87" s="17">
-        <v>16</v>
-      </c>
-      <c r="I87" s="17">
-        <v>25</v>
-      </c>
-      <c r="J87" s="17">
-        <v>51.52</v>
-      </c>
-      <c r="K87" s="17">
-        <v>33</v>
-      </c>
-      <c r="L87" s="23">
-        <v>30</v>
-      </c>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>89</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="22">
-        <v>220041700097</v>
-      </c>
-      <c r="D88" s="17">
-        <v>2</v>
-      </c>
-      <c r="E88" s="17">
-        <v>9</v>
-      </c>
-      <c r="F88" s="17">
-        <v>13</v>
-      </c>
-      <c r="G88" s="17">
-        <v>0</v>
-      </c>
-      <c r="H88" s="17">
-        <v>0</v>
-      </c>
-      <c r="I88" s="17">
-        <v>0</v>
-      </c>
-      <c r="J88" s="17">
-        <v>30.3</v>
-      </c>
-      <c r="K88" s="17">
-        <v>16</v>
-      </c>
-      <c r="L88" s="23">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>90</v>
       </c>
-      <c r="B89" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="22">
-        <v>220041700098</v>
-      </c>
-      <c r="D89" s="17">
-        <v>24.5</v>
-      </c>
-      <c r="E89" s="17">
-        <v>11</v>
-      </c>
-      <c r="F89" s="17">
-        <v>17</v>
-      </c>
-      <c r="G89" s="17">
-        <v>10</v>
-      </c>
-      <c r="H89" s="17">
-        <v>16</v>
-      </c>
-      <c r="I89" s="17">
-        <v>20</v>
-      </c>
-      <c r="J89" s="17">
-        <v>84.85</v>
-      </c>
-      <c r="K89" s="17">
-        <v>31</v>
-      </c>
-      <c r="L89" s="23">
-        <v>40</v>
-      </c>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>91</v>
       </c>
-      <c r="B90" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="22">
-        <v>220041700099</v>
-      </c>
-      <c r="D90" s="17">
-        <v>26</v>
-      </c>
-      <c r="E90" s="17">
-        <v>11</v>
-      </c>
-      <c r="F90" s="17">
-        <v>26</v>
-      </c>
-      <c r="G90" s="17">
-        <v>10</v>
-      </c>
-      <c r="H90" s="17">
-        <v>17</v>
-      </c>
-      <c r="I90" s="17">
-        <v>25</v>
-      </c>
-      <c r="J90" s="17">
-        <v>90.91</v>
-      </c>
-      <c r="K90" s="17">
-        <v>36</v>
-      </c>
-      <c r="L90" s="23">
-        <v>43</v>
-      </c>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>92</v>
       </c>
-      <c r="B91" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="22">
-        <v>220041700100</v>
-      </c>
-      <c r="D91" s="17">
-        <v>22</v>
-      </c>
-      <c r="E91" s="17">
-        <v>14</v>
-      </c>
-      <c r="F91" s="17">
-        <v>22</v>
-      </c>
-      <c r="G91" s="17">
-        <v>10</v>
-      </c>
-      <c r="H91" s="17">
-        <v>20</v>
-      </c>
-      <c r="I91" s="17">
-        <v>25</v>
-      </c>
-      <c r="J91" s="17">
-        <v>75.760000000000005</v>
-      </c>
-      <c r="K91" s="17">
-        <v>32</v>
-      </c>
-      <c r="L91" s="23">
-        <v>46</v>
-      </c>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>93</v>
       </c>
-      <c r="B92" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="22">
-        <v>220041700101</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="17">
-        <v>0</v>
-      </c>
-      <c r="H92" s="17">
-        <v>0</v>
-      </c>
-      <c r="I92" s="17">
-        <v>0</v>
-      </c>
-      <c r="J92" s="17">
-        <v>21.21</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
         <v>94</v>
       </c>
-      <c r="B93" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="22">
-        <v>220041700102</v>
-      </c>
-      <c r="D93" s="17">
-        <v>5</v>
-      </c>
-      <c r="E93" s="17">
-        <v>5</v>
-      </c>
-      <c r="F93" s="17">
-        <v>12</v>
-      </c>
-      <c r="G93" s="17">
-        <v>10</v>
-      </c>
-      <c r="H93" s="17">
-        <v>16</v>
-      </c>
-      <c r="I93" s="17">
-        <v>25</v>
-      </c>
-      <c r="J93" s="17">
-        <v>48.48</v>
-      </c>
-      <c r="K93" s="17">
-        <v>20</v>
-      </c>
-      <c r="L93" s="23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>95</v>
       </c>
-      <c r="B94" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" s="22">
-        <v>220041700103</v>
-      </c>
-      <c r="D94" s="17">
-        <v>18</v>
-      </c>
-      <c r="E94" s="17">
-        <v>10</v>
-      </c>
-      <c r="F94" s="17">
-        <v>22</v>
-      </c>
-      <c r="G94" s="17">
-        <v>10</v>
-      </c>
-      <c r="H94" s="17">
-        <v>16</v>
-      </c>
-      <c r="I94" s="17">
-        <v>25</v>
-      </c>
-      <c r="J94" s="17">
-        <v>54.55</v>
-      </c>
-      <c r="K94" s="17">
-        <v>30</v>
-      </c>
-      <c r="L94" s="23">
-        <v>40</v>
-      </c>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>96</v>
       </c>
-      <c r="B95" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="22">
-        <v>220041700104</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="17">
-        <v>12.5</v>
-      </c>
-      <c r="F95" s="17">
-        <v>12</v>
-      </c>
-      <c r="G95" s="17">
-        <v>0</v>
-      </c>
-      <c r="H95" s="17">
-        <v>0</v>
-      </c>
-      <c r="I95" s="17">
-        <v>0</v>
-      </c>
-      <c r="J95" s="17">
-        <v>45.45</v>
-      </c>
-      <c r="K95" s="17">
-        <v>18</v>
-      </c>
-      <c r="L95" s="23">
-        <v>23</v>
-      </c>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>97</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96" s="22">
-        <v>220041700105</v>
-      </c>
-      <c r="D96" s="17">
-        <v>12</v>
-      </c>
-      <c r="E96" s="17">
-        <v>12.5</v>
-      </c>
-      <c r="F96" s="17">
-        <v>17</v>
-      </c>
-      <c r="G96" s="17">
-        <v>10</v>
-      </c>
-      <c r="H96" s="17">
-        <v>23</v>
-      </c>
-      <c r="I96" s="17">
-        <v>25</v>
-      </c>
-      <c r="J96" s="17">
-        <v>81.819999999999993</v>
-      </c>
-      <c r="K96" s="17">
-        <v>25</v>
-      </c>
-      <c r="L96" s="23">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>98</v>
       </c>
-      <c r="B97" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="22">
-        <v>220041700106</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="17">
-        <v>14.5</v>
-      </c>
-      <c r="F97" s="17">
-        <v>23</v>
-      </c>
-      <c r="G97" s="17">
-        <v>0</v>
-      </c>
-      <c r="H97" s="17">
-        <v>15</v>
-      </c>
-      <c r="I97" s="17">
-        <v>20</v>
-      </c>
-      <c r="J97" s="17">
-        <v>72.73</v>
-      </c>
-      <c r="K97" s="17">
-        <v>29</v>
-      </c>
-      <c r="L97" s="23">
-        <v>31</v>
-      </c>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>99</v>
       </c>
-      <c r="B98" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" s="22">
-        <v>220041700107</v>
-      </c>
-      <c r="D98" s="17">
-        <v>13</v>
-      </c>
-      <c r="E98" s="17">
-        <v>13</v>
-      </c>
-      <c r="F98" s="17">
-        <v>23</v>
-      </c>
-      <c r="G98" s="17">
-        <v>0</v>
-      </c>
-      <c r="H98" s="17">
-        <v>22</v>
-      </c>
-      <c r="I98" s="17">
-        <v>25</v>
-      </c>
-      <c r="J98" s="17">
-        <v>69.7</v>
-      </c>
-      <c r="K98" s="17">
-        <v>28</v>
-      </c>
-      <c r="L98" s="23">
-        <v>49</v>
-      </c>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>100</v>
       </c>
-      <c r="B99" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" s="22">
-        <v>220041700108</v>
-      </c>
-      <c r="D99" s="17">
-        <v>5</v>
-      </c>
-      <c r="E99" s="17">
-        <v>9</v>
-      </c>
-      <c r="F99" s="17">
-        <v>10</v>
-      </c>
-      <c r="G99" s="17">
-        <v>0</v>
-      </c>
-      <c r="H99" s="17">
-        <v>0</v>
-      </c>
-      <c r="I99" s="17">
-        <v>0</v>
-      </c>
-      <c r="J99" s="17">
-        <v>60.61</v>
-      </c>
-      <c r="K99" s="17">
-        <v>18</v>
-      </c>
-      <c r="L99" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>101</v>
       </c>
-      <c r="B100" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="22">
-        <v>220041700109</v>
-      </c>
-      <c r="D100" s="17">
-        <v>26</v>
-      </c>
-      <c r="E100" s="17">
-        <v>23.5</v>
-      </c>
-      <c r="F100" s="17">
-        <v>28</v>
-      </c>
-      <c r="G100" s="17">
-        <v>10</v>
-      </c>
-      <c r="H100" s="17">
-        <v>22</v>
-      </c>
-      <c r="I100" s="17">
-        <v>25</v>
-      </c>
-      <c r="J100" s="17">
-        <v>69.7</v>
-      </c>
-      <c r="K100" s="17">
-        <v>37</v>
-      </c>
-      <c r="L100" s="23">
-        <v>50</v>
-      </c>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>102</v>
       </c>
-      <c r="B101" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" s="22">
-        <v>220041700110</v>
-      </c>
-      <c r="D101" s="17">
-        <v>0</v>
-      </c>
-      <c r="E101" s="17">
-        <v>7</v>
-      </c>
-      <c r="F101" s="17">
-        <v>7</v>
-      </c>
-      <c r="G101" s="17">
-        <v>0</v>
-      </c>
-      <c r="H101" s="17">
-        <v>0</v>
-      </c>
-      <c r="I101" s="17">
-        <v>0</v>
-      </c>
-      <c r="J101" s="17">
-        <v>48.48</v>
-      </c>
-      <c r="K101" s="17">
-        <v>12</v>
-      </c>
-      <c r="L101" s="23">
-        <v>26</v>
-      </c>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>103</v>
       </c>
-      <c r="B102" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="22">
-        <v>220041700111</v>
-      </c>
-      <c r="D102" s="17">
-        <v>15</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" s="17">
-        <v>0</v>
-      </c>
-      <c r="H102" s="17">
-        <v>0</v>
-      </c>
-      <c r="I102" s="17">
-        <v>0</v>
-      </c>
-      <c r="J102" s="17">
-        <v>0</v>
-      </c>
-      <c r="K102" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>104</v>
       </c>
-      <c r="B103" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" s="22">
-        <v>220041700112</v>
-      </c>
-      <c r="D103" s="17">
-        <v>15</v>
-      </c>
-      <c r="E103" s="17">
-        <v>19.5</v>
-      </c>
-      <c r="F103" s="17">
-        <v>19</v>
-      </c>
-      <c r="G103" s="17">
-        <v>10</v>
-      </c>
-      <c r="H103" s="17">
-        <v>13</v>
-      </c>
-      <c r="I103" s="17">
-        <v>25</v>
-      </c>
-      <c r="J103" s="17">
-        <v>81.819999999999993</v>
-      </c>
-      <c r="K103" s="17">
-        <v>30</v>
-      </c>
-      <c r="L103" s="23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>105</v>
       </c>
-      <c r="B104" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="22">
-        <v>220041700113</v>
-      </c>
-      <c r="D104" s="17">
-        <v>4</v>
-      </c>
-      <c r="E104" s="17">
-        <v>5</v>
-      </c>
-      <c r="F104" s="17">
-        <v>13</v>
-      </c>
-      <c r="G104" s="17">
-        <v>0</v>
-      </c>
-      <c r="H104" s="17">
-        <v>0</v>
-      </c>
-      <c r="I104" s="17">
-        <v>0</v>
-      </c>
-      <c r="J104" s="17">
-        <v>42.42</v>
-      </c>
-      <c r="K104" s="17">
-        <v>14</v>
-      </c>
-      <c r="L104" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>106</v>
       </c>
-      <c r="B105" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" s="22">
-        <v>220041700115</v>
-      </c>
-      <c r="D105" s="17">
-        <v>14</v>
-      </c>
-      <c r="E105" s="17">
-        <v>16</v>
-      </c>
-      <c r="F105" s="17">
-        <v>15</v>
-      </c>
-      <c r="G105" s="17">
-        <v>0</v>
-      </c>
-      <c r="H105" s="17">
-        <v>0</v>
-      </c>
-      <c r="I105" s="17">
-        <v>0</v>
-      </c>
-      <c r="J105" s="17">
-        <v>42.42</v>
-      </c>
-      <c r="K105" s="17">
-        <v>20</v>
-      </c>
-      <c r="L105" s="23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>107</v>
       </c>
-      <c r="B106" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" s="22">
-        <v>220041700116</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="17">
-        <v>15</v>
-      </c>
-      <c r="F106" s="17">
-        <v>14</v>
-      </c>
-      <c r="G106" s="17">
-        <v>0</v>
-      </c>
-      <c r="H106" s="17">
-        <v>0</v>
-      </c>
-      <c r="I106" s="17">
-        <v>0</v>
-      </c>
-      <c r="J106" s="17">
-        <v>66.67</v>
-      </c>
-      <c r="K106" s="17">
-        <v>20</v>
-      </c>
-      <c r="L106" s="23">
-        <v>30</v>
-      </c>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>108</v>
       </c>
-      <c r="B107" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107" s="22">
-        <v>220041700117</v>
-      </c>
-      <c r="D107" s="17">
-        <v>25</v>
-      </c>
-      <c r="E107" s="17">
-        <v>11.5</v>
-      </c>
-      <c r="F107" s="17">
-        <v>24</v>
-      </c>
-      <c r="G107" s="17">
-        <v>0</v>
-      </c>
-      <c r="H107" s="17">
-        <v>16</v>
-      </c>
-      <c r="I107" s="17">
-        <v>25</v>
-      </c>
-      <c r="J107" s="17">
-        <v>75.760000000000005</v>
-      </c>
-      <c r="K107" s="17">
-        <v>35</v>
-      </c>
-      <c r="L107" s="23">
-        <v>42</v>
-      </c>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>109</v>
       </c>
-      <c r="B108" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" s="22">
-        <v>220041700118</v>
-      </c>
-      <c r="D108" s="17">
-        <v>19</v>
-      </c>
-      <c r="E108" s="17">
-        <v>11</v>
-      </c>
-      <c r="F108" s="17">
-        <v>12</v>
-      </c>
-      <c r="G108" s="17">
-        <v>10</v>
-      </c>
-      <c r="H108" s="17">
-        <v>12</v>
-      </c>
-      <c r="I108" s="17">
-        <v>25</v>
-      </c>
-      <c r="J108" s="17">
-        <v>84.85</v>
-      </c>
-      <c r="K108" s="17">
-        <v>25</v>
-      </c>
-      <c r="L108" s="23">
-        <v>30</v>
-      </c>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="17">
         <v>110</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" s="22">
-        <v>220041700119</v>
-      </c>
-      <c r="D109" s="17">
-        <v>10</v>
-      </c>
-      <c r="E109" s="17">
-        <v>13</v>
-      </c>
-      <c r="F109" s="17">
-        <v>12</v>
-      </c>
-      <c r="G109" s="17">
-        <v>0</v>
-      </c>
-      <c r="H109" s="17">
-        <v>0</v>
-      </c>
-      <c r="I109" s="17">
-        <v>0</v>
-      </c>
-      <c r="J109" s="17">
-        <v>42.42</v>
-      </c>
-      <c r="K109" s="17">
-        <v>17</v>
-      </c>
-      <c r="L109" s="23">
-        <v>22</v>
-      </c>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>111</v>
       </c>
-      <c r="B110" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" s="22">
-        <v>220041700121</v>
-      </c>
-      <c r="D110" s="17">
-        <v>21</v>
-      </c>
-      <c r="E110" s="17">
-        <v>11.5</v>
-      </c>
-      <c r="F110" s="17">
-        <v>16</v>
-      </c>
-      <c r="G110" s="17">
-        <v>10</v>
-      </c>
-      <c r="H110" s="17">
-        <v>18</v>
-      </c>
-      <c r="I110" s="17">
-        <v>25</v>
-      </c>
-      <c r="J110" s="17">
-        <v>81.819999999999993</v>
-      </c>
-      <c r="K110" s="17">
-        <v>28</v>
-      </c>
-      <c r="L110" s="23">
-        <v>41</v>
-      </c>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>112</v>
       </c>
-      <c r="B111" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" s="22">
-        <v>220041700122</v>
-      </c>
-      <c r="D111" s="17">
-        <v>16</v>
-      </c>
-      <c r="E111" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="F111" s="17">
-        <v>15</v>
-      </c>
-      <c r="G111" s="17">
-        <v>0</v>
-      </c>
-      <c r="H111" s="17">
-        <v>14</v>
-      </c>
-      <c r="I111" s="17">
-        <v>25</v>
-      </c>
-      <c r="J111" s="17">
-        <v>69.7</v>
-      </c>
-      <c r="K111" s="17">
-        <v>25</v>
-      </c>
-      <c r="L111" s="23">
-        <v>30</v>
-      </c>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
         <v>113</v>
       </c>
-      <c r="B112" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="22">
-        <v>220041700123</v>
-      </c>
-      <c r="D112" s="17">
-        <v>14</v>
-      </c>
-      <c r="E112" s="17">
-        <v>11</v>
-      </c>
-      <c r="F112" s="17">
-        <v>19</v>
-      </c>
-      <c r="G112" s="17">
-        <v>9</v>
-      </c>
-      <c r="H112" s="17">
-        <v>8</v>
-      </c>
-      <c r="I112" s="17">
-        <v>21</v>
-      </c>
-      <c r="J112" s="17">
-        <v>69.7</v>
-      </c>
-      <c r="K112" s="17">
-        <v>27</v>
-      </c>
-      <c r="L112" s="23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>114</v>
       </c>
-      <c r="B113" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C113" s="22">
-        <v>220041700124</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113" s="17">
-        <v>14</v>
-      </c>
-      <c r="F113" s="17">
-        <v>14</v>
-      </c>
-      <c r="G113" s="17">
-        <v>0</v>
-      </c>
-      <c r="H113" s="17">
-        <v>12</v>
-      </c>
-      <c r="I113" s="17">
-        <v>0</v>
-      </c>
-      <c r="J113" s="17">
-        <v>75.760000000000005</v>
-      </c>
-      <c r="K113" s="17">
-        <v>21</v>
-      </c>
-      <c r="L113" s="23">
-        <v>31</v>
-      </c>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>115</v>
       </c>
-      <c r="B114" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C114" s="22">
-        <v>220041700125</v>
-      </c>
-      <c r="D114" s="17">
-        <v>20</v>
-      </c>
-      <c r="E114" s="17">
-        <v>9</v>
-      </c>
-      <c r="F114" s="17">
-        <v>10</v>
-      </c>
-      <c r="G114" s="17">
-        <v>10</v>
-      </c>
-      <c r="H114" s="17">
-        <v>22</v>
-      </c>
-      <c r="I114" s="17">
-        <v>25</v>
-      </c>
-      <c r="J114" s="17">
-        <v>96.97</v>
-      </c>
-      <c r="K114" s="17">
-        <v>26</v>
-      </c>
-      <c r="L114" s="23">
-        <v>37</v>
-      </c>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>116</v>
       </c>
-      <c r="B115" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" s="22">
-        <v>220041700126</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" s="17">
-        <v>11</v>
-      </c>
-      <c r="F115" s="17">
-        <v>3</v>
-      </c>
-      <c r="G115" s="17">
-        <v>0</v>
-      </c>
-      <c r="H115" s="17">
-        <v>0</v>
-      </c>
-      <c r="I115" s="17">
-        <v>0</v>
-      </c>
-      <c r="J115" s="17">
-        <v>27.27</v>
-      </c>
-      <c r="K115" s="17">
-        <v>12</v>
-      </c>
-      <c r="L115" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>117</v>
       </c>
-      <c r="B116" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C116" s="22">
-        <v>220041700130</v>
-      </c>
-      <c r="D116" s="17">
-        <v>13</v>
-      </c>
-      <c r="E116" s="17">
-        <v>6</v>
-      </c>
-      <c r="F116" s="17">
-        <v>14</v>
-      </c>
-      <c r="G116" s="17">
-        <v>8</v>
-      </c>
-      <c r="H116" s="17">
-        <v>17</v>
-      </c>
-      <c r="I116" s="17">
-        <v>25</v>
-      </c>
-      <c r="J116" s="17">
-        <v>60.61</v>
-      </c>
-      <c r="K116" s="17">
-        <v>23</v>
-      </c>
-      <c r="L116" s="23">
-        <v>31</v>
-      </c>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>118</v>
       </c>
-      <c r="B117" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" s="22">
-        <v>220041700131</v>
-      </c>
-      <c r="D117" s="17">
-        <v>10</v>
-      </c>
-      <c r="E117" s="17">
-        <v>17</v>
-      </c>
-      <c r="F117" s="17">
-        <v>1</v>
-      </c>
-      <c r="G117" s="17">
-        <v>10</v>
-      </c>
-      <c r="H117" s="17">
-        <v>0</v>
-      </c>
-      <c r="I117" s="17">
-        <v>25</v>
-      </c>
-      <c r="J117" s="17">
-        <v>45.45</v>
-      </c>
-      <c r="K117" s="17">
-        <v>23</v>
-      </c>
-      <c r="L117" s="23">
-        <v>38</v>
-      </c>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>119</v>
       </c>
-      <c r="B118" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" s="22">
-        <v>220041700132</v>
-      </c>
-      <c r="D118" s="17">
-        <v>11.5</v>
-      </c>
-      <c r="E118" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="F118" s="17">
-        <v>14</v>
-      </c>
-      <c r="G118" s="17">
-        <v>10</v>
-      </c>
-      <c r="H118" s="17">
-        <v>0</v>
-      </c>
-      <c r="I118" s="17">
-        <v>25</v>
-      </c>
-      <c r="J118" s="17">
-        <v>78.790000000000006</v>
-      </c>
-      <c r="K118" s="17">
-        <v>23</v>
-      </c>
-      <c r="L118" s="23">
-        <v>36</v>
-      </c>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>120</v>
       </c>
-      <c r="B119" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" s="22">
-        <v>220041700133</v>
-      </c>
-      <c r="D119" s="17">
-        <v>15</v>
-      </c>
-      <c r="E119" s="17">
-        <v>11</v>
-      </c>
-      <c r="F119" s="17">
-        <v>12</v>
-      </c>
-      <c r="G119" s="17">
-        <v>10</v>
-      </c>
-      <c r="H119" s="17">
-        <v>19</v>
-      </c>
-      <c r="I119" s="17">
-        <v>25</v>
-      </c>
-      <c r="J119" s="17">
-        <v>72.73</v>
-      </c>
-      <c r="K119" s="17">
-        <v>23</v>
-      </c>
-      <c r="L119" s="23">
-        <v>33</v>
-      </c>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>121</v>
       </c>
-      <c r="B120" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" s="22">
-        <v>220041700134</v>
-      </c>
-      <c r="D120" s="17">
-        <v>3</v>
-      </c>
-      <c r="E120" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="F120" s="17">
-        <v>16</v>
-      </c>
-      <c r="G120" s="17">
-        <v>0</v>
-      </c>
-      <c r="H120" s="17">
-        <v>0</v>
-      </c>
-      <c r="I120" s="17">
-        <v>0</v>
-      </c>
-      <c r="J120" s="17">
-        <v>33.33</v>
-      </c>
-      <c r="K120" s="17">
-        <v>17</v>
-      </c>
-      <c r="L120" s="23">
-        <v>26</v>
-      </c>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D63">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",D3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D120">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",D64)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K120">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
-      <formula>16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L1048576">
+  <conditionalFormatting sqref="L121:L1048576">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>
@@ -5678,20 +3061,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\Teaching\MechanicalCodingThunder.github.io\static\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mech Staff data\Amit Jangra\Website\MechanicalCodingThunder.github.io\static\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="2022" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-I'!$A$2:$L$122</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$2:$C$63</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="191">
   <si>
     <t>S.N</t>
   </si>
@@ -394,12 +395,222 @@
   </si>
   <si>
     <t>Mech 2nd sem WT-I</t>
+  </si>
+  <si>
+    <t>AAKASH</t>
+  </si>
+  <si>
+    <t>AASHISH KUMAR</t>
+  </si>
+  <si>
+    <t>AKANSHI</t>
+  </si>
+  <si>
+    <t>AMIT</t>
+  </si>
+  <si>
+    <t>ANKIT KUMAR</t>
+  </si>
+  <si>
+    <t>ANNU</t>
+  </si>
+  <si>
+    <t>ANSHUL</t>
+  </si>
+  <si>
+    <t>ANURAG</t>
+  </si>
+  <si>
+    <t>ASHISH</t>
+  </si>
+  <si>
+    <t>BHAVISHYA</t>
+  </si>
+  <si>
+    <t>BIJENDER KUMAR</t>
+  </si>
+  <si>
+    <t>BINTU</t>
+  </si>
+  <si>
+    <t>DEEKSHA DEVI</t>
+  </si>
+  <si>
+    <t>DEEPAK</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>DHEERAJ KUMAR</t>
+  </si>
+  <si>
+    <t>DHRUV</t>
+  </si>
+  <si>
+    <t>GOVIND</t>
+  </si>
+  <si>
+    <t>HARSHDEEP</t>
+  </si>
+  <si>
+    <t>HIMAMNSHU NAYAL</t>
+  </si>
+  <si>
+    <t>HUSAIN</t>
+  </si>
+  <si>
+    <t>JASHAN</t>
+  </si>
+  <si>
+    <t>KAMAL</t>
+  </si>
+  <si>
+    <t>KARMJEET</t>
+  </si>
+  <si>
+    <t>KHUSHI SHARMA</t>
+  </si>
+  <si>
+    <t>KRISHAN KANT</t>
+  </si>
+  <si>
+    <t>LALIT KUMAR</t>
+  </si>
+  <si>
+    <t>LUCKY</t>
+  </si>
+  <si>
+    <t>MOHIT</t>
+  </si>
+  <si>
+    <t>MOHIT KUMAR</t>
+  </si>
+  <si>
+    <t>MONU</t>
+  </si>
+  <si>
+    <t>NARENDER</t>
+  </si>
+  <si>
+    <t>NARENDER SAINI</t>
+  </si>
+  <si>
+    <t>NASIB ALI</t>
+  </si>
+  <si>
+    <t>NAVDEEP</t>
+  </si>
+  <si>
+    <t>NEERAJ</t>
+  </si>
+  <si>
+    <t>NIKESH</t>
+  </si>
+  <si>
+    <t>NIKHIL</t>
+  </si>
+  <si>
+    <t>NITIN KUMAR</t>
+  </si>
+  <si>
+    <t>PANKAJ</t>
+  </si>
+  <si>
+    <t>PAWAN KUMAR</t>
+  </si>
+  <si>
+    <t>PRINCE</t>
+  </si>
+  <si>
+    <t>PRINCE KUMAR</t>
+  </si>
+  <si>
+    <t>PRITAM</t>
+  </si>
+  <si>
+    <t>PUNEET</t>
+  </si>
+  <si>
+    <t>RAJESH</t>
+  </si>
+  <si>
+    <t>RAVI KUMAR</t>
+  </si>
+  <si>
+    <t>RAVINDER KUMAR</t>
+  </si>
+  <si>
+    <t>RITU</t>
+  </si>
+  <si>
+    <t>ROHIL JAKHAR</t>
+  </si>
+  <si>
+    <t>ROHIT</t>
+  </si>
+  <si>
+    <t>RUPA KUMARI</t>
+  </si>
+  <si>
+    <t>SAILESH</t>
+  </si>
+  <si>
+    <t>SANDEEP</t>
+  </si>
+  <si>
+    <t>SANJEEV KUMAR</t>
+  </si>
+  <si>
+    <t>SHARAD</t>
+  </si>
+  <si>
+    <t>SIKANDER</t>
+  </si>
+  <si>
+    <t>SOHAN LAL</t>
+  </si>
+  <si>
+    <t>SOMBIR</t>
+  </si>
+  <si>
+    <t>SOURABH</t>
+  </si>
+  <si>
+    <t>SUKHBIR</t>
+  </si>
+  <si>
+    <t>SUKHDEV</t>
+  </si>
+  <si>
+    <t>SUMIT</t>
+  </si>
+  <si>
+    <t>SUNNY</t>
+  </si>
+  <si>
+    <t>SUNNY KUMAR</t>
+  </si>
+  <si>
+    <t>UMESH VERMA</t>
+  </si>
+  <si>
+    <t>VIJAY</t>
+  </si>
+  <si>
+    <t>VINEET</t>
+  </si>
+  <si>
+    <t>YASHPAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,7 +670,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +683,20 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5FFFA"/>
+        <bgColor rgb="FFF5FFFA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -516,11 +739,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,11 +833,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -673,54 +938,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1068,17 +1285,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="21" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="21"/>
     <col min="5" max="6" width="9.140625" style="23"/>
     <col min="7" max="16384" width="9.140625" style="21"/>
@@ -1139,11 +1356,15 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="27">
+        <v>230041700001</v>
+      </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -1154,12 +1375,16 @@
       <c r="K3"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="B4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="29">
+        <v>230041700002</v>
+      </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
@@ -1170,12 +1395,16 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="27">
+        <v>230041700003</v>
+      </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -1187,11 +1416,15 @@
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="B6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="29">
+        <v>230041700004</v>
+      </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
@@ -1203,11 +1436,15 @@
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
+      <c r="B7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="27">
+        <v>230041700005</v>
+      </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -1219,11 +1456,15 @@
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="29">
+        <v>230041700008</v>
+      </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
@@ -1235,11 +1476,15 @@
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="B9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="29">
+        <v>230041700010</v>
+      </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
@@ -1250,12 +1495,16 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="B10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="29">
+        <v>230041700012</v>
+      </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -1267,11 +1516,15 @@
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="34">
         <v>9</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
+      <c r="B11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="27">
+        <v>230041700013</v>
+      </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
@@ -1283,11 +1536,15 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="34">
         <v>10</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="B12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="29">
+        <v>230041700014</v>
+      </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -1299,11 +1556,15 @@
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="34">
         <v>11</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="B13" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="27">
+        <v>230041700015</v>
+      </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
@@ -1315,11 +1576,15 @@
       <c r="L13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="34">
         <v>12</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="B14" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="29">
+        <v>230041700016</v>
+      </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -1331,11 +1596,15 @@
       <c r="L14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="B15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="27">
+        <v>230041700017</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
@@ -1347,11 +1616,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="B16" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="29">
+        <v>230041700018</v>
+      </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -1363,11 +1636,15 @@
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>16</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="27">
+        <v>230041700019</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -1378,12 +1655,16 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>16</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="27">
+        <v>230041700021</v>
+      </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -1394,12 +1675,16 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>19</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>17</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="29">
+        <v>230041700022</v>
+      </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -1411,11 +1696,15 @@
       <c r="L19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>20</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
+      <c r="A20" s="34">
+        <v>18</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="27">
+        <v>230041700023</v>
+      </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -1426,12 +1715,16 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>21</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>19</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="29">
+        <v>230041700024</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -1442,12 +1735,16 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>22</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>20</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="27">
+        <v>230041700025</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -1459,11 +1756,15 @@
       <c r="L22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>23</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
+      <c r="A23" s="34">
+        <v>21</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="29">
+        <v>230041700026</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1474,12 +1775,16 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>24</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>22</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="27">
+        <v>230041700027</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1491,11 +1796,15 @@
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>25</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
+      <c r="A25" s="34">
+        <v>23</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="29">
+        <v>230041700028</v>
+      </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1506,12 +1815,16 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>26</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>24</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="27">
+        <v>230041700029</v>
+      </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -1523,11 +1836,15 @@
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>27</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27"/>
+      <c r="A27" s="34">
+        <v>25</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="29">
+        <v>230041700030</v>
+      </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -1539,11 +1856,15 @@
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>28</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="A28" s="34">
+        <v>26</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="29">
+        <v>230041700032</v>
+      </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -1555,11 +1876,15 @@
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>29</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="A29" s="34">
+        <v>27</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="27">
+        <v>230041700033</v>
+      </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -1570,12 +1895,16 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>30</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>28</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="29">
+        <v>230041700034</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -1587,11 +1916,15 @@
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <v>31</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
+      <c r="A31" s="34">
+        <v>29</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="27">
+        <v>230041700035</v>
+      </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -1602,12 +1935,16 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>32</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>30</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="29">
+        <v>230041700036</v>
+      </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -1618,12 +1955,16 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>33</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>31</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="27">
+        <v>230041700037</v>
+      </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -1634,12 +1975,16 @@
       <c r="K33"/>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>34</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="29">
+        <v>230041700038</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -1650,12 +1995,16 @@
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>35</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>33</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="27">
+        <v>230041700039</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -1667,11 +2016,15 @@
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>36</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
+      <c r="A36" s="34">
+        <v>34</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="29">
+        <v>230041700040</v>
+      </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
@@ -1683,11 +2036,15 @@
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <v>37</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37"/>
+      <c r="A37" s="34">
+        <v>35</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="27">
+        <v>230041700041</v>
+      </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -1699,11 +2056,15 @@
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>38</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38"/>
+      <c r="A38" s="34">
+        <v>36</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="29">
+        <v>230041700042</v>
+      </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -1715,11 +2076,15 @@
       <c r="L38"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
-        <v>39</v>
-      </c>
-      <c r="B39"/>
-      <c r="C39"/>
+      <c r="A39" s="34">
+        <v>37</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="27">
+        <v>230041700043</v>
+      </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
@@ -1731,11 +2096,15 @@
       <c r="L39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <v>40</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40"/>
+      <c r="A40" s="34">
+        <v>38</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="29">
+        <v>230041700044</v>
+      </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
@@ -1746,12 +2115,16 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <v>41</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41"/>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>39</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="27">
+        <v>230041700045</v>
+      </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -1763,11 +2136,15 @@
       <c r="L41"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
-        <v>42</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42"/>
+      <c r="A42" s="34">
+        <v>40</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="29">
+        <v>230041700046</v>
+      </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
@@ -1778,12 +2155,16 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <v>43</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43"/>
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>41</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="27">
+        <v>230041700047</v>
+      </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
@@ -1794,12 +2175,16 @@
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <v>44</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44"/>
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
+        <v>42</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="29">
+        <v>230041700048</v>
+      </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
@@ -1811,11 +2196,15 @@
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
-        <v>45</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
+      <c r="A45" s="34">
+        <v>43</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="29">
+        <v>230041700050</v>
+      </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
@@ -1826,12 +2215,16 @@
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
-        <v>46</v>
-      </c>
-      <c r="B46"/>
-      <c r="C46"/>
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>44</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="27">
+        <v>230041700051</v>
+      </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -1843,11 +2236,15 @@
       <c r="L46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
-        <v>47</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47"/>
+      <c r="A47" s="34">
+        <v>45</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="29">
+        <v>230041700052</v>
+      </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -1859,11 +2256,15 @@
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <v>49</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
+      <c r="A48" s="34">
+        <v>46</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="27">
+        <v>230041700053</v>
+      </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
@@ -1875,11 +2276,15 @@
       <c r="L48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
-        <v>50</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49"/>
+      <c r="A49" s="34">
+        <v>47</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="29">
+        <v>230041700056</v>
+      </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -1891,11 +2296,15 @@
       <c r="L49"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
-        <v>51</v>
-      </c>
-      <c r="B50"/>
-      <c r="C50"/>
+      <c r="A50" s="34">
+        <v>48</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="27">
+        <v>230041700057</v>
+      </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
@@ -1906,12 +2315,16 @@
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
-        <v>52</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51"/>
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
+        <v>49</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="29">
+        <v>230041700058</v>
+      </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
@@ -1923,11 +2336,15 @@
       <c r="L51"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
-        <v>53</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52"/>
+      <c r="A52" s="34">
+        <v>50</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="27">
+        <v>230041700059</v>
+      </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
@@ -1939,11 +2356,15 @@
       <c r="L52"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
-        <v>54</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
+      <c r="A53" s="34">
+        <v>51</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="29">
+        <v>230041700060</v>
+      </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
@@ -1954,12 +2375,16 @@
       <c r="K53"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
-        <v>55</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="34">
+        <v>52</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="27">
+        <v>230041700061</v>
+      </c>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
@@ -1971,11 +2396,15 @@
       <c r="L54"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
-        <v>56</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
+      <c r="A55" s="34">
+        <v>53</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="29">
+        <v>230041700062</v>
+      </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
@@ -1986,12 +2415,16 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
-        <v>57</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56"/>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
+        <v>54</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="27">
+        <v>230041700063</v>
+      </c>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
@@ -2002,12 +2435,16 @@
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
-        <v>58</v>
-      </c>
-      <c r="B57"/>
-      <c r="C57"/>
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
+        <v>55</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="29">
+        <v>230041700064</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
@@ -2018,12 +2455,16 @@
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
-        <v>59</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58"/>
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
+        <v>56</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="27">
+        <v>230041700065</v>
+      </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
@@ -2034,12 +2475,16 @@
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
-        <v>60</v>
-      </c>
-      <c r="B59"/>
-      <c r="C59"/>
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
+        <v>57</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="29">
+        <v>230041700066</v>
+      </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
@@ -2050,12 +2495,16 @@
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
-        <v>61</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
+    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="34">
+        <v>58</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="27">
+        <v>230041700067</v>
+      </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
@@ -2067,11 +2516,15 @@
       <c r="L60"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
-        <v>62</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61"/>
+      <c r="A61" s="34">
+        <v>59</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="29">
+        <v>230041700068</v>
+      </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -2083,11 +2536,15 @@
       <c r="L61"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
-        <v>63</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
+      <c r="A62" s="34">
+        <v>60</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="27">
+        <v>230041700069</v>
+      </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
@@ -2099,11 +2556,15 @@
       <c r="L62"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
-        <v>64</v>
-      </c>
-      <c r="B63"/>
-      <c r="C63"/>
+      <c r="A63" s="34">
+        <v>61</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="31">
+        <v>230041700070</v>
+      </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
@@ -2114,12 +2575,16 @@
       <c r="K63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
-        <v>65</v>
-      </c>
-      <c r="B64"/>
-      <c r="C64"/>
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
+        <v>62</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="33">
+        <v>230041700071</v>
+      </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
@@ -2131,11 +2596,15 @@
       <c r="L64"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
-        <v>66</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
+      <c r="A65" s="34">
+        <v>63</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="31">
+        <v>230041700072</v>
+      </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65"/>
@@ -2146,12 +2615,16 @@
       <c r="K65"/>
       <c r="L65"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="34">
+        <v>64</v>
+      </c>
+      <c r="B66" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B66"/>
-      <c r="C66"/>
+      <c r="C66" s="33">
+        <v>230041700073</v>
+      </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
@@ -2162,12 +2635,16 @@
       <c r="K66"/>
       <c r="L66"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
-        <v>68</v>
-      </c>
-      <c r="B67"/>
-      <c r="C67"/>
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="34">
+        <v>65</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="31">
+        <v>230041700074</v>
+      </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
@@ -2178,12 +2655,16 @@
       <c r="K67"/>
       <c r="L67"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
-        <v>69</v>
-      </c>
-      <c r="B68"/>
-      <c r="C68"/>
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
+        <v>66</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="33">
+        <v>230041700075</v>
+      </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
@@ -2194,12 +2675,16 @@
       <c r="K68"/>
       <c r="L68"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
-        <v>70</v>
-      </c>
-      <c r="B69"/>
-      <c r="C69"/>
+    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="34">
+        <v>67</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="31">
+        <v>230041700076</v>
+      </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
@@ -2211,11 +2696,15 @@
       <c r="L69"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
-        <v>71</v>
-      </c>
-      <c r="B70"/>
-      <c r="C70"/>
+      <c r="A70" s="34">
+        <v>68</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="33">
+        <v>230041700077</v>
+      </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
@@ -2226,12 +2715,16 @@
       <c r="K70"/>
       <c r="L70"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
-        <v>72</v>
-      </c>
-      <c r="B71"/>
-      <c r="C71"/>
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="34">
+        <v>69</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="31">
+        <v>230041700078</v>
+      </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
@@ -2243,11 +2736,15 @@
       <c r="L71"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
-        <v>73</v>
-      </c>
-      <c r="B72"/>
-      <c r="C72"/>
+      <c r="A72" s="34">
+        <v>70</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="33">
+        <v>230041700079</v>
+      </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
@@ -2259,11 +2756,15 @@
       <c r="L72"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
-        <v>74</v>
-      </c>
-      <c r="B73"/>
-      <c r="C73"/>
+      <c r="A73" s="34">
+        <v>71</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="31">
+        <v>230041700080</v>
+      </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
@@ -2275,11 +2776,15 @@
       <c r="L73"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
-        <v>75</v>
-      </c>
-      <c r="B74"/>
-      <c r="C74"/>
+      <c r="A74" s="34">
+        <v>72</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="33">
+        <v>230041700081</v>
+      </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
@@ -2291,11 +2796,15 @@
       <c r="L74"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
-        <v>76</v>
-      </c>
-      <c r="B75"/>
-      <c r="C75"/>
+      <c r="A75" s="34">
+        <v>73</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="31">
+        <v>230041700082</v>
+      </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
@@ -2307,11 +2816,15 @@
       <c r="L75"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
-        <v>77</v>
-      </c>
-      <c r="B76"/>
-      <c r="C76"/>
+      <c r="A76" s="34">
+        <v>74</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="33">
+        <v>230041700083</v>
+      </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
@@ -2323,11 +2836,15 @@
       <c r="L76"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="17">
-        <v>78</v>
-      </c>
-      <c r="B77"/>
-      <c r="C77"/>
+      <c r="A77" s="34">
+        <v>75</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="31">
+        <v>230041700084</v>
+      </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
@@ -2338,12 +2855,16 @@
       <c r="K77"/>
       <c r="L77"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
-        <v>79</v>
-      </c>
-      <c r="B78"/>
-      <c r="C78"/>
+    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="34">
+        <v>76</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="31">
+        <v>230041700086</v>
+      </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
@@ -2354,12 +2875,16 @@
       <c r="K78"/>
       <c r="L78"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="17">
-        <v>80</v>
-      </c>
-      <c r="B79"/>
-      <c r="C79"/>
+    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="34">
+        <v>77</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="33">
+        <v>230041700087</v>
+      </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
@@ -2371,11 +2896,15 @@
       <c r="L79"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
-        <v>81</v>
-      </c>
-      <c r="B80"/>
-      <c r="C80"/>
+      <c r="A80" s="34">
+        <v>78</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="31">
+        <v>230041700088</v>
+      </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
@@ -2386,12 +2915,16 @@
       <c r="K80"/>
       <c r="L80"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
-        <v>82</v>
-      </c>
-      <c r="B81"/>
-      <c r="C81"/>
+    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="34">
+        <v>79</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="33">
+        <v>230041700089</v>
+      </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
@@ -2403,11 +2936,15 @@
       <c r="L81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
-        <v>83</v>
-      </c>
-      <c r="B82"/>
-      <c r="C82"/>
+      <c r="A82" s="34">
+        <v>80</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="31">
+        <v>230041700090</v>
+      </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
@@ -2419,11 +2956,15 @@
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="17">
-        <v>84</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83"/>
+      <c r="A83" s="34">
+        <v>81</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="33">
+        <v>230041700091</v>
+      </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
@@ -2435,11 +2976,15 @@
       <c r="L83"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
-        <v>85</v>
-      </c>
-      <c r="B84"/>
-      <c r="C84"/>
+      <c r="A84" s="34">
+        <v>82</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="31">
+        <v>230041700092</v>
+      </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
@@ -2451,11 +2996,15 @@
       <c r="L84"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="17">
-        <v>86</v>
-      </c>
-      <c r="B85"/>
-      <c r="C85"/>
+      <c r="A85" s="34">
+        <v>83</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="33">
+        <v>230041700093</v>
+      </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
@@ -2466,12 +3015,16 @@
       <c r="K85"/>
       <c r="L85"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
-        <v>87</v>
-      </c>
-      <c r="B86"/>
-      <c r="C86"/>
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="34">
+        <v>84</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="31">
+        <v>230041700094</v>
+      </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
@@ -2482,12 +3035,16 @@
       <c r="K86"/>
       <c r="L86"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="17">
-        <v>88</v>
-      </c>
-      <c r="B87"/>
-      <c r="C87"/>
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="34">
+        <v>85</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="33">
+        <v>230041700095</v>
+      </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
@@ -2498,12 +3055,16 @@
       <c r="K87"/>
       <c r="L87"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
-        <v>89</v>
-      </c>
-      <c r="B88"/>
-      <c r="C88"/>
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="34">
+        <v>86</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="31">
+        <v>230041700096</v>
+      </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
@@ -2515,11 +3076,15 @@
       <c r="L88"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="17">
-        <v>90</v>
-      </c>
-      <c r="B89"/>
-      <c r="C89"/>
+      <c r="A89" s="34">
+        <v>87</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="33">
+        <v>230041700097</v>
+      </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
@@ -2531,11 +3096,15 @@
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="17">
-        <v>91</v>
-      </c>
-      <c r="B90"/>
-      <c r="C90"/>
+      <c r="A90" s="34">
+        <v>88</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="31">
+        <v>230041700098</v>
+      </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
@@ -2547,11 +3116,15 @@
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
-        <v>92</v>
-      </c>
-      <c r="B91"/>
-      <c r="C91"/>
+      <c r="A91" s="34">
+        <v>89</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="33">
+        <v>230041700099</v>
+      </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
@@ -2563,11 +3136,15 @@
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
-        <v>93</v>
-      </c>
-      <c r="B92"/>
-      <c r="C92"/>
+      <c r="A92" s="34">
+        <v>90</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="31">
+        <v>230041700100</v>
+      </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
@@ -2579,11 +3156,15 @@
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
-        <v>94</v>
-      </c>
-      <c r="B93"/>
-      <c r="C93"/>
+      <c r="A93" s="34">
+        <v>91</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="33">
+        <v>230041700101</v>
+      </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
@@ -2595,11 +3176,15 @@
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
-        <v>95</v>
-      </c>
-      <c r="B94"/>
-      <c r="C94"/>
+      <c r="A94" s="34">
+        <v>92</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="31">
+        <v>230041700102</v>
+      </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
@@ -2611,11 +3196,15 @@
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
-        <v>96</v>
-      </c>
-      <c r="B95"/>
-      <c r="C95"/>
+      <c r="A95" s="34">
+        <v>93</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="33">
+        <v>230041700103</v>
+      </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
@@ -2627,11 +3216,15 @@
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
-        <v>97</v>
-      </c>
-      <c r="B96"/>
-      <c r="C96"/>
+      <c r="A96" s="34">
+        <v>94</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" s="31">
+        <v>230041700104</v>
+      </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
@@ -2642,12 +3235,16 @@
       <c r="K96"/>
       <c r="L96"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
-        <v>98</v>
-      </c>
-      <c r="B97"/>
-      <c r="C97"/>
+    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="34">
+        <v>95</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="33">
+        <v>230041700105</v>
+      </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
@@ -2658,12 +3255,16 @@
       <c r="K97"/>
       <c r="L97"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
-        <v>99</v>
-      </c>
-      <c r="B98"/>
-      <c r="C98"/>
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="34">
+        <v>96</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" s="31">
+        <v>230041700106</v>
+      </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
@@ -2675,11 +3276,15 @@
       <c r="L98"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="17">
-        <v>100</v>
-      </c>
-      <c r="B99"/>
-      <c r="C99"/>
+      <c r="A99" s="34">
+        <v>97</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" s="31">
+        <v>230041700108</v>
+      </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99"/>
@@ -2690,12 +3295,16 @@
       <c r="K99"/>
       <c r="L99"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="17">
-        <v>101</v>
-      </c>
-      <c r="B100"/>
-      <c r="C100"/>
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="34">
+        <v>98</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="33">
+        <v>230041700109</v>
+      </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100"/>
@@ -2706,12 +3315,16 @@
       <c r="K100"/>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
-        <v>102</v>
-      </c>
-      <c r="B101"/>
-      <c r="C101"/>
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="34">
+        <v>99</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="31">
+        <v>230041700110</v>
+      </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
@@ -2722,12 +3335,16 @@
       <c r="K101"/>
       <c r="L101"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="17">
-        <v>103</v>
-      </c>
-      <c r="B102"/>
-      <c r="C102"/>
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="34">
+        <v>100</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="33">
+        <v>230041700111</v>
+      </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
@@ -2738,12 +3355,16 @@
       <c r="K102"/>
       <c r="L102"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
-        <v>104</v>
-      </c>
-      <c r="B103"/>
-      <c r="C103"/>
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="34">
+        <v>101</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="31">
+        <v>230041700112</v>
+      </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
@@ -2755,11 +3376,15 @@
       <c r="L103"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="17">
-        <v>105</v>
-      </c>
-      <c r="B104"/>
-      <c r="C104"/>
+      <c r="A104" s="34">
+        <v>102</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="33">
+        <v>230041700113</v>
+      </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -2771,11 +3396,15 @@
       <c r="L104"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
-        <v>106</v>
-      </c>
-      <c r="B105"/>
-      <c r="C105"/>
+      <c r="A105" s="34">
+        <v>103</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="33">
+        <v>230041700115</v>
+      </c>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
@@ -2786,12 +3415,16 @@
       <c r="K105"/>
       <c r="L105"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="17">
-        <v>107</v>
-      </c>
-      <c r="B106"/>
-      <c r="C106"/>
+    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="34">
+        <v>104</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="31">
+        <v>230041700116</v>
+      </c>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
@@ -2803,11 +3436,15 @@
       <c r="L106"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="17">
-        <v>108</v>
-      </c>
-      <c r="B107"/>
-      <c r="C107"/>
+      <c r="A107" s="34">
+        <v>105</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="33">
+        <v>230041700117</v>
+      </c>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
@@ -2818,12 +3455,16 @@
       <c r="K107"/>
       <c r="L107"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="17">
-        <v>109</v>
-      </c>
-      <c r="B108"/>
-      <c r="C108"/>
+    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="34">
+        <v>106</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="31">
+        <v>230041700118</v>
+      </c>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
@@ -2835,11 +3476,15 @@
       <c r="L108"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="17">
-        <v>110</v>
-      </c>
-      <c r="B109"/>
-      <c r="C109"/>
+      <c r="A109" s="34">
+        <v>107</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="33">
+        <v>230041700119</v>
+      </c>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
@@ -2851,11 +3496,15 @@
       <c r="L109"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="17">
-        <v>111</v>
-      </c>
-      <c r="B110"/>
-      <c r="C110"/>
+      <c r="A110" s="34">
+        <v>108</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" s="31">
+        <v>230041700120</v>
+      </c>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
@@ -2866,12 +3515,16 @@
       <c r="K110"/>
       <c r="L110"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="17">
-        <v>112</v>
-      </c>
-      <c r="B111"/>
-      <c r="C111"/>
+    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="34">
+        <v>109</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="33">
+        <v>230041700121</v>
+      </c>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
@@ -2883,11 +3536,15 @@
       <c r="L111"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="17">
-        <v>113</v>
-      </c>
-      <c r="B112"/>
-      <c r="C112"/>
+      <c r="A112" s="34">
+        <v>110</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C112" s="31">
+        <v>230041700122</v>
+      </c>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
@@ -2898,12 +3555,16 @@
       <c r="K112"/>
       <c r="L112"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="17">
-        <v>114</v>
-      </c>
-      <c r="B113"/>
-      <c r="C113"/>
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="34">
+        <v>111</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="33">
+        <v>230041700123</v>
+      </c>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
@@ -2914,12 +3575,16 @@
       <c r="K113"/>
       <c r="L113"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="17">
-        <v>115</v>
-      </c>
-      <c r="B114"/>
-      <c r="C114"/>
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="34">
+        <v>112</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="31">
+        <v>230041700124</v>
+      </c>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
@@ -2931,11 +3596,15 @@
       <c r="L114"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="17">
-        <v>116</v>
-      </c>
-      <c r="B115"/>
-      <c r="C115"/>
+      <c r="A115" s="34">
+        <v>113</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="31">
+        <v>230041700126</v>
+      </c>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
@@ -2947,11 +3616,15 @@
       <c r="L115"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="17">
-        <v>117</v>
-      </c>
-      <c r="B116"/>
-      <c r="C116"/>
+      <c r="A116" s="34">
+        <v>114</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" s="33">
+        <v>230041700127</v>
+      </c>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
@@ -2963,11 +3636,15 @@
       <c r="L116"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="17">
-        <v>118</v>
-      </c>
-      <c r="B117"/>
-      <c r="C117"/>
+      <c r="A117" s="34">
+        <v>115</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" s="31">
+        <v>230041700128</v>
+      </c>
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117"/>
@@ -2979,11 +3656,15 @@
       <c r="L117"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="17">
-        <v>119</v>
-      </c>
-      <c r="B118"/>
-      <c r="C118"/>
+      <c r="A118" s="34">
+        <v>116</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="33">
+        <v>230041700129</v>
+      </c>
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118"/>
@@ -2995,11 +3676,15 @@
       <c r="L118"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="17">
-        <v>120</v>
-      </c>
-      <c r="B119"/>
-      <c r="C119"/>
+      <c r="A119" s="34">
+        <v>117</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="33">
+        <v>230041700131</v>
+      </c>
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119"/>
@@ -3011,26 +3696,43 @@
       <c r="L119"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="17">
-        <v>121</v>
-      </c>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
+      <c r="A120" s="34">
+        <v>118</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" s="31">
+        <v>230041700132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="34">
+        <v>119</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="31">
+        <v>230041700134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="34">
+        <v>120</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" s="31">
+        <v>230041700136</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L121:L1048576">
+  <conditionalFormatting sqref="L120:L1048576">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-I'!$A$2:$L$122</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$2:$C$63</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -758,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,12 +827,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -845,20 +839,14 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,7 +1276,7 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,20 +1290,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -1356,2376 +1344,2619 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="25">
         <v>230041700001</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>230041700002</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>230041700003</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>230041700004</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>230041700005</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>230041700008</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>230041700010</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <v>230041700012</v>
       </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>230041700013</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="28">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>230041700014</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="28">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>230041700015</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="28">
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="27">
         <v>230041700016</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="28">
         <v>13</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="25">
         <v>230041700017</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="28">
         <v>14</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="27">
         <v>230041700018</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="28">
         <v>15</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <v>230041700019</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="28">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <v>230041700021</v>
       </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
         <v>17</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>230041700022</v>
       </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="28">
         <v>18</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="25">
         <v>230041700023</v>
       </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="28">
         <v>19</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="27">
         <v>230041700024</v>
       </c>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="28">
         <v>20</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="25">
         <v>230041700025</v>
       </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="28">
         <v>21</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="27">
         <v>230041700026</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="28">
         <v>22</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="25">
         <v>230041700027</v>
       </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="28">
         <v>23</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <v>230041700028</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="28">
         <v>24</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="25">
         <v>230041700029</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="28">
         <v>25</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="27">
         <v>230041700030</v>
       </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="28">
         <v>26</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="27">
         <v>230041700032</v>
       </c>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="28">
         <v>27</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="25">
         <v>230041700033</v>
       </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
         <v>28</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="27">
         <v>230041700034</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="28">
         <v>29</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="25">
         <v>230041700035</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="28">
         <v>30</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="27">
         <v>230041700036</v>
       </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="28">
         <v>31</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="25">
         <v>230041700037</v>
       </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="28">
         <v>32</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="27">
         <v>230041700038</v>
       </c>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="28">
         <v>33</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="25">
         <v>230041700039</v>
       </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="28">
         <v>34</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="27">
         <v>230041700040</v>
       </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="28">
         <v>35</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="25">
         <v>230041700041</v>
       </c>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="28">
         <v>36</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="27">
         <v>230041700042</v>
       </c>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="28">
         <v>37</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="25">
         <v>230041700043</v>
       </c>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="A40" s="28">
         <v>38</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="27">
         <v>230041700044</v>
       </c>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+      <c r="A41" s="28">
         <v>39</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="25">
         <v>230041700045</v>
       </c>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="28">
         <v>40</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="27">
         <v>230041700046</v>
       </c>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="28">
         <v>41</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="25">
         <v>230041700047</v>
       </c>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="A44" s="28">
         <v>42</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="27">
         <v>230041700048</v>
       </c>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>5</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
+      <c r="A45" s="28">
         <v>43</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="27">
         <v>230041700050</v>
       </c>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+      <c r="A46" s="28">
         <v>44</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="25">
         <v>230041700051</v>
       </c>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
+      <c r="A47" s="28">
         <v>45</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="27">
         <v>230041700052</v>
       </c>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+      <c r="A48" s="28">
         <v>46</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="25">
         <v>230041700053</v>
       </c>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+      <c r="A49" s="28">
         <v>47</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="27">
         <v>230041700056</v>
       </c>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+      <c r="A50" s="28">
         <v>48</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="25">
         <v>230041700057</v>
       </c>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-    </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
         <v>49</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="27">
         <v>230041700058</v>
       </c>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
+      <c r="A52" s="28">
         <v>50</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="25">
         <v>230041700059</v>
       </c>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
+      <c r="A53" s="28">
         <v>51</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="27">
         <v>230041700060</v>
       </c>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
+      <c r="A54" s="28">
         <v>52</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="25">
         <v>230041700061</v>
       </c>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+      <c r="A55" s="28">
         <v>53</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="27">
         <v>230041700062</v>
       </c>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
+      <c r="A56" s="28">
         <v>54</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="25">
         <v>230041700063</v>
       </c>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="34">
+      <c r="A57" s="28">
         <v>55</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="27">
         <v>230041700064</v>
       </c>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
+      <c r="A58" s="28">
         <v>56</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="25">
         <v>230041700065</v>
       </c>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-    </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
         <v>57</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="27">
         <v>230041700066</v>
       </c>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-    </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
         <v>58</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="25">
         <v>230041700067</v>
       </c>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
+      <c r="A61" s="28">
         <v>59</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C61" s="29">
+      <c r="C61" s="27">
         <v>230041700068</v>
       </c>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
+      <c r="A62" s="28">
         <v>60</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="25">
         <v>230041700069</v>
       </c>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="34">
+      <c r="A63" s="28">
         <v>61</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="27">
         <v>230041700070</v>
       </c>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
+      <c r="A64" s="28">
         <v>62</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="25">
         <v>230041700071</v>
       </c>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="34">
+      <c r="A65" s="28">
         <v>63</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="27">
         <v>230041700072</v>
       </c>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-    </row>
-    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="34">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
         <v>64</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="25">
         <v>230041700073</v>
       </c>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
         <v>65</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="27">
         <v>230041700074</v>
       </c>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-    </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="28">
         <v>66</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="25">
         <v>230041700075</v>
       </c>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
+      <c r="A69" s="28">
         <v>67</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="27">
         <v>230041700076</v>
       </c>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="34">
+      <c r="A70" s="28">
         <v>68</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="25">
         <v>230041700077</v>
       </c>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="34">
+      <c r="A71" s="28">
         <v>69</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="31">
+      <c r="C71" s="27">
         <v>230041700078</v>
       </c>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
+      <c r="A72" s="28">
         <v>70</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="25">
         <v>230041700079</v>
       </c>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="34">
+      <c r="A73" s="28">
         <v>71</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="31">
+      <c r="C73" s="27">
         <v>230041700080</v>
       </c>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
+      <c r="A74" s="28">
         <v>72</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="25">
         <v>230041700081</v>
       </c>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="34">
+      <c r="A75" s="28">
         <v>73</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="31">
+      <c r="C75" s="27">
         <v>230041700082</v>
       </c>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="34">
+      <c r="A76" s="28">
         <v>74</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C76" s="25">
         <v>230041700083</v>
       </c>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="34">
+      <c r="A77" s="28">
         <v>75</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="27">
         <v>230041700084</v>
       </c>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2">
+        <v>5</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="34">
+      <c r="A78" s="28">
         <v>76</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="27">
         <v>230041700086</v>
       </c>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-    </row>
-    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="34">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="28">
         <v>77</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C79" s="25">
         <v>230041700087</v>
       </c>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="34">
+      <c r="A80" s="28">
         <v>78</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="31">
+      <c r="C80" s="27">
         <v>230041700088</v>
       </c>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2">
+        <v>5</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="34">
+      <c r="A81" s="28">
         <v>79</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="33">
+      <c r="C81" s="25">
         <v>230041700089</v>
       </c>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="34">
+      <c r="A82" s="28">
         <v>80</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="31">
+      <c r="C82" s="27">
         <v>230041700090</v>
       </c>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="34">
+      <c r="A83" s="28">
         <v>81</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="33">
+      <c r="C83" s="25">
         <v>230041700091</v>
       </c>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="34">
+      <c r="A84" s="28">
         <v>82</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="27">
         <v>230041700092</v>
       </c>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="34">
+      <c r="A85" s="28">
         <v>83</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="33">
+      <c r="C85" s="25">
         <v>230041700093</v>
       </c>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="34">
+      <c r="A86" s="28">
         <v>84</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="31">
+      <c r="C86" s="27">
         <v>230041700094</v>
       </c>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="34">
+      <c r="A87" s="28">
         <v>85</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="33">
+      <c r="C87" s="25">
         <v>230041700095</v>
       </c>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
     </row>
     <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="34">
+      <c r="A88" s="28">
         <v>86</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="31">
+      <c r="C88" s="27">
         <v>230041700096</v>
       </c>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2">
+        <v>5</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="34">
+      <c r="A89" s="28">
         <v>87</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="33">
+      <c r="C89" s="25">
         <v>230041700097</v>
       </c>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
+      <c r="A90" s="28">
         <v>88</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="31">
+      <c r="C90" s="27">
         <v>230041700098</v>
       </c>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2">
+        <v>4</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="34">
+      <c r="A91" s="28">
         <v>89</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="33">
+      <c r="C91" s="25">
         <v>230041700099</v>
       </c>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="34">
+      <c r="A92" s="28">
         <v>90</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="31">
+      <c r="C92" s="27">
         <v>230041700100</v>
       </c>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
+      <c r="A93" s="28">
         <v>91</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="33">
+      <c r="C93" s="25">
         <v>230041700101</v>
       </c>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="34">
+      <c r="A94" s="28">
         <v>92</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="31">
+      <c r="C94" s="27">
         <v>230041700102</v>
       </c>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="34">
+      <c r="A95" s="28">
         <v>93</v>
       </c>
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="33">
+      <c r="C95" s="25">
         <v>230041700103</v>
       </c>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="34">
+      <c r="A96" s="28">
         <v>94</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C96" s="31">
+      <c r="C96" s="27">
         <v>230041700104</v>
       </c>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-    </row>
-    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="34">
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="28">
         <v>95</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C97" s="33">
+      <c r="C97" s="25">
         <v>230041700105</v>
       </c>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="34">
+      <c r="A98" s="28">
         <v>96</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C98" s="31">
+      <c r="C98" s="27">
         <v>230041700106</v>
       </c>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="34">
+      <c r="A99" s="28">
         <v>97</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C99" s="31">
+      <c r="C99" s="27">
         <v>230041700108</v>
       </c>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="34">
+      <c r="A100" s="28">
         <v>98</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="33">
+      <c r="C100" s="25">
         <v>230041700109</v>
       </c>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="34">
+      <c r="A101" s="28">
         <v>99</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="31">
+      <c r="C101" s="27">
         <v>230041700110</v>
       </c>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="34">
+      <c r="A102" s="28">
         <v>100</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="33">
+      <c r="C102" s="25">
         <v>230041700111</v>
       </c>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="34">
+      <c r="A103" s="28">
         <v>101</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C103" s="31">
+      <c r="C103" s="27">
         <v>230041700112</v>
       </c>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="34">
+      <c r="A104" s="28">
         <v>102</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="33">
+      <c r="C104" s="25">
         <v>230041700113</v>
       </c>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="34">
+      <c r="A105" s="28">
         <v>103</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="33">
+      <c r="C105" s="25">
         <v>230041700115</v>
       </c>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-    </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="34">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="28">
         <v>104</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C106" s="31">
+      <c r="C106" s="27">
         <v>230041700116</v>
       </c>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="34">
+      <c r="A107" s="28">
         <v>105</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C107" s="33">
+      <c r="C107" s="25">
         <v>230041700117</v>
       </c>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-    </row>
-    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="34">
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="28">
         <v>106</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="27">
         <v>230041700118</v>
       </c>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="34">
+      <c r="A109" s="28">
         <v>107</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C109" s="33">
+      <c r="C109" s="25">
         <v>230041700119</v>
       </c>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="34">
+      <c r="A110" s="28">
         <v>108</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C110" s="31">
+      <c r="C110" s="27">
         <v>230041700120</v>
       </c>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="34">
+      <c r="A111" s="28">
         <v>109</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B111" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C111" s="33">
+      <c r="C111" s="25">
         <v>230041700121</v>
       </c>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
-      <c r="L111"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="34">
+      <c r="A112" s="28">
         <v>110</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C112" s="31">
+      <c r="C112" s="27">
         <v>230041700122</v>
       </c>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="34">
+      <c r="A113" s="28">
         <v>111</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C113" s="33">
+      <c r="C113" s="25">
         <v>230041700123</v>
       </c>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="L113"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="34">
+      <c r="A114" s="28">
         <v>112</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="31">
+      <c r="C114" s="27">
         <v>230041700124</v>
       </c>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="34">
+      <c r="A115" s="28">
         <v>113</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="31">
+      <c r="C115" s="27">
         <v>230041700126</v>
       </c>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="34">
+      <c r="A116" s="28">
         <v>114</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C116" s="33">
+      <c r="C116" s="25">
         <v>230041700127</v>
       </c>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="34">
+      <c r="A117" s="28">
         <v>115</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C117" s="31">
+      <c r="C117" s="27">
         <v>230041700128</v>
       </c>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="L117"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="34">
+      <c r="A118" s="28">
         <v>116</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C118" s="33">
+      <c r="C118" s="25">
         <v>230041700129</v>
       </c>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="34">
+      <c r="A119" s="28">
         <v>117</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="B119" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C119" s="33">
+      <c r="C119" s="25">
         <v>230041700131</v>
       </c>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="34">
+      <c r="A120" s="28">
         <v>118</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C120" s="31">
+      <c r="C120" s="27">
         <v>230041700132</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="34">
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="28">
         <v>119</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="27">
         <v>230041700134</v>
       </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="34">
+      <c r="A122" s="28">
         <v>120</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C122" s="31">
+      <c r="C122" s="27">
         <v>230041700136</v>
+      </c>
+      <c r="G122" s="21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3763,20 +3994,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -16,10 +16,10 @@
     <sheet name="2022" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-I'!$A$2:$L$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-I'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$2:$C$63</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2699,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2765,7 +2765,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3117,7 +3117,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -3205,7 +3205,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -3249,7 +3249,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -3403,7 +3403,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -3535,7 +3535,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -16,7 +16,7 @@
     <sheet name="2022" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-I'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WT-I'!$A$2:$L$122</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$2:$C$63</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
   <si>
     <t>S.N</t>
   </si>
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L123" sqref="L123"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,9 @@
       <c r="C3" s="25">
         <v>230041700001</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1375,7 +1377,9 @@
       <c r="C4" s="27">
         <v>230041700002</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1397,7 +1401,9 @@
       <c r="C5" s="25">
         <v>230041700003</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>29</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1419,7 +1425,9 @@
       <c r="C6" s="27">
         <v>230041700004</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1441,7 +1449,9 @@
       <c r="C7" s="25">
         <v>230041700005</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>27</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1463,7 +1473,9 @@
       <c r="C8" s="27">
         <v>230041700008</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1485,7 +1497,9 @@
       <c r="C9" s="27">
         <v>230041700010</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>19</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1507,7 +1521,9 @@
       <c r="C10" s="27">
         <v>230041700012</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>13</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1529,7 +1545,9 @@
       <c r="C11" s="25">
         <v>230041700013</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1551,7 +1569,9 @@
       <c r="C12" s="27">
         <v>230041700014</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1573,7 +1593,9 @@
       <c r="C13" s="25">
         <v>230041700015</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1595,7 +1617,9 @@
       <c r="C14" s="27">
         <v>230041700016</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1617,7 +1641,9 @@
       <c r="C15" s="25">
         <v>230041700017</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1639,7 +1665,9 @@
       <c r="C16" s="27">
         <v>230041700018</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1661,7 +1689,9 @@
       <c r="C17" s="25">
         <v>230041700019</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1683,7 +1713,9 @@
       <c r="C18" s="25">
         <v>230041700021</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1705,7 +1737,9 @@
       <c r="C19" s="27">
         <v>230041700022</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1727,7 +1761,9 @@
       <c r="C20" s="25">
         <v>230041700023</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1749,7 +1785,9 @@
       <c r="C21" s="27">
         <v>230041700024</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1771,7 +1809,9 @@
       <c r="C22" s="25">
         <v>230041700025</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>26</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1793,7 +1833,9 @@
       <c r="C23" s="27">
         <v>230041700026</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>15</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1815,7 +1857,9 @@
       <c r="C24" s="25">
         <v>230041700027</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>17</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1837,7 +1881,9 @@
       <c r="C25" s="27">
         <v>230041700028</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1859,7 +1905,9 @@
       <c r="C26" s="25">
         <v>230041700029</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>12</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -1881,7 +1929,9 @@
       <c r="C27" s="27">
         <v>230041700030</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1903,7 +1953,9 @@
       <c r="C28" s="27">
         <v>230041700032</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>22</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -1925,7 +1977,9 @@
       <c r="C29" s="25">
         <v>230041700033</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>12</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -1947,7 +2001,9 @@
       <c r="C30" s="27">
         <v>230041700034</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>16</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
@@ -1969,7 +2025,9 @@
       <c r="C31" s="25">
         <v>230041700035</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -1991,7 +2049,9 @@
       <c r="C32" s="27">
         <v>230041700036</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>16</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
@@ -2013,7 +2073,9 @@
       <c r="C33" s="25">
         <v>230041700037</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>17</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
@@ -2035,7 +2097,9 @@
       <c r="C34" s="27">
         <v>230041700038</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>13</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
@@ -2057,7 +2121,9 @@
       <c r="C35" s="25">
         <v>230041700039</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
@@ -2079,7 +2145,9 @@
       <c r="C36" s="27">
         <v>230041700040</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
@@ -2101,7 +2169,9 @@
       <c r="C37" s="25">
         <v>230041700041</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
@@ -2123,7 +2193,9 @@
       <c r="C38" s="27">
         <v>230041700042</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>19</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
@@ -2145,7 +2217,9 @@
       <c r="C39" s="25">
         <v>230041700043</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
@@ -2167,7 +2241,9 @@
       <c r="C40" s="27">
         <v>230041700044</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>12</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
@@ -2189,7 +2265,9 @@
       <c r="C41" s="25">
         <v>230041700045</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2">
@@ -2211,7 +2289,9 @@
       <c r="C42" s="27">
         <v>230041700046</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2">
+        <v>12</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2">
@@ -2233,7 +2313,9 @@
       <c r="C43" s="25">
         <v>230041700047</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>18</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
@@ -2255,7 +2337,9 @@
       <c r="C44" s="27">
         <v>230041700048</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2">
+        <v>19</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -2277,7 +2361,9 @@
       <c r="C45" s="27">
         <v>230041700050</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2">
@@ -2299,7 +2385,9 @@
       <c r="C46" s="25">
         <v>230041700051</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>22</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
@@ -2321,7 +2409,9 @@
       <c r="C47" s="27">
         <v>230041700052</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2">
@@ -2343,7 +2433,9 @@
       <c r="C48" s="25">
         <v>230041700053</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2">
+        <v>16</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2">
@@ -2365,7 +2457,9 @@
       <c r="C49" s="27">
         <v>230041700056</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2">
+        <v>6</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2">
@@ -2387,7 +2481,9 @@
       <c r="C50" s="25">
         <v>230041700057</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2">
+        <v>12</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
@@ -2409,7 +2505,9 @@
       <c r="C51" s="27">
         <v>230041700058</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2">
@@ -2431,7 +2529,9 @@
       <c r="C52" s="25">
         <v>230041700059</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <v>6</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2">
@@ -2453,7 +2553,9 @@
       <c r="C53" s="27">
         <v>230041700060</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2">
@@ -2475,7 +2577,9 @@
       <c r="C54" s="25">
         <v>230041700061</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
@@ -2497,7 +2601,9 @@
       <c r="C55" s="27">
         <v>230041700062</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <v>14</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2">
@@ -2519,7 +2625,9 @@
       <c r="C56" s="25">
         <v>230041700063</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2">
@@ -2541,7 +2649,9 @@
       <c r="C57" s="27">
         <v>230041700064</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2">
+        <v>12</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2">
@@ -2563,7 +2673,9 @@
       <c r="C58" s="25">
         <v>230041700065</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2">
@@ -2585,7 +2697,9 @@
       <c r="C59" s="27">
         <v>230041700066</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2">
+        <v>14</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2">
@@ -2607,7 +2721,9 @@
       <c r="C60" s="25">
         <v>230041700067</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2">
@@ -2629,7 +2745,9 @@
       <c r="C61" s="27">
         <v>230041700068</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2">
@@ -2651,7 +2769,9 @@
       <c r="C62" s="25">
         <v>230041700069</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>5</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2">
@@ -2673,7 +2793,9 @@
       <c r="C63" s="27">
         <v>230041700070</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2">
@@ -2695,7 +2817,9 @@
       <c r="C64" s="25">
         <v>230041700071</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2">
+        <v>21</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2">
@@ -2717,7 +2841,9 @@
       <c r="C65" s="27">
         <v>230041700072</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2">
+        <v>15</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2">
@@ -2739,7 +2865,9 @@
       <c r="C66" s="25">
         <v>230041700073</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2">
@@ -2761,7 +2889,9 @@
       <c r="C67" s="27">
         <v>230041700074</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <v>26</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2">
@@ -2783,7 +2913,9 @@
       <c r="C68" s="25">
         <v>230041700075</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <v>12</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2">
@@ -2805,7 +2937,9 @@
       <c r="C69" s="27">
         <v>230041700076</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2">
+        <v>17</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2">
@@ -2827,7 +2961,9 @@
       <c r="C70" s="25">
         <v>230041700077</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2">
@@ -2849,7 +2985,9 @@
       <c r="C71" s="27">
         <v>230041700078</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2">
+        <v>13</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2">
@@ -2871,7 +3009,9 @@
       <c r="C72" s="25">
         <v>230041700079</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2">
+        <v>18</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2">
@@ -2893,7 +3033,9 @@
       <c r="C73" s="27">
         <v>230041700080</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2">
+        <v>13</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2">
@@ -2915,7 +3057,9 @@
       <c r="C74" s="25">
         <v>230041700081</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2">
@@ -2937,7 +3081,9 @@
       <c r="C75" s="27">
         <v>230041700082</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>15</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2">
@@ -2959,7 +3105,9 @@
       <c r="C76" s="25">
         <v>230041700083</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
@@ -2981,7 +3129,9 @@
       <c r="C77" s="27">
         <v>230041700084</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2">
+        <v>19</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2">
@@ -3003,7 +3153,9 @@
       <c r="C78" s="27">
         <v>230041700086</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2">
+        <v>13</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2">
@@ -3025,7 +3177,9 @@
       <c r="C79" s="25">
         <v>230041700087</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2">
+        <v>14</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2">
@@ -3047,7 +3201,9 @@
       <c r="C80" s="27">
         <v>230041700088</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2">
+        <v>19</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2">
@@ -3069,7 +3225,9 @@
       <c r="C81" s="25">
         <v>230041700089</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="2">
+        <v>12</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2">
@@ -3091,7 +3249,9 @@
       <c r="C82" s="27">
         <v>230041700090</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2">
+        <v>13</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2">
@@ -3113,7 +3273,9 @@
       <c r="C83" s="25">
         <v>230041700091</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2">
+        <v>7</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2">
@@ -3135,7 +3297,9 @@
       <c r="C84" s="27">
         <v>230041700092</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2">
+        <v>4</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2">
@@ -3157,7 +3321,9 @@
       <c r="C85" s="25">
         <v>230041700093</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2">
@@ -3179,7 +3345,9 @@
       <c r="C86" s="27">
         <v>230041700094</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2">
@@ -3201,7 +3369,9 @@
       <c r="C87" s="25">
         <v>230041700095</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2">
+        <v>14</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2">
@@ -3223,7 +3393,9 @@
       <c r="C88" s="27">
         <v>230041700096</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2">
+        <v>19</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2">
@@ -3245,7 +3417,9 @@
       <c r="C89" s="25">
         <v>230041700097</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>16</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2">
@@ -3267,7 +3441,9 @@
       <c r="C90" s="27">
         <v>230041700098</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="2">
+        <v>12</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2">
@@ -3289,7 +3465,9 @@
       <c r="C91" s="25">
         <v>230041700099</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>9</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2">
@@ -3311,7 +3489,9 @@
       <c r="C92" s="27">
         <v>230041700100</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2">
+        <v>7</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2">
@@ -3333,7 +3513,9 @@
       <c r="C93" s="25">
         <v>230041700101</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2">
@@ -3355,7 +3537,9 @@
       <c r="C94" s="27">
         <v>230041700102</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2">
@@ -3377,7 +3561,9 @@
       <c r="C95" s="25">
         <v>230041700103</v>
       </c>
-      <c r="D95" s="2"/>
+      <c r="D95" s="2">
+        <v>3</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2">
@@ -3399,7 +3585,9 @@
       <c r="C96" s="27">
         <v>230041700104</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2">
+        <v>12</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2">
@@ -3421,7 +3609,9 @@
       <c r="C97" s="25">
         <v>230041700105</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2">
+        <v>19</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2">
@@ -3443,7 +3633,9 @@
       <c r="C98" s="27">
         <v>230041700106</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2">
@@ -3465,7 +3657,9 @@
       <c r="C99" s="27">
         <v>230041700108</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2">
+        <v>23</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2">
@@ -3487,7 +3681,9 @@
       <c r="C100" s="25">
         <v>230041700109</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2">
+        <v>5</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2">
@@ -3509,7 +3705,9 @@
       <c r="C101" s="27">
         <v>230041700110</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2">
@@ -3531,7 +3729,9 @@
       <c r="C102" s="25">
         <v>230041700111</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2">
+        <v>18</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2">
@@ -3553,7 +3753,9 @@
       <c r="C103" s="27">
         <v>230041700112</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2">
+        <v>16</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2">
@@ -3575,7 +3777,9 @@
       <c r="C104" s="25">
         <v>230041700113</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="2">
+        <v>12</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2">
@@ -3597,7 +3801,9 @@
       <c r="C105" s="25">
         <v>230041700115</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="2">
+        <v>12</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2">
@@ -3619,7 +3825,9 @@
       <c r="C106" s="27">
         <v>230041700116</v>
       </c>
-      <c r="D106" s="2"/>
+      <c r="D106" s="2">
+        <v>22</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2">
@@ -3641,7 +3849,9 @@
       <c r="C107" s="25">
         <v>230041700117</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107" s="2">
+        <v>13</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2">
@@ -3663,7 +3873,9 @@
       <c r="C108" s="27">
         <v>230041700118</v>
       </c>
-      <c r="D108" s="2"/>
+      <c r="D108" s="2">
+        <v>17</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2">
@@ -3685,7 +3897,9 @@
       <c r="C109" s="25">
         <v>230041700119</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2">
+        <v>7</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2">
@@ -3707,7 +3921,9 @@
       <c r="C110" s="27">
         <v>230041700120</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="2">
+        <v>12</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2">
@@ -3729,7 +3945,9 @@
       <c r="C111" s="25">
         <v>230041700121</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" s="2">
+        <v>12</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2">
@@ -3751,7 +3969,9 @@
       <c r="C112" s="27">
         <v>230041700122</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2">
+        <v>12</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2">
@@ -3773,7 +3993,9 @@
       <c r="C113" s="25">
         <v>230041700123</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="2">
+        <v>12</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2">
@@ -3795,7 +4017,9 @@
       <c r="C114" s="27">
         <v>230041700124</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2">
+        <v>9</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2">
@@ -3817,7 +4041,9 @@
       <c r="C115" s="27">
         <v>230041700126</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="2">
+        <v>13</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2">
@@ -3839,7 +4065,9 @@
       <c r="C116" s="25">
         <v>230041700127</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2">
+        <v>13</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2">
@@ -3861,7 +4089,9 @@
       <c r="C117" s="27">
         <v>230041700128</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2">
@@ -3883,7 +4113,9 @@
       <c r="C118" s="25">
         <v>230041700129</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2">
@@ -3905,7 +4137,9 @@
       <c r="C119" s="25">
         <v>230041700131</v>
       </c>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2">
+        <v>16</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2">
@@ -3927,6 +4161,9 @@
       <c r="C120" s="27">
         <v>230041700132</v>
       </c>
+      <c r="D120" s="21">
+        <v>14</v>
+      </c>
       <c r="G120" s="2">
         <v>0</v>
       </c>
@@ -3941,6 +4178,9 @@
       <c r="C121" s="27">
         <v>230041700134</v>
       </c>
+      <c r="D121" s="21">
+        <v>12</v>
+      </c>
       <c r="G121" s="2">
         <v>0</v>
       </c>
@@ -3954,6 +4194,9 @@
       </c>
       <c r="C122" s="27">
         <v>230041700136</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G122" s="21">
         <v>4</v>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,7 +3015,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3543,7 +3543,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -3615,7 +3615,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3663,7 +3663,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3879,7 +3879,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -4165,7 +4165,7 @@
         <v>14</v>
       </c>
       <c r="G120" s="2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:G48"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -758,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,6 +847,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1273,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,26 +1292,26 @@
     <col min="3" max="3" width="13.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="21"/>
     <col min="5" max="6" width="9.140625" style="23"/>
-    <col min="7" max="16384" width="9.140625" style="21"/>
+    <col min="7" max="11" width="9.140625" style="21"/>
+    <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-    </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -1361,13 +1367,22 @@
       <c r="G3" s="2">
         <v>4.5</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <f>O3</f>
+        <v>5</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N3" s="2">
+        <v>60</v>
+      </c>
+      <c r="O3" s="21">
+        <f>N3*5/60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -1385,13 +1400,20 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H67" si="0">O4</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+      <c r="O4" s="21">
+        <f t="shared" ref="O4:O67" si="1">N4*5/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -1409,13 +1431,22 @@
       <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>56</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -1433,13 +1464,20 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+      <c r="O6" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -1457,13 +1495,22 @@
       <c r="G7" s="2">
         <v>4.5</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
+        <v>60</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -1481,13 +1528,22 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <v>45</v>
+      </c>
+      <c r="O8" s="21">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -1505,13 +1561,22 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <v>60</v>
+      </c>
+      <c r="O9" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -1529,13 +1594,22 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>60</v>
+      </c>
+      <c r="O10" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -1553,13 +1627,20 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="2"/>
+      <c r="O11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -1577,13 +1658,20 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+      <c r="O12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -1601,13 +1689,22 @@
       <c r="G13" s="2">
         <v>4.5</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13" s="2">
+        <v>56</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -1625,13 +1722,20 @@
       <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+      <c r="O14" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -1649,13 +1753,22 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" s="2">
+        <v>56</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -1673,13 +1786,20 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+      <c r="O16" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -1697,13 +1817,22 @@
       <c r="G17" s="2">
         <v>4.5</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N17" s="2">
+        <v>55</v>
+      </c>
+      <c r="O17" s="21">
+        <f t="shared" si="1"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>16</v>
       </c>
@@ -1721,13 +1850,20 @@
       <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+      <c r="O18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>17</v>
       </c>
@@ -1745,13 +1881,22 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="2">
+        <v>52</v>
+      </c>
+      <c r="O19" s="21">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>18</v>
       </c>
@@ -1769,13 +1914,20 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N20" s="2"/>
+      <c r="O20" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>19</v>
       </c>
@@ -1793,13 +1945,22 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N21" s="2">
+        <v>60</v>
+      </c>
+      <c r="O21" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>20</v>
       </c>
@@ -1817,13 +1978,22 @@
       <c r="G22" s="2">
         <v>4.5</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="2">
+        <v>56</v>
+      </c>
+      <c r="O22" s="21">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>21</v>
       </c>
@@ -1841,13 +2011,22 @@
       <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N23" s="2">
+        <v>60</v>
+      </c>
+      <c r="O23" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>22</v>
       </c>
@@ -1865,13 +2044,22 @@
       <c r="G24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="2">
+        <v>60</v>
+      </c>
+      <c r="O24" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>23</v>
       </c>
@@ -1889,13 +2077,20 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
+      <c r="O25" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>24</v>
       </c>
@@ -1913,13 +2108,22 @@
       <c r="G26" s="2">
         <v>3.5</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" s="2">
+        <v>60</v>
+      </c>
+      <c r="O26" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>25</v>
       </c>
@@ -1937,13 +2141,20 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N27" s="2"/>
+      <c r="O27" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>26</v>
       </c>
@@ -1961,13 +2172,22 @@
       <c r="G28" s="2">
         <v>4.5</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N28" s="2">
+        <v>60</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>27</v>
       </c>
@@ -1985,13 +2205,22 @@
       <c r="G29" s="2">
         <v>0</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N29" s="2">
+        <v>50</v>
+      </c>
+      <c r="O29" s="21">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>28</v>
       </c>
@@ -2009,13 +2238,20 @@
       <c r="G30" s="2">
         <v>4.5</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" s="2"/>
+      <c r="O30" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>29</v>
       </c>
@@ -2033,13 +2269,20 @@
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N31" s="2"/>
+      <c r="O31" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>30</v>
       </c>
@@ -2057,13 +2300,22 @@
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f t="shared" si="0"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="N32" s="2">
+        <v>55</v>
+      </c>
+      <c r="O32" s="21">
+        <f t="shared" si="1"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>31</v>
       </c>
@@ -2081,13 +2333,22 @@
       <c r="G33" s="2">
         <v>5</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N33" s="2">
+        <v>45</v>
+      </c>
+      <c r="O33" s="21">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>32</v>
       </c>
@@ -2105,13 +2366,22 @@
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N34" s="2">
+        <v>60</v>
+      </c>
+      <c r="O34" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>33</v>
       </c>
@@ -2129,13 +2399,22 @@
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N35" s="2">
+        <v>60</v>
+      </c>
+      <c r="O35" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>34</v>
       </c>
@@ -2153,13 +2432,22 @@
       <c r="G36" s="2">
         <v>0</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N36" s="2">
+        <v>50</v>
+      </c>
+      <c r="O36" s="21">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>35</v>
       </c>
@@ -2177,13 +2465,22 @@
       <c r="G37" s="2">
         <v>0</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f t="shared" si="0"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N37" s="2">
+        <v>55</v>
+      </c>
+      <c r="O37" s="21">
+        <f t="shared" si="1"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>36</v>
       </c>
@@ -2201,13 +2498,22 @@
       <c r="G38" s="2">
         <v>0</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N38" s="2">
+        <v>50</v>
+      </c>
+      <c r="O38" s="21">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>37</v>
       </c>
@@ -2225,13 +2531,20 @@
       <c r="G39" s="2">
         <v>0</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N39" s="2"/>
+      <c r="O39" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>38</v>
       </c>
@@ -2249,13 +2562,22 @@
       <c r="G40" s="2">
         <v>0</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N40" s="2">
+        <v>60</v>
+      </c>
+      <c r="O40" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>39</v>
       </c>
@@ -2273,13 +2595,22 @@
       <c r="G41" s="2">
         <v>0</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N41" s="2">
+        <v>20</v>
+      </c>
+      <c r="O41" s="21">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>40</v>
       </c>
@@ -2297,13 +2628,20 @@
       <c r="G42" s="2">
         <v>4.5</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N42" s="2"/>
+      <c r="O42" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>41</v>
       </c>
@@ -2321,13 +2659,20 @@
       <c r="G43" s="2">
         <v>4.5</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N43" s="2"/>
+      <c r="O43" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>42</v>
       </c>
@@ -2345,13 +2690,22 @@
       <c r="G44" s="2">
         <v>5</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N44" s="2">
+        <v>60</v>
+      </c>
+      <c r="O44" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>43</v>
       </c>
@@ -2369,13 +2723,20 @@
       <c r="G45" s="2">
         <v>4.5</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N45" s="2"/>
+      <c r="O45" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>44</v>
       </c>
@@ -2393,13 +2754,22 @@
       <c r="G46" s="2">
         <v>4.5</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N46" s="2">
+        <v>60</v>
+      </c>
+      <c r="O46" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45</v>
       </c>
@@ -2417,13 +2787,20 @@
       <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N47" s="2"/>
+      <c r="O47" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>46</v>
       </c>
@@ -2441,13 +2818,22 @@
       <c r="G48" s="2">
         <v>0</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N48" s="2">
+        <v>52</v>
+      </c>
+      <c r="O48" s="21">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>47</v>
       </c>
@@ -2465,13 +2851,22 @@
       <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N49" s="2">
+        <v>56</v>
+      </c>
+      <c r="O49" s="21">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>48</v>
       </c>
@@ -2489,13 +2884,22 @@
       <c r="G50" s="2">
         <v>0</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N50" s="2">
+        <v>56</v>
+      </c>
+      <c r="O50" s="21">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>49</v>
       </c>
@@ -2513,13 +2917,22 @@
       <c r="G51" s="2">
         <v>0</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N51" s="2">
+        <v>56</v>
+      </c>
+      <c r="O51" s="21">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>50</v>
       </c>
@@ -2537,13 +2950,22 @@
       <c r="G52" s="2">
         <v>0</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N52" s="2">
+        <v>52</v>
+      </c>
+      <c r="O52" s="21">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>51</v>
       </c>
@@ -2561,13 +2983,20 @@
       <c r="G53" s="2">
         <v>0</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N53" s="2"/>
+      <c r="O53" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
         <v>52</v>
       </c>
@@ -2585,13 +3014,20 @@
       <c r="G54" s="2">
         <v>4.5</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N54" s="2"/>
+      <c r="O54" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>53</v>
       </c>
@@ -2609,13 +3045,22 @@
       <c r="G55" s="2">
         <v>4.5</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N55" s="2">
+        <v>40</v>
+      </c>
+      <c r="O55" s="21">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>54</v>
       </c>
@@ -2633,13 +3078,20 @@
       <c r="G56" s="2">
         <v>0</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N56" s="2"/>
+      <c r="O56" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>55</v>
       </c>
@@ -2657,13 +3109,22 @@
       <c r="G57" s="2">
         <v>0</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N57" s="2">
+        <v>45</v>
+      </c>
+      <c r="O57" s="21">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>56</v>
       </c>
@@ -2681,13 +3142,20 @@
       <c r="G58" s="2">
         <v>0</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N58" s="2"/>
+      <c r="O58" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>57</v>
       </c>
@@ -2705,13 +3173,22 @@
       <c r="G59" s="2">
         <v>0</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N59" s="2">
+        <v>60</v>
+      </c>
+      <c r="O59" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>58</v>
       </c>
@@ -2729,13 +3206,20 @@
       <c r="G60" s="2">
         <v>0</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N60" s="2"/>
+      <c r="O60" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>59</v>
       </c>
@@ -2753,13 +3237,22 @@
       <c r="G61" s="2">
         <v>0</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N61" s="2">
+        <v>60</v>
+      </c>
+      <c r="O61" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>60</v>
       </c>
@@ -2777,13 +3270,20 @@
       <c r="G62" s="2">
         <v>0</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N62" s="2"/>
+      <c r="O62" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>61</v>
       </c>
@@ -2801,13 +3301,20 @@
       <c r="G63" s="2">
         <v>0</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N63" s="2"/>
+      <c r="O63" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>62</v>
       </c>
@@ -2825,13 +3332,22 @@
       <c r="G64" s="2">
         <v>5</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N64" s="2">
+        <v>60</v>
+      </c>
+      <c r="O64" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>63</v>
       </c>
@@ -2849,13 +3365,22 @@
       <c r="G65" s="2">
         <v>0</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N65" s="2">
+        <v>50</v>
+      </c>
+      <c r="O65" s="21">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>64</v>
       </c>
@@ -2873,13 +3398,22 @@
       <c r="G66" s="2">
         <v>0</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f t="shared" si="0"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N66" s="2">
+        <v>55</v>
+      </c>
+      <c r="O66" s="21">
+        <f t="shared" si="1"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>65</v>
       </c>
@@ -2897,13 +3431,22 @@
       <c r="G67" s="2">
         <v>5</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N67" s="2">
+        <v>60</v>
+      </c>
+      <c r="O67" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>66</v>
       </c>
@@ -2921,13 +3464,22 @@
       <c r="G68" s="2">
         <v>0</v>
       </c>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2">
+        <f t="shared" ref="H68:H122" si="2">O68</f>
+        <v>5</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N68" s="2">
+        <v>60</v>
+      </c>
+      <c r="O68" s="21">
+        <f t="shared" ref="O68:O121" si="3">N68*5/60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>67</v>
       </c>
@@ -2945,13 +3497,22 @@
       <c r="G69" s="2">
         <v>0</v>
       </c>
-      <c r="H69" s="2"/>
+      <c r="H69" s="2">
+        <f t="shared" si="2"/>
+        <v>4.166666666666667</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N69" s="2">
+        <v>50</v>
+      </c>
+      <c r="O69" s="21">
+        <f t="shared" si="3"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>68</v>
       </c>
@@ -2969,13 +3530,20 @@
       <c r="G70" s="2">
         <v>0</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N70" s="2"/>
+      <c r="O70" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>69</v>
       </c>
@@ -2993,13 +3561,22 @@
       <c r="G71" s="2">
         <v>0</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="2">
+        <f t="shared" si="2"/>
+        <v>4.333333333333333</v>
+      </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N71" s="2">
+        <v>52</v>
+      </c>
+      <c r="O71" s="21">
+        <f t="shared" si="3"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>70</v>
       </c>
@@ -3017,13 +3594,22 @@
       <c r="G72" s="2">
         <v>5</v>
       </c>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2">
+        <f t="shared" si="2"/>
+        <v>4.333333333333333</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N72" s="2">
+        <v>52</v>
+      </c>
+      <c r="O72" s="21">
+        <f t="shared" si="3"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>71</v>
       </c>
@@ -3041,13 +3627,22 @@
       <c r="G73" s="2">
         <v>0</v>
       </c>
-      <c r="H73" s="2"/>
+      <c r="H73" s="2">
+        <f t="shared" si="2"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N73" s="2">
+        <v>56</v>
+      </c>
+      <c r="O73" s="21">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>72</v>
       </c>
@@ -3065,13 +3660,20 @@
       <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="H74" s="2"/>
+      <c r="H74" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N74" s="2"/>
+      <c r="O74" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>73</v>
       </c>
@@ -3089,13 +3691,22 @@
       <c r="G75" s="2">
         <v>0</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2">
+        <f t="shared" si="2"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N75" s="2">
+        <v>56</v>
+      </c>
+      <c r="O75" s="21">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>74</v>
       </c>
@@ -3113,13 +3724,20 @@
       <c r="G76" s="2">
         <v>0</v>
       </c>
-      <c r="H76" s="2"/>
+      <c r="H76" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N76" s="2"/>
+      <c r="O76" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>75</v>
       </c>
@@ -3137,13 +3755,22 @@
       <c r="G77" s="2">
         <v>5</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" s="2">
+        <f t="shared" si="2"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N77" s="2">
+        <v>55</v>
+      </c>
+      <c r="O77" s="21">
+        <f t="shared" si="3"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>76</v>
       </c>
@@ -3161,13 +3788,20 @@
       <c r="G78" s="2">
         <v>0</v>
       </c>
-      <c r="H78" s="2"/>
+      <c r="H78" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N78" s="2"/>
+      <c r="O78" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="28">
         <v>77</v>
       </c>
@@ -3185,13 +3819,22 @@
       <c r="G79" s="2">
         <v>0</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N79" s="2">
+        <v>60</v>
+      </c>
+      <c r="O79" s="21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>78</v>
       </c>
@@ -3209,13 +3852,22 @@
       <c r="G80" s="2">
         <v>5</v>
       </c>
-      <c r="H80" s="2"/>
+      <c r="H80" s="2">
+        <f t="shared" si="2"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N80" s="2">
+        <v>55</v>
+      </c>
+      <c r="O80" s="21">
+        <f t="shared" si="3"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>79</v>
       </c>
@@ -3233,13 +3885,20 @@
       <c r="G81" s="2">
         <v>0</v>
       </c>
-      <c r="H81" s="2"/>
+      <c r="H81" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N81" s="2"/>
+      <c r="O81" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>80</v>
       </c>
@@ -3257,13 +3916,20 @@
       <c r="G82" s="2">
         <v>0</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N82" s="2"/>
+      <c r="O82" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>81</v>
       </c>
@@ -3281,13 +3947,20 @@
       <c r="G83" s="2">
         <v>4.5</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N83" s="2"/>
+      <c r="O83" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>82</v>
       </c>
@@ -3305,13 +3978,20 @@
       <c r="G84" s="2">
         <v>0</v>
       </c>
-      <c r="H84" s="2"/>
+      <c r="H84" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N84" s="2"/>
+      <c r="O84" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>83</v>
       </c>
@@ -3329,13 +4009,20 @@
       <c r="G85" s="2">
         <v>0</v>
       </c>
-      <c r="H85" s="2"/>
+      <c r="H85" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N85" s="2"/>
+      <c r="O85" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>84</v>
       </c>
@@ -3353,13 +4040,20 @@
       <c r="G86" s="2">
         <v>0</v>
       </c>
-      <c r="H86" s="2"/>
+      <c r="H86" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N86" s="2"/>
+      <c r="O86" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>85</v>
       </c>
@@ -3377,13 +4071,22 @@
       <c r="G87" s="2">
         <v>5</v>
       </c>
-      <c r="H87" s="2"/>
+      <c r="H87" s="2">
+        <f t="shared" si="2"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N87" s="2">
+        <v>55</v>
+      </c>
+      <c r="O87" s="21">
+        <f t="shared" si="3"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="28">
         <v>86</v>
       </c>
@@ -3401,13 +4104,22 @@
       <c r="G88" s="2">
         <v>5</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" s="2">
+        <f t="shared" si="2"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N88" s="2">
+        <v>55</v>
+      </c>
+      <c r="O88" s="21">
+        <f t="shared" si="3"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>87</v>
       </c>
@@ -3425,13 +4137,22 @@
       <c r="G89" s="2">
         <v>5</v>
       </c>
-      <c r="H89" s="2"/>
+      <c r="H89" s="2">
+        <f t="shared" si="2"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N89" s="2">
+        <v>55</v>
+      </c>
+      <c r="O89" s="21">
+        <f t="shared" si="3"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>88</v>
       </c>
@@ -3449,13 +4170,22 @@
       <c r="G90" s="2">
         <v>4</v>
       </c>
-      <c r="H90" s="2"/>
+      <c r="H90" s="2">
+        <f t="shared" si="2"/>
+        <v>4.333333333333333</v>
+      </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N90" s="2">
+        <v>52</v>
+      </c>
+      <c r="O90" s="21">
+        <f t="shared" si="3"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>89</v>
       </c>
@@ -3473,13 +4203,22 @@
       <c r="G91" s="2">
         <v>0</v>
       </c>
-      <c r="H91" s="2"/>
+      <c r="H91" s="2">
+        <f t="shared" si="2"/>
+        <v>4.166666666666667</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N91" s="2">
+        <v>50</v>
+      </c>
+      <c r="O91" s="21">
+        <f t="shared" si="3"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>90</v>
       </c>
@@ -3497,13 +4236,22 @@
       <c r="G92" s="2">
         <v>0</v>
       </c>
-      <c r="H92" s="2"/>
+      <c r="H92" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N92" s="2">
+        <v>48</v>
+      </c>
+      <c r="O92" s="21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>91</v>
       </c>
@@ -3521,13 +4269,20 @@
       <c r="G93" s="2">
         <v>0</v>
       </c>
-      <c r="H93" s="2"/>
+      <c r="H93" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N93" s="2"/>
+      <c r="O93" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>92</v>
       </c>
@@ -3545,13 +4300,22 @@
       <c r="G94" s="2">
         <v>4.5</v>
       </c>
-      <c r="H94" s="2"/>
+      <c r="H94" s="2">
+        <f t="shared" si="2"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N94" s="2">
+        <v>56</v>
+      </c>
+      <c r="O94" s="21">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>93</v>
       </c>
@@ -3569,13 +4333,20 @@
       <c r="G95" s="2">
         <v>0</v>
       </c>
-      <c r="H95" s="2"/>
+      <c r="H95" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N95" s="2"/>
+      <c r="O95" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>94</v>
       </c>
@@ -3593,13 +4364,22 @@
       <c r="G96" s="2">
         <v>4.5</v>
       </c>
-      <c r="H96" s="2"/>
+      <c r="H96" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N96" s="2">
+        <v>60</v>
+      </c>
+      <c r="O96" s="21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="28">
         <v>95</v>
       </c>
@@ -3617,13 +4397,22 @@
       <c r="G97" s="2">
         <v>4.5</v>
       </c>
-      <c r="H97" s="2"/>
+      <c r="H97" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N97" s="2">
+        <v>60</v>
+      </c>
+      <c r="O97" s="21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>96</v>
       </c>
@@ -3641,13 +4430,20 @@
       <c r="G98" s="2">
         <v>0</v>
       </c>
-      <c r="H98" s="2"/>
+      <c r="H98" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N98" s="2"/>
+      <c r="O98" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>97</v>
       </c>
@@ -3665,13 +4461,22 @@
       <c r="G99" s="2">
         <v>5</v>
       </c>
-      <c r="H99" s="2"/>
+      <c r="H99" s="2">
+        <f t="shared" si="2"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N99" s="2">
+        <v>55</v>
+      </c>
+      <c r="O99" s="21">
+        <f t="shared" si="3"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>98</v>
       </c>
@@ -3689,13 +4494,22 @@
       <c r="G100" s="2">
         <v>0</v>
       </c>
-      <c r="H100" s="2"/>
+      <c r="H100" s="2">
+        <f t="shared" si="2"/>
+        <v>4.166666666666667</v>
+      </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N100" s="2">
+        <v>50</v>
+      </c>
+      <c r="O100" s="21">
+        <f t="shared" si="3"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>99</v>
       </c>
@@ -3713,13 +4527,20 @@
       <c r="G101" s="2">
         <v>0</v>
       </c>
-      <c r="H101" s="2"/>
+      <c r="H101" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N101" s="2"/>
+      <c r="O101" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>100</v>
       </c>
@@ -3737,13 +4558,22 @@
       <c r="G102" s="2">
         <v>5</v>
       </c>
-      <c r="H102" s="2"/>
+      <c r="H102" s="2">
+        <f t="shared" si="2"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N102" s="2">
+        <v>56</v>
+      </c>
+      <c r="O102" s="21">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>101</v>
       </c>
@@ -3761,13 +4591,22 @@
       <c r="G103" s="2">
         <v>0</v>
       </c>
-      <c r="H103" s="2"/>
+      <c r="H103" s="2">
+        <f t="shared" si="2"/>
+        <v>4.583333333333333</v>
+      </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N103" s="2">
+        <v>55</v>
+      </c>
+      <c r="O103" s="21">
+        <f t="shared" si="3"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>102</v>
       </c>
@@ -3785,13 +4624,22 @@
       <c r="G104" s="2">
         <v>0</v>
       </c>
-      <c r="H104" s="2"/>
+      <c r="H104" s="2">
+        <f t="shared" si="2"/>
+        <v>4.333333333333333</v>
+      </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N104" s="2">
+        <v>52</v>
+      </c>
+      <c r="O104" s="21">
+        <f t="shared" si="3"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>103</v>
       </c>
@@ -3809,13 +4657,20 @@
       <c r="G105" s="2">
         <v>0</v>
       </c>
-      <c r="H105" s="2"/>
+      <c r="H105" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N105" s="2"/>
+      <c r="O105" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="28">
         <v>104</v>
       </c>
@@ -3833,13 +4688,20 @@
       <c r="G106" s="2">
         <v>0</v>
       </c>
-      <c r="H106" s="2"/>
+      <c r="H106" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N106" s="2"/>
+      <c r="O106" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>105</v>
       </c>
@@ -3857,13 +4719,20 @@
       <c r="G107" s="2">
         <v>0</v>
       </c>
-      <c r="H107" s="2"/>
+      <c r="H107" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N107" s="2"/>
+      <c r="O107" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>106</v>
       </c>
@@ -3881,13 +4750,20 @@
       <c r="G108" s="2">
         <v>5</v>
       </c>
-      <c r="H108" s="2"/>
+      <c r="H108" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N108" s="2"/>
+      <c r="O108" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>107</v>
       </c>
@@ -3905,13 +4781,20 @@
       <c r="G109" s="2">
         <v>0</v>
       </c>
-      <c r="H109" s="2"/>
+      <c r="H109" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N109" s="2"/>
+      <c r="O109" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>108</v>
       </c>
@@ -3929,13 +4812,20 @@
       <c r="G110" s="2">
         <v>0</v>
       </c>
-      <c r="H110" s="2"/>
+      <c r="H110" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N110" s="2"/>
+      <c r="O110" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>109</v>
       </c>
@@ -3953,13 +4843,22 @@
       <c r="G111" s="2">
         <v>0</v>
       </c>
-      <c r="H111" s="2"/>
+      <c r="H111" s="2">
+        <f t="shared" si="2"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N111" s="2">
+        <v>56</v>
+      </c>
+      <c r="O111" s="21">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>110</v>
       </c>
@@ -3977,13 +4876,22 @@
       <c r="G112" s="2">
         <v>0</v>
       </c>
-      <c r="H112" s="2"/>
+      <c r="H112" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N112" s="2">
+        <v>30</v>
+      </c>
+      <c r="O112" s="21">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>111</v>
       </c>
@@ -4001,13 +4909,20 @@
       <c r="G113" s="2">
         <v>0</v>
       </c>
-      <c r="H113" s="2"/>
+      <c r="H113" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N113" s="2"/>
+      <c r="O113" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>112</v>
       </c>
@@ -4025,13 +4940,20 @@
       <c r="G114" s="2">
         <v>0</v>
       </c>
-      <c r="H114" s="2"/>
+      <c r="H114" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N114" s="2"/>
+      <c r="O114" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="28">
         <v>113</v>
       </c>
@@ -4049,13 +4971,22 @@
       <c r="G115" s="2">
         <v>0</v>
       </c>
-      <c r="H115" s="2"/>
+      <c r="H115" s="2">
+        <f t="shared" si="2"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N115" s="2">
+        <v>56</v>
+      </c>
+      <c r="O115" s="21">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>114</v>
       </c>
@@ -4073,13 +5004,22 @@
       <c r="G116" s="2">
         <v>0</v>
       </c>
-      <c r="H116" s="2"/>
+      <c r="H116" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N116" s="2">
+        <v>60</v>
+      </c>
+      <c r="O116" s="21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>115</v>
       </c>
@@ -4097,13 +5037,20 @@
       <c r="G117" s="2">
         <v>0</v>
       </c>
-      <c r="H117" s="2"/>
+      <c r="H117" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N117" s="2"/>
+      <c r="O117" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>116</v>
       </c>
@@ -4121,13 +5068,20 @@
       <c r="G118" s="2">
         <v>0</v>
       </c>
-      <c r="H118" s="2"/>
+      <c r="H118" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N118" s="2"/>
+      <c r="O118" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>117</v>
       </c>
@@ -4145,13 +5099,20 @@
       <c r="G119" s="2">
         <v>0</v>
       </c>
-      <c r="H119" s="2"/>
+      <c r="H119" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N119" s="2"/>
+      <c r="O119" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>118</v>
       </c>
@@ -4167,8 +5128,19 @@
       <c r="G120" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H120" s="2">
+        <f t="shared" si="2"/>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="N120" s="21">
+        <v>55</v>
+      </c>
+      <c r="O120" s="21">
+        <f t="shared" si="3"/>
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>119</v>
       </c>
@@ -4184,8 +5156,16 @@
       <c r="G121" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H121" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O121" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>120</v>
       </c>
@@ -4201,16 +5181,12 @@
       <c r="G122" s="21">
         <v>4</v>
       </c>
+      <c r="H122" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="L120:L1048576">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -843,22 +843,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -918,20 +918,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1281,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N119" sqref="N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,19 +1283,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -3272,15 +3258,17 @@
       </c>
       <c r="H62" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" s="2">
+        <v>40</v>
+      </c>
       <c r="O62" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -4690,15 +4678,17 @@
       </c>
       <c r="H106" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="N106" s="2">
+        <v>45</v>
+      </c>
       <c r="O106" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -5039,15 +5029,17 @@
       </c>
       <c r="H117" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
-      <c r="N117" s="2"/>
+      <c r="N117" s="2">
+        <v>50</v>
+      </c>
       <c r="O117" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -5070,15 +5062,17 @@
       </c>
       <c r="H118" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
-      <c r="N118" s="2"/>
+      <c r="N118" s="2">
+        <v>56</v>
+      </c>
       <c r="O118" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -5101,15 +5095,17 @@
       </c>
       <c r="H119" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="N119" s="2">
+        <v>55</v>
+      </c>
       <c r="O119" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.583333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -5213,20 +5209,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N119" sqref="N119"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,15 +2647,17 @@
       </c>
       <c r="H43" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" s="2">
+        <v>60</v>
+      </c>
       <c r="O43" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -2711,15 +2713,17 @@
       </c>
       <c r="H45" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" s="2">
+        <v>60</v>
+      </c>
       <c r="O45" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="191">
   <si>
     <t>S.N</t>
   </si>
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1348,9 @@
       <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>17</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>4.5</v>
@@ -1381,7 +1383,9 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>0</v>
@@ -1412,7 +1416,9 @@
       <c r="D5" s="2">
         <v>29</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>29</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>4</v>
@@ -1445,7 +1451,9 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>16</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>0</v>
@@ -1476,7 +1484,9 @@
       <c r="D7" s="2">
         <v>27</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>12</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>4.5</v>
@@ -1509,7 +1519,9 @@
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>0</v>
@@ -1542,7 +1554,9 @@
       <c r="D9" s="2">
         <v>19</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>13</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>0</v>
@@ -1575,7 +1589,9 @@
       <c r="D10" s="2">
         <v>13</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
         <v>0</v>
@@ -1608,7 +1624,9 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>0</v>
@@ -1639,7 +1657,9 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>0</v>
@@ -1670,7 +1690,9 @@
       <c r="D13" s="2">
         <v>25</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>16</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>4.5</v>
@@ -1703,7 +1725,9 @@
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>13</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>5</v>
@@ -1734,7 +1758,9 @@
       <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
         <v>0</v>
@@ -1767,7 +1793,9 @@
       <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
         <v>0</v>
@@ -1798,7 +1826,9 @@
       <c r="D17" s="2">
         <v>12</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>13</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
         <v>4.5</v>
@@ -1831,7 +1861,9 @@
       <c r="D18" s="2">
         <v>18</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>14</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
         <v>5</v>
@@ -1862,7 +1894,9 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
         <v>0</v>
@@ -1895,7 +1929,9 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
         <v>0</v>
@@ -1926,7 +1962,9 @@
       <c r="D21" s="2">
         <v>20</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>22</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>5</v>
@@ -1959,7 +1997,9 @@
       <c r="D22" s="2">
         <v>26</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>24</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <v>4.5</v>
@@ -1992,7 +2032,9 @@
       <c r="D23" s="2">
         <v>15</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
         <v>0</v>
@@ -2025,7 +2067,9 @@
       <c r="D24" s="2">
         <v>17</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>15</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <v>5</v>
@@ -2058,7 +2102,9 @@
       <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <v>0</v>
@@ -2089,7 +2135,9 @@
       <c r="D26" s="2">
         <v>12</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>13</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
         <v>3.5</v>
@@ -2122,7 +2170,9 @@
       <c r="D27" s="2">
         <v>8</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>7</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
         <v>0</v>
@@ -2153,7 +2203,9 @@
       <c r="D28" s="2">
         <v>22</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>17</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <v>4.5</v>
@@ -2186,7 +2238,9 @@
       <c r="D29" s="2">
         <v>12</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
         <v>0</v>
@@ -2219,7 +2273,9 @@
       <c r="D30" s="2">
         <v>16</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>12</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
         <v>4.5</v>
@@ -2250,7 +2306,9 @@
       <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
         <v>0</v>
@@ -2281,7 +2339,9 @@
       <c r="D32" s="2">
         <v>16</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>9</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
         <v>0</v>
@@ -2314,7 +2374,9 @@
       <c r="D33" s="2">
         <v>17</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>15</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
         <v>5</v>
@@ -2347,7 +2409,9 @@
       <c r="D34" s="2">
         <v>13</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>14</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
         <v>5</v>
@@ -2380,7 +2444,9 @@
       <c r="D35" s="2">
         <v>2</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
         <v>0</v>
@@ -2413,7 +2479,9 @@
       <c r="D36" s="2">
         <v>4</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>15</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
         <v>0</v>
@@ -2446,7 +2514,9 @@
       <c r="D37" s="2">
         <v>2</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>6</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
         <v>0</v>
@@ -2479,7 +2549,9 @@
       <c r="D38" s="2">
         <v>19</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>13</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
         <v>0</v>
@@ -2512,7 +2584,9 @@
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
         <v>0</v>
@@ -2543,7 +2617,9 @@
       <c r="D40" s="2">
         <v>12</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>8</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
         <v>0</v>
@@ -2576,7 +2652,9 @@
       <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>7</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2">
         <v>0</v>
@@ -2609,7 +2687,9 @@
       <c r="D42" s="2">
         <v>12</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>8</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2">
         <v>4.5</v>
@@ -2640,7 +2720,9 @@
       <c r="D43" s="2">
         <v>18</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>16</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
         <v>4.5</v>
@@ -2673,7 +2755,9 @@
       <c r="D44" s="2">
         <v>19</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>18</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
         <v>5</v>
@@ -2706,7 +2790,9 @@
       <c r="D45" s="2">
         <v>5</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>9</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2">
         <v>4.5</v>
@@ -2739,7 +2825,9 @@
       <c r="D46" s="2">
         <v>22</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>20</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
         <v>4.5</v>
@@ -2772,7 +2860,9 @@
       <c r="D47" s="2">
         <v>4</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>9</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2">
         <v>0</v>
@@ -2803,7 +2893,9 @@
       <c r="D48" s="2">
         <v>16</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2">
+        <v>12</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2">
         <v>0</v>
@@ -2836,7 +2928,9 @@
       <c r="D49" s="2">
         <v>6</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>12</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2">
         <v>0</v>
@@ -2869,7 +2963,9 @@
       <c r="D50" s="2">
         <v>12</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>9</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
         <v>0</v>
@@ -2902,7 +2998,9 @@
       <c r="D51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2">
         <v>0</v>
@@ -2935,7 +3033,9 @@
       <c r="D52" s="2">
         <v>6</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>15</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2">
         <v>0</v>
@@ -2968,7 +3068,9 @@
       <c r="D53" s="2">
         <v>1</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>2</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2">
         <v>0</v>
@@ -2999,7 +3101,9 @@
       <c r="D54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
         <v>4.5</v>
@@ -3030,7 +3134,9 @@
       <c r="D55" s="2">
         <v>14</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2">
+        <v>8</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2">
         <v>4.5</v>
@@ -3063,7 +3169,9 @@
       <c r="D56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2">
+        <v>12</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2">
         <v>0</v>
@@ -3094,7 +3202,9 @@
       <c r="D57" s="2">
         <v>12</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>13</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2">
         <v>0</v>
@@ -3127,7 +3237,9 @@
       <c r="D58" s="2">
         <v>1</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2">
+        <v>9</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2">
         <v>0</v>
@@ -3158,7 +3270,9 @@
       <c r="D59" s="2">
         <v>14</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2">
+        <v>12</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2">
         <v>0</v>
@@ -3191,7 +3305,9 @@
       <c r="D60" s="2">
         <v>2</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2">
         <v>0</v>
@@ -3222,7 +3338,9 @@
       <c r="D61" s="2">
         <v>2</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2">
+        <v>12</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2">
         <v>0</v>
@@ -3255,7 +3373,9 @@
       <c r="D62" s="2">
         <v>5</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2">
+        <v>21</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2">
         <v>0</v>
@@ -3288,7 +3408,9 @@
       <c r="D63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2">
         <v>0</v>
@@ -3319,7 +3441,9 @@
       <c r="D64" s="2">
         <v>21</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2">
+        <v>15</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2">
         <v>5</v>
@@ -3352,7 +3476,9 @@
       <c r="D65" s="2">
         <v>15</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2">
+        <v>14</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2">
         <v>0</v>
@@ -3385,7 +3511,9 @@
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2">
+        <v>4</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2">
         <v>0</v>
@@ -3418,7 +3546,9 @@
       <c r="D67" s="2">
         <v>26</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2">
+        <v>23</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2">
         <v>5</v>
@@ -3451,7 +3581,9 @@
       <c r="D68" s="2">
         <v>12</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2">
+        <v>12</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2">
         <v>0</v>
@@ -3484,7 +3616,9 @@
       <c r="D69" s="2">
         <v>17</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2">
+        <v>14</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2">
         <v>0</v>
@@ -3517,7 +3651,9 @@
       <c r="D70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2">
         <v>0</v>
@@ -3548,7 +3684,9 @@
       <c r="D71" s="2">
         <v>13</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="2">
+        <v>4</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2">
         <v>0</v>
@@ -3581,7 +3719,9 @@
       <c r="D72" s="2">
         <v>18</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2">
+        <v>13</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2">
         <v>5</v>
@@ -3614,7 +3754,9 @@
       <c r="D73" s="2">
         <v>13</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2">
+        <v>7</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2">
         <v>0</v>
@@ -3647,7 +3789,9 @@
       <c r="D74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2">
         <v>0</v>
@@ -3678,7 +3822,9 @@
       <c r="D75" s="2">
         <v>15</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="2">
+        <v>13</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2">
         <v>0</v>
@@ -3711,7 +3857,9 @@
       <c r="D76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
         <v>0</v>
@@ -3742,7 +3890,9 @@
       <c r="D77" s="2">
         <v>19</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="2">
+        <v>13</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2">
         <v>5</v>
@@ -3775,7 +3925,9 @@
       <c r="D78" s="2">
         <v>13</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2">
         <v>0</v>
@@ -3806,7 +3958,9 @@
       <c r="D79" s="2">
         <v>14</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="2">
+        <v>14</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2">
         <v>0</v>
@@ -3839,7 +3993,9 @@
       <c r="D80" s="2">
         <v>19</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2">
+        <v>15</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2">
         <v>5</v>
@@ -3872,7 +4028,9 @@
       <c r="D81" s="2">
         <v>12</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2">
         <v>0</v>
@@ -3903,7 +4061,9 @@
       <c r="D82" s="2">
         <v>13</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2">
         <v>0</v>
@@ -3934,7 +4094,9 @@
       <c r="D83" s="2">
         <v>7</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="E83" s="2">
+        <v>6</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2">
         <v>4.5</v>
@@ -3965,7 +4127,9 @@
       <c r="D84" s="2">
         <v>4</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="2">
+        <v>8</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2">
         <v>0</v>
@@ -3996,7 +4160,9 @@
       <c r="D85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2">
         <v>0</v>
@@ -4027,7 +4193,9 @@
       <c r="D86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="2">
+        <v>13</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2">
         <v>0</v>
@@ -4058,7 +4226,9 @@
       <c r="D87" s="2">
         <v>14</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2">
+        <v>5</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2">
         <v>5</v>
@@ -4091,7 +4261,9 @@
       <c r="D88" s="2">
         <v>19</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2">
+        <v>16</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2">
         <v>5</v>
@@ -4124,7 +4296,9 @@
       <c r="D89" s="2">
         <v>16</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="E89" s="2">
+        <v>22</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2">
         <v>5</v>
@@ -4157,7 +4331,9 @@
       <c r="D90" s="2">
         <v>12</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="2">
+        <v>12</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2">
         <v>4</v>
@@ -4190,7 +4366,9 @@
       <c r="D91" s="2">
         <v>9</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2">
+        <v>2</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2">
         <v>0</v>
@@ -4223,7 +4401,9 @@
       <c r="D92" s="2">
         <v>7</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2">
+        <v>14</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2">
         <v>0</v>
@@ -4256,7 +4436,9 @@
       <c r="D93" s="2">
         <v>1</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2">
         <v>0</v>
@@ -4287,7 +4469,9 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2">
         <v>4.5</v>
@@ -4320,7 +4504,9 @@
       <c r="D95" s="2">
         <v>3</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2">
         <v>0</v>
@@ -4351,7 +4537,9 @@
       <c r="D96" s="2">
         <v>12</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2">
+        <v>12</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2">
         <v>4.5</v>
@@ -4384,7 +4572,9 @@
       <c r="D97" s="2">
         <v>19</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2">
+        <v>13</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2">
         <v>4.5</v>
@@ -4417,7 +4607,9 @@
       <c r="D98" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2">
         <v>0</v>
@@ -4448,7 +4640,9 @@
       <c r="D99" s="2">
         <v>23</v>
       </c>
-      <c r="E99" s="2"/>
+      <c r="E99" s="2">
+        <v>22</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2">
         <v>5</v>
@@ -4481,7 +4675,9 @@
       <c r="D100" s="2">
         <v>5</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2">
         <v>0</v>
@@ -4514,7 +4710,9 @@
       <c r="D101" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="2">
+        <v>16</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2">
         <v>0</v>
@@ -4545,7 +4743,9 @@
       <c r="D102" s="2">
         <v>18</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2">
+        <v>18</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2">
         <v>5</v>
@@ -4578,7 +4778,9 @@
       <c r="D103" s="2">
         <v>16</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E103" s="2">
+        <v>9</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2">
         <v>0</v>
@@ -4611,7 +4813,9 @@
       <c r="D104" s="2">
         <v>12</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="E104" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2">
         <v>0</v>
@@ -4644,7 +4848,9 @@
       <c r="D105" s="2">
         <v>12</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2">
         <v>0</v>
@@ -4675,7 +4881,9 @@
       <c r="D106" s="2">
         <v>22</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="E106" s="2">
+        <v>10</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2">
         <v>0</v>
@@ -4708,7 +4916,9 @@
       <c r="D107" s="2">
         <v>13</v>
       </c>
-      <c r="E107" s="2"/>
+      <c r="E107" s="2">
+        <v>12</v>
+      </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2">
         <v>0</v>
@@ -4739,7 +4949,9 @@
       <c r="D108" s="2">
         <v>17</v>
       </c>
-      <c r="E108" s="2"/>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2">
         <v>5</v>
@@ -4770,7 +4982,9 @@
       <c r="D109" s="2">
         <v>7</v>
       </c>
-      <c r="E109" s="2"/>
+      <c r="E109" s="2">
+        <v>3</v>
+      </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2">
         <v>0</v>
@@ -4801,7 +5015,9 @@
       <c r="D110" s="2">
         <v>12</v>
       </c>
-      <c r="E110" s="2"/>
+      <c r="E110" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2">
         <v>0</v>
@@ -4832,7 +5048,9 @@
       <c r="D111" s="2">
         <v>12</v>
       </c>
-      <c r="E111" s="2"/>
+      <c r="E111" s="2">
+        <v>8</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2">
         <v>0</v>
@@ -4865,7 +5083,9 @@
       <c r="D112" s="2">
         <v>12</v>
       </c>
-      <c r="E112" s="2"/>
+      <c r="E112" s="2">
+        <v>4</v>
+      </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2">
         <v>0</v>
@@ -4898,7 +5118,9 @@
       <c r="D113" s="2">
         <v>12</v>
       </c>
-      <c r="E113" s="2"/>
+      <c r="E113" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2">
         <v>0</v>
@@ -4929,7 +5151,9 @@
       <c r="D114" s="2">
         <v>9</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="2">
+        <v>4</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2">
         <v>0</v>
@@ -4960,7 +5184,9 @@
       <c r="D115" s="2">
         <v>13</v>
       </c>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2">
+        <v>17</v>
+      </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2">
         <v>0</v>
@@ -4993,7 +5219,9 @@
       <c r="D116" s="2">
         <v>13</v>
       </c>
-      <c r="E116" s="2"/>
+      <c r="E116" s="2">
+        <v>18</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2">
         <v>0</v>
@@ -5026,7 +5254,9 @@
       <c r="D117" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E117" s="2">
+        <v>10</v>
+      </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2">
         <v>0</v>
@@ -5059,7 +5289,9 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="2">
+        <v>6</v>
+      </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2">
         <v>0</v>
@@ -5092,7 +5324,9 @@
       <c r="D119" s="2">
         <v>16</v>
       </c>
-      <c r="E119" s="2"/>
+      <c r="E119" s="2">
+        <v>12</v>
+      </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2">
         <v>0</v>
@@ -5125,6 +5359,9 @@
       <c r="D120" s="21">
         <v>14</v>
       </c>
+      <c r="E120" s="23">
+        <v>13</v>
+      </c>
       <c r="G120" s="2">
         <v>4.5</v>
       </c>
@@ -5153,6 +5390,9 @@
       <c r="D121" s="21">
         <v>12</v>
       </c>
+      <c r="E121" s="23">
+        <v>8</v>
+      </c>
       <c r="G121" s="2">
         <v>0</v>
       </c>
@@ -5177,6 +5417,9 @@
       </c>
       <c r="D122" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="E122" s="23">
+        <v>12</v>
       </c>
       <c r="G122" s="21">
         <v>4</v>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,15 +1460,17 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2">
+        <v>55</v>
+      </c>
       <c r="O6" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.583333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4719,15 +4721,17 @@
       </c>
       <c r="H101" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="N101" s="2">
+        <v>55</v>
+      </c>
       <c r="O101" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.583333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="30" x14ac:dyDescent="0.25">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="197">
   <si>
     <t>S.N</t>
   </si>
@@ -602,6 +602,24 @@
   </si>
   <si>
     <t>YASHPAL</t>
+  </si>
+  <si>
+    <t>P1(5)</t>
+  </si>
+  <si>
+    <t>P2(5)</t>
+  </si>
+  <si>
+    <t>P3(5)</t>
+  </si>
+  <si>
+    <t>S1(40)</t>
+  </si>
+  <si>
+    <t>S2(40)</t>
+  </si>
+  <si>
+    <t>S3(40)</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,10 +1297,12 @@
     <col min="4" max="4" width="9.140625" style="21"/>
     <col min="5" max="6" width="9.140625" style="23"/>
     <col min="7" max="11" width="9.140625" style="21"/>
-    <col min="13" max="16384" width="9.140625" style="21"/>
+    <col min="13" max="21" width="9.140625" style="21"/>
+    <col min="22" max="22" width="10.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>121</v>
       </c>
@@ -1297,7 +1317,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
     </row>
-    <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1334,8 +1354,26 @@
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S2" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -1369,8 +1407,31 @@
         <f>N3*5/60</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17">
+        <v>5</v>
+      </c>
+      <c r="T3" s="17">
+        <v>4</v>
+      </c>
+      <c r="U3" s="17">
+        <v>5</v>
+      </c>
+      <c r="V3" s="17">
+        <f>SUM(D3)+G3+S3</f>
+        <v>13.5</v>
+      </c>
+      <c r="W3" s="17">
+        <f>SUM(E3)+H3+T3</f>
+        <v>26</v>
+      </c>
+      <c r="X3" s="17">
+        <f>SUM(F3)+I3+U3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -1402,8 +1463,29 @@
         <f t="shared" ref="O4:O67" si="1">N4*5/60</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S4" s="21">
+        <v>3</v>
+      </c>
+      <c r="T4" s="21">
+        <v>4</v>
+      </c>
+      <c r="U4" s="21">
+        <v>1</v>
+      </c>
+      <c r="V4" s="17">
+        <f t="shared" ref="V4:W67" si="2">SUM(D4)+G4+S4</f>
+        <v>5</v>
+      </c>
+      <c r="W4" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="X4" s="17">
+        <f t="shared" ref="X4:X67" si="3">SUM(F4)+I4+U4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -1437,8 +1519,29 @@
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S5" s="21">
+        <v>5</v>
+      </c>
+      <c r="T5" s="21">
+        <v>5</v>
+      </c>
+      <c r="U5" s="21">
+        <v>5</v>
+      </c>
+      <c r="V5" s="17">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="W5" s="17">
+        <f t="shared" si="2"/>
+        <v>38.666666666666664</v>
+      </c>
+      <c r="X5" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -1472,8 +1575,29 @@
         <f t="shared" si="1"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S6" s="21">
+        <v>1</v>
+      </c>
+      <c r="T6" s="21">
+        <v>4</v>
+      </c>
+      <c r="U6" s="21">
+        <v>4</v>
+      </c>
+      <c r="V6" s="17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W6" s="17">
+        <f t="shared" si="2"/>
+        <v>24.583333333333332</v>
+      </c>
+      <c r="X6" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -1507,8 +1631,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S7" s="21">
+        <v>5</v>
+      </c>
+      <c r="T7" s="21">
+        <v>5</v>
+      </c>
+      <c r="U7" s="21">
+        <v>5</v>
+      </c>
+      <c r="V7" s="17">
+        <f t="shared" si="2"/>
+        <v>36.5</v>
+      </c>
+      <c r="W7" s="17">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="X7" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -1542,8 +1687,29 @@
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S8" s="21">
+        <v>4</v>
+      </c>
+      <c r="T8" s="21">
+        <v>4</v>
+      </c>
+      <c r="U8" s="21">
+        <v>1</v>
+      </c>
+      <c r="V8" s="17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="W8" s="17">
+        <f t="shared" si="2"/>
+        <v>17.75</v>
+      </c>
+      <c r="X8" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -1577,8 +1743,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S9" s="21">
+        <v>0</v>
+      </c>
+      <c r="T9" s="21">
+        <v>2</v>
+      </c>
+      <c r="U9" s="21">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="W9" s="17">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="X9" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -1612,8 +1799,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S10" s="21">
+        <v>4</v>
+      </c>
+      <c r="T10" s="21">
+        <v>4</v>
+      </c>
+      <c r="U10" s="21">
+        <v>5</v>
+      </c>
+      <c r="V10" s="17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -1645,8 +1853,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S11" s="21">
+        <v>0</v>
+      </c>
+      <c r="T11" s="21">
+        <v>0</v>
+      </c>
+      <c r="U11" s="21">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -1678,8 +1907,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S12" s="21">
+        <v>1</v>
+      </c>
+      <c r="T12" s="21">
+        <v>3</v>
+      </c>
+      <c r="U12" s="21">
+        <v>2</v>
+      </c>
+      <c r="V12" s="17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W12" s="17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -1713,8 +1963,29 @@
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S13" s="21">
+        <v>4</v>
+      </c>
+      <c r="T13" s="21">
+        <v>5</v>
+      </c>
+      <c r="U13" s="21">
+        <v>4</v>
+      </c>
+      <c r="V13" s="17">
+        <f t="shared" si="2"/>
+        <v>33.5</v>
+      </c>
+      <c r="W13" s="17">
+        <f t="shared" si="2"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="X13" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -1746,8 +2017,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S14" s="21">
+        <v>4</v>
+      </c>
+      <c r="T14" s="21">
+        <v>5</v>
+      </c>
+      <c r="U14" s="21">
+        <v>1</v>
+      </c>
+      <c r="V14" s="17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="W14" s="17">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -1781,8 +2073,29 @@
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S15" s="21">
+        <v>4</v>
+      </c>
+      <c r="T15" s="21">
+        <v>3</v>
+      </c>
+      <c r="U15" s="21">
+        <v>5</v>
+      </c>
+      <c r="V15" s="17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="W15" s="17">
+        <f t="shared" si="2"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="X15" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -1814,8 +2127,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S16" s="21">
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
+        <v>4</v>
+      </c>
+      <c r="U16" s="21">
+        <v>2</v>
+      </c>
+      <c r="V16" s="17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W16" s="17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X16" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -1849,8 +2183,29 @@
         <f t="shared" si="1"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S17" s="21">
+        <v>1</v>
+      </c>
+      <c r="T17" s="21">
+        <v>4</v>
+      </c>
+      <c r="U17" s="21">
+        <v>5</v>
+      </c>
+      <c r="V17" s="17">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="W17" s="17">
+        <f t="shared" si="2"/>
+        <v>21.583333333333332</v>
+      </c>
+      <c r="X17" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>16</v>
       </c>
@@ -1882,8 +2237,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S18" s="21">
+        <v>4</v>
+      </c>
+      <c r="T18" s="21">
+        <v>3</v>
+      </c>
+      <c r="U18" s="21">
+        <v>2</v>
+      </c>
+      <c r="V18" s="17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="W18" s="17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="X18" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>17</v>
       </c>
@@ -1917,8 +2293,29 @@
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S19" s="21">
+        <v>0</v>
+      </c>
+      <c r="T19" s="21">
+        <v>3</v>
+      </c>
+      <c r="U19" s="21">
+        <v>2</v>
+      </c>
+      <c r="V19" s="17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W19" s="17">
+        <f t="shared" si="2"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="X19" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>18</v>
       </c>
@@ -1950,8 +2347,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S20" s="21">
+        <v>3</v>
+      </c>
+      <c r="T20" s="21">
+        <v>4</v>
+      </c>
+      <c r="U20" s="21">
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W20" s="17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X20" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>19</v>
       </c>
@@ -1985,8 +2403,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S21" s="21">
+        <v>2</v>
+      </c>
+      <c r="T21" s="21">
+        <v>5</v>
+      </c>
+      <c r="U21" s="21">
+        <v>2</v>
+      </c>
+      <c r="V21" s="17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="W21" s="17">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="X21" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>20</v>
       </c>
@@ -2020,8 +2459,29 @@
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S22" s="21">
+        <v>5</v>
+      </c>
+      <c r="T22" s="21">
+        <v>5</v>
+      </c>
+      <c r="U22" s="21">
+        <v>5</v>
+      </c>
+      <c r="V22" s="17">
+        <f t="shared" si="2"/>
+        <v>35.5</v>
+      </c>
+      <c r="W22" s="17">
+        <f t="shared" si="2"/>
+        <v>33.666666666666671</v>
+      </c>
+      <c r="X22" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>21</v>
       </c>
@@ -2055,8 +2515,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S23" s="21">
+        <v>3</v>
+      </c>
+      <c r="T23" s="21">
+        <v>4</v>
+      </c>
+      <c r="U23" s="21">
+        <v>2</v>
+      </c>
+      <c r="V23" s="17">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="W23" s="17">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="X23" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>22</v>
       </c>
@@ -2090,8 +2571,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S24" s="21">
+        <v>5</v>
+      </c>
+      <c r="T24" s="21">
+        <v>5</v>
+      </c>
+      <c r="U24" s="21">
+        <v>5</v>
+      </c>
+      <c r="V24" s="17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="W24" s="17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="X24" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>23</v>
       </c>
@@ -2123,8 +2625,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S25" s="21">
+        <v>3</v>
+      </c>
+      <c r="T25" s="21">
+        <v>0</v>
+      </c>
+      <c r="U25" s="21">
+        <v>0</v>
+      </c>
+      <c r="V25" s="17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W25" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>24</v>
       </c>
@@ -2158,8 +2681,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S26" s="21">
+        <v>5</v>
+      </c>
+      <c r="T26" s="21">
+        <v>5</v>
+      </c>
+      <c r="U26" s="21">
+        <v>5</v>
+      </c>
+      <c r="V26" s="17">
+        <f t="shared" si="2"/>
+        <v>20.5</v>
+      </c>
+      <c r="W26" s="17">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="X26" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>25</v>
       </c>
@@ -2191,8 +2735,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S27" s="21">
+        <v>4</v>
+      </c>
+      <c r="T27" s="21">
+        <v>4</v>
+      </c>
+      <c r="U27" s="21">
+        <v>2</v>
+      </c>
+      <c r="V27" s="17">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="W27" s="17">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X27" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>26</v>
       </c>
@@ -2226,8 +2791,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S28" s="21">
+        <v>5</v>
+      </c>
+      <c r="T28" s="21">
+        <v>5</v>
+      </c>
+      <c r="U28" s="21">
+        <v>5</v>
+      </c>
+      <c r="V28" s="17">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="W28" s="17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="X28" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>27</v>
       </c>
@@ -2261,8 +2847,29 @@
         <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S29" s="21">
+        <v>4</v>
+      </c>
+      <c r="T29" s="21">
+        <v>4</v>
+      </c>
+      <c r="U29" s="21">
+        <v>2</v>
+      </c>
+      <c r="V29" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="W29" s="17">
+        <f t="shared" si="2"/>
+        <v>13.166666666666668</v>
+      </c>
+      <c r="X29" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>28</v>
       </c>
@@ -2294,8 +2901,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S30" s="21">
+        <v>4</v>
+      </c>
+      <c r="T30" s="21">
+        <v>4</v>
+      </c>
+      <c r="U30" s="21">
+        <v>0</v>
+      </c>
+      <c r="V30" s="17">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+      <c r="W30" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="X30" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>29</v>
       </c>
@@ -2327,8 +2955,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S31" s="21">
+        <v>0</v>
+      </c>
+      <c r="T31" s="21">
+        <v>0</v>
+      </c>
+      <c r="U31" s="21">
+        <v>0</v>
+      </c>
+      <c r="V31" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>30</v>
       </c>
@@ -2362,8 +3011,29 @@
         <f t="shared" si="1"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="S32" s="21">
+        <v>4</v>
+      </c>
+      <c r="T32" s="21">
+        <v>5</v>
+      </c>
+      <c r="U32" s="21">
+        <v>1</v>
+      </c>
+      <c r="V32" s="17">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="W32" s="17">
+        <f t="shared" si="2"/>
+        <v>18.583333333333332</v>
+      </c>
+      <c r="X32" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>31</v>
       </c>
@@ -2397,8 +3067,29 @@
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S33" s="21">
+        <v>1</v>
+      </c>
+      <c r="T33" s="21">
+        <v>4</v>
+      </c>
+      <c r="U33" s="21">
+        <v>1</v>
+      </c>
+      <c r="V33" s="17">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="W33" s="17">
+        <f t="shared" si="2"/>
+        <v>22.75</v>
+      </c>
+      <c r="X33" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>32</v>
       </c>
@@ -2432,8 +3123,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S34" s="21">
+        <v>2</v>
+      </c>
+      <c r="T34" s="21">
+        <v>5</v>
+      </c>
+      <c r="U34" s="21">
+        <v>4</v>
+      </c>
+      <c r="V34" s="17">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="W34" s="17">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="X34" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>33</v>
       </c>
@@ -2467,8 +3179,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S35" s="21">
+        <v>4</v>
+      </c>
+      <c r="T35" s="21">
+        <v>5</v>
+      </c>
+      <c r="U35" s="21">
+        <v>5</v>
+      </c>
+      <c r="V35" s="17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W35" s="17">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X35" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>34</v>
       </c>
@@ -2502,8 +3235,29 @@
         <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S36" s="21">
+        <v>1</v>
+      </c>
+      <c r="T36" s="21">
+        <v>4</v>
+      </c>
+      <c r="U36" s="21">
+        <v>4</v>
+      </c>
+      <c r="V36" s="17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W36" s="17">
+        <f t="shared" si="2"/>
+        <v>23.166666666666668</v>
+      </c>
+      <c r="X36" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>35</v>
       </c>
@@ -2537,8 +3291,29 @@
         <f t="shared" si="1"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S37" s="21">
+        <v>1</v>
+      </c>
+      <c r="T37" s="21">
+        <v>4</v>
+      </c>
+      <c r="U37" s="21">
+        <v>2</v>
+      </c>
+      <c r="V37" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W37" s="17">
+        <f t="shared" si="2"/>
+        <v>14.583333333333332</v>
+      </c>
+      <c r="X37" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>36</v>
       </c>
@@ -2572,8 +3347,29 @@
         <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S38" s="21">
+        <v>5</v>
+      </c>
+      <c r="T38" s="21">
+        <v>5</v>
+      </c>
+      <c r="U38" s="21">
+        <v>5</v>
+      </c>
+      <c r="V38" s="17">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="W38" s="17">
+        <f t="shared" si="2"/>
+        <v>22.166666666666668</v>
+      </c>
+      <c r="X38" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>37</v>
       </c>
@@ -2605,8 +3401,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S39" s="21">
+        <v>1</v>
+      </c>
+      <c r="T39" s="21">
+        <v>1</v>
+      </c>
+      <c r="U39" s="21">
+        <v>0</v>
+      </c>
+      <c r="V39" s="17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W39" s="17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X39" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>38</v>
       </c>
@@ -2640,8 +3457,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S40" s="21">
+        <v>4</v>
+      </c>
+      <c r="T40" s="21">
+        <v>5</v>
+      </c>
+      <c r="U40" s="21">
+        <v>2</v>
+      </c>
+      <c r="V40" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="W40" s="17">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="X40" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>39</v>
       </c>
@@ -2675,8 +3513,29 @@
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S41" s="21">
+        <v>4</v>
+      </c>
+      <c r="T41" s="21">
+        <v>3</v>
+      </c>
+      <c r="U41" s="21">
+        <v>0</v>
+      </c>
+      <c r="V41" s="17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W41" s="17">
+        <f t="shared" si="2"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="X41" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>40</v>
       </c>
@@ -2708,8 +3567,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S42" s="21">
+        <v>4</v>
+      </c>
+      <c r="T42" s="21">
+        <v>4</v>
+      </c>
+      <c r="U42" s="21">
+        <v>1</v>
+      </c>
+      <c r="V42" s="17">
+        <f t="shared" si="2"/>
+        <v>20.5</v>
+      </c>
+      <c r="W42" s="17">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X42" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>41</v>
       </c>
@@ -2743,8 +3623,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S43" s="21">
+        <v>4</v>
+      </c>
+      <c r="T43" s="21">
+        <v>5</v>
+      </c>
+      <c r="U43" s="21">
+        <v>4</v>
+      </c>
+      <c r="V43" s="17">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+      <c r="W43" s="17">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X43" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>42</v>
       </c>
@@ -2778,8 +3679,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S44" s="21">
+        <v>5</v>
+      </c>
+      <c r="T44" s="21">
+        <v>5</v>
+      </c>
+      <c r="U44" s="21">
+        <v>5</v>
+      </c>
+      <c r="V44" s="17">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="W44" s="17">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="X44" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>43</v>
       </c>
@@ -2813,8 +3735,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S45" s="21">
+        <v>4</v>
+      </c>
+      <c r="T45" s="21">
+        <v>5</v>
+      </c>
+      <c r="U45" s="21">
+        <v>2</v>
+      </c>
+      <c r="V45" s="17">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="W45" s="17">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="X45" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>44</v>
       </c>
@@ -2848,8 +3791,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S46" s="21">
+        <v>5</v>
+      </c>
+      <c r="T46" s="21">
+        <v>5</v>
+      </c>
+      <c r="U46" s="21">
+        <v>5</v>
+      </c>
+      <c r="V46" s="17">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="W46" s="17">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X46" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45</v>
       </c>
@@ -2881,8 +3845,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S47" s="21">
+        <v>3</v>
+      </c>
+      <c r="T47" s="21">
+        <v>4</v>
+      </c>
+      <c r="U47" s="21">
+        <v>1</v>
+      </c>
+      <c r="V47" s="17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="W47" s="17">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="X47" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>46</v>
       </c>
@@ -2916,8 +3901,29 @@
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S48" s="21">
+        <v>3</v>
+      </c>
+      <c r="T48" s="21">
+        <v>2</v>
+      </c>
+      <c r="U48" s="21">
+        <v>0</v>
+      </c>
+      <c r="V48" s="17">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="W48" s="17">
+        <f t="shared" si="2"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="X48" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>47</v>
       </c>
@@ -2951,8 +3957,29 @@
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S49" s="21">
+        <v>4</v>
+      </c>
+      <c r="T49" s="21">
+        <v>4</v>
+      </c>
+      <c r="U49" s="21">
+        <v>4</v>
+      </c>
+      <c r="V49" s="17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W49" s="17">
+        <f t="shared" si="2"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="X49" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>48</v>
       </c>
@@ -2986,8 +4013,29 @@
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S50" s="21">
+        <v>4</v>
+      </c>
+      <c r="T50" s="21">
+        <v>4</v>
+      </c>
+      <c r="U50" s="21">
+        <v>4</v>
+      </c>
+      <c r="V50" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="W50" s="17">
+        <f t="shared" si="2"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="X50" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>49</v>
       </c>
@@ -3021,8 +4069,29 @@
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S51" s="21">
+        <v>3</v>
+      </c>
+      <c r="T51" s="21">
+        <v>4</v>
+      </c>
+      <c r="U51" s="21">
+        <v>4</v>
+      </c>
+      <c r="V51" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W51" s="17">
+        <f t="shared" si="2"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="X51" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>50</v>
       </c>
@@ -3056,8 +4125,29 @@
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S52" s="21">
+        <v>2</v>
+      </c>
+      <c r="T52" s="21">
+        <v>5</v>
+      </c>
+      <c r="U52" s="21">
+        <v>4</v>
+      </c>
+      <c r="V52" s="17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="W52" s="17">
+        <f t="shared" si="2"/>
+        <v>24.333333333333332</v>
+      </c>
+      <c r="X52" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>51</v>
       </c>
@@ -3089,8 +4179,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S53" s="21">
+        <v>4</v>
+      </c>
+      <c r="T53" s="21">
+        <v>3</v>
+      </c>
+      <c r="U53" s="21">
+        <v>4</v>
+      </c>
+      <c r="V53" s="17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W53" s="17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X53" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
         <v>52</v>
       </c>
@@ -3122,8 +4233,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S54" s="21">
+        <v>4</v>
+      </c>
+      <c r="T54" s="21">
+        <v>0</v>
+      </c>
+      <c r="U54" s="21">
+        <v>0</v>
+      </c>
+      <c r="V54" s="17">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="W54" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>53</v>
       </c>
@@ -3157,8 +4289,29 @@
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S55" s="21">
+        <v>4</v>
+      </c>
+      <c r="T55" s="21">
+        <v>4</v>
+      </c>
+      <c r="U55" s="21">
+        <v>1</v>
+      </c>
+      <c r="V55" s="17">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="W55" s="17">
+        <f t="shared" si="2"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="X55" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>54</v>
       </c>
@@ -3190,8 +4343,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S56" s="21">
+        <v>0</v>
+      </c>
+      <c r="T56" s="21">
+        <v>3</v>
+      </c>
+      <c r="U56" s="21">
+        <v>0</v>
+      </c>
+      <c r="V56" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="X56" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>55</v>
       </c>
@@ -3225,8 +4399,29 @@
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S57" s="21">
+        <v>4</v>
+      </c>
+      <c r="T57" s="21">
+        <v>4</v>
+      </c>
+      <c r="U57" s="21">
+        <v>5</v>
+      </c>
+      <c r="V57" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="W57" s="17">
+        <f t="shared" si="2"/>
+        <v>20.75</v>
+      </c>
+      <c r="X57" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>56</v>
       </c>
@@ -3258,8 +4453,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S58" s="21">
+        <v>0</v>
+      </c>
+      <c r="T58" s="21">
+        <v>2</v>
+      </c>
+      <c r="U58" s="21">
+        <v>0</v>
+      </c>
+      <c r="V58" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W58" s="17">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X58" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>57</v>
       </c>
@@ -3293,8 +4509,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S59" s="21">
+        <v>4</v>
+      </c>
+      <c r="T59" s="21">
+        <v>4</v>
+      </c>
+      <c r="U59" s="21">
+        <v>5</v>
+      </c>
+      <c r="V59" s="17">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="W59" s="17">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="X59" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>58</v>
       </c>
@@ -3326,8 +4563,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S60" s="21">
+        <v>1</v>
+      </c>
+      <c r="T60" s="21">
+        <v>4</v>
+      </c>
+      <c r="U60" s="21">
+        <v>2</v>
+      </c>
+      <c r="V60" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W60" s="17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X60" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>59</v>
       </c>
@@ -3361,8 +4619,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S61" s="21">
+        <v>3</v>
+      </c>
+      <c r="T61" s="21">
+        <v>2</v>
+      </c>
+      <c r="U61" s="21">
+        <v>1</v>
+      </c>
+      <c r="V61" s="17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W61" s="17">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="X61" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>60</v>
       </c>
@@ -3396,8 +4675,29 @@
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S62" s="21">
+        <v>3</v>
+      </c>
+      <c r="T62" s="21">
+        <v>4</v>
+      </c>
+      <c r="U62" s="21">
+        <v>1</v>
+      </c>
+      <c r="V62" s="17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="W62" s="17">
+        <f t="shared" si="2"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="X62" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>61</v>
       </c>
@@ -3429,8 +4729,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S63" s="21">
+        <v>0</v>
+      </c>
+      <c r="T63" s="21">
+        <v>0</v>
+      </c>
+      <c r="U63" s="21">
+        <v>0</v>
+      </c>
+      <c r="V63" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>62</v>
       </c>
@@ -3464,8 +4785,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S64" s="21">
+        <v>4</v>
+      </c>
+      <c r="T64" s="21">
+        <v>5</v>
+      </c>
+      <c r="U64" s="21">
+        <v>5</v>
+      </c>
+      <c r="V64" s="17">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="W64" s="17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="X64" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>63</v>
       </c>
@@ -3499,8 +4841,29 @@
         <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S65" s="21">
+        <v>2</v>
+      </c>
+      <c r="T65" s="21">
+        <v>4</v>
+      </c>
+      <c r="U65" s="21">
+        <v>1</v>
+      </c>
+      <c r="V65" s="17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="W65" s="17">
+        <f t="shared" si="2"/>
+        <v>22.166666666666668</v>
+      </c>
+      <c r="X65" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>64</v>
       </c>
@@ -3534,8 +4897,29 @@
         <f t="shared" si="1"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S66" s="21">
+        <v>1</v>
+      </c>
+      <c r="T66" s="21">
+        <v>3</v>
+      </c>
+      <c r="U66" s="21">
+        <v>0</v>
+      </c>
+      <c r="V66" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W66" s="17">
+        <f t="shared" si="2"/>
+        <v>11.583333333333332</v>
+      </c>
+      <c r="X66" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>65</v>
       </c>
@@ -3569,8 +4953,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S67" s="21">
+        <v>4</v>
+      </c>
+      <c r="T67" s="21">
+        <v>5</v>
+      </c>
+      <c r="U67" s="21">
+        <v>5</v>
+      </c>
+      <c r="V67" s="17">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="W67" s="17">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="X67" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>66</v>
       </c>
@@ -3591,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:H122" si="2">O68</f>
+        <f t="shared" ref="H68:H122" si="4">O68</f>
         <v>5</v>
       </c>
       <c r="I68" s="2"/>
@@ -3601,11 +5006,32 @@
         <v>60</v>
       </c>
       <c r="O68" s="21">
-        <f t="shared" ref="O68:O121" si="3">N68*5/60</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O68:O121" si="5">N68*5/60</f>
+        <v>5</v>
+      </c>
+      <c r="S68" s="21">
+        <v>3</v>
+      </c>
+      <c r="T68" s="21">
+        <v>4</v>
+      </c>
+      <c r="U68" s="21">
+        <v>0</v>
+      </c>
+      <c r="V68" s="17">
+        <f t="shared" ref="V68:W131" si="6">SUM(D68)+G68+S68</f>
+        <v>15</v>
+      </c>
+      <c r="W68" s="17">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="X68" s="17">
+        <f t="shared" ref="X68:X131" si="7">SUM(F68)+I68+U68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>67</v>
       </c>
@@ -3626,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
       <c r="I69" s="2"/>
@@ -3636,11 +5062,32 @@
         <v>50</v>
       </c>
       <c r="O69" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S69" s="21">
+        <v>2</v>
+      </c>
+      <c r="T69" s="21">
+        <v>3</v>
+      </c>
+      <c r="U69" s="21">
+        <v>0</v>
+      </c>
+      <c r="V69" s="17">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="W69" s="17">
+        <f t="shared" si="6"/>
+        <v>21.166666666666668</v>
+      </c>
+      <c r="X69" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>68</v>
       </c>
@@ -3661,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
@@ -3669,11 +5116,32 @@
       <c r="K70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="21">
+        <v>0</v>
+      </c>
+      <c r="T70" s="21">
+        <v>0</v>
+      </c>
+      <c r="U70" s="21">
+        <v>0</v>
+      </c>
+      <c r="V70" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>69</v>
       </c>
@@ -3694,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="I71" s="2"/>
@@ -3704,11 +5172,32 @@
         <v>52</v>
       </c>
       <c r="O71" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S71" s="21">
+        <v>2</v>
+      </c>
+      <c r="T71" s="21">
+        <v>4</v>
+      </c>
+      <c r="U71" s="21">
+        <v>1</v>
+      </c>
+      <c r="V71" s="17">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="W71" s="17">
+        <f t="shared" si="6"/>
+        <v>12.333333333333332</v>
+      </c>
+      <c r="X71" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>70</v>
       </c>
@@ -3729,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="I72" s="2"/>
@@ -3739,11 +5228,32 @@
         <v>52</v>
       </c>
       <c r="O72" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S72" s="21">
+        <v>4</v>
+      </c>
+      <c r="T72" s="21">
+        <v>5</v>
+      </c>
+      <c r="U72" s="21">
+        <v>5</v>
+      </c>
+      <c r="V72" s="17">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="W72" s="17">
+        <f t="shared" si="6"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="X72" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>71</v>
       </c>
@@ -3764,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
       <c r="I73" s="2"/>
@@ -3774,11 +5284,32 @@
         <v>56</v>
       </c>
       <c r="O73" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S73" s="21">
+        <v>3</v>
+      </c>
+      <c r="T73" s="21">
+        <v>4</v>
+      </c>
+      <c r="U73" s="21">
+        <v>3</v>
+      </c>
+      <c r="V73" s="17">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="W73" s="17">
+        <f t="shared" si="6"/>
+        <v>15.666666666666668</v>
+      </c>
+      <c r="X73" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>72</v>
       </c>
@@ -3799,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I74" s="2"/>
@@ -3807,11 +5338,32 @@
       <c r="K74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="21">
+        <v>0</v>
+      </c>
+      <c r="T74" s="21">
+        <v>0</v>
+      </c>
+      <c r="U74" s="21">
+        <v>0</v>
+      </c>
+      <c r="V74" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>73</v>
       </c>
@@ -3832,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
       <c r="I75" s="2"/>
@@ -3842,11 +5394,32 @@
         <v>56</v>
       </c>
       <c r="O75" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S75" s="21">
+        <v>3</v>
+      </c>
+      <c r="T75" s="21">
+        <v>3</v>
+      </c>
+      <c r="U75" s="21">
+        <v>4</v>
+      </c>
+      <c r="V75" s="17">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="W75" s="17">
+        <f t="shared" si="6"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="X75" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>74</v>
       </c>
@@ -3867,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I76" s="2"/>
@@ -3875,11 +5448,32 @@
       <c r="K76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="21">
+        <v>0</v>
+      </c>
+      <c r="T76" s="21">
+        <v>0</v>
+      </c>
+      <c r="U76" s="21">
+        <v>0</v>
+      </c>
+      <c r="V76" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>75</v>
       </c>
@@ -3900,7 +5494,7 @@
         <v>5</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="I77" s="2"/>
@@ -3910,11 +5504,32 @@
         <v>55</v>
       </c>
       <c r="O77" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S77" s="21">
+        <v>5</v>
+      </c>
+      <c r="T77" s="21">
+        <v>5</v>
+      </c>
+      <c r="U77" s="21">
+        <v>4</v>
+      </c>
+      <c r="V77" s="17">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="W77" s="17">
+        <f t="shared" si="6"/>
+        <v>22.583333333333332</v>
+      </c>
+      <c r="X77" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>76</v>
       </c>
@@ -3935,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I78" s="2"/>
@@ -3943,11 +5558,32 @@
       <c r="K78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="21">
+        <v>2</v>
+      </c>
+      <c r="T78" s="21">
+        <v>0</v>
+      </c>
+      <c r="U78" s="21">
+        <v>0</v>
+      </c>
+      <c r="V78" s="17">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="W78" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X78" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="28">
         <v>77</v>
       </c>
@@ -3968,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I79" s="2"/>
@@ -3978,11 +5614,32 @@
         <v>60</v>
       </c>
       <c r="O79" s="21">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S79" s="21">
+        <v>3</v>
+      </c>
+      <c r="T79" s="21">
+        <v>5</v>
+      </c>
+      <c r="U79" s="21">
+        <v>4</v>
+      </c>
+      <c r="V79" s="17">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="W79" s="17">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="X79" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>78</v>
       </c>
@@ -4003,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="I80" s="2"/>
@@ -4013,11 +5670,32 @@
         <v>55</v>
       </c>
       <c r="O80" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S80" s="21">
+        <v>5</v>
+      </c>
+      <c r="T80" s="21">
+        <v>5</v>
+      </c>
+      <c r="U80" s="21">
+        <v>4</v>
+      </c>
+      <c r="V80" s="17">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="W80" s="17">
+        <f t="shared" si="6"/>
+        <v>24.583333333333332</v>
+      </c>
+      <c r="X80" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>79</v>
       </c>
@@ -4038,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I81" s="2"/>
@@ -4046,11 +5724,32 @@
       <c r="K81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="21">
+        <v>2</v>
+      </c>
+      <c r="T81" s="21">
+        <v>4</v>
+      </c>
+      <c r="U81" s="21">
+        <v>4</v>
+      </c>
+      <c r="V81" s="17">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="W81" s="17">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="X81" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>80</v>
       </c>
@@ -4071,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I82" s="2"/>
@@ -4079,11 +5778,32 @@
       <c r="K82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="21">
+        <v>2</v>
+      </c>
+      <c r="T82" s="21">
+        <v>0</v>
+      </c>
+      <c r="U82" s="21">
+        <v>0</v>
+      </c>
+      <c r="V82" s="17">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="W82" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X82" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>81</v>
       </c>
@@ -4104,7 +5824,7 @@
         <v>4.5</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I83" s="2"/>
@@ -4112,11 +5832,32 @@
       <c r="K83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="21">
+        <v>3</v>
+      </c>
+      <c r="T83" s="21">
+        <v>5</v>
+      </c>
+      <c r="U83" s="21">
+        <v>5</v>
+      </c>
+      <c r="V83" s="17">
+        <f t="shared" si="6"/>
+        <v>14.5</v>
+      </c>
+      <c r="W83" s="17">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="X83" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>82</v>
       </c>
@@ -4137,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I84" s="2"/>
@@ -4145,11 +5886,32 @@
       <c r="K84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="21">
+        <v>2</v>
+      </c>
+      <c r="T84" s="21">
+        <v>3</v>
+      </c>
+      <c r="U84" s="21">
+        <v>3</v>
+      </c>
+      <c r="V84" s="17">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="W84" s="17">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="X84" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>83</v>
       </c>
@@ -4170,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I85" s="2"/>
@@ -4178,11 +5940,32 @@
       <c r="K85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="21">
+        <v>0</v>
+      </c>
+      <c r="T85" s="21">
+        <v>0</v>
+      </c>
+      <c r="U85" s="21">
+        <v>0</v>
+      </c>
+      <c r="V85" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W85" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X85" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>84</v>
       </c>
@@ -4203,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I86" s="2"/>
@@ -4211,11 +5994,32 @@
       <c r="K86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="21">
+        <v>2</v>
+      </c>
+      <c r="T86" s="21">
+        <v>4</v>
+      </c>
+      <c r="U86" s="21">
+        <v>3</v>
+      </c>
+      <c r="V86" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W86" s="17">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X86" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>85</v>
       </c>
@@ -4236,7 +6040,7 @@
         <v>5</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="I87" s="2"/>
@@ -4246,11 +6050,32 @@
         <v>55</v>
       </c>
       <c r="O87" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S87" s="21">
+        <v>4</v>
+      </c>
+      <c r="T87" s="21">
+        <v>5</v>
+      </c>
+      <c r="U87" s="21">
+        <v>5</v>
+      </c>
+      <c r="V87" s="17">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="W87" s="17">
+        <f t="shared" si="6"/>
+        <v>14.583333333333332</v>
+      </c>
+      <c r="X87" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="28">
         <v>86</v>
       </c>
@@ -4271,7 +6096,7 @@
         <v>5</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="I88" s="2"/>
@@ -4281,11 +6106,32 @@
         <v>55</v>
       </c>
       <c r="O88" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S88" s="21">
+        <v>2</v>
+      </c>
+      <c r="T88" s="21">
+        <v>4</v>
+      </c>
+      <c r="U88" s="21">
+        <v>2</v>
+      </c>
+      <c r="V88" s="17">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="W88" s="17">
+        <f t="shared" si="6"/>
+        <v>24.583333333333332</v>
+      </c>
+      <c r="X88" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>87</v>
       </c>
@@ -4306,7 +6152,7 @@
         <v>5</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="I89" s="2"/>
@@ -4316,11 +6162,32 @@
         <v>55</v>
       </c>
       <c r="O89" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S89" s="21">
+        <v>4</v>
+      </c>
+      <c r="T89" s="21">
+        <v>5</v>
+      </c>
+      <c r="U89" s="21">
+        <v>4</v>
+      </c>
+      <c r="V89" s="17">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="W89" s="17">
+        <f t="shared" si="6"/>
+        <v>31.583333333333332</v>
+      </c>
+      <c r="X89" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>88</v>
       </c>
@@ -4341,7 +6208,7 @@
         <v>4</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="I90" s="2"/>
@@ -4351,11 +6218,32 @@
         <v>52</v>
       </c>
       <c r="O90" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S90" s="21">
+        <v>3</v>
+      </c>
+      <c r="T90" s="21">
+        <v>4</v>
+      </c>
+      <c r="U90" s="21">
+        <v>0</v>
+      </c>
+      <c r="V90" s="17">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="W90" s="17">
+        <f t="shared" si="6"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="X90" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>89</v>
       </c>
@@ -4376,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
       <c r="I91" s="2"/>
@@ -4386,11 +6274,32 @@
         <v>50</v>
       </c>
       <c r="O91" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S91" s="21">
+        <v>2</v>
+      </c>
+      <c r="T91" s="21">
+        <v>3</v>
+      </c>
+      <c r="U91" s="21">
+        <v>2</v>
+      </c>
+      <c r="V91" s="17">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="W91" s="17">
+        <f t="shared" si="6"/>
+        <v>9.1666666666666679</v>
+      </c>
+      <c r="X91" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>90</v>
       </c>
@@ -4411,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I92" s="2"/>
@@ -4421,11 +6330,32 @@
         <v>48</v>
       </c>
       <c r="O92" s="21">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S92" s="21">
+        <v>2</v>
+      </c>
+      <c r="T92" s="21">
+        <v>4</v>
+      </c>
+      <c r="U92" s="21">
+        <v>1</v>
+      </c>
+      <c r="V92" s="17">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="W92" s="17">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="X92" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>91</v>
       </c>
@@ -4446,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I93" s="2"/>
@@ -4454,11 +6384,32 @@
       <c r="K93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="21">
+        <v>3</v>
+      </c>
+      <c r="T93" s="21">
+        <v>3</v>
+      </c>
+      <c r="U93" s="21">
+        <v>4</v>
+      </c>
+      <c r="V93" s="17">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="W93" s="17">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="X93" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>92</v>
       </c>
@@ -4479,7 +6430,7 @@
         <v>4.5</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
       <c r="I94" s="2"/>
@@ -4489,11 +6440,32 @@
         <v>56</v>
       </c>
       <c r="O94" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S94" s="21">
+        <v>1</v>
+      </c>
+      <c r="T94" s="21">
+        <v>4</v>
+      </c>
+      <c r="U94" s="21">
+        <v>4</v>
+      </c>
+      <c r="V94" s="17">
+        <f t="shared" si="6"/>
+        <v>5.5</v>
+      </c>
+      <c r="W94" s="17">
+        <f t="shared" si="6"/>
+        <v>9.6666666666666679</v>
+      </c>
+      <c r="X94" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>93</v>
       </c>
@@ -4514,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I95" s="2"/>
@@ -4522,11 +6494,32 @@
       <c r="K95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S95" s="21">
+        <v>1</v>
+      </c>
+      <c r="T95" s="21">
+        <v>0</v>
+      </c>
+      <c r="U95" s="21">
+        <v>0</v>
+      </c>
+      <c r="V95" s="17">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="W95" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X95" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>94</v>
       </c>
@@ -4547,7 +6540,7 @@
         <v>4.5</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I96" s="2"/>
@@ -4557,11 +6550,32 @@
         <v>60</v>
       </c>
       <c r="O96" s="21">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S96" s="21">
+        <v>4</v>
+      </c>
+      <c r="T96" s="21">
+        <v>5</v>
+      </c>
+      <c r="U96" s="21">
+        <v>5</v>
+      </c>
+      <c r="V96" s="17">
+        <f t="shared" si="6"/>
+        <v>20.5</v>
+      </c>
+      <c r="W96" s="17">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="X96" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="28">
         <v>95</v>
       </c>
@@ -4582,7 +6596,7 @@
         <v>4.5</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I97" s="2"/>
@@ -4592,11 +6606,32 @@
         <v>60</v>
       </c>
       <c r="O97" s="21">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S97" s="21">
+        <v>3</v>
+      </c>
+      <c r="T97" s="21">
+        <v>5</v>
+      </c>
+      <c r="U97" s="21">
+        <v>4</v>
+      </c>
+      <c r="V97" s="17">
+        <f t="shared" si="6"/>
+        <v>26.5</v>
+      </c>
+      <c r="W97" s="17">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="X97" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>96</v>
       </c>
@@ -4617,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I98" s="2"/>
@@ -4625,11 +6660,32 @@
       <c r="K98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="21">
+        <v>1</v>
+      </c>
+      <c r="T98" s="21">
+        <v>0</v>
+      </c>
+      <c r="U98" s="21">
+        <v>0</v>
+      </c>
+      <c r="V98" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W98" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X98" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>97</v>
       </c>
@@ -4650,7 +6706,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="I99" s="2"/>
@@ -4660,11 +6716,32 @@
         <v>55</v>
       </c>
       <c r="O99" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S99" s="21">
+        <v>3</v>
+      </c>
+      <c r="T99" s="21">
+        <v>4</v>
+      </c>
+      <c r="U99" s="21">
+        <v>4</v>
+      </c>
+      <c r="V99" s="17">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="W99" s="17">
+        <f t="shared" si="6"/>
+        <v>30.583333333333332</v>
+      </c>
+      <c r="X99" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>98</v>
       </c>
@@ -4685,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
       <c r="I100" s="2"/>
@@ -4695,11 +6772,32 @@
         <v>50</v>
       </c>
       <c r="O100" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S100" s="21">
+        <v>2</v>
+      </c>
+      <c r="T100" s="21">
+        <v>3</v>
+      </c>
+      <c r="U100" s="21">
+        <v>1</v>
+      </c>
+      <c r="V100" s="17">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="W100" s="17">
+        <f t="shared" si="6"/>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="X100" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>99</v>
       </c>
@@ -4720,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="I101" s="2"/>
@@ -4730,11 +6828,32 @@
         <v>55</v>
       </c>
       <c r="O101" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S101" s="21">
+        <v>2</v>
+      </c>
+      <c r="T101" s="21">
+        <v>3</v>
+      </c>
+      <c r="U101" s="21">
+        <v>5</v>
+      </c>
+      <c r="V101" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W101" s="17">
+        <f t="shared" si="6"/>
+        <v>23.583333333333332</v>
+      </c>
+      <c r="X101" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>100</v>
       </c>
@@ -4755,7 +6874,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
       <c r="I102" s="2"/>
@@ -4765,11 +6884,32 @@
         <v>56</v>
       </c>
       <c r="O102" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S102" s="21">
+        <v>4</v>
+      </c>
+      <c r="T102" s="21">
+        <v>5</v>
+      </c>
+      <c r="U102" s="21">
+        <v>5</v>
+      </c>
+      <c r="V102" s="17">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="W102" s="17">
+        <f t="shared" si="6"/>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="X102" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>101</v>
       </c>
@@ -4790,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="I103" s="2"/>
@@ -4800,11 +6940,32 @@
         <v>55</v>
       </c>
       <c r="O103" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S103" s="21">
+        <v>4</v>
+      </c>
+      <c r="T103" s="21">
+        <v>5</v>
+      </c>
+      <c r="U103" s="21">
+        <v>5</v>
+      </c>
+      <c r="V103" s="17">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="W103" s="17">
+        <f t="shared" si="6"/>
+        <v>18.583333333333332</v>
+      </c>
+      <c r="X103" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>102</v>
       </c>
@@ -4825,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="I104" s="2"/>
@@ -4835,11 +6996,32 @@
         <v>52</v>
       </c>
       <c r="O104" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.333333333333333</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S104" s="21">
+        <v>3</v>
+      </c>
+      <c r="T104" s="21">
+        <v>1</v>
+      </c>
+      <c r="U104" s="21">
+        <v>0</v>
+      </c>
+      <c r="V104" s="17">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="W104" s="17">
+        <f t="shared" si="6"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="X104" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>103</v>
       </c>
@@ -4860,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I105" s="2"/>
@@ -4868,11 +7050,32 @@
       <c r="K105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="21">
+        <v>2</v>
+      </c>
+      <c r="T105" s="21">
+        <v>5</v>
+      </c>
+      <c r="U105" s="21">
+        <v>4</v>
+      </c>
+      <c r="V105" s="17">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="W105" s="17">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="X105" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="28">
         <v>104</v>
       </c>
@@ -4893,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
       <c r="I106" s="2"/>
@@ -4903,11 +7106,32 @@
         <v>45</v>
       </c>
       <c r="O106" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S106" s="21">
+        <v>1</v>
+      </c>
+      <c r="T106" s="21">
+        <v>2</v>
+      </c>
+      <c r="U106" s="21">
+        <v>1</v>
+      </c>
+      <c r="V106" s="17">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="W106" s="17">
+        <f t="shared" si="6"/>
+        <v>15.75</v>
+      </c>
+      <c r="X106" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>105</v>
       </c>
@@ -4928,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I107" s="2"/>
@@ -4936,11 +7160,32 @@
       <c r="K107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S107" s="21">
+        <v>2</v>
+      </c>
+      <c r="T107" s="21">
+        <v>4</v>
+      </c>
+      <c r="U107" s="21">
+        <v>4</v>
+      </c>
+      <c r="V107" s="17">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="W107" s="17">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="X107" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>106</v>
       </c>
@@ -4961,7 +7206,7 @@
         <v>5</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I108" s="2"/>
@@ -4969,11 +7214,32 @@
       <c r="K108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="21">
+        <v>4</v>
+      </c>
+      <c r="T108" s="21">
+        <v>4</v>
+      </c>
+      <c r="U108" s="21">
+        <v>4</v>
+      </c>
+      <c r="V108" s="17">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="W108" s="17">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="X108" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>107</v>
       </c>
@@ -4994,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I109" s="2"/>
@@ -5002,11 +7268,32 @@
       <c r="K109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S109" s="21">
+        <v>3</v>
+      </c>
+      <c r="T109" s="21">
+        <v>5</v>
+      </c>
+      <c r="U109" s="21">
+        <v>2</v>
+      </c>
+      <c r="V109" s="17">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="W109" s="17">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="X109" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>108</v>
       </c>
@@ -5027,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I110" s="2"/>
@@ -5035,11 +7322,32 @@
       <c r="K110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="21">
+        <v>1</v>
+      </c>
+      <c r="T110" s="21">
+        <v>0</v>
+      </c>
+      <c r="U110" s="21">
+        <v>0</v>
+      </c>
+      <c r="V110" s="17">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="W110" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X110" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>109</v>
       </c>
@@ -5060,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
       <c r="I111" s="2"/>
@@ -5070,11 +7378,32 @@
         <v>56</v>
       </c>
       <c r="O111" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S111" s="21">
+        <v>4</v>
+      </c>
+      <c r="T111" s="21">
+        <v>5</v>
+      </c>
+      <c r="U111" s="21">
+        <v>5</v>
+      </c>
+      <c r="V111" s="17">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="W111" s="17">
+        <f t="shared" si="6"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="X111" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>110</v>
       </c>
@@ -5095,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="I112" s="2"/>
@@ -5105,11 +7434,32 @@
         <v>30</v>
       </c>
       <c r="O112" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="S112" s="21">
+        <v>3</v>
+      </c>
+      <c r="T112" s="21">
+        <v>3</v>
+      </c>
+      <c r="U112" s="21">
+        <v>3</v>
+      </c>
+      <c r="V112" s="17">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="W112" s="17">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
+      </c>
+      <c r="X112" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>111</v>
       </c>
@@ -5130,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I113" s="2"/>
@@ -5138,11 +7488,32 @@
       <c r="K113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S113" s="21">
+        <v>0</v>
+      </c>
+      <c r="T113" s="21">
+        <v>2</v>
+      </c>
+      <c r="U113" s="21">
+        <v>0</v>
+      </c>
+      <c r="V113" s="17">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="W113" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="X113" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>112</v>
       </c>
@@ -5163,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I114" s="2"/>
@@ -5171,11 +7542,32 @@
       <c r="K114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S114" s="21">
+        <v>1</v>
+      </c>
+      <c r="T114" s="21">
+        <v>4</v>
+      </c>
+      <c r="U114" s="21">
+        <v>3</v>
+      </c>
+      <c r="V114" s="17">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="W114" s="17">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="X114" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="28">
         <v>113</v>
       </c>
@@ -5196,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
       <c r="I115" s="2"/>
@@ -5206,11 +7598,32 @@
         <v>56</v>
       </c>
       <c r="O115" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S115" s="21">
+        <v>1</v>
+      </c>
+      <c r="T115" s="21">
+        <v>4</v>
+      </c>
+      <c r="U115" s="21">
+        <v>0</v>
+      </c>
+      <c r="V115" s="17">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="W115" s="17">
+        <f t="shared" si="6"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="X115" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>114</v>
       </c>
@@ -5231,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I116" s="2"/>
@@ -5241,11 +7654,32 @@
         <v>60</v>
       </c>
       <c r="O116" s="21">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S116" s="21">
+        <v>4</v>
+      </c>
+      <c r="T116" s="21">
+        <v>5</v>
+      </c>
+      <c r="U116" s="21">
+        <v>4</v>
+      </c>
+      <c r="V116" s="17">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="W116" s="17">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="X116" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>115</v>
       </c>
@@ -5266,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
       <c r="I117" s="2"/>
@@ -5276,11 +7710,32 @@
         <v>50</v>
       </c>
       <c r="O117" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S117" s="21">
+        <v>2</v>
+      </c>
+      <c r="T117" s="21">
+        <v>4</v>
+      </c>
+      <c r="U117" s="21">
+        <v>1</v>
+      </c>
+      <c r="V117" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W117" s="17">
+        <f t="shared" si="6"/>
+        <v>18.166666666666668</v>
+      </c>
+      <c r="X117" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>116</v>
       </c>
@@ -5301,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
       <c r="I118" s="2"/>
@@ -5311,11 +7766,32 @@
         <v>56</v>
       </c>
       <c r="O118" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S118" s="21">
+        <v>2</v>
+      </c>
+      <c r="T118" s="21">
+        <v>4</v>
+      </c>
+      <c r="U118" s="21">
+        <v>4</v>
+      </c>
+      <c r="V118" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W118" s="17">
+        <f t="shared" si="6"/>
+        <v>14.666666666666668</v>
+      </c>
+      <c r="X118" s="17">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>117</v>
       </c>
@@ -5336,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="I119" s="2"/>
@@ -5346,11 +7822,32 @@
         <v>55</v>
       </c>
       <c r="O119" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S119" s="21">
+        <v>3</v>
+      </c>
+      <c r="T119" s="21">
+        <v>4</v>
+      </c>
+      <c r="U119" s="21">
+        <v>5</v>
+      </c>
+      <c r="V119" s="17">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="W119" s="17">
+        <f t="shared" si="6"/>
+        <v>20.583333333333332</v>
+      </c>
+      <c r="X119" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>118</v>
       </c>
@@ -5370,18 +7867,39 @@
         <v>4.5</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
       <c r="N120" s="21">
         <v>55</v>
       </c>
       <c r="O120" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.583333333333333</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S120" s="21">
+        <v>4</v>
+      </c>
+      <c r="T120" s="21">
+        <v>5</v>
+      </c>
+      <c r="U120" s="21">
+        <v>3</v>
+      </c>
+      <c r="V120" s="17">
+        <f t="shared" si="6"/>
+        <v>22.5</v>
+      </c>
+      <c r="W120" s="17">
+        <f t="shared" si="6"/>
+        <v>22.583333333333332</v>
+      </c>
+      <c r="X120" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>119</v>
       </c>
@@ -5401,15 +7919,36 @@
         <v>0</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O121" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S121" s="21">
+        <v>4</v>
+      </c>
+      <c r="T121" s="21">
+        <v>3</v>
+      </c>
+      <c r="U121" s="21">
+        <v>2</v>
+      </c>
+      <c r="V121" s="17">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="W121" s="17">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="X121" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>120</v>
       </c>
@@ -5429,9 +7968,85 @@
         <v>4</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S122" s="21">
+        <v>3</v>
+      </c>
+      <c r="T122" s="21">
+        <v>4</v>
+      </c>
+      <c r="U122" s="21">
+        <v>1</v>
+      </c>
+      <c r="V122" s="17">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="W122" s="17">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="X122" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V123" s="17"/>
+      <c r="W123" s="17"/>
+      <c r="X123" s="17"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V124" s="17"/>
+      <c r="W124" s="17"/>
+      <c r="X124" s="17"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V125" s="17"/>
+      <c r="W125" s="17"/>
+      <c r="X125" s="17"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V126" s="17"/>
+      <c r="W126" s="17"/>
+      <c r="X126" s="17"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V127" s="17"/>
+      <c r="W127" s="17"/>
+      <c r="X127" s="17"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V128" s="17"/>
+      <c r="W128" s="17"/>
+      <c r="X128" s="17"/>
+    </row>
+    <row r="129" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V129" s="17"/>
+      <c r="W129" s="17"/>
+      <c r="X129" s="17"/>
+    </row>
+    <row r="130" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V130" s="17"/>
+      <c r="W130" s="17"/>
+      <c r="X130" s="17"/>
+    </row>
+    <row r="131" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V131" s="17"/>
+      <c r="W131" s="17"/>
+      <c r="X131" s="17"/>
+    </row>
+    <row r="132" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V132" s="17"/>
+      <c r="W132" s="17"/>
+      <c r="X132" s="17"/>
+    </row>
+    <row r="133" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V133" s="17"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1397,9 @@
         <f>O3</f>
         <v>5</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="N3" s="2">
@@ -1428,7 +1430,7 @@
       </c>
       <c r="X3" s="17">
         <f>SUM(F3)+I3+U3</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -1455,7 +1457,9 @@
         <f t="shared" ref="H4:H67" si="0">O4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="N4" s="2"/>
@@ -1509,7 +1513,9 @@
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="N5" s="2">
@@ -1565,7 +1571,9 @@
         <f t="shared" si="0"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="N6" s="2">
@@ -1621,7 +1629,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="N7" s="2">
@@ -1650,7 +1660,7 @@
       </c>
       <c r="X7" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1677,7 +1687,9 @@
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="N8" s="2">
@@ -1733,7 +1745,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="N9" s="2">
@@ -1762,7 +1776,7 @@
       </c>
       <c r="X9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -1789,7 +1803,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="N10" s="2">
@@ -1818,7 +1834,7 @@
       </c>
       <c r="X10" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1845,7 +1861,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="N11" s="2"/>
@@ -1899,7 +1917,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="N12" s="2"/>
@@ -1953,7 +1973,9 @@
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="N13" s="2">
@@ -2009,7 +2031,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="N14" s="2"/>
@@ -2036,7 +2060,7 @@
       </c>
       <c r="X14" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2063,7 +2087,9 @@
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="N15" s="2">
@@ -2092,7 +2118,7 @@
       </c>
       <c r="X15" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2119,7 +2145,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="N16" s="2"/>
@@ -2173,7 +2201,9 @@
         <f t="shared" si="0"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="N17" s="2">
@@ -2229,7 +2259,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="N18" s="2"/>
@@ -2283,7 +2315,9 @@
         <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="N19" s="2">
@@ -2312,7 +2346,7 @@
       </c>
       <c r="X19" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2339,7 +2373,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="N20" s="2"/>
@@ -2393,7 +2429,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="N21" s="2">
@@ -2422,7 +2460,7 @@
       </c>
       <c r="X21" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2449,7 +2487,9 @@
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="N22" s="2">
@@ -2478,7 +2518,7 @@
       </c>
       <c r="X22" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2505,7 +2545,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="N23" s="2">
@@ -2534,7 +2576,7 @@
       </c>
       <c r="X23" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2561,7 +2603,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="N24" s="2">
@@ -2590,7 +2634,7 @@
       </c>
       <c r="X24" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2617,7 +2661,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="N25" s="2"/>
@@ -2644,7 +2690,7 @@
       </c>
       <c r="X25" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2671,7 +2717,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="N26" s="2">
@@ -2700,7 +2748,7 @@
       </c>
       <c r="X26" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2727,7 +2775,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="N27" s="2"/>
@@ -2754,7 +2804,7 @@
       </c>
       <c r="X27" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2781,7 +2831,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2">
+        <v>5</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="N28" s="2">
@@ -2810,7 +2862,7 @@
       </c>
       <c r="X28" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2837,7 +2889,9 @@
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="N29" s="2">
@@ -2866,7 +2920,7 @@
       </c>
       <c r="X29" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2893,7 +2947,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="N30" s="2"/>
@@ -2920,7 +2976,7 @@
       </c>
       <c r="X30" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2947,7 +3003,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="N31" s="2"/>
@@ -2974,7 +3032,7 @@
       </c>
       <c r="X31" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3001,7 +3059,9 @@
         <f t="shared" si="0"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="2">
+        <v>5</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="N32" s="2">
@@ -3030,7 +3090,7 @@
       </c>
       <c r="X32" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -3057,7 +3117,9 @@
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" s="2">
+        <v>5</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="N33" s="2">
@@ -3086,7 +3148,7 @@
       </c>
       <c r="X33" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3113,7 +3175,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="2">
+        <v>5</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="N34" s="2">
@@ -3142,7 +3206,7 @@
       </c>
       <c r="X34" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3169,7 +3233,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" s="2">
+        <v>5</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="N35" s="2">
@@ -3198,7 +3264,7 @@
       </c>
       <c r="X35" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -3225,7 +3291,9 @@
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="I36" s="2"/>
+      <c r="I36" s="2">
+        <v>5</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="N36" s="2">
@@ -3254,7 +3322,7 @@
       </c>
       <c r="X36" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -3281,7 +3349,9 @@
         <f t="shared" si="0"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2">
+        <v>5</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="N37" s="2">
@@ -3310,7 +3380,7 @@
       </c>
       <c r="X37" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3337,7 +3407,9 @@
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" s="2">
+        <v>5</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="N38" s="2">
@@ -3366,7 +3438,7 @@
       </c>
       <c r="X38" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3393,7 +3465,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" s="2">
+        <v>5</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="N39" s="2"/>
@@ -3420,7 +3494,7 @@
       </c>
       <c r="X39" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -3447,7 +3521,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="2">
+        <v>5</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="N40" s="2">
@@ -3476,7 +3552,7 @@
       </c>
       <c r="X40" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3503,7 +3579,9 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="2">
+        <v>5</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="N41" s="2">
@@ -3532,7 +3610,7 @@
       </c>
       <c r="X41" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3559,7 +3637,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" s="2">
+        <v>5</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="N42" s="2"/>
@@ -3586,7 +3666,7 @@
       </c>
       <c r="X42" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3613,7 +3693,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" s="2">
+        <v>5</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="N43" s="2">
@@ -3642,7 +3724,7 @@
       </c>
       <c r="X43" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3669,7 +3751,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I44" s="2"/>
+      <c r="I44" s="2">
+        <v>5</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="N44" s="2">
@@ -3698,7 +3782,7 @@
       </c>
       <c r="X44" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -3725,7 +3809,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I45" s="2"/>
+      <c r="I45" s="2">
+        <v>5</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="N45" s="2">
@@ -3754,7 +3840,7 @@
       </c>
       <c r="X45" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3781,7 +3867,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I46" s="2"/>
+      <c r="I46" s="2">
+        <v>5</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="N46" s="2">
@@ -3810,7 +3898,7 @@
       </c>
       <c r="X46" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -3837,7 +3925,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2">
+        <v>5</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="N47" s="2"/>
@@ -3864,7 +3954,7 @@
       </c>
       <c r="X47" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -3891,7 +3981,9 @@
         <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="I48" s="2"/>
+      <c r="I48" s="2">
+        <v>5</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="N48" s="2">
@@ -3920,7 +4012,7 @@
       </c>
       <c r="X48" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -3947,7 +4039,9 @@
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I49" s="2"/>
+      <c r="I49" s="2">
+        <v>5</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="N49" s="2">
@@ -3976,7 +4070,7 @@
       </c>
       <c r="X49" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -4003,7 +4097,9 @@
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2">
+        <v>5</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="N50" s="2">
@@ -4032,7 +4128,7 @@
       </c>
       <c r="X50" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
@@ -4059,7 +4155,9 @@
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I51" s="2"/>
+      <c r="I51" s="2">
+        <v>5</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="N51" s="2">
@@ -4088,7 +4186,7 @@
       </c>
       <c r="X51" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -4115,7 +4213,9 @@
         <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="I52" s="2"/>
+      <c r="I52" s="2">
+        <v>5</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="N52" s="2">
@@ -4144,7 +4244,7 @@
       </c>
       <c r="X52" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -4171,7 +4271,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I53" s="2"/>
+      <c r="I53" s="2">
+        <v>5</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="N53" s="2"/>
@@ -4198,7 +4300,7 @@
       </c>
       <c r="X53" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4225,7 +4327,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="2"/>
+      <c r="I54" s="2">
+        <v>5</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="N54" s="2"/>
@@ -4252,7 +4356,7 @@
       </c>
       <c r="X54" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -4279,7 +4383,9 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I55" s="2"/>
+      <c r="I55" s="2">
+        <v>5</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="N55" s="2">
@@ -4308,7 +4414,7 @@
       </c>
       <c r="X55" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4335,7 +4441,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="2"/>
+      <c r="I56" s="2">
+        <v>5</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="N56" s="2"/>
@@ -4362,7 +4470,7 @@
       </c>
       <c r="X56" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4389,7 +4497,9 @@
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="I57" s="2"/>
+      <c r="I57" s="2">
+        <v>5</v>
+      </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="N57" s="2">
@@ -4418,7 +4528,7 @@
       </c>
       <c r="X57" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4445,7 +4555,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I58" s="2"/>
+      <c r="I58" s="2">
+        <v>5</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="N58" s="2"/>
@@ -4472,7 +4584,7 @@
       </c>
       <c r="X58" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -4499,7 +4611,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I59" s="2"/>
+      <c r="I59" s="2">
+        <v>5</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="N59" s="2">
@@ -4528,7 +4642,7 @@
       </c>
       <c r="X59" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -4555,7 +4669,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I60" s="2"/>
+      <c r="I60" s="2">
+        <v>5</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="N60" s="2"/>
@@ -4582,7 +4698,7 @@
       </c>
       <c r="X60" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -4609,7 +4725,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I61" s="2"/>
+      <c r="I61" s="2">
+        <v>5</v>
+      </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="N61" s="2">
@@ -4638,7 +4756,7 @@
       </c>
       <c r="X61" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -4665,7 +4783,9 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I62" s="2"/>
+      <c r="I62" s="2">
+        <v>5</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="N62" s="2">
@@ -4694,7 +4814,7 @@
       </c>
       <c r="X62" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -4721,7 +4841,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I63" s="2"/>
+      <c r="I63" s="2">
+        <v>5</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="N63" s="2"/>
@@ -4748,7 +4870,7 @@
       </c>
       <c r="X63" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4775,7 +4897,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I64" s="2"/>
+      <c r="I64" s="2">
+        <v>5</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="N64" s="2">
@@ -4804,7 +4928,7 @@
       </c>
       <c r="X64" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -4831,7 +4955,9 @@
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="I65" s="2"/>
+      <c r="I65" s="2">
+        <v>5</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="N65" s="2">
@@ -4860,7 +4986,7 @@
       </c>
       <c r="X65" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -4887,7 +5013,9 @@
         <f t="shared" si="0"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I66" s="2"/>
+      <c r="I66" s="2">
+        <v>5</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="N66" s="2">
@@ -4916,7 +5044,7 @@
       </c>
       <c r="X66" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -4943,7 +5071,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I67" s="2"/>
+      <c r="I67" s="2">
+        <v>5</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="N67" s="2">
@@ -4972,7 +5102,7 @@
       </c>
       <c r="X67" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -4999,7 +5129,9 @@
         <f t="shared" ref="H68:H122" si="4">O68</f>
         <v>5</v>
       </c>
-      <c r="I68" s="2"/>
+      <c r="I68" s="2">
+        <v>5</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="N68" s="2">
@@ -5019,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="17">
-        <f t="shared" ref="V68:W131" si="6">SUM(D68)+G68+S68</f>
+        <f t="shared" ref="V68:W122" si="6">SUM(D68)+G68+S68</f>
         <v>15</v>
       </c>
       <c r="W68" s="17">
@@ -5027,8 +5159,8 @@
         <v>21</v>
       </c>
       <c r="X68" s="17">
-        <f t="shared" ref="X68:X131" si="7">SUM(F68)+I68+U68</f>
-        <v>0</v>
+        <f t="shared" ref="X68:X122" si="7">SUM(F68)+I68+U68</f>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5055,7 +5187,9 @@
         <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="I69" s="2"/>
+      <c r="I69" s="2">
+        <v>5</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="N69" s="2">
@@ -5084,7 +5218,7 @@
       </c>
       <c r="X69" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -5111,7 +5245,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I70" s="2"/>
+      <c r="I70" s="2">
+        <v>5</v>
+      </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="N70" s="2"/>
@@ -5138,7 +5274,7 @@
       </c>
       <c r="X70" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5165,7 +5301,9 @@
         <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="I71" s="2"/>
+      <c r="I71" s="2">
+        <v>5</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="N71" s="2">
@@ -5194,7 +5332,7 @@
       </c>
       <c r="X71" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5221,7 +5359,9 @@
         <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="I72" s="2"/>
+      <c r="I72" s="2">
+        <v>5</v>
+      </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="N72" s="2">
@@ -5250,7 +5390,7 @@
       </c>
       <c r="X72" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -5277,7 +5417,9 @@
         <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I73" s="2"/>
+      <c r="I73" s="2">
+        <v>5</v>
+      </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="N73" s="2">
@@ -5306,7 +5448,7 @@
       </c>
       <c r="X73" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -5333,7 +5475,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I74" s="2"/>
+      <c r="I74" s="2">
+        <v>5</v>
+      </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="N74" s="2"/>
@@ -5360,7 +5504,7 @@
       </c>
       <c r="X74" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -5387,7 +5531,9 @@
         <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I75" s="2"/>
+      <c r="I75" s="2">
+        <v>5</v>
+      </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="N75" s="2">
@@ -5416,7 +5562,7 @@
       </c>
       <c r="X75" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
@@ -5443,7 +5589,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I76" s="2"/>
+      <c r="I76" s="2">
+        <v>5</v>
+      </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="N76" s="2"/>
@@ -5470,7 +5618,7 @@
       </c>
       <c r="X76" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
@@ -5497,7 +5645,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I77" s="2"/>
+      <c r="I77" s="2">
+        <v>5</v>
+      </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="N77" s="2">
@@ -5526,7 +5676,7 @@
       </c>
       <c r="X77" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5553,7 +5703,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I78" s="2"/>
+      <c r="I78" s="2">
+        <v>5</v>
+      </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="N78" s="2"/>
@@ -5580,7 +5732,7 @@
       </c>
       <c r="X78" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5607,7 +5759,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I79" s="2"/>
+      <c r="I79" s="2">
+        <v>5</v>
+      </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="N79" s="2">
@@ -5636,7 +5790,7 @@
       </c>
       <c r="X79" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
@@ -5663,7 +5817,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I80" s="2"/>
+      <c r="I80" s="2">
+        <v>5</v>
+      </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="N80" s="2">
@@ -5692,7 +5848,7 @@
       </c>
       <c r="X80" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5719,7 +5875,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I81" s="2"/>
+      <c r="I81" s="2">
+        <v>5</v>
+      </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="N81" s="2"/>
@@ -5746,7 +5904,7 @@
       </c>
       <c r="X81" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -5773,7 +5931,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I82" s="2"/>
+      <c r="I82" s="2">
+        <v>5</v>
+      </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="N82" s="2"/>
@@ -5800,7 +5960,7 @@
       </c>
       <c r="X82" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -5827,7 +5987,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I83" s="2"/>
+      <c r="I83" s="2">
+        <v>5</v>
+      </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="N83" s="2"/>
@@ -5854,7 +6016,7 @@
       </c>
       <c r="X83" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -5881,7 +6043,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I84" s="2"/>
+      <c r="I84" s="2">
+        <v>5</v>
+      </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="N84" s="2"/>
@@ -5908,7 +6072,7 @@
       </c>
       <c r="X84" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -5935,7 +6099,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I85" s="2"/>
+      <c r="I85" s="2">
+        <v>5</v>
+      </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="N85" s="2"/>
@@ -5962,7 +6128,7 @@
       </c>
       <c r="X85" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5989,7 +6155,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I86" s="2"/>
+      <c r="I86" s="2">
+        <v>5</v>
+      </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="N86" s="2"/>
@@ -6016,7 +6184,7 @@
       </c>
       <c r="X86" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6043,7 +6211,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I87" s="2"/>
+      <c r="I87" s="2">
+        <v>5</v>
+      </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="N87" s="2">
@@ -6072,7 +6242,7 @@
       </c>
       <c r="X87" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6099,7 +6269,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I88" s="2"/>
+      <c r="I88" s="2">
+        <v>5</v>
+      </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="N88" s="2">
@@ -6128,7 +6300,7 @@
       </c>
       <c r="X88" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -6155,7 +6327,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I89" s="2"/>
+      <c r="I89" s="2">
+        <v>5</v>
+      </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="N89" s="2">
@@ -6184,7 +6358,7 @@
       </c>
       <c r="X89" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -6211,7 +6385,9 @@
         <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="I90" s="2"/>
+      <c r="I90" s="2">
+        <v>5</v>
+      </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="N90" s="2">
@@ -6240,7 +6416,7 @@
       </c>
       <c r="X90" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -6267,7 +6443,9 @@
         <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="I91" s="2"/>
+      <c r="I91" s="2">
+        <v>5</v>
+      </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="N91" s="2">
@@ -6296,7 +6474,7 @@
       </c>
       <c r="X91" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -6323,7 +6501,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I92" s="2"/>
+      <c r="I92" s="2">
+        <v>5</v>
+      </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="N92" s="2">
@@ -6352,7 +6532,7 @@
       </c>
       <c r="X92" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -6379,7 +6559,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I93" s="2"/>
+      <c r="I93" s="2">
+        <v>5</v>
+      </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="N93" s="2"/>
@@ -6406,7 +6588,7 @@
       </c>
       <c r="X93" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
@@ -6433,7 +6615,9 @@
         <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I94" s="2"/>
+      <c r="I94" s="2">
+        <v>5</v>
+      </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="N94" s="2">
@@ -6462,7 +6646,7 @@
       </c>
       <c r="X94" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
@@ -6489,7 +6673,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I95" s="2"/>
+      <c r="I95" s="2">
+        <v>5</v>
+      </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="N95" s="2"/>
@@ -6516,7 +6702,7 @@
       </c>
       <c r="X95" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
@@ -6543,7 +6729,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I96" s="2"/>
+      <c r="I96" s="2">
+        <v>5</v>
+      </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="N96" s="2">
@@ -6572,7 +6760,7 @@
       </c>
       <c r="X96" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
@@ -6599,7 +6787,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I97" s="2"/>
+      <c r="I97" s="2">
+        <v>5</v>
+      </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="N97" s="2">
@@ -6628,7 +6818,7 @@
       </c>
       <c r="X97" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6655,7 +6845,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I98" s="2"/>
+      <c r="I98" s="2">
+        <v>5</v>
+      </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="N98" s="2"/>
@@ -6682,7 +6874,7 @@
       </c>
       <c r="X98" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
@@ -6709,7 +6901,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I99" s="2"/>
+      <c r="I99" s="2">
+        <v>5</v>
+      </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="N99" s="2">
@@ -6738,7 +6932,7 @@
       </c>
       <c r="X99" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6765,7 +6959,9 @@
         <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="I100" s="2"/>
+      <c r="I100" s="2">
+        <v>5</v>
+      </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="N100" s="2">
@@ -6794,7 +6990,7 @@
       </c>
       <c r="X100" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6821,7 +7017,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I101" s="2"/>
+      <c r="I101" s="2">
+        <v>5</v>
+      </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="N101" s="2">
@@ -6850,7 +7048,7 @@
       </c>
       <c r="X101" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6877,7 +7075,9 @@
         <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I102" s="2"/>
+      <c r="I102" s="2">
+        <v>5</v>
+      </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="N102" s="2">
@@ -6906,7 +7106,7 @@
       </c>
       <c r="X102" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6933,7 +7133,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I103" s="2"/>
+      <c r="I103" s="2">
+        <v>5</v>
+      </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="N103" s="2">
@@ -6962,7 +7164,7 @@
       </c>
       <c r="X103" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
@@ -6989,7 +7191,9 @@
         <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="I104" s="2"/>
+      <c r="I104" s="2">
+        <v>5</v>
+      </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="N104" s="2">
@@ -7018,7 +7222,7 @@
       </c>
       <c r="X104" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
@@ -7045,7 +7249,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I105" s="2"/>
+      <c r="I105" s="2">
+        <v>5</v>
+      </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="N105" s="2"/>
@@ -7072,7 +7278,7 @@
       </c>
       <c r="X105" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -7099,7 +7305,9 @@
         <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
-      <c r="I106" s="2"/>
+      <c r="I106" s="2">
+        <v>5</v>
+      </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="N106" s="2">
@@ -7128,7 +7336,7 @@
       </c>
       <c r="X106" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
@@ -7155,7 +7363,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I107" s="2"/>
+      <c r="I107" s="2">
+        <v>5</v>
+      </c>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="N107" s="2"/>
@@ -7182,7 +7392,7 @@
       </c>
       <c r="X107" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
@@ -7209,7 +7419,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I108" s="2"/>
+      <c r="I108" s="2">
+        <v>5</v>
+      </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="N108" s="2"/>
@@ -7236,7 +7448,7 @@
       </c>
       <c r="X108" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
@@ -7263,7 +7475,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I109" s="2"/>
+      <c r="I109" s="2">
+        <v>5</v>
+      </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="N109" s="2"/>
@@ -7290,7 +7504,7 @@
       </c>
       <c r="X109" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -7317,7 +7531,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I110" s="2"/>
+      <c r="I110" s="2">
+        <v>5</v>
+      </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="N110" s="2"/>
@@ -7344,7 +7560,7 @@
       </c>
       <c r="X110" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7371,7 +7587,9 @@
         <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I111" s="2"/>
+      <c r="I111" s="2">
+        <v>5</v>
+      </c>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="N111" s="2">
@@ -7400,7 +7618,7 @@
       </c>
       <c r="X111" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
@@ -7427,7 +7645,9 @@
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="I112" s="2"/>
+      <c r="I112" s="2">
+        <v>5</v>
+      </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="N112" s="2">
@@ -7456,7 +7676,7 @@
       </c>
       <c r="X112" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7483,7 +7703,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I113" s="2"/>
+      <c r="I113" s="2">
+        <v>5</v>
+      </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="N113" s="2"/>
@@ -7510,7 +7732,7 @@
       </c>
       <c r="X113" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7537,7 +7759,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I114" s="2"/>
+      <c r="I114" s="2">
+        <v>5</v>
+      </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="N114" s="2"/>
@@ -7564,7 +7788,7 @@
       </c>
       <c r="X114" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
@@ -7591,7 +7815,9 @@
         <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I115" s="2"/>
+      <c r="I115" s="2">
+        <v>5</v>
+      </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="N115" s="2">
@@ -7620,7 +7846,7 @@
       </c>
       <c r="X115" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
@@ -7647,7 +7873,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I116" s="2"/>
+      <c r="I116" s="2">
+        <v>5</v>
+      </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="N116" s="2">
@@ -7676,7 +7904,7 @@
       </c>
       <c r="X116" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
@@ -7703,7 +7931,9 @@
         <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="I117" s="2"/>
+      <c r="I117" s="2">
+        <v>5</v>
+      </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="N117" s="2">
@@ -7732,7 +7962,7 @@
       </c>
       <c r="X117" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -7759,7 +7989,9 @@
         <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="I118" s="2"/>
+      <c r="I118" s="2">
+        <v>5</v>
+      </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="N118" s="2">
@@ -7788,7 +8020,7 @@
       </c>
       <c r="X118" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
@@ -7815,7 +8047,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="I119" s="2"/>
+      <c r="I119" s="2">
+        <v>5</v>
+      </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="N119" s="2">
@@ -7844,7 +8078,7 @@
       </c>
       <c r="X119" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
@@ -7870,6 +8104,9 @@
         <f t="shared" si="4"/>
         <v>4.583333333333333</v>
       </c>
+      <c r="I120" s="2">
+        <v>5</v>
+      </c>
       <c r="N120" s="21">
         <v>55</v>
       </c>
@@ -7896,7 +8133,7 @@
       </c>
       <c r="X120" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -7922,6 +8159,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I121" s="2">
+        <v>5</v>
+      </c>
       <c r="O121" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7945,7 +8185,7 @@
       </c>
       <c r="X121" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
@@ -7971,6 +8211,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I122" s="2">
+        <v>5</v>
+      </c>
       <c r="S122" s="21">
         <v>3</v>
       </c>
@@ -7990,7 +8233,7 @@
       </c>
       <c r="X122" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1514,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="X5" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="X13" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="X23" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="X25" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="X27" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2890,7 +2890,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="I29" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="X29" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="X31" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
         <v>4.583333333333333</v>
       </c>
       <c r="I37" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="X37" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="X39" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="I41" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="X41" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3982,7 +3982,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="I48" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="X48" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="X53" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="X54" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="X56" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4498,7 +4498,7 @@
         <v>3.75</v>
       </c>
       <c r="I57" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="X57" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="X58" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="X60" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -4784,7 +4784,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="I62" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="X62" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="X63" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="I65" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="X65" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -5188,7 +5188,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="I69" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="X69" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="X70" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="X74" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="X76" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
@@ -6044,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="X84" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -6128,7 +6128,7 @@
       </c>
       <c r="X85" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="X86" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6386,7 +6386,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="I90" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="X90" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -6502,7 +6502,7 @@
         <v>4</v>
       </c>
       <c r="I92" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="X92" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="X95" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="X98" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
@@ -6960,7 +6960,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="I100" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="X100" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="I104" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="X104" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="X105" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="X109" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="X110" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="X113" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,7 @@
         <v>4.583333333333333</v>
       </c>
       <c r="I120" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N120" s="21">
         <v>55</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="X120" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O121" s="21">
         <f t="shared" si="5"/>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="X121" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4784,7 +4784,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="I62" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="X62" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="197">
   <si>
     <t>S.N</t>
   </si>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,12 +1384,14 @@
         <v>230041700001</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G3" s="2">
         <v>4.5</v>
       </c>
@@ -1401,7 +1403,9 @@
         <v>5</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2">
+        <v>24</v>
+      </c>
       <c r="N3" s="2">
         <v>60</v>
       </c>
@@ -1422,15 +1426,15 @@
       </c>
       <c r="V3" s="17">
         <f>SUM(D3)+G3+S3</f>
-        <v>13.5</v>
+        <v>26.5</v>
       </c>
       <c r="W3" s="17">
         <f>SUM(E3)+H3+T3</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X3" s="17">
         <f>SUM(F3)+I3+U3</f>
-        <v>10</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -1444,12 +1448,14 @@
         <v>230041700002</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
@@ -1461,7 +1467,9 @@
         <v>0</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>16</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="21">
         <f t="shared" ref="O4:O67" si="1">N4*5/60</f>
@@ -1478,15 +1486,15 @@
       </c>
       <c r="V4" s="17">
         <f t="shared" ref="V4:W67" si="2">SUM(D4)+G4+S4</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" ref="X4:X67" si="3">SUM(F4)+I4+U4</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1505,7 +1513,9 @@
       <c r="E5" s="2">
         <v>29</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
       <c r="G5" s="2">
         <v>4</v>
       </c>
@@ -1517,7 +1527,9 @@
         <v>5</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>39</v>
+      </c>
       <c r="N5" s="2">
         <v>56</v>
       </c>
@@ -1544,7 +1556,7 @@
       </c>
       <c r="X5" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1558,12 +1570,14 @@
         <v>230041700004</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
@@ -1575,7 +1589,9 @@
         <v>0</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>24</v>
+      </c>
       <c r="N6" s="2">
         <v>55</v>
       </c>
@@ -1594,15 +1610,15 @@
       </c>
       <c r="V6" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="W6" s="17">
         <f t="shared" si="2"/>
-        <v>24.583333333333332</v>
+        <v>26.583333333333332</v>
       </c>
       <c r="X6" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1616,12 +1632,14 @@
         <v>230041700005</v>
       </c>
       <c r="D7" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G7" s="2">
         <v>4.5</v>
       </c>
@@ -1633,7 +1651,9 @@
         <v>5</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>34</v>
+      </c>
       <c r="N7" s="2">
         <v>60</v>
       </c>
@@ -1652,15 +1672,15 @@
       </c>
       <c r="V7" s="17">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>21.5</v>
       </c>
       <c r="W7" s="17">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="X7" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1674,12 +1694,14 @@
         <v>230041700008</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
@@ -1691,7 +1713,9 @@
         <v>0</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>20</v>
+      </c>
       <c r="N8" s="2">
         <v>45</v>
       </c>
@@ -1710,15 +1734,15 @@
       </c>
       <c r="V8" s="17">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W8" s="17">
         <f t="shared" si="2"/>
-        <v>17.75</v>
+        <v>26.75</v>
       </c>
       <c r="X8" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1732,12 +1756,14 @@
         <v>230041700010</v>
       </c>
       <c r="D9" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
@@ -1749,7 +1775,9 @@
         <v>5</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>24</v>
+      </c>
       <c r="N9" s="2">
         <v>60</v>
       </c>
@@ -1768,11 +1796,11 @@
       </c>
       <c r="V9" s="17">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="W9" s="17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X9" s="17">
         <f t="shared" si="3"/>
@@ -1790,12 +1818,14 @@
         <v>230041700012</v>
       </c>
       <c r="D10" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
@@ -1807,7 +1837,9 @@
         <v>5</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>25</v>
+      </c>
       <c r="N10" s="2">
         <v>60</v>
       </c>
@@ -1826,11 +1858,11 @@
       </c>
       <c r="V10" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="W10" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" si="3"/>
@@ -1853,7 +1885,9 @@
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
@@ -1865,7 +1899,9 @@
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="21">
         <f t="shared" si="1"/>
@@ -1904,12 +1940,14 @@
         <v>230041700014</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
@@ -1921,7 +1959,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>9</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="21">
         <f t="shared" si="1"/>
@@ -1938,11 +1978,11 @@
       </c>
       <c r="V12" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W12" s="17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X12" s="17">
         <f t="shared" si="3"/>
@@ -1960,12 +2000,14 @@
         <v>230041700015</v>
       </c>
       <c r="D13" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G13" s="2">
         <v>4.5</v>
       </c>
@@ -1977,7 +2019,9 @@
         <v>5</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>33</v>
+      </c>
       <c r="N13" s="2">
         <v>56</v>
       </c>
@@ -1996,15 +2040,15 @@
       </c>
       <c r="V13" s="17">
         <f t="shared" si="2"/>
-        <v>33.5</v>
+        <v>24.5</v>
       </c>
       <c r="W13" s="17">
         <f t="shared" si="2"/>
-        <v>25.666666666666668</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="X13" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -2017,13 +2061,15 @@
       <c r="C14" s="27">
         <v>230041700016</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
+      <c r="D14" s="2">
+        <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
       <c r="G14" s="2">
         <v>5</v>
       </c>
@@ -2035,7 +2081,9 @@
         <v>5</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>22</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="21">
         <f t="shared" si="1"/>
@@ -2052,15 +2100,15 @@
       </c>
       <c r="V14" s="17">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="W14" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X14" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2073,13 +2121,15 @@
       <c r="C15" s="25">
         <v>230041700017</v>
       </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
@@ -2091,7 +2141,9 @@
         <v>5</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>18</v>
+      </c>
       <c r="N15" s="2">
         <v>56</v>
       </c>
@@ -2110,11 +2162,11 @@
       </c>
       <c r="V15" s="17">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W15" s="17">
         <f t="shared" si="2"/>
-        <v>7.666666666666667</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="X15" s="17">
         <f t="shared" si="3"/>
@@ -2132,12 +2184,14 @@
         <v>230041700018</v>
       </c>
       <c r="D16" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
@@ -2149,7 +2203,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>8</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="21">
         <f t="shared" si="1"/>
@@ -2166,11 +2222,11 @@
       </c>
       <c r="V16" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W16" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="X16" s="17">
         <f t="shared" si="3"/>
@@ -2188,12 +2244,14 @@
         <v>230041700019</v>
       </c>
       <c r="D17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G17" s="2">
         <v>4.5</v>
       </c>
@@ -2205,7 +2263,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>20</v>
+      </c>
       <c r="N17" s="2">
         <v>55</v>
       </c>
@@ -2224,15 +2284,15 @@
       </c>
       <c r="V17" s="17">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="W17" s="17">
         <f t="shared" si="2"/>
-        <v>21.583333333333332</v>
+        <v>17.583333333333332</v>
       </c>
       <c r="X17" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2246,12 +2306,14 @@
         <v>230041700021</v>
       </c>
       <c r="D18" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
       <c r="G18" s="2">
         <v>5</v>
       </c>
@@ -2263,7 +2325,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>22</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="21">
         <f t="shared" si="1"/>
@@ -2280,15 +2344,15 @@
       </c>
       <c r="V18" s="17">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="W18" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X18" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2302,12 +2366,14 @@
         <v>230041700022</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
@@ -2319,7 +2385,9 @@
         <v>5</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>13</v>
+      </c>
       <c r="N19" s="2">
         <v>52</v>
       </c>
@@ -2338,11 +2406,11 @@
       </c>
       <c r="V19" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="17">
         <f t="shared" si="2"/>
-        <v>7.333333333333333</v>
+        <v>19.333333333333332</v>
       </c>
       <c r="X19" s="17">
         <f t="shared" si="3"/>
@@ -2363,9 +2431,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="2">
         <v>0</v>
       </c>
@@ -2377,7 +2447,9 @@
         <v>0</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>5</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="21">
         <f t="shared" si="1"/>
@@ -2398,7 +2470,7 @@
       </c>
       <c r="W20" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X20" s="17">
         <f t="shared" si="3"/>
@@ -2416,12 +2488,14 @@
         <v>230041700024</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2">
         <v>22</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
@@ -2433,7 +2507,9 @@
         <v>5</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>31</v>
+      </c>
       <c r="N21" s="2">
         <v>60</v>
       </c>
@@ -2452,7 +2528,7 @@
       </c>
       <c r="V21" s="17">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W21" s="17">
         <f t="shared" si="2"/>
@@ -2460,7 +2536,7 @@
       </c>
       <c r="X21" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2474,12 +2550,14 @@
         <v>230041700025</v>
       </c>
       <c r="D22" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2">
-        <v>24</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G22" s="2">
         <v>4.5</v>
       </c>
@@ -2491,7 +2569,9 @@
         <v>5</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>35</v>
+      </c>
       <c r="N22" s="2">
         <v>56</v>
       </c>
@@ -2510,15 +2590,15 @@
       </c>
       <c r="V22" s="17">
         <f t="shared" si="2"/>
-        <v>35.5</v>
+        <v>33.5</v>
       </c>
       <c r="W22" s="17">
         <f t="shared" si="2"/>
-        <v>33.666666666666671</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="X22" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2532,12 +2612,14 @@
         <v>230041700026</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
@@ -2549,7 +2631,9 @@
         <v>0</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>18</v>
+      </c>
       <c r="N23" s="2">
         <v>60</v>
       </c>
@@ -2568,11 +2652,11 @@
       </c>
       <c r="V23" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="W23" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="X23" s="17">
         <f t="shared" si="3"/>
@@ -2590,12 +2674,14 @@
         <v>230041700027</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
       <c r="G24" s="2">
         <v>5</v>
       </c>
@@ -2607,7 +2693,9 @@
         <v>5</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>31</v>
+      </c>
       <c r="N24" s="2">
         <v>60</v>
       </c>
@@ -2626,15 +2714,15 @@
       </c>
       <c r="V24" s="17">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W24" s="17">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X24" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2647,13 +2735,15 @@
       <c r="C25" s="27">
         <v>230041700028</v>
       </c>
-      <c r="D25" s="2">
-        <v>2</v>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
@@ -2665,7 +2755,9 @@
         <v>0</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="21">
         <f t="shared" si="1"/>
@@ -2682,7 +2774,7 @@
       </c>
       <c r="V25" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W25" s="17">
         <f t="shared" si="2"/>
@@ -2704,12 +2796,14 @@
         <v>230041700029</v>
       </c>
       <c r="D26" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2">
-        <v>13</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3.5</v>
+      </c>
       <c r="G26" s="2">
         <v>3.5</v>
       </c>
@@ -2721,7 +2815,9 @@
         <v>5</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>26</v>
+      </c>
       <c r="N26" s="2">
         <v>60</v>
       </c>
@@ -2740,15 +2836,15 @@
       </c>
       <c r="V26" s="17">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="W26" s="17">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X26" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2762,12 +2858,14 @@
         <v>230041700030</v>
       </c>
       <c r="D27" s="2">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2">
         <v>7</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
@@ -2779,7 +2877,9 @@
         <v>0</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2">
+        <v>17</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="21">
         <f t="shared" si="1"/>
@@ -2796,15 +2896,15 @@
       </c>
       <c r="V27" s="17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W27" s="17">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X27" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2818,12 +2918,14 @@
         <v>230041700032</v>
       </c>
       <c r="D28" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2">
-        <v>17</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G28" s="2">
         <v>4.5</v>
       </c>
@@ -2835,7 +2937,9 @@
         <v>5</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <v>31</v>
+      </c>
       <c r="N28" s="2">
         <v>60</v>
       </c>
@@ -2854,15 +2958,15 @@
       </c>
       <c r="V28" s="17">
         <f t="shared" si="2"/>
-        <v>31.5</v>
+        <v>26.5</v>
       </c>
       <c r="W28" s="17">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X28" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2876,12 +2980,14 @@
         <v>230041700033</v>
       </c>
       <c r="D29" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
@@ -2893,7 +2999,9 @@
         <v>0</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <v>18</v>
+      </c>
       <c r="N29" s="2">
         <v>50</v>
       </c>
@@ -2912,15 +3020,15 @@
       </c>
       <c r="V29" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W29" s="17">
         <f t="shared" si="2"/>
-        <v>13.166666666666668</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="X29" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2934,12 +3042,14 @@
         <v>230041700034</v>
       </c>
       <c r="D30" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2">
         <v>12</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G30" s="2">
         <v>4.5</v>
       </c>
@@ -2951,7 +3061,9 @@
         <v>5</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <v>21</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="21">
         <f t="shared" si="1"/>
@@ -2968,7 +3080,7 @@
       </c>
       <c r="V30" s="17">
         <f t="shared" si="2"/>
-        <v>24.5</v>
+        <v>20.5</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="2"/>
@@ -2976,7 +3088,7 @@
       </c>
       <c r="X30" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2995,7 +3107,9 @@
       <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
@@ -3007,7 +3121,9 @@
         <v>0</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="21">
         <f t="shared" si="1"/>
@@ -3046,12 +3162,14 @@
         <v>230041700036</v>
       </c>
       <c r="D32" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2">
-        <v>9</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
@@ -3063,7 +3181,9 @@
         <v>5</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="2">
+        <v>20</v>
+      </c>
       <c r="N32" s="2">
         <v>55</v>
       </c>
@@ -3082,11 +3202,11 @@
       </c>
       <c r="V32" s="17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="W32" s="17">
         <f t="shared" si="2"/>
-        <v>18.583333333333332</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="X32" s="17">
         <f t="shared" si="3"/>
@@ -3104,12 +3224,14 @@
         <v>230041700037</v>
       </c>
       <c r="D33" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2">
-        <v>15</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
       <c r="G33" s="2">
         <v>5</v>
       </c>
@@ -3121,7 +3243,9 @@
         <v>5</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>23</v>
+      </c>
       <c r="N33" s="2">
         <v>45</v>
       </c>
@@ -3140,15 +3264,15 @@
       </c>
       <c r="V33" s="17">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W33" s="17">
         <f t="shared" si="2"/>
-        <v>22.75</v>
+        <v>19.75</v>
       </c>
       <c r="X33" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3162,12 +3286,14 @@
         <v>230041700038</v>
       </c>
       <c r="D34" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
-        <v>14</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
       <c r="G34" s="2">
         <v>5</v>
       </c>
@@ -3179,7 +3305,9 @@
         <v>5</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2">
+        <v>22</v>
+      </c>
       <c r="N34" s="2">
         <v>60</v>
       </c>
@@ -3198,15 +3326,15 @@
       </c>
       <c r="V34" s="17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W34" s="17">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="X34" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3220,12 +3348,14 @@
         <v>230041700039</v>
       </c>
       <c r="D35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
@@ -3237,7 +3367,9 @@
         <v>5</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <v>17</v>
+      </c>
       <c r="N35" s="2">
         <v>60</v>
       </c>
@@ -3256,11 +3388,11 @@
       </c>
       <c r="V35" s="17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W35" s="17">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X35" s="17">
         <f t="shared" si="3"/>
@@ -3278,12 +3410,14 @@
         <v>230041700040</v>
       </c>
       <c r="D36" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
@@ -3295,7 +3429,9 @@
         <v>5</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="2">
+        <v>25</v>
+      </c>
       <c r="N36" s="2">
         <v>50</v>
       </c>
@@ -3314,15 +3450,15 @@
       </c>
       <c r="V36" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="W36" s="17">
         <f t="shared" si="2"/>
-        <v>23.166666666666668</v>
+        <v>25.166666666666668</v>
       </c>
       <c r="X36" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -3336,12 +3472,14 @@
         <v>230041700041</v>
       </c>
       <c r="D37" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2">
-        <v>6</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
@@ -3353,7 +3491,9 @@
         <v>0</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2">
+        <v>13</v>
+      </c>
       <c r="N37" s="2">
         <v>55</v>
       </c>
@@ -3372,11 +3512,11 @@
       </c>
       <c r="V37" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W37" s="17">
         <f t="shared" si="2"/>
-        <v>14.583333333333332</v>
+        <v>16.583333333333332</v>
       </c>
       <c r="X37" s="17">
         <f t="shared" si="3"/>
@@ -3394,12 +3534,14 @@
         <v>230041700042</v>
       </c>
       <c r="D38" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2">
-        <v>13</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
@@ -3411,7 +3553,9 @@
         <v>5</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2">
+        <v>25</v>
+      </c>
       <c r="N38" s="2">
         <v>50</v>
       </c>
@@ -3430,11 +3574,11 @@
       </c>
       <c r="V38" s="17">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="W38" s="17">
         <f t="shared" si="2"/>
-        <v>22.166666666666668</v>
+        <v>25.166666666666668</v>
       </c>
       <c r="X38" s="17">
         <f t="shared" si="3"/>
@@ -3452,12 +3596,14 @@
         <v>230041700043</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2">
-        <v>3</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
@@ -3469,7 +3615,9 @@
         <v>0</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2">
+        <v>7</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="21">
         <f t="shared" si="1"/>
@@ -3486,11 +3634,11 @@
       </c>
       <c r="V39" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W39" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X39" s="17">
         <f t="shared" si="3"/>
@@ -3508,12 +3656,14 @@
         <v>230041700044</v>
       </c>
       <c r="D40" s="2">
-        <v>12</v>
-      </c>
-      <c r="E40" s="2">
         <v>8</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
@@ -3525,7 +3675,9 @@
         <v>5</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2">
+        <v>17</v>
+      </c>
       <c r="N40" s="2">
         <v>60</v>
       </c>
@@ -3544,11 +3696,11 @@
       </c>
       <c r="V40" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W40" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="X40" s="17">
         <f t="shared" si="3"/>
@@ -3566,12 +3718,14 @@
         <v>230041700045</v>
       </c>
       <c r="D41" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2">
-        <v>7</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
@@ -3583,7 +3737,9 @@
         <v>0</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <v>11</v>
+      </c>
       <c r="N41" s="2">
         <v>20</v>
       </c>
@@ -3602,11 +3758,11 @@
       </c>
       <c r="V41" s="17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W41" s="17">
         <f t="shared" si="2"/>
-        <v>11.666666666666666</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="X41" s="17">
         <f t="shared" si="3"/>
@@ -3624,12 +3780,14 @@
         <v>230041700046</v>
       </c>
       <c r="D42" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2">
-        <v>8</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G42" s="2">
         <v>4.5</v>
       </c>
@@ -3641,7 +3799,9 @@
         <v>5</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2">
+        <v>20</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" s="21">
         <f t="shared" si="1"/>
@@ -3658,15 +3818,15 @@
       </c>
       <c r="V42" s="17">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>16.5</v>
       </c>
       <c r="W42" s="17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X42" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3680,12 +3840,14 @@
         <v>230041700047</v>
       </c>
       <c r="D43" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2">
         <v>16</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G43" s="2">
         <v>4.5</v>
       </c>
@@ -3697,7 +3859,9 @@
         <v>5</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2">
+        <v>27</v>
+      </c>
       <c r="N43" s="2">
         <v>60</v>
       </c>
@@ -3716,7 +3880,7 @@
       </c>
       <c r="V43" s="17">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="W43" s="17">
         <f t="shared" si="2"/>
@@ -3724,7 +3888,7 @@
       </c>
       <c r="X43" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3738,12 +3902,14 @@
         <v>230041700048</v>
       </c>
       <c r="D44" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="2">
         <v>18</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2">
+        <v>5</v>
+      </c>
       <c r="G44" s="2">
         <v>5</v>
       </c>
@@ -3755,7 +3921,9 @@
         <v>5</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2">
+        <v>29</v>
+      </c>
       <c r="N44" s="2">
         <v>60</v>
       </c>
@@ -3774,7 +3942,7 @@
       </c>
       <c r="V44" s="17">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W44" s="17">
         <f t="shared" si="2"/>
@@ -3782,7 +3950,7 @@
       </c>
       <c r="X44" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -3796,12 +3964,14 @@
         <v>230041700050</v>
       </c>
       <c r="D45" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2">
-        <v>9</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G45" s="2">
         <v>4.5</v>
       </c>
@@ -3813,7 +3983,9 @@
         <v>5</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2">
+        <v>19</v>
+      </c>
       <c r="N45" s="2">
         <v>60</v>
       </c>
@@ -3832,15 +4004,15 @@
       </c>
       <c r="V45" s="17">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="W45" s="17">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X45" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3854,12 +4026,14 @@
         <v>230041700051</v>
       </c>
       <c r="D46" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2">
-        <v>20</v>
-      </c>
-      <c r="F46" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G46" s="2">
         <v>4.5</v>
       </c>
@@ -3871,7 +4045,9 @@
         <v>5</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2">
+        <v>31</v>
+      </c>
       <c r="N46" s="2">
         <v>60</v>
       </c>
@@ -3890,15 +4066,15 @@
       </c>
       <c r="V46" s="17">
         <f t="shared" si="2"/>
-        <v>31.5</v>
+        <v>29.5</v>
       </c>
       <c r="W46" s="17">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X46" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -3912,12 +4088,14 @@
         <v>230041700052</v>
       </c>
       <c r="D47" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2">
-        <v>9</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
@@ -3929,7 +4107,9 @@
         <v>5</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="2">
+        <v>19</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" s="21">
         <f t="shared" si="1"/>
@@ -3946,11 +4126,11 @@
       </c>
       <c r="V47" s="17">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W47" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="X47" s="17">
         <f t="shared" si="3"/>
@@ -3968,12 +4148,14 @@
         <v>230041700053</v>
       </c>
       <c r="D48" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E48" s="2">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
       <c r="G48" s="2">
         <v>0</v>
       </c>
@@ -3985,7 +4167,9 @@
         <v>0</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2">
+        <v>19</v>
+      </c>
       <c r="N48" s="2">
         <v>52</v>
       </c>
@@ -4004,11 +4188,11 @@
       </c>
       <c r="V48" s="17">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W48" s="17">
         <f t="shared" si="2"/>
-        <v>18.333333333333332</v>
+        <v>19.333333333333332</v>
       </c>
       <c r="X48" s="17">
         <f t="shared" si="3"/>
@@ -4026,12 +4210,14 @@
         <v>230041700056</v>
       </c>
       <c r="D49" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E49" s="2">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
       <c r="G49" s="2">
         <v>0</v>
       </c>
@@ -4043,7 +4229,9 @@
         <v>5</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="2">
+        <v>23</v>
+      </c>
       <c r="N49" s="2">
         <v>56</v>
       </c>
@@ -4062,15 +4250,15 @@
       </c>
       <c r="V49" s="17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W49" s="17">
         <f t="shared" si="2"/>
-        <v>20.666666666666668</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="X49" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -4084,12 +4272,14 @@
         <v>230041700057</v>
       </c>
       <c r="D50" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="2">
         <v>0</v>
       </c>
@@ -4101,7 +4291,9 @@
         <v>5</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="2">
+        <v>22</v>
+      </c>
       <c r="N50" s="2">
         <v>56</v>
       </c>
@@ -4120,11 +4312,11 @@
       </c>
       <c r="V50" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="W50" s="17">
         <f t="shared" si="2"/>
-        <v>17.666666666666668</v>
+        <v>24.666666666666668</v>
       </c>
       <c r="X50" s="17">
         <f t="shared" si="3"/>
@@ -4141,13 +4333,15 @@
       <c r="C51" s="27">
         <v>230041700058</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>19</v>
+      <c r="D51" s="2">
+        <v>3</v>
       </c>
       <c r="E51" s="2">
-        <v>3</v>
-      </c>
-      <c r="F51" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
       <c r="G51" s="2">
         <v>0</v>
       </c>
@@ -4159,7 +4353,9 @@
         <v>5</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="K51" s="2">
+        <v>18</v>
+      </c>
       <c r="N51" s="2">
         <v>56</v>
       </c>
@@ -4178,11 +4374,11 @@
       </c>
       <c r="V51" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W51" s="17">
         <f t="shared" si="2"/>
-        <v>11.666666666666668</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="X51" s="17">
         <f t="shared" si="3"/>
@@ -4200,12 +4396,14 @@
         <v>230041700059</v>
       </c>
       <c r="D52" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E52" s="2">
         <v>15</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
       <c r="G52" s="2">
         <v>0</v>
       </c>
@@ -4217,7 +4415,9 @@
         <v>5</v>
       </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="K52" s="2">
+        <v>24</v>
+      </c>
       <c r="N52" s="2">
         <v>52</v>
       </c>
@@ -4236,7 +4436,7 @@
       </c>
       <c r="V52" s="17">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="W52" s="17">
         <f t="shared" si="2"/>
@@ -4258,12 +4458,14 @@
         <v>230041700060</v>
       </c>
       <c r="D53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2">
-        <v>2</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
@@ -4275,7 +4477,9 @@
         <v>0</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2">
+        <v>11</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" s="21">
         <f t="shared" si="1"/>
@@ -4292,11 +4496,11 @@
       </c>
       <c r="V53" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W53" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="X53" s="17">
         <f t="shared" si="3"/>
@@ -4319,7 +4523,9 @@
       <c r="E54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G54" s="2">
         <v>4.5</v>
       </c>
@@ -4331,7 +4537,9 @@
         <v>0</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="K54" s="2">
+        <v>5</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="21">
         <f t="shared" si="1"/>
@@ -4356,7 +4564,7 @@
       </c>
       <c r="X54" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -4370,12 +4578,14 @@
         <v>230041700062</v>
       </c>
       <c r="D55" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
-        <v>8</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F55" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G55" s="2">
         <v>4.5</v>
       </c>
@@ -4387,7 +4597,9 @@
         <v>5</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="K55" s="2">
+        <v>21</v>
+      </c>
       <c r="N55" s="2">
         <v>40</v>
       </c>
@@ -4406,15 +4618,15 @@
       </c>
       <c r="V55" s="17">
         <f t="shared" si="2"/>
-        <v>22.5</v>
+        <v>16.5</v>
       </c>
       <c r="W55" s="17">
         <f t="shared" si="2"/>
-        <v>15.333333333333334</v>
+        <v>19.333333333333336</v>
       </c>
       <c r="X55" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4427,13 +4639,15 @@
       <c r="C56" s="25">
         <v>230041700063</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>19</v>
+      <c r="D56" s="2">
+        <v>12</v>
       </c>
       <c r="E56" s="2">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="2">
         <v>0</v>
       </c>
@@ -4445,7 +4659,9 @@
         <v>0</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="K56" s="2">
+        <v>15</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" s="21">
         <f t="shared" si="1"/>
@@ -4462,11 +4678,11 @@
       </c>
       <c r="V56" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W56" s="17">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X56" s="17">
         <f t="shared" si="3"/>
@@ -4484,12 +4700,14 @@
         <v>230041700064</v>
       </c>
       <c r="D57" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2">
-        <v>13</v>
-      </c>
-      <c r="F57" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
       <c r="G57" s="2">
         <v>0</v>
       </c>
@@ -4501,7 +4719,9 @@
         <v>0</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2">
+        <v>20</v>
+      </c>
       <c r="N57" s="2">
         <v>45</v>
       </c>
@@ -4520,11 +4740,11 @@
       </c>
       <c r="V57" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W57" s="17">
         <f t="shared" si="2"/>
-        <v>20.75</v>
+        <v>21.75</v>
       </c>
       <c r="X57" s="17">
         <f t="shared" si="3"/>
@@ -4542,12 +4762,14 @@
         <v>230041700065</v>
       </c>
       <c r="D58" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2">
-        <v>9</v>
-      </c>
-      <c r="F58" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
       <c r="G58" s="2">
         <v>0</v>
       </c>
@@ -4559,7 +4781,9 @@
         <v>0</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="K58" s="2">
+        <v>12</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" s="21">
         <f t="shared" si="1"/>
@@ -4576,11 +4800,11 @@
       </c>
       <c r="V58" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W58" s="17">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X58" s="17">
         <f t="shared" si="3"/>
@@ -4598,12 +4822,14 @@
         <v>230041700066</v>
       </c>
       <c r="D59" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E59" s="2">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
@@ -4615,7 +4841,9 @@
         <v>5</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="K59" s="2">
+        <v>22</v>
+      </c>
       <c r="N59" s="2">
         <v>60</v>
       </c>
@@ -4634,11 +4862,11 @@
       </c>
       <c r="V59" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W59" s="17">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X59" s="17">
         <f t="shared" si="3"/>
@@ -4656,12 +4884,14 @@
         <v>230041700067</v>
       </c>
       <c r="D60" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
@@ -4673,7 +4903,9 @@
         <v>0</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="K60" s="2">
+        <v>7</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" s="21">
         <f t="shared" si="1"/>
@@ -4690,11 +4922,11 @@
       </c>
       <c r="V60" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W60" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="X60" s="17">
         <f t="shared" si="3"/>
@@ -4712,12 +4944,14 @@
         <v>230041700068</v>
       </c>
       <c r="D61" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E61" s="2">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F61" s="2">
+        <v>5</v>
+      </c>
       <c r="G61" s="2">
         <v>0</v>
       </c>
@@ -4729,7 +4963,9 @@
         <v>5</v>
       </c>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="K61" s="2">
+        <v>21</v>
+      </c>
       <c r="N61" s="2">
         <v>60</v>
       </c>
@@ -4748,15 +4984,15 @@
       </c>
       <c r="V61" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W61" s="17">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X61" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -4770,12 +5006,14 @@
         <v>230041700069</v>
       </c>
       <c r="D62" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E62" s="2">
-        <v>21</v>
-      </c>
-      <c r="F62" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
       <c r="G62" s="2">
         <v>0</v>
       </c>
@@ -4787,7 +5025,9 @@
         <v>5</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2">
+        <v>25</v>
+      </c>
       <c r="N62" s="2">
         <v>40</v>
       </c>
@@ -4806,11 +5046,11 @@
       </c>
       <c r="V62" s="17">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="W62" s="17">
         <f t="shared" si="2"/>
-        <v>28.333333333333332</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="X62" s="17">
         <f t="shared" si="3"/>
@@ -4833,7 +5073,9 @@
       <c r="E63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
       <c r="G63" s="2">
         <v>0</v>
       </c>
@@ -4845,7 +5087,9 @@
         <v>0</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" s="21">
         <f t="shared" si="1"/>
@@ -4884,12 +5128,14 @@
         <v>230041700071</v>
       </c>
       <c r="D64" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E64" s="2">
-        <v>15</v>
-      </c>
-      <c r="F64" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5</v>
+      </c>
       <c r="G64" s="2">
         <v>5</v>
       </c>
@@ -4901,7 +5147,9 @@
         <v>5</v>
       </c>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="K64" s="2">
+        <v>29</v>
+      </c>
       <c r="N64" s="2">
         <v>60</v>
       </c>
@@ -4920,15 +5168,15 @@
       </c>
       <c r="V64" s="17">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="W64" s="17">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X64" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -4942,12 +5190,14 @@
         <v>230041700072</v>
       </c>
       <c r="D65" s="2">
-        <v>15</v>
-      </c>
-      <c r="E65" s="2">
         <v>14</v>
       </c>
-      <c r="F65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
       <c r="G65" s="2">
         <v>0</v>
       </c>
@@ -4959,7 +5209,9 @@
         <v>0</v>
       </c>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="K65" s="2">
+        <v>20</v>
+      </c>
       <c r="N65" s="2">
         <v>50</v>
       </c>
@@ -4978,11 +5230,11 @@
       </c>
       <c r="V65" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W65" s="17">
         <f t="shared" si="2"/>
-        <v>22.166666666666668</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="X65" s="17">
         <f t="shared" si="3"/>
@@ -4999,13 +5251,15 @@
       <c r="C66" s="25">
         <v>230041700073</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>19</v>
+      <c r="D66" s="2">
+        <v>4</v>
       </c>
       <c r="E66" s="2">
         <v>4</v>
       </c>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
@@ -5017,7 +5271,9 @@
         <v>5</v>
       </c>
       <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="K66" s="2">
+        <v>11</v>
+      </c>
       <c r="N66" s="2">
         <v>55</v>
       </c>
@@ -5036,7 +5292,7 @@
       </c>
       <c r="V66" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W66" s="17">
         <f t="shared" si="2"/>
@@ -5058,12 +5314,14 @@
         <v>230041700074</v>
       </c>
       <c r="D67" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E67" s="2">
-        <v>23</v>
-      </c>
-      <c r="F67" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F67" s="2">
+        <v>5</v>
+      </c>
       <c r="G67" s="2">
         <v>5</v>
       </c>
@@ -5075,7 +5333,9 @@
         <v>5</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="K67" s="2">
+        <v>34</v>
+      </c>
       <c r="N67" s="2">
         <v>60</v>
       </c>
@@ -5094,15 +5354,15 @@
       </c>
       <c r="V67" s="17">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W67" s="17">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X67" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -5118,10 +5378,12 @@
       <c r="D68" s="2">
         <v>12</v>
       </c>
-      <c r="E68" s="2">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
       <c r="G68" s="2">
         <v>0</v>
       </c>
@@ -5133,7 +5395,9 @@
         <v>5</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="K68" s="2">
+        <v>18</v>
+      </c>
       <c r="N68" s="2">
         <v>60</v>
       </c>
@@ -5156,7 +5420,7 @@
       </c>
       <c r="W68" s="17">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X68" s="17">
         <f t="shared" ref="X68:X122" si="7">SUM(F68)+I68+U68</f>
@@ -5174,12 +5438,14 @@
         <v>230041700076</v>
       </c>
       <c r="D69" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E69" s="2">
-        <v>14</v>
-      </c>
-      <c r="F69" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
@@ -5191,7 +5457,9 @@
         <v>0</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="K69" s="2">
+        <v>20</v>
+      </c>
       <c r="N69" s="2">
         <v>50</v>
       </c>
@@ -5210,11 +5478,11 @@
       </c>
       <c r="V69" s="17">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W69" s="17">
         <f t="shared" si="6"/>
-        <v>21.166666666666668</v>
+        <v>16.166666666666668</v>
       </c>
       <c r="X69" s="17">
         <f t="shared" si="7"/>
@@ -5234,10 +5502,12 @@
       <c r="D70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="E70" s="2">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
       <c r="G70" s="2">
         <v>0</v>
       </c>
@@ -5249,7 +5519,9 @@
         <v>0</v>
       </c>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" s="21">
         <f t="shared" si="5"/>
@@ -5270,7 +5542,7 @@
       </c>
       <c r="W70" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X70" s="17">
         <f t="shared" si="7"/>
@@ -5288,12 +5560,14 @@
         <v>230041700078</v>
       </c>
       <c r="D71" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E71" s="2">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F71" s="2">
+        <v>5</v>
+      </c>
       <c r="G71" s="2">
         <v>0</v>
       </c>
@@ -5305,7 +5579,9 @@
         <v>5</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="K71" s="2">
+        <v>21</v>
+      </c>
       <c r="N71" s="2">
         <v>52</v>
       </c>
@@ -5324,15 +5600,15 @@
       </c>
       <c r="V71" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="W71" s="17">
         <f t="shared" si="6"/>
-        <v>12.333333333333332</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="X71" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5346,12 +5622,14 @@
         <v>230041700079</v>
       </c>
       <c r="D72" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2">
         <v>13</v>
       </c>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>5</v>
+      </c>
       <c r="G72" s="2">
         <v>5</v>
       </c>
@@ -5363,7 +5641,9 @@
         <v>5</v>
       </c>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="K72" s="2">
+        <v>25</v>
+      </c>
       <c r="N72" s="2">
         <v>52</v>
       </c>
@@ -5382,7 +5662,7 @@
       </c>
       <c r="V72" s="17">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="W72" s="17">
         <f t="shared" si="6"/>
@@ -5390,7 +5670,7 @@
       </c>
       <c r="X72" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -5404,12 +5684,14 @@
         <v>230041700080</v>
       </c>
       <c r="D73" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E73" s="2">
-        <v>7</v>
-      </c>
-      <c r="F73" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
       <c r="G73" s="2">
         <v>0</v>
       </c>
@@ -5421,7 +5703,9 @@
         <v>5</v>
       </c>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="K73" s="2">
+        <v>16</v>
+      </c>
       <c r="N73" s="2">
         <v>56</v>
       </c>
@@ -5440,11 +5724,11 @@
       </c>
       <c r="V73" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="W73" s="17">
         <f t="shared" si="6"/>
-        <v>15.666666666666668</v>
+        <v>12.666666666666668</v>
       </c>
       <c r="X73" s="17">
         <f t="shared" si="7"/>
@@ -5467,7 +5751,9 @@
       <c r="E74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
@@ -5479,7 +5765,9 @@
         <v>0</v>
       </c>
       <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" s="21">
         <f t="shared" si="5"/>
@@ -5518,12 +5806,14 @@
         <v>230041700082</v>
       </c>
       <c r="D75" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E75" s="2">
-        <v>13</v>
-      </c>
-      <c r="F75" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
       <c r="G75" s="2">
         <v>0</v>
       </c>
@@ -5535,7 +5825,9 @@
         <v>5</v>
       </c>
       <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="K75" s="2">
+        <v>20</v>
+      </c>
       <c r="N75" s="2">
         <v>56</v>
       </c>
@@ -5554,11 +5846,11 @@
       </c>
       <c r="V75" s="17">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W75" s="17">
         <f t="shared" si="6"/>
-        <v>20.666666666666668</v>
+        <v>14.666666666666668</v>
       </c>
       <c r="X75" s="17">
         <f t="shared" si="7"/>
@@ -5581,7 +5873,9 @@
       <c r="E76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="2"/>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
       <c r="G76" s="2">
         <v>0</v>
       </c>
@@ -5593,7 +5887,9 @@
         <v>0</v>
       </c>
       <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" s="21">
         <f t="shared" si="5"/>
@@ -5632,12 +5928,14 @@
         <v>230041700084</v>
       </c>
       <c r="D77" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2">
         <v>13</v>
       </c>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2">
+        <v>5</v>
+      </c>
       <c r="G77" s="2">
         <v>5</v>
       </c>
@@ -5649,7 +5947,9 @@
         <v>5</v>
       </c>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="K77" s="2">
+        <v>26</v>
+      </c>
       <c r="N77" s="2">
         <v>55</v>
       </c>
@@ -5668,7 +5968,7 @@
       </c>
       <c r="V77" s="17">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="W77" s="17">
         <f t="shared" si="6"/>
@@ -5676,7 +5976,7 @@
       </c>
       <c r="X77" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5689,13 +5989,15 @@
       <c r="C78" s="27">
         <v>230041700086</v>
       </c>
-      <c r="D78" s="2">
-        <v>13</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="2"/>
+      <c r="E78" s="2">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
       <c r="G78" s="2">
         <v>0</v>
       </c>
@@ -5707,7 +6009,9 @@
         <v>5</v>
       </c>
       <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
+      <c r="K78" s="2">
+        <v>11</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" s="21">
         <f t="shared" si="5"/>
@@ -5724,11 +6028,11 @@
       </c>
       <c r="V78" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="W78" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X78" s="17">
         <f t="shared" si="7"/>
@@ -5751,7 +6055,9 @@
       <c r="E79" s="2">
         <v>14</v>
       </c>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
       <c r="G79" s="2">
         <v>0</v>
       </c>
@@ -5763,7 +6069,9 @@
         <v>5</v>
       </c>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="K79" s="2">
+        <v>24</v>
+      </c>
       <c r="N79" s="2">
         <v>60</v>
       </c>
@@ -5804,12 +6112,14 @@
         <v>230041700088</v>
       </c>
       <c r="D80" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2">
-        <v>15</v>
-      </c>
-      <c r="F80" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F80" s="2">
+        <v>5</v>
+      </c>
       <c r="G80" s="2">
         <v>5</v>
       </c>
@@ -5821,7 +6131,9 @@
         <v>5</v>
       </c>
       <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="K80" s="2">
+        <v>27</v>
+      </c>
       <c r="N80" s="2">
         <v>55</v>
       </c>
@@ -5840,15 +6152,15 @@
       </c>
       <c r="V80" s="17">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="W80" s="17">
         <f t="shared" si="6"/>
-        <v>24.583333333333332</v>
+        <v>23.583333333333332</v>
       </c>
       <c r="X80" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5862,12 +6174,14 @@
         <v>230041700089</v>
       </c>
       <c r="D81" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E81" s="2">
         <v>3</v>
       </c>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2">
+        <v>5</v>
+      </c>
       <c r="G81" s="2">
         <v>0</v>
       </c>
@@ -5879,7 +6193,9 @@
         <v>5</v>
       </c>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="K81" s="2">
+        <v>16</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" s="21">
         <f t="shared" si="5"/>
@@ -5896,7 +6212,7 @@
       </c>
       <c r="V81" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="W81" s="17">
         <f t="shared" si="6"/>
@@ -5904,7 +6220,7 @@
       </c>
       <c r="X81" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -5917,13 +6233,15 @@
       <c r="C82" s="27">
         <v>230041700090</v>
       </c>
-      <c r="D82" s="2">
-        <v>13</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="2"/>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
       <c r="G82" s="2">
         <v>0</v>
       </c>
@@ -5935,7 +6253,9 @@
         <v>5</v>
       </c>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="K82" s="2">
+        <v>11</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" s="21">
         <f t="shared" si="5"/>
@@ -5952,11 +6272,11 @@
       </c>
       <c r="V82" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="W82" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82" s="17">
         <f t="shared" si="7"/>
@@ -5974,12 +6294,14 @@
         <v>230041700091</v>
       </c>
       <c r="D83" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E83" s="2">
-        <v>6</v>
-      </c>
-      <c r="F83" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F83" s="2">
+        <v>5</v>
+      </c>
       <c r="G83" s="2">
         <v>4.5</v>
       </c>
@@ -5991,7 +6313,9 @@
         <v>5</v>
       </c>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="K83" s="2">
+        <v>18</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" s="21">
         <f t="shared" si="5"/>
@@ -6008,15 +6332,15 @@
       </c>
       <c r="V83" s="17">
         <f t="shared" si="6"/>
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="W83" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X83" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -6030,12 +6354,14 @@
         <v>230041700092</v>
       </c>
       <c r="D84" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E84" s="2">
-        <v>8</v>
-      </c>
-      <c r="F84" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
       <c r="G84" s="2">
         <v>0</v>
       </c>
@@ -6047,7 +6373,9 @@
         <v>0</v>
       </c>
       <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="K84" s="2">
+        <v>9</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" s="21">
         <f t="shared" si="5"/>
@@ -6064,11 +6392,11 @@
       </c>
       <c r="V84" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W84" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="X84" s="17">
         <f t="shared" si="7"/>
@@ -6091,7 +6419,9 @@
       <c r="E85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="2"/>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
@@ -6103,7 +6433,9 @@
         <v>0</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" s="21">
         <f t="shared" si="5"/>
@@ -6141,13 +6473,15 @@
       <c r="C86" s="27">
         <v>230041700094</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>19</v>
+      <c r="D86" s="2">
+        <v>13</v>
       </c>
       <c r="E86" s="2">
-        <v>13</v>
-      </c>
-      <c r="F86" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
       <c r="G86" s="2">
         <v>0</v>
       </c>
@@ -6159,7 +6493,9 @@
         <v>0</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="K86" s="2">
+        <v>11</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" s="21">
         <f t="shared" si="5"/>
@@ -6176,11 +6512,11 @@
       </c>
       <c r="V86" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W86" s="17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="X86" s="17">
         <f t="shared" si="7"/>
@@ -6198,12 +6534,14 @@
         <v>230041700095</v>
       </c>
       <c r="D87" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E87" s="2">
-        <v>5</v>
-      </c>
-      <c r="F87" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F87" s="2">
+        <v>5</v>
+      </c>
       <c r="G87" s="2">
         <v>5</v>
       </c>
@@ -6215,7 +6553,9 @@
         <v>5</v>
       </c>
       <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="K87" s="2">
+        <v>21</v>
+      </c>
       <c r="N87" s="2">
         <v>55</v>
       </c>
@@ -6234,15 +6574,15 @@
       </c>
       <c r="V87" s="17">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="W87" s="17">
         <f t="shared" si="6"/>
-        <v>14.583333333333332</v>
+        <v>17.583333333333332</v>
       </c>
       <c r="X87" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6256,12 +6596,14 @@
         <v>230041700096</v>
       </c>
       <c r="D88" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E88" s="2">
-        <v>16</v>
-      </c>
-      <c r="F88" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F88" s="2">
+        <v>5</v>
+      </c>
       <c r="G88" s="2">
         <v>5</v>
       </c>
@@ -6273,7 +6615,9 @@
         <v>5</v>
       </c>
       <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+      <c r="K88" s="2">
+        <v>26</v>
+      </c>
       <c r="N88" s="2">
         <v>55</v>
       </c>
@@ -6292,15 +6636,15 @@
       </c>
       <c r="V88" s="17">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W88" s="17">
         <f t="shared" si="6"/>
-        <v>24.583333333333332</v>
+        <v>21.583333333333332</v>
       </c>
       <c r="X88" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -6314,12 +6658,14 @@
         <v>230041700097</v>
       </c>
       <c r="D89" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E89" s="2">
-        <v>22</v>
-      </c>
-      <c r="F89" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F89" s="2">
+        <v>5</v>
+      </c>
       <c r="G89" s="2">
         <v>5</v>
       </c>
@@ -6331,7 +6677,9 @@
         <v>5</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
+      <c r="K89" s="2">
+        <v>29</v>
+      </c>
       <c r="N89" s="2">
         <v>55</v>
       </c>
@@ -6350,15 +6698,15 @@
       </c>
       <c r="V89" s="17">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W89" s="17">
         <f t="shared" si="6"/>
-        <v>31.583333333333332</v>
+        <v>23.583333333333332</v>
       </c>
       <c r="X89" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -6375,9 +6723,11 @@
         <v>12</v>
       </c>
       <c r="E90" s="2">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F90" s="2">
+        <v>4</v>
+      </c>
       <c r="G90" s="2">
         <v>4</v>
       </c>
@@ -6389,7 +6739,9 @@
         <v>0</v>
       </c>
       <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
+      <c r="K90" s="2">
+        <v>20</v>
+      </c>
       <c r="N90" s="2">
         <v>52</v>
       </c>
@@ -6412,11 +6764,11 @@
       </c>
       <c r="W90" s="17">
         <f t="shared" si="6"/>
-        <v>20.333333333333332</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="X90" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -6430,12 +6782,14 @@
         <v>230041700099</v>
       </c>
       <c r="D91" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E91" s="2">
-        <v>2</v>
-      </c>
-      <c r="F91" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
       <c r="G91" s="2">
         <v>0</v>
       </c>
@@ -6447,7 +6801,9 @@
         <v>5</v>
       </c>
       <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
+      <c r="K91" s="2">
+        <v>10</v>
+      </c>
       <c r="N91" s="2">
         <v>50</v>
       </c>
@@ -6466,11 +6822,11 @@
       </c>
       <c r="V91" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="W91" s="17">
         <f t="shared" si="6"/>
-        <v>9.1666666666666679</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="X91" s="17">
         <f t="shared" si="7"/>
@@ -6488,12 +6844,14 @@
         <v>230041700100</v>
       </c>
       <c r="D92" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E92" s="2">
-        <v>14</v>
-      </c>
-      <c r="F92" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
       <c r="G92" s="2">
         <v>0</v>
       </c>
@@ -6505,7 +6863,9 @@
         <v>0</v>
       </c>
       <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
+      <c r="K92" s="2">
+        <v>16</v>
+      </c>
       <c r="N92" s="2">
         <v>48</v>
       </c>
@@ -6524,11 +6884,11 @@
       </c>
       <c r="V92" s="17">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="W92" s="17">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="X92" s="17">
         <f t="shared" si="7"/>
@@ -6549,9 +6909,11 @@
         <v>1</v>
       </c>
       <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
       <c r="G93" s="2">
         <v>0</v>
       </c>
@@ -6563,7 +6925,9 @@
         <v>5</v>
       </c>
       <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="K93" s="2">
+        <v>9</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" s="21">
         <f t="shared" si="5"/>
@@ -6584,7 +6948,7 @@
       </c>
       <c r="W93" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X93" s="17">
         <f t="shared" si="7"/>
@@ -6602,12 +6966,14 @@
         <v>230041700102</v>
       </c>
       <c r="D94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F94" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G94" s="2">
         <v>4.5</v>
       </c>
@@ -6619,7 +6985,9 @@
         <v>5</v>
       </c>
       <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
+      <c r="K94" s="2">
+        <v>11</v>
+      </c>
       <c r="N94" s="2">
         <v>56</v>
       </c>
@@ -6638,15 +7006,15 @@
       </c>
       <c r="V94" s="17">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="W94" s="17">
         <f t="shared" si="6"/>
-        <v>9.6666666666666679</v>
+        <v>10.666666666666668</v>
       </c>
       <c r="X94" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
@@ -6659,13 +7027,15 @@
       <c r="C95" s="25">
         <v>230041700103</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="2">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="2"/>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
       <c r="G95" s="2">
         <v>0</v>
       </c>
@@ -6677,7 +7047,9 @@
         <v>0</v>
       </c>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
+      <c r="K95" s="2">
+        <v>4</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" s="21">
         <f t="shared" si="5"/>
@@ -6694,11 +7066,11 @@
       </c>
       <c r="V95" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W95" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X95" s="17">
         <f t="shared" si="7"/>
@@ -6719,9 +7091,11 @@
         <v>12</v>
       </c>
       <c r="E96" s="2">
-        <v>12</v>
-      </c>
-      <c r="F96" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F96" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G96" s="2">
         <v>4.5</v>
       </c>
@@ -6733,7 +7107,9 @@
         <v>5</v>
       </c>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
+      <c r="K96" s="2">
+        <v>25</v>
+      </c>
       <c r="N96" s="2">
         <v>60</v>
       </c>
@@ -6756,11 +7132,11 @@
       </c>
       <c r="W96" s="17">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="X96" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
@@ -6774,12 +7150,14 @@
         <v>230041700105</v>
       </c>
       <c r="D97" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E97" s="2">
         <v>13</v>
       </c>
-      <c r="F97" s="2"/>
+      <c r="F97" s="2">
+        <v>4.5</v>
+      </c>
       <c r="G97" s="2">
         <v>4.5</v>
       </c>
@@ -6791,7 +7169,9 @@
         <v>5</v>
       </c>
       <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="K97" s="2">
+        <v>25</v>
+      </c>
       <c r="N97" s="2">
         <v>60</v>
       </c>
@@ -6810,7 +7190,7 @@
       </c>
       <c r="V97" s="17">
         <f t="shared" si="6"/>
-        <v>26.5</v>
+        <v>20.5</v>
       </c>
       <c r="W97" s="17">
         <f t="shared" si="6"/>
@@ -6818,7 +7198,7 @@
       </c>
       <c r="X97" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6837,7 +7217,9 @@
       <c r="E98" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="2"/>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
       <c r="G98" s="2">
         <v>0</v>
       </c>
@@ -6849,7 +7231,9 @@
         <v>0</v>
       </c>
       <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="K98" s="2">
+        <v>1</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" s="21">
         <f t="shared" si="5"/>
@@ -6888,12 +7272,14 @@
         <v>230041700108</v>
       </c>
       <c r="D99" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E99" s="2">
-        <v>22</v>
-      </c>
-      <c r="F99" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F99" s="2">
+        <v>5</v>
+      </c>
       <c r="G99" s="2">
         <v>5</v>
       </c>
@@ -6905,7 +7291,9 @@
         <v>5</v>
       </c>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="K99" s="2">
+        <v>33</v>
+      </c>
       <c r="N99" s="2">
         <v>55</v>
       </c>
@@ -6924,15 +7312,15 @@
       </c>
       <c r="V99" s="17">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W99" s="17">
         <f t="shared" si="6"/>
-        <v>30.583333333333332</v>
+        <v>33.583333333333329</v>
       </c>
       <c r="X99" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6946,12 +7334,14 @@
         <v>230041700109</v>
       </c>
       <c r="D100" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
       <c r="G100" s="2">
         <v>0</v>
       </c>
@@ -6963,7 +7353,9 @@
         <v>0</v>
       </c>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="K100" s="2">
+        <v>7</v>
+      </c>
       <c r="N100" s="2">
         <v>50</v>
       </c>
@@ -6982,7 +7374,7 @@
       </c>
       <c r="V100" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W100" s="17">
         <f t="shared" si="6"/>
@@ -7003,13 +7395,15 @@
       <c r="C101" s="27">
         <v>230041700110</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>19</v>
+      <c r="D101" s="2">
+        <v>16</v>
       </c>
       <c r="E101" s="2">
-        <v>16</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F101" s="2">
+        <v>5</v>
+      </c>
       <c r="G101" s="2">
         <v>0</v>
       </c>
@@ -7021,7 +7415,9 @@
         <v>5</v>
       </c>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="K101" s="2">
+        <v>24</v>
+      </c>
       <c r="N101" s="2">
         <v>55</v>
       </c>
@@ -7040,15 +7436,15 @@
       </c>
       <c r="V101" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="W101" s="17">
         <f t="shared" si="6"/>
-        <v>23.583333333333332</v>
+        <v>20.583333333333332</v>
       </c>
       <c r="X101" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7065,9 +7461,11 @@
         <v>18</v>
       </c>
       <c r="E102" s="2">
-        <v>18</v>
-      </c>
-      <c r="F102" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F102" s="2">
+        <v>5</v>
+      </c>
       <c r="G102" s="2">
         <v>5</v>
       </c>
@@ -7079,7 +7477,9 @@
         <v>5</v>
       </c>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
+      <c r="K102" s="2">
+        <v>28</v>
+      </c>
       <c r="N102" s="2">
         <v>56</v>
       </c>
@@ -7102,11 +7502,11 @@
       </c>
       <c r="W102" s="17">
         <f t="shared" si="6"/>
-        <v>27.666666666666668</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="X102" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7120,12 +7520,14 @@
         <v>230041700112</v>
       </c>
       <c r="D103" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E103" s="2">
-        <v>9</v>
-      </c>
-      <c r="F103" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
       <c r="G103" s="2">
         <v>0</v>
       </c>
@@ -7137,7 +7539,9 @@
         <v>5</v>
       </c>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="K103" s="2">
+        <v>23</v>
+      </c>
       <c r="N103" s="2">
         <v>55</v>
       </c>
@@ -7156,11 +7560,11 @@
       </c>
       <c r="V103" s="17">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="W103" s="17">
         <f t="shared" si="6"/>
-        <v>18.583333333333332</v>
+        <v>24.583333333333332</v>
       </c>
       <c r="X103" s="17">
         <f t="shared" si="7"/>
@@ -7177,13 +7581,15 @@
       <c r="C104" s="25">
         <v>230041700113</v>
       </c>
-      <c r="D104" s="2">
-        <v>12</v>
+      <c r="D104" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F104" s="2"/>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
       <c r="G104" s="2">
         <v>0</v>
       </c>
@@ -7195,7 +7601,9 @@
         <v>0</v>
       </c>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="K104" s="2">
+        <v>10</v>
+      </c>
       <c r="N104" s="2">
         <v>52</v>
       </c>
@@ -7214,7 +7622,7 @@
       </c>
       <c r="V104" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="W104" s="17">
         <f t="shared" si="6"/>
@@ -7236,12 +7644,14 @@
         <v>230041700115</v>
       </c>
       <c r="D105" s="2">
-        <v>12</v>
-      </c>
-      <c r="E105" s="2">
         <v>1</v>
       </c>
-      <c r="F105" s="2"/>
+      <c r="E105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
       <c r="G105" s="2">
         <v>0</v>
       </c>
@@ -7253,7 +7663,9 @@
         <v>0</v>
       </c>
       <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="K105" s="2">
+        <v>10</v>
+      </c>
       <c r="N105" s="2"/>
       <c r="O105" s="21">
         <f t="shared" si="5"/>
@@ -7270,11 +7682,11 @@
       </c>
       <c r="V105" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="W105" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X105" s="17">
         <f t="shared" si="7"/>
@@ -7292,12 +7704,14 @@
         <v>230041700116</v>
       </c>
       <c r="D106" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E106" s="2">
-        <v>10</v>
-      </c>
-      <c r="F106" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
       <c r="G106" s="2">
         <v>0</v>
       </c>
@@ -7309,7 +7723,9 @@
         <v>5</v>
       </c>
       <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="K106" s="2">
+        <v>20</v>
+      </c>
       <c r="N106" s="2">
         <v>45</v>
       </c>
@@ -7328,11 +7744,11 @@
       </c>
       <c r="V106" s="17">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="W106" s="17">
         <f t="shared" si="6"/>
-        <v>15.75</v>
+        <v>6.75</v>
       </c>
       <c r="X106" s="17">
         <f t="shared" si="7"/>
@@ -7350,12 +7766,14 @@
         <v>230041700117</v>
       </c>
       <c r="D107" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" s="2">
-        <v>12</v>
-      </c>
-      <c r="F107" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
       <c r="G107" s="2">
         <v>0</v>
       </c>
@@ -7367,7 +7785,9 @@
         <v>5</v>
       </c>
       <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="K107" s="2">
+        <v>16</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" s="21">
         <f t="shared" si="5"/>
@@ -7384,11 +7804,11 @@
       </c>
       <c r="V107" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W107" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="X107" s="17">
         <f t="shared" si="7"/>
@@ -7406,12 +7826,14 @@
         <v>230041700118</v>
       </c>
       <c r="D108" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E108" s="2">
-        <v>0</v>
-      </c>
-      <c r="F108" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F108" s="2">
+        <v>5</v>
+      </c>
       <c r="G108" s="2">
         <v>5</v>
       </c>
@@ -7423,7 +7845,9 @@
         <v>5</v>
       </c>
       <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
+      <c r="K108" s="2">
+        <v>20</v>
+      </c>
       <c r="N108" s="2"/>
       <c r="O108" s="21">
         <f t="shared" si="5"/>
@@ -7440,15 +7864,15 @@
       </c>
       <c r="V108" s="17">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="W108" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X108" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
@@ -7462,12 +7886,14 @@
         <v>230041700119</v>
       </c>
       <c r="D109" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E109" s="2">
         <v>3</v>
       </c>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="2">
         <v>0</v>
       </c>
@@ -7479,7 +7905,9 @@
         <v>0</v>
       </c>
       <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="K109" s="2">
+        <v>9</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" s="21">
         <f t="shared" si="5"/>
@@ -7496,7 +7924,7 @@
       </c>
       <c r="V109" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W109" s="17">
         <f t="shared" si="6"/>
@@ -7517,13 +7945,15 @@
       <c r="C110" s="27">
         <v>230041700120</v>
       </c>
-      <c r="D110" s="2">
-        <v>12</v>
+      <c r="D110" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
       <c r="G110" s="2">
         <v>0</v>
       </c>
@@ -7535,7 +7965,9 @@
         <v>0</v>
       </c>
       <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
+      <c r="K110" s="2">
+        <v>7</v>
+      </c>
       <c r="N110" s="2"/>
       <c r="O110" s="21">
         <f t="shared" si="5"/>
@@ -7552,7 +7984,7 @@
       </c>
       <c r="V110" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="W110" s="17">
         <f t="shared" si="6"/>
@@ -7574,12 +8006,14 @@
         <v>230041700121</v>
       </c>
       <c r="D111" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E111" s="2">
-        <v>8</v>
-      </c>
-      <c r="F111" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
       <c r="G111" s="2">
         <v>0</v>
       </c>
@@ -7591,7 +8025,9 @@
         <v>5</v>
       </c>
       <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
+      <c r="K111" s="2">
+        <v>21</v>
+      </c>
       <c r="N111" s="2">
         <v>56</v>
       </c>
@@ -7610,11 +8046,11 @@
       </c>
       <c r="V111" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W111" s="17">
         <f t="shared" si="6"/>
-        <v>17.666666666666668</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="X111" s="17">
         <f t="shared" si="7"/>
@@ -7632,12 +8068,14 @@
         <v>230041700122</v>
       </c>
       <c r="D112" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E112" s="2">
-        <v>4</v>
-      </c>
-      <c r="F112" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>5</v>
+      </c>
       <c r="G112" s="2">
         <v>0</v>
       </c>
@@ -7649,7 +8087,9 @@
         <v>5</v>
       </c>
       <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+      <c r="K112" s="2">
+        <v>16</v>
+      </c>
       <c r="N112" s="2">
         <v>30</v>
       </c>
@@ -7668,15 +8108,15 @@
       </c>
       <c r="V112" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="W112" s="17">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="X112" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7689,13 +8129,15 @@
       <c r="C113" s="25">
         <v>230041700123</v>
       </c>
-      <c r="D113" s="2">
-        <v>12</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="2"/>
+      <c r="E113" s="2">
+        <v>2</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
       <c r="G113" s="2">
         <v>0</v>
       </c>
@@ -7707,7 +8149,9 @@
         <v>0</v>
       </c>
       <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
+      <c r="K113" s="2">
+        <v>7</v>
+      </c>
       <c r="N113" s="2"/>
       <c r="O113" s="21">
         <f t="shared" si="5"/>
@@ -7724,11 +8168,11 @@
       </c>
       <c r="V113" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W113" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X113" s="17">
         <f t="shared" si="7"/>
@@ -7746,12 +8190,14 @@
         <v>230041700124</v>
       </c>
       <c r="D114" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E114" s="2">
-        <v>4</v>
-      </c>
-      <c r="F114" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="2">
         <v>0</v>
       </c>
@@ -7763,7 +8209,9 @@
         <v>5</v>
       </c>
       <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+      <c r="K114" s="2">
+        <v>13</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" s="21">
         <f t="shared" si="5"/>
@@ -7780,11 +8228,11 @@
       </c>
       <c r="V114" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W114" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X114" s="17">
         <f t="shared" si="7"/>
@@ -7802,12 +8250,14 @@
         <v>230041700126</v>
       </c>
       <c r="D115" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E115" s="2">
-        <v>17</v>
-      </c>
-      <c r="F115" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
       <c r="G115" s="2">
         <v>0</v>
       </c>
@@ -7819,7 +8269,9 @@
         <v>5</v>
       </c>
       <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
+      <c r="K115" s="2">
+        <v>20</v>
+      </c>
       <c r="N115" s="2">
         <v>56</v>
       </c>
@@ -7838,11 +8290,11 @@
       </c>
       <c r="V115" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="W115" s="17">
         <f t="shared" si="6"/>
-        <v>25.666666666666668</v>
+        <v>10.666666666666668</v>
       </c>
       <c r="X115" s="17">
         <f t="shared" si="7"/>
@@ -7860,12 +8312,14 @@
         <v>230041700127</v>
       </c>
       <c r="D116" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E116" s="2">
-        <v>18</v>
-      </c>
-      <c r="F116" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
       <c r="G116" s="2">
         <v>0</v>
       </c>
@@ -7877,7 +8331,9 @@
         <v>5</v>
       </c>
       <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
+      <c r="K116" s="2">
+        <v>25</v>
+      </c>
       <c r="N116" s="2">
         <v>60</v>
       </c>
@@ -7896,11 +8352,11 @@
       </c>
       <c r="V116" s="17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="W116" s="17">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="X116" s="17">
         <f t="shared" si="7"/>
@@ -7917,13 +8373,15 @@
       <c r="C117" s="27">
         <v>230041700128</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>19</v>
+      <c r="D117" s="2">
+        <v>10</v>
       </c>
       <c r="E117" s="2">
-        <v>10</v>
-      </c>
-      <c r="F117" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
       <c r="G117" s="2">
         <v>0</v>
       </c>
@@ -7935,7 +8393,9 @@
         <v>5</v>
       </c>
       <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
+      <c r="K117" s="2">
+        <v>15</v>
+      </c>
       <c r="N117" s="2">
         <v>50</v>
       </c>
@@ -7954,11 +8414,11 @@
       </c>
       <c r="V117" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W117" s="17">
         <f t="shared" si="6"/>
-        <v>18.166666666666668</v>
+        <v>14.166666666666668</v>
       </c>
       <c r="X117" s="17">
         <f t="shared" si="7"/>
@@ -7976,12 +8436,14 @@
         <v>230041700129</v>
       </c>
       <c r="D118" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E118" s="2">
-        <v>6</v>
-      </c>
-      <c r="F118" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
       <c r="G118" s="2">
         <v>0</v>
       </c>
@@ -7993,7 +8455,9 @@
         <v>5</v>
       </c>
       <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
+      <c r="K118" s="2">
+        <v>12</v>
+      </c>
       <c r="N118" s="2">
         <v>56</v>
       </c>
@@ -8012,11 +8476,11 @@
       </c>
       <c r="V118" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W118" s="17">
         <f t="shared" si="6"/>
-        <v>14.666666666666668</v>
+        <v>8.6666666666666679</v>
       </c>
       <c r="X118" s="17">
         <f t="shared" si="7"/>
@@ -8034,12 +8498,14 @@
         <v>230041700131</v>
       </c>
       <c r="D119" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E119" s="2">
         <v>12</v>
       </c>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="2">
         <v>0</v>
       </c>
@@ -8051,7 +8517,9 @@
         <v>5</v>
       </c>
       <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="K119" s="2">
+        <v>22</v>
+      </c>
       <c r="N119" s="2">
         <v>55</v>
       </c>
@@ -8070,7 +8538,7 @@
       </c>
       <c r="V119" s="17">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W119" s="17">
         <f t="shared" si="6"/>
@@ -8092,10 +8560,13 @@
         <v>230041700132</v>
       </c>
       <c r="D120" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E120" s="23">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="F120" s="23">
+        <v>4.5</v>
       </c>
       <c r="G120" s="2">
         <v>4.5</v>
@@ -8107,6 +8578,9 @@
       <c r="I120" s="2">
         <v>0</v>
       </c>
+      <c r="K120" s="21">
+        <v>23</v>
+      </c>
       <c r="N120" s="21">
         <v>55</v>
       </c>
@@ -8125,15 +8599,15 @@
       </c>
       <c r="V120" s="17">
         <f t="shared" si="6"/>
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="W120" s="17">
         <f t="shared" si="6"/>
-        <v>22.583333333333332</v>
+        <v>16.583333333333332</v>
       </c>
       <c r="X120" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -8147,10 +8621,13 @@
         <v>230041700134</v>
       </c>
       <c r="D121" s="21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E121" s="23">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F121" s="23">
+        <v>4</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -8162,6 +8639,9 @@
       <c r="I121" s="2">
         <v>0</v>
       </c>
+      <c r="K121" s="21">
+        <v>17</v>
+      </c>
       <c r="O121" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8177,15 +8657,15 @@
       </c>
       <c r="V121" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W121" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="X121" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
@@ -8198,11 +8678,14 @@
       <c r="C122" s="27">
         <v>230041700136</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>19</v>
+      <c r="D122" s="2">
+        <v>12</v>
       </c>
       <c r="E122" s="23">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F122" s="23">
+        <v>4</v>
       </c>
       <c r="G122" s="21">
         <v>4</v>
@@ -8214,6 +8697,9 @@
       <c r="I122" s="2">
         <v>5</v>
       </c>
+      <c r="K122" s="21">
+        <v>16</v>
+      </c>
       <c r="S122" s="21">
         <v>3</v>
       </c>
@@ -8225,15 +8711,15 @@
       </c>
       <c r="V122" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W122" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X122" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -20,16 +20,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$2:$C$63</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="197">
   <si>
     <t>S.N</t>
   </si>
@@ -776,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,6 +865,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F122"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,14 +1384,14 @@
       <c r="C3" s="25">
         <v>230041700001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="33">
+        <v>4</v>
+      </c>
+      <c r="E3" s="33">
         <v>17</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4.5</v>
       </c>
       <c r="G3" s="2">
         <v>4.5</v>
@@ -1426,15 +1427,15 @@
       </c>
       <c r="V3" s="17">
         <f>SUM(D3)+G3+S3</f>
-        <v>26.5</v>
+        <v>13.5</v>
       </c>
       <c r="W3" s="17">
         <f>SUM(E3)+H3+T3</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X3" s="17">
         <f>SUM(F3)+I3+U3</f>
-        <v>14.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -1447,14 +1448,14 @@
       <c r="C4" s="27">
         <v>230041700002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="33">
+        <v>2</v>
+      </c>
+      <c r="E4" s="33">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1486,15 +1487,15 @@
       </c>
       <c r="V4" s="17">
         <f t="shared" ref="V4:W67" si="2">SUM(D4)+G4+S4</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" ref="X4:X67" si="3">SUM(F4)+I4+U4</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1507,14 +1508,14 @@
       <c r="C5" s="25">
         <v>230041700003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="33">
         <v>29</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="33">
         <v>29</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
@@ -1556,7 +1557,7 @@
       </c>
       <c r="X5" s="17">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1569,14 +1570,14 @@
       <c r="C6" s="27">
         <v>230041700004</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="33">
+        <v>4</v>
+      </c>
+      <c r="E6" s="33">
         <v>16</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>18</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1610,15 +1611,15 @@
       </c>
       <c r="V6" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="W6" s="17">
         <f t="shared" si="2"/>
-        <v>26.583333333333332</v>
+        <v>24.583333333333332</v>
       </c>
       <c r="X6" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1631,14 +1632,14 @@
       <c r="C7" s="25">
         <v>230041700005</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="33">
+        <v>27</v>
+      </c>
+      <c r="E7" s="33">
         <v>12</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>20</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.5</v>
       </c>
       <c r="G7" s="2">
         <v>4.5</v>
@@ -1672,15 +1673,15 @@
       </c>
       <c r="V7" s="17">
         <f t="shared" si="2"/>
-        <v>21.5</v>
+        <v>36.5</v>
       </c>
       <c r="W7" s="17">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="X7" s="17">
         <f t="shared" si="3"/>
-        <v>14.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1693,14 +1694,14 @@
       <c r="C8" s="27">
         <v>230041700008</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="33">
+        <v>4</v>
+      </c>
+      <c r="E8" s="33">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>19</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1734,15 +1735,15 @@
       </c>
       <c r="V8" s="17">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W8" s="17">
         <f t="shared" si="2"/>
-        <v>26.75</v>
+        <v>17.75</v>
       </c>
       <c r="X8" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1755,14 +1756,14 @@
       <c r="C9" s="27">
         <v>230041700010</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="33">
+        <v>19</v>
+      </c>
+      <c r="E9" s="33">
         <v>13</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>23</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1796,15 +1797,15 @@
       </c>
       <c r="V9" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W9" s="17">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X9" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -1817,14 +1818,14 @@
       <c r="C10" s="27">
         <v>230041700012</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="33">
+        <v>13</v>
+      </c>
+      <c r="E10" s="33">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>23</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1858,15 +1859,15 @@
       </c>
       <c r="V10" s="17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="W10" s="17">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1879,14 +1880,14 @@
       <c r="C11" s="25">
         <v>230041700013</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1939,14 +1940,14 @@
       <c r="C12" s="27">
         <v>230041700014</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="33">
+        <v>1</v>
+      </c>
+      <c r="E12" s="33">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>9</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1978,15 +1979,15 @@
       </c>
       <c r="V12" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W12" s="17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X12" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1999,14 +2000,14 @@
       <c r="C13" s="25">
         <v>230041700015</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="33">
+        <v>25</v>
+      </c>
+      <c r="E13" s="33">
         <v>16</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>22</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4.5</v>
       </c>
       <c r="G13" s="2">
         <v>4.5</v>
@@ -2040,15 +2041,15 @@
       </c>
       <c r="V13" s="17">
         <f t="shared" si="2"/>
-        <v>24.5</v>
+        <v>33.5</v>
       </c>
       <c r="W13" s="17">
         <f t="shared" si="2"/>
-        <v>31.666666666666668</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="X13" s="17">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -2061,14 +2062,14 @@
       <c r="C14" s="27">
         <v>230041700016</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="33">
         <v>13</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>15</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
@@ -2100,15 +2101,15 @@
       </c>
       <c r="V14" s="17">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="W14" s="17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X14" s="17">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2121,14 +2122,14 @@
       <c r="C15" s="25">
         <v>230041700017</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="33">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>18</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -2162,15 +2163,15 @@
       </c>
       <c r="V15" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W15" s="17">
         <f t="shared" si="2"/>
-        <v>25.666666666666668</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="X15" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2183,14 +2184,14 @@
       <c r="C16" s="27">
         <v>230041700018</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="33">
+        <v>5</v>
+      </c>
+      <c r="E16" s="33">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>9</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -2222,15 +2223,15 @@
       </c>
       <c r="V16" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W16" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X16" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -2243,14 +2244,14 @@
       <c r="C17" s="25">
         <v>230041700019</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="33">
+        <v>12</v>
+      </c>
+      <c r="E17" s="33">
         <v>13</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>9</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4.5</v>
       </c>
       <c r="G17" s="2">
         <v>4.5</v>
@@ -2284,15 +2285,15 @@
       </c>
       <c r="V17" s="17">
         <f t="shared" si="2"/>
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="W17" s="17">
         <f t="shared" si="2"/>
-        <v>17.583333333333332</v>
+        <v>21.583333333333332</v>
       </c>
       <c r="X17" s="17">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2305,14 +2306,14 @@
       <c r="C18" s="25">
         <v>230041700021</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="33">
+        <v>18</v>
+      </c>
+      <c r="E18" s="33">
         <v>14</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>12</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -2344,15 +2345,15 @@
       </c>
       <c r="V18" s="17">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W18" s="17">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X18" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2365,14 +2366,14 @@
       <c r="C19" s="27">
         <v>230041700022</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="33">
+        <v>2</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
         <v>12</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -2406,15 +2407,15 @@
       </c>
       <c r="V19" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" s="17">
         <f t="shared" si="2"/>
-        <v>19.333333333333332</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="X19" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2427,14 +2428,14 @@
       <c r="C20" s="25">
         <v>230041700023</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
+      <c r="D20" s="33">
+        <v>0</v>
+      </c>
+      <c r="E20" s="33">
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -2470,11 +2471,11 @@
       </c>
       <c r="W20" s="17">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X20" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2487,14 +2488,14 @@
       <c r="C21" s="27">
         <v>230041700024</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="33">
+        <v>20</v>
+      </c>
+      <c r="E21" s="33">
         <v>22</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>22</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
@@ -2528,7 +2529,7 @@
       </c>
       <c r="V21" s="17">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W21" s="17">
         <f t="shared" si="2"/>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="X21" s="17">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2549,14 +2550,14 @@
       <c r="C22" s="25">
         <v>230041700025</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="33">
+        <v>26</v>
+      </c>
+      <c r="E22" s="33">
         <v>24</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>21</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4.5</v>
       </c>
       <c r="G22" s="2">
         <v>4.5</v>
@@ -2590,15 +2591,15 @@
       </c>
       <c r="V22" s="17">
         <f t="shared" si="2"/>
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="W22" s="17">
         <f t="shared" si="2"/>
-        <v>30.666666666666668</v>
+        <v>33.666666666666671</v>
       </c>
       <c r="X22" s="17">
         <f t="shared" si="3"/>
-        <v>14.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2611,14 +2612,14 @@
       <c r="C23" s="27">
         <v>230041700026</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="33">
+        <v>15</v>
+      </c>
+      <c r="E23" s="33">
         <v>9</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>14</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -2652,15 +2653,15 @@
       </c>
       <c r="V23" s="17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="W23" s="17">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="X23" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2673,14 +2674,14 @@
       <c r="C24" s="25">
         <v>230041700027</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="33">
+        <v>17</v>
+      </c>
+      <c r="E24" s="33">
         <v>15</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>25</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
@@ -2714,15 +2715,15 @@
       </c>
       <c r="V24" s="17">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W24" s="17">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X24" s="17">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2735,14 +2736,14 @@
       <c r="C25" s="27">
         <v>230041700028</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="33">
+        <v>2</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -2774,7 +2775,7 @@
       </c>
       <c r="V25" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W25" s="17">
         <f t="shared" si="2"/>
@@ -2795,14 +2796,14 @@
       <c r="C26" s="25">
         <v>230041700029</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="33">
+        <v>12</v>
+      </c>
+      <c r="E26" s="33">
         <v>13</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>19</v>
-      </c>
-      <c r="F26" s="2">
-        <v>3.5</v>
       </c>
       <c r="G26" s="2">
         <v>3.5</v>
@@ -2836,15 +2837,15 @@
       </c>
       <c r="V26" s="17">
         <f t="shared" si="2"/>
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="W26" s="17">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X26" s="17">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2857,14 +2858,14 @@
       <c r="C27" s="27">
         <v>230041700030</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="33">
+        <v>8</v>
+      </c>
+      <c r="E27" s="33">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -2896,15 +2897,15 @@
       </c>
       <c r="V27" s="17">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W27" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="X27" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2917,14 +2918,14 @@
       <c r="C28" s="27">
         <v>230041700032</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="33">
+        <v>22</v>
+      </c>
+      <c r="E28" s="33">
         <v>17</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>20</v>
-      </c>
-      <c r="F28" s="2">
-        <v>4.5</v>
       </c>
       <c r="G28" s="2">
         <v>4.5</v>
@@ -2958,15 +2959,15 @@
       </c>
       <c r="V28" s="17">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>31.5</v>
       </c>
       <c r="W28" s="17">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X28" s="17">
         <f t="shared" si="3"/>
-        <v>14.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2979,14 +2980,14 @@
       <c r="C29" s="25">
         <v>230041700033</v>
       </c>
-      <c r="D29" s="2">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="33">
+        <v>12</v>
+      </c>
+      <c r="E29" s="33">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
         <v>14</v>
-      </c>
-      <c r="F29" s="2">
-        <v>3</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -3020,15 +3021,15 @@
       </c>
       <c r="V29" s="17">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="W29" s="17">
         <f t="shared" si="2"/>
-        <v>22.166666666666668</v>
+        <v>13.166666666666668</v>
       </c>
       <c r="X29" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -3041,14 +3042,14 @@
       <c r="C30" s="27">
         <v>230041700034</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="33">
+        <v>16</v>
+      </c>
+      <c r="E30" s="33">
         <v>12</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>12</v>
-      </c>
-      <c r="F30" s="2">
-        <v>4.5</v>
       </c>
       <c r="G30" s="2">
         <v>4.5</v>
@@ -3080,7 +3081,7 @@
       </c>
       <c r="V30" s="17">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
       <c r="W30" s="17">
         <f t="shared" si="2"/>
@@ -3088,7 +3089,7 @@
       </c>
       <c r="X30" s="17">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -3101,14 +3102,14 @@
       <c r="C31" s="25">
         <v>230041700035</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="2">
-        <v>0</v>
+      <c r="F31" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -3161,14 +3162,14 @@
       <c r="C32" s="27">
         <v>230041700036</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="33">
+        <v>16</v>
+      </c>
+      <c r="E32" s="33">
         <v>9</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>10</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -3202,15 +3203,15 @@
       </c>
       <c r="V32" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="W32" s="17">
         <f t="shared" si="2"/>
-        <v>19.583333333333332</v>
+        <v>18.583333333333332</v>
       </c>
       <c r="X32" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -3223,14 +3224,14 @@
       <c r="C33" s="25">
         <v>230041700037</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="33">
+        <v>17</v>
+      </c>
+      <c r="E33" s="33">
         <v>15</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>12</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5</v>
       </c>
       <c r="G33" s="2">
         <v>5</v>
@@ -3264,15 +3265,15 @@
       </c>
       <c r="V33" s="17">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W33" s="17">
         <f t="shared" si="2"/>
-        <v>19.75</v>
+        <v>22.75</v>
       </c>
       <c r="X33" s="17">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3285,14 +3286,14 @@
       <c r="C34" s="27">
         <v>230041700038</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="33">
+        <v>13</v>
+      </c>
+      <c r="E34" s="33">
         <v>14</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>8</v>
-      </c>
-      <c r="F34" s="2">
-        <v>5</v>
       </c>
       <c r="G34" s="2">
         <v>5</v>
@@ -3326,15 +3327,15 @@
       </c>
       <c r="V34" s="17">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W34" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="X34" s="17">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3347,14 +3348,14 @@
       <c r="C35" s="25">
         <v>230041700039</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="33">
+        <v>2</v>
+      </c>
+      <c r="E35" s="33">
         <v>1</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>12</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -3388,15 +3389,15 @@
       </c>
       <c r="V35" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W35" s="17">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="X35" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -3409,14 +3410,14 @@
       <c r="C36" s="27">
         <v>230041700040</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="33">
+        <v>4</v>
+      </c>
+      <c r="E36" s="33">
         <v>15</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>17</v>
-      </c>
-      <c r="F36" s="2">
-        <v>3</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -3450,15 +3451,15 @@
       </c>
       <c r="V36" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="W36" s="17">
         <f t="shared" si="2"/>
-        <v>25.166666666666668</v>
+        <v>23.166666666666668</v>
       </c>
       <c r="X36" s="17">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -3471,14 +3472,14 @@
       <c r="C37" s="25">
         <v>230041700041</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="33">
+        <v>2</v>
+      </c>
+      <c r="E37" s="33">
         <v>6</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>8</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -3512,15 +3513,15 @@
       </c>
       <c r="V37" s="17">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W37" s="17">
         <f t="shared" si="2"/>
-        <v>16.583333333333332</v>
+        <v>14.583333333333332</v>
       </c>
       <c r="X37" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3533,14 +3534,14 @@
       <c r="C38" s="27">
         <v>230041700042</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="33">
+        <v>19</v>
+      </c>
+      <c r="E38" s="33">
         <v>13</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>16</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
@@ -3574,15 +3575,15 @@
       </c>
       <c r="V38" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="W38" s="17">
         <f t="shared" si="2"/>
-        <v>25.166666666666668</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="X38" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3595,14 +3596,14 @@
       <c r="C39" s="25">
         <v>230041700043</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="33">
+        <v>1</v>
+      </c>
+      <c r="E39" s="33">
         <v>3</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>9</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -3634,15 +3635,15 @@
       </c>
       <c r="V39" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W39" s="17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X39" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -3655,14 +3656,14 @@
       <c r="C40" s="27">
         <v>230041700044</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="33">
+        <v>12</v>
+      </c>
+      <c r="E40" s="33">
         <v>8</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -3696,11 +3697,11 @@
       </c>
       <c r="V40" s="17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W40" s="17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="X40" s="17">
         <f t="shared" si="3"/>
@@ -3717,14 +3718,14 @@
       <c r="C41" s="25">
         <v>230041700045</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="33">
+        <v>2</v>
+      </c>
+      <c r="E41" s="33">
         <v>7</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>10</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -3758,15 +3759,15 @@
       </c>
       <c r="V41" s="17">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="W41" s="17">
         <f t="shared" si="2"/>
-        <v>14.666666666666666</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="X41" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3779,14 +3780,14 @@
       <c r="C42" s="27">
         <v>230041700046</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="33">
+        <v>12</v>
+      </c>
+      <c r="E42" s="33">
         <v>8</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>13</v>
-      </c>
-      <c r="F42" s="2">
-        <v>4.5</v>
       </c>
       <c r="G42" s="2">
         <v>4.5</v>
@@ -3818,15 +3819,15 @@
       </c>
       <c r="V42" s="17">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="W42" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="X42" s="17">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3839,14 +3840,14 @@
       <c r="C43" s="25">
         <v>230041700047</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="33">
+        <v>18</v>
+      </c>
+      <c r="E43" s="33">
         <v>16</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>16</v>
-      </c>
-      <c r="F43" s="2">
-        <v>4.5</v>
       </c>
       <c r="G43" s="2">
         <v>4.5</v>
@@ -3880,7 +3881,7 @@
       </c>
       <c r="V43" s="17">
         <f t="shared" si="2"/>
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="W43" s="17">
         <f t="shared" si="2"/>
@@ -3888,7 +3889,7 @@
       </c>
       <c r="X43" s="17">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3901,14 +3902,14 @@
       <c r="C44" s="27">
         <v>230041700048</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="33">
+        <v>19</v>
+      </c>
+      <c r="E44" s="33">
         <v>18</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>18</v>
-      </c>
-      <c r="F44" s="2">
-        <v>5</v>
       </c>
       <c r="G44" s="2">
         <v>5</v>
@@ -3942,7 +3943,7 @@
       </c>
       <c r="V44" s="17">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W44" s="17">
         <f t="shared" si="2"/>
@@ -3950,7 +3951,7 @@
       </c>
       <c r="X44" s="17">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -3963,14 +3964,14 @@
       <c r="C45" s="27">
         <v>230041700050</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="33">
+        <v>5</v>
+      </c>
+      <c r="E45" s="33">
         <v>9</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>12</v>
-      </c>
-      <c r="F45" s="2">
-        <v>4.5</v>
       </c>
       <c r="G45" s="2">
         <v>4.5</v>
@@ -4004,15 +4005,15 @@
       </c>
       <c r="V45" s="17">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="W45" s="17">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X45" s="17">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4025,14 +4026,14 @@
       <c r="C46" s="25">
         <v>230041700051</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="33">
+        <v>22</v>
+      </c>
+      <c r="E46" s="33">
         <v>20</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <v>18</v>
-      </c>
-      <c r="F46" s="2">
-        <v>4.5</v>
       </c>
       <c r="G46" s="2">
         <v>4.5</v>
@@ -4066,15 +4067,15 @@
       </c>
       <c r="V46" s="17">
         <f t="shared" si="2"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="W46" s="17">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X46" s="17">
         <f t="shared" si="3"/>
-        <v>14.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -4087,14 +4088,14 @@
       <c r="C47" s="27">
         <v>230041700052</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="33">
+        <v>4</v>
+      </c>
+      <c r="E47" s="33">
         <v>9</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>19</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -4126,15 +4127,15 @@
       </c>
       <c r="V47" s="17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="W47" s="17">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="X47" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -4147,14 +4148,14 @@
       <c r="C48" s="25">
         <v>230041700053</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="33">
+        <v>16</v>
+      </c>
+      <c r="E48" s="33">
         <v>12</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>13</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -4188,15 +4189,15 @@
       </c>
       <c r="V48" s="17">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W48" s="17">
         <f t="shared" si="2"/>
-        <v>19.333333333333332</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="X48" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -4209,14 +4210,14 @@
       <c r="C49" s="27">
         <v>230041700056</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="33">
+        <v>6</v>
+      </c>
+      <c r="E49" s="33">
         <v>12</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <v>15</v>
-      </c>
-      <c r="F49" s="2">
-        <v>2</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -4250,15 +4251,15 @@
       </c>
       <c r="V49" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="W49" s="17">
         <f t="shared" si="2"/>
-        <v>23.666666666666668</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="X49" s="17">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -4271,14 +4272,14 @@
       <c r="C50" s="25">
         <v>230041700057</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="33">
+        <v>12</v>
+      </c>
+      <c r="E50" s="33">
         <v>9</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <v>16</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
@@ -4312,15 +4313,15 @@
       </c>
       <c r="V50" s="17">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W50" s="17">
         <f t="shared" si="2"/>
-        <v>24.666666666666668</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="X50" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
@@ -4333,14 +4334,14 @@
       <c r="C51" s="27">
         <v>230041700058</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="33">
         <v>3</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>14</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
@@ -4374,15 +4375,15 @@
       </c>
       <c r="V51" s="17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W51" s="17">
         <f t="shared" si="2"/>
-        <v>22.666666666666668</v>
+        <v>11.666666666666668</v>
       </c>
       <c r="X51" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -4395,14 +4396,14 @@
       <c r="C52" s="25">
         <v>230041700059</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="33">
+        <v>6</v>
+      </c>
+      <c r="E52" s="33">
         <v>15</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>15</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
@@ -4436,7 +4437,7 @@
       </c>
       <c r="V52" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="W52" s="17">
         <f t="shared" si="2"/>
@@ -4444,7 +4445,7 @@
       </c>
       <c r="X52" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -4457,14 +4458,14 @@
       <c r="C53" s="27">
         <v>230041700060</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="33">
+        <v>1</v>
+      </c>
+      <c r="E53" s="33">
         <v>2</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>12</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -4496,15 +4497,15 @@
       </c>
       <c r="V53" s="17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W53" s="17">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X53" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4517,14 +4518,14 @@
       <c r="C54" s="25">
         <v>230041700061</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="2">
-        <v>4.5</v>
+      <c r="F54" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G54" s="2">
         <v>4.5</v>
@@ -4564,7 +4565,7 @@
       </c>
       <c r="X54" s="17">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -4577,14 +4578,14 @@
       <c r="C55" s="27">
         <v>230041700062</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="33">
+        <v>14</v>
+      </c>
+      <c r="E55" s="33">
         <v>8</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>12</v>
-      </c>
-      <c r="F55" s="2">
-        <v>4.5</v>
       </c>
       <c r="G55" s="2">
         <v>4.5</v>
@@ -4618,15 +4619,15 @@
       </c>
       <c r="V55" s="17">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="W55" s="17">
         <f t="shared" si="2"/>
-        <v>19.333333333333336</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="X55" s="17">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4639,14 +4640,14 @@
       <c r="C56" s="25">
         <v>230041700063</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="33">
         <v>12</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>15</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
@@ -4678,15 +4679,15 @@
       </c>
       <c r="V56" s="17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W56" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X56" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4699,14 +4700,14 @@
       <c r="C57" s="27">
         <v>230041700064</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="33">
+        <v>12</v>
+      </c>
+      <c r="E57" s="33">
         <v>13</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>14</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
       </c>
       <c r="G57" s="2">
         <v>0</v>
@@ -4740,15 +4741,15 @@
       </c>
       <c r="V57" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W57" s="17">
         <f t="shared" si="2"/>
-        <v>21.75</v>
+        <v>20.75</v>
       </c>
       <c r="X57" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4761,14 +4762,14 @@
       <c r="C58" s="25">
         <v>230041700065</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="33">
+        <v>1</v>
+      </c>
+      <c r="E58" s="33">
         <v>9</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>12</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
@@ -4800,15 +4801,15 @@
       </c>
       <c r="V58" s="17">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="W58" s="17">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X58" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -4821,14 +4822,14 @@
       <c r="C59" s="27">
         <v>230041700066</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="33">
+        <v>14</v>
+      </c>
+      <c r="E59" s="33">
         <v>12</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>13</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
@@ -4862,15 +4863,15 @@
       </c>
       <c r="V59" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W59" s="17">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X59" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -4883,14 +4884,14 @@
       <c r="C60" s="25">
         <v>230041700067</v>
       </c>
-      <c r="D60" s="2">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60" s="33">
+        <v>2</v>
+      </c>
+      <c r="E60" s="33">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
         <v>7</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -4922,15 +4923,15 @@
       </c>
       <c r="V60" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W60" s="17">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X60" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -4943,14 +4944,14 @@
       <c r="C61" s="27">
         <v>230041700068</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="33">
+        <v>2</v>
+      </c>
+      <c r="E61" s="33">
         <v>12</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <v>15</v>
-      </c>
-      <c r="F61" s="2">
-        <v>5</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
@@ -4984,15 +4985,15 @@
       </c>
       <c r="V61" s="17">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W61" s="17">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X61" s="17">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -5005,14 +5006,14 @@
       <c r="C62" s="25">
         <v>230041700069</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="33">
+        <v>5</v>
+      </c>
+      <c r="E62" s="33">
         <v>21</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <v>16</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
@@ -5046,15 +5047,15 @@
       </c>
       <c r="V62" s="17">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="W62" s="17">
         <f t="shared" si="2"/>
-        <v>23.333333333333332</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="X62" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -5067,14 +5068,14 @@
       <c r="C63" s="27">
         <v>230041700070</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="2">
-        <v>0</v>
+      <c r="F63" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G63" s="2">
         <v>0</v>
@@ -5127,14 +5128,14 @@
       <c r="C64" s="25">
         <v>230041700071</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="33">
+        <v>21</v>
+      </c>
+      <c r="E64" s="33">
         <v>15</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="2">
         <v>18</v>
-      </c>
-      <c r="F64" s="2">
-        <v>5</v>
       </c>
       <c r="G64" s="2">
         <v>5</v>
@@ -5168,15 +5169,15 @@
       </c>
       <c r="V64" s="17">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="W64" s="17">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X64" s="17">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -5189,14 +5190,14 @@
       <c r="C65" s="27">
         <v>230041700072</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="33">
+        <v>15</v>
+      </c>
+      <c r="E65" s="33">
         <v>14</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
@@ -5230,11 +5231,11 @@
       </c>
       <c r="V65" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W65" s="17">
         <f t="shared" si="2"/>
-        <v>8.1666666666666679</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="X65" s="17">
         <f t="shared" si="3"/>
@@ -5251,14 +5252,14 @@
       <c r="C66" s="25">
         <v>230041700073</v>
       </c>
-      <c r="D66" s="2">
-        <v>4</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="D66" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="33">
         <v>4</v>
       </c>
       <c r="F66" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -5292,7 +5293,7 @@
       </c>
       <c r="V66" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W66" s="17">
         <f t="shared" si="2"/>
@@ -5300,7 +5301,7 @@
       </c>
       <c r="X66" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -5313,14 +5314,14 @@
       <c r="C67" s="27">
         <v>230041700074</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="33">
+        <v>26</v>
+      </c>
+      <c r="E67" s="33">
         <v>23</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F67" s="2">
         <v>21</v>
-      </c>
-      <c r="F67" s="2">
-        <v>5</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
@@ -5354,15 +5355,15 @@
       </c>
       <c r="V67" s="17">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W67" s="17">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X67" s="17">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -5375,14 +5376,14 @@
       <c r="C68" s="25">
         <v>230041700075</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="33">
         <v>12</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="33">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F68" s="2">
-        <v>0</v>
       </c>
       <c r="G68" s="2">
         <v>0</v>
@@ -5420,7 +5421,7 @@
       </c>
       <c r="W68" s="17">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="X68" s="17">
         <f t="shared" ref="X68:X122" si="7">SUM(F68)+I68+U68</f>
@@ -5437,14 +5438,14 @@
       <c r="C69" s="27">
         <v>230041700076</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="33">
+        <v>17</v>
+      </c>
+      <c r="E69" s="33">
         <v>14</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69" s="2">
         <v>9</v>
-      </c>
-      <c r="F69" s="2">
-        <v>0</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -5478,15 +5479,15 @@
       </c>
       <c r="V69" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="W69" s="17">
         <f t="shared" si="6"/>
-        <v>16.166666666666668</v>
+        <v>21.166666666666668</v>
       </c>
       <c r="X69" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -5499,14 +5500,14 @@
       <c r="C70" s="25">
         <v>230041700077</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="2">
         <v>2</v>
-      </c>
-      <c r="F70" s="2">
-        <v>0</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -5542,11 +5543,11 @@
       </c>
       <c r="W70" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X70" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5559,14 +5560,14 @@
       <c r="C71" s="27">
         <v>230041700078</v>
       </c>
-      <c r="D71" s="2">
-        <v>4</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="D71" s="33">
+        <v>13</v>
+      </c>
+      <c r="E71" s="33">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2">
         <v>15</v>
-      </c>
-      <c r="F71" s="2">
-        <v>5</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
@@ -5600,15 +5601,15 @@
       </c>
       <c r="V71" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="W71" s="17">
         <f t="shared" si="6"/>
-        <v>23.333333333333332</v>
+        <v>12.333333333333332</v>
       </c>
       <c r="X71" s="17">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5621,14 +5622,14 @@
       <c r="C72" s="25">
         <v>230041700079</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="33">
+        <v>18</v>
+      </c>
+      <c r="E72" s="33">
         <v>13</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" s="2">
         <v>13</v>
-      </c>
-      <c r="F72" s="2">
-        <v>5</v>
       </c>
       <c r="G72" s="2">
         <v>5</v>
@@ -5662,7 +5663,7 @@
       </c>
       <c r="V72" s="17">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="W72" s="17">
         <f t="shared" si="6"/>
@@ -5670,7 +5671,7 @@
       </c>
       <c r="X72" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -5683,14 +5684,14 @@
       <c r="C73" s="27">
         <v>230041700080</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="33">
+        <v>13</v>
+      </c>
+      <c r="E73" s="33">
         <v>7</v>
       </c>
-      <c r="E73" s="2">
-        <v>4</v>
-      </c>
       <c r="F73" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G73" s="2">
         <v>0</v>
@@ -5724,15 +5725,15 @@
       </c>
       <c r="V73" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W73" s="17">
         <f t="shared" si="6"/>
-        <v>12.666666666666668</v>
+        <v>15.666666666666668</v>
       </c>
       <c r="X73" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -5745,14 +5746,14 @@
       <c r="C74" s="25">
         <v>230041700081</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="2">
-        <v>0</v>
+      <c r="F74" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
@@ -5805,14 +5806,14 @@
       <c r="C75" s="27">
         <v>230041700082</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="33">
+        <v>15</v>
+      </c>
+      <c r="E75" s="33">
         <v>13</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="2">
         <v>7</v>
-      </c>
-      <c r="F75" s="2">
-        <v>0</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
@@ -5846,15 +5847,15 @@
       </c>
       <c r="V75" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W75" s="17">
         <f t="shared" si="6"/>
-        <v>14.666666666666668</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="X75" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
@@ -5867,14 +5868,14 @@
       <c r="C76" s="25">
         <v>230041700083</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="2">
-        <v>0</v>
+      <c r="F76" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
@@ -5927,14 +5928,14 @@
       <c r="C77" s="27">
         <v>230041700084</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="33">
+        <v>19</v>
+      </c>
+      <c r="E77" s="33">
         <v>13</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <v>13</v>
-      </c>
-      <c r="F77" s="2">
-        <v>5</v>
       </c>
       <c r="G77" s="2">
         <v>5</v>
@@ -5968,7 +5969,7 @@
       </c>
       <c r="V77" s="17">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="W77" s="17">
         <f t="shared" si="6"/>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="X77" s="17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5989,14 +5990,14 @@
       <c r="C78" s="27">
         <v>230041700086</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="33">
+        <v>13</v>
+      </c>
+      <c r="E78" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="2">
         <v>2</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
@@ -6028,15 +6029,15 @@
       </c>
       <c r="V78" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W78" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X78" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6049,14 +6050,14 @@
       <c r="C79" s="25">
         <v>230041700087</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="33">
         <v>14</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="33">
         <v>14</v>
       </c>
       <c r="F79" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -6098,7 +6099,7 @@
       </c>
       <c r="X79" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
@@ -6111,14 +6112,14 @@
       <c r="C80" s="27">
         <v>230041700088</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="33">
+        <v>19</v>
+      </c>
+      <c r="E80" s="33">
         <v>15</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>14</v>
-      </c>
-      <c r="F80" s="2">
-        <v>5</v>
       </c>
       <c r="G80" s="2">
         <v>5</v>
@@ -6152,15 +6153,15 @@
       </c>
       <c r="V80" s="17">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="W80" s="17">
         <f t="shared" si="6"/>
-        <v>23.583333333333332</v>
+        <v>24.583333333333332</v>
       </c>
       <c r="X80" s="17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6173,14 +6174,14 @@
       <c r="C81" s="25">
         <v>230041700089</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="33">
+        <v>12</v>
+      </c>
+      <c r="E81" s="33">
         <v>3</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="2">
         <v>3</v>
-      </c>
-      <c r="F81" s="2">
-        <v>5</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -6212,7 +6213,7 @@
       </c>
       <c r="V81" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="W81" s="17">
         <f t="shared" si="6"/>
@@ -6220,7 +6221,7 @@
       </c>
       <c r="X81" s="17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -6233,14 +6234,14 @@
       <c r="C82" s="27">
         <v>230041700090</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="33">
+        <v>13</v>
+      </c>
+      <c r="E82" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F82" s="2">
         <v>1</v>
-      </c>
-      <c r="F82" s="2">
-        <v>0</v>
       </c>
       <c r="G82" s="2">
         <v>0</v>
@@ -6272,15 +6273,15 @@
       </c>
       <c r="V82" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W82" s="17">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X82" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -6293,14 +6294,14 @@
       <c r="C83" s="25">
         <v>230041700091</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="33">
+        <v>7</v>
+      </c>
+      <c r="E83" s="33">
         <v>6</v>
       </c>
-      <c r="E83" s="2">
+      <c r="F83" s="2">
         <v>9</v>
-      </c>
-      <c r="F83" s="2">
-        <v>5</v>
       </c>
       <c r="G83" s="2">
         <v>4.5</v>
@@ -6332,15 +6333,15 @@
       </c>
       <c r="V83" s="17">
         <f t="shared" si="6"/>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W83" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X83" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -6353,11 +6354,11 @@
       <c r="C84" s="27">
         <v>230041700092</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="33">
+        <v>4</v>
+      </c>
+      <c r="E84" s="33">
         <v>8</v>
-      </c>
-      <c r="E84" s="2">
-        <v>0</v>
       </c>
       <c r="F84" s="2">
         <v>0</v>
@@ -6392,11 +6393,11 @@
       </c>
       <c r="V84" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W84" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="X84" s="17">
         <f t="shared" si="7"/>
@@ -6413,14 +6414,14 @@
       <c r="C85" s="25">
         <v>230041700093</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="2">
-        <v>0</v>
+      <c r="F85" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
@@ -6473,14 +6474,14 @@
       <c r="C86" s="27">
         <v>230041700094</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="33">
         <v>13</v>
       </c>
-      <c r="E86" s="2">
+      <c r="F86" s="2">
         <v>2</v>
-      </c>
-      <c r="F86" s="2">
-        <v>0</v>
       </c>
       <c r="G86" s="2">
         <v>0</v>
@@ -6512,15 +6513,15 @@
       </c>
       <c r="V86" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="W86" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="X86" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6533,14 +6534,14 @@
       <c r="C87" s="25">
         <v>230041700095</v>
       </c>
-      <c r="D87" s="2">
-        <v>5</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="D87" s="33">
+        <v>14</v>
+      </c>
+      <c r="E87" s="33">
+        <v>5</v>
+      </c>
+      <c r="F87" s="2">
         <v>8</v>
-      </c>
-      <c r="F87" s="2">
-        <v>5</v>
       </c>
       <c r="G87" s="2">
         <v>5</v>
@@ -6574,15 +6575,15 @@
       </c>
       <c r="V87" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="W87" s="17">
         <f t="shared" si="6"/>
-        <v>17.583333333333332</v>
+        <v>14.583333333333332</v>
       </c>
       <c r="X87" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6595,14 +6596,14 @@
       <c r="C88" s="27">
         <v>230041700096</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="33">
+        <v>19</v>
+      </c>
+      <c r="E88" s="33">
         <v>16</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="2">
         <v>13</v>
-      </c>
-      <c r="F88" s="2">
-        <v>5</v>
       </c>
       <c r="G88" s="2">
         <v>5</v>
@@ -6636,15 +6637,15 @@
       </c>
       <c r="V88" s="17">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W88" s="17">
         <f t="shared" si="6"/>
-        <v>21.583333333333332</v>
+        <v>24.583333333333332</v>
       </c>
       <c r="X88" s="17">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -6657,14 +6658,14 @@
       <c r="C89" s="25">
         <v>230041700097</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="33">
+        <v>16</v>
+      </c>
+      <c r="E89" s="33">
         <v>22</v>
       </c>
-      <c r="E89" s="2">
+      <c r="F89" s="2">
         <v>14</v>
-      </c>
-      <c r="F89" s="2">
-        <v>5</v>
       </c>
       <c r="G89" s="2">
         <v>5</v>
@@ -6698,15 +6699,15 @@
       </c>
       <c r="V89" s="17">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W89" s="17">
         <f t="shared" si="6"/>
-        <v>23.583333333333332</v>
+        <v>31.583333333333332</v>
       </c>
       <c r="X89" s="17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -6719,14 +6720,14 @@
       <c r="C90" s="27">
         <v>230041700098</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="33">
         <v>12</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="33">
+        <v>12</v>
+      </c>
+      <c r="F90" s="2">
         <v>8</v>
-      </c>
-      <c r="F90" s="2">
-        <v>4</v>
       </c>
       <c r="G90" s="2">
         <v>4</v>
@@ -6764,11 +6765,11 @@
       </c>
       <c r="W90" s="17">
         <f t="shared" si="6"/>
-        <v>16.333333333333332</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="X90" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -6781,14 +6782,14 @@
       <c r="C91" s="25">
         <v>230041700099</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="33">
+        <v>9</v>
+      </c>
+      <c r="E91" s="33">
         <v>2</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91" s="2">
         <v>1</v>
-      </c>
-      <c r="F91" s="2">
-        <v>0</v>
       </c>
       <c r="G91" s="2">
         <v>0</v>
@@ -6822,15 +6823,15 @@
       </c>
       <c r="V91" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W91" s="17">
         <f t="shared" si="6"/>
-        <v>8.1666666666666679</v>
+        <v>9.1666666666666679</v>
       </c>
       <c r="X91" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -6843,14 +6844,14 @@
       <c r="C92" s="27">
         <v>230041700100</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="33">
+        <v>7</v>
+      </c>
+      <c r="E92" s="33">
         <v>14</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <v>1</v>
-      </c>
-      <c r="F92" s="2">
-        <v>0</v>
       </c>
       <c r="G92" s="2">
         <v>0</v>
@@ -6884,15 +6885,15 @@
       </c>
       <c r="V92" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W92" s="17">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="X92" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -6905,14 +6906,14 @@
       <c r="C93" s="25">
         <v>230041700101</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="33">
         <v>1</v>
       </c>
-      <c r="E93" s="2">
-        <v>5</v>
+      <c r="E93" s="33">
+        <v>1</v>
       </c>
       <c r="F93" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G93" s="2">
         <v>0</v>
@@ -6948,11 +6949,11 @@
       </c>
       <c r="W93" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X93" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
@@ -6965,14 +6966,14 @@
       <c r="C94" s="27">
         <v>230041700102</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="33">
+        <v>0</v>
+      </c>
+      <c r="E94" s="33">
         <v>1</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="2">
         <v>2</v>
-      </c>
-      <c r="F94" s="2">
-        <v>4.5</v>
       </c>
       <c r="G94" s="2">
         <v>4.5</v>
@@ -7006,15 +7007,15 @@
       </c>
       <c r="V94" s="17">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="W94" s="17">
         <f t="shared" si="6"/>
-        <v>10.666666666666668</v>
+        <v>9.6666666666666679</v>
       </c>
       <c r="X94" s="17">
         <f t="shared" si="7"/>
-        <v>13.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
@@ -7027,14 +7028,14 @@
       <c r="C95" s="25">
         <v>230041700103</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="33">
+        <v>3</v>
+      </c>
+      <c r="E95" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95" s="2">
         <v>3</v>
-      </c>
-      <c r="F95" s="2">
-        <v>0</v>
       </c>
       <c r="G95" s="2">
         <v>0</v>
@@ -7066,15 +7067,15 @@
       </c>
       <c r="V95" s="17">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W95" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X95" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
@@ -7087,14 +7088,14 @@
       <c r="C96" s="27">
         <v>230041700104</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="33">
         <v>12</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="33">
+        <v>12</v>
+      </c>
+      <c r="F96" s="2">
         <v>18</v>
-      </c>
-      <c r="F96" s="2">
-        <v>4.5</v>
       </c>
       <c r="G96" s="2">
         <v>4.5</v>
@@ -7132,11 +7133,11 @@
       </c>
       <c r="W96" s="17">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="X96" s="17">
         <f t="shared" si="7"/>
-        <v>14.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
@@ -7149,14 +7150,14 @@
       <c r="C97" s="25">
         <v>230041700105</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="33">
+        <v>19</v>
+      </c>
+      <c r="E97" s="33">
         <v>13</v>
       </c>
-      <c r="E97" s="2">
+      <c r="F97" s="2">
         <v>13</v>
-      </c>
-      <c r="F97" s="2">
-        <v>4.5</v>
       </c>
       <c r="G97" s="2">
         <v>4.5</v>
@@ -7190,7 +7191,7 @@
       </c>
       <c r="V97" s="17">
         <f t="shared" si="6"/>
-        <v>20.5</v>
+        <v>26.5</v>
       </c>
       <c r="W97" s="17">
         <f t="shared" si="6"/>
@@ -7198,7 +7199,7 @@
       </c>
       <c r="X97" s="17">
         <f t="shared" si="7"/>
-        <v>13.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7211,14 +7212,14 @@
       <c r="C98" s="27">
         <v>230041700106</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="2">
-        <v>0</v>
+      <c r="F98" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G98" s="2">
         <v>0</v>
@@ -7271,14 +7272,14 @@
       <c r="C99" s="27">
         <v>230041700108</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="33">
+        <v>23</v>
+      </c>
+      <c r="E99" s="33">
         <v>22</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99" s="2">
         <v>25</v>
-      </c>
-      <c r="F99" s="2">
-        <v>5</v>
       </c>
       <c r="G99" s="2">
         <v>5</v>
@@ -7312,15 +7313,15 @@
       </c>
       <c r="V99" s="17">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W99" s="17">
         <f t="shared" si="6"/>
-        <v>33.583333333333329</v>
+        <v>30.583333333333332</v>
       </c>
       <c r="X99" s="17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7333,10 +7334,10 @@
       <c r="C100" s="25">
         <v>230041700109</v>
       </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
+      <c r="D100" s="33">
+        <v>5</v>
+      </c>
+      <c r="E100" s="33">
         <v>0</v>
       </c>
       <c r="F100" s="2">
@@ -7374,7 +7375,7 @@
       </c>
       <c r="V100" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W100" s="17">
         <f t="shared" si="6"/>
@@ -7395,14 +7396,14 @@
       <c r="C101" s="27">
         <v>230041700110</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="33">
         <v>16</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F101" s="2">
         <v>13</v>
-      </c>
-      <c r="F101" s="2">
-        <v>5</v>
       </c>
       <c r="G101" s="2">
         <v>0</v>
@@ -7436,15 +7437,15 @@
       </c>
       <c r="V101" s="17">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="W101" s="17">
         <f t="shared" si="6"/>
-        <v>20.583333333333332</v>
+        <v>23.583333333333332</v>
       </c>
       <c r="X101" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7457,14 +7458,14 @@
       <c r="C102" s="25">
         <v>230041700111</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="33">
         <v>18</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="33">
+        <v>18</v>
+      </c>
+      <c r="F102" s="2">
         <v>17</v>
-      </c>
-      <c r="F102" s="2">
-        <v>5</v>
       </c>
       <c r="G102" s="2">
         <v>5</v>
@@ -7502,11 +7503,11 @@
       </c>
       <c r="W102" s="17">
         <f t="shared" si="6"/>
-        <v>26.666666666666668</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="X102" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7519,14 +7520,14 @@
       <c r="C103" s="27">
         <v>230041700112</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="33">
+        <v>16</v>
+      </c>
+      <c r="E103" s="33">
         <v>9</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="2">
         <v>15</v>
-      </c>
-      <c r="F103" s="2">
-        <v>0</v>
       </c>
       <c r="G103" s="2">
         <v>0</v>
@@ -7560,15 +7561,15 @@
       </c>
       <c r="V103" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="W103" s="17">
         <f t="shared" si="6"/>
-        <v>24.583333333333332</v>
+        <v>18.583333333333332</v>
       </c>
       <c r="X103" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
@@ -7581,14 +7582,14 @@
       <c r="C104" s="25">
         <v>230041700113</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="33">
+        <v>12</v>
+      </c>
+      <c r="E104" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F104" s="2">
-        <v>0</v>
       </c>
       <c r="G104" s="2">
         <v>0</v>
@@ -7622,7 +7623,7 @@
       </c>
       <c r="V104" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="W104" s="17">
         <f t="shared" si="6"/>
@@ -7643,14 +7644,14 @@
       <c r="C105" s="25">
         <v>230041700115</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="33">
+        <v>12</v>
+      </c>
+      <c r="E105" s="33">
         <v>1</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F105" s="2">
-        <v>0</v>
       </c>
       <c r="G105" s="2">
         <v>0</v>
@@ -7682,11 +7683,11 @@
       </c>
       <c r="V105" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="W105" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X105" s="17">
         <f t="shared" si="7"/>
@@ -7703,14 +7704,14 @@
       <c r="C106" s="27">
         <v>230041700116</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="33">
+        <v>22</v>
+      </c>
+      <c r="E106" s="33">
         <v>10</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106" s="2">
         <v>1</v>
-      </c>
-      <c r="F106" s="2">
-        <v>0</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
@@ -7744,15 +7745,15 @@
       </c>
       <c r="V106" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="W106" s="17">
         <f t="shared" si="6"/>
-        <v>6.75</v>
+        <v>15.75</v>
       </c>
       <c r="X106" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
@@ -7765,14 +7766,14 @@
       <c r="C107" s="25">
         <v>230041700117</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="33">
+        <v>13</v>
+      </c>
+      <c r="E107" s="33">
         <v>12</v>
       </c>
-      <c r="E107" s="2">
+      <c r="F107" s="2">
         <v>6</v>
-      </c>
-      <c r="F107" s="2">
-        <v>0</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
@@ -7804,15 +7805,15 @@
       </c>
       <c r="V107" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W107" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="X107" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
@@ -7825,14 +7826,14 @@
       <c r="C108" s="27">
         <v>230041700118</v>
       </c>
-      <c r="D108" s="2">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2">
-        <v>4</v>
+      <c r="D108" s="33">
+        <v>17</v>
+      </c>
+      <c r="E108" s="33">
+        <v>0</v>
       </c>
       <c r="F108" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G108" s="2">
         <v>5</v>
@@ -7864,15 +7865,15 @@
       </c>
       <c r="V108" s="17">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="W108" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X108" s="17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
@@ -7885,14 +7886,14 @@
       <c r="C109" s="25">
         <v>230041700119</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="33">
+        <v>7</v>
+      </c>
+      <c r="E109" s="33">
         <v>3</v>
       </c>
-      <c r="E109" s="2">
+      <c r="F109" s="2">
         <v>3</v>
-      </c>
-      <c r="F109" s="2">
-        <v>0</v>
       </c>
       <c r="G109" s="2">
         <v>0</v>
@@ -7924,7 +7925,7 @@
       </c>
       <c r="V109" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W109" s="17">
         <f t="shared" si="6"/>
@@ -7932,7 +7933,7 @@
       </c>
       <c r="X109" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -7945,14 +7946,14 @@
       <c r="C110" s="27">
         <v>230041700120</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="33">
+        <v>12</v>
+      </c>
+      <c r="E110" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F110" s="2">
-        <v>0</v>
       </c>
       <c r="G110" s="2">
         <v>0</v>
@@ -7984,7 +7985,7 @@
       </c>
       <c r="V110" s="17">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="W110" s="17">
         <f t="shared" si="6"/>
@@ -8005,14 +8006,14 @@
       <c r="C111" s="25">
         <v>230041700121</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="33">
+        <v>12</v>
+      </c>
+      <c r="E111" s="33">
         <v>8</v>
       </c>
-      <c r="E111" s="2">
+      <c r="F111" s="2">
         <v>13</v>
-      </c>
-      <c r="F111" s="2">
-        <v>0</v>
       </c>
       <c r="G111" s="2">
         <v>0</v>
@@ -8046,15 +8047,15 @@
       </c>
       <c r="V111" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W111" s="17">
         <f t="shared" si="6"/>
-        <v>22.666666666666668</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="X111" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
@@ -8067,14 +8068,14 @@
       <c r="C112" s="27">
         <v>230041700122</v>
       </c>
-      <c r="D112" s="2">
-        <v>4</v>
-      </c>
-      <c r="E112" s="2">
-        <v>0</v>
+      <c r="D112" s="33">
+        <v>12</v>
+      </c>
+      <c r="E112" s="33">
+        <v>4</v>
       </c>
       <c r="F112" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G112" s="2">
         <v>0</v>
@@ -8108,15 +8109,15 @@
       </c>
       <c r="V112" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="W112" s="17">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="X112" s="17">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -8129,14 +8130,14 @@
       <c r="C113" s="25">
         <v>230041700123</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="33">
+        <v>12</v>
+      </c>
+      <c r="E113" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="2">
+      <c r="F113" s="2">
         <v>2</v>
-      </c>
-      <c r="F113" s="2">
-        <v>0</v>
       </c>
       <c r="G113" s="2">
         <v>0</v>
@@ -8168,15 +8169,15 @@
       </c>
       <c r="V113" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W113" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X113" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -8189,14 +8190,14 @@
       <c r="C114" s="27">
         <v>230041700124</v>
       </c>
-      <c r="D114" s="2">
-        <v>4</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="D114" s="33">
+        <v>9</v>
+      </c>
+      <c r="E114" s="33">
+        <v>4</v>
+      </c>
+      <c r="F114" s="2">
         <v>7</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0</v>
       </c>
       <c r="G114" s="2">
         <v>0</v>
@@ -8228,15 +8229,15 @@
       </c>
       <c r="V114" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W114" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X114" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
@@ -8249,14 +8250,14 @@
       <c r="C115" s="27">
         <v>230041700126</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="33">
+        <v>13</v>
+      </c>
+      <c r="E115" s="33">
         <v>17</v>
       </c>
-      <c r="E115" s="2">
+      <c r="F115" s="2">
         <v>2</v>
-      </c>
-      <c r="F115" s="2">
-        <v>0</v>
       </c>
       <c r="G115" s="2">
         <v>0</v>
@@ -8290,15 +8291,15 @@
       </c>
       <c r="V115" s="17">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W115" s="17">
         <f t="shared" si="6"/>
-        <v>10.666666666666668</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="X115" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
@@ -8311,14 +8312,14 @@
       <c r="C116" s="25">
         <v>230041700127</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="33">
+        <v>13</v>
+      </c>
+      <c r="E116" s="33">
         <v>18</v>
       </c>
-      <c r="E116" s="2">
+      <c r="F116" s="2">
         <v>12</v>
-      </c>
-      <c r="F116" s="2">
-        <v>0</v>
       </c>
       <c r="G116" s="2">
         <v>0</v>
@@ -8352,15 +8353,15 @@
       </c>
       <c r="V116" s="17">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="W116" s="17">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="X116" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
@@ -8373,14 +8374,14 @@
       <c r="C117" s="27">
         <v>230041700128</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="33">
         <v>10</v>
       </c>
-      <c r="E117" s="2">
+      <c r="F117" s="2">
         <v>6</v>
-      </c>
-      <c r="F117" s="2">
-        <v>0</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -8414,15 +8415,15 @@
       </c>
       <c r="V117" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W117" s="17">
         <f t="shared" si="6"/>
-        <v>14.166666666666668</v>
+        <v>18.166666666666668</v>
       </c>
       <c r="X117" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -8435,11 +8436,11 @@
       <c r="C118" s="25">
         <v>230041700129</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="33">
+        <v>0</v>
+      </c>
+      <c r="E118" s="33">
         <v>6</v>
-      </c>
-      <c r="E118" s="2">
-        <v>0</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
@@ -8476,11 +8477,11 @@
       </c>
       <c r="V118" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W118" s="17">
         <f t="shared" si="6"/>
-        <v>8.6666666666666679</v>
+        <v>14.666666666666668</v>
       </c>
       <c r="X118" s="17">
         <f t="shared" si="7"/>
@@ -8497,14 +8498,14 @@
       <c r="C119" s="25">
         <v>230041700131</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="33">
+        <v>16</v>
+      </c>
+      <c r="E119" s="33">
         <v>12</v>
       </c>
-      <c r="E119" s="2">
+      <c r="F119" s="2">
         <v>12</v>
-      </c>
-      <c r="F119" s="2">
-        <v>0</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -8538,7 +8539,7 @@
       </c>
       <c r="V119" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W119" s="17">
         <f t="shared" si="6"/>
@@ -8546,7 +8547,7 @@
       </c>
       <c r="X119" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
@@ -8559,14 +8560,14 @@
       <c r="C120" s="27">
         <v>230041700132</v>
       </c>
-      <c r="D120" s="21">
+      <c r="D120" s="34">
+        <v>14</v>
+      </c>
+      <c r="E120" s="34">
         <v>13</v>
       </c>
-      <c r="E120" s="23">
+      <c r="F120" s="23">
         <v>7</v>
-      </c>
-      <c r="F120" s="23">
-        <v>4.5</v>
       </c>
       <c r="G120" s="2">
         <v>4.5</v>
@@ -8599,15 +8600,15 @@
       </c>
       <c r="V120" s="17">
         <f t="shared" si="6"/>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="W120" s="17">
         <f t="shared" si="6"/>
-        <v>16.583333333333332</v>
+        <v>22.583333333333332</v>
       </c>
       <c r="X120" s="17">
         <f t="shared" si="7"/>
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -8620,14 +8621,14 @@
       <c r="C121" s="27">
         <v>230041700134</v>
       </c>
-      <c r="D121" s="21">
+      <c r="D121" s="34">
+        <v>12</v>
+      </c>
+      <c r="E121" s="34">
         <v>8</v>
       </c>
-      <c r="E121" s="23">
+      <c r="F121" s="23">
         <v>2</v>
-      </c>
-      <c r="F121" s="23">
-        <v>4</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -8657,15 +8658,15 @@
       </c>
       <c r="V121" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W121" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X121" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
@@ -8678,14 +8679,14 @@
       <c r="C122" s="27">
         <v>230041700136</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="34">
         <v>12</v>
       </c>
-      <c r="E122" s="23">
+      <c r="F122" s="23">
         <v>9</v>
-      </c>
-      <c r="F122" s="23">
-        <v>4</v>
       </c>
       <c r="G122" s="21">
         <v>4</v>
@@ -8711,15 +8712,15 @@
       </c>
       <c r="V122" s="17">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="W122" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="X122" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -861,16 +861,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U63" sqref="U63:U122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,10 +1384,10 @@
       <c r="C3" s="25">
         <v>230041700001</v>
       </c>
-      <c r="D3" s="33">
-        <v>4</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="D3" s="31">
+        <v>4</v>
+      </c>
+      <c r="E3" s="31">
         <v>17</v>
       </c>
       <c r="F3" s="2">
@@ -1448,10 +1448,10 @@
       <c r="C4" s="27">
         <v>230041700002</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>2</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>12</v>
       </c>
       <c r="F4" s="2">
@@ -1483,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="U4" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" ref="V4:W67" si="2">SUM(D4)+G4+S4</f>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="X4" s="17">
         <f t="shared" ref="X4:X67" si="3">SUM(F4)+I4+U4</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1508,10 +1508,10 @@
       <c r="C5" s="25">
         <v>230041700003</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="31">
         <v>29</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <v>29</v>
       </c>
       <c r="F5" s="2">
@@ -1570,10 +1570,10 @@
       <c r="C6" s="27">
         <v>230041700004</v>
       </c>
-      <c r="D6" s="33">
-        <v>4</v>
-      </c>
-      <c r="E6" s="33">
+      <c r="D6" s="31">
+        <v>4</v>
+      </c>
+      <c r="E6" s="31">
         <v>16</v>
       </c>
       <c r="F6" s="2">
@@ -1632,10 +1632,10 @@
       <c r="C7" s="25">
         <v>230041700005</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="31">
         <v>27</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>12</v>
       </c>
       <c r="F7" s="2">
@@ -1694,10 +1694,10 @@
       <c r="C8" s="27">
         <v>230041700008</v>
       </c>
-      <c r="D8" s="33">
-        <v>4</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="31">
+        <v>4</v>
+      </c>
+      <c r="E8" s="31">
         <v>10</v>
       </c>
       <c r="F8" s="2">
@@ -1731,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="U8" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" s="17">
         <f t="shared" si="2"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="X8" s="17">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1756,10 +1756,10 @@
       <c r="C9" s="27">
         <v>230041700010</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="31">
         <v>19</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>13</v>
       </c>
       <c r="F9" s="2">
@@ -1793,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="U9" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" s="17">
         <f t="shared" si="2"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="X9" s="17">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -1818,10 +1818,10 @@
       <c r="C10" s="27">
         <v>230041700012</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="31">
         <v>13</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="31">
         <v>8</v>
       </c>
       <c r="F10" s="2">
@@ -1880,10 +1880,10 @@
       <c r="C11" s="25">
         <v>230041700013</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1940,10 +1940,10 @@
       <c r="C12" s="27">
         <v>230041700014</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="31">
         <v>1</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="31">
         <v>3</v>
       </c>
       <c r="F12" s="2">
@@ -1975,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="U12" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V12" s="17">
         <f t="shared" si="2"/>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="X12" s="17">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -2000,10 +2000,10 @@
       <c r="C13" s="25">
         <v>230041700015</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <v>25</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>16</v>
       </c>
       <c r="F13" s="2">
@@ -2062,10 +2062,10 @@
       <c r="C14" s="27">
         <v>230041700016</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="31">
         <v>13</v>
       </c>
       <c r="F14" s="2">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="U14" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" s="17">
         <f t="shared" si="2"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="X14" s="17">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2122,10 +2122,10 @@
       <c r="C15" s="25">
         <v>230041700017</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="31">
         <v>3</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="2">
@@ -2184,10 +2184,10 @@
       <c r="C16" s="27">
         <v>230041700018</v>
       </c>
-      <c r="D16" s="33">
-        <v>5</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="D16" s="31">
+        <v>5</v>
+      </c>
+      <c r="E16" s="31">
         <v>1</v>
       </c>
       <c r="F16" s="2">
@@ -2219,7 +2219,7 @@
         <v>4</v>
       </c>
       <c r="U16" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V16" s="17">
         <f t="shared" si="2"/>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="X16" s="17">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -2244,10 +2244,10 @@
       <c r="C17" s="25">
         <v>230041700019</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="31">
         <v>12</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>13</v>
       </c>
       <c r="F17" s="2">
@@ -2306,10 +2306,10 @@
       <c r="C18" s="25">
         <v>230041700021</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="31">
         <v>18</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>14</v>
       </c>
       <c r="F18" s="2">
@@ -2341,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="U18" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18" s="17">
         <f t="shared" si="2"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="X18" s="17">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2366,10 +2366,10 @@
       <c r="C19" s="27">
         <v>230041700022</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="31">
         <v>2</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="31">
         <v>0</v>
       </c>
       <c r="F19" s="2">
@@ -2403,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="U19" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" s="17">
         <f t="shared" si="2"/>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="X19" s="17">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2428,10 +2428,10 @@
       <c r="C20" s="25">
         <v>230041700023</v>
       </c>
-      <c r="D20" s="33">
-        <v>0</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="E20" s="31">
         <v>0</v>
       </c>
       <c r="F20" s="2">
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="U20" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" s="17">
         <f t="shared" si="2"/>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="X20" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2488,10 +2488,10 @@
       <c r="C21" s="27">
         <v>230041700024</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="31">
         <v>20</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="31">
         <v>22</v>
       </c>
       <c r="F21" s="2">
@@ -2525,7 +2525,7 @@
         <v>5</v>
       </c>
       <c r="U21" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V21" s="17">
         <f t="shared" si="2"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="X21" s="17">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2550,10 +2550,10 @@
       <c r="C22" s="25">
         <v>230041700025</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="31">
         <v>26</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="31">
         <v>24</v>
       </c>
       <c r="F22" s="2">
@@ -2612,10 +2612,10 @@
       <c r="C23" s="27">
         <v>230041700026</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="31">
         <v>15</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="31">
         <v>9</v>
       </c>
       <c r="F23" s="2">
@@ -2649,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="U23" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V23" s="17">
         <f t="shared" si="2"/>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="X23" s="17">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2674,10 +2674,10 @@
       <c r="C24" s="25">
         <v>230041700027</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="31">
         <v>17</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <v>15</v>
       </c>
       <c r="F24" s="2">
@@ -2736,10 +2736,10 @@
       <c r="C25" s="27">
         <v>230041700028</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="31">
         <v>2</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -2796,10 +2796,10 @@
       <c r="C26" s="25">
         <v>230041700029</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="31">
         <v>12</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="31">
         <v>13</v>
       </c>
       <c r="F26" s="2">
@@ -2858,10 +2858,10 @@
       <c r="C27" s="27">
         <v>230041700030</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="31">
         <v>8</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2893,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="U27" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27" s="17">
         <f t="shared" si="2"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="X27" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2918,10 +2918,10 @@
       <c r="C28" s="27">
         <v>230041700032</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="31">
         <v>22</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="31">
         <v>17</v>
       </c>
       <c r="F28" s="2">
@@ -2980,10 +2980,10 @@
       <c r="C29" s="25">
         <v>230041700033</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="31">
         <v>12</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="31">
         <v>5</v>
       </c>
       <c r="F29" s="2">
@@ -3017,7 +3017,7 @@
         <v>4</v>
       </c>
       <c r="U29" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V29" s="17">
         <f t="shared" si="2"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="X29" s="17">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -3042,10 +3042,10 @@
       <c r="C30" s="27">
         <v>230041700034</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="31">
         <v>16</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="31">
         <v>12</v>
       </c>
       <c r="F30" s="2">
@@ -3077,7 +3077,7 @@
         <v>4</v>
       </c>
       <c r="U30" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" s="17">
         <f t="shared" si="2"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="X30" s="17">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -3102,10 +3102,10 @@
       <c r="C31" s="25">
         <v>230041700035</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3162,10 +3162,10 @@
       <c r="C32" s="27">
         <v>230041700036</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="31">
         <v>16</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="31">
         <v>9</v>
       </c>
       <c r="F32" s="2">
@@ -3199,7 +3199,7 @@
         <v>5</v>
       </c>
       <c r="U32" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V32" s="17">
         <f t="shared" si="2"/>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="X32" s="17">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -3224,10 +3224,10 @@
       <c r="C33" s="25">
         <v>230041700037</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="31">
         <v>17</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="31">
         <v>15</v>
       </c>
       <c r="F33" s="2">
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="U33" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V33" s="17">
         <f t="shared" si="2"/>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="X33" s="17">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3286,10 +3286,10 @@
       <c r="C34" s="27">
         <v>230041700038</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="31">
         <v>13</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="31">
         <v>14</v>
       </c>
       <c r="F34" s="2">
@@ -3323,7 +3323,7 @@
         <v>5</v>
       </c>
       <c r="U34" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" s="17">
         <f t="shared" si="2"/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="X34" s="17">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3348,10 +3348,10 @@
       <c r="C35" s="25">
         <v>230041700039</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="31">
         <v>2</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="31">
         <v>1</v>
       </c>
       <c r="F35" s="2">
@@ -3410,10 +3410,10 @@
       <c r="C36" s="27">
         <v>230041700040</v>
       </c>
-      <c r="D36" s="33">
-        <v>4</v>
-      </c>
-      <c r="E36" s="33">
+      <c r="D36" s="31">
+        <v>4</v>
+      </c>
+      <c r="E36" s="31">
         <v>15</v>
       </c>
       <c r="F36" s="2">
@@ -3472,10 +3472,10 @@
       <c r="C37" s="25">
         <v>230041700041</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="31">
         <v>2</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="31">
         <v>6</v>
       </c>
       <c r="F37" s="2">
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37" s="17">
         <f t="shared" si="2"/>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="X37" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3534,10 +3534,10 @@
       <c r="C38" s="27">
         <v>230041700042</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="31">
         <v>19</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="31">
         <v>13</v>
       </c>
       <c r="F38" s="2">
@@ -3596,10 +3596,10 @@
       <c r="C39" s="25">
         <v>230041700043</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="31">
         <v>1</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="31">
         <v>3</v>
       </c>
       <c r="F39" s="2">
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="U39" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="17">
         <f t="shared" si="2"/>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="X39" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -3656,10 +3656,10 @@
       <c r="C40" s="27">
         <v>230041700044</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="31">
         <v>12</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="31">
         <v>8</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -3693,7 +3693,7 @@
         <v>5</v>
       </c>
       <c r="U40" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" s="17">
         <f t="shared" si="2"/>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="X40" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3718,10 +3718,10 @@
       <c r="C41" s="25">
         <v>230041700045</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="31">
         <v>2</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="31">
         <v>7</v>
       </c>
       <c r="F41" s="2">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="U41" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" s="17">
         <f t="shared" si="2"/>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="X41" s="17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3780,10 +3780,10 @@
       <c r="C42" s="27">
         <v>230041700046</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="31">
         <v>12</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="31">
         <v>8</v>
       </c>
       <c r="F42" s="2">
@@ -3815,7 +3815,7 @@
         <v>4</v>
       </c>
       <c r="U42" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V42" s="17">
         <f t="shared" si="2"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="X42" s="17">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3840,10 +3840,10 @@
       <c r="C43" s="25">
         <v>230041700047</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="31">
         <v>18</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="31">
         <v>16</v>
       </c>
       <c r="F43" s="2">
@@ -3902,10 +3902,10 @@
       <c r="C44" s="27">
         <v>230041700048</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="31">
         <v>19</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="31">
         <v>18</v>
       </c>
       <c r="F44" s="2">
@@ -3964,10 +3964,10 @@
       <c r="C45" s="27">
         <v>230041700050</v>
       </c>
-      <c r="D45" s="33">
-        <v>5</v>
-      </c>
-      <c r="E45" s="33">
+      <c r="D45" s="31">
+        <v>5</v>
+      </c>
+      <c r="E45" s="31">
         <v>9</v>
       </c>
       <c r="F45" s="2">
@@ -4001,7 +4001,7 @@
         <v>5</v>
       </c>
       <c r="U45" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V45" s="17">
         <f t="shared" si="2"/>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="X45" s="17">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4026,10 +4026,10 @@
       <c r="C46" s="25">
         <v>230041700051</v>
       </c>
-      <c r="D46" s="33">
+      <c r="D46" s="31">
         <v>22</v>
       </c>
-      <c r="E46" s="33">
+      <c r="E46" s="31">
         <v>20</v>
       </c>
       <c r="F46" s="2">
@@ -4088,10 +4088,10 @@
       <c r="C47" s="27">
         <v>230041700052</v>
       </c>
-      <c r="D47" s="33">
-        <v>4</v>
-      </c>
-      <c r="E47" s="33">
+      <c r="D47" s="31">
+        <v>4</v>
+      </c>
+      <c r="E47" s="31">
         <v>9</v>
       </c>
       <c r="F47" s="2">
@@ -4123,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="U47" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V47" s="17">
         <f t="shared" si="2"/>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="X47" s="17">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -4148,10 +4148,10 @@
       <c r="C48" s="25">
         <v>230041700053</v>
       </c>
-      <c r="D48" s="33">
+      <c r="D48" s="31">
         <v>16</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="31">
         <v>12</v>
       </c>
       <c r="F48" s="2">
@@ -4185,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="U48" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="17">
         <f t="shared" si="2"/>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="X48" s="17">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -4210,10 +4210,10 @@
       <c r="C49" s="27">
         <v>230041700056</v>
       </c>
-      <c r="D49" s="33">
+      <c r="D49" s="31">
         <v>6</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="31">
         <v>12</v>
       </c>
       <c r="F49" s="2">
@@ -4247,7 +4247,7 @@
         <v>4</v>
       </c>
       <c r="U49" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" s="17">
         <f t="shared" si="2"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="X49" s="17">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -4272,10 +4272,10 @@
       <c r="C50" s="25">
         <v>230041700057</v>
       </c>
-      <c r="D50" s="33">
+      <c r="D50" s="31">
         <v>12</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="31">
         <v>9</v>
       </c>
       <c r="F50" s="2">
@@ -4309,7 +4309,7 @@
         <v>4</v>
       </c>
       <c r="U50" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" s="17">
         <f t="shared" si="2"/>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="X50" s="17">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
@@ -4334,10 +4334,10 @@
       <c r="C51" s="27">
         <v>230041700058</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="31">
         <v>3</v>
       </c>
       <c r="F51" s="2">
@@ -4371,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="U51" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" s="17">
         <f t="shared" si="2"/>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="X51" s="17">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -4396,10 +4396,10 @@
       <c r="C52" s="25">
         <v>230041700059</v>
       </c>
-      <c r="D52" s="33">
+      <c r="D52" s="31">
         <v>6</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="31">
         <v>15</v>
       </c>
       <c r="F52" s="2">
@@ -4458,10 +4458,10 @@
       <c r="C53" s="27">
         <v>230041700060</v>
       </c>
-      <c r="D53" s="33">
+      <c r="D53" s="31">
         <v>1</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="31">
         <v>2</v>
       </c>
       <c r="F53" s="2">
@@ -4493,7 +4493,7 @@
         <v>3</v>
       </c>
       <c r="U53" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V53" s="17">
         <f t="shared" si="2"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="X53" s="17">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4518,10 +4518,10 @@
       <c r="C54" s="25">
         <v>230041700061</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -4578,10 +4578,10 @@
       <c r="C55" s="27">
         <v>230041700062</v>
       </c>
-      <c r="D55" s="33">
+      <c r="D55" s="31">
         <v>14</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="31">
         <v>8</v>
       </c>
       <c r="F55" s="2">
@@ -4615,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="U55" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V55" s="17">
         <f t="shared" si="2"/>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="X55" s="17">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4640,10 +4640,10 @@
       <c r="C56" s="25">
         <v>230041700063</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="31">
         <v>12</v>
       </c>
       <c r="F56" s="2">
@@ -4675,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="U56" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V56" s="17">
         <f t="shared" si="2"/>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="X56" s="17">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4700,10 +4700,10 @@
       <c r="C57" s="27">
         <v>230041700064</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D57" s="31">
         <v>12</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="31">
         <v>13</v>
       </c>
       <c r="F57" s="2">
@@ -4737,7 +4737,7 @@
         <v>4</v>
       </c>
       <c r="U57" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" s="17">
         <f t="shared" si="2"/>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="X57" s="17">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4762,10 +4762,10 @@
       <c r="C58" s="25">
         <v>230041700065</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="31">
         <v>1</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="31">
         <v>9</v>
       </c>
       <c r="F58" s="2">
@@ -4797,7 +4797,7 @@
         <v>2</v>
       </c>
       <c r="U58" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V58" s="17">
         <f t="shared" si="2"/>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="X58" s="17">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -4822,10 +4822,10 @@
       <c r="C59" s="27">
         <v>230041700066</v>
       </c>
-      <c r="D59" s="33">
+      <c r="D59" s="31">
         <v>14</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="31">
         <v>12</v>
       </c>
       <c r="F59" s="2">
@@ -4884,10 +4884,10 @@
       <c r="C60" s="25">
         <v>230041700067</v>
       </c>
-      <c r="D60" s="33">
+      <c r="D60" s="31">
         <v>2</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="31">
         <v>0</v>
       </c>
       <c r="F60" s="2">
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="U60" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V60" s="17">
         <f t="shared" si="2"/>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="X60" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -4944,10 +4944,10 @@
       <c r="C61" s="27">
         <v>230041700068</v>
       </c>
-      <c r="D61" s="33">
+      <c r="D61" s="31">
         <v>2</v>
       </c>
-      <c r="E61" s="33">
+      <c r="E61" s="31">
         <v>12</v>
       </c>
       <c r="F61" s="2">
@@ -4981,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="U61" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V61" s="17">
         <f t="shared" si="2"/>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="X61" s="17">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -5006,10 +5006,10 @@
       <c r="C62" s="25">
         <v>230041700069</v>
       </c>
-      <c r="D62" s="33">
-        <v>5</v>
-      </c>
-      <c r="E62" s="33">
+      <c r="D62" s="31">
+        <v>5</v>
+      </c>
+      <c r="E62" s="31">
         <v>21</v>
       </c>
       <c r="F62" s="2">
@@ -5043,7 +5043,7 @@
         <v>4</v>
       </c>
       <c r="U62" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V62" s="17">
         <f t="shared" si="2"/>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="X62" s="17">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -5068,10 +5068,10 @@
       <c r="C63" s="27">
         <v>230041700070</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -5128,10 +5128,10 @@
       <c r="C64" s="25">
         <v>230041700071</v>
       </c>
-      <c r="D64" s="33">
+      <c r="D64" s="31">
         <v>21</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E64" s="31">
         <v>15</v>
       </c>
       <c r="F64" s="2">
@@ -5190,10 +5190,10 @@
       <c r="C65" s="27">
         <v>230041700072</v>
       </c>
-      <c r="D65" s="33">
+      <c r="D65" s="31">
         <v>15</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="31">
         <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -5252,10 +5252,10 @@
       <c r="C66" s="25">
         <v>230041700073</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="33">
+      <c r="E66" s="31">
         <v>4</v>
       </c>
       <c r="F66" s="2">
@@ -5289,7 +5289,7 @@
         <v>3</v>
       </c>
       <c r="U66" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V66" s="17">
         <f t="shared" si="2"/>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="X66" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -5314,10 +5314,10 @@
       <c r="C67" s="27">
         <v>230041700074</v>
       </c>
-      <c r="D67" s="33">
+      <c r="D67" s="31">
         <v>26</v>
       </c>
-      <c r="E67" s="33">
+      <c r="E67" s="31">
         <v>23</v>
       </c>
       <c r="F67" s="2">
@@ -5376,10 +5376,10 @@
       <c r="C68" s="25">
         <v>230041700075</v>
       </c>
-      <c r="D68" s="33">
+      <c r="D68" s="31">
         <v>12</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="31">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -5413,7 +5413,7 @@
         <v>4</v>
       </c>
       <c r="U68" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" s="17">
         <f t="shared" ref="V68:W122" si="6">SUM(D68)+G68+S68</f>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="X68" s="17">
         <f t="shared" ref="X68:X122" si="7">SUM(F68)+I68+U68</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5438,10 +5438,10 @@
       <c r="C69" s="27">
         <v>230041700076</v>
       </c>
-      <c r="D69" s="33">
+      <c r="D69" s="31">
         <v>17</v>
       </c>
-      <c r="E69" s="33">
+      <c r="E69" s="31">
         <v>14</v>
       </c>
       <c r="F69" s="2">
@@ -5475,7 +5475,7 @@
         <v>3</v>
       </c>
       <c r="U69" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V69" s="17">
         <f t="shared" si="6"/>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="X69" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -5500,10 +5500,10 @@
       <c r="C70" s="25">
         <v>230041700077</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="33" t="s">
+      <c r="E70" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="2">
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" s="17">
         <f t="shared" si="6"/>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="X70" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5560,10 +5560,10 @@
       <c r="C71" s="27">
         <v>230041700078</v>
       </c>
-      <c r="D71" s="33">
+      <c r="D71" s="31">
         <v>13</v>
       </c>
-      <c r="E71" s="33">
+      <c r="E71" s="31">
         <v>4</v>
       </c>
       <c r="F71" s="2">
@@ -5597,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="U71" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V71" s="17">
         <f t="shared" si="6"/>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="X71" s="17">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5622,10 +5622,10 @@
       <c r="C72" s="25">
         <v>230041700079</v>
       </c>
-      <c r="D72" s="33">
+      <c r="D72" s="31">
         <v>18</v>
       </c>
-      <c r="E72" s="33">
+      <c r="E72" s="31">
         <v>13</v>
       </c>
       <c r="F72" s="2">
@@ -5684,10 +5684,10 @@
       <c r="C73" s="27">
         <v>230041700080</v>
       </c>
-      <c r="D73" s="33">
+      <c r="D73" s="31">
         <v>13</v>
       </c>
-      <c r="E73" s="33">
+      <c r="E73" s="31">
         <v>7</v>
       </c>
       <c r="F73" s="2">
@@ -5721,7 +5721,7 @@
         <v>4</v>
       </c>
       <c r="U73" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V73" s="17">
         <f t="shared" si="6"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="X73" s="17">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -5746,10 +5746,10 @@
       <c r="C74" s="25">
         <v>230041700081</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="2" t="s">
@@ -5806,10 +5806,10 @@
       <c r="C75" s="27">
         <v>230041700082</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D75" s="31">
         <v>15</v>
       </c>
-      <c r="E75" s="33">
+      <c r="E75" s="31">
         <v>13</v>
       </c>
       <c r="F75" s="2">
@@ -5868,10 +5868,10 @@
       <c r="C76" s="25">
         <v>230041700083</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -5928,10 +5928,10 @@
       <c r="C77" s="27">
         <v>230041700084</v>
       </c>
-      <c r="D77" s="33">
+      <c r="D77" s="31">
         <v>19</v>
       </c>
-      <c r="E77" s="33">
+      <c r="E77" s="31">
         <v>13</v>
       </c>
       <c r="F77" s="2">
@@ -5965,7 +5965,7 @@
         <v>5</v>
       </c>
       <c r="U77" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V77" s="17">
         <f t="shared" si="6"/>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="X77" s="17">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -5990,10 +5990,10 @@
       <c r="C78" s="27">
         <v>230041700086</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D78" s="31">
         <v>13</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="E78" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="2">
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V78" s="17">
         <f t="shared" si="6"/>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="X78" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6050,10 +6050,10 @@
       <c r="C79" s="25">
         <v>230041700087</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D79" s="31">
         <v>14</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E79" s="31">
         <v>14</v>
       </c>
       <c r="F79" s="2">
@@ -6087,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="U79" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V79" s="17">
         <f t="shared" si="6"/>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="X79" s="17">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
@@ -6112,10 +6112,10 @@
       <c r="C80" s="27">
         <v>230041700088</v>
       </c>
-      <c r="D80" s="33">
+      <c r="D80" s="31">
         <v>19</v>
       </c>
-      <c r="E80" s="33">
+      <c r="E80" s="31">
         <v>15</v>
       </c>
       <c r="F80" s="2">
@@ -6149,7 +6149,7 @@
         <v>5</v>
       </c>
       <c r="U80" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V80" s="17">
         <f t="shared" si="6"/>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="X80" s="17">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -6174,10 +6174,10 @@
       <c r="C81" s="25">
         <v>230041700089</v>
       </c>
-      <c r="D81" s="33">
+      <c r="D81" s="31">
         <v>12</v>
       </c>
-      <c r="E81" s="33">
+      <c r="E81" s="31">
         <v>3</v>
       </c>
       <c r="F81" s="2">
@@ -6234,10 +6234,10 @@
       <c r="C82" s="27">
         <v>230041700090</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D82" s="31">
         <v>13</v>
       </c>
-      <c r="E82" s="33" t="s">
+      <c r="E82" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F82" s="2">
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V82" s="17">
         <f t="shared" si="6"/>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="X82" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -6294,10 +6294,10 @@
       <c r="C83" s="25">
         <v>230041700091</v>
       </c>
-      <c r="D83" s="33">
+      <c r="D83" s="31">
         <v>7</v>
       </c>
-      <c r="E83" s="33">
+      <c r="E83" s="31">
         <v>6</v>
       </c>
       <c r="F83" s="2">
@@ -6354,10 +6354,10 @@
       <c r="C84" s="27">
         <v>230041700092</v>
       </c>
-      <c r="D84" s="33">
-        <v>4</v>
-      </c>
-      <c r="E84" s="33">
+      <c r="D84" s="31">
+        <v>4</v>
+      </c>
+      <c r="E84" s="31">
         <v>8</v>
       </c>
       <c r="F84" s="2">
@@ -6414,10 +6414,10 @@
       <c r="C85" s="25">
         <v>230041700093</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F85" s="2" t="s">
@@ -6474,10 +6474,10 @@
       <c r="C86" s="27">
         <v>230041700094</v>
       </c>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="33">
+      <c r="E86" s="31">
         <v>13</v>
       </c>
       <c r="F86" s="2">
@@ -6534,10 +6534,10 @@
       <c r="C87" s="25">
         <v>230041700095</v>
       </c>
-      <c r="D87" s="33">
+      <c r="D87" s="31">
         <v>14</v>
       </c>
-      <c r="E87" s="33">
+      <c r="E87" s="31">
         <v>5</v>
       </c>
       <c r="F87" s="2">
@@ -6596,10 +6596,10 @@
       <c r="C88" s="27">
         <v>230041700096</v>
       </c>
-      <c r="D88" s="33">
+      <c r="D88" s="31">
         <v>19</v>
       </c>
-      <c r="E88" s="33">
+      <c r="E88" s="31">
         <v>16</v>
       </c>
       <c r="F88" s="2">
@@ -6633,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="U88" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V88" s="17">
         <f t="shared" si="6"/>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="X88" s="17">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -6658,10 +6658,10 @@
       <c r="C89" s="25">
         <v>230041700097</v>
       </c>
-      <c r="D89" s="33">
+      <c r="D89" s="31">
         <v>16</v>
       </c>
-      <c r="E89" s="33">
+      <c r="E89" s="31">
         <v>22</v>
       </c>
       <c r="F89" s="2">
@@ -6695,7 +6695,7 @@
         <v>5</v>
       </c>
       <c r="U89" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V89" s="17">
         <f t="shared" si="6"/>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="X89" s="17">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -6720,10 +6720,10 @@
       <c r="C90" s="27">
         <v>230041700098</v>
       </c>
-      <c r="D90" s="33">
+      <c r="D90" s="31">
         <v>12</v>
       </c>
-      <c r="E90" s="33">
+      <c r="E90" s="31">
         <v>12</v>
       </c>
       <c r="F90" s="2">
@@ -6757,7 +6757,7 @@
         <v>4</v>
       </c>
       <c r="U90" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V90" s="17">
         <f t="shared" si="6"/>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="X90" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -6782,10 +6782,10 @@
       <c r="C91" s="25">
         <v>230041700099</v>
       </c>
-      <c r="D91" s="33">
+      <c r="D91" s="31">
         <v>9</v>
       </c>
-      <c r="E91" s="33">
+      <c r="E91" s="31">
         <v>2</v>
       </c>
       <c r="F91" s="2">
@@ -6819,7 +6819,7 @@
         <v>3</v>
       </c>
       <c r="U91" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V91" s="17">
         <f t="shared" si="6"/>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="X91" s="17">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -6844,10 +6844,10 @@
       <c r="C92" s="27">
         <v>230041700100</v>
       </c>
-      <c r="D92" s="33">
+      <c r="D92" s="31">
         <v>7</v>
       </c>
-      <c r="E92" s="33">
+      <c r="E92" s="31">
         <v>14</v>
       </c>
       <c r="F92" s="2">
@@ -6881,7 +6881,7 @@
         <v>4</v>
       </c>
       <c r="U92" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V92" s="17">
         <f t="shared" si="6"/>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="X92" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -6906,10 +6906,10 @@
       <c r="C93" s="25">
         <v>230041700101</v>
       </c>
-      <c r="D93" s="33">
+      <c r="D93" s="31">
         <v>1</v>
       </c>
-      <c r="E93" s="33">
+      <c r="E93" s="31">
         <v>1</v>
       </c>
       <c r="F93" s="2">
@@ -6966,10 +6966,10 @@
       <c r="C94" s="27">
         <v>230041700102</v>
       </c>
-      <c r="D94" s="33">
-        <v>0</v>
-      </c>
-      <c r="E94" s="33">
+      <c r="D94" s="31">
+        <v>0</v>
+      </c>
+      <c r="E94" s="31">
         <v>1</v>
       </c>
       <c r="F94" s="2">
@@ -7028,10 +7028,10 @@
       <c r="C95" s="25">
         <v>230041700103</v>
       </c>
-      <c r="D95" s="33">
+      <c r="D95" s="31">
         <v>3</v>
       </c>
-      <c r="E95" s="33" t="s">
+      <c r="E95" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F95" s="2">
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="U95" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V95" s="17">
         <f t="shared" si="6"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="X95" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
@@ -7088,10 +7088,10 @@
       <c r="C96" s="27">
         <v>230041700104</v>
       </c>
-      <c r="D96" s="33">
+      <c r="D96" s="31">
         <v>12</v>
       </c>
-      <c r="E96" s="33">
+      <c r="E96" s="31">
         <v>12</v>
       </c>
       <c r="F96" s="2">
@@ -7150,10 +7150,10 @@
       <c r="C97" s="25">
         <v>230041700105</v>
       </c>
-      <c r="D97" s="33">
+      <c r="D97" s="31">
         <v>19</v>
       </c>
-      <c r="E97" s="33">
+      <c r="E97" s="31">
         <v>13</v>
       </c>
       <c r="F97" s="2">
@@ -7212,10 +7212,10 @@
       <c r="C98" s="27">
         <v>230041700106</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="33" t="s">
+      <c r="E98" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F98" s="2" t="s">
@@ -7272,10 +7272,10 @@
       <c r="C99" s="27">
         <v>230041700108</v>
       </c>
-      <c r="D99" s="33">
+      <c r="D99" s="31">
         <v>23</v>
       </c>
-      <c r="E99" s="33">
+      <c r="E99" s="31">
         <v>22</v>
       </c>
       <c r="F99" s="2">
@@ -7309,7 +7309,7 @@
         <v>4</v>
       </c>
       <c r="U99" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V99" s="17">
         <f t="shared" si="6"/>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="X99" s="17">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7334,10 +7334,10 @@
       <c r="C100" s="25">
         <v>230041700109</v>
       </c>
-      <c r="D100" s="33">
-        <v>5</v>
-      </c>
-      <c r="E100" s="33">
+      <c r="D100" s="31">
+        <v>5</v>
+      </c>
+      <c r="E100" s="31">
         <v>0</v>
       </c>
       <c r="F100" s="2">
@@ -7371,7 +7371,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V100" s="17">
         <f t="shared" si="6"/>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="X100" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -7396,10 +7396,10 @@
       <c r="C101" s="27">
         <v>230041700110</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="33">
+      <c r="E101" s="31">
         <v>16</v>
       </c>
       <c r="F101" s="2">
@@ -7458,10 +7458,10 @@
       <c r="C102" s="25">
         <v>230041700111</v>
       </c>
-      <c r="D102" s="33">
+      <c r="D102" s="31">
         <v>18</v>
       </c>
-      <c r="E102" s="33">
+      <c r="E102" s="31">
         <v>18</v>
       </c>
       <c r="F102" s="2">
@@ -7520,10 +7520,10 @@
       <c r="C103" s="27">
         <v>230041700112</v>
       </c>
-      <c r="D103" s="33">
+      <c r="D103" s="31">
         <v>16</v>
       </c>
-      <c r="E103" s="33">
+      <c r="E103" s="31">
         <v>9</v>
       </c>
       <c r="F103" s="2">
@@ -7582,10 +7582,10 @@
       <c r="C104" s="25">
         <v>230041700113</v>
       </c>
-      <c r="D104" s="33">
+      <c r="D104" s="31">
         <v>12</v>
       </c>
-      <c r="E104" s="33" t="s">
+      <c r="E104" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -7644,10 +7644,10 @@
       <c r="C105" s="25">
         <v>230041700115</v>
       </c>
-      <c r="D105" s="33">
+      <c r="D105" s="31">
         <v>12</v>
       </c>
-      <c r="E105" s="33">
+      <c r="E105" s="31">
         <v>1</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -7679,7 +7679,7 @@
         <v>5</v>
       </c>
       <c r="U105" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V105" s="17">
         <f t="shared" si="6"/>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="X105" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -7704,10 +7704,10 @@
       <c r="C106" s="27">
         <v>230041700116</v>
       </c>
-      <c r="D106" s="33">
+      <c r="D106" s="31">
         <v>22</v>
       </c>
-      <c r="E106" s="33">
+      <c r="E106" s="31">
         <v>10</v>
       </c>
       <c r="F106" s="2">
@@ -7741,7 +7741,7 @@
         <v>2</v>
       </c>
       <c r="U106" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V106" s="17">
         <f t="shared" si="6"/>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="X106" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
@@ -7766,10 +7766,10 @@
       <c r="C107" s="25">
         <v>230041700117</v>
       </c>
-      <c r="D107" s="33">
+      <c r="D107" s="31">
         <v>13</v>
       </c>
-      <c r="E107" s="33">
+      <c r="E107" s="31">
         <v>12</v>
       </c>
       <c r="F107" s="2">
@@ -7826,10 +7826,10 @@
       <c r="C108" s="27">
         <v>230041700118</v>
       </c>
-      <c r="D108" s="33">
+      <c r="D108" s="31">
         <v>17</v>
       </c>
-      <c r="E108" s="33">
+      <c r="E108" s="31">
         <v>0</v>
       </c>
       <c r="F108" s="2">
@@ -7886,10 +7886,10 @@
       <c r="C109" s="25">
         <v>230041700119</v>
       </c>
-      <c r="D109" s="33">
+      <c r="D109" s="31">
         <v>7</v>
       </c>
-      <c r="E109" s="33">
+      <c r="E109" s="31">
         <v>3</v>
       </c>
       <c r="F109" s="2">
@@ -7921,7 +7921,7 @@
         <v>5</v>
       </c>
       <c r="U109" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V109" s="17">
         <f t="shared" si="6"/>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="X109" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -7946,10 +7946,10 @@
       <c r="C110" s="27">
         <v>230041700120</v>
       </c>
-      <c r="D110" s="33">
+      <c r="D110" s="31">
         <v>12</v>
       </c>
-      <c r="E110" s="33" t="s">
+      <c r="E110" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="2" t="s">
@@ -8006,10 +8006,10 @@
       <c r="C111" s="25">
         <v>230041700121</v>
       </c>
-      <c r="D111" s="33">
+      <c r="D111" s="31">
         <v>12</v>
       </c>
-      <c r="E111" s="33">
+      <c r="E111" s="31">
         <v>8</v>
       </c>
       <c r="F111" s="2">
@@ -8068,10 +8068,10 @@
       <c r="C112" s="27">
         <v>230041700122</v>
       </c>
-      <c r="D112" s="33">
+      <c r="D112" s="31">
         <v>12</v>
       </c>
-      <c r="E112" s="33">
+      <c r="E112" s="31">
         <v>4</v>
       </c>
       <c r="F112" s="2">
@@ -8130,10 +8130,10 @@
       <c r="C113" s="25">
         <v>230041700123</v>
       </c>
-      <c r="D113" s="33">
+      <c r="D113" s="31">
         <v>12</v>
       </c>
-      <c r="E113" s="33" t="s">
+      <c r="E113" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="2">
@@ -8165,7 +8165,7 @@
         <v>2</v>
       </c>
       <c r="U113" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V113" s="17">
         <f t="shared" si="6"/>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="X113" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -8190,10 +8190,10 @@
       <c r="C114" s="27">
         <v>230041700124</v>
       </c>
-      <c r="D114" s="33">
+      <c r="D114" s="31">
         <v>9</v>
       </c>
-      <c r="E114" s="33">
+      <c r="E114" s="31">
         <v>4</v>
       </c>
       <c r="F114" s="2">
@@ -8225,7 +8225,7 @@
         <v>4</v>
       </c>
       <c r="U114" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V114" s="17">
         <f t="shared" si="6"/>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="X114" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
@@ -8250,10 +8250,10 @@
       <c r="C115" s="27">
         <v>230041700126</v>
       </c>
-      <c r="D115" s="33">
+      <c r="D115" s="31">
         <v>13</v>
       </c>
-      <c r="E115" s="33">
+      <c r="E115" s="31">
         <v>17</v>
       </c>
       <c r="F115" s="2">
@@ -8287,7 +8287,7 @@
         <v>4</v>
       </c>
       <c r="U115" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V115" s="17">
         <f t="shared" si="6"/>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="X115" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
@@ -8312,10 +8312,10 @@
       <c r="C116" s="25">
         <v>230041700127</v>
       </c>
-      <c r="D116" s="33">
+      <c r="D116" s="31">
         <v>13</v>
       </c>
-      <c r="E116" s="33">
+      <c r="E116" s="31">
         <v>18</v>
       </c>
       <c r="F116" s="2">
@@ -8349,7 +8349,7 @@
         <v>5</v>
       </c>
       <c r="U116" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V116" s="17">
         <f t="shared" si="6"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="X116" s="17">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
@@ -8374,10 +8374,10 @@
       <c r="C117" s="27">
         <v>230041700128</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D117" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="33">
+      <c r="E117" s="31">
         <v>10</v>
       </c>
       <c r="F117" s="2">
@@ -8411,7 +8411,7 @@
         <v>4</v>
       </c>
       <c r="U117" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V117" s="17">
         <f t="shared" si="6"/>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="X117" s="17">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -8436,10 +8436,10 @@
       <c r="C118" s="25">
         <v>230041700129</v>
       </c>
-      <c r="D118" s="33">
-        <v>0</v>
-      </c>
-      <c r="E118" s="33">
+      <c r="D118" s="31">
+        <v>0</v>
+      </c>
+      <c r="E118" s="31">
         <v>6</v>
       </c>
       <c r="F118" s="2">
@@ -8498,10 +8498,10 @@
       <c r="C119" s="25">
         <v>230041700131</v>
       </c>
-      <c r="D119" s="33">
+      <c r="D119" s="31">
         <v>16</v>
       </c>
-      <c r="E119" s="33">
+      <c r="E119" s="31">
         <v>12</v>
       </c>
       <c r="F119" s="2">
@@ -8560,10 +8560,10 @@
       <c r="C120" s="27">
         <v>230041700132</v>
       </c>
-      <c r="D120" s="34">
+      <c r="D120" s="32">
         <v>14</v>
       </c>
-      <c r="E120" s="34">
+      <c r="E120" s="32">
         <v>13</v>
       </c>
       <c r="F120" s="23">
@@ -8621,10 +8621,10 @@
       <c r="C121" s="27">
         <v>230041700134</v>
       </c>
-      <c r="D121" s="34">
+      <c r="D121" s="32">
         <v>12</v>
       </c>
-      <c r="E121" s="34">
+      <c r="E121" s="32">
         <v>8</v>
       </c>
       <c r="F121" s="23">
@@ -8679,10 +8679,10 @@
       <c r="C122" s="27">
         <v>230041700136</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E122" s="34">
+      <c r="E122" s="32">
         <v>12</v>
       </c>
       <c r="F122" s="23">
@@ -8708,7 +8708,7 @@
         <v>4</v>
       </c>
       <c r="U122" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V122" s="17">
         <f t="shared" si="6"/>
@@ -8720,7 +8720,7 @@
       </c>
       <c r="X122" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
@@ -8805,20 +8805,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U63" sqref="U63:U122"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63:K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="21">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
         <v>60</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="21">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="21">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N15" s="2">
         <v>56</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="21">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N19" s="2">
         <v>52</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="21">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21" s="2">
         <v>60</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N23" s="2">
         <v>60</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N29" s="2">
         <v>50</v>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="21">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N37" s="2">
         <v>55</v>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="21">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N41" s="2">
         <v>20</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="21">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N45" s="2">
         <v>60</v>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="21">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N48" s="2">
         <v>52</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N51" s="2">
         <v>56</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="21">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N55" s="2">
         <v>40</v>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="21">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="21">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="21">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N62" s="2">
         <v>40</v>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N66" s="2">
         <v>55</v>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N68" s="2">
         <v>60</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="21">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N71" s="2">
         <v>52</v>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="21">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="21">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="21">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="21">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N91" s="2">
         <v>50</v>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="21">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N94" s="2">
         <v>56</v>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N100" s="2">
         <v>50</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N104" s="2">
         <v>52</v>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="21">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="21">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="21">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="21">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="21">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N117" s="2">
         <v>50</v>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N118" s="2">
         <v>56</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O121" s="21">
         <f t="shared" si="5"/>
@@ -8699,7 +8699,7 @@
         <v>5</v>
       </c>
       <c r="K122" s="21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S122" s="21">
         <v>3</v>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="197">
   <si>
     <t>S.N</t>
   </si>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,11 +1337,9 @@
       <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>122</v>
-      </c>
+      <c r="B3" s="18"/>
       <c r="C3" s="19">
-        <v>230041700001</v>
+        <v>240041700001</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1397,15 +1395,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="B4" s="20"/>
       <c r="C4" s="21">
-        <v>230041700002</v>
+        <v>240041700002</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1461,11 +1457,9 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>124</v>
-      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="19">
-        <v>230041700003</v>
+        <v>240041700003</v>
       </c>
       <c r="D5" s="1">
         <v>29</v>
@@ -1523,11 +1517,9 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="21">
-        <v>230041700004</v>
+        <v>240041700004</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -1585,11 +1577,9 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="19">
-        <v>230041700005</v>
+        <v>240041700005</v>
       </c>
       <c r="D7" s="1">
         <v>27</v>
@@ -1647,11 +1637,9 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="B8" s="20"/>
       <c r="C8" s="21">
-        <v>230041700008</v>
+        <v>240041700006</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1709,11 +1697,9 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="21">
-        <v>230041700010</v>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19">
+        <v>240041700007</v>
       </c>
       <c r="D9" s="1">
         <v>19</v>
@@ -1767,15 +1753,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="B10" s="20"/>
       <c r="C10" s="21">
-        <v>230041700012</v>
+        <v>240041700008</v>
       </c>
       <c r="D10" s="1">
         <v>13</v>
@@ -1833,11 +1817,9 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="B11" s="18"/>
       <c r="C11" s="19">
-        <v>230041700013</v>
+        <v>240041700009</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -1893,11 +1875,9 @@
       <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="B12" s="20"/>
       <c r="C12" s="21">
-        <v>230041700014</v>
+        <v>240041700010</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1953,11 +1933,9 @@
       <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="19">
-        <v>230041700015</v>
+        <v>240041700011</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -2015,11 +1993,9 @@
       <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="21">
-        <v>230041700016</v>
+        <v>240041700012</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
@@ -2075,11 +2051,9 @@
       <c r="A15" s="22">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="19">
-        <v>230041700017</v>
+        <v>240041700013</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -2137,11 +2111,9 @@
       <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="21">
-        <v>230041700018</v>
+        <v>240041700014</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -2197,11 +2169,9 @@
       <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>130</v>
-      </c>
+      <c r="B17" s="18"/>
       <c r="C17" s="19">
-        <v>230041700019</v>
+        <v>240041700015</v>
       </c>
       <c r="D17" s="1">
         <v>12</v>
@@ -2255,15 +2225,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="19">
-        <v>230041700021</v>
+      <c r="B18" s="18"/>
+      <c r="C18" s="21">
+        <v>240041700016</v>
       </c>
       <c r="D18" s="1">
         <v>18</v>
@@ -2315,15 +2283,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>17</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="21">
-        <v>230041700022</v>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19">
+        <v>240041700017</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -2381,11 +2347,9 @@
       <c r="A20" s="22">
         <v>18</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="19">
-        <v>230041700023</v>
+      <c r="B20" s="18"/>
+      <c r="C20" s="21">
+        <v>240041700018</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -2437,15 +2401,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="21">
-        <v>230041700024</v>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19">
+        <v>240041700019</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -2499,15 +2461,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="19">
-        <v>230041700025</v>
+      <c r="B22" s="18"/>
+      <c r="C22" s="21">
+        <v>240041700020</v>
       </c>
       <c r="D22" s="1">
         <v>26</v>
@@ -2565,11 +2525,9 @@
       <c r="A23" s="22">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="21">
-        <v>230041700026</v>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19">
+        <v>240041700021</v>
       </c>
       <c r="D23" s="1">
         <v>15</v>
@@ -2623,15 +2581,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="19">
-        <v>230041700027</v>
+      <c r="B24" s="18"/>
+      <c r="C24" s="21">
+        <v>240041700022</v>
       </c>
       <c r="D24" s="1">
         <v>17</v>
@@ -2689,11 +2645,9 @@
       <c r="A25" s="22">
         <v>23</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="21">
-        <v>230041700028</v>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19">
+        <v>240041700023</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -2745,15 +2699,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="19">
-        <v>230041700029</v>
+      <c r="B26" s="18"/>
+      <c r="C26" s="21">
+        <v>240041700024</v>
       </c>
       <c r="D26" s="1">
         <v>12</v>
@@ -2811,11 +2763,9 @@
       <c r="A27" s="22">
         <v>25</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="21">
-        <v>230041700030</v>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19">
+        <v>240041700025</v>
       </c>
       <c r="D27" s="1">
         <v>8</v>
@@ -2871,11 +2821,9 @@
       <c r="A28" s="22">
         <v>26</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="B28" s="20"/>
       <c r="C28" s="21">
-        <v>230041700032</v>
+        <v>240041700026</v>
       </c>
       <c r="D28" s="1">
         <v>22</v>
@@ -2933,11 +2881,9 @@
       <c r="A29" s="22">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>139</v>
-      </c>
+      <c r="B29" s="18"/>
       <c r="C29" s="19">
-        <v>230041700033</v>
+        <v>240041700027</v>
       </c>
       <c r="D29" s="1">
         <v>12</v>
@@ -2995,11 +2941,9 @@
       <c r="A30" s="22">
         <v>28</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="21">
-        <v>230041700034</v>
+        <v>240041700028</v>
       </c>
       <c r="D30" s="1">
         <v>16</v>
@@ -3055,11 +2999,9 @@
       <c r="A31" s="22">
         <v>29</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="B31" s="18"/>
       <c r="C31" s="19">
-        <v>230041700035</v>
+        <v>240041700029</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>19</v>
@@ -3111,15 +3053,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="B32" s="20"/>
       <c r="C32" s="21">
-        <v>230041700036</v>
+        <v>240041700030</v>
       </c>
       <c r="D32" s="1">
         <v>16</v>
@@ -3173,15 +3113,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>31</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>141</v>
-      </c>
+      <c r="B33" s="18"/>
       <c r="C33" s="19">
-        <v>230041700037</v>
+        <v>240041700031</v>
       </c>
       <c r="D33" s="1">
         <v>17</v>
@@ -3235,15 +3173,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B34" s="20"/>
       <c r="C34" s="21">
-        <v>230041700038</v>
+        <v>240041700032</v>
       </c>
       <c r="D34" s="1">
         <v>13</v>
@@ -3297,15 +3233,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>46</v>
-      </c>
+      <c r="B35" s="18"/>
       <c r="C35" s="19">
-        <v>230041700039</v>
+        <v>240041700033</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -3363,11 +3297,9 @@
       <c r="A36" s="22">
         <v>34</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="21">
-        <v>230041700040</v>
+        <v>240041700034</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
@@ -3425,11 +3357,9 @@
       <c r="A37" s="22">
         <v>35</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>143</v>
-      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="19">
-        <v>230041700041</v>
+        <v>240041700035</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -3487,11 +3417,9 @@
       <c r="A38" s="22">
         <v>36</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="B38" s="20"/>
       <c r="C38" s="21">
-        <v>230041700042</v>
+        <v>240041700036</v>
       </c>
       <c r="D38" s="1">
         <v>19</v>
@@ -3549,11 +3477,9 @@
       <c r="A39" s="22">
         <v>37</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="19">
-        <v>230041700043</v>
+        <v>240041700037</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -3609,11 +3535,9 @@
       <c r="A40" s="22">
         <v>38</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>144</v>
-      </c>
+      <c r="B40" s="20"/>
       <c r="C40" s="21">
-        <v>230041700044</v>
+        <v>240041700038</v>
       </c>
       <c r="D40" s="1">
         <v>12</v>
@@ -3667,15 +3591,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>39</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>145</v>
-      </c>
+      <c r="B41" s="18"/>
       <c r="C41" s="19">
-        <v>230041700045</v>
+        <v>240041700039</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3733,11 +3655,9 @@
       <c r="A42" s="22">
         <v>40</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="B42" s="20"/>
       <c r="C42" s="21">
-        <v>230041700046</v>
+        <v>240041700040</v>
       </c>
       <c r="D42" s="1">
         <v>12</v>
@@ -3789,15 +3709,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>41</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="B43" s="18"/>
       <c r="C43" s="19">
-        <v>230041700047</v>
+        <v>240041700041</v>
       </c>
       <c r="D43" s="1">
         <v>18</v>
@@ -3851,15 +3769,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="21">
-        <v>230041700048</v>
+        <v>240041700042</v>
       </c>
       <c r="D44" s="1">
         <v>19</v>
@@ -3917,11 +3833,9 @@
       <c r="A45" s="22">
         <v>43</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="21">
-        <v>230041700050</v>
+      <c r="B45" s="20"/>
+      <c r="C45" s="19">
+        <v>240041700043</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -3975,15 +3889,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="19">
-        <v>230041700051</v>
+      <c r="B46" s="18"/>
+      <c r="C46" s="21">
+        <v>240041700044</v>
       </c>
       <c r="D46" s="1">
         <v>22</v>
@@ -4041,11 +3953,9 @@
       <c r="A47" s="22">
         <v>45</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="21">
-        <v>230041700052</v>
+      <c r="B47" s="20"/>
+      <c r="C47" s="19">
+        <v>240041700045</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
@@ -4101,11 +4011,9 @@
       <c r="A48" s="22">
         <v>46</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="19">
-        <v>230041700053</v>
+      <c r="B48" s="18"/>
+      <c r="C48" s="21">
+        <v>240041700046</v>
       </c>
       <c r="D48" s="1">
         <v>16</v>
@@ -4163,11 +4071,9 @@
       <c r="A49" s="22">
         <v>47</v>
       </c>
-      <c r="B49" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="21">
-        <v>230041700056</v>
+      <c r="B49" s="20"/>
+      <c r="C49" s="19">
+        <v>240041700047</v>
       </c>
       <c r="D49" s="1">
         <v>6</v>
@@ -4225,11 +4131,9 @@
       <c r="A50" s="22">
         <v>48</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="19">
-        <v>230041700057</v>
+      <c r="B50" s="18"/>
+      <c r="C50" s="21">
+        <v>240041700048</v>
       </c>
       <c r="D50" s="1">
         <v>12</v>
@@ -4287,11 +4191,9 @@
       <c r="A51" s="22">
         <v>49</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="21">
-        <v>230041700058</v>
+      <c r="B51" s="20"/>
+      <c r="C51" s="19">
+        <v>240041700049</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>19</v>
@@ -4349,11 +4251,9 @@
       <c r="A52" s="22">
         <v>50</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="19">
-        <v>230041700059</v>
+      <c r="B52" s="18"/>
+      <c r="C52" s="21">
+        <v>240041700050</v>
       </c>
       <c r="D52" s="1">
         <v>6</v>
@@ -4411,11 +4311,9 @@
       <c r="A53" s="22">
         <v>51</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="21">
-        <v>230041700060</v>
+      <c r="B53" s="20"/>
+      <c r="C53" s="19">
+        <v>240041700051</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -4467,15 +4365,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>52</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="19">
-        <v>230041700061</v>
+      <c r="B54" s="18"/>
+      <c r="C54" s="21">
+        <v>240041700052</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
@@ -4531,11 +4427,9 @@
       <c r="A55" s="22">
         <v>53</v>
       </c>
-      <c r="B55" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="21">
-        <v>230041700062</v>
+      <c r="B55" s="20"/>
+      <c r="C55" s="19">
+        <v>240041700053</v>
       </c>
       <c r="D55" s="1">
         <v>14</v>
@@ -4589,15 +4483,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>54</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="19">
-        <v>230041700063</v>
+      <c r="B56" s="18"/>
+      <c r="C56" s="21">
+        <v>240041700054</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>19</v>
@@ -4649,15 +4541,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>55</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="21">
-        <v>230041700064</v>
+      <c r="B57" s="20"/>
+      <c r="C57" s="19">
+        <v>240041700055</v>
       </c>
       <c r="D57" s="1">
         <v>12</v>
@@ -4711,15 +4601,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>56</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="19">
-        <v>230041700065</v>
+      <c r="B58" s="18"/>
+      <c r="C58" s="21">
+        <v>240041700056</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -4775,11 +4663,9 @@
       <c r="A59" s="22">
         <v>57</v>
       </c>
-      <c r="B59" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="21">
-        <v>230041700066</v>
+      <c r="B59" s="20"/>
+      <c r="C59" s="19">
+        <v>240041700057</v>
       </c>
       <c r="D59" s="1">
         <v>14</v>
@@ -4837,11 +4723,9 @@
       <c r="A60" s="22">
         <v>58</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="19">
-        <v>230041700067</v>
+      <c r="B60" s="18"/>
+      <c r="C60" s="21">
+        <v>240041700058</v>
       </c>
       <c r="D60" s="1">
         <v>2</v>
@@ -4897,11 +4781,9 @@
       <c r="A61" s="22">
         <v>59</v>
       </c>
-      <c r="B61" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="21">
-        <v>230041700068</v>
+      <c r="B61" s="20"/>
+      <c r="C61" s="19">
+        <v>240041700059</v>
       </c>
       <c r="D61" s="1">
         <v>2</v>
@@ -4959,11 +4841,9 @@
       <c r="A62" s="22">
         <v>60</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="19">
-        <v>230041700069</v>
+      <c r="B62" s="18"/>
+      <c r="C62" s="21">
+        <v>240041700060</v>
       </c>
       <c r="D62" s="1">
         <v>5</v>
@@ -5021,11 +4901,9 @@
       <c r="A63" s="22">
         <v>61</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="21">
-        <v>230041700070</v>
+      <c r="B63" s="20"/>
+      <c r="C63" s="19">
+        <v>240041700061</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
@@ -5077,15 +4955,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>62</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="19">
-        <v>230041700071</v>
+      <c r="B64" s="18"/>
+      <c r="C64" s="21">
+        <v>240041700062</v>
       </c>
       <c r="D64" s="1">
         <v>21</v>
@@ -5143,11 +5019,9 @@
       <c r="A65" s="22">
         <v>63</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" s="21">
-        <v>230041700072</v>
+      <c r="B65" s="20"/>
+      <c r="C65" s="19">
+        <v>240041700063</v>
       </c>
       <c r="D65" s="1">
         <v>15</v>
@@ -5205,11 +5079,9 @@
       <c r="A66" s="22">
         <v>64</v>
       </c>
-      <c r="B66" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="19">
-        <v>230041700073</v>
+      <c r="B66" s="18"/>
+      <c r="C66" s="21">
+        <v>240041700064</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>19</v>
@@ -5267,11 +5139,9 @@
       <c r="A67" s="22">
         <v>65</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="21">
-        <v>230041700074</v>
+      <c r="B67" s="20"/>
+      <c r="C67" s="19">
+        <v>240041700065</v>
       </c>
       <c r="D67" s="1">
         <v>26</v>
@@ -5329,11 +5199,9 @@
       <c r="A68" s="22">
         <v>66</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="19">
-        <v>230041700075</v>
+      <c r="B68" s="18"/>
+      <c r="C68" s="21">
+        <v>240041700066</v>
       </c>
       <c r="D68" s="1">
         <v>12</v>
@@ -5387,15 +5255,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>67</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="21">
-        <v>230041700076</v>
+      <c r="B69" s="20"/>
+      <c r="C69" s="19">
+        <v>240041700067</v>
       </c>
       <c r="D69" s="1">
         <v>17</v>
@@ -5453,11 +5319,9 @@
       <c r="A70" s="22">
         <v>68</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="19">
-        <v>230041700077</v>
+      <c r="B70" s="18"/>
+      <c r="C70" s="21">
+        <v>240041700068</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>19</v>
@@ -5509,15 +5373,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>69</v>
       </c>
-      <c r="B71" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="21">
-        <v>230041700078</v>
+      <c r="B71" s="20"/>
+      <c r="C71" s="19">
+        <v>240041700069</v>
       </c>
       <c r="D71" s="1">
         <v>13</v>
@@ -5575,11 +5437,9 @@
       <c r="A72" s="22">
         <v>70</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" s="19">
-        <v>230041700079</v>
+      <c r="B72" s="18"/>
+      <c r="C72" s="21">
+        <v>240041700070</v>
       </c>
       <c r="D72" s="1">
         <v>18</v>
@@ -5637,11 +5497,9 @@
       <c r="A73" s="22">
         <v>71</v>
       </c>
-      <c r="B73" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="21">
-        <v>230041700080</v>
+      <c r="B73" s="20"/>
+      <c r="C73" s="19">
+        <v>240041700071</v>
       </c>
       <c r="D73" s="1">
         <v>13</v>
@@ -5699,11 +5557,9 @@
       <c r="A74" s="22">
         <v>72</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="19">
-        <v>230041700081</v>
+      <c r="B74" s="18"/>
+      <c r="C74" s="21">
+        <v>240041700072</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>19</v>
@@ -5759,11 +5615,9 @@
       <c r="A75" s="22">
         <v>73</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="21">
-        <v>230041700082</v>
+      <c r="B75" s="20"/>
+      <c r="C75" s="19">
+        <v>240041700073</v>
       </c>
       <c r="D75" s="1">
         <v>15</v>
@@ -5821,11 +5675,9 @@
       <c r="A76" s="22">
         <v>74</v>
       </c>
-      <c r="B76" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="19">
-        <v>230041700083</v>
+      <c r="B76" s="18"/>
+      <c r="C76" s="21">
+        <v>240041700074</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>19</v>
@@ -5881,11 +5733,9 @@
       <c r="A77" s="22">
         <v>75</v>
       </c>
-      <c r="B77" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="21">
-        <v>230041700084</v>
+      <c r="B77" s="20"/>
+      <c r="C77" s="19">
+        <v>240041700075</v>
       </c>
       <c r="D77" s="1">
         <v>19</v>
@@ -5939,15 +5789,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>76</v>
       </c>
-      <c r="B78" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="B78" s="20"/>
       <c r="C78" s="21">
-        <v>230041700086</v>
+        <v>240041700076</v>
       </c>
       <c r="D78" s="1">
         <v>13</v>
@@ -5999,15 +5847,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>77</v>
       </c>
-      <c r="B79" s="18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B79" s="18"/>
       <c r="C79" s="19">
-        <v>230041700087</v>
+        <v>240041700077</v>
       </c>
       <c r="D79" s="1">
         <v>14</v>
@@ -6065,11 +5911,9 @@
       <c r="A80" s="22">
         <v>78</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>170</v>
-      </c>
+      <c r="B80" s="20"/>
       <c r="C80" s="21">
-        <v>230041700088</v>
+        <v>240041700078</v>
       </c>
       <c r="D80" s="1">
         <v>19</v>
@@ -6123,15 +5967,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>79</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>171</v>
-      </c>
+      <c r="B81" s="18"/>
       <c r="C81" s="19">
-        <v>230041700089</v>
+        <v>240041700079</v>
       </c>
       <c r="D81" s="1">
         <v>12</v>
@@ -6187,11 +6029,9 @@
       <c r="A82" s="22">
         <v>80</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="B82" s="20"/>
       <c r="C82" s="21">
-        <v>230041700090</v>
+        <v>240041700080</v>
       </c>
       <c r="D82" s="1">
         <v>13</v>
@@ -6247,11 +6087,9 @@
       <c r="A83" s="22">
         <v>81</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>172</v>
-      </c>
+      <c r="B83" s="18"/>
       <c r="C83" s="19">
-        <v>230041700091</v>
+        <v>240041700081</v>
       </c>
       <c r="D83" s="1">
         <v>7</v>
@@ -6307,11 +6145,9 @@
       <c r="A84" s="22">
         <v>82</v>
       </c>
-      <c r="B84" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="B84" s="20"/>
       <c r="C84" s="21">
-        <v>230041700092</v>
+        <v>240041700082</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -6367,11 +6203,9 @@
       <c r="A85" s="22">
         <v>83</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>172</v>
-      </c>
+      <c r="B85" s="18"/>
       <c r="C85" s="19">
-        <v>230041700093</v>
+        <v>240041700083</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>19</v>
@@ -6423,15 +6257,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>84</v>
       </c>
-      <c r="B86" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="B86" s="20"/>
       <c r="C86" s="21">
-        <v>230041700094</v>
+        <v>240041700084</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>19</v>
@@ -6483,15 +6315,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
-      <c r="B87" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="B87" s="18"/>
       <c r="C87" s="19">
-        <v>230041700095</v>
+        <v>240041700085</v>
       </c>
       <c r="D87" s="1">
         <v>14</v>
@@ -6545,15 +6375,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
-      <c r="B88" s="20" t="s">
-        <v>173</v>
-      </c>
+      <c r="B88" s="20"/>
       <c r="C88" s="21">
-        <v>230041700096</v>
+        <v>240041700086</v>
       </c>
       <c r="D88" s="1">
         <v>19</v>
@@ -6611,11 +6439,9 @@
       <c r="A89" s="22">
         <v>87</v>
       </c>
-      <c r="B89" s="18" t="s">
-        <v>86</v>
-      </c>
+      <c r="B89" s="18"/>
       <c r="C89" s="19">
-        <v>230041700097</v>
+        <v>240041700087</v>
       </c>
       <c r="D89" s="1">
         <v>16</v>
@@ -6673,11 +6499,9 @@
       <c r="A90" s="22">
         <v>88</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="B90" s="20"/>
       <c r="C90" s="21">
-        <v>230041700098</v>
+        <v>240041700088</v>
       </c>
       <c r="D90" s="1">
         <v>12</v>
@@ -6735,11 +6559,9 @@
       <c r="A91" s="22">
         <v>89</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="B91" s="18"/>
       <c r="C91" s="19">
-        <v>230041700099</v>
+        <v>240041700089</v>
       </c>
       <c r="D91" s="1">
         <v>9</v>
@@ -6797,11 +6619,9 @@
       <c r="A92" s="22">
         <v>90</v>
       </c>
-      <c r="B92" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="B92" s="20"/>
       <c r="C92" s="21">
-        <v>230041700100</v>
+        <v>240041700090</v>
       </c>
       <c r="D92" s="1">
         <v>7</v>
@@ -6859,11 +6679,9 @@
       <c r="A93" s="22">
         <v>91</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="B93" s="18"/>
       <c r="C93" s="19">
-        <v>230041700101</v>
+        <v>240041700091</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -6919,11 +6737,9 @@
       <c r="A94" s="22">
         <v>92</v>
       </c>
-      <c r="B94" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="B94" s="20"/>
       <c r="C94" s="21">
-        <v>230041700102</v>
+        <v>240041700092</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
@@ -6981,11 +6797,9 @@
       <c r="A95" s="22">
         <v>93</v>
       </c>
-      <c r="B95" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="B95" s="18"/>
       <c r="C95" s="19">
-        <v>230041700103</v>
+        <v>240041700093</v>
       </c>
       <c r="D95" s="1">
         <v>3</v>
@@ -7041,11 +6855,9 @@
       <c r="A96" s="22">
         <v>94</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="B96" s="20"/>
       <c r="C96" s="21">
-        <v>230041700104</v>
+        <v>240041700094</v>
       </c>
       <c r="D96" s="1">
         <v>12</v>
@@ -7103,11 +6915,9 @@
       <c r="A97" s="22">
         <v>95</v>
       </c>
-      <c r="B97" s="18" t="s">
-        <v>175</v>
-      </c>
+      <c r="B97" s="18"/>
       <c r="C97" s="19">
-        <v>230041700105</v>
+        <v>240041700095</v>
       </c>
       <c r="D97" s="1">
         <v>19</v>
@@ -7161,15 +6971,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>96</v>
       </c>
-      <c r="B98" s="20" t="s">
-        <v>176</v>
-      </c>
+      <c r="B98" s="20"/>
       <c r="C98" s="21">
-        <v>230041700106</v>
+        <v>240041700096</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>19</v>
@@ -7225,11 +7033,9 @@
       <c r="A99" s="22">
         <v>97</v>
       </c>
-      <c r="B99" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C99" s="21">
-        <v>230041700108</v>
+      <c r="B99" s="20"/>
+      <c r="C99" s="19">
+        <v>240041700097</v>
       </c>
       <c r="D99" s="1">
         <v>23</v>
@@ -7283,15 +7089,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>98</v>
       </c>
-      <c r="B100" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="19">
-        <v>230041700109</v>
+      <c r="B100" s="18"/>
+      <c r="C100" s="21">
+        <v>240041700098</v>
       </c>
       <c r="D100" s="1">
         <v>5</v>
@@ -7345,15 +7149,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>99</v>
       </c>
-      <c r="B101" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="21">
-        <v>230041700110</v>
+      <c r="B101" s="20"/>
+      <c r="C101" s="19">
+        <v>240041700099</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>19</v>
@@ -7407,15 +7209,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>100</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="19">
-        <v>230041700111</v>
+      <c r="B102" s="18"/>
+      <c r="C102" s="21">
+        <v>240041700100</v>
       </c>
       <c r="D102" s="1">
         <v>18</v>
@@ -7469,15 +7269,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>101</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C103" s="21">
-        <v>230041700112</v>
+      <c r="B103" s="20"/>
+      <c r="C103" s="19">
+        <v>240041700101</v>
       </c>
       <c r="D103" s="1">
         <v>16</v>
@@ -7535,11 +7333,9 @@
       <c r="A104" s="22">
         <v>102</v>
       </c>
-      <c r="B104" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C104" s="19">
-        <v>230041700113</v>
+      <c r="B104" s="18"/>
+      <c r="C104" s="21">
+        <v>240041700102</v>
       </c>
       <c r="D104" s="1">
         <v>12</v>
@@ -7597,11 +7393,9 @@
       <c r="A105" s="22">
         <v>103</v>
       </c>
-      <c r="B105" s="18" t="s">
-        <v>102</v>
-      </c>
+      <c r="B105" s="18"/>
       <c r="C105" s="19">
-        <v>230041700115</v>
+        <v>240041700103</v>
       </c>
       <c r="D105" s="1">
         <v>12</v>
@@ -7657,11 +7451,9 @@
       <c r="A106" s="22">
         <v>104</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="B106" s="20"/>
       <c r="C106" s="21">
-        <v>230041700116</v>
+        <v>240041700104</v>
       </c>
       <c r="D106" s="1">
         <v>22</v>
@@ -7719,11 +7511,9 @@
       <c r="A107" s="22">
         <v>105</v>
       </c>
-      <c r="B107" s="18" t="s">
-        <v>182</v>
-      </c>
+      <c r="B107" s="18"/>
       <c r="C107" s="19">
-        <v>230041700117</v>
+        <v>240041700105</v>
       </c>
       <c r="D107" s="1">
         <v>13</v>
@@ -7779,11 +7569,9 @@
       <c r="A108" s="22">
         <v>106</v>
       </c>
-      <c r="B108" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="B108" s="20"/>
       <c r="C108" s="21">
-        <v>230041700118</v>
+        <v>240041700106</v>
       </c>
       <c r="D108" s="1">
         <v>17</v>
@@ -7839,11 +7627,9 @@
       <c r="A109" s="22">
         <v>107</v>
       </c>
-      <c r="B109" s="18" t="s">
-        <v>184</v>
-      </c>
+      <c r="B109" s="18"/>
       <c r="C109" s="19">
-        <v>230041700119</v>
+        <v>240041700107</v>
       </c>
       <c r="D109" s="1">
         <v>7</v>
@@ -7899,11 +7685,9 @@
       <c r="A110" s="22">
         <v>108</v>
       </c>
-      <c r="B110" s="20" t="s">
-        <v>184</v>
-      </c>
+      <c r="B110" s="20"/>
       <c r="C110" s="21">
-        <v>230041700120</v>
+        <v>240041700108</v>
       </c>
       <c r="D110" s="1">
         <v>12</v>
@@ -7955,15 +7739,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>109</v>
       </c>
-      <c r="B111" s="18" t="s">
-        <v>105</v>
-      </c>
+      <c r="B111" s="18"/>
       <c r="C111" s="19">
-        <v>230041700121</v>
+        <v>240041700109</v>
       </c>
       <c r="D111" s="1">
         <v>12</v>
@@ -8021,11 +7803,9 @@
       <c r="A112" s="22">
         <v>110</v>
       </c>
-      <c r="B112" s="20" t="s">
-        <v>185</v>
-      </c>
+      <c r="B112" s="20"/>
       <c r="C112" s="21">
-        <v>230041700122</v>
+        <v>240041700110</v>
       </c>
       <c r="D112" s="1">
         <v>12</v>
@@ -8079,15 +7859,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>111</v>
       </c>
-      <c r="B113" s="18" t="s">
-        <v>186</v>
-      </c>
+      <c r="B113" s="18"/>
       <c r="C113" s="19">
-        <v>230041700123</v>
+        <v>240041700111</v>
       </c>
       <c r="D113" s="1">
         <v>12</v>
@@ -8139,15 +7917,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>112</v>
       </c>
-      <c r="B114" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="B114" s="20"/>
       <c r="C114" s="21">
-        <v>230041700124</v>
+        <v>240041700112</v>
       </c>
       <c r="D114" s="1">
         <v>9</v>
@@ -8203,11 +7979,9 @@
       <c r="A115" s="22">
         <v>113</v>
       </c>
-      <c r="B115" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" s="21">
-        <v>230041700126</v>
+      <c r="B115" s="20"/>
+      <c r="C115" s="19">
+        <v>240041700113</v>
       </c>
       <c r="D115" s="1">
         <v>13</v>
@@ -8265,11 +8039,9 @@
       <c r="A116" s="22">
         <v>114</v>
       </c>
-      <c r="B116" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C116" s="19">
-        <v>230041700127</v>
+      <c r="B116" s="18"/>
+      <c r="C116" s="21">
+        <v>240041700114</v>
       </c>
       <c r="D116" s="1">
         <v>13</v>
@@ -8327,11 +8099,9 @@
       <c r="A117" s="22">
         <v>115</v>
       </c>
-      <c r="B117" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" s="21">
-        <v>230041700128</v>
+      <c r="B117" s="20"/>
+      <c r="C117" s="19">
+        <v>240041700115</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>19</v>
@@ -8389,11 +8159,9 @@
       <c r="A118" s="22">
         <v>116</v>
       </c>
-      <c r="B118" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C118" s="19">
-        <v>230041700129</v>
+      <c r="B118" s="18"/>
+      <c r="C118" s="21">
+        <v>240041700116</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
@@ -8451,11 +8219,9 @@
       <c r="A119" s="22">
         <v>117</v>
       </c>
-      <c r="B119" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="B119" s="18"/>
       <c r="C119" s="19">
-        <v>230041700131</v>
+        <v>240041700117</v>
       </c>
       <c r="D119" s="1">
         <v>16</v>
@@ -8513,11 +8279,9 @@
       <c r="A120" s="22">
         <v>118</v>
       </c>
-      <c r="B120" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="B120" s="20"/>
       <c r="C120" s="21">
-        <v>230041700132</v>
+        <v>240041700118</v>
       </c>
       <c r="D120" s="16">
         <v>14</v>
@@ -8574,11 +8338,9 @@
       <c r="A121" s="22">
         <v>119</v>
       </c>
-      <c r="B121" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C121" s="21">
-        <v>230041700134</v>
+      <c r="B121" s="20"/>
+      <c r="C121" s="19">
+        <v>240041700119</v>
       </c>
       <c r="D121" s="16">
         <v>12</v>
@@ -8632,11 +8394,9 @@
       <c r="A122" s="22">
         <v>120</v>
       </c>
-      <c r="B122" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="B122" s="20"/>
       <c r="C122" s="21">
-        <v>230041700136</v>
+        <v>240041700120</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>19</v>
@@ -19329,7 +19089,7 @@
         <v>55</v>
       </c>
       <c r="O99" s="16">
-        <f t="shared" ref="O99:O130" si="16">N99*5/60</f>
+        <f t="shared" ref="O99:O121" si="16">N99*5/60</f>
         <v>4.583333333333333</v>
       </c>
       <c r="S99" s="16">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="197">
   <si>
     <t>S.N</t>
   </si>
@@ -1245,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X133"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C122"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,12 +1257,10 @@
     <col min="2" max="2" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="9.140625" style="16"/>
-    <col min="13" max="21" width="9.140625" style="16"/>
-    <col min="22" max="22" width="10.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="16"/>
+    <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>121</v>
       </c>
@@ -1277,7 +1275,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:24" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1314,26 +1312,8 @@
       <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -1341,61 +1321,16 @@
       <c r="C3" s="19">
         <v>240041700001</v>
       </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H66" si="0">O3</f>
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1">
-        <v>60</v>
-      </c>
-      <c r="O3" s="16">
-        <f t="shared" ref="O3:O66" si="1">N3*5/60</f>
-        <v>5</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12">
-        <v>5</v>
-      </c>
-      <c r="T3" s="12">
-        <v>4</v>
-      </c>
-      <c r="U3" s="12">
-        <v>5</v>
-      </c>
-      <c r="V3" s="12">
-        <f t="shared" ref="V3:X34" si="2">SUM(D3)+G3+S3</f>
-        <v>13.5</v>
-      </c>
-      <c r="W3" s="12">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="X3" s="12">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -1403,57 +1338,16 @@
       <c r="C4" s="21">
         <v>240041700002</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>20</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="16">
-        <v>3</v>
-      </c>
-      <c r="T4" s="16">
-        <v>4</v>
-      </c>
-      <c r="U4" s="16">
-        <v>3</v>
-      </c>
-      <c r="V4" s="12">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="W4" s="12">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="X4" s="12">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -1461,59 +1355,16 @@
       <c r="C5" s="19">
         <v>240041700003</v>
       </c>
-      <c r="D5" s="1">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <v>39</v>
-      </c>
-      <c r="N5" s="1">
-        <v>56</v>
-      </c>
-      <c r="O5" s="16">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S5" s="16">
-        <v>5</v>
-      </c>
-      <c r="T5" s="16">
-        <v>5</v>
-      </c>
-      <c r="U5" s="16">
-        <v>5</v>
-      </c>
-      <c r="V5" s="12">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="W5" s="12">
-        <f t="shared" si="2"/>
-        <v>38.666666666666664</v>
-      </c>
-      <c r="X5" s="12">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -1521,59 +1372,16 @@
       <c r="C6" s="21">
         <v>240041700004</v>
       </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>24</v>
-      </c>
-      <c r="N6" s="1">
-        <v>55</v>
-      </c>
-      <c r="O6" s="16">
-        <f t="shared" si="1"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S6" s="16">
-        <v>1</v>
-      </c>
-      <c r="T6" s="16">
-        <v>4</v>
-      </c>
-      <c r="U6" s="16">
-        <v>4</v>
-      </c>
-      <c r="V6" s="12">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="W6" s="12">
-        <f t="shared" si="2"/>
-        <v>24.583333333333332</v>
-      </c>
-      <c r="X6" s="12">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -1581,59 +1389,16 @@
       <c r="C7" s="19">
         <v>240041700005</v>
       </c>
-      <c r="D7" s="1">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>34</v>
-      </c>
-      <c r="N7" s="1">
-        <v>60</v>
-      </c>
-      <c r="O7" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S7" s="16">
-        <v>5</v>
-      </c>
-      <c r="T7" s="16">
-        <v>5</v>
-      </c>
-      <c r="U7" s="16">
-        <v>5</v>
-      </c>
-      <c r="V7" s="12">
-        <f t="shared" si="2"/>
-        <v>36.5</v>
-      </c>
-      <c r="W7" s="12">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="X7" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -1641,59 +1406,16 @@
       <c r="C8" s="21">
         <v>240041700006</v>
       </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1">
-        <v>20</v>
-      </c>
-      <c r="N8" s="1">
-        <v>45</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-      <c r="S8" s="16">
-        <v>4</v>
-      </c>
-      <c r="T8" s="16">
-        <v>4</v>
-      </c>
-      <c r="U8" s="16">
-        <v>3</v>
-      </c>
-      <c r="V8" s="12">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="W8" s="12">
-        <f t="shared" si="2"/>
-        <v>17.75</v>
-      </c>
-      <c r="X8" s="12">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -1701,59 +1423,16 @@
       <c r="C9" s="19">
         <v>240041700007</v>
       </c>
-      <c r="D9" s="1">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>5</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1">
-        <v>25</v>
-      </c>
-      <c r="N9" s="1">
-        <v>60</v>
-      </c>
-      <c r="O9" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16">
-        <v>2</v>
-      </c>
-      <c r="U9" s="16">
-        <v>2</v>
-      </c>
-      <c r="V9" s="12">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="W9" s="12">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="X9" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -1761,59 +1440,16 @@
       <c r="C10" s="21">
         <v>240041700008</v>
       </c>
-      <c r="D10" s="1">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1">
-        <v>25</v>
-      </c>
-      <c r="N10" s="1">
-        <v>60</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S10" s="16">
-        <v>4</v>
-      </c>
-      <c r="T10" s="16">
-        <v>4</v>
-      </c>
-      <c r="U10" s="16">
-        <v>5</v>
-      </c>
-      <c r="V10" s="12">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="W10" s="12">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="X10" s="12">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -1821,57 +1457,16 @@
       <c r="C11" s="19">
         <v>240041700009</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="16">
-        <v>0</v>
-      </c>
-      <c r="T11" s="16">
-        <v>0</v>
-      </c>
-      <c r="U11" s="16">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -1879,57 +1474,16 @@
       <c r="C12" s="21">
         <v>240041700010</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1">
-        <v>17</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="16">
-        <v>1</v>
-      </c>
-      <c r="T12" s="16">
-        <v>3</v>
-      </c>
-      <c r="U12" s="16">
-        <v>3</v>
-      </c>
-      <c r="V12" s="12">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="W12" s="12">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="X12" s="12">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -1937,59 +1491,16 @@
       <c r="C13" s="19">
         <v>240041700011</v>
       </c>
-      <c r="D13" s="1">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1">
-        <v>33</v>
-      </c>
-      <c r="N13" s="1">
-        <v>56</v>
-      </c>
-      <c r="O13" s="16">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S13" s="16">
-        <v>4</v>
-      </c>
-      <c r="T13" s="16">
-        <v>5</v>
-      </c>
-      <c r="U13" s="16">
-        <v>4</v>
-      </c>
-      <c r="V13" s="12">
-        <f t="shared" si="2"/>
-        <v>33.5</v>
-      </c>
-      <c r="W13" s="12">
-        <f t="shared" si="2"/>
-        <v>25.666666666666668</v>
-      </c>
-      <c r="X13" s="12">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -1997,57 +1508,16 @@
       <c r="C14" s="21">
         <v>240041700012</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>5</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1">
-        <v>21</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="16">
-        <v>4</v>
-      </c>
-      <c r="T14" s="16">
-        <v>5</v>
-      </c>
-      <c r="U14" s="16">
-        <v>3</v>
-      </c>
-      <c r="V14" s="12">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="W14" s="12">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="X14" s="12">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -2055,59 +1525,16 @@
       <c r="C15" s="19">
         <v>240041700013</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I15" s="1">
-        <v>5</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1">
-        <v>20</v>
-      </c>
-      <c r="N15" s="1">
-        <v>56</v>
-      </c>
-      <c r="O15" s="16">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S15" s="16">
-        <v>4</v>
-      </c>
-      <c r="T15" s="16">
-        <v>3</v>
-      </c>
-      <c r="U15" s="16">
-        <v>5</v>
-      </c>
-      <c r="V15" s="12">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="W15" s="12">
-        <f t="shared" si="2"/>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="X15" s="12">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -2115,57 +1542,16 @@
       <c r="C16" s="21">
         <v>240041700014</v>
       </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1">
-        <v>17</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="16">
-        <v>0</v>
-      </c>
-      <c r="T16" s="16">
-        <v>4</v>
-      </c>
-      <c r="U16" s="16">
-        <v>3</v>
-      </c>
-      <c r="V16" s="12">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="W16" s="12">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X16" s="12">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -2173,59 +1559,16 @@
       <c r="C17" s="19">
         <v>240041700015</v>
       </c>
-      <c r="D17" s="1">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <v>20</v>
-      </c>
-      <c r="N17" s="1">
-        <v>55</v>
-      </c>
-      <c r="O17" s="16">
-        <f t="shared" si="1"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S17" s="16">
-        <v>1</v>
-      </c>
-      <c r="T17" s="16">
-        <v>4</v>
-      </c>
-      <c r="U17" s="16">
-        <v>5</v>
-      </c>
-      <c r="V17" s="12">
-        <f t="shared" si="2"/>
-        <v>17.5</v>
-      </c>
-      <c r="W17" s="12">
-        <f t="shared" si="2"/>
-        <v>21.583333333333332</v>
-      </c>
-      <c r="X17" s="12">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -2233,57 +1576,16 @@
       <c r="C18" s="21">
         <v>240041700016</v>
       </c>
-      <c r="D18" s="1">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1">
-        <v>22</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="16">
-        <v>4</v>
-      </c>
-      <c r="T18" s="16">
-        <v>3</v>
-      </c>
-      <c r="U18" s="16">
-        <v>3</v>
-      </c>
-      <c r="V18" s="12">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="W18" s="12">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="X18" s="12">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -2291,59 +1593,16 @@
       <c r="C19" s="19">
         <v>240041700017</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="I19" s="1">
-        <v>5</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <v>20</v>
-      </c>
-      <c r="N19" s="1">
-        <v>52</v>
-      </c>
-      <c r="O19" s="16">
-        <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="S19" s="16">
-        <v>0</v>
-      </c>
-      <c r="T19" s="16">
-        <v>3</v>
-      </c>
-      <c r="U19" s="16">
-        <v>3</v>
-      </c>
-      <c r="V19" s="12">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="W19" s="12">
-        <f t="shared" si="2"/>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="X19" s="12">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>18</v>
       </c>
@@ -2351,57 +1610,16 @@
       <c r="C20" s="21">
         <v>240041700018</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1">
-        <v>17</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="16">
-        <v>3</v>
-      </c>
-      <c r="T20" s="16">
-        <v>4</v>
-      </c>
-      <c r="U20" s="16">
-        <v>2</v>
-      </c>
-      <c r="V20" s="12">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="W20" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X20" s="12">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -2409,59 +1627,16 @@
       <c r="C21" s="19">
         <v>240041700019</v>
       </c>
-      <c r="D21" s="1">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1">
-        <v>22</v>
-      </c>
-      <c r="F21" s="1">
-        <v>22</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I21" s="1">
-        <v>5</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1">
-        <v>32</v>
-      </c>
-      <c r="N21" s="1">
-        <v>60</v>
-      </c>
-      <c r="O21" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S21" s="16">
-        <v>2</v>
-      </c>
-      <c r="T21" s="16">
-        <v>5</v>
-      </c>
-      <c r="U21" s="16">
-        <v>4</v>
-      </c>
-      <c r="V21" s="12">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="W21" s="12">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="X21" s="12">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -2469,59 +1644,16 @@
       <c r="C22" s="21">
         <v>240041700020</v>
       </c>
-      <c r="D22" s="1">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1">
-        <v>24</v>
-      </c>
-      <c r="F22" s="1">
-        <v>21</v>
-      </c>
-      <c r="G22" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I22" s="1">
-        <v>5</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
-        <v>35</v>
-      </c>
-      <c r="N22" s="1">
-        <v>56</v>
-      </c>
-      <c r="O22" s="16">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S22" s="16">
-        <v>5</v>
-      </c>
-      <c r="T22" s="16">
-        <v>5</v>
-      </c>
-      <c r="U22" s="16">
-        <v>5</v>
-      </c>
-      <c r="V22" s="12">
-        <f t="shared" si="2"/>
-        <v>35.5</v>
-      </c>
-      <c r="W22" s="12">
-        <f t="shared" si="2"/>
-        <v>33.666666666666671</v>
-      </c>
-      <c r="X22" s="12">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -2529,59 +1661,16 @@
       <c r="C23" s="19">
         <v>240041700021</v>
       </c>
-      <c r="D23" s="1">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
-        <v>20</v>
-      </c>
-      <c r="N23" s="1">
-        <v>60</v>
-      </c>
-      <c r="O23" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S23" s="16">
-        <v>3</v>
-      </c>
-      <c r="T23" s="16">
-        <v>4</v>
-      </c>
-      <c r="U23" s="16">
-        <v>3</v>
-      </c>
-      <c r="V23" s="12">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="W23" s="12">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="X23" s="12">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -2589,59 +1678,16 @@
       <c r="C24" s="21">
         <v>240041700022</v>
       </c>
-      <c r="D24" s="1">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I24" s="1">
-        <v>5</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1">
-        <v>31</v>
-      </c>
-      <c r="N24" s="1">
-        <v>60</v>
-      </c>
-      <c r="O24" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S24" s="16">
-        <v>5</v>
-      </c>
-      <c r="T24" s="16">
-        <v>5</v>
-      </c>
-      <c r="U24" s="16">
-        <v>5</v>
-      </c>
-      <c r="V24" s="12">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="W24" s="12">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="X24" s="12">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
@@ -2649,57 +1695,16 @@
       <c r="C25" s="19">
         <v>240041700023</v>
       </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1">
-        <v>3</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="16">
-        <v>3</v>
-      </c>
-      <c r="T25" s="16">
-        <v>0</v>
-      </c>
-      <c r="U25" s="16">
-        <v>0</v>
-      </c>
-      <c r="V25" s="12">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="W25" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -2707,59 +1712,16 @@
       <c r="C26" s="21">
         <v>240041700024</v>
       </c>
-      <c r="D26" s="1">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1">
-        <v>19</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="1">
-        <v>5</v>
-      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1">
-        <v>26</v>
-      </c>
-      <c r="N26" s="1">
-        <v>60</v>
-      </c>
-      <c r="O26" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S26" s="16">
-        <v>5</v>
-      </c>
-      <c r="T26" s="16">
-        <v>5</v>
-      </c>
-      <c r="U26" s="16">
-        <v>5</v>
-      </c>
-      <c r="V26" s="12">
-        <f t="shared" si="2"/>
-        <v>20.5</v>
-      </c>
-      <c r="W26" s="12">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="X26" s="12">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -2767,57 +1729,16 @@
       <c r="C27" s="19">
         <v>240041700025</v>
       </c>
-      <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1">
-        <v>7</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1">
-        <v>17</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="16">
-        <v>4</v>
-      </c>
-      <c r="T27" s="16">
-        <v>4</v>
-      </c>
-      <c r="U27" s="16">
-        <v>1</v>
-      </c>
-      <c r="V27" s="12">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="W27" s="12">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="X27" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -2825,59 +1746,16 @@
       <c r="C28" s="21">
         <v>240041700026</v>
       </c>
-      <c r="D28" s="1">
-        <v>22</v>
-      </c>
-      <c r="E28" s="1">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1">
-        <v>20</v>
-      </c>
-      <c r="G28" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I28" s="1">
-        <v>5</v>
-      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1">
-        <v>31</v>
-      </c>
-      <c r="N28" s="1">
-        <v>60</v>
-      </c>
-      <c r="O28" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S28" s="16">
-        <v>5</v>
-      </c>
-      <c r="T28" s="16">
-        <v>5</v>
-      </c>
-      <c r="U28" s="16">
-        <v>5</v>
-      </c>
-      <c r="V28" s="12">
-        <f t="shared" si="2"/>
-        <v>31.5</v>
-      </c>
-      <c r="W28" s="12">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="X28" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -2885,59 +1763,16 @@
       <c r="C29" s="19">
         <v>240041700027</v>
       </c>
-      <c r="D29" s="1">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="0"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1">
-        <v>20</v>
-      </c>
-      <c r="N29" s="1">
-        <v>50</v>
-      </c>
-      <c r="O29" s="16">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="S29" s="16">
-        <v>4</v>
-      </c>
-      <c r="T29" s="16">
-        <v>4</v>
-      </c>
-      <c r="U29" s="16">
-        <v>3</v>
-      </c>
-      <c r="V29" s="12">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="W29" s="12">
-        <f t="shared" si="2"/>
-        <v>13.166666666666668</v>
-      </c>
-      <c r="X29" s="12">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -2945,57 +1780,16 @@
       <c r="C30" s="21">
         <v>240041700028</v>
       </c>
-      <c r="D30" s="1">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1">
-        <v>12</v>
-      </c>
-      <c r="G30" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>5</v>
-      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1">
-        <v>22</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="16">
-        <v>4</v>
-      </c>
-      <c r="T30" s="16">
-        <v>4</v>
-      </c>
-      <c r="U30" s="16">
-        <v>2</v>
-      </c>
-      <c r="V30" s="12">
-        <f t="shared" si="2"/>
-        <v>24.5</v>
-      </c>
-      <c r="W30" s="12">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="X30" s="12">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -3003,57 +1797,16 @@
       <c r="C31" s="19">
         <v>240041700029</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="16">
-        <v>0</v>
-      </c>
-      <c r="T31" s="16">
-        <v>0</v>
-      </c>
-      <c r="U31" s="16">
-        <v>0</v>
-      </c>
-      <c r="V31" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
@@ -3061,59 +1814,16 @@
       <c r="C32" s="21">
         <v>240041700030</v>
       </c>
-      <c r="D32" s="1">
-        <v>16</v>
-      </c>
-      <c r="E32" s="1">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="0"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I32" s="1">
-        <v>5</v>
-      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1">
-        <v>20</v>
-      </c>
-      <c r="N32" s="1">
-        <v>55</v>
-      </c>
-      <c r="O32" s="16">
-        <f t="shared" si="1"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S32" s="16">
-        <v>4</v>
-      </c>
-      <c r="T32" s="16">
-        <v>5</v>
-      </c>
-      <c r="U32" s="16">
-        <v>3</v>
-      </c>
-      <c r="V32" s="12">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="W32" s="12">
-        <f t="shared" si="2"/>
-        <v>18.583333333333332</v>
-      </c>
-      <c r="X32" s="12">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -3121,59 +1831,16 @@
       <c r="C33" s="19">
         <v>240041700031</v>
       </c>
-      <c r="D33" s="1">
-        <v>17</v>
-      </c>
-      <c r="E33" s="1">
-        <v>15</v>
-      </c>
-      <c r="F33" s="1">
-        <v>12</v>
-      </c>
-      <c r="G33" s="1">
-        <v>5</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="I33" s="1">
-        <v>5</v>
-      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1">
-        <v>23</v>
-      </c>
-      <c r="N33" s="1">
-        <v>45</v>
-      </c>
-      <c r="O33" s="16">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-      <c r="S33" s="16">
-        <v>1</v>
-      </c>
-      <c r="T33" s="16">
-        <v>4</v>
-      </c>
-      <c r="U33" s="16">
-        <v>3</v>
-      </c>
-      <c r="V33" s="12">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="W33" s="12">
-        <f t="shared" si="2"/>
-        <v>22.75</v>
-      </c>
-      <c r="X33" s="12">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -3181,59 +1848,16 @@
       <c r="C34" s="21">
         <v>240041700032</v>
       </c>
-      <c r="D34" s="1">
-        <v>13</v>
-      </c>
-      <c r="E34" s="1">
-        <v>14</v>
-      </c>
-      <c r="F34" s="1">
-        <v>8</v>
-      </c>
-      <c r="G34" s="1">
-        <v>5</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I34" s="1">
-        <v>5</v>
-      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1">
-        <v>22</v>
-      </c>
-      <c r="N34" s="1">
-        <v>60</v>
-      </c>
-      <c r="O34" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S34" s="16">
-        <v>2</v>
-      </c>
-      <c r="T34" s="16">
-        <v>5</v>
-      </c>
-      <c r="U34" s="16">
-        <v>5</v>
-      </c>
-      <c r="V34" s="12">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="W34" s="12">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="X34" s="12">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -3241,59 +1865,16 @@
       <c r="C35" s="19">
         <v>240041700033</v>
       </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>12</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I35" s="1">
-        <v>5</v>
-      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1">
-        <v>17</v>
-      </c>
-      <c r="N35" s="1">
-        <v>60</v>
-      </c>
-      <c r="O35" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S35" s="16">
-        <v>4</v>
-      </c>
-      <c r="T35" s="16">
-        <v>5</v>
-      </c>
-      <c r="U35" s="16">
-        <v>5</v>
-      </c>
-      <c r="V35" s="12">
-        <f t="shared" ref="V35:X66" si="3">SUM(D35)+G35+S35</f>
-        <v>6</v>
-      </c>
-      <c r="W35" s="12">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="X35" s="12">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -3301,59 +1882,16 @@
       <c r="C36" s="21">
         <v>240041700034</v>
       </c>
-      <c r="D36" s="1">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1">
-        <v>15</v>
-      </c>
-      <c r="F36" s="1">
-        <v>17</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="0"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I36" s="1">
-        <v>5</v>
-      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1">
-        <v>25</v>
-      </c>
-      <c r="N36" s="1">
-        <v>50</v>
-      </c>
-      <c r="O36" s="16">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="S36" s="16">
-        <v>1</v>
-      </c>
-      <c r="T36" s="16">
-        <v>4</v>
-      </c>
-      <c r="U36" s="16">
-        <v>4</v>
-      </c>
-      <c r="V36" s="12">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="W36" s="12">
-        <f t="shared" si="3"/>
-        <v>23.166666666666668</v>
-      </c>
-      <c r="X36" s="12">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>35</v>
       </c>
@@ -3361,59 +1899,16 @@
       <c r="C37" s="19">
         <v>240041700035</v>
       </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1">
-        <v>8</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="0"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1">
-        <v>16</v>
-      </c>
-      <c r="N37" s="1">
-        <v>55</v>
-      </c>
-      <c r="O37" s="16">
-        <f t="shared" si="1"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S37" s="16">
-        <v>1</v>
-      </c>
-      <c r="T37" s="16">
-        <v>4</v>
-      </c>
-      <c r="U37" s="16">
-        <v>3</v>
-      </c>
-      <c r="V37" s="12">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="W37" s="12">
-        <f t="shared" si="3"/>
-        <v>14.583333333333332</v>
-      </c>
-      <c r="X37" s="12">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>36</v>
       </c>
@@ -3421,59 +1916,16 @@
       <c r="C38" s="21">
         <v>240041700036</v>
       </c>
-      <c r="D38" s="1">
-        <v>19</v>
-      </c>
-      <c r="E38" s="1">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1">
-        <v>16</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="0"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I38" s="1">
-        <v>5</v>
-      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1">
-        <v>25</v>
-      </c>
-      <c r="N38" s="1">
-        <v>50</v>
-      </c>
-      <c r="O38" s="16">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="S38" s="16">
-        <v>5</v>
-      </c>
-      <c r="T38" s="16">
-        <v>5</v>
-      </c>
-      <c r="U38" s="16">
-        <v>5</v>
-      </c>
-      <c r="V38" s="12">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="W38" s="12">
-        <f t="shared" si="3"/>
-        <v>22.166666666666668</v>
-      </c>
-      <c r="X38" s="12">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>37</v>
       </c>
@@ -3481,57 +1933,16 @@
       <c r="C39" s="19">
         <v>240041700037</v>
       </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1">
-        <v>9</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1">
-        <v>17</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="16">
-        <v>1</v>
-      </c>
-      <c r="T39" s="16">
-        <v>1</v>
-      </c>
-      <c r="U39" s="16">
-        <v>1</v>
-      </c>
-      <c r="V39" s="12">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W39" s="12">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="X39" s="12">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -3539,59 +1950,16 @@
       <c r="C40" s="21">
         <v>240041700038</v>
       </c>
-      <c r="D40" s="1">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1">
-        <v>8</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I40" s="1">
-        <v>5</v>
-      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1">
-        <v>17</v>
-      </c>
-      <c r="N40" s="1">
-        <v>60</v>
-      </c>
-      <c r="O40" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S40" s="16">
-        <v>4</v>
-      </c>
-      <c r="T40" s="16">
-        <v>5</v>
-      </c>
-      <c r="U40" s="16">
-        <v>1</v>
-      </c>
-      <c r="V40" s="12">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="W40" s="12">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="X40" s="12">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>39</v>
       </c>
@@ -3599,59 +1967,16 @@
       <c r="C41" s="19">
         <v>240041700039</v>
       </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1">
-        <v>17</v>
-      </c>
-      <c r="N41" s="1">
-        <v>20</v>
-      </c>
-      <c r="O41" s="16">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="S41" s="16">
-        <v>4</v>
-      </c>
-      <c r="T41" s="16">
-        <v>3</v>
-      </c>
-      <c r="U41" s="16">
-        <v>2</v>
-      </c>
-      <c r="V41" s="12">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="W41" s="12">
-        <f t="shared" si="3"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="X41" s="12">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -3659,57 +1984,16 @@
       <c r="C42" s="21">
         <v>240041700040</v>
       </c>
-      <c r="D42" s="1">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1">
-        <v>8</v>
-      </c>
-      <c r="F42" s="1">
-        <v>13</v>
-      </c>
-      <c r="G42" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>5</v>
-      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1">
-        <v>21</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="16">
-        <v>4</v>
-      </c>
-      <c r="T42" s="16">
-        <v>4</v>
-      </c>
-      <c r="U42" s="16">
-        <v>3</v>
-      </c>
-      <c r="V42" s="12">
-        <f t="shared" si="3"/>
-        <v>20.5</v>
-      </c>
-      <c r="W42" s="12">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="X42" s="12">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>41</v>
       </c>
@@ -3717,59 +2001,16 @@
       <c r="C43" s="19">
         <v>240041700041</v>
       </c>
-      <c r="D43" s="1">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1">
-        <v>16</v>
-      </c>
-      <c r="F43" s="1">
-        <v>16</v>
-      </c>
-      <c r="G43" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I43" s="1">
-        <v>5</v>
-      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1">
-        <v>27</v>
-      </c>
-      <c r="N43" s="1">
-        <v>60</v>
-      </c>
-      <c r="O43" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S43" s="16">
-        <v>4</v>
-      </c>
-      <c r="T43" s="16">
-        <v>5</v>
-      </c>
-      <c r="U43" s="16">
-        <v>4</v>
-      </c>
-      <c r="V43" s="12">
-        <f t="shared" si="3"/>
-        <v>26.5</v>
-      </c>
-      <c r="W43" s="12">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="X43" s="12">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42</v>
       </c>
@@ -3777,59 +2018,16 @@
       <c r="C44" s="21">
         <v>240041700042</v>
       </c>
-      <c r="D44" s="1">
-        <v>19</v>
-      </c>
-      <c r="E44" s="1">
-        <v>18</v>
-      </c>
-      <c r="F44" s="1">
-        <v>18</v>
-      </c>
-      <c r="G44" s="1">
-        <v>5</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I44" s="1">
-        <v>5</v>
-      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1">
-        <v>29</v>
-      </c>
-      <c r="N44" s="1">
-        <v>60</v>
-      </c>
-      <c r="O44" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S44" s="16">
-        <v>5</v>
-      </c>
-      <c r="T44" s="16">
-        <v>5</v>
-      </c>
-      <c r="U44" s="16">
-        <v>5</v>
-      </c>
-      <c r="V44" s="12">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="W44" s="12">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="X44" s="12">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -3837,59 +2035,16 @@
       <c r="C45" s="19">
         <v>240041700043</v>
       </c>
-      <c r="D45" s="1">
-        <v>5</v>
-      </c>
-      <c r="E45" s="1">
-        <v>9</v>
-      </c>
-      <c r="F45" s="1">
-        <v>12</v>
-      </c>
-      <c r="G45" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I45" s="1">
-        <v>5</v>
-      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1">
-        <v>20</v>
-      </c>
-      <c r="N45" s="1">
-        <v>60</v>
-      </c>
-      <c r="O45" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S45" s="16">
-        <v>4</v>
-      </c>
-      <c r="T45" s="16">
-        <v>5</v>
-      </c>
-      <c r="U45" s="16">
-        <v>4</v>
-      </c>
-      <c r="V45" s="12">
-        <f t="shared" si="3"/>
-        <v>13.5</v>
-      </c>
-      <c r="W45" s="12">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="X45" s="12">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -3897,59 +2052,16 @@
       <c r="C46" s="21">
         <v>240041700044</v>
       </c>
-      <c r="D46" s="1">
-        <v>22</v>
-      </c>
-      <c r="E46" s="1">
-        <v>20</v>
-      </c>
-      <c r="F46" s="1">
-        <v>18</v>
-      </c>
-      <c r="G46" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I46" s="1">
-        <v>5</v>
-      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1">
-        <v>31</v>
-      </c>
-      <c r="N46" s="1">
-        <v>60</v>
-      </c>
-      <c r="O46" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S46" s="16">
-        <v>5</v>
-      </c>
-      <c r="T46" s="16">
-        <v>5</v>
-      </c>
-      <c r="U46" s="16">
-        <v>5</v>
-      </c>
-      <c r="V46" s="12">
-        <f t="shared" si="3"/>
-        <v>31.5</v>
-      </c>
-      <c r="W46" s="12">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="X46" s="12">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -3957,57 +2069,16 @@
       <c r="C47" s="19">
         <v>240041700045</v>
       </c>
-      <c r="D47" s="1">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1">
-        <v>9</v>
-      </c>
-      <c r="F47" s="1">
-        <v>19</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>5</v>
-      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1">
-        <v>20</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="16">
-        <v>3</v>
-      </c>
-      <c r="T47" s="16">
-        <v>4</v>
-      </c>
-      <c r="U47" s="16">
-        <v>3</v>
-      </c>
-      <c r="V47" s="12">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="W47" s="12">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="X47" s="12">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -4015,59 +2086,16 @@
       <c r="C48" s="21">
         <v>240041700046</v>
       </c>
-      <c r="D48" s="1">
-        <v>16</v>
-      </c>
-      <c r="E48" s="1">
-        <v>12</v>
-      </c>
-      <c r="F48" s="1">
-        <v>13</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1">
-        <v>20</v>
-      </c>
-      <c r="N48" s="1">
-        <v>52</v>
-      </c>
-      <c r="O48" s="16">
-        <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="S48" s="16">
-        <v>3</v>
-      </c>
-      <c r="T48" s="16">
-        <v>2</v>
-      </c>
-      <c r="U48" s="16">
-        <v>1</v>
-      </c>
-      <c r="V48" s="12">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="W48" s="12">
-        <f t="shared" si="3"/>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="X48" s="12">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>47</v>
       </c>
@@ -4075,59 +2103,16 @@
       <c r="C49" s="19">
         <v>240041700047</v>
       </c>
-      <c r="D49" s="1">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1">
-        <v>12</v>
-      </c>
-      <c r="F49" s="1">
-        <v>15</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I49" s="1">
-        <v>5</v>
-      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1">
-        <v>23</v>
-      </c>
-      <c r="N49" s="1">
-        <v>56</v>
-      </c>
-      <c r="O49" s="16">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S49" s="16">
-        <v>4</v>
-      </c>
-      <c r="T49" s="16">
-        <v>4</v>
-      </c>
-      <c r="U49" s="16">
-        <v>5</v>
-      </c>
-      <c r="V49" s="12">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="W49" s="12">
-        <f t="shared" si="3"/>
-        <v>20.666666666666668</v>
-      </c>
-      <c r="X49" s="12">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>48</v>
       </c>
@@ -4135,59 +2120,16 @@
       <c r="C50" s="21">
         <v>240041700048</v>
       </c>
-      <c r="D50" s="1">
-        <v>12</v>
-      </c>
-      <c r="E50" s="1">
-        <v>9</v>
-      </c>
-      <c r="F50" s="1">
-        <v>16</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I50" s="1">
-        <v>5</v>
-      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1">
-        <v>22</v>
-      </c>
-      <c r="N50" s="1">
-        <v>56</v>
-      </c>
-      <c r="O50" s="16">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S50" s="16">
-        <v>4</v>
-      </c>
-      <c r="T50" s="16">
-        <v>4</v>
-      </c>
-      <c r="U50" s="16">
-        <v>5</v>
-      </c>
-      <c r="V50" s="12">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="W50" s="12">
-        <f t="shared" si="3"/>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="X50" s="12">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -4195,59 +2137,16 @@
       <c r="C51" s="19">
         <v>240041700049</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="1">
-        <v>3</v>
-      </c>
-      <c r="F51" s="1">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I51" s="1">
-        <v>5</v>
-      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1">
-        <v>20</v>
-      </c>
-      <c r="N51" s="1">
-        <v>56</v>
-      </c>
-      <c r="O51" s="16">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S51" s="16">
-        <v>3</v>
-      </c>
-      <c r="T51" s="16">
-        <v>4</v>
-      </c>
-      <c r="U51" s="16">
-        <v>5</v>
-      </c>
-      <c r="V51" s="12">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="W51" s="12">
-        <f t="shared" si="3"/>
-        <v>11.666666666666668</v>
-      </c>
-      <c r="X51" s="12">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>50</v>
       </c>
@@ -4255,59 +2154,16 @@
       <c r="C52" s="21">
         <v>240041700050</v>
       </c>
-      <c r="D52" s="1">
-        <v>6</v>
-      </c>
-      <c r="E52" s="1">
-        <v>15</v>
-      </c>
-      <c r="F52" s="1">
-        <v>15</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="I52" s="1">
-        <v>5</v>
-      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1">
-        <v>24</v>
-      </c>
-      <c r="N52" s="1">
-        <v>52</v>
-      </c>
-      <c r="O52" s="16">
-        <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="S52" s="16">
-        <v>2</v>
-      </c>
-      <c r="T52" s="16">
-        <v>5</v>
-      </c>
-      <c r="U52" s="16">
-        <v>4</v>
-      </c>
-      <c r="V52" s="12">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="W52" s="12">
-        <f t="shared" si="3"/>
-        <v>24.333333333333332</v>
-      </c>
-      <c r="X52" s="12">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -4315,57 +2171,16 @@
       <c r="C53" s="19">
         <v>240041700051</v>
       </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2</v>
-      </c>
-      <c r="F53" s="1">
-        <v>12</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1">
-        <v>17</v>
-      </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="16">
-        <v>4</v>
-      </c>
-      <c r="T53" s="16">
-        <v>3</v>
-      </c>
-      <c r="U53" s="16">
-        <v>3</v>
-      </c>
-      <c r="V53" s="12">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="W53" s="12">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X53" s="12">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>52</v>
       </c>
@@ -4373,57 +2188,16 @@
       <c r="C54" s="21">
         <v>240041700052</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1">
-        <v>5</v>
-      </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="16">
-        <v>4</v>
-      </c>
-      <c r="T54" s="16">
-        <v>0</v>
-      </c>
-      <c r="U54" s="16">
-        <v>0</v>
-      </c>
-      <c r="V54" s="12">
-        <f t="shared" si="3"/>
-        <v>8.5</v>
-      </c>
-      <c r="W54" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>53</v>
       </c>
@@ -4431,59 +2205,16 @@
       <c r="C55" s="19">
         <v>240041700053</v>
       </c>
-      <c r="D55" s="1">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1">
-        <v>8</v>
-      </c>
-      <c r="F55" s="1">
-        <v>12</v>
-      </c>
-      <c r="G55" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H55" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="I55" s="1">
-        <v>5</v>
-      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="1">
-        <v>22</v>
-      </c>
-      <c r="N55" s="1">
-        <v>40</v>
-      </c>
-      <c r="O55" s="16">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="S55" s="16">
-        <v>4</v>
-      </c>
-      <c r="T55" s="16">
-        <v>4</v>
-      </c>
-      <c r="U55" s="16">
-        <v>3</v>
-      </c>
-      <c r="V55" s="12">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
-      <c r="W55" s="12">
-        <f t="shared" si="3"/>
-        <v>15.333333333333334</v>
-      </c>
-      <c r="X55" s="12">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -4491,57 +2222,16 @@
       <c r="C56" s="21">
         <v>240041700054</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="1">
-        <v>12</v>
-      </c>
-      <c r="F56" s="1">
-        <v>15</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1">
-        <v>17</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="16">
-        <v>0</v>
-      </c>
-      <c r="T56" s="16">
-        <v>3</v>
-      </c>
-      <c r="U56" s="16">
-        <v>2</v>
-      </c>
-      <c r="V56" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W56" s="12">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="X56" s="12">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>55</v>
       </c>
@@ -4549,59 +2239,16 @@
       <c r="C57" s="19">
         <v>240041700055</v>
       </c>
-      <c r="D57" s="1">
-        <v>12</v>
-      </c>
-      <c r="E57" s="1">
-        <v>13</v>
-      </c>
-      <c r="F57" s="1">
-        <v>14</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1">
-        <v>20</v>
-      </c>
-      <c r="N57" s="1">
-        <v>45</v>
-      </c>
-      <c r="O57" s="16">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-      <c r="S57" s="16">
-        <v>4</v>
-      </c>
-      <c r="T57" s="16">
-        <v>4</v>
-      </c>
-      <c r="U57" s="16">
-        <v>4</v>
-      </c>
-      <c r="V57" s="12">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="W57" s="12">
-        <f t="shared" si="3"/>
-        <v>20.75</v>
-      </c>
-      <c r="X57" s="12">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -4609,57 +2256,16 @@
       <c r="C58" s="21">
         <v>240041700056</v>
       </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>9</v>
-      </c>
-      <c r="F58" s="1">
-        <v>12</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1">
-        <v>20</v>
-      </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="16">
-        <v>0</v>
-      </c>
-      <c r="T58" s="16">
-        <v>2</v>
-      </c>
-      <c r="U58" s="16">
-        <v>2</v>
-      </c>
-      <c r="V58" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="W58" s="12">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="X58" s="12">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -4667,59 +2273,16 @@
       <c r="C59" s="19">
         <v>240041700057</v>
       </c>
-      <c r="D59" s="1">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1">
-        <v>12</v>
-      </c>
-      <c r="F59" s="1">
-        <v>13</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I59" s="1">
-        <v>5</v>
-      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1">
-        <v>22</v>
-      </c>
-      <c r="N59" s="1">
-        <v>60</v>
-      </c>
-      <c r="O59" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S59" s="16">
-        <v>4</v>
-      </c>
-      <c r="T59" s="16">
-        <v>4</v>
-      </c>
-      <c r="U59" s="16">
-        <v>5</v>
-      </c>
-      <c r="V59" s="12">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="W59" s="12">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="X59" s="12">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>58</v>
       </c>
@@ -4727,57 +2290,16 @@
       <c r="C60" s="21">
         <v>240041700058</v>
       </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>7</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1">
-        <v>17</v>
-      </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="16">
-        <v>1</v>
-      </c>
-      <c r="T60" s="16">
-        <v>4</v>
-      </c>
-      <c r="U60" s="16">
-        <v>4</v>
-      </c>
-      <c r="V60" s="12">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="W60" s="12">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="X60" s="12">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>59</v>
       </c>
@@ -4785,59 +2307,16 @@
       <c r="C61" s="19">
         <v>240041700059</v>
       </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1">
-        <v>12</v>
-      </c>
-      <c r="F61" s="1">
-        <v>15</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I61" s="1">
-        <v>5</v>
-      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1">
-        <v>21</v>
-      </c>
-      <c r="N61" s="1">
-        <v>60</v>
-      </c>
-      <c r="O61" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S61" s="16">
-        <v>3</v>
-      </c>
-      <c r="T61" s="16">
-        <v>2</v>
-      </c>
-      <c r="U61" s="16">
-        <v>3</v>
-      </c>
-      <c r="V61" s="12">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="W61" s="12">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="X61" s="12">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>60</v>
       </c>
@@ -4845,59 +2324,16 @@
       <c r="C62" s="21">
         <v>240041700060</v>
       </c>
-      <c r="D62" s="1">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1">
-        <v>21</v>
-      </c>
-      <c r="F62" s="1">
-        <v>16</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="I62" s="1">
-        <v>5</v>
-      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="1">
-        <v>26</v>
-      </c>
-      <c r="N62" s="1">
-        <v>40</v>
-      </c>
-      <c r="O62" s="16">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="S62" s="16">
-        <v>3</v>
-      </c>
-      <c r="T62" s="16">
-        <v>4</v>
-      </c>
-      <c r="U62" s="16">
-        <v>2</v>
-      </c>
-      <c r="V62" s="12">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="W62" s="12">
-        <f t="shared" si="3"/>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="X62" s="12">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>61</v>
       </c>
@@ -4905,57 +2341,16 @@
       <c r="C63" s="19">
         <v>240041700061</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
-      <c r="N63" s="1"/>
-      <c r="O63" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="16">
-        <v>0</v>
-      </c>
-      <c r="T63" s="16">
-        <v>0</v>
-      </c>
-      <c r="U63" s="16">
-        <v>0</v>
-      </c>
-      <c r="V63" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X63" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>62</v>
       </c>
@@ -4963,59 +2358,16 @@
       <c r="C64" s="21">
         <v>240041700062</v>
       </c>
-      <c r="D64" s="1">
-        <v>21</v>
-      </c>
-      <c r="E64" s="1">
-        <v>15</v>
-      </c>
-      <c r="F64" s="1">
-        <v>18</v>
-      </c>
-      <c r="G64" s="1">
-        <v>5</v>
-      </c>
-      <c r="H64" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I64" s="1">
-        <v>5</v>
-      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1">
-        <v>29</v>
-      </c>
-      <c r="N64" s="1">
-        <v>60</v>
-      </c>
-      <c r="O64" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S64" s="16">
-        <v>4</v>
-      </c>
-      <c r="T64" s="16">
-        <v>5</v>
-      </c>
-      <c r="U64" s="16">
-        <v>5</v>
-      </c>
-      <c r="V64" s="12">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="W64" s="12">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="X64" s="12">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>63</v>
       </c>
@@ -5023,59 +2375,16 @@
       <c r="C65" s="19">
         <v>240041700063</v>
       </c>
-      <c r="D65" s="1">
-        <v>15</v>
-      </c>
-      <c r="E65" s="1">
-        <v>14</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <f t="shared" si="0"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1">
-        <v>20</v>
-      </c>
-      <c r="N65" s="1">
-        <v>50</v>
-      </c>
-      <c r="O65" s="16">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="S65" s="16">
-        <v>2</v>
-      </c>
-      <c r="T65" s="16">
-        <v>4</v>
-      </c>
-      <c r="U65" s="16">
-        <v>1</v>
-      </c>
-      <c r="V65" s="12">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="W65" s="12">
-        <f t="shared" si="3"/>
-        <v>22.166666666666668</v>
-      </c>
-      <c r="X65" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>64</v>
       </c>
@@ -5083,59 +2392,16 @@
       <c r="C66" s="21">
         <v>240041700064</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="1">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1">
-        <v>4</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <f t="shared" si="0"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I66" s="1">
-        <v>5</v>
-      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1">
-        <v>17</v>
-      </c>
-      <c r="N66" s="1">
-        <v>55</v>
-      </c>
-      <c r="O66" s="16">
-        <f t="shared" si="1"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S66" s="16">
-        <v>1</v>
-      </c>
-      <c r="T66" s="16">
-        <v>3</v>
-      </c>
-      <c r="U66" s="16">
-        <v>2</v>
-      </c>
-      <c r="V66" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="W66" s="12">
-        <f t="shared" si="3"/>
-        <v>11.583333333333332</v>
-      </c>
-      <c r="X66" s="12">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>65</v>
       </c>
@@ -5143,59 +2409,16 @@
       <c r="C67" s="19">
         <v>240041700065</v>
       </c>
-      <c r="D67" s="1">
-        <v>26</v>
-      </c>
-      <c r="E67" s="1">
-        <v>23</v>
-      </c>
-      <c r="F67" s="1">
-        <v>21</v>
-      </c>
-      <c r="G67" s="1">
-        <v>5</v>
-      </c>
-      <c r="H67" s="1">
-        <f t="shared" ref="H67:H122" si="4">O67</f>
-        <v>5</v>
-      </c>
-      <c r="I67" s="1">
-        <v>5</v>
-      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="1">
-        <v>34</v>
-      </c>
-      <c r="N67" s="1">
-        <v>60</v>
-      </c>
-      <c r="O67" s="16">
-        <f t="shared" ref="O67:O121" si="5">N67*5/60</f>
-        <v>5</v>
-      </c>
-      <c r="S67" s="16">
-        <v>4</v>
-      </c>
-      <c r="T67" s="16">
-        <v>5</v>
-      </c>
-      <c r="U67" s="16">
-        <v>5</v>
-      </c>
-      <c r="V67" s="12">
-        <f t="shared" ref="V67:X98" si="6">SUM(D67)+G67+S67</f>
-        <v>35</v>
-      </c>
-      <c r="W67" s="12">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="X67" s="12">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>66</v>
       </c>
@@ -5203,59 +2426,16 @@
       <c r="C68" s="21">
         <v>240041700066</v>
       </c>
-      <c r="D68" s="1">
-        <v>12</v>
-      </c>
-      <c r="E68" s="1">
-        <v>12</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I68" s="1">
-        <v>5</v>
-      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1">
-        <v>20</v>
-      </c>
-      <c r="N68" s="1">
-        <v>60</v>
-      </c>
-      <c r="O68" s="16">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="S68" s="16">
-        <v>3</v>
-      </c>
-      <c r="T68" s="16">
-        <v>4</v>
-      </c>
-      <c r="U68" s="16">
-        <v>1</v>
-      </c>
-      <c r="V68" s="12">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="W68" s="12">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="X68" s="12">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>67</v>
       </c>
@@ -5263,59 +2443,16 @@
       <c r="C69" s="19">
         <v>240041700067</v>
       </c>
-      <c r="D69" s="1">
-        <v>17</v>
-      </c>
-      <c r="E69" s="1">
-        <v>14</v>
-      </c>
-      <c r="F69" s="1">
-        <v>9</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
-        <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="1">
-        <v>20</v>
-      </c>
-      <c r="N69" s="1">
-        <v>50</v>
-      </c>
-      <c r="O69" s="16">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="S69" s="16">
-        <v>2</v>
-      </c>
-      <c r="T69" s="16">
-        <v>3</v>
-      </c>
-      <c r="U69" s="16">
-        <v>2</v>
-      </c>
-      <c r="V69" s="12">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="W69" s="12">
-        <f t="shared" si="6"/>
-        <v>21.166666666666668</v>
-      </c>
-      <c r="X69" s="12">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>68</v>
       </c>
@@ -5323,57 +2460,16 @@
       <c r="C70" s="21">
         <v>240041700068</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="1">
-        <v>2</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1">
-        <v>16</v>
-      </c>
-      <c r="N70" s="1"/>
-      <c r="O70" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S70" s="16">
-        <v>0</v>
-      </c>
-      <c r="T70" s="16">
-        <v>0</v>
-      </c>
-      <c r="U70" s="16">
-        <v>1</v>
-      </c>
-      <c r="V70" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W70" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>69</v>
       </c>
@@ -5381,59 +2477,16 @@
       <c r="C71" s="19">
         <v>240041700069</v>
       </c>
-      <c r="D71" s="1">
-        <v>13</v>
-      </c>
-      <c r="E71" s="1">
-        <v>4</v>
-      </c>
-      <c r="F71" s="1">
-        <v>15</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1">
-        <f t="shared" si="4"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="I71" s="1">
-        <v>5</v>
-      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="1">
-        <v>20</v>
-      </c>
-      <c r="N71" s="1">
-        <v>52</v>
-      </c>
-      <c r="O71" s="16">
-        <f t="shared" si="5"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="S71" s="16">
-        <v>2</v>
-      </c>
-      <c r="T71" s="16">
-        <v>4</v>
-      </c>
-      <c r="U71" s="16">
-        <v>3</v>
-      </c>
-      <c r="V71" s="12">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="W71" s="12">
-        <f t="shared" si="6"/>
-        <v>12.333333333333332</v>
-      </c>
-      <c r="X71" s="12">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>70</v>
       </c>
@@ -5441,59 +2494,16 @@
       <c r="C72" s="21">
         <v>240041700070</v>
       </c>
-      <c r="D72" s="1">
-        <v>18</v>
-      </c>
-      <c r="E72" s="1">
-        <v>13</v>
-      </c>
-      <c r="F72" s="1">
-        <v>13</v>
-      </c>
-      <c r="G72" s="1">
-        <v>5</v>
-      </c>
-      <c r="H72" s="1">
-        <f t="shared" si="4"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="I72" s="1">
-        <v>5</v>
-      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="1">
-        <v>25</v>
-      </c>
-      <c r="N72" s="1">
-        <v>52</v>
-      </c>
-      <c r="O72" s="16">
-        <f t="shared" si="5"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="S72" s="16">
-        <v>4</v>
-      </c>
-      <c r="T72" s="16">
-        <v>5</v>
-      </c>
-      <c r="U72" s="16">
-        <v>5</v>
-      </c>
-      <c r="V72" s="12">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="W72" s="12">
-        <f t="shared" si="6"/>
-        <v>22.333333333333332</v>
-      </c>
-      <c r="X72" s="12">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>71</v>
       </c>
@@ -5501,59 +2511,16 @@
       <c r="C73" s="19">
         <v>240041700071</v>
       </c>
-      <c r="D73" s="1">
-        <v>13</v>
-      </c>
-      <c r="E73" s="1">
-        <v>7</v>
-      </c>
-      <c r="F73" s="1">
-        <v>4</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
-      <c r="H73" s="1">
-        <f t="shared" si="4"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I73" s="1">
-        <v>5</v>
-      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="1">
-        <v>16</v>
-      </c>
-      <c r="N73" s="1">
-        <v>56</v>
-      </c>
-      <c r="O73" s="16">
-        <f t="shared" si="5"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S73" s="16">
-        <v>3</v>
-      </c>
-      <c r="T73" s="16">
-        <v>4</v>
-      </c>
-      <c r="U73" s="16">
-        <v>4</v>
-      </c>
-      <c r="V73" s="12">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="W73" s="12">
-        <f t="shared" si="6"/>
-        <v>15.666666666666668</v>
-      </c>
-      <c r="X73" s="12">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>72</v>
       </c>
@@ -5561,57 +2528,16 @@
       <c r="C74" s="21">
         <v>240041700072</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
-      <c r="H74" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="1">
-        <v>0</v>
-      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1">
-        <v>0</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="16">
-        <v>0</v>
-      </c>
-      <c r="T74" s="16">
-        <v>0</v>
-      </c>
-      <c r="U74" s="16">
-        <v>0</v>
-      </c>
-      <c r="V74" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X74" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>73</v>
       </c>
@@ -5619,59 +2545,16 @@
       <c r="C75" s="19">
         <v>240041700073</v>
       </c>
-      <c r="D75" s="1">
-        <v>15</v>
-      </c>
-      <c r="E75" s="1">
-        <v>13</v>
-      </c>
-      <c r="F75" s="1">
-        <v>7</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <f t="shared" si="4"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I75" s="1">
-        <v>5</v>
-      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="1">
-        <v>20</v>
-      </c>
-      <c r="N75" s="1">
-        <v>56</v>
-      </c>
-      <c r="O75" s="16">
-        <f t="shared" si="5"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S75" s="16">
-        <v>3</v>
-      </c>
-      <c r="T75" s="16">
-        <v>3</v>
-      </c>
-      <c r="U75" s="16">
-        <v>4</v>
-      </c>
-      <c r="V75" s="12">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="W75" s="12">
-        <f t="shared" si="6"/>
-        <v>20.666666666666668</v>
-      </c>
-      <c r="X75" s="12">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>74</v>
       </c>
@@ -5679,57 +2562,16 @@
       <c r="C76" s="21">
         <v>240041700074</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1">
-        <v>0</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S76" s="16">
-        <v>0</v>
-      </c>
-      <c r="T76" s="16">
-        <v>0</v>
-      </c>
-      <c r="U76" s="16">
-        <v>0</v>
-      </c>
-      <c r="V76" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W76" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X76" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>75</v>
       </c>
@@ -5737,59 +2579,16 @@
       <c r="C77" s="19">
         <v>240041700075</v>
       </c>
-      <c r="D77" s="1">
-        <v>19</v>
-      </c>
-      <c r="E77" s="1">
-        <v>13</v>
-      </c>
-      <c r="F77" s="1">
-        <v>13</v>
-      </c>
-      <c r="G77" s="1">
-        <v>5</v>
-      </c>
-      <c r="H77" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I77" s="1">
-        <v>5</v>
-      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1">
-        <v>26</v>
-      </c>
-      <c r="N77" s="1">
-        <v>55</v>
-      </c>
-      <c r="O77" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S77" s="16">
-        <v>5</v>
-      </c>
-      <c r="T77" s="16">
-        <v>5</v>
-      </c>
-      <c r="U77" s="16">
-        <v>5</v>
-      </c>
-      <c r="V77" s="12">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="W77" s="12">
-        <f t="shared" si="6"/>
-        <v>22.583333333333332</v>
-      </c>
-      <c r="X77" s="12">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>76</v>
       </c>
@@ -5797,57 +2596,16 @@
       <c r="C78" s="21">
         <v>240041700076</v>
       </c>
-      <c r="D78" s="1">
-        <v>13</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="1">
-        <v>2</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
-      <c r="H78" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="1">
-        <v>5</v>
-      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1">
-        <v>17</v>
-      </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S78" s="16">
-        <v>2</v>
-      </c>
-      <c r="T78" s="16">
-        <v>0</v>
-      </c>
-      <c r="U78" s="16">
-        <v>2</v>
-      </c>
-      <c r="V78" s="12">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="W78" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X78" s="12">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>77</v>
       </c>
@@ -5855,59 +2613,16 @@
       <c r="C79" s="19">
         <v>240041700077</v>
       </c>
-      <c r="D79" s="1">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1">
-        <v>14</v>
-      </c>
-      <c r="F79" s="1">
-        <v>14</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
-      <c r="H79" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I79" s="1">
-        <v>5</v>
-      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1">
-        <v>24</v>
-      </c>
-      <c r="N79" s="1">
-        <v>60</v>
-      </c>
-      <c r="O79" s="16">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="S79" s="16">
-        <v>3</v>
-      </c>
-      <c r="T79" s="16">
-        <v>5</v>
-      </c>
-      <c r="U79" s="16">
-        <v>5</v>
-      </c>
-      <c r="V79" s="12">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="W79" s="12">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="X79" s="12">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>78</v>
       </c>
@@ -5915,59 +2630,16 @@
       <c r="C80" s="21">
         <v>240041700078</v>
       </c>
-      <c r="D80" s="1">
-        <v>19</v>
-      </c>
-      <c r="E80" s="1">
-        <v>15</v>
-      </c>
-      <c r="F80" s="1">
-        <v>14</v>
-      </c>
-      <c r="G80" s="1">
-        <v>5</v>
-      </c>
-      <c r="H80" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I80" s="1">
-        <v>5</v>
-      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1">
-        <v>27</v>
-      </c>
-      <c r="N80" s="1">
-        <v>55</v>
-      </c>
-      <c r="O80" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S80" s="16">
-        <v>5</v>
-      </c>
-      <c r="T80" s="16">
-        <v>5</v>
-      </c>
-      <c r="U80" s="16">
-        <v>5</v>
-      </c>
-      <c r="V80" s="12">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="W80" s="12">
-        <f t="shared" si="6"/>
-        <v>24.583333333333332</v>
-      </c>
-      <c r="X80" s="12">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>79</v>
       </c>
@@ -5975,57 +2647,16 @@
       <c r="C81" s="19">
         <v>240041700079</v>
       </c>
-      <c r="D81" s="1">
-        <v>12</v>
-      </c>
-      <c r="E81" s="1">
-        <v>3</v>
-      </c>
-      <c r="F81" s="1">
-        <v>3</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0</v>
-      </c>
-      <c r="H81" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="1">
-        <v>5</v>
-      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="1">
-        <v>16</v>
-      </c>
-      <c r="N81" s="1"/>
-      <c r="O81" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S81" s="16">
-        <v>2</v>
-      </c>
-      <c r="T81" s="16">
-        <v>4</v>
-      </c>
-      <c r="U81" s="16">
-        <v>4</v>
-      </c>
-      <c r="V81" s="12">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="W81" s="12">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="X81" s="12">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>80</v>
       </c>
@@ -6033,57 +2664,16 @@
       <c r="C82" s="21">
         <v>240041700080</v>
       </c>
-      <c r="D82" s="1">
-        <v>13</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="1">
-        <v>5</v>
-      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1">
-        <v>16</v>
-      </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S82" s="16">
-        <v>2</v>
-      </c>
-      <c r="T82" s="16">
-        <v>0</v>
-      </c>
-      <c r="U82" s="16">
-        <v>2</v>
-      </c>
-      <c r="V82" s="12">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="W82" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X82" s="12">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>81</v>
       </c>
@@ -6091,57 +2681,16 @@
       <c r="C83" s="19">
         <v>240041700081</v>
       </c>
-      <c r="D83" s="1">
-        <v>7</v>
-      </c>
-      <c r="E83" s="1">
-        <v>6</v>
-      </c>
-      <c r="F83" s="1">
-        <v>9</v>
-      </c>
-      <c r="G83" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H83" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="1">
-        <v>5</v>
-      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="1">
-        <v>18</v>
-      </c>
-      <c r="N83" s="1"/>
-      <c r="O83" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S83" s="16">
-        <v>3</v>
-      </c>
-      <c r="T83" s="16">
-        <v>5</v>
-      </c>
-      <c r="U83" s="16">
-        <v>5</v>
-      </c>
-      <c r="V83" s="12">
-        <f t="shared" si="6"/>
-        <v>14.5</v>
-      </c>
-      <c r="W83" s="12">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="X83" s="12">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>82</v>
       </c>
@@ -6149,57 +2698,16 @@
       <c r="C84" s="21">
         <v>240041700082</v>
       </c>
-      <c r="D84" s="1">
-        <v>4</v>
-      </c>
-      <c r="E84" s="1">
-        <v>8</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="1">
-        <v>0</v>
-      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1">
-        <v>17</v>
-      </c>
-      <c r="N84" s="1"/>
-      <c r="O84" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S84" s="16">
-        <v>2</v>
-      </c>
-      <c r="T84" s="16">
-        <v>3</v>
-      </c>
-      <c r="U84" s="16">
-        <v>3</v>
-      </c>
-      <c r="V84" s="12">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="W84" s="12">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="X84" s="12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>83</v>
       </c>
@@ -6207,57 +2715,16 @@
       <c r="C85" s="19">
         <v>240041700083</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
-      <c r="H85" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="1">
-        <v>0</v>
-      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="1">
-        <v>0</v>
-      </c>
-      <c r="N85" s="1"/>
-      <c r="O85" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S85" s="16">
-        <v>0</v>
-      </c>
-      <c r="T85" s="16">
-        <v>0</v>
-      </c>
-      <c r="U85" s="16">
-        <v>0</v>
-      </c>
-      <c r="V85" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W85" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X85" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>84</v>
       </c>
@@ -6265,57 +2732,16 @@
       <c r="C86" s="21">
         <v>240041700084</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="1">
-        <v>13</v>
-      </c>
-      <c r="F86" s="1">
-        <v>2</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="1">
-        <v>0</v>
-      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="1">
-        <v>16</v>
-      </c>
-      <c r="N86" s="1"/>
-      <c r="O86" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S86" s="16">
-        <v>2</v>
-      </c>
-      <c r="T86" s="16">
-        <v>4</v>
-      </c>
-      <c r="U86" s="16">
-        <v>3</v>
-      </c>
-      <c r="V86" s="12">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="W86" s="12">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="X86" s="12">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
@@ -6323,59 +2749,16 @@
       <c r="C87" s="19">
         <v>240041700085</v>
       </c>
-      <c r="D87" s="1">
-        <v>14</v>
-      </c>
-      <c r="E87" s="1">
-        <v>5</v>
-      </c>
-      <c r="F87" s="1">
-        <v>8</v>
-      </c>
-      <c r="G87" s="1">
-        <v>5</v>
-      </c>
-      <c r="H87" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I87" s="1">
-        <v>5</v>
-      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="1">
-        <v>21</v>
-      </c>
-      <c r="N87" s="1">
-        <v>55</v>
-      </c>
-      <c r="O87" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S87" s="16">
-        <v>4</v>
-      </c>
-      <c r="T87" s="16">
-        <v>5</v>
-      </c>
-      <c r="U87" s="16">
-        <v>5</v>
-      </c>
-      <c r="V87" s="12">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="W87" s="12">
-        <f t="shared" si="6"/>
-        <v>14.583333333333332</v>
-      </c>
-      <c r="X87" s="12">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
@@ -6383,59 +2766,16 @@
       <c r="C88" s="21">
         <v>240041700086</v>
       </c>
-      <c r="D88" s="1">
-        <v>19</v>
-      </c>
-      <c r="E88" s="1">
-        <v>16</v>
-      </c>
-      <c r="F88" s="1">
-        <v>13</v>
-      </c>
-      <c r="G88" s="1">
-        <v>5</v>
-      </c>
-      <c r="H88" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I88" s="1">
-        <v>5</v>
-      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="1">
-        <v>26</v>
-      </c>
-      <c r="N88" s="1">
-        <v>55</v>
-      </c>
-      <c r="O88" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S88" s="16">
-        <v>2</v>
-      </c>
-      <c r="T88" s="16">
-        <v>4</v>
-      </c>
-      <c r="U88" s="16">
-        <v>4</v>
-      </c>
-      <c r="V88" s="12">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="W88" s="12">
-        <f t="shared" si="6"/>
-        <v>24.583333333333332</v>
-      </c>
-      <c r="X88" s="12">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>87</v>
       </c>
@@ -6443,59 +2783,16 @@
       <c r="C89" s="19">
         <v>240041700087</v>
       </c>
-      <c r="D89" s="1">
-        <v>16</v>
-      </c>
-      <c r="E89" s="1">
-        <v>22</v>
-      </c>
-      <c r="F89" s="1">
-        <v>14</v>
-      </c>
-      <c r="G89" s="1">
-        <v>5</v>
-      </c>
-      <c r="H89" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I89" s="1">
-        <v>5</v>
-      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="1">
-        <v>29</v>
-      </c>
-      <c r="N89" s="1">
-        <v>55</v>
-      </c>
-      <c r="O89" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S89" s="16">
-        <v>4</v>
-      </c>
-      <c r="T89" s="16">
-        <v>5</v>
-      </c>
-      <c r="U89" s="16">
-        <v>5</v>
-      </c>
-      <c r="V89" s="12">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="W89" s="12">
-        <f t="shared" si="6"/>
-        <v>31.583333333333332</v>
-      </c>
-      <c r="X89" s="12">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>88</v>
       </c>
@@ -6503,59 +2800,16 @@
       <c r="C90" s="21">
         <v>240041700088</v>
       </c>
-      <c r="D90" s="1">
-        <v>12</v>
-      </c>
-      <c r="E90" s="1">
-        <v>12</v>
-      </c>
-      <c r="F90" s="1">
-        <v>8</v>
-      </c>
-      <c r="G90" s="1">
-        <v>4</v>
-      </c>
-      <c r="H90" s="1">
-        <f t="shared" si="4"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
-      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="1">
-        <v>20</v>
-      </c>
-      <c r="N90" s="1">
-        <v>52</v>
-      </c>
-      <c r="O90" s="16">
-        <f t="shared" si="5"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="S90" s="16">
-        <v>3</v>
-      </c>
-      <c r="T90" s="16">
-        <v>4</v>
-      </c>
-      <c r="U90" s="16">
-        <v>2</v>
-      </c>
-      <c r="V90" s="12">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="W90" s="12">
-        <f t="shared" si="6"/>
-        <v>20.333333333333332</v>
-      </c>
-      <c r="X90" s="12">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>89</v>
       </c>
@@ -6563,59 +2817,16 @@
       <c r="C91" s="19">
         <v>240041700089</v>
       </c>
-      <c r="D91" s="1">
-        <v>9</v>
-      </c>
-      <c r="E91" s="1">
-        <v>2</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0</v>
-      </c>
-      <c r="H91" s="1">
-        <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I91" s="1">
-        <v>5</v>
-      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="1">
-        <v>17</v>
-      </c>
-      <c r="N91" s="1">
-        <v>50</v>
-      </c>
-      <c r="O91" s="16">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="S91" s="16">
-        <v>2</v>
-      </c>
-      <c r="T91" s="16">
-        <v>3</v>
-      </c>
-      <c r="U91" s="16">
-        <v>4</v>
-      </c>
-      <c r="V91" s="12">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="W91" s="12">
-        <f t="shared" si="6"/>
-        <v>9.1666666666666679</v>
-      </c>
-      <c r="X91" s="12">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>90</v>
       </c>
@@ -6623,59 +2834,16 @@
       <c r="C92" s="21">
         <v>240041700090</v>
       </c>
-      <c r="D92" s="1">
-        <v>7</v>
-      </c>
-      <c r="E92" s="1">
-        <v>14</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0</v>
-      </c>
-      <c r="H92" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I92" s="1">
-        <v>0</v>
-      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-      <c r="K92" s="1">
-        <v>16</v>
-      </c>
-      <c r="N92" s="1">
-        <v>48</v>
-      </c>
-      <c r="O92" s="16">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S92" s="16">
-        <v>2</v>
-      </c>
-      <c r="T92" s="16">
-        <v>4</v>
-      </c>
-      <c r="U92" s="16">
-        <v>2</v>
-      </c>
-      <c r="V92" s="12">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="W92" s="12">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="X92" s="12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>91</v>
       </c>
@@ -6683,57 +2851,16 @@
       <c r="C93" s="19">
         <v>240041700091</v>
       </c>
-      <c r="D93" s="1">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-      <c r="F93" s="1">
-        <v>5</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
-      <c r="H93" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="1">
-        <v>5</v>
-      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="1">
-        <v>17</v>
-      </c>
-      <c r="N93" s="1"/>
-      <c r="O93" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="16">
-        <v>3</v>
-      </c>
-      <c r="T93" s="16">
-        <v>3</v>
-      </c>
-      <c r="U93" s="16">
-        <v>4</v>
-      </c>
-      <c r="V93" s="12">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="W93" s="12">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="X93" s="12">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>92</v>
       </c>
@@ -6741,59 +2868,16 @@
       <c r="C94" s="21">
         <v>240041700092</v>
       </c>
-      <c r="D94" s="1">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1">
-        <v>2</v>
-      </c>
-      <c r="G94" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H94" s="1">
-        <f t="shared" si="4"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I94" s="1">
-        <v>5</v>
-      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-      <c r="K94" s="1">
-        <v>17</v>
-      </c>
-      <c r="N94" s="1">
-        <v>56</v>
-      </c>
-      <c r="O94" s="16">
-        <f t="shared" si="5"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S94" s="16">
-        <v>1</v>
-      </c>
-      <c r="T94" s="16">
-        <v>4</v>
-      </c>
-      <c r="U94" s="16">
-        <v>4</v>
-      </c>
-      <c r="V94" s="12">
-        <f t="shared" si="6"/>
-        <v>5.5</v>
-      </c>
-      <c r="W94" s="12">
-        <f t="shared" si="6"/>
-        <v>9.6666666666666679</v>
-      </c>
-      <c r="X94" s="12">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>93</v>
       </c>
@@ -6801,57 +2885,16 @@
       <c r="C95" s="19">
         <v>240041700093</v>
       </c>
-      <c r="D95" s="1">
-        <v>3</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="1">
-        <v>3</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0</v>
-      </c>
-      <c r="H95" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0</v>
-      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
       <c r="J95" s="1"/>
-      <c r="K95" s="1">
-        <v>4</v>
-      </c>
-      <c r="N95" s="1"/>
-      <c r="O95" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S95" s="16">
-        <v>1</v>
-      </c>
-      <c r="T95" s="16">
-        <v>0</v>
-      </c>
-      <c r="U95" s="16">
-        <v>1</v>
-      </c>
-      <c r="V95" s="12">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="W95" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X95" s="12">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>94</v>
       </c>
@@ -6859,59 +2902,16 @@
       <c r="C96" s="21">
         <v>240041700094</v>
       </c>
-      <c r="D96" s="1">
-        <v>12</v>
-      </c>
-      <c r="E96" s="1">
-        <v>12</v>
-      </c>
-      <c r="F96" s="1">
-        <v>18</v>
-      </c>
-      <c r="G96" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H96" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I96" s="1">
-        <v>5</v>
-      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
       <c r="J96" s="1"/>
-      <c r="K96" s="1">
-        <v>25</v>
-      </c>
-      <c r="N96" s="1">
-        <v>60</v>
-      </c>
-      <c r="O96" s="16">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="S96" s="16">
-        <v>4</v>
-      </c>
-      <c r="T96" s="16">
-        <v>5</v>
-      </c>
-      <c r="U96" s="16">
-        <v>5</v>
-      </c>
-      <c r="V96" s="12">
-        <f t="shared" si="6"/>
-        <v>20.5</v>
-      </c>
-      <c r="W96" s="12">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="X96" s="12">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>95</v>
       </c>
@@ -6919,59 +2919,16 @@
       <c r="C97" s="19">
         <v>240041700095</v>
       </c>
-      <c r="D97" s="1">
-        <v>19</v>
-      </c>
-      <c r="E97" s="1">
-        <v>13</v>
-      </c>
-      <c r="F97" s="1">
-        <v>13</v>
-      </c>
-      <c r="G97" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H97" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I97" s="1">
-        <v>5</v>
-      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
       <c r="J97" s="1"/>
-      <c r="K97" s="1">
-        <v>25</v>
-      </c>
-      <c r="N97" s="1">
-        <v>60</v>
-      </c>
-      <c r="O97" s="16">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="S97" s="16">
-        <v>3</v>
-      </c>
-      <c r="T97" s="16">
-        <v>5</v>
-      </c>
-      <c r="U97" s="16">
-        <v>4</v>
-      </c>
-      <c r="V97" s="12">
-        <f t="shared" si="6"/>
-        <v>26.5</v>
-      </c>
-      <c r="W97" s="12">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="X97" s="12">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>96</v>
       </c>
@@ -6979,57 +2936,16 @@
       <c r="C98" s="21">
         <v>240041700096</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
-      <c r="H98" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>0</v>
-      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="1">
-        <v>1</v>
-      </c>
-      <c r="N98" s="1"/>
-      <c r="O98" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S98" s="16">
-        <v>1</v>
-      </c>
-      <c r="T98" s="16">
-        <v>0</v>
-      </c>
-      <c r="U98" s="16">
-        <v>0</v>
-      </c>
-      <c r="V98" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W98" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X98" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>97</v>
       </c>
@@ -7037,59 +2953,16 @@
       <c r="C99" s="19">
         <v>240041700097</v>
       </c>
-      <c r="D99" s="1">
-        <v>23</v>
-      </c>
-      <c r="E99" s="1">
-        <v>22</v>
-      </c>
-      <c r="F99" s="1">
-        <v>25</v>
-      </c>
-      <c r="G99" s="1">
-        <v>5</v>
-      </c>
-      <c r="H99" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I99" s="1">
-        <v>5</v>
-      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
       <c r="J99" s="1"/>
-      <c r="K99" s="1">
-        <v>33</v>
-      </c>
-      <c r="N99" s="1">
-        <v>55</v>
-      </c>
-      <c r="O99" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S99" s="16">
-        <v>3</v>
-      </c>
-      <c r="T99" s="16">
-        <v>4</v>
-      </c>
-      <c r="U99" s="16">
-        <v>5</v>
-      </c>
-      <c r="V99" s="12">
-        <f t="shared" ref="V99:X122" si="7">SUM(D99)+G99+S99</f>
-        <v>31</v>
-      </c>
-      <c r="W99" s="12">
-        <f t="shared" si="7"/>
-        <v>30.583333333333332</v>
-      </c>
-      <c r="X99" s="12">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>98</v>
       </c>
@@ -7097,59 +2970,16 @@
       <c r="C100" s="21">
         <v>240041700098</v>
       </c>
-      <c r="D100" s="1">
-        <v>5</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I100" s="1">
-        <v>0</v>
-      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
       <c r="J100" s="1"/>
-      <c r="K100" s="1">
-        <v>17</v>
-      </c>
-      <c r="N100" s="1">
-        <v>50</v>
-      </c>
-      <c r="O100" s="16">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="S100" s="16">
-        <v>2</v>
-      </c>
-      <c r="T100" s="16">
-        <v>3</v>
-      </c>
-      <c r="U100" s="16">
-        <v>2</v>
-      </c>
-      <c r="V100" s="12">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="W100" s="12">
-        <f t="shared" si="7"/>
-        <v>7.166666666666667</v>
-      </c>
-      <c r="X100" s="12">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>99</v>
       </c>
@@ -7157,59 +2987,16 @@
       <c r="C101" s="19">
         <v>240041700099</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="1">
-        <v>16</v>
-      </c>
-      <c r="F101" s="1">
-        <v>13</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I101" s="1">
-        <v>5</v>
-      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="1">
-        <v>24</v>
-      </c>
-      <c r="N101" s="1">
-        <v>55</v>
-      </c>
-      <c r="O101" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S101" s="16">
-        <v>2</v>
-      </c>
-      <c r="T101" s="16">
-        <v>3</v>
-      </c>
-      <c r="U101" s="16">
-        <v>5</v>
-      </c>
-      <c r="V101" s="12">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W101" s="12">
-        <f t="shared" si="7"/>
-        <v>23.583333333333332</v>
-      </c>
-      <c r="X101" s="12">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>100</v>
       </c>
@@ -7217,59 +3004,16 @@
       <c r="C102" s="21">
         <v>240041700100</v>
       </c>
-      <c r="D102" s="1">
-        <v>18</v>
-      </c>
-      <c r="E102" s="1">
-        <v>18</v>
-      </c>
-      <c r="F102" s="1">
-        <v>17</v>
-      </c>
-      <c r="G102" s="1">
-        <v>5</v>
-      </c>
-      <c r="H102" s="1">
-        <f t="shared" si="4"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I102" s="1">
-        <v>5</v>
-      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
       <c r="J102" s="1"/>
-      <c r="K102" s="1">
-        <v>28</v>
-      </c>
-      <c r="N102" s="1">
-        <v>56</v>
-      </c>
-      <c r="O102" s="16">
-        <f t="shared" si="5"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S102" s="16">
-        <v>4</v>
-      </c>
-      <c r="T102" s="16">
-        <v>5</v>
-      </c>
-      <c r="U102" s="16">
-        <v>5</v>
-      </c>
-      <c r="V102" s="12">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="W102" s="12">
-        <f t="shared" si="7"/>
-        <v>27.666666666666668</v>
-      </c>
-      <c r="X102" s="12">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>101</v>
       </c>
@@ -7277,59 +3021,16 @@
       <c r="C103" s="19">
         <v>240041700101</v>
       </c>
-      <c r="D103" s="1">
-        <v>16</v>
-      </c>
-      <c r="E103" s="1">
-        <v>9</v>
-      </c>
-      <c r="F103" s="1">
-        <v>15</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
-      <c r="H103" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I103" s="1">
-        <v>5</v>
-      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
       <c r="J103" s="1"/>
-      <c r="K103" s="1">
-        <v>23</v>
-      </c>
-      <c r="N103" s="1">
-        <v>55</v>
-      </c>
-      <c r="O103" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S103" s="16">
-        <v>4</v>
-      </c>
-      <c r="T103" s="16">
-        <v>5</v>
-      </c>
-      <c r="U103" s="16">
-        <v>5</v>
-      </c>
-      <c r="V103" s="12">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="W103" s="12">
-        <f t="shared" si="7"/>
-        <v>18.583333333333332</v>
-      </c>
-      <c r="X103" s="12">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>102</v>
       </c>
@@ -7337,59 +3038,16 @@
       <c r="C104" s="21">
         <v>240041700102</v>
       </c>
-      <c r="D104" s="1">
-        <v>12</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
-      <c r="H104" s="1">
-        <f t="shared" si="4"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0</v>
-      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="1">
-        <v>17</v>
-      </c>
-      <c r="N104" s="1">
-        <v>52</v>
-      </c>
-      <c r="O104" s="16">
-        <f t="shared" si="5"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="S104" s="16">
-        <v>3</v>
-      </c>
-      <c r="T104" s="16">
-        <v>1</v>
-      </c>
-      <c r="U104" s="16">
-        <v>0</v>
-      </c>
-      <c r="V104" s="12">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="W104" s="12">
-        <f t="shared" si="7"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="X104" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>103</v>
       </c>
@@ -7397,57 +3055,16 @@
       <c r="C105" s="19">
         <v>240041700103</v>
       </c>
-      <c r="D105" s="1">
-        <v>12</v>
-      </c>
-      <c r="E105" s="1">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0</v>
-      </c>
-      <c r="H105" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="1">
-        <v>0</v>
-      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
       <c r="J105" s="1"/>
-      <c r="K105" s="1">
-        <v>17</v>
-      </c>
-      <c r="N105" s="1"/>
-      <c r="O105" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S105" s="16">
-        <v>2</v>
-      </c>
-      <c r="T105" s="16">
-        <v>5</v>
-      </c>
-      <c r="U105" s="16">
-        <v>2</v>
-      </c>
-      <c r="V105" s="12">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="W105" s="12">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="X105" s="12">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>104</v>
       </c>
@@ -7455,59 +3072,16 @@
       <c r="C106" s="21">
         <v>240041700104</v>
       </c>
-      <c r="D106" s="1">
-        <v>22</v>
-      </c>
-      <c r="E106" s="1">
-        <v>10</v>
-      </c>
-      <c r="F106" s="1">
-        <v>1</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0</v>
-      </c>
-      <c r="H106" s="1">
-        <f t="shared" si="4"/>
-        <v>3.75</v>
-      </c>
-      <c r="I106" s="1">
-        <v>5</v>
-      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
       <c r="J106" s="1"/>
-      <c r="K106" s="1">
-        <v>20</v>
-      </c>
-      <c r="N106" s="1">
-        <v>45</v>
-      </c>
-      <c r="O106" s="16">
-        <f t="shared" si="5"/>
-        <v>3.75</v>
-      </c>
-      <c r="S106" s="16">
-        <v>1</v>
-      </c>
-      <c r="T106" s="16">
-        <v>2</v>
-      </c>
-      <c r="U106" s="16">
-        <v>2</v>
-      </c>
-      <c r="V106" s="12">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="W106" s="12">
-        <f t="shared" si="7"/>
-        <v>15.75</v>
-      </c>
-      <c r="X106" s="12">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <v>105</v>
       </c>
@@ -7515,57 +3089,16 @@
       <c r="C107" s="19">
         <v>240041700105</v>
       </c>
-      <c r="D107" s="1">
-        <v>13</v>
-      </c>
-      <c r="E107" s="1">
-        <v>12</v>
-      </c>
-      <c r="F107" s="1">
-        <v>6</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0</v>
-      </c>
-      <c r="H107" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="1">
-        <v>5</v>
-      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
       <c r="J107" s="1"/>
-      <c r="K107" s="1">
-        <v>16</v>
-      </c>
-      <c r="N107" s="1"/>
-      <c r="O107" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S107" s="16">
-        <v>2</v>
-      </c>
-      <c r="T107" s="16">
-        <v>4</v>
-      </c>
-      <c r="U107" s="16">
-        <v>4</v>
-      </c>
-      <c r="V107" s="12">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="W107" s="12">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="X107" s="12">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>106</v>
       </c>
@@ -7573,57 +3106,16 @@
       <c r="C108" s="21">
         <v>240041700106</v>
       </c>
-      <c r="D108" s="1">
-        <v>17</v>
-      </c>
-      <c r="E108" s="1">
-        <v>0</v>
-      </c>
-      <c r="F108" s="1">
-        <v>4</v>
-      </c>
-      <c r="G108" s="1">
-        <v>5</v>
-      </c>
-      <c r="H108" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="1">
-        <v>5</v>
-      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
       <c r="J108" s="1"/>
-      <c r="K108" s="1">
-        <v>20</v>
-      </c>
-      <c r="N108" s="1"/>
-      <c r="O108" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S108" s="16">
-        <v>4</v>
-      </c>
-      <c r="T108" s="16">
-        <v>4</v>
-      </c>
-      <c r="U108" s="16">
-        <v>4</v>
-      </c>
-      <c r="V108" s="12">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="W108" s="12">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="X108" s="12">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>107</v>
       </c>
@@ -7631,57 +3123,16 @@
       <c r="C109" s="19">
         <v>240041700107</v>
       </c>
-      <c r="D109" s="1">
-        <v>7</v>
-      </c>
-      <c r="E109" s="1">
-        <v>3</v>
-      </c>
-      <c r="F109" s="1">
-        <v>3</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0</v>
-      </c>
-      <c r="H109" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="1">
-        <v>0</v>
-      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
       <c r="J109" s="1"/>
-      <c r="K109" s="1">
-        <v>17</v>
-      </c>
-      <c r="N109" s="1"/>
-      <c r="O109" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S109" s="16">
-        <v>3</v>
-      </c>
-      <c r="T109" s="16">
-        <v>5</v>
-      </c>
-      <c r="U109" s="16">
-        <v>3</v>
-      </c>
-      <c r="V109" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="W109" s="12">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="X109" s="12">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <v>108</v>
       </c>
@@ -7689,57 +3140,16 @@
       <c r="C110" s="21">
         <v>240041700108</v>
       </c>
-      <c r="D110" s="1">
-        <v>12</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0</v>
-      </c>
-      <c r="H110" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="1">
-        <v>0</v>
-      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
       <c r="J110" s="1"/>
-      <c r="K110" s="1">
-        <v>17</v>
-      </c>
-      <c r="N110" s="1"/>
-      <c r="O110" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S110" s="16">
-        <v>1</v>
-      </c>
-      <c r="T110" s="16">
-        <v>0</v>
-      </c>
-      <c r="U110" s="16">
-        <v>0</v>
-      </c>
-      <c r="V110" s="12">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="W110" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X110" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>109</v>
       </c>
@@ -7747,59 +3157,16 @@
       <c r="C111" s="19">
         <v>240041700109</v>
       </c>
-      <c r="D111" s="1">
-        <v>12</v>
-      </c>
-      <c r="E111" s="1">
-        <v>8</v>
-      </c>
-      <c r="F111" s="1">
-        <v>13</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0</v>
-      </c>
-      <c r="H111" s="1">
-        <f t="shared" si="4"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I111" s="1">
-        <v>5</v>
-      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
       <c r="J111" s="1"/>
-      <c r="K111" s="1">
-        <v>21</v>
-      </c>
-      <c r="N111" s="1">
-        <v>56</v>
-      </c>
-      <c r="O111" s="16">
-        <f t="shared" si="5"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S111" s="16">
-        <v>4</v>
-      </c>
-      <c r="T111" s="16">
-        <v>5</v>
-      </c>
-      <c r="U111" s="16">
-        <v>5</v>
-      </c>
-      <c r="V111" s="12">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="W111" s="12">
-        <f t="shared" si="7"/>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="X111" s="12">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>110</v>
       </c>
@@ -7807,59 +3174,16 @@
       <c r="C112" s="21">
         <v>240041700110</v>
       </c>
-      <c r="D112" s="1">
-        <v>12</v>
-      </c>
-      <c r="E112" s="1">
-        <v>4</v>
-      </c>
-      <c r="F112" s="1">
-        <v>0</v>
-      </c>
-      <c r="G112" s="1">
-        <v>0</v>
-      </c>
-      <c r="H112" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="I112" s="1">
-        <v>5</v>
-      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
       <c r="J112" s="1"/>
-      <c r="K112" s="1">
-        <v>16</v>
-      </c>
-      <c r="N112" s="1">
-        <v>30</v>
-      </c>
-      <c r="O112" s="16">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="S112" s="16">
-        <v>3</v>
-      </c>
-      <c r="T112" s="16">
-        <v>3</v>
-      </c>
-      <c r="U112" s="16">
-        <v>3</v>
-      </c>
-      <c r="V112" s="12">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="W112" s="12">
-        <f t="shared" si="7"/>
-        <v>9.5</v>
-      </c>
-      <c r="X112" s="12">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>111</v>
       </c>
@@ -7867,57 +3191,16 @@
       <c r="C113" s="19">
         <v>240041700111</v>
       </c>
-      <c r="D113" s="1">
-        <v>12</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="1">
-        <v>2</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0</v>
-      </c>
-      <c r="H113" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="1">
-        <v>0</v>
-      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
       <c r="J113" s="1"/>
-      <c r="K113" s="1">
-        <v>17</v>
-      </c>
-      <c r="N113" s="1"/>
-      <c r="O113" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S113" s="16">
-        <v>0</v>
-      </c>
-      <c r="T113" s="16">
-        <v>2</v>
-      </c>
-      <c r="U113" s="16">
-        <v>1</v>
-      </c>
-      <c r="V113" s="12">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="W113" s="12">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="X113" s="12">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>112</v>
       </c>
@@ -7925,57 +3208,16 @@
       <c r="C114" s="21">
         <v>240041700112</v>
       </c>
-      <c r="D114" s="1">
-        <v>9</v>
-      </c>
-      <c r="E114" s="1">
-        <v>4</v>
-      </c>
-      <c r="F114" s="1">
-        <v>7</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0</v>
-      </c>
-      <c r="H114" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="1">
-        <v>5</v>
-      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
       <c r="J114" s="1"/>
-      <c r="K114" s="1">
-        <v>16</v>
-      </c>
-      <c r="N114" s="1"/>
-      <c r="O114" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S114" s="16">
-        <v>1</v>
-      </c>
-      <c r="T114" s="16">
-        <v>4</v>
-      </c>
-      <c r="U114" s="16">
-        <v>4</v>
-      </c>
-      <c r="V114" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="W114" s="12">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="X114" s="12">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>113</v>
       </c>
@@ -7983,59 +3225,16 @@
       <c r="C115" s="19">
         <v>240041700113</v>
       </c>
-      <c r="D115" s="1">
-        <v>13</v>
-      </c>
-      <c r="E115" s="1">
-        <v>17</v>
-      </c>
-      <c r="F115" s="1">
-        <v>2</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0</v>
-      </c>
-      <c r="H115" s="1">
-        <f t="shared" si="4"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I115" s="1">
-        <v>5</v>
-      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
       <c r="J115" s="1"/>
-      <c r="K115" s="1">
-        <v>20</v>
-      </c>
-      <c r="N115" s="1">
-        <v>56</v>
-      </c>
-      <c r="O115" s="16">
-        <f t="shared" si="5"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S115" s="16">
-        <v>1</v>
-      </c>
-      <c r="T115" s="16">
-        <v>4</v>
-      </c>
-      <c r="U115" s="16">
-        <v>3</v>
-      </c>
-      <c r="V115" s="12">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="W115" s="12">
-        <f t="shared" si="7"/>
-        <v>25.666666666666668</v>
-      </c>
-      <c r="X115" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>114</v>
       </c>
@@ -8043,59 +3242,16 @@
       <c r="C116" s="21">
         <v>240041700114</v>
       </c>
-      <c r="D116" s="1">
-        <v>13</v>
-      </c>
-      <c r="E116" s="1">
-        <v>18</v>
-      </c>
-      <c r="F116" s="1">
-        <v>12</v>
-      </c>
-      <c r="G116" s="1">
-        <v>0</v>
-      </c>
-      <c r="H116" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I116" s="1">
-        <v>5</v>
-      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
       <c r="J116" s="1"/>
-      <c r="K116" s="1">
-        <v>25</v>
-      </c>
-      <c r="N116" s="1">
-        <v>60</v>
-      </c>
-      <c r="O116" s="16">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="S116" s="16">
-        <v>4</v>
-      </c>
-      <c r="T116" s="16">
-        <v>5</v>
-      </c>
-      <c r="U116" s="16">
-        <v>5</v>
-      </c>
-      <c r="V116" s="12">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="W116" s="12">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="X116" s="12">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <v>115</v>
       </c>
@@ -8103,59 +3259,16 @@
       <c r="C117" s="19">
         <v>240041700115</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="1">
-        <v>10</v>
-      </c>
-      <c r="F117" s="1">
-        <v>6</v>
-      </c>
-      <c r="G117" s="1">
-        <v>0</v>
-      </c>
-      <c r="H117" s="1">
-        <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I117" s="1">
-        <v>5</v>
-      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
       <c r="J117" s="1"/>
-      <c r="K117" s="1">
-        <v>16</v>
-      </c>
-      <c r="N117" s="1">
-        <v>50</v>
-      </c>
-      <c r="O117" s="16">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="S117" s="16">
-        <v>2</v>
-      </c>
-      <c r="T117" s="16">
-        <v>4</v>
-      </c>
-      <c r="U117" s="16">
-        <v>3</v>
-      </c>
-      <c r="V117" s="12">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W117" s="12">
-        <f t="shared" si="7"/>
-        <v>18.166666666666668</v>
-      </c>
-      <c r="X117" s="12">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>116</v>
       </c>
@@ -8163,59 +3276,16 @@
       <c r="C118" s="21">
         <v>240041700116</v>
       </c>
-      <c r="D118" s="1">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1">
-        <v>6</v>
-      </c>
-      <c r="F118" s="1">
-        <v>0</v>
-      </c>
-      <c r="G118" s="1">
-        <v>0</v>
-      </c>
-      <c r="H118" s="1">
-        <f t="shared" si="4"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I118" s="1">
-        <v>5</v>
-      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
       <c r="J118" s="1"/>
-      <c r="K118" s="1">
-        <v>17</v>
-      </c>
-      <c r="N118" s="1">
-        <v>56</v>
-      </c>
-      <c r="O118" s="16">
-        <f t="shared" si="5"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="S118" s="16">
-        <v>2</v>
-      </c>
-      <c r="T118" s="16">
-        <v>4</v>
-      </c>
-      <c r="U118" s="16">
-        <v>4</v>
-      </c>
-      <c r="V118" s="12">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W118" s="12">
-        <f t="shared" si="7"/>
-        <v>14.666666666666668</v>
-      </c>
-      <c r="X118" s="12">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>117</v>
       </c>
@@ -8223,59 +3293,16 @@
       <c r="C119" s="19">
         <v>240041700117</v>
       </c>
-      <c r="D119" s="1">
-        <v>16</v>
-      </c>
-      <c r="E119" s="1">
-        <v>12</v>
-      </c>
-      <c r="F119" s="1">
-        <v>12</v>
-      </c>
-      <c r="G119" s="1">
-        <v>0</v>
-      </c>
-      <c r="H119" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I119" s="1">
-        <v>5</v>
-      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
       <c r="J119" s="1"/>
-      <c r="K119" s="1">
-        <v>22</v>
-      </c>
-      <c r="N119" s="1">
-        <v>55</v>
-      </c>
-      <c r="O119" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S119" s="16">
-        <v>3</v>
-      </c>
-      <c r="T119" s="16">
-        <v>4</v>
-      </c>
-      <c r="U119" s="16">
-        <v>5</v>
-      </c>
-      <c r="V119" s="12">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="W119" s="12">
-        <f t="shared" si="7"/>
-        <v>20.583333333333332</v>
-      </c>
-      <c r="X119" s="12">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>118</v>
       </c>
@@ -8283,58 +3310,11 @@
       <c r="C120" s="21">
         <v>240041700118</v>
       </c>
-      <c r="D120" s="16">
-        <v>14</v>
-      </c>
-      <c r="E120" s="16">
-        <v>13</v>
-      </c>
-      <c r="F120" s="16">
-        <v>7</v>
-      </c>
-      <c r="G120" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H120" s="1">
-        <f t="shared" si="4"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="I120" s="1">
-        <v>0</v>
-      </c>
-      <c r="K120" s="16">
-        <v>23</v>
-      </c>
-      <c r="N120" s="16">
-        <v>55</v>
-      </c>
-      <c r="O120" s="16">
-        <f t="shared" si="5"/>
-        <v>4.583333333333333</v>
-      </c>
-      <c r="S120" s="16">
-        <v>4</v>
-      </c>
-      <c r="T120" s="16">
-        <v>5</v>
-      </c>
-      <c r="U120" s="16">
-        <v>3</v>
-      </c>
-      <c r="V120" s="12">
-        <f t="shared" si="7"/>
-        <v>22.5</v>
-      </c>
-      <c r="W120" s="12">
-        <f t="shared" si="7"/>
-        <v>22.583333333333332</v>
-      </c>
-      <c r="X120" s="12">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>119</v>
       </c>
@@ -8342,55 +3322,11 @@
       <c r="C121" s="19">
         <v>240041700119</v>
       </c>
-      <c r="D121" s="16">
-        <v>12</v>
-      </c>
-      <c r="E121" s="16">
-        <v>8</v>
-      </c>
-      <c r="F121" s="16">
-        <v>2</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0</v>
-      </c>
-      <c r="H121" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I121" s="1">
-        <v>0</v>
-      </c>
-      <c r="K121" s="16">
-        <v>20</v>
-      </c>
-      <c r="O121" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S121" s="16">
-        <v>4</v>
-      </c>
-      <c r="T121" s="16">
-        <v>3</v>
-      </c>
-      <c r="U121" s="16">
-        <v>2</v>
-      </c>
-      <c r="V121" s="12">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="W121" s="12">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="X121" s="12">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>120</v>
       </c>
@@ -8398,104 +3334,9 @@
       <c r="C122" s="21">
         <v>240041700120</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E122" s="16">
-        <v>12</v>
-      </c>
-      <c r="F122" s="16">
-        <v>9</v>
-      </c>
-      <c r="G122" s="16">
-        <v>4</v>
-      </c>
-      <c r="H122" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I122" s="1">
-        <v>5</v>
-      </c>
-      <c r="K122" s="16">
-        <v>20</v>
-      </c>
-      <c r="S122" s="16">
-        <v>3</v>
-      </c>
-      <c r="T122" s="16">
-        <v>4</v>
-      </c>
-      <c r="U122" s="16">
-        <v>3</v>
-      </c>
-      <c r="V122" s="12">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="W122" s="12">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="X122" s="12">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V123" s="12"/>
-      <c r="W123" s="12"/>
-      <c r="X123" s="12"/>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V124" s="12"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="12"/>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V125" s="12"/>
-      <c r="W125" s="12"/>
-      <c r="X125" s="12"/>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V126" s="12"/>
-      <c r="W126" s="12"/>
-      <c r="X126" s="12"/>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V127" s="12"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="12"/>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V128" s="12"/>
-      <c r="W128" s="12"/>
-      <c r="X128" s="12"/>
-    </row>
-    <row r="129" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V129" s="12"/>
-      <c r="W129" s="12"/>
-      <c r="X129" s="12"/>
-    </row>
-    <row r="130" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V130" s="12"/>
-      <c r="W130" s="12"/>
-      <c r="X130" s="12"/>
-    </row>
-    <row r="131" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V131" s="12"/>
-      <c r="W131" s="12"/>
-      <c r="X131" s="12"/>
-    </row>
-    <row r="132" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V132" s="12"/>
-      <c r="W132" s="12"/>
-      <c r="X132" s="12"/>
-    </row>
-    <row r="133" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V133" s="12"/>
-      <c r="W133" s="12"/>
-      <c r="X133" s="12"/>
+      <c r="D122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\Teaching\MechanicalCodingThunder.github.io\static\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mech Staff data\Amit Jangra\Website\MechanicalCodingThunder.github.io\static\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="269">
   <si>
     <t>S.N</t>
   </si>
@@ -615,6 +615,222 @@
   </si>
   <si>
     <t>S3(40)</t>
+  </si>
+  <si>
+    <t>AASHISH</t>
+  </si>
+  <si>
+    <t>ABHAY KUMAR</t>
+  </si>
+  <si>
+    <t>AJAY</t>
+  </si>
+  <si>
+    <t>AJEET</t>
+  </si>
+  <si>
+    <t>AJIT</t>
+  </si>
+  <si>
+    <t>AKASH</t>
+  </si>
+  <si>
+    <t>AKSHAY</t>
+  </si>
+  <si>
+    <t>ANISH</t>
+  </si>
+  <si>
+    <t>ANUP</t>
+  </si>
+  <si>
+    <t>ARMAN</t>
+  </si>
+  <si>
+    <t>ARYAN</t>
+  </si>
+  <si>
+    <t>AYUSH SAINI</t>
+  </si>
+  <si>
+    <t>BADAL</t>
+  </si>
+  <si>
+    <t>BHARAT</t>
+  </si>
+  <si>
+    <t>BHAVNESH</t>
+  </si>
+  <si>
+    <t>CHAMAN</t>
+  </si>
+  <si>
+    <t>DEEPAK SEHGAL</t>
+  </si>
+  <si>
+    <t>DINIT</t>
+  </si>
+  <si>
+    <t>EKTA BENIWAL</t>
+  </si>
+  <si>
+    <t>GAURAV</t>
+  </si>
+  <si>
+    <t>GOPAL</t>
+  </si>
+  <si>
+    <t>GURDEEP</t>
+  </si>
+  <si>
+    <t>HARBANS LAL BABBAR</t>
+  </si>
+  <si>
+    <t>HITESH</t>
+  </si>
+  <si>
+    <t>HITESH KUMAR</t>
+  </si>
+  <si>
+    <t>ISHANT</t>
+  </si>
+  <si>
+    <t>JATIN KUMAR</t>
+  </si>
+  <si>
+    <t>JAYA</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>KAVITA</t>
+  </si>
+  <si>
+    <t>KHEM KARAN</t>
+  </si>
+  <si>
+    <t>LOVEKESH</t>
+  </si>
+  <si>
+    <t>MADHAV</t>
+  </si>
+  <si>
+    <t>MANISH KUMAR</t>
+  </si>
+  <si>
+    <t>MANOJ</t>
+  </si>
+  <si>
+    <t>MANPREET</t>
+  </si>
+  <si>
+    <t>NAMAN</t>
+  </si>
+  <si>
+    <t>NAVEEN</t>
+  </si>
+  <si>
+    <t>NEETU</t>
+  </si>
+  <si>
+    <t>NIRAJ</t>
+  </si>
+  <si>
+    <t>NISHANT KUMAR</t>
+  </si>
+  <si>
+    <t>PANKAJ KUMAR</t>
+  </si>
+  <si>
+    <t>PARAS VERMA</t>
+  </si>
+  <si>
+    <t>PARDEEP</t>
+  </si>
+  <si>
+    <t>PARMOD VERMA</t>
+  </si>
+  <si>
+    <t>PIYUSH</t>
+  </si>
+  <si>
+    <t>RANJEET YADAV</t>
+  </si>
+  <si>
+    <t>RAVI SHARMA</t>
+  </si>
+  <si>
+    <t>RINKU SAHARAN</t>
+  </si>
+  <si>
+    <t>RITIK</t>
+  </si>
+  <si>
+    <t>ROHAN</t>
+  </si>
+  <si>
+    <t>RONIT GOYAT</t>
+  </si>
+  <si>
+    <t>ROSHAN SINGH</t>
+  </si>
+  <si>
+    <t>SACHIN KUMAR</t>
+  </si>
+  <si>
+    <t>SAHIL SONI</t>
+  </si>
+  <si>
+    <t>SATYAM</t>
+  </si>
+  <si>
+    <t>SAURAV</t>
+  </si>
+  <si>
+    <t>SHUBHAM YADAV</t>
+  </si>
+  <si>
+    <t>SIDDHARTH</t>
+  </si>
+  <si>
+    <t>SIVA</t>
+  </si>
+  <si>
+    <t>SUBHAM KUMAR</t>
+  </si>
+  <si>
+    <t>SUJAL</t>
+  </si>
+  <si>
+    <t>SURAJ</t>
+  </si>
+  <si>
+    <t>TAMANNA</t>
+  </si>
+  <si>
+    <t>TANUSHREE</t>
+  </si>
+  <si>
+    <t>TARUN</t>
+  </si>
+  <si>
+    <t>VANDANA</t>
+  </si>
+  <si>
+    <t>VISHAL</t>
+  </si>
+  <si>
+    <t>YOGESH KUMAR</t>
+  </si>
+  <si>
+    <t>YOUGANK</t>
+  </si>
+  <si>
+    <t>YOVAN</t>
+  </si>
+  <si>
+    <t>YUDHISHTER</t>
   </si>
 </sst>
 </file>
@@ -771,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,6 +1065,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,17 +1470,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="9.140625" style="16"/>
     <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
@@ -1319,7 +1544,7 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19">
-        <v>240041700001</v>
+        <v>230041700031</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1334,9 +1559,11 @@
       <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="C4" s="21">
-        <v>240041700002</v>
+        <v>240041700001</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1351,9 +1578,11 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="C5" s="19">
-        <v>240041700003</v>
+        <v>240041700002</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1368,7 +1597,9 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>199</v>
+      </c>
       <c r="C6" s="21">
         <v>240041700004</v>
       </c>
@@ -1385,7 +1616,9 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="C7" s="19">
         <v>240041700005</v>
       </c>
@@ -1402,7 +1635,9 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>201</v>
+      </c>
       <c r="C8" s="21">
         <v>240041700006</v>
       </c>
@@ -1419,7 +1654,9 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="C9" s="19">
         <v>240041700007</v>
       </c>
@@ -1436,7 +1673,9 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="C10" s="21">
         <v>240041700008</v>
       </c>
@@ -1453,7 +1692,9 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="C11" s="19">
         <v>240041700009</v>
       </c>
@@ -1470,7 +1711,9 @@
       <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="21">
         <v>240041700010</v>
       </c>
@@ -1487,9 +1730,11 @@
       <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>204</v>
+      </c>
       <c r="C13" s="19">
-        <v>240041700011</v>
+        <v>240041700012</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1504,9 +1749,11 @@
       <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="21">
-        <v>240041700012</v>
+        <v>240041700015</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1521,9 +1768,11 @@
       <c r="A15" s="22">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="19">
-        <v>240041700013</v>
+        <v>240041700016</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1538,9 +1787,11 @@
       <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="C16" s="21">
-        <v>240041700014</v>
+        <v>240041700017</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1555,9 +1806,11 @@
       <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="C17" s="19">
-        <v>240041700015</v>
+        <v>240041700018</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1572,9 +1825,11 @@
       <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="18" t="s">
+        <v>207</v>
+      </c>
       <c r="C18" s="21">
-        <v>240041700016</v>
+        <v>240041700019</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1589,9 +1844,11 @@
       <c r="A19" s="22">
         <v>17</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="C19" s="19">
-        <v>240041700017</v>
+        <v>240041700020</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1606,9 +1863,11 @@
       <c r="A20" s="22">
         <v>18</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="C20" s="21">
-        <v>240041700018</v>
+        <v>240041700021</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1623,9 +1882,11 @@
       <c r="A21" s="22">
         <v>19</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="C21" s="19">
-        <v>240041700019</v>
+        <v>240041700022</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1640,9 +1901,11 @@
       <c r="A22" s="22">
         <v>20</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="C22" s="21">
-        <v>240041700020</v>
+        <v>240041700023</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1657,9 +1920,11 @@
       <c r="A23" s="22">
         <v>21</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="C23" s="19">
-        <v>240041700021</v>
+        <v>240041700024</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1674,9 +1939,11 @@
       <c r="A24" s="22">
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="18" t="s">
+        <v>211</v>
+      </c>
       <c r="C24" s="21">
-        <v>240041700022</v>
+        <v>240041700025</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1691,9 +1958,11 @@
       <c r="A25" s="22">
         <v>23</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>212</v>
+      </c>
       <c r="C25" s="19">
-        <v>240041700023</v>
+        <v>240041700026</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1708,9 +1977,11 @@
       <c r="A26" s="22">
         <v>24</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="C26" s="21">
-        <v>240041700024</v>
+        <v>240041700027</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1721,13 +1992,15 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="C27" s="19">
-        <v>240041700025</v>
+        <v>240041700028</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1742,9 +2015,11 @@
       <c r="A28" s="22">
         <v>26</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C28" s="21">
-        <v>240041700026</v>
+        <v>240041700029</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1759,9 +2034,11 @@
       <c r="A29" s="22">
         <v>27</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="C29" s="19">
-        <v>240041700027</v>
+        <v>240041700030</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1776,9 +2053,11 @@
       <c r="A30" s="22">
         <v>28</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="C30" s="21">
-        <v>240041700028</v>
+        <v>240041700031</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1793,9 +2072,11 @@
       <c r="A31" s="22">
         <v>29</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="C31" s="19">
-        <v>240041700029</v>
+        <v>240041700032</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1810,9 +2091,11 @@
       <c r="A32" s="22">
         <v>30</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>217</v>
+      </c>
       <c r="C32" s="21">
-        <v>240041700030</v>
+        <v>240041700033</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1827,9 +2110,11 @@
       <c r="A33" s="22">
         <v>31</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="18" t="s">
+        <v>218</v>
+      </c>
       <c r="C33" s="19">
-        <v>240041700031</v>
+        <v>240041700034</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1840,13 +2125,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>219</v>
+      </c>
       <c r="C34" s="21">
-        <v>240041700032</v>
+        <v>240041700035</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1861,9 +2148,11 @@
       <c r="A35" s="22">
         <v>33</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="C35" s="19">
-        <v>240041700033</v>
+        <v>240041700037</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1878,9 +2167,11 @@
       <c r="A36" s="22">
         <v>34</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C36" s="21">
-        <v>240041700034</v>
+        <v>240041700038</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1895,9 +2186,11 @@
       <c r="A37" s="22">
         <v>35</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="C37" s="19">
-        <v>240041700035</v>
+        <v>240041700039</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1912,9 +2205,11 @@
       <c r="A38" s="22">
         <v>36</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C38" s="21">
-        <v>240041700036</v>
+        <v>240041700040</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1929,9 +2224,11 @@
       <c r="A39" s="22">
         <v>37</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="18" t="s">
+        <v>220</v>
+      </c>
       <c r="C39" s="19">
-        <v>240041700037</v>
+        <v>240041700041</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1946,9 +2243,11 @@
       <c r="A40" s="22">
         <v>38</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="C40" s="21">
-        <v>240041700038</v>
+        <v>240041700042</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1963,9 +2262,11 @@
       <c r="A41" s="22">
         <v>39</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="18" t="s">
+        <v>222</v>
+      </c>
       <c r="C41" s="19">
-        <v>240041700039</v>
+        <v>240041700043</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1980,9 +2281,11 @@
       <c r="A42" s="22">
         <v>40</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C42" s="21">
-        <v>240041700040</v>
+        <v>240041700044</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1997,9 +2300,11 @@
       <c r="A43" s="22">
         <v>41</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="C43" s="19">
-        <v>240041700041</v>
+        <v>240041700045</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2014,9 +2319,11 @@
       <c r="A44" s="22">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" s="21">
-        <v>240041700042</v>
+        <v>240041700046</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2031,9 +2338,11 @@
       <c r="A45" s="22">
         <v>43</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C45" s="19">
-        <v>240041700043</v>
+        <v>240041700047</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2048,9 +2357,11 @@
       <c r="A46" s="22">
         <v>44</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="18" t="s">
+        <v>224</v>
+      </c>
       <c r="C46" s="21">
-        <v>240041700044</v>
+        <v>240041700048</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2065,9 +2376,11 @@
       <c r="A47" s="22">
         <v>45</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="C47" s="19">
-        <v>240041700045</v>
+        <v>240041700049</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2082,9 +2395,11 @@
       <c r="A48" s="22">
         <v>46</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" s="21">
-        <v>240041700046</v>
+        <v>240041700050</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2099,9 +2414,11 @@
       <c r="A49" s="22">
         <v>47</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="C49" s="19">
-        <v>240041700047</v>
+        <v>240041700051</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2116,9 +2433,11 @@
       <c r="A50" s="22">
         <v>48</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="18" t="s">
+        <v>227</v>
+      </c>
       <c r="C50" s="21">
-        <v>240041700048</v>
+        <v>240041700052</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2133,9 +2452,11 @@
       <c r="A51" s="22">
         <v>49</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C51" s="19">
-        <v>240041700049</v>
+        <v>240041700053</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2150,9 +2471,11 @@
       <c r="A52" s="22">
         <v>50</v>
       </c>
-      <c r="B52" s="18"/>
+      <c r="B52" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="C52" s="21">
-        <v>240041700050</v>
+        <v>240041700054</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2167,9 +2490,11 @@
       <c r="A53" s="22">
         <v>51</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="20" t="s">
+        <v>228</v>
+      </c>
       <c r="C53" s="19">
-        <v>240041700051</v>
+        <v>240041700055</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2184,9 +2509,11 @@
       <c r="A54" s="22">
         <v>52</v>
       </c>
-      <c r="B54" s="18"/>
+      <c r="B54" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="C54" s="21">
-        <v>240041700052</v>
+        <v>240041700056</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2201,9 +2528,11 @@
       <c r="A55" s="22">
         <v>53</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="20" t="s">
+        <v>230</v>
+      </c>
       <c r="C55" s="19">
-        <v>240041700053</v>
+        <v>240041700057</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2218,9 +2547,11 @@
       <c r="A56" s="22">
         <v>54</v>
       </c>
-      <c r="B56" s="18"/>
+      <c r="B56" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="C56" s="21">
-        <v>240041700054</v>
+        <v>240041700058</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2235,9 +2566,11 @@
       <c r="A57" s="22">
         <v>55</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="20" t="s">
+        <v>232</v>
+      </c>
       <c r="C57" s="19">
-        <v>240041700055</v>
+        <v>240041700059</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2252,9 +2585,11 @@
       <c r="A58" s="22">
         <v>56</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="C58" s="21">
-        <v>240041700056</v>
+        <v>240041700060</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2269,9 +2604,11 @@
       <c r="A59" s="22">
         <v>57</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="C59" s="19">
-        <v>240041700057</v>
+        <v>240041700061</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2286,9 +2623,11 @@
       <c r="A60" s="22">
         <v>58</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="C60" s="21">
-        <v>240041700058</v>
+        <v>240041700062</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2303,9 +2642,11 @@
       <c r="A61" s="22">
         <v>59</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="C61" s="19">
-        <v>240041700059</v>
+        <v>240041700063</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2320,9 +2661,11 @@
       <c r="A62" s="22">
         <v>60</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="18" t="s">
+        <v>233</v>
+      </c>
       <c r="C62" s="21">
-        <v>240041700060</v>
+        <v>240041700064</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2337,9 +2680,11 @@
       <c r="A63" s="22">
         <v>61</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="C63" s="19">
-        <v>240041700061</v>
+        <v>240041700066</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2354,9 +2699,11 @@
       <c r="A64" s="22">
         <v>62</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="18" t="s">
+        <v>234</v>
+      </c>
       <c r="C64" s="21">
-        <v>240041700062</v>
+        <v>240041700067</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2371,9 +2718,11 @@
       <c r="A65" s="22">
         <v>63</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="C65" s="19">
-        <v>240041700063</v>
+        <v>240041700068</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2388,9 +2737,11 @@
       <c r="A66" s="22">
         <v>64</v>
       </c>
-      <c r="B66" s="18"/>
+      <c r="B66" s="18" t="s">
+        <v>235</v>
+      </c>
       <c r="C66" s="21">
-        <v>240041700064</v>
+        <v>240041700069</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2405,9 +2756,11 @@
       <c r="A67" s="22">
         <v>65</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="C67" s="19">
-        <v>240041700065</v>
+        <v>240041700070</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2422,9 +2775,11 @@
       <c r="A68" s="22">
         <v>66</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="21">
-        <v>240041700066</v>
+      <c r="B68" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="27">
+        <v>240041700071</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2439,9 +2794,11 @@
       <c r="A69" s="22">
         <v>67</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="19">
-        <v>240041700067</v>
+      <c r="B69" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="28">
+        <v>240041700072</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2452,13 +2809,15 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>68</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="21">
-        <v>240041700068</v>
+      <c r="B70" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="27">
+        <v>240041700073</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2473,9 +2832,11 @@
       <c r="A71" s="22">
         <v>69</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="19">
-        <v>240041700069</v>
+      <c r="B71" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="28">
+        <v>240041700074</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2490,9 +2851,11 @@
       <c r="A72" s="22">
         <v>70</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="21">
-        <v>240041700070</v>
+      <c r="B72" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="27">
+        <v>240041700075</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2507,9 +2870,11 @@
       <c r="A73" s="22">
         <v>71</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="19">
-        <v>240041700071</v>
+      <c r="B73" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="28">
+        <v>240041700076</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2524,9 +2889,11 @@
       <c r="A74" s="22">
         <v>72</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="21">
-        <v>240041700072</v>
+      <c r="B74" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="27">
+        <v>240041700077</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2541,9 +2908,11 @@
       <c r="A75" s="22">
         <v>73</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="19">
-        <v>240041700073</v>
+      <c r="B75" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="28">
+        <v>240041700078</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2554,13 +2923,15 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>74</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="21">
-        <v>240041700074</v>
+      <c r="B76" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" s="27">
+        <v>240041700079</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2575,9 +2946,11 @@
       <c r="A77" s="22">
         <v>75</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="19">
-        <v>240041700075</v>
+      <c r="B77" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="28">
+        <v>240041700080</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2592,9 +2965,11 @@
       <c r="A78" s="22">
         <v>76</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21">
-        <v>240041700076</v>
+      <c r="B78" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="27">
+        <v>240041700082</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2609,9 +2984,11 @@
       <c r="A79" s="22">
         <v>77</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19">
-        <v>240041700077</v>
+      <c r="B79" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="28">
+        <v>240041700083</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2626,9 +3003,11 @@
       <c r="A80" s="22">
         <v>78</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21">
-        <v>240041700078</v>
+      <c r="B80" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="27">
+        <v>240041700084</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2643,9 +3022,11 @@
       <c r="A81" s="22">
         <v>79</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19">
-        <v>240041700079</v>
+      <c r="B81" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="28">
+        <v>240041700085</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2660,9 +3041,11 @@
       <c r="A82" s="22">
         <v>80</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21">
-        <v>240041700080</v>
+      <c r="B82" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="27">
+        <v>240041700086</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2677,9 +3060,11 @@
       <c r="A83" s="22">
         <v>81</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="19">
-        <v>240041700081</v>
+      <c r="B83" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="28">
+        <v>240041700087</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2694,9 +3079,11 @@
       <c r="A84" s="22">
         <v>82</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21">
-        <v>240041700082</v>
+      <c r="B84" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="27">
+        <v>240041700088</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2707,13 +3094,15 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>83</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19">
-        <v>240041700083</v>
+      <c r="B85" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="28">
+        <v>240041700090</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2728,9 +3117,11 @@
       <c r="A86" s="22">
         <v>84</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21">
-        <v>240041700084</v>
+      <c r="B86" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="27">
+        <v>240041700091</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2741,13 +3132,15 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19">
-        <v>240041700085</v>
+      <c r="B87" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="28">
+        <v>240041700092</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2758,13 +3151,15 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21">
-        <v>240041700086</v>
+      <c r="B88" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="27">
+        <v>240041700093</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2779,9 +3174,11 @@
       <c r="A89" s="22">
         <v>87</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="19">
-        <v>240041700087</v>
+      <c r="B89" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" s="28">
+        <v>240041700094</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2796,9 +3193,11 @@
       <c r="A90" s="22">
         <v>88</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21">
-        <v>240041700088</v>
+      <c r="B90" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="27">
+        <v>240041700095</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2813,9 +3212,11 @@
       <c r="A91" s="22">
         <v>89</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="19">
-        <v>240041700089</v>
+      <c r="B91" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="28">
+        <v>240041700096</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2830,9 +3231,11 @@
       <c r="A92" s="22">
         <v>90</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21">
-        <v>240041700090</v>
+      <c r="B92" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="27">
+        <v>240041700097</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2847,9 +3250,11 @@
       <c r="A93" s="22">
         <v>91</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="19">
-        <v>240041700091</v>
+      <c r="B93" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" s="28">
+        <v>240041700098</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2864,9 +3269,11 @@
       <c r="A94" s="22">
         <v>92</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21">
-        <v>240041700092</v>
+      <c r="B94" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="27">
+        <v>240041700099</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2881,9 +3288,11 @@
       <c r="A95" s="22">
         <v>93</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="19">
-        <v>240041700093</v>
+      <c r="B95" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="28">
+        <v>240041700100</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2898,9 +3307,11 @@
       <c r="A96" s="22">
         <v>94</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="21">
-        <v>240041700094</v>
+      <c r="B96" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="27">
+        <v>240041700101</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2915,9 +3326,11 @@
       <c r="A97" s="22">
         <v>95</v>
       </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="19">
-        <v>240041700095</v>
+      <c r="B97" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C97" s="28">
+        <v>240041700102</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2932,9 +3345,11 @@
       <c r="A98" s="22">
         <v>96</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="21">
-        <v>240041700096</v>
+      <c r="B98" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="27">
+        <v>240041700103</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -2949,9 +3364,11 @@
       <c r="A99" s="22">
         <v>97</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="19">
-        <v>240041700097</v>
+      <c r="B99" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="28">
+        <v>240041700104</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2966,9 +3383,11 @@
       <c r="A100" s="22">
         <v>98</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="21">
-        <v>240041700098</v>
+      <c r="B100" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" s="27">
+        <v>240041700105</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2983,9 +3402,11 @@
       <c r="A101" s="22">
         <v>99</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="19">
-        <v>240041700099</v>
+      <c r="B101" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" s="28">
+        <v>240041700106</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3000,9 +3421,11 @@
       <c r="A102" s="22">
         <v>100</v>
       </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="21">
-        <v>240041700100</v>
+      <c r="B102" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="27">
+        <v>240041700107</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3017,9 +3440,11 @@
       <c r="A103" s="22">
         <v>101</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="19">
-        <v>240041700101</v>
+      <c r="B103" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" s="28">
+        <v>240041700108</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3034,9 +3459,11 @@
       <c r="A104" s="22">
         <v>102</v>
       </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="21">
-        <v>240041700102</v>
+      <c r="B104" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="27">
+        <v>240041700110</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3051,9 +3478,11 @@
       <c r="A105" s="22">
         <v>103</v>
       </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="19">
-        <v>240041700103</v>
+      <c r="B105" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" s="28">
+        <v>240041700111</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3068,9 +3497,11 @@
       <c r="A106" s="22">
         <v>104</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="21">
-        <v>240041700104</v>
+      <c r="B106" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="27">
+        <v>240041700112</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3085,9 +3516,11 @@
       <c r="A107" s="22">
         <v>105</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="19">
-        <v>240041700105</v>
+      <c r="B107" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" s="28">
+        <v>240041700113</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3098,13 +3531,15 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>106</v>
       </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="21">
-        <v>240041700106</v>
+      <c r="B108" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" s="27">
+        <v>240041700114</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3119,9 +3554,11 @@
       <c r="A109" s="22">
         <v>107</v>
       </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="19">
-        <v>240041700107</v>
+      <c r="B109" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" s="28">
+        <v>240041700115</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3136,9 +3573,11 @@
       <c r="A110" s="22">
         <v>108</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="21">
-        <v>240041700108</v>
+      <c r="B110" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" s="27">
+        <v>240041700116</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3153,9 +3592,11 @@
       <c r="A111" s="22">
         <v>109</v>
       </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="19">
-        <v>240041700109</v>
+      <c r="B111" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="28">
+        <v>240041700117</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3166,13 +3607,15 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>110</v>
       </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="21">
-        <v>240041700110</v>
+      <c r="B112" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C112" s="27">
+        <v>240041700118</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3187,9 +3630,11 @@
       <c r="A113" s="22">
         <v>111</v>
       </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="19">
-        <v>240041700111</v>
+      <c r="B113" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C113" s="28">
+        <v>240041700119</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3204,9 +3649,11 @@
       <c r="A114" s="22">
         <v>112</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="21">
-        <v>240041700112</v>
+      <c r="B114" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="27">
+        <v>240041700120</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3221,9 +3668,11 @@
       <c r="A115" s="22">
         <v>113</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="19">
-        <v>240041700113</v>
+      <c r="B115" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" s="28">
+        <v>240041700121</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3238,9 +3687,11 @@
       <c r="A116" s="22">
         <v>114</v>
       </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="21">
-        <v>240041700114</v>
+      <c r="B116" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" s="27">
+        <v>240041700122</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3255,9 +3706,11 @@
       <c r="A117" s="22">
         <v>115</v>
       </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="19">
-        <v>240041700115</v>
+      <c r="B117" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C117" s="28">
+        <v>240041700123</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3272,9 +3725,11 @@
       <c r="A118" s="22">
         <v>116</v>
       </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="21">
-        <v>240041700116</v>
+      <c r="B118" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" s="27">
+        <v>240041700124</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3289,9 +3744,11 @@
       <c r="A119" s="22">
         <v>117</v>
       </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="19">
-        <v>240041700117</v>
+      <c r="B119" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="28">
+        <v>240041700125</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3306,9 +3763,11 @@
       <c r="A120" s="22">
         <v>118</v>
       </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="21">
-        <v>240041700118</v>
+      <c r="B120" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="27">
+        <v>240041700126</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -3318,9 +3777,11 @@
       <c r="A121" s="22">
         <v>119</v>
       </c>
-      <c r="B121" s="20"/>
-      <c r="C121" s="19">
-        <v>240041700119</v>
+      <c r="B121" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="28">
+        <v>240041700127</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -3330,13 +3791,125 @@
       <c r="A122" s="22">
         <v>120</v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="21">
-        <v>240041700120</v>
+      <c r="B122" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="27">
+        <v>240041700128</v>
       </c>
       <c r="D122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="22">
+        <v>121</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="29">
+        <v>240041700129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="22">
+        <v>122</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C124" s="29">
+        <v>240041700130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="22">
+        <v>123</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125" s="29">
+        <v>240041700131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="22">
+        <v>124</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" s="29">
+        <v>240041700132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="22">
+        <v>125</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" s="29">
+        <v>240041700133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="22">
+        <v>126</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" s="29">
+        <v>240041700134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="22">
+        <v>127</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" s="29">
+        <v>240041700135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="22">
+        <v>128</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" s="29">
+        <v>240041700136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="22">
+        <v>129</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C131" s="29">
+        <v>240041700137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="22">
+        <v>130</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="29">
+        <v>240041700138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" tabRatio="500"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="9630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="2023" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024'!$M$1:$M$132</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$2:$C$63</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -1061,12 +1062,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1074,6 +1069,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1470,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,11 +1482,12 @@
     <col min="1" max="1" width="4" style="16" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="9.140625" style="16"/>
+    <col min="4" max="6" width="0" style="16" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="16"/>
     <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>121</v>
       </c>
@@ -1500,7 +1502,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -1549,13 +1551,19 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <f>ROUNDUP(M3/45*5,2)</f>
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -1568,13 +1576,19 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G67" si="0">ROUNDUP(M4/45*5,2)</f>
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -1587,13 +1601,19 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -1606,13 +1626,19 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7799999999999994</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -1625,13 +1651,19 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -1644,13 +1676,19 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2299999999999995</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -1663,13 +1701,19 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -1682,13 +1726,19 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -1701,13 +1751,19 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -1720,13 +1776,19 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -1739,13 +1801,19 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.67</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -1758,13 +1826,19 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -1777,13 +1851,19 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -1796,13 +1876,19 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -1815,13 +1901,19 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -1834,13 +1926,19 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.34</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -1853,13 +1951,19 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>18</v>
       </c>
@@ -1872,13 +1976,19 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -1891,13 +2001,19 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -1910,13 +2026,19 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -1929,13 +2051,19 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -1948,13 +2076,19 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.23</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
@@ -1967,13 +2101,19 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>4.67</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -1986,13 +2126,19 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>3.67</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -2005,13 +2151,19 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -2024,13 +2176,19 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2299999999999995</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -2043,13 +2201,19 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8899999999999997</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -2062,13 +2226,19 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7799999999999994</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -2081,13 +2251,19 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8899999999999997</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
@@ -2100,13 +2276,19 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -2119,13 +2301,19 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8899999999999997</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M33" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -2138,13 +2326,19 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>4.67</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -2157,13 +2351,19 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>4.67</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -2176,13 +2376,19 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>35</v>
       </c>
@@ -2195,13 +2401,19 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>36</v>
       </c>
@@ -2214,13 +2426,19 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>37</v>
       </c>
@@ -2233,13 +2451,19 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -2252,13 +2476,19 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>39</v>
       </c>
@@ -2271,13 +2501,19 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -2290,13 +2526,19 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>3.67</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>41</v>
       </c>
@@ -2309,13 +2551,19 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42</v>
       </c>
@@ -2328,13 +2576,19 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -2347,13 +2601,19 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -2366,13 +2626,19 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -2385,13 +2651,19 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7799999999999994</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M47" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -2404,13 +2676,19 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>47</v>
       </c>
@@ -2423,13 +2701,19 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>48</v>
       </c>
@@ -2442,13 +2726,19 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -2461,13 +2751,19 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>50</v>
       </c>
@@ -2480,13 +2776,19 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>4.67</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M52" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -2499,13 +2801,19 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>4.67</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M53" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>52</v>
       </c>
@@ -2518,13 +2826,19 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>53</v>
       </c>
@@ -2537,13 +2851,19 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -2556,13 +2876,19 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5599999999999996</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M56" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>55</v>
       </c>
@@ -2575,13 +2901,19 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -2594,13 +2926,19 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -2613,13 +2951,19 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>58</v>
       </c>
@@ -2632,13 +2976,19 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>59</v>
       </c>
@@ -2651,13 +3001,19 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>60</v>
       </c>
@@ -2670,13 +3026,19 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M62" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>61</v>
       </c>
@@ -2689,13 +3051,19 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>62</v>
       </c>
@@ -2708,13 +3076,19 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M64" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>63</v>
       </c>
@@ -2727,13 +3101,19 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7799999999999994</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>64</v>
       </c>
@@ -2746,13 +3126,19 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M66" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>65</v>
       </c>
@@ -2765,20 +3151,26 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1">
+        <f t="shared" si="0"/>
+        <v>4.67</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M67" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>66</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="27">
+      <c r="C68" s="25">
         <v>240041700071</v>
       </c>
       <c r="D68" s="1"/>
@@ -2790,14 +3182,14 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>67</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="28">
+      <c r="C69" s="26">
         <v>240041700072</v>
       </c>
       <c r="D69" s="1"/>
@@ -2809,14 +3201,14 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>68</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="27">
+      <c r="C70" s="25">
         <v>240041700073</v>
       </c>
       <c r="D70" s="1"/>
@@ -2828,14 +3220,14 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>69</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="28">
+      <c r="C71" s="26">
         <v>240041700074</v>
       </c>
       <c r="D71" s="1"/>
@@ -2847,14 +3239,14 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>70</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C72" s="25">
         <v>240041700075</v>
       </c>
       <c r="D72" s="1"/>
@@ -2866,14 +3258,14 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>71</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C73" s="26">
         <v>240041700076</v>
       </c>
       <c r="D73" s="1"/>
@@ -2885,14 +3277,14 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>72</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C74" s="25">
         <v>240041700077</v>
       </c>
       <c r="D74" s="1"/>
@@ -2904,14 +3296,14 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>73</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C75" s="26">
         <v>240041700078</v>
       </c>
       <c r="D75" s="1"/>
@@ -2923,14 +3315,14 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>74</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C76" s="27">
+      <c r="C76" s="25">
         <v>240041700079</v>
       </c>
       <c r="D76" s="1"/>
@@ -2942,14 +3334,14 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>75</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="26">
         <v>240041700080</v>
       </c>
       <c r="D77" s="1"/>
@@ -2961,14 +3353,14 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>76</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="27">
+      <c r="C78" s="25">
         <v>240041700082</v>
       </c>
       <c r="D78" s="1"/>
@@ -2980,14 +3372,14 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>77</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C79" s="26">
         <v>240041700083</v>
       </c>
       <c r="D79" s="1"/>
@@ -2999,14 +3391,14 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>78</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80" s="25">
         <v>240041700084</v>
       </c>
       <c r="D80" s="1"/>
@@ -3025,7 +3417,7 @@
       <c r="B81" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C81" s="26">
         <v>240041700085</v>
       </c>
       <c r="D81" s="1"/>
@@ -3044,7 +3436,7 @@
       <c r="B82" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C82" s="25">
         <v>240041700086</v>
       </c>
       <c r="D82" s="1"/>
@@ -3063,7 +3455,7 @@
       <c r="B83" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="26">
         <v>240041700087</v>
       </c>
       <c r="D83" s="1"/>
@@ -3082,7 +3474,7 @@
       <c r="B84" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="27">
+      <c r="C84" s="25">
         <v>240041700088</v>
       </c>
       <c r="D84" s="1"/>
@@ -3101,7 +3493,7 @@
       <c r="B85" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C85" s="26">
         <v>240041700090</v>
       </c>
       <c r="D85" s="1"/>
@@ -3120,7 +3512,7 @@
       <c r="B86" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="27">
+      <c r="C86" s="25">
         <v>240041700091</v>
       </c>
       <c r="D86" s="1"/>
@@ -3139,7 +3531,7 @@
       <c r="B87" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C87" s="26">
         <v>240041700092</v>
       </c>
       <c r="D87" s="1"/>
@@ -3158,7 +3550,7 @@
       <c r="B88" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C88" s="27">
+      <c r="C88" s="25">
         <v>240041700093</v>
       </c>
       <c r="D88" s="1"/>
@@ -3177,7 +3569,7 @@
       <c r="B89" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C89" s="28">
+      <c r="C89" s="26">
         <v>240041700094</v>
       </c>
       <c r="D89" s="1"/>
@@ -3196,7 +3588,7 @@
       <c r="B90" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90" s="25">
         <v>240041700095</v>
       </c>
       <c r="D90" s="1"/>
@@ -3215,7 +3607,7 @@
       <c r="B91" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C91" s="26">
         <v>240041700096</v>
       </c>
       <c r="D91" s="1"/>
@@ -3234,7 +3626,7 @@
       <c r="B92" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C92" s="27">
+      <c r="C92" s="25">
         <v>240041700097</v>
       </c>
       <c r="D92" s="1"/>
@@ -3253,7 +3645,7 @@
       <c r="B93" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C93" s="26">
         <v>240041700098</v>
       </c>
       <c r="D93" s="1"/>
@@ -3272,7 +3664,7 @@
       <c r="B94" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94" s="25">
         <v>240041700099</v>
       </c>
       <c r="D94" s="1"/>
@@ -3291,7 +3683,7 @@
       <c r="B95" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C95" s="26">
         <v>240041700100</v>
       </c>
       <c r="D95" s="1"/>
@@ -3310,7 +3702,7 @@
       <c r="B96" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C96" s="27">
+      <c r="C96" s="25">
         <v>240041700101</v>
       </c>
       <c r="D96" s="1"/>
@@ -3329,7 +3721,7 @@
       <c r="B97" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="26">
         <v>240041700102</v>
       </c>
       <c r="D97" s="1"/>
@@ -3348,7 +3740,7 @@
       <c r="B98" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="25">
         <v>240041700103</v>
       </c>
       <c r="D98" s="1"/>
@@ -3367,7 +3759,7 @@
       <c r="B99" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C99" s="26">
         <v>240041700104</v>
       </c>
       <c r="D99" s="1"/>
@@ -3386,7 +3778,7 @@
       <c r="B100" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100" s="25">
         <v>240041700105</v>
       </c>
       <c r="D100" s="1"/>
@@ -3405,7 +3797,7 @@
       <c r="B101" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="28">
+      <c r="C101" s="26">
         <v>240041700106</v>
       </c>
       <c r="D101" s="1"/>
@@ -3424,7 +3816,7 @@
       <c r="B102" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102" s="25">
         <v>240041700107</v>
       </c>
       <c r="D102" s="1"/>
@@ -3443,7 +3835,7 @@
       <c r="B103" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C103" s="28">
+      <c r="C103" s="26">
         <v>240041700108</v>
       </c>
       <c r="D103" s="1"/>
@@ -3462,7 +3854,7 @@
       <c r="B104" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C104" s="27">
+      <c r="C104" s="25">
         <v>240041700110</v>
       </c>
       <c r="D104" s="1"/>
@@ -3481,7 +3873,7 @@
       <c r="B105" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C105" s="28">
+      <c r="C105" s="26">
         <v>240041700111</v>
       </c>
       <c r="D105" s="1"/>
@@ -3500,7 +3892,7 @@
       <c r="B106" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C106" s="27">
+      <c r="C106" s="25">
         <v>240041700112</v>
       </c>
       <c r="D106" s="1"/>
@@ -3519,7 +3911,7 @@
       <c r="B107" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C107" s="28">
+      <c r="C107" s="26">
         <v>240041700113</v>
       </c>
       <c r="D107" s="1"/>
@@ -3538,7 +3930,7 @@
       <c r="B108" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C108" s="27">
+      <c r="C108" s="25">
         <v>240041700114</v>
       </c>
       <c r="D108" s="1"/>
@@ -3557,7 +3949,7 @@
       <c r="B109" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C109" s="28">
+      <c r="C109" s="26">
         <v>240041700115</v>
       </c>
       <c r="D109" s="1"/>
@@ -3576,7 +3968,7 @@
       <c r="B110" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="27">
+      <c r="C110" s="25">
         <v>240041700116</v>
       </c>
       <c r="D110" s="1"/>
@@ -3595,7 +3987,7 @@
       <c r="B111" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C111" s="28">
+      <c r="C111" s="26">
         <v>240041700117</v>
       </c>
       <c r="D111" s="1"/>
@@ -3614,7 +4006,7 @@
       <c r="B112" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C112" s="27">
+      <c r="C112" s="25">
         <v>240041700118</v>
       </c>
       <c r="D112" s="1"/>
@@ -3633,7 +4025,7 @@
       <c r="B113" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="C113" s="28">
+      <c r="C113" s="26">
         <v>240041700119</v>
       </c>
       <c r="D113" s="1"/>
@@ -3652,7 +4044,7 @@
       <c r="B114" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C114" s="27">
+      <c r="C114" s="25">
         <v>240041700120</v>
       </c>
       <c r="D114" s="1"/>
@@ -3671,7 +4063,7 @@
       <c r="B115" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C115" s="26">
         <v>240041700121</v>
       </c>
       <c r="D115" s="1"/>
@@ -3690,7 +4082,7 @@
       <c r="B116" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C116" s="27">
+      <c r="C116" s="25">
         <v>240041700122</v>
       </c>
       <c r="D116" s="1"/>
@@ -3709,7 +4101,7 @@
       <c r="B117" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C117" s="26">
         <v>240041700123</v>
       </c>
       <c r="D117" s="1"/>
@@ -3728,7 +4120,7 @@
       <c r="B118" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C118" s="27">
+      <c r="C118" s="25">
         <v>240041700124</v>
       </c>
       <c r="D118" s="1"/>
@@ -3747,7 +4139,7 @@
       <c r="B119" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="28">
+      <c r="C119" s="26">
         <v>240041700125</v>
       </c>
       <c r="D119" s="1"/>
@@ -3766,7 +4158,7 @@
       <c r="B120" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C120" s="27">
+      <c r="C120" s="25">
         <v>240041700126</v>
       </c>
       <c r="G120" s="1"/>
@@ -3780,7 +4172,7 @@
       <c r="B121" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="C121" s="28">
+      <c r="C121" s="26">
         <v>240041700127</v>
       </c>
       <c r="G121" s="1"/>
@@ -3794,7 +4186,7 @@
       <c r="B122" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="27">
+      <c r="C122" s="25">
         <v>240041700128</v>
       </c>
       <c r="D122" s="1"/>
@@ -3808,7 +4200,7 @@
       <c r="B123" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C123" s="29">
+      <c r="C123" s="27">
         <v>240041700129</v>
       </c>
     </row>
@@ -3819,7 +4211,7 @@
       <c r="B124" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C124" s="29">
+      <c r="C124" s="27">
         <v>240041700130</v>
       </c>
     </row>
@@ -3830,7 +4222,7 @@
       <c r="B125" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="29">
+      <c r="C125" s="27">
         <v>240041700131</v>
       </c>
     </row>
@@ -3841,7 +4233,7 @@
       <c r="B126" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C126" s="29">
+      <c r="C126" s="27">
         <v>240041700132</v>
       </c>
     </row>
@@ -3852,7 +4244,7 @@
       <c r="B127" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C127" s="29">
+      <c r="C127" s="27">
         <v>240041700133</v>
       </c>
     </row>
@@ -3863,7 +4255,7 @@
       <c r="B128" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C128" s="29">
+      <c r="C128" s="27">
         <v>240041700134</v>
       </c>
     </row>
@@ -3874,7 +4266,7 @@
       <c r="B129" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C129" s="29">
+      <c r="C129" s="27">
         <v>240041700135</v>
       </c>
     </row>
@@ -3885,7 +4277,7 @@
       <c r="B130" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C130" s="29">
+      <c r="C130" s="27">
         <v>240041700136</v>
       </c>
     </row>
@@ -3896,7 +4288,7 @@
       <c r="B131" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C131" s="29">
+      <c r="C131" s="27">
         <v>240041700137</v>
       </c>
     </row>
@@ -3907,11 +4299,12 @@
       <c r="B132" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C132" s="29">
+      <c r="C132" s="27">
         <v>240041700138</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="M1:M132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3936,20 +4329,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1473,16 +1473,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G67"/>
+    <sheetView tabSelected="1" topLeftCell="B89" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B84" sqref="B84"/>
+      <selection pane="topRight" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="16" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="0" style="16" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="16" customWidth="1"/>
+    <col min="4" max="5" width="3.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="16" customWidth="1"/>
     <col min="7" max="11" width="9.140625" style="16"/>
     <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
@@ -1577,7 +1580,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G67" si="0">ROUNDUP(M4/45*5,2)</f>
+        <f t="shared" ref="G4:G69" si="0">ROUNDUP(M4/45*5,2)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -3176,11 +3179,17 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2299999999999995</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
+      <c r="M68" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
@@ -3195,11 +3204,17 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <f t="shared" si="0"/>
+        <v>4.67</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
+      <c r="M69" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
@@ -3214,11 +3229,15 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1">
+        <f t="shared" ref="G70:G132" si="1">ROUNDUP(M70/45*5,2)</f>
+        <v>0</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
+      <c r="M70" s="1"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
@@ -3233,11 +3252,17 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1">
+        <f>ROUNDUP(M71/35*5,2)</f>
+        <v>4.72</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
+      <c r="M71" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
@@ -3252,11 +3277,17 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1">
+        <f>ROUNDUP(M72/35*5,2)</f>
+        <v>5</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
+      <c r="M72" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
@@ -3271,11 +3302,17 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7799999999999994</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
+      <c r="M73" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
@@ -3290,11 +3327,17 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1">
+        <f>ROUNDUP(M74/35*5,2)</f>
+        <v>4.29</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
+      <c r="M74" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
@@ -3309,11 +3352,15 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
+      <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
@@ -3328,11 +3375,17 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1">
+        <f>ROUNDUP(M76/35*5,2)</f>
+        <v>5</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
+      <c r="M76" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
@@ -3347,11 +3400,17 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1">
+        <f t="shared" si="1"/>
+        <v>4.67</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
+      <c r="M77" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
@@ -3366,11 +3425,15 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
+      <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
@@ -3385,11 +3448,15 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
+      <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
@@ -3404,13 +3471,19 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1">
+        <f t="shared" ref="G80:G81" si="2">ROUNDUP(M80/35*5,2)</f>
+        <v>5</v>
+      </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M80" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>79</v>
       </c>
@@ -3423,13 +3496,19 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M81" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>80</v>
       </c>
@@ -3442,13 +3521,17 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>81</v>
       </c>
@@ -3461,13 +3544,17 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>82</v>
       </c>
@@ -3480,13 +3567,17 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>83</v>
       </c>
@@ -3499,13 +3590,17 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>84</v>
       </c>
@@ -3518,13 +3613,17 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
@@ -3537,13 +3636,17 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="G87" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
@@ -3556,13 +3659,19 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1">
+        <f t="shared" ref="G88:G90" si="3">ROUNDUP(M88/35*5,2)</f>
+        <v>5</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M88" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>87</v>
       </c>
@@ -3575,13 +3684,19 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1">
+        <f t="shared" si="3"/>
+        <v>4.29</v>
+      </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M89" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>88</v>
       </c>
@@ -3594,13 +3709,19 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M90" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>89</v>
       </c>
@@ -3613,13 +3734,17 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>90</v>
       </c>
@@ -3632,13 +3757,17 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>91</v>
       </c>
@@ -3651,13 +3780,17 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>92</v>
       </c>
@@ -3670,13 +3803,17 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="G94" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>93</v>
       </c>
@@ -3689,13 +3826,17 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>94</v>
       </c>
@@ -3708,13 +3849,17 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>95</v>
       </c>
@@ -3727,13 +3872,19 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="G97" s="1">
+        <f t="shared" ref="G97:G100" si="4">ROUNDUP(M97/35*5,2)</f>
+        <v>5</v>
+      </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M97" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>96</v>
       </c>
@@ -3746,13 +3897,19 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M98" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>97</v>
       </c>
@@ -3765,13 +3922,19 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="G99" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M99" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>98</v>
       </c>
@@ -3784,13 +3947,19 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="G100" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M100" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>99</v>
       </c>
@@ -3803,13 +3972,17 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="G101" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>100</v>
       </c>
@@ -3822,13 +3995,19 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M102" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>101</v>
       </c>
@@ -3841,13 +4020,19 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="G103" s="1">
+        <f>ROUNDUP(M103/35*5,2)</f>
+        <v>3.5799999999999996</v>
+      </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M103" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>102</v>
       </c>
@@ -3860,13 +4045,19 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="G104" s="1">
+        <f t="shared" si="1"/>
+        <v>4.67</v>
+      </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M104" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>103</v>
       </c>
@@ -3879,13 +4070,19 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="G105" s="1">
+        <f>ROUNDUP(M105/35*5,2)</f>
+        <v>3.5799999999999996</v>
+      </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M105" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>104</v>
       </c>
@@ -3898,13 +4095,17 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="G106" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <v>105</v>
       </c>
@@ -3917,13 +4118,17 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="G107" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>106</v>
       </c>
@@ -3936,13 +4141,19 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="G108" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M108" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>107</v>
       </c>
@@ -3955,13 +4166,17 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="G109" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <v>108</v>
       </c>
@@ -3974,13 +4189,17 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="G110" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>109</v>
       </c>
@@ -3993,13 +4212,19 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="G111" s="1">
+        <f t="shared" ref="G111:G112" si="5">ROUNDUP(M111/35*5,2)</f>
+        <v>4.72</v>
+      </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M111" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>110</v>
       </c>
@@ -4012,13 +4237,19 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="G112" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M112" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>111</v>
       </c>
@@ -4031,13 +4262,17 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="G113" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>112</v>
       </c>
@@ -4050,13 +4285,19 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="G114" s="1">
+        <f>ROUNDUP(M114/35*5,2)</f>
+        <v>5</v>
+      </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M114" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>113</v>
       </c>
@@ -4069,13 +4310,19 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="G115" s="1">
+        <f t="shared" si="1"/>
+        <v>3.34</v>
+      </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M115" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>114</v>
       </c>
@@ -4088,13 +4335,17 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="G116" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <v>115</v>
       </c>
@@ -4107,13 +4358,17 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="G117" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>116</v>
       </c>
@@ -4126,13 +4381,19 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="G118" s="1">
+        <f t="shared" ref="G118:G119" si="6">ROUNDUP(M118/35*5,2)</f>
+        <v>5</v>
+      </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M118" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>117</v>
       </c>
@@ -4145,13 +4406,19 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="G119" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M119" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>118</v>
       </c>
@@ -4161,11 +4428,15 @@
       <c r="C120" s="25">
         <v>240041700126</v>
       </c>
-      <c r="G120" s="1"/>
+      <c r="G120" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>119</v>
       </c>
@@ -4175,11 +4446,17 @@
       <c r="C121" s="26">
         <v>240041700127</v>
       </c>
-      <c r="G121" s="1"/>
+      <c r="G121" s="1">
+        <f t="shared" ref="G121:G122" si="7">ROUNDUP(M121/35*5,2)</f>
+        <v>5</v>
+      </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M121" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>120</v>
       </c>
@@ -4190,10 +4467,17 @@
         <v>240041700128</v>
       </c>
       <c r="D122" s="1"/>
+      <c r="G122" s="1">
+        <f t="shared" si="7"/>
+        <v>4.29</v>
+      </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M122" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <v>121</v>
       </c>
@@ -4203,8 +4487,13 @@
       <c r="C123" s="27">
         <v>240041700129</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G123" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>122</v>
       </c>
@@ -4214,8 +4503,13 @@
       <c r="C124" s="27">
         <v>240041700130</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G124" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>123</v>
       </c>
@@ -4225,8 +4519,15 @@
       <c r="C125" s="27">
         <v>240041700131</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G125" s="1">
+        <f t="shared" ref="G125:G126" si="8">ROUNDUP(M125/35*5,2)</f>
+        <v>5</v>
+      </c>
+      <c r="M125" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>124</v>
       </c>
@@ -4236,8 +4537,15 @@
       <c r="C126" s="27">
         <v>240041700132</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G126" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M126" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>125</v>
       </c>
@@ -4247,8 +4555,13 @@
       <c r="C127" s="27">
         <v>240041700133</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G127" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>126</v>
       </c>
@@ -4258,8 +4571,15 @@
       <c r="C128" s="27">
         <v>240041700134</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G128" s="1">
+        <f t="shared" ref="G128:G130" si="9">ROUNDUP(M128/35*5,2)</f>
+        <v>5</v>
+      </c>
+      <c r="M128" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <v>127</v>
       </c>
@@ -4269,8 +4589,15 @@
       <c r="C129" s="27">
         <v>240041700135</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G129" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="M129" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <v>128</v>
       </c>
@@ -4280,8 +4607,15 @@
       <c r="C130" s="27">
         <v>240041700136</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G130" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="M130" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>129</v>
       </c>
@@ -4291,8 +4625,13 @@
       <c r="C131" s="27">
         <v>240041700137</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G131" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <v>130</v>
       </c>
@@ -4302,6 +4641,11 @@
       <c r="C132" s="27">
         <v>240041700138</v>
       </c>
+      <c r="G132" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="M1:M132"/>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="270">
   <si>
     <t>S.N</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>YUDHISHTER</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1473,10 +1476,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="G115" sqref="G115"/>
+      <selection pane="topRight" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1508,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2381,14 +2384,14 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2556,14 +2559,14 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3592,13 +3595,15 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.2299999999999995</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="M85" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
@@ -4311,15 +4316,14 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1">
-        <f t="shared" si="1"/>
-        <v>3.34</v>
+        <v>5</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="M115" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -4335,9 +4339,8 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G116" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -17,7 +17,7 @@
     <sheet name="2023" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024'!$M$1:$M$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024'!$A$2:$M$132</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$2:$C$63</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="270">
   <si>
     <t>S.N</t>
   </si>
@@ -844,7 +844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -901,6 +901,13 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -991,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1080,6 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,12 +1482,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="M41" sqref="M41"/>
+      <selection pane="topRight" activeCell="B126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1501,7 @@
     <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>121</v>
       </c>
@@ -1508,7 +1516,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -1554,7 +1562,9 @@
       <c r="C3" s="19">
         <v>230041700031</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
@@ -1563,13 +1573,32 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1">
+        <f>ROUNDUP(O3/9*100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f>SUM(D3,G3,P3)</f>
+        <v>0</v>
+      </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="30">
+        <f>VLOOKUP(J3,$T$3:$U$6,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -1579,7 +1608,9 @@
       <c r="C4" s="21">
         <v>240041700001</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>14</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
@@ -1588,13 +1619,32 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J67" si="1">ROUNDUP(O4/9*100,1)</f>
+        <v>66.699999999999989</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K67" si="2">SUM(D4,G4,P4)</f>
+        <v>17</v>
+      </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="16">
+        <v>6</v>
+      </c>
+      <c r="P4" s="30">
+        <f t="shared" ref="P4:P67" si="3">VLOOKUP(J4,$T$3:$U$6,2)</f>
+        <v>3</v>
+      </c>
+      <c r="T4" s="16">
+        <v>10</v>
+      </c>
+      <c r="U4" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -1604,7 +1654,9 @@
       <c r="C5" s="19">
         <v>240041700002</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>14</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
@@ -1613,13 +1665,32 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="16">
+        <v>8</v>
+      </c>
+      <c r="P5" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T5" s="16">
+        <v>35</v>
+      </c>
+      <c r="U5" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -1629,7 +1700,9 @@
       <c r="C6" s="21">
         <v>240041700004</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>13</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -1638,13 +1711,32 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>33.4</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>19.78</v>
+      </c>
       <c r="M6" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="16">
+        <v>3</v>
+      </c>
+      <c r="P6" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T6" s="16">
+        <v>75</v>
+      </c>
+      <c r="U6" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -1654,7 +1746,9 @@
       <c r="C7" s="19">
         <v>240041700005</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
@@ -1663,13 +1757,32 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>100</v>
+      </c>
+      <c r="U7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -1679,7 +1792,9 @@
       <c r="C8" s="21">
         <v>240041700006</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>11</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -1688,13 +1803,26 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>18.23</v>
+      </c>
       <c r="M8" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="16">
+        <v>5</v>
+      </c>
+      <c r="P8" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -1704,7 +1832,9 @@
       <c r="C9" s="19">
         <v>240041700007</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -1713,13 +1843,26 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -1729,7 +1872,9 @@
       <c r="C10" s="21">
         <v>240041700008</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -1738,13 +1883,26 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>44.5</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" s="16">
+        <v>4</v>
+      </c>
+      <c r="P10" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -1754,7 +1912,9 @@
       <c r="C11" s="19">
         <v>240041700009</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
@@ -1763,13 +1923,26 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>27.45</v>
+      </c>
       <c r="M11" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="16">
+        <v>8</v>
+      </c>
+      <c r="P11" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -1779,7 +1952,9 @@
       <c r="C12" s="21">
         <v>240041700010</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>17</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
@@ -1788,13 +1963,26 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>44.5</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="16">
+        <v>4</v>
+      </c>
+      <c r="P12" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -1804,7 +1992,9 @@
       <c r="C13" s="19">
         <v>240041700012</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>17</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -1813,13 +2003,26 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>25.67</v>
+      </c>
       <c r="M13" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="16">
+        <v>9</v>
+      </c>
+      <c r="P13" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -1829,7 +2032,9 @@
       <c r="C14" s="21">
         <v>240041700015</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>22</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
@@ -1838,13 +2043,26 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
       <c r="M14" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14" s="16">
+        <v>9</v>
+      </c>
+      <c r="P14" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -1854,7 +2072,9 @@
       <c r="C15" s="19">
         <v>240041700016</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>16</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -1863,13 +2083,26 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>22.3</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="M15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" s="16">
+        <v>2</v>
+      </c>
+      <c r="P15" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -1879,7 +2112,9 @@
       <c r="C16" s="21">
         <v>240041700017</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -1888,13 +2123,26 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" s="16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -1904,7 +2152,9 @@
       <c r="C17" s="19">
         <v>240041700018</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1913,13 +2163,26 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="M17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="16">
+        <v>1</v>
+      </c>
+      <c r="P17" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -1929,7 +2192,9 @@
       <c r="C18" s="21">
         <v>240041700019</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1938,13 +2203,26 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>26.34</v>
+      </c>
       <c r="M18" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="16">
+        <v>5</v>
+      </c>
+      <c r="P18" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -1954,7 +2232,9 @@
       <c r="C19" s="19">
         <v>240041700020</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -1963,13 +2243,26 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="M19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="16">
+        <v>1</v>
+      </c>
+      <c r="P19" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>18</v>
       </c>
@@ -1979,7 +2272,9 @@
       <c r="C20" s="21">
         <v>240041700021</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
@@ -1988,13 +2283,26 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -2004,7 +2312,9 @@
       <c r="C21" s="19">
         <v>240041700022</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>22</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -2013,13 +2323,26 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>29.45</v>
+      </c>
       <c r="M21" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" s="16">
+        <v>5</v>
+      </c>
+      <c r="P21" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -2029,7 +2352,9 @@
       <c r="C22" s="21">
         <v>240041700023</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -2038,13 +2363,26 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>44.5</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="M22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="16">
+        <v>4</v>
+      </c>
+      <c r="P22" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -2054,7 +2392,9 @@
       <c r="C23" s="19">
         <v>240041700024</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>9</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
@@ -2063,13 +2403,26 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>66.699999999999989</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="M23" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" s="16">
+        <v>6</v>
+      </c>
+      <c r="P23" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -2079,7 +2432,9 @@
       <c r="C24" s="21">
         <v>240041700025</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>16</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
@@ -2088,13 +2443,26 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>21.23</v>
+      </c>
       <c r="M24" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24" s="16">
+        <v>5</v>
+      </c>
+      <c r="P24" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
@@ -2104,7 +2472,9 @@
       <c r="C25" s="19">
         <v>240041700026</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>27</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
@@ -2113,13 +2483,26 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>77.8</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>35.67</v>
+      </c>
       <c r="M25" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" s="16">
+        <v>7</v>
+      </c>
+      <c r="P25" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -2129,7 +2512,9 @@
       <c r="C26" s="21">
         <v>240041700027</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>14</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
@@ -2138,13 +2523,26 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>20.67</v>
+      </c>
       <c r="M26" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="O26" s="16">
+        <v>5</v>
+      </c>
+      <c r="P26" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -2154,7 +2552,9 @@
       <c r="C27" s="19">
         <v>240041700028</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
@@ -2163,13 +2563,26 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+      <c r="P27" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -2179,7 +2592,9 @@
       <c r="C28" s="21">
         <v>240041700029</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>22</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
@@ -2188,13 +2603,26 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>30.23</v>
+      </c>
       <c r="M28" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28" s="16">
+        <v>9</v>
+      </c>
+      <c r="P28" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -2204,7 +2632,9 @@
       <c r="C29" s="19">
         <v>240041700030</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
@@ -2213,13 +2643,26 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>44.5</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>16.89</v>
+      </c>
       <c r="M29" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" s="16">
+        <v>4</v>
+      </c>
+      <c r="P29" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -2229,7 +2672,9 @@
       <c r="C30" s="21">
         <v>240041700031</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>19</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
@@ -2238,13 +2683,26 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>27.78</v>
+      </c>
       <c r="M30" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30" s="16">
+        <v>8</v>
+      </c>
+      <c r="P30" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -2254,7 +2712,9 @@
       <c r="C31" s="19">
         <v>240041700032</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1">
+        <v>15</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
@@ -2263,13 +2723,26 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>22.89</v>
+      </c>
       <c r="M31" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O31" s="16">
+        <v>8</v>
+      </c>
+      <c r="P31" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
@@ -2279,7 +2752,9 @@
       <c r="C32" s="21">
         <v>240041700033</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1">
@@ -2288,13 +2763,26 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>33.4</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="M32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32" s="16">
+        <v>3</v>
+      </c>
+      <c r="P32" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -2304,7 +2792,9 @@
       <c r="C33" s="19">
         <v>240041700034</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
@@ -2313,13 +2803,26 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>44.5</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>16.89</v>
+      </c>
       <c r="M33" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="O33" s="16">
+        <v>4</v>
+      </c>
+      <c r="P33" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -2329,7 +2832,9 @@
       <c r="C34" s="21">
         <v>240041700035</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1">
+        <v>22</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1">
@@ -2338,13 +2843,26 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="2"/>
+        <v>30.67</v>
+      </c>
       <c r="M34" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34" s="16">
+        <v>8</v>
+      </c>
+      <c r="P34" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -2354,7 +2872,9 @@
       <c r="C35" s="19">
         <v>240041700037</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1">
+        <v>10</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
@@ -2363,13 +2883,26 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="J35" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="2"/>
+        <v>18.670000000000002</v>
+      </c>
       <c r="M35" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35" s="16">
+        <v>9</v>
+      </c>
+      <c r="P35" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -2379,7 +2912,9 @@
       <c r="C36" s="21">
         <v>240041700038</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
@@ -2388,13 +2923,26 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="J36" s="1">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>11.67</v>
+      </c>
       <c r="M36" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O36" s="16">
+        <v>1</v>
+      </c>
+      <c r="P36" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>35</v>
       </c>
@@ -2404,7 +2952,9 @@
       <c r="C37" s="19">
         <v>240041700039</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1">
+        <v>15</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
@@ -2413,13 +2963,26 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="M37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O37" s="16">
+        <v>5</v>
+      </c>
+      <c r="P37" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>36</v>
       </c>
@@ -2429,7 +2992,9 @@
       <c r="C38" s="21">
         <v>240041700040</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
@@ -2438,13 +3003,26 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="M38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38" s="16">
+        <v>9</v>
+      </c>
+      <c r="P38" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>37</v>
       </c>
@@ -2454,7 +3032,9 @@
       <c r="C39" s="19">
         <v>240041700041</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
@@ -2463,13 +3043,26 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O39" s="16">
+        <v>0</v>
+      </c>
+      <c r="P39" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -2479,7 +3072,9 @@
       <c r="C40" s="21">
         <v>240041700042</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
@@ -2488,13 +3083,26 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="M40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O40" s="16">
+        <v>8</v>
+      </c>
+      <c r="P40" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>39</v>
       </c>
@@ -2504,7 +3112,9 @@
       <c r="C41" s="19">
         <v>240041700043</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
@@ -2513,13 +3123,26 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="M41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41" s="16">
+        <v>1</v>
+      </c>
+      <c r="P41" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -2529,7 +3152,9 @@
       <c r="C42" s="21">
         <v>240041700044</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1">
+        <v>10</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
@@ -2538,13 +3163,26 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>33.4</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="2"/>
+        <v>15.67</v>
+      </c>
       <c r="M42" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O42" s="16">
+        <v>3</v>
+      </c>
+      <c r="P42" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>41</v>
       </c>
@@ -2554,7 +3192,9 @@
       <c r="C43" s="19">
         <v>240041700045</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1">
+        <v>14</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
@@ -2563,13 +3203,26 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="2"/>
+        <v>21.67</v>
+      </c>
       <c r="M43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O43" s="16">
+        <v>5</v>
+      </c>
+      <c r="P43" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42</v>
       </c>
@@ -2579,7 +3232,9 @@
       <c r="C44" s="21">
         <v>240041700046</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1">
+        <v>10</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
@@ -2588,13 +3243,26 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="J44" s="1">
+        <f t="shared" si="1"/>
+        <v>33.4</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="M44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O44" s="16">
+        <v>3</v>
+      </c>
+      <c r="P44" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -2604,7 +3272,9 @@
       <c r="C45" s="19">
         <v>240041700047</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
@@ -2613,13 +3283,26 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="J45" s="1">
+        <f t="shared" si="1"/>
+        <v>33.4</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="M45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O45" s="16">
+        <v>3</v>
+      </c>
+      <c r="P45" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -2629,7 +3312,9 @@
       <c r="C46" s="21">
         <v>240041700048</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
@@ -2638,13 +3323,26 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="J46" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="M46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O46" s="16">
+        <v>8</v>
+      </c>
+      <c r="P46" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -2654,7 +3352,9 @@
       <c r="C47" s="19">
         <v>240041700049</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1">
+        <v>7</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1">
@@ -2663,13 +3363,26 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="J47" s="1">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="2"/>
+        <v>14.78</v>
+      </c>
       <c r="M47" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O47" s="16">
+        <v>5</v>
+      </c>
+      <c r="P47" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -2679,7 +3392,9 @@
       <c r="C48" s="21">
         <v>240041700050</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1">
+        <v>10</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
@@ -2688,13 +3403,26 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="J48" s="1">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="M48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O48" s="16">
+        <v>1</v>
+      </c>
+      <c r="P48" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>47</v>
       </c>
@@ -2704,7 +3432,9 @@
       <c r="C49" s="19">
         <v>240041700051</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1">
+        <v>10</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
@@ -2713,13 +3443,26 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="J49" s="1">
+        <f t="shared" si="1"/>
+        <v>22.3</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="M49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O49" s="16">
+        <v>2</v>
+      </c>
+      <c r="P49" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>48</v>
       </c>
@@ -2729,7 +3472,9 @@
       <c r="C50" s="21">
         <v>240041700052</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1">
+        <v>9</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1">
@@ -2738,13 +3483,26 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="J50" s="1">
+        <f t="shared" si="1"/>
+        <v>66.699999999999989</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="M50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O50" s="16">
+        <v>6</v>
+      </c>
+      <c r="P50" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -2754,7 +3512,9 @@
       <c r="C51" s="19">
         <v>240041700053</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1">
@@ -2763,13 +3523,26 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="J51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="M51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O51" s="16">
+        <v>0</v>
+      </c>
+      <c r="P51" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>50</v>
       </c>
@@ -2779,7 +3552,9 @@
       <c r="C52" s="21">
         <v>240041700054</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1">
+        <v>19</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
@@ -2788,13 +3563,26 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="J52" s="1">
+        <f t="shared" si="1"/>
+        <v>77.8</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="2"/>
+        <v>27.67</v>
+      </c>
       <c r="M52" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O52" s="16">
+        <v>7</v>
+      </c>
+      <c r="P52" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -2804,7 +3592,9 @@
       <c r="C53" s="19">
         <v>240041700055</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1">
+        <v>21</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1">
@@ -2813,13 +3603,26 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="J53" s="1">
+        <f t="shared" si="1"/>
+        <v>66.699999999999989</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="2"/>
+        <v>28.67</v>
+      </c>
       <c r="M53" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O53" s="16">
+        <v>6</v>
+      </c>
+      <c r="P53" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>52</v>
       </c>
@@ -2829,7 +3632,9 @@
       <c r="C54" s="21">
         <v>240041700056</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1">
+        <v>10</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1">
@@ -2838,13 +3643,26 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="J54" s="1">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="M54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O54" s="16">
+        <v>1</v>
+      </c>
+      <c r="P54" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>53</v>
       </c>
@@ -2854,7 +3672,9 @@
       <c r="C55" s="19">
         <v>240041700057</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1">
@@ -2863,13 +3683,26 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="J55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O55" s="16">
+        <v>0</v>
+      </c>
+      <c r="P55" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -2879,7 +3712,9 @@
       <c r="C56" s="21">
         <v>240041700058</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1">
@@ -2888,13 +3723,26 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="J56" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="2"/>
+        <v>13.559999999999999</v>
+      </c>
       <c r="M56" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O56" s="16">
+        <v>8</v>
+      </c>
+      <c r="P56" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>55</v>
       </c>
@@ -2904,7 +3752,9 @@
       <c r="C57" s="19">
         <v>240041700059</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1">
@@ -2913,13 +3763,26 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="J57" s="1">
+        <f t="shared" si="1"/>
+        <v>22.3</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="M57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O57" s="16">
+        <v>2</v>
+      </c>
+      <c r="P57" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -2929,7 +3792,9 @@
       <c r="C58" s="21">
         <v>240041700060</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
@@ -2938,13 +3803,26 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="J58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O58" s="16">
+        <v>0</v>
+      </c>
+      <c r="P58" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -2954,22 +3832,37 @@
       <c r="C59" s="19">
         <v>240041700061</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1">
+        <v>21</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="J59" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="2"/>
+        <v>29.67</v>
+      </c>
       <c r="M59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O59" s="16">
+        <v>8</v>
+      </c>
+      <c r="P59" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>58</v>
       </c>
@@ -2979,7 +3872,9 @@
       <c r="C60" s="21">
         <v>240041700062</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1">
@@ -2988,13 +3883,26 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="J60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O60" s="16">
+        <v>0</v>
+      </c>
+      <c r="P60" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>59</v>
       </c>
@@ -3004,7 +3912,9 @@
       <c r="C61" s="19">
         <v>240041700063</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1">
+        <v>8</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1">
@@ -3013,13 +3923,26 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="J61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="M61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O61" s="16">
+        <v>0</v>
+      </c>
+      <c r="P61" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>60</v>
       </c>
@@ -3029,7 +3952,9 @@
       <c r="C62" s="21">
         <v>240041700064</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1">
+        <v>21</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1">
@@ -3038,13 +3963,26 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="J62" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
       <c r="M62" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O62" s="16">
+        <v>9</v>
+      </c>
+      <c r="P62" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>61</v>
       </c>
@@ -3054,7 +3992,9 @@
       <c r="C63" s="19">
         <v>240041700066</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1">
@@ -3063,13 +4003,26 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="J63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O63" s="16">
+        <v>0</v>
+      </c>
+      <c r="P63" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>62</v>
       </c>
@@ -3079,7 +4032,9 @@
       <c r="C64" s="21">
         <v>240041700067</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1">
+        <v>27</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1">
@@ -3088,13 +4043,26 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="J64" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" si="2"/>
+        <v>35.450000000000003</v>
+      </c>
       <c r="M64" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O64" s="16">
+        <v>8</v>
+      </c>
+      <c r="P64" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>63</v>
       </c>
@@ -3104,7 +4072,9 @@
       <c r="C65" s="19">
         <v>240041700068</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1">
+        <v>21</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1">
@@ -3113,13 +4083,26 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="J65" s="1">
+        <f t="shared" si="1"/>
+        <v>77.8</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="2"/>
+        <v>29.78</v>
+      </c>
       <c r="M65" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O65" s="16">
+        <v>7</v>
+      </c>
+      <c r="P65" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>64</v>
       </c>
@@ -3129,7 +4112,9 @@
       <c r="C66" s="21">
         <v>240041700069</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1">
+        <v>22</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1">
@@ -3138,13 +4123,26 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="J66" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
       <c r="M66" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O66" s="16">
+        <v>8</v>
+      </c>
+      <c r="P66" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>65</v>
       </c>
@@ -3154,7 +4152,9 @@
       <c r="C67" s="19">
         <v>240041700070</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1">
+        <v>21</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1">
@@ -3163,13 +4163,26 @@
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="J67" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="2"/>
+        <v>29.67</v>
+      </c>
       <c r="M67" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O67" s="16">
+        <v>8</v>
+      </c>
+      <c r="P67" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>66</v>
       </c>
@@ -3179,7 +4192,9 @@
       <c r="C68" s="25">
         <v>240041700071</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1">
+        <v>14</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1">
@@ -3188,13 +4203,26 @@
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="J68" s="1">
+        <f>ROUNDUP(O68/8*100,1)</f>
+        <v>50</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" ref="K68:K131" si="4">SUM(D68,G68,P68)</f>
+        <v>21.23</v>
+      </c>
       <c r="M68" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O68" s="16">
+        <v>4</v>
+      </c>
+      <c r="P68" s="30">
+        <f t="shared" ref="P68:P131" si="5">VLOOKUP(J68,$T$3:$U$6,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>67</v>
       </c>
@@ -3204,7 +4232,9 @@
       <c r="C69" s="26">
         <v>240041700072</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1">
+        <v>19</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1">
@@ -3213,13 +4243,26 @@
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
+      <c r="J69" s="1">
+        <f t="shared" ref="J69:J132" si="6">ROUNDUP(O69/8*100,1)</f>
+        <v>100</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="4"/>
+        <v>27.67</v>
+      </c>
       <c r="M69" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="O69" s="16">
+        <v>8</v>
+      </c>
+      <c r="P69" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>68</v>
       </c>
@@ -3229,20 +4272,35 @@
       <c r="C70" s="25">
         <v>240041700073</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1">
+        <v>10</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1">
-        <f t="shared" ref="G70:G132" si="1">ROUNDUP(M70/45*5,2)</f>
+        <f t="shared" ref="G70:G132" si="7">ROUNDUP(M70/45*5,2)</f>
         <v>0</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
+      <c r="J70" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K70" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
       <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O70" s="16">
+        <v>2</v>
+      </c>
+      <c r="P70" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>69</v>
       </c>
@@ -3252,7 +4310,9 @@
       <c r="C71" s="26">
         <v>240041700074</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1">
@@ -3261,13 +4321,26 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
+      <c r="J71" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="4"/>
+        <v>8.7199999999999989</v>
+      </c>
       <c r="M71" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O71" s="16">
+        <v>2</v>
+      </c>
+      <c r="P71" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>70</v>
       </c>
@@ -3277,7 +4350,9 @@
       <c r="C72" s="25">
         <v>240041700075</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1">
+        <v>12</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
@@ -3286,13 +4361,26 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="J72" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
       <c r="M72" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O72" s="16">
+        <v>0</v>
+      </c>
+      <c r="P72" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>71</v>
       </c>
@@ -3302,22 +4390,37 @@
       <c r="C73" s="26">
         <v>240041700076</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1">
+        <v>24</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.7799999999999994</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="J73" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K73" s="1">
+        <f t="shared" si="4"/>
+        <v>32.78</v>
+      </c>
       <c r="M73" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O73" s="16">
+        <v>8</v>
+      </c>
+      <c r="P73" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>72</v>
       </c>
@@ -3327,7 +4430,9 @@
       <c r="C74" s="25">
         <v>240041700077</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1">
+        <v>11</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1">
@@ -3336,13 +4441,26 @@
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="J74" s="1">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="4"/>
+        <v>18.29</v>
+      </c>
       <c r="M74" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O74" s="16">
+        <v>5</v>
+      </c>
+      <c r="P74" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>73</v>
       </c>
@@ -3352,20 +4470,35 @@
       <c r="C75" s="26">
         <v>240041700078</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1">
+        <v>10</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="J75" s="1">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
       <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="O75" s="16">
+        <v>3</v>
+      </c>
+      <c r="P75" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>74</v>
       </c>
@@ -3375,7 +4508,9 @@
       <c r="C76" s="25">
         <v>240041700079</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1">
+        <v>6</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1">
@@ -3384,13 +4519,26 @@
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="J76" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
       <c r="M76" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O76" s="16">
+        <v>4</v>
+      </c>
+      <c r="P76" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>75</v>
       </c>
@@ -3400,22 +4548,37 @@
       <c r="C77" s="26">
         <v>240041700080</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1">
+        <v>27</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.67</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="J77" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="4"/>
+        <v>35.67</v>
+      </c>
       <c r="M77" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O77" s="16">
+        <v>8</v>
+      </c>
+      <c r="P77" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>76</v>
       </c>
@@ -3425,20 +4588,35 @@
       <c r="C78" s="25">
         <v>240041700082</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1">
+        <v>8</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="J78" s="1">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
       <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O78" s="16">
+        <v>5</v>
+      </c>
+      <c r="P78" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>77</v>
       </c>
@@ -3448,20 +4626,35 @@
       <c r="C79" s="26">
         <v>240041700083</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1">
+        <v>15</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="J79" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
       <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O79" s="16">
+        <v>2</v>
+      </c>
+      <c r="P79" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>78</v>
       </c>
@@ -3471,22 +4664,37 @@
       <c r="C80" s="25">
         <v>240041700084</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1">
+        <v>21</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
-        <f t="shared" ref="G80:G81" si="2">ROUNDUP(M80/35*5,2)</f>
+        <f t="shared" ref="G80:G81" si="8">ROUNDUP(M80/35*5,2)</f>
         <v>5</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="J80" s="1">
+        <f t="shared" si="6"/>
+        <v>87.5</v>
+      </c>
+      <c r="K80" s="1">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
       <c r="M80" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O80" s="16">
+        <v>7</v>
+      </c>
+      <c r="P80" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>79</v>
       </c>
@@ -3496,22 +4704,37 @@
       <c r="C81" s="26">
         <v>240041700085</v>
       </c>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1">
+        <v>4</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="J81" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
       <c r="M81" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O81" s="16">
+        <v>2</v>
+      </c>
+      <c r="P81" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>80</v>
       </c>
@@ -3521,20 +4744,35 @@
       <c r="C82" s="25">
         <v>240041700086</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1">
+        <v>15</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="J82" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
       <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O82" s="16">
+        <v>4</v>
+      </c>
+      <c r="P82" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>81</v>
       </c>
@@ -3544,20 +4782,35 @@
       <c r="C83" s="26">
         <v>240041700087</v>
       </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1">
+        <v>13</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="J83" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O83" s="16">
+        <v>4</v>
+      </c>
+      <c r="P83" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>82</v>
       </c>
@@ -3567,20 +4820,35 @@
       <c r="C84" s="25">
         <v>240041700088</v>
       </c>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
+      <c r="J84" s="1">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="O84" s="16">
+        <v>1</v>
+      </c>
+      <c r="P84" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>83</v>
       </c>
@@ -3590,22 +4858,37 @@
       <c r="C85" s="26">
         <v>240041700090</v>
       </c>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1">
+        <v>19</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.2299999999999995</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="J85" s="1">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="4"/>
+        <v>26.23</v>
+      </c>
       <c r="M85" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O85" s="16">
+        <v>3</v>
+      </c>
+      <c r="P85" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>84</v>
       </c>
@@ -3615,20 +4898,35 @@
       <c r="C86" s="25">
         <v>240041700091</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+      <c r="J86" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="O86" s="16">
+        <v>2</v>
+      </c>
+      <c r="P86" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
@@ -3638,20 +4936,35 @@
       <c r="C87" s="26">
         <v>240041700092</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="J87" s="1">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="O87" s="16">
+        <v>1</v>
+      </c>
+      <c r="P87" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
@@ -3661,22 +4974,37 @@
       <c r="C88" s="25">
         <v>240041700093</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1">
+        <v>17</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1">
-        <f t="shared" ref="G88:G90" si="3">ROUNDUP(M88/35*5,2)</f>
+        <f t="shared" ref="G88:G90" si="9">ROUNDUP(M88/35*5,2)</f>
         <v>5</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="J88" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K88" s="1">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
       <c r="M88" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O88" s="16">
+        <v>4</v>
+      </c>
+      <c r="P88" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>87</v>
       </c>
@@ -3686,22 +5014,37 @@
       <c r="C89" s="26">
         <v>240041700094</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1">
+        <v>20</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.29</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
+      <c r="J89" s="1">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="4"/>
+        <v>27.29</v>
+      </c>
       <c r="M89" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O89" s="16">
+        <v>5</v>
+      </c>
+      <c r="P89" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>88</v>
       </c>
@@ -3711,22 +5054,37 @@
       <c r="C90" s="25">
         <v>240041700095</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1">
+        <v>6</v>
+      </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+      <c r="J90" s="1">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+      <c r="K90" s="1">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
       <c r="M90" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O90" s="16">
+        <v>5</v>
+      </c>
+      <c r="P90" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>89</v>
       </c>
@@ -3736,20 +5094,35 @@
       <c r="C91" s="26">
         <v>240041700096</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
+      <c r="J91" s="1">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="K91" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O91" s="16">
+        <v>1</v>
+      </c>
+      <c r="P91" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>90</v>
       </c>
@@ -3759,20 +5132,35 @@
       <c r="C92" s="25">
         <v>240041700097</v>
       </c>
-      <c r="D92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
+      <c r="J92" s="1">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="K92" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O92" s="16">
+        <v>1</v>
+      </c>
+      <c r="P92" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>91</v>
       </c>
@@ -3782,20 +5170,35 @@
       <c r="C93" s="26">
         <v>240041700098</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1">
+        <v>10</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="J93" s="1">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K93" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
       <c r="M93" s="1"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O93" s="16">
+        <v>3</v>
+      </c>
+      <c r="P93" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>92</v>
       </c>
@@ -3805,20 +5208,35 @@
       <c r="C94" s="25">
         <v>240041700099</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
+      <c r="J94" s="1">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="K94" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="M94" s="1"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O94" s="16">
+        <v>1</v>
+      </c>
+      <c r="P94" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>93</v>
       </c>
@@ -3828,20 +5246,35 @@
       <c r="C95" s="26">
         <v>240041700100</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="1">
+        <v>7</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+      <c r="J95" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K95" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
       <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O95" s="16">
+        <v>2</v>
+      </c>
+      <c r="P95" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>94</v>
       </c>
@@ -3851,20 +5284,35 @@
       <c r="C96" s="25">
         <v>240041700101</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1">
+        <v>7</v>
+      </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
+      <c r="J96" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
       <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O96" s="16">
+        <v>0</v>
+      </c>
+      <c r="P96" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>95</v>
       </c>
@@ -3874,22 +5322,37 @@
       <c r="C97" s="26">
         <v>240041700102</v>
       </c>
-      <c r="D97" s="1"/>
+      <c r="D97" s="1">
+        <v>17</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1">
-        <f t="shared" ref="G97:G100" si="4">ROUNDUP(M97/35*5,2)</f>
+        <f t="shared" ref="G97:G100" si="10">ROUNDUP(M97/35*5,2)</f>
         <v>5</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="J97" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
       <c r="M97" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O97" s="16">
+        <v>6</v>
+      </c>
+      <c r="P97" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>96</v>
       </c>
@@ -3899,22 +5362,37 @@
       <c r="C98" s="25">
         <v>240041700103</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="1">
+        <v>19</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
+      <c r="J98" s="1">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K98" s="1">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
       <c r="M98" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O98" s="16">
+        <v>3</v>
+      </c>
+      <c r="P98" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>97</v>
       </c>
@@ -3924,22 +5402,37 @@
       <c r="C99" s="26">
         <v>240041700104</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="D99" s="1">
+        <v>7</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
+      <c r="J99" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K99" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
       <c r="M99" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O99" s="16">
+        <v>4</v>
+      </c>
+      <c r="P99" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>98</v>
       </c>
@@ -3949,22 +5442,37 @@
       <c r="C100" s="25">
         <v>240041700105</v>
       </c>
-      <c r="D100" s="1"/>
+      <c r="D100" s="1">
+        <v>14</v>
+      </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
+      <c r="J100" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K100" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
       <c r="M100" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O100" s="16">
+        <v>4</v>
+      </c>
+      <c r="P100" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>99</v>
       </c>
@@ -3974,20 +5482,35 @@
       <c r="C101" s="26">
         <v>240041700106</v>
       </c>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1">
+        <v>19</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
+      <c r="J101" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K101" s="1">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
       <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O101" s="16">
+        <v>2</v>
+      </c>
+      <c r="P101" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>100</v>
       </c>
@@ -3997,22 +5520,37 @@
       <c r="C102" s="25">
         <v>240041700107</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1">
+        <v>14</v>
+      </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
+      <c r="J102" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K102" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
       <c r="M102" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O102" s="16">
+        <v>4</v>
+      </c>
+      <c r="P102" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>101</v>
       </c>
@@ -4022,7 +5560,9 @@
       <c r="C103" s="26">
         <v>240041700108</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1">
+        <v>8</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1">
@@ -4031,13 +5571,26 @@
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
+      <c r="J103" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K103" s="1">
+        <f t="shared" si="4"/>
+        <v>15.58</v>
+      </c>
       <c r="M103" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O103" s="16">
+        <v>6</v>
+      </c>
+      <c r="P103" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>102</v>
       </c>
@@ -4047,22 +5600,37 @@
       <c r="C104" s="25">
         <v>240041700110</v>
       </c>
-      <c r="D104" s="1"/>
+      <c r="D104" s="1">
+        <v>24</v>
+      </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.67</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
+      <c r="J104" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K104" s="1">
+        <f t="shared" si="4"/>
+        <v>32.67</v>
+      </c>
       <c r="M104" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O104" s="16">
+        <v>8</v>
+      </c>
+      <c r="P104" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>103</v>
       </c>
@@ -4072,7 +5640,9 @@
       <c r="C105" s="26">
         <v>240041700111</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="1">
+        <v>7</v>
+      </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1">
@@ -4081,13 +5651,26 @@
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
+      <c r="J105" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="4"/>
+        <v>14.58</v>
+      </c>
       <c r="M105" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O105" s="16">
+        <v>6</v>
+      </c>
+      <c r="P105" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>104</v>
       </c>
@@ -4097,20 +5680,35 @@
       <c r="C106" s="25">
         <v>240041700112</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
+      <c r="J106" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O106" s="16">
+        <v>0</v>
+      </c>
+      <c r="P106" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <v>105</v>
       </c>
@@ -4120,20 +5718,35 @@
       <c r="C107" s="26">
         <v>240041700113</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
+      <c r="J107" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="O107" s="16">
+        <v>0</v>
+      </c>
+      <c r="P107" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>106</v>
       </c>
@@ -4143,22 +5756,37 @@
       <c r="C108" s="25">
         <v>240041700114</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="1">
+        <v>22</v>
+      </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
+      <c r="J108" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K108" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
       <c r="M108" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O108" s="16">
+        <v>8</v>
+      </c>
+      <c r="P108" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>107</v>
       </c>
@@ -4168,20 +5796,35 @@
       <c r="C109" s="26">
         <v>240041700115</v>
       </c>
-      <c r="D109" s="1"/>
+      <c r="D109" s="1">
+        <v>10</v>
+      </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
+      <c r="J109" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K109" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
       <c r="M109" s="1"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O109" s="16">
+        <v>2</v>
+      </c>
+      <c r="P109" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <v>108</v>
       </c>
@@ -4191,20 +5834,35 @@
       <c r="C110" s="25">
         <v>240041700116</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
+      <c r="J110" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K110" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="M110" s="1"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O110" s="16">
+        <v>6</v>
+      </c>
+      <c r="P110" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>109</v>
       </c>
@@ -4214,22 +5872,37 @@
       <c r="C111" s="26">
         <v>240041700117</v>
       </c>
-      <c r="D111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1">
-        <f t="shared" ref="G111:G112" si="5">ROUNDUP(M111/35*5,2)</f>
+        <f t="shared" ref="G111:G112" si="11">ROUNDUP(M111/35*5,2)</f>
         <v>4.72</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
+      <c r="J111" s="1">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K111" s="1">
+        <f t="shared" si="4"/>
+        <v>7.72</v>
+      </c>
       <c r="M111" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="O111" s="16">
+        <v>3</v>
+      </c>
+      <c r="P111" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>110</v>
       </c>
@@ -4239,22 +5912,37 @@
       <c r="C112" s="25">
         <v>240041700118</v>
       </c>
-      <c r="D112" s="1"/>
+      <c r="D112" s="1">
+        <v>11</v>
+      </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
+      <c r="J112" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K112" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
       <c r="M112" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O112" s="16">
+        <v>4</v>
+      </c>
+      <c r="P112" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>111</v>
       </c>
@@ -4264,20 +5952,35 @@
       <c r="C113" s="26">
         <v>240041700119</v>
       </c>
-      <c r="D113" s="1"/>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
+      <c r="J113" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="M113" s="1"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O113" s="16">
+        <v>0</v>
+      </c>
+      <c r="P113" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>112</v>
       </c>
@@ -4287,7 +5990,9 @@
       <c r="C114" s="25">
         <v>240041700120</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1">
+        <v>15</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1">
@@ -4296,13 +6001,26 @@
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
+      <c r="J114" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K114" s="1">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
       <c r="M114" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O114" s="16">
+        <v>4</v>
+      </c>
+      <c r="P114" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>113</v>
       </c>
@@ -4312,7 +6030,9 @@
       <c r="C115" s="26">
         <v>240041700121</v>
       </c>
-      <c r="D115" s="1"/>
+      <c r="D115" s="1">
+        <v>7</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1">
@@ -4320,13 +6040,26 @@
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
+      <c r="J115" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K115" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
       <c r="M115" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O115" s="16">
+        <v>4</v>
+      </c>
+      <c r="P115" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>114</v>
       </c>
@@ -4336,7 +6069,9 @@
       <c r="C116" s="25">
         <v>240041700122</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
@@ -4344,11 +6079,24 @@
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
+      <c r="J116" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K116" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="M116" s="1"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O116" s="16">
+        <v>2</v>
+      </c>
+      <c r="P116" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <v>115</v>
       </c>
@@ -4358,20 +6106,35 @@
       <c r="C117" s="26">
         <v>240041700123</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
+      <c r="J117" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="M117" s="1"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O117" s="16">
+        <v>0</v>
+      </c>
+      <c r="P117" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>116</v>
       </c>
@@ -4381,22 +6144,37 @@
       <c r="C118" s="25">
         <v>240041700124</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1">
+        <v>10</v>
+      </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1">
-        <f t="shared" ref="G118:G119" si="6">ROUNDUP(M118/35*5,2)</f>
+        <f t="shared" ref="G118:G119" si="12">ROUNDUP(M118/35*5,2)</f>
         <v>5</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
+      <c r="J118" s="1">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+      <c r="K118" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
       <c r="M118" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O118" s="16">
+        <v>5</v>
+      </c>
+      <c r="P118" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>117</v>
       </c>
@@ -4406,22 +6184,37 @@
       <c r="C119" s="26">
         <v>240041700125</v>
       </c>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1">
+        <v>19</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
+      <c r="J119" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K119" s="1">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
       <c r="M119" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O119" s="16">
+        <v>8</v>
+      </c>
+      <c r="P119" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>118</v>
       </c>
@@ -4431,15 +6224,33 @@
       <c r="C120" s="25">
         <v>240041700126</v>
       </c>
+      <c r="D120" s="16">
+        <v>19</v>
+      </c>
       <c r="G120" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
+      <c r="J120" s="1">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K120" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
       <c r="M120" s="1"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O120" s="16">
+        <v>3</v>
+      </c>
+      <c r="P120" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>119</v>
       </c>
@@ -4449,17 +6260,35 @@
       <c r="C121" s="26">
         <v>240041700127</v>
       </c>
+      <c r="D121" s="16">
+        <v>9</v>
+      </c>
       <c r="G121" s="1">
-        <f t="shared" ref="G121:G122" si="7">ROUNDUP(M121/35*5,2)</f>
+        <f t="shared" ref="G121:G122" si="13">ROUNDUP(M121/35*5,2)</f>
         <v>5</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
+      <c r="J121" s="1">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K121" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
       <c r="M121" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O121" s="16">
+        <v>3</v>
+      </c>
+      <c r="P121" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>120</v>
       </c>
@@ -4469,18 +6298,35 @@
       <c r="C122" s="25">
         <v>240041700128</v>
       </c>
-      <c r="D122" s="1"/>
+      <c r="D122" s="1">
+        <v>17</v>
+      </c>
       <c r="G122" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.29</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
+      <c r="J122" s="1">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+      <c r="K122" s="1">
+        <f t="shared" si="4"/>
+        <v>24.29</v>
+      </c>
       <c r="M122" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O122" s="16">
+        <v>5</v>
+      </c>
+      <c r="P122" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <v>121</v>
       </c>
@@ -4490,13 +6336,31 @@
       <c r="C123" s="27">
         <v>240041700129</v>
       </c>
+      <c r="D123" s="16">
+        <v>8</v>
+      </c>
       <c r="G123" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M123" s="1"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O123" s="16">
+        <v>0</v>
+      </c>
+      <c r="P123" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>122</v>
       </c>
@@ -4506,13 +6370,31 @@
       <c r="C124" s="27">
         <v>240041700130</v>
       </c>
+      <c r="D124" s="16">
+        <v>11</v>
+      </c>
       <c r="G124" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K124" s="1">
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="M124" s="1"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O124" s="16">
+        <v>4</v>
+      </c>
+      <c r="P124" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>123</v>
       </c>
@@ -4522,15 +6404,33 @@
       <c r="C125" s="27">
         <v>240041700131</v>
       </c>
+      <c r="D125" s="16">
+        <v>17</v>
+      </c>
       <c r="G125" s="1">
-        <f t="shared" ref="G125:G126" si="8">ROUNDUP(M125/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" ref="G125:G126" si="14">ROUNDUP(M125/35*5,2)</f>
+        <v>5</v>
+      </c>
+      <c r="J125" s="1">
+        <f t="shared" si="6"/>
+        <v>87.5</v>
+      </c>
+      <c r="K125" s="1">
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="M125" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O125" s="16">
+        <v>7</v>
+      </c>
+      <c r="P125" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>124</v>
       </c>
@@ -4540,15 +6440,33 @@
       <c r="C126" s="27">
         <v>240041700132</v>
       </c>
+      <c r="D126" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="G126" s="1">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="J126" s="1">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K126" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M126" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O126" s="16">
+        <v>3</v>
+      </c>
+      <c r="P126" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>125</v>
       </c>
@@ -4558,13 +6476,31 @@
       <c r="C127" s="27">
         <v>240041700133</v>
       </c>
+      <c r="D127" s="16">
+        <v>12</v>
+      </c>
       <c r="G127" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K127" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="M127" s="1"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O127" s="16">
+        <v>6</v>
+      </c>
+      <c r="P127" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>126</v>
       </c>
@@ -4574,15 +6510,33 @@
       <c r="C128" s="27">
         <v>240041700134</v>
       </c>
+      <c r="D128" s="16">
+        <v>9</v>
+      </c>
       <c r="G128" s="1">
-        <f t="shared" ref="G128:G130" si="9">ROUNDUP(M128/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" ref="G128:G130" si="15">ROUNDUP(M128/35*5,2)</f>
+        <v>5</v>
+      </c>
+      <c r="J128" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K128" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="M128" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O128" s="16">
+        <v>4</v>
+      </c>
+      <c r="P128" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <v>127</v>
       </c>
@@ -4592,15 +6546,33 @@
       <c r="C129" s="27">
         <v>240041700135</v>
       </c>
+      <c r="D129" s="16">
+        <v>2</v>
+      </c>
       <c r="G129" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="J129" s="1">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="K129" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="M129" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O129" s="16">
+        <v>1</v>
+      </c>
+      <c r="P129" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <v>128</v>
       </c>
@@ -4610,15 +6582,33 @@
       <c r="C130" s="27">
         <v>240041700136</v>
       </c>
+      <c r="D130" s="16">
+        <v>15</v>
+      </c>
       <c r="G130" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="J130" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K130" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="M130" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O130" s="16">
+        <v>2</v>
+      </c>
+      <c r="P130" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>129</v>
       </c>
@@ -4628,13 +6618,31 @@
       <c r="C131" s="27">
         <v>240041700137</v>
       </c>
+      <c r="D131" s="16">
+        <v>15</v>
+      </c>
       <c r="G131" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+      <c r="K131" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="M131" s="1"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O131" s="16">
+        <v>5</v>
+      </c>
+      <c r="P131" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <v>130</v>
       </c>
@@ -4644,15 +6652,34 @@
       <c r="C132" s="27">
         <v>240041700138</v>
       </c>
+      <c r="D132" s="16">
+        <v>4</v>
+      </c>
       <c r="G132" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="K132" s="1">
+        <f t="shared" ref="K132" si="16">SUM(D132,G132,P132)</f>
+        <v>7</v>
       </c>
       <c r="M132" s="1"/>
+      <c r="O132" s="16">
+        <v>3</v>
+      </c>
+      <c r="P132" s="30">
+        <f t="shared" ref="P132" si="17">VLOOKUP(J132,$T$3:$U$6,2)</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="M1:M132"/>
+  <autoFilter ref="A2:M132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4661,7 +6688,7 @@
   <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9233,7 +11260,7 @@
   <dimension ref="A1:X133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="269">
   <si>
     <t>S.N</t>
   </si>
@@ -832,9 +832,6 @@
   </si>
   <si>
     <t>YUDHISHTER</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1081,13 +1078,13 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1484,10 +1481,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="B126" sqref="A126:XFD126"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3:G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1565,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <f>ROUNDUP(M3/45*5,2)</f>
+        <f>ROUNDUP(M3/45*5,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -1587,7 +1584,7 @@
       <c r="O3" s="16">
         <v>0</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="28">
         <f>VLOOKUP(J3,$T$3:$U$6,2)</f>
         <v>0</v>
       </c>
@@ -1614,7 +1611,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G69" si="0">ROUNDUP(M4/45*5,2)</f>
+        <f t="shared" ref="G4:G67" si="0">ROUNDUP(M4/45*5,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -1633,7 +1630,7 @@
       <c r="O4" s="16">
         <v>6</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="28">
         <f t="shared" ref="P4:P67" si="3">VLOOKUP(J4,$T$3:$U$6,2)</f>
         <v>3</v>
       </c>
@@ -1679,7 +1676,7 @@
       <c r="O5" s="16">
         <v>8</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -1707,7 +1704,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>4.7799999999999994</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1717,7 +1714,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>19.78</v>
+        <v>20</v>
       </c>
       <c r="M6" s="1">
         <v>43</v>
@@ -1725,7 +1722,7 @@
       <c r="O6" s="16">
         <v>3</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -1771,7 +1768,7 @@
       <c r="O7" s="16">
         <v>0</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1799,7 +1796,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>4.2299999999999995</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1809,7 +1806,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>18.23</v>
+        <v>19</v>
       </c>
       <c r="M8" s="1">
         <v>38</v>
@@ -1817,7 +1814,7 @@
       <c r="O8" s="16">
         <v>5</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -1857,7 +1854,7 @@
       <c r="O9" s="16">
         <v>0</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1897,7 +1894,7 @@
       <c r="O10" s="16">
         <v>4</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -1919,7 +1916,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1929,7 +1926,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>27.45</v>
+        <v>28</v>
       </c>
       <c r="M11" s="1">
         <v>40</v>
@@ -1937,7 +1934,7 @@
       <c r="O11" s="16">
         <v>8</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -1977,7 +1974,7 @@
       <c r="O12" s="16">
         <v>4</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -1999,7 +1996,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2009,7 +2006,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>25.67</v>
+        <v>26</v>
       </c>
       <c r="M13" s="1">
         <v>42</v>
@@ -2017,7 +2014,7 @@
       <c r="O13" s="16">
         <v>9</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2057,7 +2054,7 @@
       <c r="O14" s="16">
         <v>9</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2097,7 +2094,7 @@
       <c r="O15" s="16">
         <v>2</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2137,7 +2134,7 @@
       <c r="O16" s="16">
         <v>1</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2177,7 +2174,7 @@
       <c r="O17" s="16">
         <v>1</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2199,7 +2196,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>3.34</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2209,7 +2206,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="2"/>
-        <v>26.34</v>
+        <v>27</v>
       </c>
       <c r="M18" s="1">
         <v>30</v>
@@ -2217,7 +2214,7 @@
       <c r="O18" s="16">
         <v>5</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2257,7 +2254,7 @@
       <c r="O19" s="16">
         <v>1</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2297,7 +2294,7 @@
       <c r="O20" s="16">
         <v>0</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2319,7 +2316,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2329,7 +2326,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="2"/>
-        <v>29.45</v>
+        <v>30</v>
       </c>
       <c r="M21" s="1">
         <v>40</v>
@@ -2337,7 +2334,7 @@
       <c r="O21" s="16">
         <v>5</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2377,7 +2374,7 @@
       <c r="O22" s="16">
         <v>4</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2417,7 +2414,7 @@
       <c r="O23" s="16">
         <v>6</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2439,7 +2436,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>2.23</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2449,7 +2446,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="2"/>
-        <v>21.23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="1">
         <v>20</v>
@@ -2457,7 +2454,7 @@
       <c r="O24" s="16">
         <v>5</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2479,7 +2476,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2489,7 +2486,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="2"/>
-        <v>35.67</v>
+        <v>36</v>
       </c>
       <c r="M25" s="1">
         <v>42</v>
@@ -2497,7 +2494,7 @@
       <c r="O25" s="16">
         <v>7</v>
       </c>
-      <c r="P25" s="30">
+      <c r="P25" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2519,7 +2516,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>4</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2529,7 +2526,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="2"/>
-        <v>20.67</v>
+        <v>21</v>
       </c>
       <c r="M26" s="1">
         <v>33</v>
@@ -2537,7 +2534,7 @@
       <c r="O26" s="16">
         <v>5</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2577,7 +2574,7 @@
       <c r="O27" s="16">
         <v>0</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2599,7 +2596,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>4.2299999999999995</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2609,7 +2606,7 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="2"/>
-        <v>30.23</v>
+        <v>31</v>
       </c>
       <c r="M28" s="1">
         <v>38</v>
@@ -2617,7 +2614,7 @@
       <c r="O28" s="16">
         <v>9</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2639,7 +2636,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>3.8899999999999997</v>
+        <v>4</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2649,7 +2646,7 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="2"/>
-        <v>16.89</v>
+        <v>17</v>
       </c>
       <c r="M29" s="1">
         <v>35</v>
@@ -2657,7 +2654,7 @@
       <c r="O29" s="16">
         <v>4</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2679,7 +2676,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>4.7799999999999994</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2689,7 +2686,7 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="2"/>
-        <v>27.78</v>
+        <v>28</v>
       </c>
       <c r="M30" s="1">
         <v>43</v>
@@ -2697,7 +2694,7 @@
       <c r="O30" s="16">
         <v>8</v>
       </c>
-      <c r="P30" s="30">
+      <c r="P30" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2719,7 +2716,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>3.8899999999999997</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2729,7 +2726,7 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="2"/>
-        <v>22.89</v>
+        <v>23</v>
       </c>
       <c r="M31" s="1">
         <v>35</v>
@@ -2737,7 +2734,7 @@
       <c r="O31" s="16">
         <v>8</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2777,7 +2774,7 @@
       <c r="O32" s="16">
         <v>3</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2799,7 +2796,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>3.8899999999999997</v>
+        <v>4</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2809,7 +2806,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="2"/>
-        <v>16.89</v>
+        <v>17</v>
       </c>
       <c r="M33" s="1">
         <v>35</v>
@@ -2817,7 +2814,7 @@
       <c r="O33" s="16">
         <v>4</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2839,7 +2836,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2849,7 +2846,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="2"/>
-        <v>30.67</v>
+        <v>31</v>
       </c>
       <c r="M34" s="1">
         <v>42</v>
@@ -2857,7 +2854,7 @@
       <c r="O34" s="16">
         <v>8</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2879,7 +2876,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2889,7 +2886,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="2"/>
-        <v>18.670000000000002</v>
+        <v>19</v>
       </c>
       <c r="M35" s="1">
         <v>42</v>
@@ -2897,7 +2894,7 @@
       <c r="O35" s="16">
         <v>9</v>
       </c>
-      <c r="P35" s="30">
+      <c r="P35" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2919,7 +2916,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2929,7 +2926,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="2"/>
-        <v>11.67</v>
+        <v>12</v>
       </c>
       <c r="M36" s="1">
         <v>42</v>
@@ -2937,7 +2934,7 @@
       <c r="O36" s="16">
         <v>1</v>
       </c>
-      <c r="P36" s="30">
+      <c r="P36" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2977,7 +2974,7 @@
       <c r="O37" s="16">
         <v>5</v>
       </c>
-      <c r="P37" s="30">
+      <c r="P37" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -3017,7 +3014,7 @@
       <c r="O38" s="16">
         <v>9</v>
       </c>
-      <c r="P38" s="30">
+      <c r="P38" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3057,7 +3054,7 @@
       <c r="O39" s="16">
         <v>0</v>
       </c>
-      <c r="P39" s="30">
+      <c r="P39" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3097,7 +3094,7 @@
       <c r="O40" s="16">
         <v>8</v>
       </c>
-      <c r="P40" s="30">
+      <c r="P40" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3137,7 +3134,7 @@
       <c r="O41" s="16">
         <v>1</v>
       </c>
-      <c r="P41" s="30">
+      <c r="P41" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3159,7 +3156,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>4</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3169,7 +3166,7 @@
       </c>
       <c r="K42" s="1">
         <f t="shared" si="2"/>
-        <v>15.67</v>
+        <v>16</v>
       </c>
       <c r="M42" s="1">
         <v>33</v>
@@ -3177,7 +3174,7 @@
       <c r="O42" s="16">
         <v>3</v>
       </c>
-      <c r="P42" s="30">
+      <c r="P42" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3199,7 +3196,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3209,7 +3206,7 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" si="2"/>
-        <v>21.67</v>
+        <v>22</v>
       </c>
       <c r="M43" s="1">
         <v>42</v>
@@ -3217,7 +3214,7 @@
       <c r="O43" s="16">
         <v>5</v>
       </c>
-      <c r="P43" s="30">
+      <c r="P43" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -3257,7 +3254,7 @@
       <c r="O44" s="16">
         <v>3</v>
       </c>
-      <c r="P44" s="30">
+      <c r="P44" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3297,7 +3294,7 @@
       <c r="O45" s="16">
         <v>3</v>
       </c>
-      <c r="P45" s="30">
+      <c r="P45" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3337,7 +3334,7 @@
       <c r="O46" s="16">
         <v>8</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3359,7 +3356,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
-        <v>4.7799999999999994</v>
+        <v>5</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3369,7 +3366,7 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="2"/>
-        <v>14.78</v>
+        <v>15</v>
       </c>
       <c r="M47" s="1">
         <v>43</v>
@@ -3377,7 +3374,7 @@
       <c r="O47" s="16">
         <v>5</v>
       </c>
-      <c r="P47" s="30">
+      <c r="P47" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -3417,7 +3414,7 @@
       <c r="O48" s="16">
         <v>1</v>
       </c>
-      <c r="P48" s="30">
+      <c r="P48" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3457,7 +3454,7 @@
       <c r="O49" s="16">
         <v>2</v>
       </c>
-      <c r="P49" s="30">
+      <c r="P49" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3497,7 +3494,7 @@
       <c r="O50" s="16">
         <v>6</v>
       </c>
-      <c r="P50" s="30">
+      <c r="P50" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -3537,7 +3534,7 @@
       <c r="O51" s="16">
         <v>0</v>
       </c>
-      <c r="P51" s="30">
+      <c r="P51" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3559,7 +3556,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3569,7 +3566,7 @@
       </c>
       <c r="K52" s="1">
         <f t="shared" si="2"/>
-        <v>27.67</v>
+        <v>28</v>
       </c>
       <c r="M52" s="1">
         <v>42</v>
@@ -3577,7 +3574,7 @@
       <c r="O52" s="16">
         <v>7</v>
       </c>
-      <c r="P52" s="30">
+      <c r="P52" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3599,7 +3596,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3609,7 +3606,7 @@
       </c>
       <c r="K53" s="1">
         <f t="shared" si="2"/>
-        <v>28.67</v>
+        <v>29</v>
       </c>
       <c r="M53" s="1">
         <v>42</v>
@@ -3617,7 +3614,7 @@
       <c r="O53" s="16">
         <v>6</v>
       </c>
-      <c r="P53" s="30">
+      <c r="P53" s="28">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -3657,7 +3654,7 @@
       <c r="O54" s="16">
         <v>1</v>
       </c>
-      <c r="P54" s="30">
+      <c r="P54" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3697,7 +3694,7 @@
       <c r="O55" s="16">
         <v>0</v>
       </c>
-      <c r="P55" s="30">
+      <c r="P55" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3719,7 +3716,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="0"/>
-        <v>3.5599999999999996</v>
+        <v>4</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3729,7 +3726,7 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" si="2"/>
-        <v>13.559999999999999</v>
+        <v>14</v>
       </c>
       <c r="M56" s="1">
         <v>32</v>
@@ -3737,7 +3734,7 @@
       <c r="O56" s="16">
         <v>8</v>
       </c>
-      <c r="P56" s="30">
+      <c r="P56" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3777,7 +3774,7 @@
       <c r="O57" s="16">
         <v>2</v>
       </c>
-      <c r="P57" s="30">
+      <c r="P57" s="28">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3817,7 +3814,7 @@
       <c r="O58" s="16">
         <v>0</v>
       </c>
-      <c r="P58" s="30">
+      <c r="P58" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3839,7 +3836,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3849,7 +3846,7 @@
       </c>
       <c r="K59" s="1">
         <f t="shared" si="2"/>
-        <v>29.67</v>
+        <v>30</v>
       </c>
       <c r="M59" s="1">
         <v>42</v>
@@ -3857,7 +3854,7 @@
       <c r="O59" s="16">
         <v>8</v>
       </c>
-      <c r="P59" s="30">
+      <c r="P59" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3897,7 +3894,7 @@
       <c r="O60" s="16">
         <v>0</v>
       </c>
-      <c r="P60" s="30">
+      <c r="P60" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3937,7 +3934,7 @@
       <c r="O61" s="16">
         <v>0</v>
       </c>
-      <c r="P61" s="30">
+      <c r="P61" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3977,7 +3974,7 @@
       <c r="O62" s="16">
         <v>9</v>
       </c>
-      <c r="P62" s="30">
+      <c r="P62" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -4017,7 +4014,7 @@
       <c r="O63" s="16">
         <v>0</v>
       </c>
-      <c r="P63" s="30">
+      <c r="P63" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4039,7 +4036,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1">
         <f t="shared" si="0"/>
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4049,7 +4046,7 @@
       </c>
       <c r="K64" s="1">
         <f t="shared" si="2"/>
-        <v>35.450000000000003</v>
+        <v>36</v>
       </c>
       <c r="M64" s="1">
         <v>40</v>
@@ -4057,7 +4054,7 @@
       <c r="O64" s="16">
         <v>8</v>
       </c>
-      <c r="P64" s="30">
+      <c r="P64" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -4079,7 +4076,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1">
         <f t="shared" si="0"/>
-        <v>4.7799999999999994</v>
+        <v>5</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4089,7 +4086,7 @@
       </c>
       <c r="K65" s="1">
         <f t="shared" si="2"/>
-        <v>29.78</v>
+        <v>30</v>
       </c>
       <c r="M65" s="1">
         <v>43</v>
@@ -4097,7 +4094,7 @@
       <c r="O65" s="16">
         <v>7</v>
       </c>
-      <c r="P65" s="30">
+      <c r="P65" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -4137,7 +4134,7 @@
       <c r="O66" s="16">
         <v>8</v>
       </c>
-      <c r="P66" s="30">
+      <c r="P66" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -4159,7 +4156,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1">
         <f t="shared" si="0"/>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4169,7 +4166,7 @@
       </c>
       <c r="K67" s="1">
         <f t="shared" si="2"/>
-        <v>29.67</v>
+        <v>30</v>
       </c>
       <c r="M67" s="1">
         <v>42</v>
@@ -4177,7 +4174,7 @@
       <c r="O67" s="16">
         <v>8</v>
       </c>
-      <c r="P67" s="30">
+      <c r="P67" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -4198,8 +4195,8 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2299999999999995</v>
+        <f t="shared" ref="G68:G131" si="4">ROUNDUP(M68/45*5,0)</f>
+        <v>5</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4208,8 +4205,8 @@
         <v>50</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" ref="K68:K131" si="4">SUM(D68,G68,P68)</f>
-        <v>21.23</v>
+        <f t="shared" ref="K68:K131" si="5">SUM(D68,G68,P68)</f>
+        <v>22</v>
       </c>
       <c r="M68" s="1">
         <v>38</v>
@@ -4217,8 +4214,8 @@
       <c r="O68" s="16">
         <v>4</v>
       </c>
-      <c r="P68" s="30">
-        <f t="shared" ref="P68:P131" si="5">VLOOKUP(J68,$T$3:$U$6,2)</f>
+      <c r="P68" s="28">
+        <f t="shared" ref="P68:P131" si="6">VLOOKUP(J68,$T$3:$U$6,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -4238,18 +4235,18 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1">
-        <f t="shared" si="0"/>
-        <v>4.67</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1">
-        <f t="shared" ref="J69:J132" si="6">ROUNDUP(O69/8*100,1)</f>
+        <f t="shared" ref="J69:J132" si="7">ROUNDUP(O69/8*100,1)</f>
         <v>100</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="4"/>
-        <v>27.67</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="M69" s="1">
         <v>42</v>
@@ -4257,8 +4254,8 @@
       <c r="O69" s="16">
         <v>8</v>
       </c>
-      <c r="P69" s="30">
-        <f t="shared" si="5"/>
+      <c r="P69" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4278,25 +4275,25 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1">
-        <f t="shared" ref="G70:G132" si="7">ROUNDUP(M70/45*5,2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M70" s="1"/>
       <c r="O70" s="16">
         <v>2</v>
       </c>
-      <c r="P70" s="30">
-        <f t="shared" si="5"/>
+      <c r="P70" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4316,18 +4313,18 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1">
-        <f>ROUNDUP(M71/35*5,2)</f>
-        <v>4.72</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="4"/>
-        <v>8.7199999999999989</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="M71" s="1">
         <v>33</v>
@@ -4335,8 +4332,8 @@
       <c r="O71" s="16">
         <v>2</v>
       </c>
-      <c r="P71" s="30">
-        <f t="shared" si="5"/>
+      <c r="P71" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4356,18 +4353,18 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
-        <f>ROUNDUP(M72/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="M72" s="1">
         <v>35</v>
@@ -4375,8 +4372,8 @@
       <c r="O72" s="16">
         <v>0</v>
       </c>
-      <c r="P72" s="30">
-        <f t="shared" si="5"/>
+      <c r="P72" s="28">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4396,18 +4393,18 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1">
-        <f t="shared" si="7"/>
-        <v>4.7799999999999994</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="4"/>
-        <v>32.78</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="M73" s="1">
         <v>43</v>
@@ -4415,8 +4412,8 @@
       <c r="O73" s="16">
         <v>8</v>
       </c>
-      <c r="P73" s="30">
-        <f t="shared" si="5"/>
+      <c r="P73" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4436,18 +4433,18 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1">
-        <f>ROUNDUP(M74/35*5,2)</f>
-        <v>4.29</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="4"/>
-        <v>18.29</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="M74" s="1">
         <v>30</v>
@@ -4455,8 +4452,8 @@
       <c r="O74" s="16">
         <v>5</v>
       </c>
-      <c r="P74" s="30">
-        <f t="shared" si="5"/>
+      <c r="P74" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -4476,25 +4473,25 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="M75" s="1"/>
       <c r="O75" s="16">
         <v>3</v>
       </c>
-      <c r="P75" s="30">
-        <f t="shared" si="5"/>
+      <c r="P75" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -4514,18 +4511,18 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1">
-        <f>ROUNDUP(M76/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="M76" s="1">
         <v>35</v>
@@ -4533,8 +4530,8 @@
       <c r="O76" s="16">
         <v>4</v>
       </c>
-      <c r="P76" s="30">
-        <f t="shared" si="5"/>
+      <c r="P76" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -4554,18 +4551,18 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1">
-        <f t="shared" si="7"/>
-        <v>4.67</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="4"/>
-        <v>35.67</v>
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
       <c r="M77" s="1">
         <v>42</v>
@@ -4573,8 +4570,8 @@
       <c r="O77" s="16">
         <v>8</v>
       </c>
-      <c r="P77" s="30">
-        <f t="shared" si="5"/>
+      <c r="P77" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4594,25 +4591,25 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="M78" s="1"/>
       <c r="O78" s="16">
         <v>5</v>
       </c>
-      <c r="P78" s="30">
-        <f t="shared" si="5"/>
+      <c r="P78" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -4632,25 +4629,25 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="M79" s="1"/>
       <c r="O79" s="16">
         <v>2</v>
       </c>
-      <c r="P79" s="30">
-        <f t="shared" si="5"/>
+      <c r="P79" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4670,18 +4667,18 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
-        <f t="shared" ref="G80:G81" si="8">ROUNDUP(M80/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87.5</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="M80" s="1">
         <v>35</v>
@@ -4689,8 +4686,8 @@
       <c r="O80" s="16">
         <v>7</v>
       </c>
-      <c r="P80" s="30">
-        <f t="shared" si="5"/>
+      <c r="P80" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4710,18 +4707,18 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="M81" s="1">
         <v>35</v>
@@ -4729,8 +4726,8 @@
       <c r="O81" s="16">
         <v>2</v>
       </c>
-      <c r="P81" s="30">
-        <f t="shared" si="5"/>
+      <c r="P81" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4750,25 +4747,25 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="M82" s="1"/>
       <c r="O82" s="16">
         <v>4</v>
       </c>
-      <c r="P82" s="30">
-        <f t="shared" si="5"/>
+      <c r="P82" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -4788,25 +4785,25 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="M83" s="1"/>
       <c r="O83" s="16">
         <v>4</v>
       </c>
-      <c r="P83" s="30">
-        <f t="shared" si="5"/>
+      <c r="P83" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -4826,25 +4823,25 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="M84" s="1"/>
       <c r="O84" s="16">
         <v>1</v>
       </c>
-      <c r="P84" s="30">
-        <f t="shared" si="5"/>
+      <c r="P84" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4864,18 +4861,18 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1">
-        <f t="shared" si="7"/>
-        <v>4.2299999999999995</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="4"/>
-        <v>26.23</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="M85" s="1">
         <v>38</v>
@@ -4883,8 +4880,8 @@
       <c r="O85" s="16">
         <v>3</v>
       </c>
-      <c r="P85" s="30">
-        <f t="shared" si="5"/>
+      <c r="P85" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -4904,25 +4901,25 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M86" s="1"/>
       <c r="O86" s="16">
         <v>2</v>
       </c>
-      <c r="P86" s="30">
-        <f t="shared" si="5"/>
+      <c r="P86" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4942,25 +4939,25 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M87" s="1"/>
       <c r="O87" s="16">
         <v>1</v>
       </c>
-      <c r="P87" s="30">
-        <f t="shared" si="5"/>
+      <c r="P87" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4980,18 +4977,18 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1">
-        <f t="shared" ref="G88:G90" si="9">ROUNDUP(M88/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="M88" s="1">
         <v>35</v>
@@ -4999,8 +4996,8 @@
       <c r="O88" s="16">
         <v>4</v>
       </c>
-      <c r="P88" s="30">
-        <f t="shared" si="5"/>
+      <c r="P88" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5020,18 +5017,18 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1">
-        <f t="shared" si="9"/>
-        <v>4.29</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="4"/>
-        <v>27.29</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="M89" s="1">
         <v>30</v>
@@ -5039,8 +5036,8 @@
       <c r="O89" s="16">
         <v>5</v>
       </c>
-      <c r="P89" s="30">
-        <f t="shared" si="5"/>
+      <c r="P89" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5060,18 +5057,18 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="M90" s="1">
         <v>35</v>
@@ -5079,8 +5076,8 @@
       <c r="O90" s="16">
         <v>5</v>
       </c>
-      <c r="P90" s="30">
-        <f t="shared" si="5"/>
+      <c r="P90" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5100,25 +5097,25 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M91" s="1"/>
       <c r="O91" s="16">
         <v>1</v>
       </c>
-      <c r="P91" s="30">
-        <f t="shared" si="5"/>
+      <c r="P91" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -5138,25 +5135,25 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M92" s="1"/>
       <c r="O92" s="16">
         <v>1</v>
       </c>
-      <c r="P92" s="30">
-        <f t="shared" si="5"/>
+      <c r="P92" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -5176,25 +5173,25 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="M93" s="1"/>
       <c r="O93" s="16">
         <v>3</v>
       </c>
-      <c r="P93" s="30">
-        <f t="shared" si="5"/>
+      <c r="P93" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5214,25 +5211,25 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M94" s="1"/>
       <c r="O94" s="16">
         <v>1</v>
       </c>
-      <c r="P94" s="30">
-        <f t="shared" si="5"/>
+      <c r="P94" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -5252,25 +5249,25 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="M95" s="1"/>
       <c r="O95" s="16">
         <v>2</v>
       </c>
-      <c r="P95" s="30">
-        <f t="shared" si="5"/>
+      <c r="P95" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -5290,25 +5287,25 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="M96" s="1"/>
       <c r="O96" s="16">
         <v>0</v>
       </c>
-      <c r="P96" s="30">
-        <f t="shared" si="5"/>
+      <c r="P96" s="28">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5328,18 +5325,18 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1">
-        <f t="shared" ref="G97:G100" si="10">ROUNDUP(M97/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="M97" s="1">
         <v>35</v>
@@ -5347,8 +5344,8 @@
       <c r="O97" s="16">
         <v>6</v>
       </c>
-      <c r="P97" s="30">
-        <f t="shared" si="5"/>
+      <c r="P97" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -5368,18 +5365,18 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="M98" s="1">
         <v>35</v>
@@ -5387,8 +5384,8 @@
       <c r="O98" s="16">
         <v>3</v>
       </c>
-      <c r="P98" s="30">
-        <f t="shared" si="5"/>
+      <c r="P98" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5408,18 +5405,18 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="M99" s="1">
         <v>35</v>
@@ -5427,8 +5424,8 @@
       <c r="O99" s="16">
         <v>4</v>
       </c>
-      <c r="P99" s="30">
-        <f t="shared" si="5"/>
+      <c r="P99" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5448,18 +5445,18 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="M100" s="1">
         <v>35</v>
@@ -5467,8 +5464,8 @@
       <c r="O100" s="16">
         <v>4</v>
       </c>
-      <c r="P100" s="30">
-        <f t="shared" si="5"/>
+      <c r="P100" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5488,25 +5485,25 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="M101" s="1"/>
       <c r="O101" s="16">
         <v>2</v>
       </c>
-      <c r="P101" s="30">
-        <f t="shared" si="5"/>
+      <c r="P101" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -5526,17 +5523,17 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M102" s="1">
@@ -5545,8 +5542,8 @@
       <c r="O102" s="16">
         <v>4</v>
       </c>
-      <c r="P102" s="30">
-        <f t="shared" si="5"/>
+      <c r="P102" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5566,18 +5563,18 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1">
-        <f>ROUNDUP(M103/35*5,2)</f>
-        <v>3.5799999999999996</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="4"/>
-        <v>15.58</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="M103" s="1">
         <v>25</v>
@@ -5585,8 +5582,8 @@
       <c r="O103" s="16">
         <v>6</v>
       </c>
-      <c r="P103" s="30">
-        <f t="shared" si="5"/>
+      <c r="P103" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -5606,18 +5603,18 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1">
-        <f t="shared" si="7"/>
-        <v>4.67</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="4"/>
-        <v>32.67</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="M104" s="1">
         <v>42</v>
@@ -5625,8 +5622,8 @@
       <c r="O104" s="16">
         <v>8</v>
       </c>
-      <c r="P104" s="30">
-        <f t="shared" si="5"/>
+      <c r="P104" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -5646,18 +5643,18 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1">
-        <f>ROUNDUP(M105/35*5,2)</f>
-        <v>3.5799999999999996</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="4"/>
-        <v>14.58</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="M105" s="1">
         <v>25</v>
@@ -5665,8 +5662,8 @@
       <c r="O105" s="16">
         <v>6</v>
       </c>
-      <c r="P105" s="30">
-        <f t="shared" si="5"/>
+      <c r="P105" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -5686,25 +5683,25 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M106" s="1"/>
       <c r="O106" s="16">
         <v>0</v>
       </c>
-      <c r="P106" s="30">
-        <f t="shared" si="5"/>
+      <c r="P106" s="28">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5724,25 +5721,25 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M107" s="1"/>
       <c r="O107" s="16">
         <v>0</v>
       </c>
-      <c r="P107" s="30">
-        <f t="shared" si="5"/>
+      <c r="P107" s="28">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5762,17 +5759,17 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="M108" s="1">
@@ -5781,8 +5778,8 @@
       <c r="O108" s="16">
         <v>8</v>
       </c>
-      <c r="P108" s="30">
-        <f t="shared" si="5"/>
+      <c r="P108" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -5802,25 +5799,25 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M109" s="1"/>
       <c r="O109" s="16">
         <v>2</v>
       </c>
-      <c r="P109" s="30">
-        <f t="shared" si="5"/>
+      <c r="P109" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -5840,25 +5837,25 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M110" s="1"/>
       <c r="O110" s="16">
         <v>6</v>
       </c>
-      <c r="P110" s="30">
-        <f t="shared" si="5"/>
+      <c r="P110" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -5878,18 +5875,18 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1">
-        <f t="shared" ref="G111:G112" si="11">ROUNDUP(M111/35*5,2)</f>
-        <v>4.72</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="4"/>
-        <v>7.72</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="M111" s="1">
         <v>33</v>
@@ -5897,8 +5894,8 @@
       <c r="O111" s="16">
         <v>3</v>
       </c>
-      <c r="P111" s="30">
-        <f t="shared" si="5"/>
+      <c r="P111" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5918,18 +5915,18 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="M112" s="1">
         <v>35</v>
@@ -5937,8 +5934,8 @@
       <c r="O112" s="16">
         <v>4</v>
       </c>
-      <c r="P112" s="30">
-        <f t="shared" si="5"/>
+      <c r="P112" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5958,25 +5955,25 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M113" s="1"/>
       <c r="O113" s="16">
         <v>0</v>
       </c>
-      <c r="P113" s="30">
-        <f t="shared" si="5"/>
+      <c r="P113" s="28">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5996,18 +5993,18 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1">
-        <f>ROUNDUP(M114/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="M114" s="1">
         <v>35</v>
@@ -6015,8 +6012,8 @@
       <c r="O114" s="16">
         <v>4</v>
       </c>
-      <c r="P114" s="30">
-        <f t="shared" si="5"/>
+      <c r="P114" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6036,17 +6033,18 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="M115" s="1">
         <v>35</v>
@@ -6054,8 +6052,8 @@
       <c r="O115" s="16">
         <v>4</v>
       </c>
-      <c r="P115" s="30">
-        <f t="shared" si="5"/>
+      <c r="P115" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6074,25 +6072,26 @@
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1" t="s">
-        <v>269</v>
+      <c r="G116" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="M116" s="1"/>
       <c r="O116" s="16">
         <v>2</v>
       </c>
-      <c r="P116" s="30">
-        <f t="shared" si="5"/>
+      <c r="P116" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -6112,25 +6111,25 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M117" s="1"/>
       <c r="O117" s="16">
         <v>0</v>
       </c>
-      <c r="P117" s="30">
-        <f t="shared" si="5"/>
+      <c r="P117" s="28">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6150,18 +6149,18 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1">
-        <f t="shared" ref="G118:G119" si="12">ROUNDUP(M118/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="M118" s="1">
         <v>35</v>
@@ -6169,8 +6168,8 @@
       <c r="O118" s="16">
         <v>5</v>
       </c>
-      <c r="P118" s="30">
-        <f t="shared" si="5"/>
+      <c r="P118" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6190,18 +6189,18 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="M119" s="1">
         <v>35</v>
@@ -6209,8 +6208,8 @@
       <c r="O119" s="16">
         <v>8</v>
       </c>
-      <c r="P119" s="30">
-        <f t="shared" si="5"/>
+      <c r="P119" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6228,25 +6227,25 @@
         <v>19</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M120" s="1"/>
       <c r="O120" s="16">
         <v>3</v>
       </c>
-      <c r="P120" s="30">
-        <f t="shared" si="5"/>
+      <c r="P120" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6264,18 +6263,18 @@
         <v>9</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" ref="G121:G122" si="13">ROUNDUP(M121/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="M121" s="1">
         <v>35</v>
@@ -6283,8 +6282,8 @@
       <c r="O121" s="16">
         <v>3</v>
       </c>
-      <c r="P121" s="30">
-        <f t="shared" si="5"/>
+      <c r="P121" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6302,18 +6301,18 @@
         <v>17</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="13"/>
-        <v>4.29</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="4"/>
-        <v>24.29</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="M122" s="1">
         <v>30</v>
@@ -6321,8 +6320,8 @@
       <c r="O122" s="16">
         <v>5</v>
       </c>
-      <c r="P122" s="30">
-        <f t="shared" si="5"/>
+      <c r="P122" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6340,23 +6339,23 @@
         <v>8</v>
       </c>
       <c r="G123" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J123" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="K123" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="M123" s="1"/>
       <c r="O123" s="16">
         <v>0</v>
       </c>
-      <c r="P123" s="30">
-        <f t="shared" si="5"/>
+      <c r="P123" s="28">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6374,23 +6373,23 @@
         <v>11</v>
       </c>
       <c r="G124" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="1">
-        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="M124" s="1"/>
       <c r="O124" s="16">
         <v>4</v>
       </c>
-      <c r="P124" s="30">
-        <f t="shared" si="5"/>
+      <c r="P124" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6408,16 +6407,16 @@
         <v>17</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" ref="G125:G126" si="14">ROUNDUP(M125/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="J125" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87.5</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="M125" s="1">
         <v>35</v>
@@ -6425,8 +6424,8 @@
       <c r="O125" s="16">
         <v>7</v>
       </c>
-      <c r="P125" s="30">
-        <f t="shared" si="5"/>
+      <c r="P125" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6444,16 +6443,16 @@
         <v>19</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="J126" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="M126" s="1">
         <v>35</v>
@@ -6461,8 +6460,8 @@
       <c r="O126" s="16">
         <v>3</v>
       </c>
-      <c r="P126" s="30">
-        <f t="shared" si="5"/>
+      <c r="P126" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6480,23 +6479,23 @@
         <v>12</v>
       </c>
       <c r="G127" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="1">
-        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="M127" s="1"/>
       <c r="O127" s="16">
         <v>6</v>
       </c>
-      <c r="P127" s="30">
-        <f t="shared" si="5"/>
+      <c r="P127" s="28">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6514,16 +6513,16 @@
         <v>9</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" ref="G128:G130" si="15">ROUNDUP(M128/35*5,2)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="J128" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="M128" s="1">
         <v>35</v>
@@ -6531,8 +6530,8 @@
       <c r="O128" s="16">
         <v>4</v>
       </c>
-      <c r="P128" s="30">
-        <f t="shared" si="5"/>
+      <c r="P128" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6550,16 +6549,16 @@
         <v>2</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="J129" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="M129" s="1">
         <v>35</v>
@@ -6567,8 +6566,8 @@
       <c r="O129" s="16">
         <v>1</v>
       </c>
-      <c r="P129" s="30">
-        <f t="shared" si="5"/>
+      <c r="P129" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -6586,16 +6585,16 @@
         <v>15</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="J130" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="M130" s="1">
         <v>35</v>
@@ -6603,8 +6602,8 @@
       <c r="O130" s="16">
         <v>2</v>
       </c>
-      <c r="P130" s="30">
-        <f t="shared" si="5"/>
+      <c r="P130" s="28">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -6622,23 +6621,23 @@
         <v>15</v>
       </c>
       <c r="G131" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="1">
-        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="M131" s="1"/>
       <c r="O131" s="16">
         <v>5</v>
       </c>
-      <c r="P131" s="30">
-        <f t="shared" si="5"/>
+      <c r="P131" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6656,23 +6655,23 @@
         <v>4</v>
       </c>
       <c r="G132" s="1">
+        <f t="shared" ref="G132" si="8">ROUNDUP(M132/45*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="1">
-        <f t="shared" si="6"/>
         <v>37.5</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" ref="K132" si="16">SUM(D132,G132,P132)</f>
+        <f t="shared" ref="K132" si="9">SUM(D132,G132,P132)</f>
         <v>7</v>
       </c>
       <c r="M132" s="1"/>
       <c r="O132" s="16">
         <v>3</v>
       </c>
-      <c r="P132" s="30">
-        <f t="shared" ref="P132" si="17">VLOOKUP(J132,$T$3:$U$6,2)</f>
+      <c r="P132" s="28">
+        <f t="shared" ref="P132" si="10">VLOOKUP(J132,$T$3:$U$6,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -6703,20 +6702,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1481,10 +1481,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3:G132"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3:K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,10 +1565,8 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <f>ROUNDUP(M3/45*5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
         <f>ROUNDUP(O3/9*100,1)</f>
@@ -1611,17 +1609,15 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G67" si="0">ROUNDUP(M4/45*5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J67" si="1">ROUNDUP(O4/9*100,1)</f>
+        <f t="shared" ref="J4:J67" si="0">ROUNDUP(O4/9*100,1)</f>
         <v>66.699999999999989</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K67" si="2">SUM(D4,G4,P4)</f>
+        <f t="shared" ref="K4:K67" si="1">SUM(D4,G4,P4)</f>
         <v>17</v>
       </c>
       <c r="M4" s="1">
@@ -1631,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="P4" s="28">
-        <f t="shared" ref="P4:P67" si="3">VLOOKUP(J4,$T$3:$U$6,2)</f>
+        <f t="shared" ref="P4:P67" si="2">VLOOKUP(J4,$T$3:$U$6,2)</f>
         <v>3</v>
       </c>
       <c r="T4" s="16">
@@ -1657,17 +1653,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="M5" s="1">
@@ -1677,7 +1671,7 @@
         <v>8</v>
       </c>
       <c r="P5" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="T5" s="16">
@@ -1703,17 +1697,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>33.4</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M6" s="1">
@@ -1723,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T6" s="16">
@@ -1749,27 +1741,25 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T7" s="16">
@@ -1795,17 +1785,15 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="M8" s="1">
@@ -1815,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="P8" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1835,27 +1823,25 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1875,27 +1861,25 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>44.5</v>
-      </c>
-      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>4</v>
+      </c>
+      <c r="P10" s="28">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>4</v>
-      </c>
-      <c r="P10" s="28">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1915,17 +1899,15 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="M11" s="1">
@@ -1935,7 +1917,7 @@
         <v>8</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1955,27 +1937,25 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>44.5</v>
-      </c>
-      <c r="K12" s="1">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>4</v>
+      </c>
+      <c r="P12" s="28">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="16">
-        <v>4</v>
-      </c>
-      <c r="P12" s="28">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1995,17 +1975,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="M13" s="1">
@@ -2015,7 +1993,7 @@
         <v>9</v>
       </c>
       <c r="P13" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2035,17 +2013,15 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="M14" s="1">
@@ -2055,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="P14" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2075,17 +2051,15 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>22.3</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="1"/>
-        <v>22.3</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="M15" s="1">
@@ -2095,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2115,17 +2089,15 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M16" s="1">
@@ -2135,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2155,17 +2127,15 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M17" s="1">
@@ -2175,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2195,17 +2165,15 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="M18" s="1">
@@ -2215,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2235,17 +2203,15 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="M19" s="1">
@@ -2255,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2275,27 +2241,25 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
-        <v>0</v>
-      </c>
-      <c r="P20" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2315,17 +2279,15 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="M21" s="1">
@@ -2335,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2355,27 +2317,25 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="1"/>
-        <v>44.5</v>
-      </c>
-      <c r="K22" s="1">
+        <v>11</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <v>4</v>
+      </c>
+      <c r="P22" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="16">
-        <v>4</v>
-      </c>
-      <c r="P22" s="28">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -2395,17 +2355,15 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>66.699999999999989</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="1"/>
-        <v>66.699999999999989</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="M23" s="1">
@@ -2415,7 +2373,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2435,17 +2393,15 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="M24" s="1">
@@ -2455,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="P24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2475,17 +2431,15 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>77.8</v>
+      </c>
+      <c r="K25" s="1">
         <f t="shared" si="1"/>
-        <v>77.8</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="M25" s="1">
@@ -2495,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2515,17 +2469,15 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="M26" s="1">
@@ -2535,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2555,27 +2507,25 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="1">
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+      <c r="P27" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="16">
-        <v>0</v>
-      </c>
-      <c r="P27" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2595,17 +2545,15 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="M28" s="1">
@@ -2615,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="P28" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2635,17 +2583,15 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="1"/>
-        <v>44.5</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="M29" s="1">
@@ -2655,7 +2601,7 @@
         <v>4</v>
       </c>
       <c r="P29" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2675,17 +2621,15 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="M30" s="1">
@@ -2695,7 +2639,7 @@
         <v>8</v>
       </c>
       <c r="P30" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2715,17 +2659,15 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="M31" s="1">
@@ -2735,7 +2677,7 @@
         <v>8</v>
       </c>
       <c r="P31" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2755,17 +2697,15 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="1"/>
-        <v>33.4</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M32" s="1">
@@ -2775,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="P32" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2795,17 +2735,15 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="1"/>
-        <v>44.5</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="M33" s="1">
@@ -2815,7 +2753,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2835,17 +2773,15 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="M34" s="1">
@@ -2855,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="P34" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2875,17 +2811,15 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H35" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K35" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="M35" s="1">
@@ -2895,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="P35" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2915,17 +2849,15 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H36" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M36" s="1">
@@ -2935,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2955,17 +2887,15 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H37" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="M37" s="1">
@@ -2975,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="P37" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2995,17 +2925,15 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M38" s="1">
@@ -3015,7 +2943,7 @@
         <v>9</v>
       </c>
       <c r="P38" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3035,27 +2963,25 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K39" s="1">
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="16">
+        <v>0</v>
+      </c>
+      <c r="P39" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="16">
-        <v>0</v>
-      </c>
-      <c r="P39" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3075,17 +3001,15 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M40" s="1">
@@ -3095,7 +3019,7 @@
         <v>8</v>
       </c>
       <c r="P40" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3115,17 +3039,15 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M41" s="1">
@@ -3135,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3155,17 +3077,15 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="1"/>
-        <v>33.4</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="M42" s="1">
@@ -3175,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="P42" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3195,17 +3115,15 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="M43" s="1">
@@ -3215,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="P43" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3235,17 +3153,15 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="1"/>
-        <v>33.4</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M44" s="1">
@@ -3255,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="P44" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3275,17 +3191,15 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
+      <c r="K45" s="1">
         <f t="shared" si="1"/>
-        <v>33.4</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M45" s="1">
@@ -3295,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="P45" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3315,17 +3229,15 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K46" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M46" s="1">
@@ -3335,7 +3247,7 @@
         <v>8</v>
       </c>
       <c r="P46" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3355,17 +3267,15 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="K47" s="1">
         <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M47" s="1">
@@ -3375,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="P47" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3395,17 +3305,15 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="K48" s="1">
         <f t="shared" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M48" s="1">
@@ -3415,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3435,17 +3343,15 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
+        <f t="shared" si="0"/>
+        <v>22.3</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="1"/>
-        <v>22.3</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M49" s="1">
@@ -3455,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="P49" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3475,17 +3381,15 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
+        <f t="shared" si="0"/>
+        <v>66.699999999999989</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="1"/>
-        <v>66.699999999999989</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M50" s="1">
@@ -3495,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="P50" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3515,27 +3419,25 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
+        <v>5</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="16">
+        <v>0</v>
+      </c>
+      <c r="P51" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="O51" s="16">
-        <v>0</v>
-      </c>
-      <c r="P51" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3555,17 +3457,15 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
+        <f t="shared" si="0"/>
+        <v>77.8</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="1"/>
-        <v>77.8</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="M52" s="1">
@@ -3575,7 +3475,7 @@
         <v>7</v>
       </c>
       <c r="P52" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3595,17 +3495,15 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H53" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
+        <f t="shared" si="0"/>
+        <v>66.699999999999989</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="1"/>
-        <v>66.699999999999989</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="M53" s="1">
@@ -3615,7 +3513,7 @@
         <v>6</v>
       </c>
       <c r="P53" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3635,17 +3533,15 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M54" s="1">
@@ -3655,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="P54" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3675,27 +3571,25 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K55" s="1">
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="16">
+        <v>0</v>
+      </c>
+      <c r="P55" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="1">
-        <v>0</v>
-      </c>
-      <c r="O55" s="16">
-        <v>0</v>
-      </c>
-      <c r="P55" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3715,17 +3609,15 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M56" s="1">
@@ -3735,7 +3627,7 @@
         <v>8</v>
       </c>
       <c r="P56" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3755,17 +3647,15 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1">
+        <f t="shared" si="0"/>
+        <v>22.3</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="1"/>
-        <v>22.3</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M57" s="1">
@@ -3775,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="P57" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3795,27 +3685,25 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K58" s="1">
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="16">
+        <v>0</v>
+      </c>
+      <c r="P58" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="1">
-        <v>0</v>
-      </c>
-      <c r="O58" s="16">
-        <v>0</v>
-      </c>
-      <c r="P58" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3835,17 +3723,15 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H59" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="M59" s="1">
@@ -3855,7 +3741,7 @@
         <v>8</v>
       </c>
       <c r="P59" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3875,27 +3761,25 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="1">
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="16">
+        <v>0</v>
+      </c>
+      <c r="P60" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-      <c r="O60" s="16">
-        <v>0</v>
-      </c>
-      <c r="P60" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3915,27 +3799,25 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
+        <v>8</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="16">
+        <v>0</v>
+      </c>
+      <c r="P61" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0</v>
-      </c>
-      <c r="O61" s="16">
-        <v>0</v>
-      </c>
-      <c r="P61" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3955,17 +3837,15 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H62" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K62" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="M62" s="1">
@@ -3975,7 +3855,7 @@
         <v>9</v>
       </c>
       <c r="P62" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3995,27 +3875,25 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K63" s="1">
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="16">
+        <v>0</v>
+      </c>
+      <c r="P63" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-      <c r="O63" s="16">
-        <v>0</v>
-      </c>
-      <c r="P63" s="28">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4035,17 +3913,15 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H64" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K64" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K64" s="1">
-        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="M64" s="1">
@@ -4055,7 +3931,7 @@
         <v>8</v>
       </c>
       <c r="P64" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -4075,17 +3951,15 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H65" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1">
+        <f t="shared" si="0"/>
+        <v>77.8</v>
+      </c>
+      <c r="K65" s="1">
         <f t="shared" si="1"/>
-        <v>77.8</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="M65" s="1">
@@ -4095,7 +3969,7 @@
         <v>7</v>
       </c>
       <c r="P65" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -4115,17 +3989,15 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H66" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K66" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="M66" s="1">
@@ -4135,7 +4007,7 @@
         <v>8</v>
       </c>
       <c r="P66" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -4155,17 +4027,15 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H67" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1">
+        <f t="shared" si="0"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K67" s="1">
         <f t="shared" si="1"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K67" s="1">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="M67" s="1">
@@ -4175,7 +4045,7 @@
         <v>8</v>
       </c>
       <c r="P67" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -4195,17 +4065,15 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1">
-        <f t="shared" ref="G68:G131" si="4">ROUNDUP(M68/45*5,0)</f>
-        <v>5</v>
-      </c>
-      <c r="H68" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1">
         <f>ROUNDUP(O68/8*100,1)</f>
         <v>50</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" ref="K68:K131" si="5">SUM(D68,G68,P68)</f>
+        <f t="shared" ref="K68:K131" si="3">SUM(D68,G68,P68)</f>
         <v>22</v>
       </c>
       <c r="M68" s="1">
@@ -4215,7 +4083,7 @@
         <v>4</v>
       </c>
       <c r="P68" s="28">
-        <f t="shared" ref="P68:P131" si="6">VLOOKUP(J68,$T$3:$U$6,2)</f>
+        <f t="shared" ref="P68:P131" si="4">VLOOKUP(J68,$T$3:$U$6,2)</f>
         <v>3</v>
       </c>
     </row>
@@ -4235,17 +4103,15 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H69" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1">
-        <f t="shared" ref="J69:J132" si="7">ROUNDUP(O69/8*100,1)</f>
+        <f t="shared" ref="J69:J132" si="5">ROUNDUP(O69/8*100,1)</f>
         <v>100</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="M69" s="1">
@@ -4255,7 +4121,7 @@
         <v>8</v>
       </c>
       <c r="P69" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -4275,17 +4141,15 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="M70" s="1"/>
@@ -4293,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="P70" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4313,17 +4177,15 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H71" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M71" s="1">
@@ -4333,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="P71" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4353,17 +4215,15 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H72" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M72" s="1">
@@ -4373,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4393,17 +4253,15 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H73" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="M73" s="1">
@@ -4413,7 +4271,7 @@
         <v>8</v>
       </c>
       <c r="P73" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -4433,17 +4291,15 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H74" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M74" s="1">
@@ -4453,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="P74" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4473,17 +4329,15 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="M75" s="1"/>
@@ -4491,7 +4345,7 @@
         <v>3</v>
       </c>
       <c r="P75" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4511,17 +4365,15 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H76" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="M76" s="1">
@@ -4531,7 +4383,7 @@
         <v>4</v>
       </c>
       <c r="P76" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4551,17 +4403,15 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H77" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="M77" s="1">
@@ -4571,7 +4421,7 @@
         <v>8</v>
       </c>
       <c r="P77" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -4591,17 +4441,15 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="M78" s="1"/>
@@ -4609,7 +4457,7 @@
         <v>5</v>
       </c>
       <c r="P78" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4629,17 +4477,15 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="M79" s="1"/>
@@ -4647,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="P79" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4667,17 +4513,15 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H80" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>87.5</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="M80" s="1">
@@ -4687,7 +4531,7 @@
         <v>7</v>
       </c>
       <c r="P80" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -4707,17 +4551,15 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H81" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M81" s="1">
@@ -4727,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="P81" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4747,17 +4589,15 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M82" s="1"/>
@@ -4765,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="P82" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4785,17 +4625,15 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M83" s="1"/>
@@ -4803,7 +4641,7 @@
         <v>4</v>
       </c>
       <c r="P83" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4823,17 +4661,15 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M84" s="1"/>
@@ -4841,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="P84" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4861,17 +4697,15 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H85" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="M85" s="1">
@@ -4881,7 +4715,7 @@
         <v>3</v>
       </c>
       <c r="P85" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4901,17 +4735,15 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M86" s="1"/>
@@ -4919,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="P86" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4939,17 +4771,15 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M87" s="1"/>
@@ -4957,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="P87" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -4977,17 +4807,15 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H88" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M88" s="1">
@@ -4997,7 +4825,7 @@
         <v>4</v>
       </c>
       <c r="P88" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5017,17 +4845,15 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H89" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="M89" s="1">
@@ -5037,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="P89" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5057,17 +4883,15 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H90" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="M90" s="1">
@@ -5077,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="P90" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5097,17 +4921,15 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M91" s="1"/>
@@ -5115,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="P91" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5135,17 +4957,15 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M92" s="1"/>
@@ -5153,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="P92" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5173,17 +4993,15 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="M93" s="1"/>
@@ -5191,7 +5009,7 @@
         <v>3</v>
       </c>
       <c r="P93" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5211,17 +5029,15 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M94" s="1"/>
@@ -5229,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="P94" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5249,17 +5065,15 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M95" s="1"/>
@@ -5267,7 +5081,7 @@
         <v>2</v>
       </c>
       <c r="P95" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5287,17 +5101,15 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M96" s="1"/>
@@ -5305,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5325,17 +5137,15 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H97" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M97" s="1">
@@ -5345,7 +5155,7 @@
         <v>6</v>
       </c>
       <c r="P97" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5365,17 +5175,15 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H98" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="M98" s="1">
@@ -5385,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="P98" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5405,17 +5213,15 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H99" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M99" s="1">
@@ -5425,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="P99" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5445,17 +5251,15 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H100" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M100" s="1">
@@ -5465,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="P100" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5485,17 +5289,15 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M101" s="1"/>
@@ -5503,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="P101" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5523,17 +5325,15 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H102" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="M102" s="1">
@@ -5543,7 +5343,7 @@
         <v>4</v>
       </c>
       <c r="P102" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5563,17 +5363,15 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="M103" s="1">
@@ -5583,7 +5381,7 @@
         <v>6</v>
       </c>
       <c r="P103" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5603,17 +5401,15 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H104" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="M104" s="1">
@@ -5623,7 +5419,7 @@
         <v>8</v>
       </c>
       <c r="P104" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5643,17 +5439,15 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M105" s="1">
@@ -5663,7 +5457,7 @@
         <v>6</v>
       </c>
       <c r="P105" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5683,17 +5477,15 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M106" s="1"/>
@@ -5701,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="P106" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5721,17 +5513,15 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M107" s="1"/>
@@ -5739,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="P107" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5759,17 +5549,15 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H108" s="1"/>
+        <v>5</v>
+      </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="M108" s="1">
@@ -5779,7 +5567,7 @@
         <v>8</v>
       </c>
       <c r="P108" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5799,17 +5587,15 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="M109" s="1"/>
@@ -5817,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="P109" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5837,17 +5623,15 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M110" s="1"/>
@@ -5855,7 +5639,7 @@
         <v>6</v>
       </c>
       <c r="P110" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5875,17 +5659,15 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H111" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M111" s="1">
@@ -5895,7 +5677,7 @@
         <v>3</v>
       </c>
       <c r="P111" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5915,17 +5697,15 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H112" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M112" s="1">
@@ -5935,7 +5715,7 @@
         <v>4</v>
       </c>
       <c r="P112" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -5955,17 +5735,15 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M113" s="1"/>
@@ -5973,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="P113" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5993,17 +5771,15 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H114" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="M114" s="1">
@@ -6013,7 +5789,7 @@
         <v>4</v>
       </c>
       <c r="P114" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6033,17 +5809,15 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H115" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M115" s="1">
@@ -6053,7 +5827,7 @@
         <v>4</v>
       </c>
       <c r="P115" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6073,17 +5847,15 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M116" s="1"/>
@@ -6091,7 +5863,7 @@
         <v>2</v>
       </c>
       <c r="P116" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -6111,17 +5883,15 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M117" s="1"/>
@@ -6129,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="P117" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6149,17 +5919,15 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H118" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="M118" s="1">
@@ -6169,7 +5937,7 @@
         <v>5</v>
       </c>
       <c r="P118" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6189,17 +5957,15 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H119" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="M119" s="1">
@@ -6209,7 +5975,7 @@
         <v>8</v>
       </c>
       <c r="P119" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -6227,17 +5993,15 @@
         <v>19</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="M120" s="1"/>
@@ -6245,7 +6009,7 @@
         <v>3</v>
       </c>
       <c r="P120" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6263,17 +6027,15 @@
         <v>9</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H121" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M121" s="1">
@@ -6283,7 +6045,7 @@
         <v>3</v>
       </c>
       <c r="P121" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6301,17 +6063,15 @@
         <v>17</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H122" s="1"/>
+        <v>4</v>
+      </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M122" s="1">
@@ -6321,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="P122" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6338,16 +6098,15 @@
       <c r="D123" s="16">
         <v>8</v>
       </c>
-      <c r="G123" s="1">
-        <f t="shared" si="4"/>
+      <c r="G123" s="16">
         <v>0</v>
       </c>
       <c r="J123" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M123" s="1"/>
@@ -6355,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6372,16 +6131,15 @@
       <c r="D124" s="16">
         <v>11</v>
       </c>
-      <c r="G124" s="1">
-        <f t="shared" si="4"/>
+      <c r="G124" s="16">
         <v>0</v>
       </c>
       <c r="J124" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M124" s="1"/>
@@ -6389,7 +6147,7 @@
         <v>4</v>
       </c>
       <c r="P124" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6406,16 +6164,15 @@
       <c r="D125" s="16">
         <v>17</v>
       </c>
-      <c r="G125" s="1">
-        <f t="shared" si="4"/>
+      <c r="G125" s="16">
         <v>4</v>
       </c>
       <c r="J125" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>87.5</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M125" s="1">
@@ -6425,7 +6182,7 @@
         <v>7</v>
       </c>
       <c r="P125" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -6442,16 +6199,15 @@
       <c r="D126" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G126" s="1">
-        <f t="shared" si="4"/>
+      <c r="G126" s="16">
         <v>4</v>
       </c>
       <c r="J126" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M126" s="1">
@@ -6461,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="P126" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6478,16 +6234,15 @@
       <c r="D127" s="16">
         <v>12</v>
       </c>
-      <c r="G127" s="1">
-        <f t="shared" si="4"/>
+      <c r="G127" s="16">
         <v>0</v>
       </c>
       <c r="J127" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M127" s="1"/>
@@ -6495,7 +6250,7 @@
         <v>6</v>
       </c>
       <c r="P127" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -6512,16 +6267,15 @@
       <c r="D128" s="16">
         <v>9</v>
       </c>
-      <c r="G128" s="1">
-        <f t="shared" si="4"/>
+      <c r="G128" s="16">
         <v>4</v>
       </c>
       <c r="J128" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M128" s="1">
@@ -6531,7 +6285,7 @@
         <v>4</v>
       </c>
       <c r="P128" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6548,16 +6302,15 @@
       <c r="D129" s="16">
         <v>2</v>
       </c>
-      <c r="G129" s="1">
-        <f t="shared" si="4"/>
+      <c r="G129" s="16">
         <v>4</v>
       </c>
       <c r="J129" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M129" s="1">
@@ -6567,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="P129" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -6584,16 +6337,15 @@
       <c r="D130" s="16">
         <v>15</v>
       </c>
-      <c r="G130" s="1">
-        <f t="shared" si="4"/>
+      <c r="G130" s="16">
         <v>4</v>
       </c>
       <c r="J130" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M130" s="1">
@@ -6603,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="P130" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -6620,16 +6372,15 @@
       <c r="D131" s="16">
         <v>15</v>
       </c>
-      <c r="G131" s="1">
-        <f t="shared" si="4"/>
+      <c r="G131" s="16">
         <v>0</v>
       </c>
       <c r="J131" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M131" s="1"/>
@@ -6637,7 +6388,7 @@
         <v>5</v>
       </c>
       <c r="P131" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -6654,16 +6405,15 @@
       <c r="D132" s="16">
         <v>4</v>
       </c>
-      <c r="G132" s="1">
-        <f t="shared" ref="G132" si="8">ROUNDUP(M132/45*5,0)</f>
+      <c r="G132" s="16">
         <v>0</v>
       </c>
       <c r="J132" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" ref="K132" si="9">SUM(D132,G132,P132)</f>
+        <f t="shared" ref="K132" si="6">SUM(D132,G132,P132)</f>
         <v>7</v>
       </c>
       <c r="M132" s="1"/>
@@ -6671,7 +6421,7 @@
         <v>3</v>
       </c>
       <c r="P132" s="28">
-        <f t="shared" ref="P132" si="10">VLOOKUP(J132,$T$3:$U$6,2)</f>
+        <f t="shared" ref="P132" si="7">VLOOKUP(J132,$T$3:$U$6,2)</f>
         <v>3</v>
       </c>
     </row>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1089,7 +1089,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1481,10 +1491,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3:K132"/>
+      <selection pane="topRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6427,6 +6437,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:M132"/>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10982,20 +10997,20 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D120">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",D3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K120">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1092,16 +1092,6 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <sz val="10"/>
@@ -1142,6 +1132,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1491,10 +1491,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="K17" sqref="K17"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3:H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,6 +1577,9 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
         <f>ROUNDUP(O3/9*100,1)</f>
@@ -1596,6 +1599,10 @@
         <f>VLOOKUP(J3,$T$3:$U$6,2)</f>
         <v>0</v>
       </c>
+      <c r="R3" s="16">
+        <f>ROUNDUP(Q3/25*5,0)</f>
+        <v>0</v>
+      </c>
       <c r="T3" s="16">
         <v>0</v>
       </c>
@@ -1620,6 +1627,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>5</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
@@ -1640,6 +1650,13 @@
         <f t="shared" ref="P4:P67" si="2">VLOOKUP(J4,$T$3:$U$6,2)</f>
         <v>3</v>
       </c>
+      <c r="Q4" s="16">
+        <v>25</v>
+      </c>
+      <c r="R4" s="16">
+        <f t="shared" ref="R4:R67" si="3">ROUNDUP(Q4/25*5,0)</f>
+        <v>5</v>
+      </c>
       <c r="T4" s="16">
         <v>10</v>
       </c>
@@ -1664,6 +1681,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>5</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
@@ -1684,6 +1704,13 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="Q5" s="16">
+        <v>25</v>
+      </c>
+      <c r="R5" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="T5" s="16">
         <v>35</v>
       </c>
@@ -1707,6 +1734,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="16">
         <v>5</v>
       </c>
       <c r="I6" s="1"/>
@@ -1728,6 +1758,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="Q6" s="16">
+        <v>25</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="T6" s="16">
         <v>75</v>
       </c>
@@ -1753,6 +1790,9 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
@@ -1772,6 +1812,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="R7" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="T7" s="16">
         <v>100</v>
       </c>
@@ -1795,6 +1839,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="16">
         <v>5</v>
       </c>
       <c r="I8" s="1"/>
@@ -1816,6 +1863,13 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="Q8" s="16">
+        <v>25</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
@@ -1835,6 +1889,9 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
@@ -1854,6 +1911,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="R9" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -1871,6 +1932,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
@@ -1892,6 +1956,10 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="R10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -1909,6 +1977,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="16">
         <v>5</v>
       </c>
       <c r="I11" s="1"/>
@@ -1930,6 +2001,13 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="Q11" s="16">
+        <v>25</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -1948,6 +2026,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>5</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
@@ -1968,6 +2049,13 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="Q12" s="16">
+        <v>25</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -1985,6 +2073,9 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="16">
         <v>5</v>
       </c>
       <c r="I13" s="1"/>
@@ -2006,6 +2097,13 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="Q13" s="16">
+        <v>25</v>
+      </c>
+      <c r="R13" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -2023,6 +2121,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="16">
         <v>5</v>
       </c>
       <c r="I14" s="1"/>
@@ -2044,6 +2145,13 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="Q14" s="16">
+        <v>25</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
@@ -2062,6 +2170,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>5</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
@@ -2082,6 +2193,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="Q15" s="16">
+        <v>25</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
@@ -2100,6 +2218,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>5</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
@@ -2120,8 +2241,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="16">
+        <v>25</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -2138,6 +2266,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>4</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
@@ -2158,8 +2289,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="16">
+        <v>18</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -2176,6 +2314,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>4</v>
+      </c>
+      <c r="H18" s="16">
+        <v>5</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
@@ -2196,8 +2337,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="16">
+        <v>25</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -2213,6 +2361,9 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -2234,8 +2385,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R19" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>18</v>
       </c>
@@ -2253,6 +2408,9 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
@@ -2272,8 +2430,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R20" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -2289,6 +2451,9 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="16">
         <v>5</v>
       </c>
       <c r="I21" s="1"/>
@@ -2310,8 +2475,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="16">
+        <v>25</v>
+      </c>
+      <c r="R21" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -2327,6 +2499,9 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
         <v>0</v>
       </c>
       <c r="I22" s="1"/>
@@ -2348,8 +2523,12 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -2365,6 +2544,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="16">
         <v>5</v>
       </c>
       <c r="I23" s="1"/>
@@ -2386,8 +2568,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="16">
+        <v>25</v>
+      </c>
+      <c r="R23" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -2405,6 +2594,9 @@
       <c r="G24" s="1">
         <v>3</v>
       </c>
+      <c r="H24" s="16">
+        <v>5</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
@@ -2424,8 +2616,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="16">
+        <v>25</v>
+      </c>
+      <c r="R24" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
@@ -2441,6 +2640,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="16">
         <v>5</v>
       </c>
       <c r="I25" s="1"/>
@@ -2462,8 +2664,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="16">
+        <v>25</v>
+      </c>
+      <c r="R25" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -2480,6 +2689,9 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>4</v>
+      </c>
+      <c r="H26" s="16">
+        <v>5</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
@@ -2500,8 +2712,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q26" s="16">
+        <v>25</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -2519,6 +2738,9 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
@@ -2538,8 +2760,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -2555,6 +2781,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="16">
         <v>5</v>
       </c>
       <c r="I28" s="1"/>
@@ -2576,8 +2805,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="16">
+        <v>25</v>
+      </c>
+      <c r="R28" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -2594,6 +2830,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <v>4</v>
+      </c>
+      <c r="H29" s="16">
+        <v>5</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
@@ -2614,8 +2853,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="16">
+        <v>25</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -2631,6 +2877,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="16">
         <v>5</v>
       </c>
       <c r="I30" s="1"/>
@@ -2652,8 +2901,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="16">
+        <v>25</v>
+      </c>
+      <c r="R30" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -2670,6 +2926,9 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1">
         <v>4</v>
+      </c>
+      <c r="H31" s="16">
+        <v>5</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
@@ -2690,8 +2949,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="16">
+        <v>25</v>
+      </c>
+      <c r="R31" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
@@ -2708,6 +2974,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1">
         <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>4</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
@@ -2728,8 +2997,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="16">
+        <v>18</v>
+      </c>
+      <c r="R32" s="16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -2745,6 +3021,9 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="16">
         <v>4</v>
       </c>
       <c r="I33" s="1"/>
@@ -2766,8 +3045,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q33" s="16">
+        <v>20</v>
+      </c>
+      <c r="R33" s="16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -2783,6 +3069,9 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1">
+        <v>5</v>
+      </c>
+      <c r="H34" s="16">
         <v>5</v>
       </c>
       <c r="I34" s="1"/>
@@ -2804,8 +3093,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="16">
+        <v>25</v>
+      </c>
+      <c r="R34" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -2821,6 +3117,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="16">
         <v>5</v>
       </c>
       <c r="I35" s="1"/>
@@ -2842,8 +3141,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="16">
+        <v>25</v>
+      </c>
+      <c r="R35" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -2860,6 +3166,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1">
         <v>5</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
@@ -2880,8 +3189,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R36" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>35</v>
       </c>
@@ -2898,6 +3211,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1">
         <v>4</v>
+      </c>
+      <c r="H37" s="16">
+        <v>5</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
@@ -2918,8 +3234,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="16">
+        <v>25</v>
+      </c>
+      <c r="R37" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>36</v>
       </c>
@@ -2935,6 +3258,9 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="16">
         <v>0</v>
       </c>
       <c r="I38" s="1"/>
@@ -2956,8 +3282,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R38" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>37</v>
       </c>
@@ -2975,6 +3305,9 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
         <f t="shared" si="0"/>
@@ -2994,8 +3327,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R39" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -3011,6 +3348,9 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
         <v>0</v>
       </c>
       <c r="I40" s="1"/>
@@ -3032,8 +3372,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R40" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>39</v>
       </c>
@@ -3050,6 +3394,9 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1">
         <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <v>5</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
@@ -3070,8 +3417,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="16">
+        <v>25</v>
+      </c>
+      <c r="R41" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -3088,6 +3442,9 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1">
         <v>4</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
@@ -3108,8 +3465,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R42" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>41</v>
       </c>
@@ -3125,6 +3486,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="16">
         <v>5</v>
       </c>
       <c r="I43" s="1"/>
@@ -3146,8 +3510,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="16">
+        <v>25</v>
+      </c>
+      <c r="R43" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42</v>
       </c>
@@ -3164,6 +3535,9 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1">
         <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>5</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
@@ -3184,8 +3558,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="16">
+        <v>25</v>
+      </c>
+      <c r="R44" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -3202,6 +3583,9 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1">
         <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <v>5</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
@@ -3222,8 +3606,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="16">
+        <v>25</v>
+      </c>
+      <c r="R45" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -3239,6 +3630,9 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="16">
         <v>5</v>
       </c>
       <c r="I46" s="1"/>
@@ -3260,8 +3654,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="16">
+        <v>25</v>
+      </c>
+      <c r="R46" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -3277,6 +3678,9 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="16">
         <v>5</v>
       </c>
       <c r="I47" s="1"/>
@@ -3298,8 +3702,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="16">
+        <v>25</v>
+      </c>
+      <c r="R47" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -3315,6 +3726,9 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="16">
         <v>0</v>
       </c>
       <c r="I48" s="1"/>
@@ -3336,8 +3750,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R48" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>47</v>
       </c>
@@ -3353,6 +3771,9 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="16">
         <v>0</v>
       </c>
       <c r="I49" s="1"/>
@@ -3374,8 +3795,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R49" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>48</v>
       </c>
@@ -3392,6 +3817,9 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1">
         <v>0</v>
+      </c>
+      <c r="H50" s="16">
+        <v>5</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
@@ -3412,8 +3840,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="16">
+        <v>25</v>
+      </c>
+      <c r="R50" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -3431,6 +3866,9 @@
       <c r="G51" s="1">
         <v>0</v>
       </c>
+      <c r="H51" s="16">
+        <v>0</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
         <f t="shared" si="0"/>
@@ -3450,8 +3888,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R51" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>50</v>
       </c>
@@ -3467,6 +3909,9 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
+        <v>5</v>
+      </c>
+      <c r="H52" s="16">
         <v>5</v>
       </c>
       <c r="I52" s="1"/>
@@ -3488,8 +3933,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="16">
+        <v>25</v>
+      </c>
+      <c r="R52" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -3505,6 +3957,9 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1">
+        <v>5</v>
+      </c>
+      <c r="H53" s="16">
         <v>5</v>
       </c>
       <c r="I53" s="1"/>
@@ -3526,8 +3981,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="16">
+        <v>25</v>
+      </c>
+      <c r="R53" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>52</v>
       </c>
@@ -3544,6 +4006,9 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1">
         <v>0</v>
+      </c>
+      <c r="H54" s="16">
+        <v>5</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
@@ -3564,8 +4029,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="16">
+        <v>25</v>
+      </c>
+      <c r="R54" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>53</v>
       </c>
@@ -3583,6 +4055,9 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
+      <c r="H55" s="16">
+        <v>0</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
         <f t="shared" si="0"/>
@@ -3602,8 +4077,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R55" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -3620,6 +4099,9 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1">
         <v>4</v>
+      </c>
+      <c r="H56" s="16">
+        <v>5</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1">
@@ -3640,8 +4122,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" s="16">
+        <v>25</v>
+      </c>
+      <c r="R56" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>55</v>
       </c>
@@ -3657,6 +4146,9 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="16">
         <v>0</v>
       </c>
       <c r="I57" s="1"/>
@@ -3678,8 +4170,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R57" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -3697,6 +4193,9 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
+      <c r="H58" s="16">
+        <v>5</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
         <f t="shared" si="0"/>
@@ -3716,8 +4215,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="16">
+        <v>25</v>
+      </c>
+      <c r="R58" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -3734,6 +4240,9 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1">
         <v>5</v>
+      </c>
+      <c r="H59" s="16">
+        <v>0</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1">
@@ -3754,8 +4263,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R59" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>58</v>
       </c>
@@ -3773,6 +4286,9 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
+      <c r="H60" s="16">
+        <v>4</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
         <f t="shared" si="0"/>
@@ -3792,8 +4308,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60" s="16">
+        <v>20</v>
+      </c>
+      <c r="R60" s="16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>59</v>
       </c>
@@ -3811,6 +4334,9 @@
       <c r="G61" s="1">
         <v>0</v>
       </c>
+      <c r="H61" s="16">
+        <v>0</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1">
         <f t="shared" si="0"/>
@@ -3830,8 +4356,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R61" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>60</v>
       </c>
@@ -3847,6 +4377,9 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1">
+        <v>5</v>
+      </c>
+      <c r="H62" s="16">
         <v>5</v>
       </c>
       <c r="I62" s="1"/>
@@ -3868,8 +4401,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="16">
+        <v>25</v>
+      </c>
+      <c r="R62" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>61</v>
       </c>
@@ -3887,6 +4427,9 @@
       <c r="G63" s="1">
         <v>0</v>
       </c>
+      <c r="H63" s="16">
+        <v>0</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1">
         <f t="shared" si="0"/>
@@ -3906,8 +4449,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R63" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>62</v>
       </c>
@@ -3923,6 +4470,9 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1">
+        <v>5</v>
+      </c>
+      <c r="H64" s="16">
         <v>5</v>
       </c>
       <c r="I64" s="1"/>
@@ -3944,8 +4494,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" s="16">
+        <v>25</v>
+      </c>
+      <c r="R64" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>63</v>
       </c>
@@ -3961,6 +4518,9 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1">
+        <v>5</v>
+      </c>
+      <c r="H65" s="16">
         <v>5</v>
       </c>
       <c r="I65" s="1"/>
@@ -3982,8 +4542,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="16">
+        <v>25</v>
+      </c>
+      <c r="R65" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>64</v>
       </c>
@@ -3999,6 +4566,9 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1">
+        <v>5</v>
+      </c>
+      <c r="H66" s="16">
         <v>5</v>
       </c>
       <c r="I66" s="1"/>
@@ -4020,8 +4590,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66" s="16">
+        <v>25</v>
+      </c>
+      <c r="R66" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>65</v>
       </c>
@@ -4037,6 +4614,9 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1">
+        <v>5</v>
+      </c>
+      <c r="H67" s="16">
         <v>5</v>
       </c>
       <c r="I67" s="1"/>
@@ -4058,8 +4638,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" s="16">
+        <v>25</v>
+      </c>
+      <c r="R67" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>66</v>
       </c>
@@ -4075,6 +4662,9 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1">
+        <v>5</v>
+      </c>
+      <c r="H68" s="16">
         <v>5</v>
       </c>
       <c r="I68" s="1"/>
@@ -4083,7 +4673,7 @@
         <v>50</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" ref="K68:K131" si="3">SUM(D68,G68,P68)</f>
+        <f t="shared" ref="K68:K131" si="4">SUM(D68,G68,P68)</f>
         <v>22</v>
       </c>
       <c r="M68" s="1">
@@ -4093,11 +4683,18 @@
         <v>4</v>
       </c>
       <c r="P68" s="28">
-        <f t="shared" ref="P68:P131" si="4">VLOOKUP(J68,$T$3:$U$6,2)</f>
+        <f t="shared" ref="P68:P131" si="5">VLOOKUP(J68,$T$3:$U$6,2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" s="16">
+        <v>25</v>
+      </c>
+      <c r="R68" s="16">
+        <f t="shared" ref="R68:R131" si="6">ROUNDUP(Q68/25*5,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>67</v>
       </c>
@@ -4115,13 +4712,16 @@
       <c r="G69" s="1">
         <v>5</v>
       </c>
+      <c r="H69" s="16">
+        <v>5</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1">
-        <f t="shared" ref="J69:J132" si="5">ROUNDUP(O69/8*100,1)</f>
+        <f t="shared" ref="J69:J132" si="7">ROUNDUP(O69/8*100,1)</f>
         <v>100</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="M69" s="1">
@@ -4131,11 +4731,18 @@
         <v>8</v>
       </c>
       <c r="P69" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q69" s="16">
+        <v>25</v>
+      </c>
+      <c r="R69" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>68</v>
       </c>
@@ -4153,13 +4760,16 @@
       <c r="G70" s="1">
         <v>0</v>
       </c>
+      <c r="H70" s="16">
+        <v>5</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M70" s="1"/>
@@ -4167,11 +4777,18 @@
         <v>2</v>
       </c>
       <c r="P70" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" s="16">
+        <v>25</v>
+      </c>
+      <c r="R70" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>69</v>
       </c>
@@ -4189,13 +4806,16 @@
       <c r="G71" s="1">
         <v>4</v>
       </c>
+      <c r="H71" s="16">
+        <v>0</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M71" s="1">
@@ -4205,11 +4825,15 @@
         <v>2</v>
       </c>
       <c r="P71" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R71" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>70</v>
       </c>
@@ -4227,13 +4851,16 @@
       <c r="G72" s="1">
         <v>4</v>
       </c>
+      <c r="H72" s="16">
+        <v>5</v>
+      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="M72" s="1">
@@ -4243,11 +4870,18 @@
         <v>0</v>
       </c>
       <c r="P72" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="16">
+        <v>25</v>
+      </c>
+      <c r="R72" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>71</v>
       </c>
@@ -4265,13 +4899,16 @@
       <c r="G73" s="1">
         <v>5</v>
       </c>
+      <c r="H73" s="16">
+        <v>5</v>
+      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="M73" s="1">
@@ -4281,11 +4918,18 @@
         <v>8</v>
       </c>
       <c r="P73" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q73" s="16">
+        <v>25</v>
+      </c>
+      <c r="R73" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>72</v>
       </c>
@@ -4303,13 +4947,16 @@
       <c r="G74" s="1">
         <v>4</v>
       </c>
+      <c r="H74" s="16">
+        <v>5</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="M74" s="1">
@@ -4319,11 +4966,18 @@
         <v>5</v>
       </c>
       <c r="P74" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74" s="16">
+        <v>25</v>
+      </c>
+      <c r="R74" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>73</v>
       </c>
@@ -4341,13 +4995,16 @@
       <c r="G75" s="1">
         <v>0</v>
       </c>
+      <c r="H75" s="16">
+        <v>4</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="M75" s="1"/>
@@ -4355,11 +5012,18 @@
         <v>3</v>
       </c>
       <c r="P75" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q75" s="16">
+        <v>20</v>
+      </c>
+      <c r="R75" s="16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>74</v>
       </c>
@@ -4377,13 +5041,16 @@
       <c r="G76" s="1">
         <v>4</v>
       </c>
+      <c r="H76" s="16">
+        <v>4</v>
+      </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="M76" s="1">
@@ -4393,11 +5060,18 @@
         <v>4</v>
       </c>
       <c r="P76" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76" s="16">
+        <v>20</v>
+      </c>
+      <c r="R76" s="16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>75</v>
       </c>
@@ -4415,13 +5089,16 @@
       <c r="G77" s="1">
         <v>5</v>
       </c>
+      <c r="H77" s="16">
+        <v>5</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="M77" s="1">
@@ -4431,11 +5108,18 @@
         <v>8</v>
       </c>
       <c r="P77" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q77" s="16">
+        <v>25</v>
+      </c>
+      <c r="R77" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>76</v>
       </c>
@@ -4453,13 +5137,16 @@
       <c r="G78" s="1">
         <v>0</v>
       </c>
+      <c r="H78" s="16">
+        <v>5</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M78" s="1"/>
@@ -4467,11 +5154,18 @@
         <v>5</v>
       </c>
       <c r="P78" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78" s="16">
+        <v>25</v>
+      </c>
+      <c r="R78" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>77</v>
       </c>
@@ -4489,13 +5183,16 @@
       <c r="G79" s="1">
         <v>0</v>
       </c>
+      <c r="H79" s="16">
+        <v>3</v>
+      </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M79" s="1"/>
@@ -4503,11 +5200,18 @@
         <v>2</v>
       </c>
       <c r="P79" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79" s="16">
+        <v>15</v>
+      </c>
+      <c r="R79" s="16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>78</v>
       </c>
@@ -4525,13 +5229,16 @@
       <c r="G80" s="1">
         <v>4</v>
       </c>
+      <c r="H80" s="16">
+        <v>5</v>
+      </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>87.5</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="M80" s="1">
@@ -4541,11 +5248,18 @@
         <v>7</v>
       </c>
       <c r="P80" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q80" s="16">
+        <v>25</v>
+      </c>
+      <c r="R80" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>79</v>
       </c>
@@ -4563,13 +5277,16 @@
       <c r="G81" s="1">
         <v>4</v>
       </c>
+      <c r="H81" s="16">
+        <v>3</v>
+      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M81" s="1">
@@ -4579,11 +5296,18 @@
         <v>2</v>
       </c>
       <c r="P81" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81" s="16">
+        <v>15</v>
+      </c>
+      <c r="R81" s="16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>80</v>
       </c>
@@ -4601,13 +5325,16 @@
       <c r="G82" s="1">
         <v>0</v>
       </c>
+      <c r="H82" s="16">
+        <v>5</v>
+      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="M82" s="1"/>
@@ -4615,11 +5342,18 @@
         <v>4</v>
       </c>
       <c r="P82" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82" s="16">
+        <v>25</v>
+      </c>
+      <c r="R82" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>81</v>
       </c>
@@ -4637,13 +5371,16 @@
       <c r="G83" s="1">
         <v>0</v>
       </c>
+      <c r="H83" s="16">
+        <v>5</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="M83" s="1"/>
@@ -4651,11 +5388,18 @@
         <v>4</v>
       </c>
       <c r="P83" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83" s="16">
+        <v>25</v>
+      </c>
+      <c r="R83" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>82</v>
       </c>
@@ -4673,13 +5417,16 @@
       <c r="G84" s="1">
         <v>0</v>
       </c>
+      <c r="H84" s="16">
+        <v>0</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="M84" s="1"/>
@@ -4687,11 +5434,15 @@
         <v>1</v>
       </c>
       <c r="P84" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="R84" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>83</v>
       </c>
@@ -4709,13 +5460,16 @@
       <c r="G85" s="1">
         <v>5</v>
       </c>
+      <c r="H85" s="16">
+        <v>5</v>
+      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="M85" s="1">
@@ -4725,11 +5479,18 @@
         <v>3</v>
       </c>
       <c r="P85" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85" s="16">
+        <v>25</v>
+      </c>
+      <c r="R85" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>84</v>
       </c>
@@ -4747,13 +5508,16 @@
       <c r="G86" s="1">
         <v>0</v>
       </c>
+      <c r="H86" s="16">
+        <v>0</v>
+      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M86" s="1"/>
@@ -4761,11 +5525,15 @@
         <v>2</v>
       </c>
       <c r="P86" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="R86" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
@@ -4783,13 +5551,16 @@
       <c r="G87" s="1">
         <v>0</v>
       </c>
+      <c r="H87" s="16">
+        <v>2</v>
+      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M87" s="1"/>
@@ -4797,11 +5568,18 @@
         <v>1</v>
       </c>
       <c r="P87" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q87" s="16">
+        <v>10</v>
+      </c>
+      <c r="R87" s="16">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
@@ -4819,13 +5597,16 @@
       <c r="G88" s="1">
         <v>4</v>
       </c>
+      <c r="H88" s="16">
+        <v>5</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="M88" s="1">
@@ -4835,11 +5616,18 @@
         <v>4</v>
       </c>
       <c r="P88" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88" s="16">
+        <v>25</v>
+      </c>
+      <c r="R88" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>87</v>
       </c>
@@ -4857,13 +5645,16 @@
       <c r="G89" s="1">
         <v>4</v>
       </c>
+      <c r="H89" s="16">
+        <v>5</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="M89" s="1">
@@ -4873,11 +5664,18 @@
         <v>5</v>
       </c>
       <c r="P89" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89" s="16">
+        <v>25</v>
+      </c>
+      <c r="R89" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>88</v>
       </c>
@@ -4895,13 +5693,16 @@
       <c r="G90" s="1">
         <v>4</v>
       </c>
+      <c r="H90" s="16">
+        <v>0</v>
+      </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="M90" s="1">
@@ -4911,11 +5712,15 @@
         <v>5</v>
       </c>
       <c r="P90" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R90" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>89</v>
       </c>
@@ -4933,13 +5738,16 @@
       <c r="G91" s="1">
         <v>0</v>
       </c>
+      <c r="H91" s="16">
+        <v>0</v>
+      </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M91" s="1"/>
@@ -4947,11 +5755,15 @@
         <v>1</v>
       </c>
       <c r="P91" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R91" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>90</v>
       </c>
@@ -4969,13 +5781,16 @@
       <c r="G92" s="1">
         <v>0</v>
       </c>
+      <c r="H92" s="16">
+        <v>0</v>
+      </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M92" s="1"/>
@@ -4983,11 +5798,15 @@
         <v>1</v>
       </c>
       <c r="P92" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R92" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>91</v>
       </c>
@@ -5005,13 +5824,16 @@
       <c r="G93" s="1">
         <v>0</v>
       </c>
+      <c r="H93" s="16">
+        <v>5</v>
+      </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="M93" s="1"/>
@@ -5019,11 +5841,18 @@
         <v>3</v>
       </c>
       <c r="P93" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93" s="16">
+        <v>25</v>
+      </c>
+      <c r="R93" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>92</v>
       </c>
@@ -5041,13 +5870,16 @@
       <c r="G94" s="1">
         <v>0</v>
       </c>
+      <c r="H94" s="16">
+        <v>0</v>
+      </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M94" s="1"/>
@@ -5055,11 +5887,15 @@
         <v>1</v>
       </c>
       <c r="P94" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R94" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>93</v>
       </c>
@@ -5077,13 +5913,16 @@
       <c r="G95" s="1">
         <v>0</v>
       </c>
+      <c r="H95" s="16">
+        <v>0</v>
+      </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M95" s="1"/>
@@ -5091,11 +5930,15 @@
         <v>2</v>
       </c>
       <c r="P95" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R95" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>94</v>
       </c>
@@ -5113,13 +5956,16 @@
       <c r="G96" s="1">
         <v>0</v>
       </c>
+      <c r="H96" s="16">
+        <v>3</v>
+      </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M96" s="1"/>
@@ -5127,11 +5973,18 @@
         <v>0</v>
       </c>
       <c r="P96" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="16">
+        <v>15</v>
+      </c>
+      <c r="R96" s="16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>95</v>
       </c>
@@ -5149,13 +6002,16 @@
       <c r="G97" s="1">
         <v>4</v>
       </c>
+      <c r="H97" s="16">
+        <v>5</v>
+      </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="M97" s="1">
@@ -5165,11 +6021,18 @@
         <v>6</v>
       </c>
       <c r="P97" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q97" s="16">
+        <v>25</v>
+      </c>
+      <c r="R97" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>96</v>
       </c>
@@ -5187,13 +6050,16 @@
       <c r="G98" s="1">
         <v>4</v>
       </c>
+      <c r="H98" s="16">
+        <v>5</v>
+      </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="M98" s="1">
@@ -5203,11 +6069,18 @@
         <v>3</v>
       </c>
       <c r="P98" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98" s="16">
+        <v>25</v>
+      </c>
+      <c r="R98" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>97</v>
       </c>
@@ -5225,13 +6098,16 @@
       <c r="G99" s="1">
         <v>4</v>
       </c>
+      <c r="H99" s="16">
+        <v>5</v>
+      </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M99" s="1">
@@ -5241,11 +6117,18 @@
         <v>4</v>
       </c>
       <c r="P99" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99" s="16">
+        <v>25</v>
+      </c>
+      <c r="R99" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>98</v>
       </c>
@@ -5263,13 +6146,16 @@
       <c r="G100" s="1">
         <v>4</v>
       </c>
+      <c r="H100" s="16">
+        <v>0</v>
+      </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="M100" s="1">
@@ -5279,11 +6165,15 @@
         <v>4</v>
       </c>
       <c r="P100" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R100" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>99</v>
       </c>
@@ -5301,13 +6191,16 @@
       <c r="G101" s="1">
         <v>0</v>
       </c>
+      <c r="H101" s="16">
+        <v>0</v>
+      </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="M101" s="1"/>
@@ -5315,11 +6208,15 @@
         <v>2</v>
       </c>
       <c r="P101" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R101" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>100</v>
       </c>
@@ -5337,13 +6234,16 @@
       <c r="G102" s="1">
         <v>5</v>
       </c>
+      <c r="H102" s="16">
+        <v>5</v>
+      </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="M102" s="1">
@@ -5353,11 +6253,18 @@
         <v>4</v>
       </c>
       <c r="P102" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102" s="16">
+        <v>25</v>
+      </c>
+      <c r="R102" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>101</v>
       </c>
@@ -5375,13 +6282,16 @@
       <c r="G103" s="1">
         <v>3</v>
       </c>
+      <c r="H103" s="16">
+        <v>5</v>
+      </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="M103" s="1">
@@ -5391,11 +6301,18 @@
         <v>6</v>
       </c>
       <c r="P103" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q103" s="16">
+        <v>25</v>
+      </c>
+      <c r="R103" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>102</v>
       </c>
@@ -5413,13 +6330,16 @@
       <c r="G104" s="1">
         <v>5</v>
       </c>
+      <c r="H104" s="16">
+        <v>5</v>
+      </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="M104" s="1">
@@ -5429,11 +6349,18 @@
         <v>8</v>
       </c>
       <c r="P104" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q104" s="16">
+        <v>25</v>
+      </c>
+      <c r="R104" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>103</v>
       </c>
@@ -5451,13 +6378,16 @@
       <c r="G105" s="1">
         <v>3</v>
       </c>
+      <c r="H105" s="16">
+        <v>5</v>
+      </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M105" s="1">
@@ -5467,11 +6397,18 @@
         <v>6</v>
       </c>
       <c r="P105" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q105" s="16">
+        <v>25</v>
+      </c>
+      <c r="R105" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>104</v>
       </c>
@@ -5489,13 +6426,16 @@
       <c r="G106" s="1">
         <v>0</v>
       </c>
+      <c r="H106" s="16">
+        <v>0</v>
+      </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M106" s="1"/>
@@ -5503,11 +6443,15 @@
         <v>0</v>
       </c>
       <c r="P106" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R106" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <v>105</v>
       </c>
@@ -5525,13 +6469,16 @@
       <c r="G107" s="1">
         <v>0</v>
       </c>
+      <c r="H107" s="16">
+        <v>0</v>
+      </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M107" s="1"/>
@@ -5539,11 +6486,15 @@
         <v>0</v>
       </c>
       <c r="P107" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R107" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>106</v>
       </c>
@@ -5561,13 +6512,16 @@
       <c r="G108" s="1">
         <v>5</v>
       </c>
+      <c r="H108" s="16">
+        <v>5</v>
+      </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="M108" s="1">
@@ -5577,11 +6531,18 @@
         <v>8</v>
       </c>
       <c r="P108" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q108" s="16">
+        <v>25</v>
+      </c>
+      <c r="R108" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>107</v>
       </c>
@@ -5599,13 +6560,16 @@
       <c r="G109" s="1">
         <v>0</v>
       </c>
+      <c r="H109" s="16">
+        <v>0</v>
+      </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M109" s="1"/>
@@ -5613,11 +6577,15 @@
         <v>2</v>
       </c>
       <c r="P109" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R109" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <v>108</v>
       </c>
@@ -5635,13 +6603,16 @@
       <c r="G110" s="1">
         <v>0</v>
       </c>
+      <c r="H110" s="16">
+        <v>0</v>
+      </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="M110" s="1"/>
@@ -5649,11 +6620,15 @@
         <v>6</v>
       </c>
       <c r="P110" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R110" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>109</v>
       </c>
@@ -5671,13 +6646,16 @@
       <c r="G111" s="1">
         <v>4</v>
       </c>
+      <c r="H111" s="16">
+        <v>4</v>
+      </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M111" s="1">
@@ -5687,11 +6665,18 @@
         <v>3</v>
       </c>
       <c r="P111" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q111" s="16">
+        <v>20</v>
+      </c>
+      <c r="R111" s="16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>110</v>
       </c>
@@ -5709,13 +6694,16 @@
       <c r="G112" s="1">
         <v>4</v>
       </c>
+      <c r="H112" s="16">
+        <v>5</v>
+      </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="M112" s="1">
@@ -5725,11 +6713,18 @@
         <v>4</v>
       </c>
       <c r="P112" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112" s="16">
+        <v>25</v>
+      </c>
+      <c r="R112" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>111</v>
       </c>
@@ -5747,13 +6742,16 @@
       <c r="G113" s="1">
         <v>0</v>
       </c>
+      <c r="H113" s="16">
+        <v>0</v>
+      </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M113" s="1"/>
@@ -5761,11 +6759,15 @@
         <v>0</v>
       </c>
       <c r="P113" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>112</v>
       </c>
@@ -5783,13 +6785,16 @@
       <c r="G114" s="1">
         <v>4</v>
       </c>
+      <c r="H114" s="16">
+        <v>5</v>
+      </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="M114" s="1">
@@ -5799,11 +6804,18 @@
         <v>4</v>
       </c>
       <c r="P114" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114" s="16">
+        <v>25</v>
+      </c>
+      <c r="R114" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>113</v>
       </c>
@@ -5821,13 +6833,16 @@
       <c r="G115" s="1">
         <v>4</v>
       </c>
+      <c r="H115" s="16">
+        <v>5</v>
+      </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M115" s="1">
@@ -5837,11 +6852,18 @@
         <v>4</v>
       </c>
       <c r="P115" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115" s="16">
+        <v>25</v>
+      </c>
+      <c r="R115" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>114</v>
       </c>
@@ -5859,13 +6881,16 @@
       <c r="G116" s="1">
         <v>0</v>
       </c>
+      <c r="H116" s="16">
+        <v>0</v>
+      </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="M116" s="1"/>
@@ -5873,11 +6898,15 @@
         <v>2</v>
       </c>
       <c r="P116" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R116" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <v>115</v>
       </c>
@@ -5895,13 +6924,16 @@
       <c r="G117" s="1">
         <v>0</v>
       </c>
+      <c r="H117" s="16">
+        <v>0</v>
+      </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M117" s="1"/>
@@ -5909,11 +6941,15 @@
         <v>0</v>
       </c>
       <c r="P117" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R117" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>116</v>
       </c>
@@ -5931,13 +6967,16 @@
       <c r="G118" s="1">
         <v>4</v>
       </c>
+      <c r="H118" s="16">
+        <v>5</v>
+      </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M118" s="1">
@@ -5947,11 +6986,18 @@
         <v>5</v>
       </c>
       <c r="P118" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118" s="16">
+        <v>25</v>
+      </c>
+      <c r="R118" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>117</v>
       </c>
@@ -5969,13 +7015,16 @@
       <c r="G119" s="1">
         <v>4</v>
       </c>
+      <c r="H119" s="16">
+        <v>5</v>
+      </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="M119" s="1">
@@ -5985,11 +7034,18 @@
         <v>8</v>
       </c>
       <c r="P119" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q119" s="16">
+        <v>25</v>
+      </c>
+      <c r="R119" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>118</v>
       </c>
@@ -6005,13 +7061,16 @@
       <c r="G120" s="1">
         <v>0</v>
       </c>
+      <c r="H120" s="16">
+        <v>4</v>
+      </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="M120" s="1"/>
@@ -6019,11 +7078,18 @@
         <v>3</v>
       </c>
       <c r="P120" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120" s="16">
+        <v>20</v>
+      </c>
+      <c r="R120" s="16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>119</v>
       </c>
@@ -6039,13 +7105,16 @@
       <c r="G121" s="1">
         <v>4</v>
       </c>
+      <c r="H121" s="16">
+        <v>5</v>
+      </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="M121" s="1">
@@ -6055,11 +7124,18 @@
         <v>3</v>
       </c>
       <c r="P121" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121" s="16">
+        <v>25</v>
+      </c>
+      <c r="R121" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>120</v>
       </c>
@@ -6075,13 +7151,16 @@
       <c r="G122" s="1">
         <v>4</v>
       </c>
+      <c r="H122" s="16">
+        <v>5</v>
+      </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="M122" s="1">
@@ -6091,11 +7170,18 @@
         <v>5</v>
       </c>
       <c r="P122" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122" s="16">
+        <v>25</v>
+      </c>
+      <c r="R122" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <v>121</v>
       </c>
@@ -6111,12 +7197,15 @@
       <c r="G123" s="16">
         <v>0</v>
       </c>
+      <c r="H123" s="16">
+        <v>0</v>
+      </c>
       <c r="J123" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M123" s="1"/>
@@ -6124,11 +7213,15 @@
         <v>0</v>
       </c>
       <c r="P123" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>122</v>
       </c>
@@ -6144,12 +7237,15 @@
       <c r="G124" s="16">
         <v>0</v>
       </c>
+      <c r="H124" s="16">
+        <v>5</v>
+      </c>
       <c r="J124" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M124" s="1"/>
@@ -6157,11 +7253,18 @@
         <v>4</v>
       </c>
       <c r="P124" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124" s="16">
+        <v>25</v>
+      </c>
+      <c r="R124" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>123</v>
       </c>
@@ -6177,12 +7280,15 @@
       <c r="G125" s="16">
         <v>4</v>
       </c>
+      <c r="H125" s="16">
+        <v>5</v>
+      </c>
       <c r="J125" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>87.5</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="M125" s="1">
@@ -6192,11 +7298,18 @@
         <v>7</v>
       </c>
       <c r="P125" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q125" s="16">
+        <v>25</v>
+      </c>
+      <c r="R125" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>124</v>
       </c>
@@ -6212,12 +7325,15 @@
       <c r="G126" s="16">
         <v>4</v>
       </c>
+      <c r="H126" s="16">
+        <v>3</v>
+      </c>
       <c r="J126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M126" s="1">
@@ -6227,11 +7343,18 @@
         <v>3</v>
       </c>
       <c r="P126" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126" s="16">
+        <v>15</v>
+      </c>
+      <c r="R126" s="16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>125</v>
       </c>
@@ -6247,12 +7370,15 @@
       <c r="G127" s="16">
         <v>0</v>
       </c>
+      <c r="H127" s="16">
+        <v>5</v>
+      </c>
       <c r="J127" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="M127" s="1"/>
@@ -6260,11 +7386,18 @@
         <v>6</v>
       </c>
       <c r="P127" s="28">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q127" s="16">
+        <v>25</v>
+      </c>
+      <c r="R127" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>126</v>
       </c>
@@ -6280,12 +7413,15 @@
       <c r="G128" s="16">
         <v>4</v>
       </c>
+      <c r="H128" s="16">
+        <v>5</v>
+      </c>
       <c r="J128" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="M128" s="1">
@@ -6295,11 +7431,18 @@
         <v>4</v>
       </c>
       <c r="P128" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128" s="16">
+        <v>25</v>
+      </c>
+      <c r="R128" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <v>127</v>
       </c>
@@ -6315,12 +7458,15 @@
       <c r="G129" s="16">
         <v>4</v>
       </c>
+      <c r="H129" s="16">
+        <v>3</v>
+      </c>
       <c r="J129" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M129" s="1">
@@ -6330,11 +7476,18 @@
         <v>1</v>
       </c>
       <c r="P129" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129" s="16">
+        <v>15</v>
+      </c>
+      <c r="R129" s="16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <v>128</v>
       </c>
@@ -6350,12 +7503,15 @@
       <c r="G130" s="16">
         <v>4</v>
       </c>
+      <c r="H130" s="16">
+        <v>5</v>
+      </c>
       <c r="J130" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="M130" s="1">
@@ -6365,11 +7521,18 @@
         <v>2</v>
       </c>
       <c r="P130" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130" s="16">
+        <v>25</v>
+      </c>
+      <c r="R130" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>129</v>
       </c>
@@ -6385,12 +7548,15 @@
       <c r="G131" s="16">
         <v>0</v>
       </c>
+      <c r="H131" s="16">
+        <v>5</v>
+      </c>
       <c r="J131" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="M131" s="1"/>
@@ -6398,11 +7564,18 @@
         <v>5</v>
       </c>
       <c r="P131" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131" s="16">
+        <v>22</v>
+      </c>
+      <c r="R131" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <v>130</v>
       </c>
@@ -6418,12 +7591,15 @@
       <c r="G132" s="16">
         <v>0</v>
       </c>
+      <c r="H132" s="16">
+        <v>0</v>
+      </c>
       <c r="J132" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" ref="K132" si="6">SUM(D132,G132,P132)</f>
+        <f t="shared" ref="K132" si="8">SUM(D132,G132,P132)</f>
         <v>7</v>
       </c>
       <c r="M132" s="1"/>
@@ -6431,14 +7607,18 @@
         <v>3</v>
       </c>
       <c r="P132" s="28">
-        <f t="shared" ref="P132" si="7">VLOOKUP(J132,$T$3:$U$6,2)</f>
+        <f t="shared" ref="P132" si="9">VLOOKUP(J132,$T$3:$U$6,2)</f>
         <v>3</v>
+      </c>
+      <c r="R132" s="16">
+        <f t="shared" ref="R132" si="10">ROUNDUP(Q132/25*5,0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:M132"/>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10997,20 +12177,20 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D120">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",D3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K120">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="269">
   <si>
     <t>S.N</t>
   </si>
@@ -995,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,6 +1084,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,10 +1494,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B107" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3:H132"/>
+      <selection pane="topRight" activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1505,8 @@
     <col min="1" max="1" width="4" style="16" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="16" customWidth="1"/>
-    <col min="4" max="5" width="3.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="16" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="16" customWidth="1"/>
     <col min="7" max="11" width="9.140625" style="16"/>
     <col min="13" max="16384" width="9.140625" style="16"/>
@@ -1523,8 +1527,8 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:21" s="31" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1536,10 +1540,10 @@
       <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -1572,7 +1576,9 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>0</v>
@@ -1623,7 +1629,9 @@
       <c r="D4" s="1">
         <v>14</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>14</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>0</v>
@@ -1677,7 +1685,9 @@
       <c r="D5" s="1">
         <v>14</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>0</v>
@@ -1731,7 +1741,9 @@
       <c r="D6" s="1">
         <v>13</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>19</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>5</v>
@@ -1785,7 +1797,9 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>0</v>
@@ -1836,7 +1850,9 @@
       <c r="D8" s="1">
         <v>11</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>16</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>5</v>
@@ -1884,7 +1900,9 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>0</v>
@@ -1929,7 +1947,9 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>0</v>
@@ -1974,7 +1994,9 @@
       <c r="D11" s="1">
         <v>19</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>18</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>5</v>
@@ -2022,7 +2044,9 @@
       <c r="D12" s="1">
         <v>17</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>0</v>
@@ -2070,7 +2094,9 @@
       <c r="D13" s="1">
         <v>17</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>17</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
         <v>5</v>
@@ -2118,7 +2144,9 @@
       <c r="D14" s="1">
         <v>22</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>20</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <v>5</v>
@@ -2166,7 +2194,9 @@
       <c r="D15" s="1">
         <v>16</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>0</v>
@@ -2214,7 +2244,9 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>12</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>0</v>
@@ -2262,7 +2294,9 @@
       <c r="D17" s="1">
         <v>6</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>13</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>0</v>
@@ -2310,7 +2344,9 @@
       <c r="D18" s="1">
         <v>20</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>18</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>4</v>
@@ -2358,7 +2394,9 @@
       <c r="D19" s="1">
         <v>14</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <v>0</v>
@@ -2403,7 +2441,9 @@
       <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
         <v>0</v>
@@ -2448,7 +2488,9 @@
       <c r="D21" s="1">
         <v>22</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>5</v>
@@ -2496,7 +2538,9 @@
       <c r="D22" s="1">
         <v>8</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>13</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>0</v>
@@ -2541,7 +2585,9 @@
       <c r="D23" s="1">
         <v>9</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>14</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
         <v>5</v>
@@ -2589,7 +2635,9 @@
       <c r="D24" s="1">
         <v>16</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
         <v>3</v>
@@ -2637,7 +2685,9 @@
       <c r="D25" s="1">
         <v>27</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>26</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
         <v>5</v>
@@ -2685,7 +2735,9 @@
       <c r="D26" s="1">
         <v>14</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>13</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>4</v>
@@ -2733,7 +2785,9 @@
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>0</v>
@@ -2778,7 +2832,9 @@
       <c r="D28" s="1">
         <v>22</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>22</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
         <v>5</v>
@@ -2826,7 +2882,9 @@
       <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>16</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <v>4</v>
@@ -2874,7 +2932,9 @@
       <c r="D30" s="1">
         <v>19</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>25</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
         <v>5</v>
@@ -2922,7 +2982,9 @@
       <c r="D31" s="1">
         <v>15</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>15</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
         <v>4</v>
@@ -2970,7 +3032,9 @@
       <c r="D32" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>16</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1">
         <v>0</v>
@@ -3018,7 +3082,9 @@
       <c r="D33" s="1">
         <v>10</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>13</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
         <v>4</v>
@@ -3066,7 +3132,9 @@
       <c r="D34" s="1">
         <v>22</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>20</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1">
         <v>5</v>
@@ -3114,7 +3182,9 @@
       <c r="D35" s="1">
         <v>10</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>14</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
         <v>5</v>
@@ -3162,7 +3232,9 @@
       <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
         <v>5</v>
@@ -3207,7 +3279,9 @@
       <c r="D37" s="1">
         <v>15</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1">
+        <v>15</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
         <v>4</v>
@@ -3255,7 +3329,9 @@
       <c r="D38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
         <v>0</v>
@@ -3300,7 +3376,9 @@
       <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
         <v>0</v>
@@ -3345,7 +3423,9 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
         <v>0</v>
@@ -3390,7 +3470,9 @@
       <c r="D41" s="1">
         <v>7</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
         <v>0</v>
@@ -3438,7 +3520,9 @@
       <c r="D42" s="1">
         <v>10</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1">
+        <v>15</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
         <v>4</v>
@@ -3483,7 +3567,9 @@
       <c r="D43" s="1">
         <v>14</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1">
+        <v>18</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
         <v>5</v>
@@ -3531,7 +3617,9 @@
       <c r="D44" s="1">
         <v>10</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>13</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
         <v>0</v>
@@ -3579,7 +3667,9 @@
       <c r="D45" s="1">
         <v>7</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1">
+        <v>12</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
         <v>0</v>
@@ -3627,7 +3717,9 @@
       <c r="D46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1">
+        <v>28</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
         <v>5</v>
@@ -3675,7 +3767,9 @@
       <c r="D47" s="1">
         <v>7</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1">
+        <v>13</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1">
         <v>5</v>
@@ -3723,7 +3817,9 @@
       <c r="D48" s="1">
         <v>10</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1">
+        <v>17</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
         <v>0</v>
@@ -3768,7 +3864,9 @@
       <c r="D49" s="1">
         <v>10</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1">
+        <v>6</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
         <v>0</v>
@@ -3813,7 +3911,9 @@
       <c r="D50" s="1">
         <v>9</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1">
+        <v>16</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1">
         <v>0</v>
@@ -3861,7 +3961,9 @@
       <c r="D51" s="1">
         <v>5</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1">
+        <v>6</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1">
         <v>0</v>
@@ -3906,7 +4008,9 @@
       <c r="D52" s="1">
         <v>19</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1">
+        <v>11</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
         <v>5</v>
@@ -3954,7 +4058,9 @@
       <c r="D53" s="1">
         <v>21</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1">
+        <v>24</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1">
         <v>5</v>
@@ -4002,7 +4108,9 @@
       <c r="D54" s="1">
         <v>10</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1">
+        <v>11</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1">
         <v>0</v>
@@ -4050,7 +4158,9 @@
       <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1">
         <v>0</v>
@@ -4095,7 +4205,9 @@
       <c r="D56" s="1">
         <v>6</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>13</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1">
         <v>4</v>
@@ -4143,7 +4255,9 @@
       <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1">
         <v>0</v>
@@ -4188,7 +4302,9 @@
       <c r="D58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1">
+        <v>12</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
         <v>0</v>
@@ -4236,7 +4352,9 @@
       <c r="D59" s="1">
         <v>21</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1">
+        <v>19</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
         <v>5</v>
@@ -4281,7 +4399,9 @@
       <c r="D60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1">
+        <v>15</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1">
         <v>0</v>
@@ -4329,7 +4449,9 @@
       <c r="D61" s="1">
         <v>8</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1">
+        <v>7</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1">
         <v>0</v>
@@ -4374,7 +4496,9 @@
       <c r="D62" s="1">
         <v>21</v>
       </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1">
+        <v>26</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1">
         <v>5</v>
@@ -4422,7 +4546,9 @@
       <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1">
         <v>0</v>
@@ -4467,7 +4593,9 @@
       <c r="D64" s="1">
         <v>27</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1">
+        <v>30</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1">
         <v>5</v>
@@ -4515,7 +4643,9 @@
       <c r="D65" s="1">
         <v>21</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1">
+        <v>20</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1">
         <v>5</v>
@@ -4563,7 +4693,9 @@
       <c r="D66" s="1">
         <v>22</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1">
+        <v>15</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1">
         <v>5</v>
@@ -4611,7 +4743,9 @@
       <c r="D67" s="1">
         <v>21</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1">
+        <v>20</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1">
         <v>5</v>
@@ -4659,7 +4793,9 @@
       <c r="D68" s="1">
         <v>14</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1">
+        <v>10</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1">
         <v>5</v>
@@ -4707,7 +4843,9 @@
       <c r="D69" s="1">
         <v>19</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1">
+        <v>11</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1">
         <v>5</v>
@@ -4755,7 +4893,9 @@
       <c r="D70" s="1">
         <v>10</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1">
+        <v>3</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1">
         <v>0</v>
@@ -4801,7 +4941,9 @@
       <c r="D71" s="1">
         <v>2</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1">
+        <v>3</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1">
         <v>4</v>
@@ -4846,7 +4988,9 @@
       <c r="D72" s="1">
         <v>12</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1">
+        <v>11</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
         <v>4</v>
@@ -4894,7 +5038,9 @@
       <c r="D73" s="1">
         <v>24</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1">
+        <v>20</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1">
         <v>5</v>
@@ -4942,7 +5088,9 @@
       <c r="D74" s="1">
         <v>11</v>
       </c>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1">
+        <v>8</v>
+      </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1">
         <v>4</v>
@@ -4990,7 +5138,9 @@
       <c r="D75" s="1">
         <v>10</v>
       </c>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1">
+        <v>6</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1">
         <v>0</v>
@@ -5036,7 +5186,9 @@
       <c r="D76" s="1">
         <v>6</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1">
         <v>4</v>
@@ -5084,7 +5236,9 @@
       <c r="D77" s="1">
         <v>27</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1">
+        <v>25</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1">
         <v>5</v>
@@ -5132,7 +5286,9 @@
       <c r="D78" s="1">
         <v>8</v>
       </c>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1">
+        <v>3</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1">
         <v>0</v>
@@ -5178,7 +5334,9 @@
       <c r="D79" s="1">
         <v>15</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1">
+        <v>6</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1">
         <v>0</v>
@@ -5224,7 +5382,9 @@
       <c r="D80" s="1">
         <v>21</v>
       </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1">
+        <v>22</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
         <v>4</v>
@@ -5272,7 +5432,9 @@
       <c r="D81" s="1">
         <v>4</v>
       </c>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1">
+        <v>3</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
         <v>4</v>
@@ -5320,7 +5482,9 @@
       <c r="D82" s="1">
         <v>15</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1">
+        <v>10</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1">
         <v>0</v>
@@ -5366,7 +5530,9 @@
       <c r="D83" s="1">
         <v>13</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1">
+        <v>7</v>
+      </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1">
         <v>0</v>
@@ -5412,7 +5578,9 @@
       <c r="D84" s="1">
         <v>3</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1">
         <v>0</v>
@@ -5455,7 +5623,9 @@
       <c r="D85" s="1">
         <v>19</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1">
+        <v>13</v>
+      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1">
         <v>5</v>
@@ -5503,7 +5673,9 @@
       <c r="D86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1">
         <v>0</v>
@@ -5546,7 +5718,9 @@
       <c r="D87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1">
+        <v>2</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1">
         <v>0</v>
@@ -5592,7 +5766,9 @@
       <c r="D88" s="1">
         <v>17</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1">
+        <v>12</v>
+      </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1">
         <v>4</v>
@@ -5640,7 +5816,9 @@
       <c r="D89" s="1">
         <v>20</v>
       </c>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1">
+        <v>19</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1">
         <v>4</v>
@@ -5688,7 +5866,9 @@
       <c r="D90" s="1">
         <v>6</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1">
+        <v>3</v>
+      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1">
         <v>4</v>
@@ -5733,7 +5913,9 @@
       <c r="D91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1">
         <v>0</v>
@@ -5776,7 +5958,9 @@
       <c r="D92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1">
         <v>0</v>
@@ -5819,7 +6003,9 @@
       <c r="D93" s="1">
         <v>10</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1">
+        <v>12</v>
+      </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1">
         <v>0</v>
@@ -5865,7 +6051,9 @@
       <c r="D94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1">
         <v>0</v>
@@ -5908,7 +6096,9 @@
       <c r="D95" s="1">
         <v>7</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1">
+        <v>8</v>
+      </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1">
         <v>0</v>
@@ -5951,7 +6141,9 @@
       <c r="D96" s="1">
         <v>7</v>
       </c>
-      <c r="E96" s="1"/>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1">
         <v>0</v>
@@ -5997,7 +6189,9 @@
       <c r="D97" s="1">
         <v>17</v>
       </c>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1">
+        <v>20</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1">
         <v>4</v>
@@ -6045,7 +6239,9 @@
       <c r="D98" s="1">
         <v>19</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1">
+        <v>11</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1">
         <v>4</v>
@@ -6093,7 +6289,9 @@
       <c r="D99" s="1">
         <v>7</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1">
+        <v>8</v>
+      </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1">
         <v>4</v>
@@ -6141,7 +6339,9 @@
       <c r="D100" s="1">
         <v>14</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1">
+        <v>7</v>
+      </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1">
         <v>4</v>
@@ -6186,7 +6386,9 @@
       <c r="D101" s="1">
         <v>19</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1">
+        <v>13</v>
+      </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1">
         <v>0</v>
@@ -6229,7 +6431,9 @@
       <c r="D102" s="1">
         <v>14</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1">
+        <v>6</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1">
         <v>5</v>
@@ -6277,7 +6481,9 @@
       <c r="D103" s="1">
         <v>8</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1">
+        <v>10</v>
+      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1">
         <v>3</v>
@@ -6325,7 +6531,9 @@
       <c r="D104" s="1">
         <v>24</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1">
+        <v>15</v>
+      </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1">
         <v>5</v>
@@ -6373,7 +6581,9 @@
       <c r="D105" s="1">
         <v>7</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1">
+        <v>2</v>
+      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1">
         <v>3</v>
@@ -6421,7 +6631,9 @@
       <c r="D106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1">
         <v>0</v>
@@ -6464,7 +6676,9 @@
       <c r="D107" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1">
         <v>0</v>
@@ -6507,7 +6721,9 @@
       <c r="D108" s="1">
         <v>22</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1">
+        <v>28</v>
+      </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1">
         <v>5</v>
@@ -6555,7 +6771,9 @@
       <c r="D109" s="1">
         <v>10</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1">
+        <v>8</v>
+      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1">
         <v>0</v>
@@ -6598,7 +6816,9 @@
       <c r="D110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1">
         <v>0</v>
@@ -6641,7 +6861,9 @@
       <c r="D111" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1">
+        <v>12</v>
+      </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1">
         <v>4</v>
@@ -6689,7 +6911,9 @@
       <c r="D112" s="1">
         <v>11</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1">
+        <v>7</v>
+      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1">
         <v>4</v>
@@ -6737,7 +6961,9 @@
       <c r="D113" s="1">
         <v>1</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1">
+        <v>5</v>
+      </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1">
         <v>0</v>
@@ -6780,7 +7006,9 @@
       <c r="D114" s="1">
         <v>15</v>
       </c>
-      <c r="E114" s="1"/>
+      <c r="E114" s="1">
+        <v>5</v>
+      </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1">
         <v>4</v>
@@ -6828,7 +7056,9 @@
       <c r="D115" s="1">
         <v>7</v>
       </c>
-      <c r="E115" s="1"/>
+      <c r="E115" s="1">
+        <v>12</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1">
         <v>4</v>
@@ -6876,7 +7106,9 @@
       <c r="D116" s="1">
         <v>3</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1">
         <v>0</v>
@@ -6919,7 +7151,9 @@
       <c r="D117" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1">
         <v>0</v>
@@ -6962,7 +7196,9 @@
       <c r="D118" s="1">
         <v>10</v>
       </c>
-      <c r="E118" s="1"/>
+      <c r="E118" s="1">
+        <v>10</v>
+      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1">
         <v>4</v>
@@ -7010,7 +7246,9 @@
       <c r="D119" s="1">
         <v>19</v>
       </c>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1">
+        <v>14</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1">
         <v>4</v>
@@ -7058,6 +7296,9 @@
       <c r="D120" s="16">
         <v>19</v>
       </c>
+      <c r="E120" s="16">
+        <v>5</v>
+      </c>
       <c r="G120" s="1">
         <v>0</v>
       </c>
@@ -7102,6 +7343,9 @@
       <c r="D121" s="16">
         <v>9</v>
       </c>
+      <c r="E121" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="G121" s="1">
         <v>4</v>
       </c>
@@ -7148,6 +7392,9 @@
       <c r="D122" s="1">
         <v>17</v>
       </c>
+      <c r="E122" s="16">
+        <v>22</v>
+      </c>
       <c r="G122" s="1">
         <v>4</v>
       </c>
@@ -7194,6 +7441,9 @@
       <c r="D123" s="16">
         <v>8</v>
       </c>
+      <c r="E123" s="16">
+        <v>4</v>
+      </c>
       <c r="G123" s="16">
         <v>0</v>
       </c>
@@ -7234,6 +7484,9 @@
       <c r="D124" s="16">
         <v>11</v>
       </c>
+      <c r="E124" s="16">
+        <v>7</v>
+      </c>
       <c r="G124" s="16">
         <v>0</v>
       </c>
@@ -7277,6 +7530,9 @@
       <c r="D125" s="16">
         <v>17</v>
       </c>
+      <c r="E125" s="16">
+        <v>25</v>
+      </c>
       <c r="G125" s="16">
         <v>4</v>
       </c>
@@ -7322,6 +7578,9 @@
       <c r="D126" s="16" t="s">
         <v>19</v>
       </c>
+      <c r="E126" s="16">
+        <v>4</v>
+      </c>
       <c r="G126" s="16">
         <v>4</v>
       </c>
@@ -7367,6 +7626,9 @@
       <c r="D127" s="16">
         <v>12</v>
       </c>
+      <c r="E127" s="16">
+        <v>9</v>
+      </c>
       <c r="G127" s="16">
         <v>0</v>
       </c>
@@ -7410,6 +7672,9 @@
       <c r="D128" s="16">
         <v>9</v>
       </c>
+      <c r="E128" s="16">
+        <v>1</v>
+      </c>
       <c r="G128" s="16">
         <v>4</v>
       </c>
@@ -7455,6 +7720,9 @@
       <c r="D129" s="16">
         <v>2</v>
       </c>
+      <c r="E129" s="16">
+        <v>2</v>
+      </c>
       <c r="G129" s="16">
         <v>4</v>
       </c>
@@ -7500,6 +7768,9 @@
       <c r="D130" s="16">
         <v>15</v>
       </c>
+      <c r="E130" s="16">
+        <v>14</v>
+      </c>
       <c r="G130" s="16">
         <v>4</v>
       </c>
@@ -7545,6 +7816,9 @@
       <c r="D131" s="16">
         <v>15</v>
       </c>
+      <c r="E131" s="16">
+        <v>10</v>
+      </c>
       <c r="G131" s="16">
         <v>0</v>
       </c>
@@ -7587,6 +7861,9 @@
       </c>
       <c r="D132" s="16">
         <v>4</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="G132" s="16">
         <v>0</v>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="269">
   <si>
     <t>S.N</t>
   </si>
@@ -995,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,20 +1079,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1492,12 +1505,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U132"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="E133" sqref="E133"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1525,7 @@
     <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>121</v>
       </c>
@@ -1527,7 +1540,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:21" s="31" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -1579,7 +1592,9 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
@@ -1588,11 +1603,11 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <f>ROUNDUP(O3/9*100,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <f>SUM(D3,G3,P3)</f>
+        <f>ROUNDUP(O3/25*100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <f>ROUND(AVERAGE(LARGE(V3:X3,{1,2})),0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
@@ -1602,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="28">
-        <f>VLOOKUP(J3,$T$3:$U$6,2)</f>
+        <f>VLOOKUP(J3,$T$3:$U$7,2)</f>
         <v>0</v>
       </c>
       <c r="R3" s="16">
@@ -1615,8 +1630,20 @@
       <c r="U3" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="16">
+        <f>ROUND(SUM(D3)+G3,0)+P3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <f>ROUND(SUM(E3)+H3,0)+P3</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
+        <f>ROUND(SUM(F3)+I3,0)+P3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -1641,12 +1668,12 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J67" si="0">ROUNDUP(O4/9*100,1)</f>
-        <v>66.699999999999989</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K67" si="1">SUM(D4,G4,P4)</f>
-        <v>17</v>
+        <f t="shared" ref="J4:J67" si="0">ROUNDUP(O4/25*100,1)</f>
+        <v>24</v>
+      </c>
+      <c r="K4" s="16">
+        <f>ROUND(AVERAGE(LARGE(V4:X4,{1,2})),0)</f>
+        <v>19</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1655,14 +1682,14 @@
         <v>6</v>
       </c>
       <c r="P4" s="28">
-        <f t="shared" ref="P4:P67" si="2">VLOOKUP(J4,$T$3:$U$6,2)</f>
-        <v>3</v>
+        <f t="shared" ref="P4:P67" si="1">VLOOKUP(J4,$T$3:$U$7,2)</f>
+        <v>2</v>
       </c>
       <c r="Q4" s="16">
         <v>25</v>
       </c>
       <c r="R4" s="16">
-        <f t="shared" ref="R4:R67" si="3">ROUNDUP(Q4/25*5,0)</f>
+        <f t="shared" ref="R4:R67" si="2">ROUNDUP(Q4/25*5,0)</f>
         <v>5</v>
       </c>
       <c r="T4" s="16">
@@ -1671,8 +1698,20 @@
       <c r="U4" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="16">
+        <f t="shared" ref="V4:V67" si="3">ROUND(SUM(D4)+G4,0)+P4</f>
+        <v>16</v>
+      </c>
+      <c r="W4" s="16">
+        <f t="shared" ref="W4:W67" si="4">ROUND(SUM(E4)+H4,0)+P4</f>
+        <v>21</v>
+      </c>
+      <c r="X4" s="16">
+        <f t="shared" ref="X4:X67" si="5">ROUND(SUM(F4)+I4,0)+P4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -1698,11 +1737,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="K5" s="16">
+        <f>ROUND(AVERAGE(LARGE(V5:X5,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1711,14 +1750,14 @@
         <v>8</v>
       </c>
       <c r="P5" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q5" s="16">
         <v>25</v>
       </c>
       <c r="R5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T5" s="16">
@@ -1727,8 +1766,20 @@
       <c r="U5" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="16">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="W5" s="16">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="X5" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -1754,11 +1805,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>33.4</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="K6" s="16">
+        <f>ROUND(AVERAGE(LARGE(V6:X6,{1,2})),0)</f>
+        <v>23</v>
       </c>
       <c r="M6" s="1">
         <v>43</v>
@@ -1767,14 +1818,14 @@
         <v>3</v>
       </c>
       <c r="P6" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q6" s="16">
         <v>25</v>
       </c>
       <c r="R6" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T6" s="16">
@@ -1783,8 +1834,20 @@
       <c r="U6" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="16">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="W6" s="16">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -1812,22 +1875,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="16">
+        <f>ROUND(AVERAGE(LARGE(V7:X7,{1,2})),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T7" s="16">
@@ -1836,8 +1899,20 @@
       <c r="U7" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="W7" s="16">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="X7" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -1863,11 +1938,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K8" s="16">
+        <f>ROUND(AVERAGE(LARGE(V8:X8,{1,2})),0)</f>
+        <v>21</v>
       </c>
       <c r="M8" s="1">
         <v>38</v>
@@ -1876,18 +1951,30 @@
         <v>5</v>
       </c>
       <c r="P8" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q8" s="16">
         <v>25</v>
       </c>
       <c r="R8" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V8" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="X8" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -1915,26 +2002,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="16">
+        <f>ROUND(AVERAGE(LARGE(V9:X9,{1,2})),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="28">
+      <c r="R9" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9" s="16">
+      <c r="V9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W9" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -1960,28 +2059,40 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>44.5</v>
-      </c>
-      <c r="K10" s="1">
+        <v>16</v>
+      </c>
+      <c r="K10" s="16">
+        <f>ROUND(AVERAGE(LARGE(V10:X10,{1,2})),0)</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>4</v>
+      </c>
+      <c r="P10" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>4</v>
-      </c>
-      <c r="P10" s="28">
+        <v>2</v>
+      </c>
+      <c r="R10" s="16">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R10" s="16">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -2007,11 +2118,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="K11" s="16">
+        <f>ROUND(AVERAGE(LARGE(V11:X11,{1,2})),0)</f>
+        <v>26</v>
       </c>
       <c r="M11" s="1">
         <v>40</v>
@@ -2020,18 +2131,30 @@
         <v>8</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q11" s="16">
         <v>25</v>
       </c>
       <c r="R11" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V11" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -2057,31 +2180,47 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>44.5</v>
-      </c>
-      <c r="K12" s="1">
+        <v>16</v>
+      </c>
+      <c r="K12" s="16">
+        <f>ROUND(AVERAGE(LARGE(V12:X12,{1,2})),0)</f>
+        <v>19</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>4</v>
+      </c>
+      <c r="P12" s="28">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="16">
-        <v>4</v>
-      </c>
-      <c r="P12" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="16">
         <v>25</v>
       </c>
       <c r="R12" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U12" s="30">
+        <f>LARGE((D3,G3,E3,H3),{1})</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -2107,11 +2246,11 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="K13" s="16">
+        <f>ROUND(AVERAGE(LARGE(V13:X13,{1,2})),0)</f>
+        <v>25</v>
       </c>
       <c r="M13" s="1">
         <v>42</v>
@@ -2120,18 +2259,34 @@
         <v>9</v>
       </c>
       <c r="P13" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="Q13" s="16">
         <v>25</v>
       </c>
       <c r="R13" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U13" s="30">
+        <f>LARGE((D4,G4,E4,H4),{1})</f>
+        <v>14</v>
+      </c>
+      <c r="V13" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -2157,11 +2312,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="K14" s="16">
+        <f>ROUND(AVERAGE(LARGE(V14:X14,{1,2})),0)</f>
+        <v>29</v>
       </c>
       <c r="M14" s="1">
         <v>45</v>
@@ -2170,18 +2325,34 @@
         <v>9</v>
       </c>
       <c r="P14" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="Q14" s="16">
         <v>25</v>
       </c>
       <c r="R14" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U14" s="30">
+        <f>LARGE((D5,G5,E5,H5),{1})</f>
+        <v>14</v>
+      </c>
+      <c r="V14" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -2207,11 +2378,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>22.3</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="K15" s="16">
+        <f>ROUND(AVERAGE(LARGE(V15:X15,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -2220,18 +2391,34 @@
         <v>2</v>
       </c>
       <c r="P15" s="28">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q15" s="16">
         <v>25</v>
       </c>
       <c r="R15" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U15" s="30">
+        <f>LARGE((D6,G6,E6,H6),{1})</f>
+        <v>19</v>
+      </c>
+      <c r="V15" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="X15" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -2257,11 +2444,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K16" s="16">
+        <f>ROUND(AVERAGE(LARGE(V16:X16,{1,2})),0)</f>
+        <v>10</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -2270,18 +2457,34 @@
         <v>1</v>
       </c>
       <c r="P16" s="28">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q16" s="16">
         <v>25</v>
       </c>
       <c r="R16" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U16" s="30">
+        <f t="shared" ref="U16" si="6">AVERAGE(SUM(D7,G7),SUM(E7,H7))</f>
+        <v>8.5</v>
+      </c>
+      <c r="V16" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="X16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -2307,11 +2510,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="K17" s="16">
+        <f>ROUND(AVERAGE(LARGE(V17:X17,{1,2})),0)</f>
+        <v>12</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -2320,18 +2523,30 @@
         <v>1</v>
       </c>
       <c r="P17" s="28">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q17" s="16">
         <v>18</v>
       </c>
       <c r="R17" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V17" s="16">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -2357,11 +2572,11 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="K18" s="16">
+        <f>ROUND(AVERAGE(LARGE(V18:X18,{1,2})),0)</f>
+        <v>26</v>
       </c>
       <c r="M18" s="1">
         <v>30</v>
@@ -2370,18 +2585,30 @@
         <v>5</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q18" s="16">
         <v>25</v>
       </c>
       <c r="R18" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V18" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="X18" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -2407,11 +2634,11 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="K19" s="16">
+        <f>ROUND(AVERAGE(LARGE(V19:X19,{1,2})),0)</f>
+        <v>7</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -2420,15 +2647,27 @@
         <v>1</v>
       </c>
       <c r="P19" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="W19" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>18</v>
       </c>
@@ -2456,26 +2695,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="16">
+        <f>ROUND(AVERAGE(LARGE(V20:X20,{1,2})),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
-        <v>0</v>
-      </c>
-      <c r="P20" s="28">
+      <c r="R20" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="16">
+      <c r="V20" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W20" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -2501,11 +2752,11 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="K21" s="16">
+        <f>ROUND(AVERAGE(LARGE(V21:X21,{1,2})),0)</f>
+        <v>28</v>
       </c>
       <c r="M21" s="1">
         <v>40</v>
@@ -2514,18 +2765,30 @@
         <v>5</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q21" s="16">
         <v>25</v>
       </c>
       <c r="R21" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V21" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="X21" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -2551,28 +2814,40 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>44.5</v>
-      </c>
-      <c r="K22" s="1">
+        <v>16</v>
+      </c>
+      <c r="K22" s="16">
+        <f>ROUND(AVERAGE(LARGE(V22:X22,{1,2})),0)</f>
+        <v>13</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <v>4</v>
+      </c>
+      <c r="P22" s="28">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="16">
-        <v>4</v>
-      </c>
-      <c r="P22" s="28">
+        <v>2</v>
+      </c>
+      <c r="R22" s="16">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R22" s="16">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="X22" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -2598,11 +2873,11 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>66.699999999999989</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="K23" s="16">
+        <f>ROUND(AVERAGE(LARGE(V23:X23,{1,2})),0)</f>
+        <v>19</v>
       </c>
       <c r="M23" s="1">
         <v>45</v>
@@ -2611,18 +2886,30 @@
         <v>6</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q23" s="16">
         <v>25</v>
       </c>
       <c r="R23" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V23" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -2648,11 +2935,11 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="K24" s="16">
+        <f>ROUND(AVERAGE(LARGE(V24:X24,{1,2})),0)</f>
+        <v>19</v>
       </c>
       <c r="M24" s="1">
         <v>20</v>
@@ -2661,18 +2948,30 @@
         <v>5</v>
       </c>
       <c r="P24" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q24" s="16">
         <v>25</v>
       </c>
       <c r="R24" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V24" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
@@ -2698,11 +2997,11 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>77.8</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="K25" s="16">
+        <f>ROUND(AVERAGE(LARGE(V25:X25,{1,2})),0)</f>
+        <v>34</v>
       </c>
       <c r="M25" s="1">
         <v>42</v>
@@ -2711,18 +3010,30 @@
         <v>7</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q25" s="16">
         <v>25</v>
       </c>
       <c r="R25" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V25" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="W25" s="16">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -2748,11 +3059,11 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K26" s="16">
+        <f>ROUND(AVERAGE(LARGE(V26:X26,{1,2})),0)</f>
+        <v>20</v>
       </c>
       <c r="M26" s="1">
         <v>33</v>
@@ -2761,18 +3072,30 @@
         <v>5</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q26" s="16">
         <v>25</v>
       </c>
       <c r="R26" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V26" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -2800,26 +3123,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="16">
+        <f>ROUND(AVERAGE(LARGE(V27:X27,{1,2})),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+      <c r="P27" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="16">
-        <v>0</v>
-      </c>
-      <c r="P27" s="28">
+      <c r="R27" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R27" s="16">
+      <c r="V27" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W27" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -2845,11 +3180,11 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="K28" s="16">
+        <f>ROUND(AVERAGE(LARGE(V28:X28,{1,2})),0)</f>
+        <v>30</v>
       </c>
       <c r="M28" s="1">
         <v>38</v>
@@ -2858,18 +3193,30 @@
         <v>9</v>
       </c>
       <c r="P28" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="Q28" s="16">
         <v>25</v>
       </c>
       <c r="R28" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V28" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="W28" s="16">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="X28" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -2895,11 +3242,11 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>44.5</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K29" s="16">
+        <f>ROUND(AVERAGE(LARGE(V29:X29,{1,2})),0)</f>
+        <v>20</v>
       </c>
       <c r="M29" s="1">
         <v>35</v>
@@ -2908,18 +3255,30 @@
         <v>4</v>
       </c>
       <c r="P29" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q29" s="16">
         <v>25</v>
       </c>
       <c r="R29" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V29" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -2945,11 +3304,11 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="K30" s="16">
+        <f>ROUND(AVERAGE(LARGE(V30:X30,{1,2})),0)</f>
+        <v>29</v>
       </c>
       <c r="M30" s="1">
         <v>43</v>
@@ -2958,18 +3317,30 @@
         <v>8</v>
       </c>
       <c r="P30" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q30" s="16">
         <v>25</v>
       </c>
       <c r="R30" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V30" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="X30" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -2995,11 +3366,11 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="K31" s="16">
+        <f>ROUND(AVERAGE(LARGE(V31:X31,{1,2})),0)</f>
+        <v>22</v>
       </c>
       <c r="M31" s="1">
         <v>35</v>
@@ -3008,18 +3379,30 @@
         <v>8</v>
       </c>
       <c r="P31" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q31" s="16">
         <v>25</v>
       </c>
       <c r="R31" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V31" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W31" s="16">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="X31" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
@@ -3045,11 +3428,11 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>33.4</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="1"/>
         <v>12</v>
+      </c>
+      <c r="K32" s="16">
+        <f>ROUND(AVERAGE(LARGE(V32:X32,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -3058,18 +3441,30 @@
         <v>3</v>
       </c>
       <c r="P32" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q32" s="16">
         <v>18</v>
       </c>
       <c r="R32" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V32" s="16">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="W32" s="16">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="X32" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -3095,11 +3490,11 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>44.5</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K33" s="16">
+        <f>ROUND(AVERAGE(LARGE(V33:X33,{1,2})),0)</f>
+        <v>18</v>
       </c>
       <c r="M33" s="1">
         <v>35</v>
@@ -3108,18 +3503,30 @@
         <v>4</v>
       </c>
       <c r="P33" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q33" s="16">
         <v>20</v>
       </c>
       <c r="R33" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V33" s="16">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W33" s="16">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="X33" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -3145,11 +3552,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K34" s="16">
+        <f>ROUND(AVERAGE(LARGE(V34:X34,{1,2})),0)</f>
+        <v>28</v>
       </c>
       <c r="M34" s="1">
         <v>42</v>
@@ -3158,18 +3565,30 @@
         <v>8</v>
       </c>
       <c r="P34" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q34" s="16">
         <v>25</v>
       </c>
       <c r="R34" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V34" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="W34" s="16">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="X34" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -3195,11 +3614,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="K35" s="16">
+        <f>ROUND(AVERAGE(LARGE(V35:X35,{1,2})),0)</f>
+        <v>20</v>
       </c>
       <c r="M35" s="1">
         <v>42</v>
@@ -3208,18 +3627,30 @@
         <v>9</v>
       </c>
       <c r="P35" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="Q35" s="16">
         <v>25</v>
       </c>
       <c r="R35" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V35" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="W35" s="16">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="X35" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -3245,11 +3676,11 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="K36" s="16">
+        <f>ROUND(AVERAGE(LARGE(V36:X36,{1,2})),0)</f>
+        <v>8</v>
       </c>
       <c r="M36" s="1">
         <v>42</v>
@@ -3258,15 +3689,27 @@
         <v>1</v>
       </c>
       <c r="P36" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R36" s="16">
+        <v>0</v>
+      </c>
+      <c r="V36" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W36" s="16">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X36" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>35</v>
       </c>
@@ -3292,10 +3735,10 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K37" s="16">
+        <f>ROUND(AVERAGE(LARGE(V37:X37,{1,2})),0)</f>
         <v>22</v>
       </c>
       <c r="M37" s="1">
@@ -3305,18 +3748,30 @@
         <v>5</v>
       </c>
       <c r="P37" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q37" s="16">
         <v>25</v>
       </c>
       <c r="R37" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V37" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W37" s="16">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="X37" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>36</v>
       </c>
@@ -3342,11 +3797,11 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="K38" s="16">
+        <f>ROUND(AVERAGE(LARGE(V38:X38,{1,2})),0)</f>
+        <v>3</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -3355,15 +3810,27 @@
         <v>9</v>
       </c>
       <c r="P38" s="28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R38" s="16">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="R38" s="16">
+        <v>0</v>
+      </c>
+      <c r="V38" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="W38" s="16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X38" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>37</v>
       </c>
@@ -3391,26 +3858,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="16">
+        <f>ROUND(AVERAGE(LARGE(V39:X39,{1,2})),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="16">
+        <v>0</v>
+      </c>
+      <c r="P39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="16">
-        <v>0</v>
-      </c>
-      <c r="P39" s="28">
+      <c r="R39" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R39" s="16">
+      <c r="V39" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W39" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -3436,11 +3915,11 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="K40" s="16">
+        <f>ROUND(AVERAGE(LARGE(V40:X40,{1,2})),0)</f>
+        <v>4</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -3449,15 +3928,27 @@
         <v>8</v>
       </c>
       <c r="P40" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R40" s="16">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="R40" s="16">
+        <v>0</v>
+      </c>
+      <c r="V40" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="W40" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X40" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>39</v>
       </c>
@@ -3483,11 +3974,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1">
         <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="K41" s="16">
+        <f>ROUND(AVERAGE(LARGE(V41:X41,{1,2})),0)</f>
+        <v>11</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -3496,18 +3987,30 @@
         <v>1</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q41" s="16">
         <v>25</v>
       </c>
       <c r="R41" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V41" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="W41" s="16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="X41" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -3533,11 +4036,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1">
         <f t="shared" si="0"/>
-        <v>33.4</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="K42" s="16">
+        <f>ROUND(AVERAGE(LARGE(V42:X42,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M42" s="1">
         <v>33</v>
@@ -3546,15 +4049,27 @@
         <v>3</v>
       </c>
       <c r="P42" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R42" s="16">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="16">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="W42" s="16">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="X42" s="16">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="R42" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>41</v>
       </c>
@@ -3580,11 +4095,11 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1">
         <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="K43" s="16">
+        <f>ROUND(AVERAGE(LARGE(V43:X43,{1,2})),0)</f>
+        <v>23</v>
       </c>
       <c r="M43" s="1">
         <v>42</v>
@@ -3593,18 +4108,30 @@
         <v>5</v>
       </c>
       <c r="P43" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q43" s="16">
         <v>25</v>
       </c>
       <c r="R43" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V43" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W43" s="16">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="X43" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42</v>
       </c>
@@ -3630,11 +4157,11 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1">
         <f t="shared" si="0"/>
-        <v>33.4</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="1"/>
         <v>12</v>
+      </c>
+      <c r="K44" s="16">
+        <f>ROUND(AVERAGE(LARGE(V44:X44,{1,2})),0)</f>
+        <v>16</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -3643,18 +4170,30 @@
         <v>3</v>
       </c>
       <c r="P44" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q44" s="16">
         <v>25</v>
       </c>
       <c r="R44" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V44" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="W44" s="16">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="X44" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -3680,11 +4219,11 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1">
         <f t="shared" si="0"/>
-        <v>33.4</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="K45" s="16">
+        <f>ROUND(AVERAGE(LARGE(V45:X45,{1,2})),0)</f>
+        <v>14</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -3693,18 +4232,30 @@
         <v>3</v>
       </c>
       <c r="P45" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q45" s="16">
         <v>25</v>
       </c>
       <c r="R45" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V45" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="W45" s="16">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="X45" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -3730,11 +4281,11 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="K46" s="16">
+        <f>ROUND(AVERAGE(LARGE(V46:X46,{1,2})),0)</f>
+        <v>21</v>
       </c>
       <c r="M46" s="1">
         <v>45</v>
@@ -3743,18 +4294,30 @@
         <v>8</v>
       </c>
       <c r="P46" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q46" s="16">
         <v>25</v>
       </c>
       <c r="R46" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V46" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="W46" s="16">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="X46" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -3780,11 +4343,11 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1">
         <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="K47" s="16">
+        <f>ROUND(AVERAGE(LARGE(V47:X47,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M47" s="1">
         <v>43</v>
@@ -3793,18 +4356,30 @@
         <v>5</v>
       </c>
       <c r="P47" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q47" s="16">
         <v>25</v>
       </c>
       <c r="R47" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V47" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="W47" s="16">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="X47" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -3830,11 +4405,11 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1">
         <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="K48" s="16">
+        <f>ROUND(AVERAGE(LARGE(V48:X48,{1,2})),0)</f>
+        <v>14</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -3843,15 +4418,27 @@
         <v>1</v>
       </c>
       <c r="P48" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R48" s="16">
+        <v>0</v>
+      </c>
+      <c r="V48" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W48" s="16">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="X48" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>47</v>
       </c>
@@ -3877,11 +4464,11 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1">
         <f t="shared" si="0"/>
-        <v>22.3</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="K49" s="16">
+        <f>ROUND(AVERAGE(LARGE(V49:X49,{1,2})),0)</f>
+        <v>8</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -3890,15 +4477,27 @@
         <v>2</v>
       </c>
       <c r="P49" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R49" s="16">
+        <v>0</v>
+      </c>
+      <c r="V49" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W49" s="16">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="X49" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>48</v>
       </c>
@@ -3924,11 +4523,11 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1">
         <f t="shared" si="0"/>
-        <v>66.699999999999989</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="K50" s="16">
+        <f>ROUND(AVERAGE(LARGE(V50:X50,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -3937,18 +4536,30 @@
         <v>6</v>
       </c>
       <c r="P50" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q50" s="16">
         <v>25</v>
       </c>
       <c r="R50" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V50" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="W50" s="16">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="X50" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -3976,26 +4587,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="16">
+        <f>ROUND(AVERAGE(LARGE(V51:X51,{1,2})),0)</f>
+        <v>6</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="16">
+        <v>0</v>
+      </c>
+      <c r="P51" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="O51" s="16">
-        <v>0</v>
-      </c>
-      <c r="P51" s="28">
+        <v>0</v>
+      </c>
+      <c r="R51" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R51" s="16">
+      <c r="V51" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="W51" s="16">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="X51" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>50</v>
       </c>
@@ -4021,11 +4644,11 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1">
         <f t="shared" si="0"/>
-        <v>77.8</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="1"/>
         <v>28</v>
+      </c>
+      <c r="K52" s="16">
+        <f>ROUND(AVERAGE(LARGE(V52:X52,{1,2})),0)</f>
+        <v>22</v>
       </c>
       <c r="M52" s="1">
         <v>42</v>
@@ -4034,18 +4657,30 @@
         <v>7</v>
       </c>
       <c r="P52" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q52" s="16">
         <v>25</v>
       </c>
       <c r="R52" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V52" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="W52" s="16">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="X52" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -4071,11 +4706,11 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1">
         <f t="shared" si="0"/>
-        <v>66.699999999999989</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="K53" s="16">
+        <f>ROUND(AVERAGE(LARGE(V53:X53,{1,2})),0)</f>
+        <v>30</v>
       </c>
       <c r="M53" s="1">
         <v>42</v>
@@ -4084,18 +4719,30 @@
         <v>6</v>
       </c>
       <c r="P53" s="28">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q53" s="16">
         <v>25</v>
       </c>
       <c r="R53" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V53" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="W53" s="16">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="X53" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>52</v>
       </c>
@@ -4121,11 +4768,11 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1">
         <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="K54" s="16">
+        <f>ROUND(AVERAGE(LARGE(V54:X54,{1,2})),0)</f>
+        <v>13</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -4134,18 +4781,30 @@
         <v>1</v>
       </c>
       <c r="P54" s="28">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q54" s="16">
         <v>25</v>
       </c>
       <c r="R54" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V54" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="W54" s="16">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="X54" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>53</v>
       </c>
@@ -4173,26 +4832,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="16">
+        <f>ROUND(AVERAGE(LARGE(V55:X55,{1,2})),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="16">
+        <v>0</v>
+      </c>
+      <c r="P55" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M55" s="1">
-        <v>0</v>
-      </c>
-      <c r="O55" s="16">
-        <v>0</v>
-      </c>
-      <c r="P55" s="28">
+      <c r="R55" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R55" s="16">
+      <c r="V55" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W55" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -4218,11 +4889,11 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="K56" s="16">
+        <f>ROUND(AVERAGE(LARGE(V56:X56,{1,2})),0)</f>
+        <v>16</v>
       </c>
       <c r="M56" s="1">
         <v>32</v>
@@ -4231,18 +4902,30 @@
         <v>8</v>
       </c>
       <c r="P56" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q56" s="16">
         <v>25</v>
       </c>
       <c r="R56" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V56" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="W56" s="16">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="X56" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>55</v>
       </c>
@@ -4268,11 +4951,11 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1">
         <f t="shared" si="0"/>
-        <v>22.3</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="K57" s="16">
+        <f>ROUND(AVERAGE(LARGE(V57:X57,{1,2})),0)</f>
+        <v>0</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -4281,15 +4964,27 @@
         <v>2</v>
       </c>
       <c r="P57" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R57" s="16">
+        <v>0</v>
+      </c>
+      <c r="V57" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W57" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -4317,29 +5012,41 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="16">
+        <f>ROUND(AVERAGE(LARGE(V58:X58,{1,2})),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="16">
+        <v>0</v>
+      </c>
+      <c r="P58" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="1">
-        <v>0</v>
-      </c>
-      <c r="O58" s="16">
-        <v>0</v>
-      </c>
-      <c r="P58" s="28">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q58" s="16">
         <v>25</v>
       </c>
       <c r="R58" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V58" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W58" s="16">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="X58" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -4365,11 +5072,11 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="K59" s="16">
+        <f>ROUND(AVERAGE(LARGE(V59:X59,{1,2})),0)</f>
+        <v>25</v>
       </c>
       <c r="M59" s="1">
         <v>42</v>
@@ -4378,15 +5085,27 @@
         <v>8</v>
       </c>
       <c r="P59" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R59" s="16">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="R59" s="16">
+        <v>0</v>
+      </c>
+      <c r="V59" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="W59" s="16">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="X59" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>58</v>
       </c>
@@ -4414,29 +5133,41 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="16">
+        <f>ROUND(AVERAGE(LARGE(V60:X60,{1,2})),0)</f>
+        <v>10</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="16">
+        <v>0</v>
+      </c>
+      <c r="P60" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-      <c r="O60" s="16">
-        <v>0</v>
-      </c>
-      <c r="P60" s="28">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
         <v>20</v>
       </c>
       <c r="R60" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V60" s="16">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W60" s="16">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="X60" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>59</v>
       </c>
@@ -4464,26 +5195,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="16">
+        <f>ROUND(AVERAGE(LARGE(V61:X61,{1,2})),0)</f>
+        <v>8</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="16">
+        <v>0</v>
+      </c>
+      <c r="P61" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="16">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M61" s="1">
-        <v>0</v>
-      </c>
-      <c r="O61" s="16">
-        <v>0</v>
-      </c>
-      <c r="P61" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W61" s="16">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="X61" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>60</v>
       </c>
@@ -4509,11 +5252,11 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K62" s="16">
+        <f>ROUND(AVERAGE(LARGE(V62:X62,{1,2})),0)</f>
+        <v>32</v>
       </c>
       <c r="M62" s="1">
         <v>45</v>
@@ -4522,18 +5265,30 @@
         <v>9</v>
       </c>
       <c r="P62" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="Q62" s="16">
         <v>25</v>
       </c>
       <c r="R62" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V62" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="W62" s="16">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="X62" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>61</v>
       </c>
@@ -4561,26 +5316,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="16">
+        <f>ROUND(AVERAGE(LARGE(V63:X63,{1,2})),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="16">
+        <v>0</v>
+      </c>
+      <c r="P63" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-      <c r="O63" s="16">
-        <v>0</v>
-      </c>
-      <c r="P63" s="28">
+      <c r="R63" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R63" s="16">
+      <c r="V63" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W63" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>62</v>
       </c>
@@ -4606,10 +5373,10 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K64" s="1">
-        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K64" s="16">
+        <f>ROUND(AVERAGE(LARGE(V64:X64,{1,2})),0)</f>
         <v>36</v>
       </c>
       <c r="M64" s="1">
@@ -4619,18 +5386,30 @@
         <v>8</v>
       </c>
       <c r="P64" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q64" s="16">
         <v>25</v>
       </c>
       <c r="R64" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V64" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="W64" s="16">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="X64" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>63</v>
       </c>
@@ -4656,11 +5435,11 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1">
         <f t="shared" si="0"/>
-        <v>77.8</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="K65" s="16">
+        <f>ROUND(AVERAGE(LARGE(V65:X65,{1,2})),0)</f>
+        <v>28</v>
       </c>
       <c r="M65" s="1">
         <v>43</v>
@@ -4669,18 +5448,30 @@
         <v>7</v>
       </c>
       <c r="P65" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q65" s="16">
         <v>25</v>
       </c>
       <c r="R65" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V65" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="W65" s="16">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="X65" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>64</v>
       </c>
@@ -4706,11 +5497,11 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K66" s="16">
+        <f>ROUND(AVERAGE(LARGE(V66:X66,{1,2})),0)</f>
+        <v>26</v>
       </c>
       <c r="M66" s="1">
         <v>45</v>
@@ -4719,18 +5510,30 @@
         <v>8</v>
       </c>
       <c r="P66" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q66" s="16">
         <v>25</v>
       </c>
       <c r="R66" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V66" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="W66" s="16">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="X66" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>65</v>
       </c>
@@ -4756,11 +5559,11 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1">
         <f t="shared" si="0"/>
-        <v>88.899999999999991</v>
-      </c>
-      <c r="K67" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="K67" s="16">
+        <f>ROUND(AVERAGE(LARGE(V67:X67,{1,2})),0)</f>
+        <v>28</v>
       </c>
       <c r="M67" s="1">
         <v>42</v>
@@ -4769,18 +5572,30 @@
         <v>8</v>
       </c>
       <c r="P67" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q67" s="16">
         <v>25</v>
       </c>
       <c r="R67" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V67" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="W67" s="16">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="X67" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>66</v>
       </c>
@@ -4805,32 +5620,44 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1">
-        <f>ROUNDUP(O68/8*100,1)</f>
-        <v>50</v>
-      </c>
-      <c r="K68" s="1">
-        <f t="shared" ref="K68:K131" si="4">SUM(D68,G68,P68)</f>
-        <v>22</v>
+        <f t="shared" ref="J68:J131" si="7">ROUNDUP(O68/25*100,1)</f>
+        <v>76</v>
+      </c>
+      <c r="K68" s="16">
+        <f>ROUND(AVERAGE(LARGE(V68:X68,{1,2})),0)</f>
+        <v>21</v>
       </c>
       <c r="M68" s="1">
         <v>38</v>
       </c>
       <c r="O68" s="16">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="P68" s="28">
-        <f t="shared" ref="P68:P131" si="5">VLOOKUP(J68,$T$3:$U$6,2)</f>
-        <v>3</v>
+        <f t="shared" ref="P68:P131" si="8">VLOOKUP(J68,$T$3:$U$7,2)</f>
+        <v>4</v>
       </c>
       <c r="Q68" s="16">
         <v>25</v>
       </c>
       <c r="R68" s="16">
-        <f t="shared" ref="R68:R131" si="6">ROUNDUP(Q68/25*5,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R68:R131" si="9">ROUNDUP(Q68/25*5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="V68" s="16">
+        <f t="shared" ref="V68:V131" si="10">ROUND(SUM(D68)+G68,0)+P68</f>
+        <v>23</v>
+      </c>
+      <c r="W68" s="16">
+        <f t="shared" ref="W68:W131" si="11">ROUND(SUM(E68)+H68,0)+P68</f>
+        <v>19</v>
+      </c>
+      <c r="X68" s="16">
+        <f t="shared" ref="X68:X131" si="12">ROUND(SUM(F68)+I68,0)+P68</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>67</v>
       </c>
@@ -4855,32 +5682,44 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1">
-        <f t="shared" ref="J69:J132" si="7">ROUNDUP(O69/8*100,1)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="K69" s="1">
-        <f t="shared" si="4"/>
-        <v>28</v>
+      <c r="K69" s="16">
+        <f>ROUND(AVERAGE(LARGE(V69:X69,{1,2})),0)</f>
+        <v>25</v>
       </c>
       <c r="M69" s="1">
         <v>42</v>
       </c>
       <c r="O69" s="16">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="P69" s="28">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="Q69" s="16">
         <v>25</v>
       </c>
       <c r="R69" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V69" s="16">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="W69" s="16">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="X69" s="16">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>68</v>
       </c>
@@ -4906,29 +5745,41 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K70" s="1">
-        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="K70" s="16">
+        <f>ROUND(AVERAGE(LARGE(V70:X70,{1,2})),0)</f>
         <v>12</v>
       </c>
       <c r="M70" s="1"/>
       <c r="O70" s="16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P70" s="28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="Q70" s="16">
         <v>25</v>
       </c>
       <c r="R70" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V70" s="16">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="W70" s="16">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="X70" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>69</v>
       </c>
@@ -4954,28 +5805,40 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K71" s="1">
-        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="K71" s="16">
+        <f>ROUND(AVERAGE(LARGE(V71:X71,{1,2})),0)</f>
         <v>8</v>
       </c>
       <c r="M71" s="1">
         <v>33</v>
       </c>
       <c r="O71" s="16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P71" s="28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="R71" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="16">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="W71" s="16">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="X71" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>70</v>
       </c>
@@ -5001,31 +5864,43 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="1">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="K72" s="16">
+        <f>ROUND(AVERAGE(LARGE(V72:X72,{1,2})),0)</f>
+        <v>18</v>
       </c>
       <c r="M72" s="1">
         <v>35</v>
       </c>
       <c r="O72" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P72" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="Q72" s="16">
         <v>25</v>
       </c>
       <c r="R72" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V72" s="16">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="W72" s="16">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="X72" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>71</v>
       </c>
@@ -5051,31 +5926,43 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="K73" s="1">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="K73" s="16">
+        <f>ROUND(AVERAGE(LARGE(V73:X73,{1,2})),0)</f>
+        <v>31</v>
       </c>
       <c r="M73" s="1">
         <v>43</v>
       </c>
       <c r="O73" s="16">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="P73" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q73" s="16">
         <v>25</v>
       </c>
       <c r="R73" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V73" s="16">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="W73" s="16">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="X73" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>72</v>
       </c>
@@ -5101,31 +5988,43 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1">
         <f t="shared" si="7"/>
-        <v>62.5</v>
-      </c>
-      <c r="K74" s="1">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="K74" s="16">
+        <f>ROUND(AVERAGE(LARGE(V74:X74,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M74" s="1">
         <v>30</v>
       </c>
       <c r="O74" s="16">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P74" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q74" s="16">
         <v>25</v>
       </c>
       <c r="R74" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V74" s="16">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="W74" s="16">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="X74" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>73</v>
       </c>
@@ -5151,29 +6050,41 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1">
         <f t="shared" si="7"/>
-        <v>37.5</v>
-      </c>
-      <c r="K75" s="1">
-        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="K75" s="16">
+        <f>ROUND(AVERAGE(LARGE(V75:X75,{1,2})),0)</f>
         <v>13</v>
       </c>
       <c r="M75" s="1"/>
       <c r="O75" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P75" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q75" s="16">
         <v>20</v>
       </c>
       <c r="R75" s="16">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V75" s="16">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="W75" s="16">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="X75" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>74</v>
       </c>
@@ -5199,31 +6110,43 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K76" s="1">
-        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="K76" s="16">
+        <f>ROUND(AVERAGE(LARGE(V76:X76,{1,2})),0)</f>
         <v>13</v>
       </c>
       <c r="M76" s="1">
         <v>35</v>
       </c>
       <c r="O76" s="16">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P76" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q76" s="16">
         <v>20</v>
       </c>
       <c r="R76" s="16">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V76" s="16">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="W76" s="16">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="X76" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>75</v>
       </c>
@@ -5251,29 +6174,41 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="K77" s="1">
-        <f t="shared" si="4"/>
+      <c r="K77" s="16">
+        <f>ROUND(AVERAGE(LARGE(V77:X77,{1,2})),0)</f>
         <v>36</v>
       </c>
       <c r="M77" s="1">
         <v>42</v>
       </c>
       <c r="O77" s="16">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="P77" s="28">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="Q77" s="16">
         <v>25</v>
       </c>
       <c r="R77" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V77" s="16">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="W77" s="16">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="X77" s="16">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>76</v>
       </c>
@@ -5299,29 +6234,41 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1">
         <f t="shared" si="7"/>
-        <v>62.5</v>
-      </c>
-      <c r="K78" s="1">
-        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="K78" s="16">
+        <f>ROUND(AVERAGE(LARGE(V78:X78,{1,2})),0)</f>
         <v>11</v>
       </c>
       <c r="M78" s="1"/>
       <c r="O78" s="16">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P78" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q78" s="16">
         <v>25</v>
       </c>
       <c r="R78" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V78" s="16">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="W78" s="16">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="X78" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>77</v>
       </c>
@@ -5347,29 +6294,41 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K79" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="K79" s="16">
+        <f>ROUND(AVERAGE(LARGE(V79:X79,{1,2})),0)</f>
+        <v>15</v>
       </c>
       <c r="M79" s="1"/>
       <c r="O79" s="16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P79" s="28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="Q79" s="16">
         <v>15</v>
       </c>
       <c r="R79" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V79" s="16">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="W79" s="16">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="X79" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>78</v>
       </c>
@@ -5395,31 +6354,43 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1">
         <f t="shared" si="7"/>
-        <v>87.5</v>
-      </c>
-      <c r="K80" s="1">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <v>76</v>
+      </c>
+      <c r="K80" s="16">
+        <f>ROUND(AVERAGE(LARGE(V80:X80,{1,2})),0)</f>
+        <v>30</v>
       </c>
       <c r="M80" s="1">
         <v>35</v>
       </c>
       <c r="O80" s="16">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="P80" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q80" s="16">
         <v>25</v>
       </c>
       <c r="R80" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V80" s="16">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="W80" s="16">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="X80" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>79</v>
       </c>
@@ -5445,31 +6416,43 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K81" s="1">
-        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="K81" s="16">
+        <f>ROUND(AVERAGE(LARGE(V81:X81,{1,2})),0)</f>
         <v>10</v>
       </c>
       <c r="M81" s="1">
         <v>35</v>
       </c>
       <c r="O81" s="16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P81" s="28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="Q81" s="16">
         <v>15</v>
       </c>
       <c r="R81" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V81" s="16">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="W81" s="16">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="X81" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>80</v>
       </c>
@@ -5495,29 +6478,41 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K82" s="1">
-        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="K82" s="16">
+        <f>ROUND(AVERAGE(LARGE(V82:X82,{1,2})),0)</f>
         <v>18</v>
       </c>
       <c r="M82" s="1"/>
       <c r="O82" s="16">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P82" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q82" s="16">
         <v>25</v>
       </c>
       <c r="R82" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V82" s="16">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="W82" s="16">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="X82" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>81</v>
       </c>
@@ -5543,29 +6538,41 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K83" s="1">
-        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="K83" s="16">
+        <f>ROUND(AVERAGE(LARGE(V83:X83,{1,2})),0)</f>
         <v>16</v>
       </c>
       <c r="M83" s="1"/>
       <c r="O83" s="16">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P83" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q83" s="16">
         <v>25</v>
       </c>
       <c r="R83" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V83" s="16">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="W83" s="16">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="X83" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>82</v>
       </c>
@@ -5591,26 +6598,38 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1">
         <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="K84" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="K84" s="16">
+        <f>ROUND(AVERAGE(LARGE(V84:X84,{1,2})),0)</f>
+        <v>4</v>
       </c>
       <c r="M84" s="1"/>
       <c r="O84" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P84" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R84" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="16">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="W84" s="16">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="X84" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>83</v>
       </c>
@@ -5636,31 +6655,43 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1">
         <f t="shared" si="7"/>
-        <v>37.5</v>
-      </c>
-      <c r="K85" s="1">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="K85" s="16">
+        <f>ROUND(AVERAGE(LARGE(V85:X85,{1,2})),0)</f>
+        <v>24</v>
       </c>
       <c r="M85" s="1">
         <v>38</v>
       </c>
       <c r="O85" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P85" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q85" s="16">
         <v>25</v>
       </c>
       <c r="R85" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V85" s="16">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="W85" s="16">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="X85" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>84</v>
       </c>
@@ -5686,26 +6717,38 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K86" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="K86" s="16">
+        <f>ROUND(AVERAGE(LARGE(V86:X86,{1,2})),0)</f>
+        <v>0</v>
       </c>
       <c r="M86" s="1"/>
       <c r="O86" s="16">
         <v>2</v>
       </c>
       <c r="P86" s="28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="R86" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W86" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X86" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
@@ -5731,29 +6774,41 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1">
         <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="K87" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="K87" s="16">
+        <f>ROUND(AVERAGE(LARGE(V87:X87,{1,2})),0)</f>
+        <v>4</v>
       </c>
       <c r="M87" s="1"/>
       <c r="O87" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P87" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Q87" s="16">
         <v>10</v>
       </c>
       <c r="R87" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="V87" s="16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="W87" s="16">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="X87" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
@@ -5779,31 +6834,43 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K88" s="1">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="K88" s="16">
+        <f>ROUND(AVERAGE(LARGE(V88:X88,{1,2})),0)</f>
+        <v>22</v>
       </c>
       <c r="M88" s="1">
         <v>35</v>
       </c>
       <c r="O88" s="16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P88" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q88" s="16">
         <v>25</v>
       </c>
       <c r="R88" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V88" s="16">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="W88" s="16">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="X88" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>87</v>
       </c>
@@ -5829,31 +6896,43 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1">
         <f t="shared" si="7"/>
-        <v>62.5</v>
-      </c>
-      <c r="K89" s="1">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="K89" s="16">
+        <f>ROUND(AVERAGE(LARGE(V89:X89,{1,2})),0)</f>
+        <v>28</v>
       </c>
       <c r="M89" s="1">
         <v>30</v>
       </c>
       <c r="O89" s="16">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P89" s="28">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="Q89" s="16">
         <v>25</v>
       </c>
       <c r="R89" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V89" s="16">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="W89" s="16">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="X89" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>88</v>
       </c>
@@ -5879,28 +6958,40 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1">
         <f t="shared" si="7"/>
-        <v>62.5</v>
-      </c>
-      <c r="K90" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="K90" s="16">
+        <f>ROUND(AVERAGE(LARGE(V90:X90,{1,2})),0)</f>
+        <v>10</v>
       </c>
       <c r="M90" s="1">
         <v>35</v>
       </c>
       <c r="O90" s="16">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P90" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R90" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="16">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="W90" s="16">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="X90" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <v>89</v>
       </c>
@@ -5926,26 +7017,38 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1">
         <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="K91" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K91" s="16">
+        <f>ROUND(AVERAGE(LARGE(V91:X91,{1,2})),0)</f>
+        <v>0</v>
       </c>
       <c r="M91" s="1"/>
       <c r="O91" s="16">
         <v>1</v>
       </c>
       <c r="P91" s="28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="R91" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W91" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X91" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>90</v>
       </c>
@@ -5971,26 +7074,38 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1">
         <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="K92" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K92" s="16">
+        <f>ROUND(AVERAGE(LARGE(V92:X92,{1,2})),0)</f>
+        <v>0</v>
       </c>
       <c r="M92" s="1"/>
       <c r="O92" s="16">
         <v>1</v>
       </c>
       <c r="P92" s="28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="R92" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W92" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X92" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>91</v>
       </c>
@@ -6016,29 +7131,41 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1">
         <f t="shared" si="7"/>
-        <v>37.5</v>
-      </c>
-      <c r="K93" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="K93" s="16">
+        <f>ROUND(AVERAGE(LARGE(V93:X93,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M93" s="1"/>
       <c r="O93" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P93" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q93" s="16">
         <v>25</v>
       </c>
       <c r="R93" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V93" s="16">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="W93" s="16">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="X93" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <v>92</v>
       </c>
@@ -6064,26 +7191,38 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1">
         <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="K94" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K94" s="16">
+        <f>ROUND(AVERAGE(LARGE(V94:X94,{1,2})),0)</f>
+        <v>0</v>
       </c>
       <c r="M94" s="1"/>
       <c r="O94" s="16">
         <v>1</v>
       </c>
       <c r="P94" s="28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="R94" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W94" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X94" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>93</v>
       </c>
@@ -6109,26 +7248,38 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K95" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="K95" s="16">
+        <f>ROUND(AVERAGE(LARGE(V95:X95,{1,2})),0)</f>
+        <v>10</v>
       </c>
       <c r="M95" s="1"/>
       <c r="O95" s="16">
+        <v>7</v>
+      </c>
+      <c r="P95" s="28">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="P95" s="28">
-        <f t="shared" si="5"/>
+      <c r="R95" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="16">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="W95" s="16">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="X95" s="16">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="R95" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>94</v>
       </c>
@@ -6154,29 +7305,41 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="K96" s="16">
+        <f>ROUND(AVERAGE(LARGE(V96:X96,{1,2})),0)</f>
+        <v>8</v>
       </c>
       <c r="M96" s="1"/>
       <c r="O96" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P96" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="Q96" s="16">
         <v>15</v>
       </c>
       <c r="R96" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V96" s="16">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="W96" s="16">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="X96" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>95</v>
       </c>
@@ -6202,31 +7365,43 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="K97" s="1">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <v>92</v>
+      </c>
+      <c r="K97" s="16">
+        <f>ROUND(AVERAGE(LARGE(V97:X97,{1,2})),0)</f>
+        <v>27</v>
       </c>
       <c r="M97" s="1">
         <v>35</v>
       </c>
       <c r="O97" s="16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="P97" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q97" s="16">
         <v>25</v>
       </c>
       <c r="R97" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V97" s="16">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="W97" s="16">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="X97" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>96</v>
       </c>
@@ -6252,31 +7427,43 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1">
         <f t="shared" si="7"/>
-        <v>37.5</v>
-      </c>
-      <c r="K98" s="1">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="K98" s="16">
+        <f>ROUND(AVERAGE(LARGE(V98:X98,{1,2})),0)</f>
+        <v>23</v>
       </c>
       <c r="M98" s="1">
         <v>35</v>
       </c>
       <c r="O98" s="16">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P98" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q98" s="16">
         <v>25</v>
       </c>
       <c r="R98" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V98" s="16">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="W98" s="16">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="X98" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>97</v>
       </c>
@@ -6302,31 +7489,43 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K99" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="K99" s="16">
+        <f>ROUND(AVERAGE(LARGE(V99:X99,{1,2})),0)</f>
+        <v>15</v>
       </c>
       <c r="M99" s="1">
         <v>35</v>
       </c>
       <c r="O99" s="16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P99" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q99" s="16">
         <v>25</v>
       </c>
       <c r="R99" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V99" s="16">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="W99" s="16">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="X99" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>98</v>
       </c>
@@ -6352,28 +7551,40 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K100" s="1">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="K100" s="16">
+        <f>ROUND(AVERAGE(LARGE(V100:X100,{1,2})),0)</f>
+        <v>16</v>
       </c>
       <c r="M100" s="1">
         <v>35</v>
       </c>
       <c r="O100" s="16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P100" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R100" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="16">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="W100" s="16">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="X100" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>99</v>
       </c>
@@ -6399,26 +7610,38 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K101" s="1">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="K101" s="16">
+        <f>ROUND(AVERAGE(LARGE(V101:X101,{1,2})),0)</f>
+        <v>19</v>
       </c>
       <c r="M101" s="1"/>
       <c r="O101" s="16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P101" s="28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="R101" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="16">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="W101" s="16">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="X101" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>100</v>
       </c>
@@ -6444,31 +7667,43 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K102" s="1">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="K102" s="16">
+        <f>ROUND(AVERAGE(LARGE(V102:X102,{1,2})),0)</f>
+        <v>18</v>
       </c>
       <c r="M102" s="1">
         <v>45</v>
       </c>
       <c r="O102" s="16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P102" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q102" s="16">
         <v>25</v>
       </c>
       <c r="R102" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V102" s="16">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="W102" s="16">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="X102" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>101</v>
       </c>
@@ -6494,31 +7729,43 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="K103" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="K103" s="16">
+        <f>ROUND(AVERAGE(LARGE(V103:X103,{1,2})),0)</f>
+        <v>16</v>
       </c>
       <c r="M103" s="1">
         <v>25</v>
       </c>
       <c r="O103" s="16">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P103" s="28">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="Q103" s="16">
         <v>25</v>
       </c>
       <c r="R103" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V103" s="16">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="W103" s="16">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="X103" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>102</v>
       </c>
@@ -6544,31 +7791,43 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="K104" s="1">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <v>96</v>
+      </c>
+      <c r="K104" s="16">
+        <f>ROUND(AVERAGE(LARGE(V104:X104,{1,2})),0)</f>
+        <v>29</v>
       </c>
       <c r="M104" s="1">
         <v>42</v>
       </c>
       <c r="O104" s="16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P104" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q104" s="16">
         <v>25</v>
       </c>
       <c r="R104" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V104" s="16">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="W104" s="16">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="X104" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>103</v>
       </c>
@@ -6594,31 +7853,43 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="K105" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="K105" s="16">
+        <f>ROUND(AVERAGE(LARGE(V105:X105,{1,2})),0)</f>
+        <v>12</v>
       </c>
       <c r="M105" s="1">
         <v>25</v>
       </c>
       <c r="O105" s="16">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P105" s="28">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="Q105" s="16">
         <v>25</v>
       </c>
       <c r="R105" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V105" s="16">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="W105" s="16">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="X105" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <v>104</v>
       </c>
@@ -6644,26 +7915,38 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K106" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K106" s="16">
+        <f>ROUND(AVERAGE(LARGE(V106:X106,{1,2})),0)</f>
+        <v>2</v>
       </c>
       <c r="M106" s="1"/>
       <c r="O106" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P106" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="R106" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V106" s="16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="W106" s="16">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X106" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <v>105</v>
       </c>
@@ -6691,8 +7974,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K107" s="1">
-        <f t="shared" si="4"/>
+      <c r="K107" s="16">
+        <f>ROUND(AVERAGE(LARGE(V107:X107,{1,2})),0)</f>
         <v>0</v>
       </c>
       <c r="M107" s="1"/>
@@ -6700,15 +7983,27 @@
         <v>0</v>
       </c>
       <c r="P107" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R107" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V107" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W107" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X107" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>106</v>
       </c>
@@ -6734,31 +8029,43 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="K108" s="1">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <v>96</v>
+      </c>
+      <c r="K108" s="16">
+        <f>ROUND(AVERAGE(LARGE(V108:X108,{1,2})),0)</f>
+        <v>34</v>
       </c>
       <c r="M108" s="1">
         <v>45</v>
       </c>
       <c r="O108" s="16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P108" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q108" s="16">
         <v>25</v>
       </c>
       <c r="R108" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V108" s="16">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="W108" s="16">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="X108" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>107</v>
       </c>
@@ -6784,26 +8091,38 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K109" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="K109" s="16">
+        <f>ROUND(AVERAGE(LARGE(V109:X109,{1,2})),0)</f>
+        <v>11</v>
       </c>
       <c r="M109" s="1"/>
       <c r="O109" s="16">
+        <v>6</v>
+      </c>
+      <c r="P109" s="28">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="P109" s="28">
-        <f t="shared" si="5"/>
+      <c r="R109" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="16">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="W109" s="16">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="X109" s="16">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="R109" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <v>108</v>
       </c>
@@ -6829,26 +8148,38 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="K110" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="K110" s="16">
+        <f>ROUND(AVERAGE(LARGE(V110:X110,{1,2})),0)</f>
+        <v>2</v>
       </c>
       <c r="M110" s="1"/>
       <c r="O110" s="16">
         <v>6</v>
       </c>
       <c r="P110" s="28">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="R110" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V110" s="16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="W110" s="16">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X110" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>109</v>
       </c>
@@ -6874,31 +8205,43 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1">
         <f t="shared" si="7"/>
-        <v>37.5</v>
-      </c>
-      <c r="K111" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="K111" s="16">
+        <f>ROUND(AVERAGE(LARGE(V111:X111,{1,2})),0)</f>
+        <v>13</v>
       </c>
       <c r="M111" s="1">
         <v>33</v>
       </c>
       <c r="O111" s="16">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P111" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q111" s="16">
         <v>20</v>
       </c>
       <c r="R111" s="16">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V111" s="16">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="W111" s="16">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="X111" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>110</v>
       </c>
@@ -6924,31 +8267,43 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K112" s="1">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="K112" s="16">
+        <f>ROUND(AVERAGE(LARGE(V112:X112,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M112" s="1">
         <v>35</v>
       </c>
       <c r="O112" s="16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P112" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q112" s="16">
         <v>25</v>
       </c>
       <c r="R112" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V112" s="16">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="W112" s="16">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="X112" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>111</v>
       </c>
@@ -6974,26 +8329,38 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K113" s="16">
+        <f>ROUND(AVERAGE(LARGE(V113:X113,{1,2})),0)</f>
+        <v>5</v>
       </c>
       <c r="M113" s="1"/>
       <c r="O113" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P113" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="R113" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V113" s="16">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="W113" s="16">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="X113" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>112</v>
       </c>
@@ -7019,31 +8386,43 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K114" s="1">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="K114" s="16">
+        <f>ROUND(AVERAGE(LARGE(V114:X114,{1,2})),0)</f>
+        <v>18</v>
       </c>
       <c r="M114" s="1">
         <v>35</v>
       </c>
       <c r="O114" s="16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P114" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q114" s="16">
         <v>25</v>
       </c>
       <c r="R114" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V114" s="16">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="W114" s="16">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="X114" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>113</v>
       </c>
@@ -7069,31 +8448,43 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K115" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="K115" s="16">
+        <f>ROUND(AVERAGE(LARGE(V115:X115,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M115" s="1">
         <v>35</v>
       </c>
       <c r="O115" s="16">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P115" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q115" s="16">
         <v>25</v>
       </c>
       <c r="R115" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V115" s="16">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="W115" s="16">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="X115" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>114</v>
       </c>
@@ -7119,26 +8510,38 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K116" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="K116" s="16">
+        <f>ROUND(AVERAGE(LARGE(V116:X116,{1,2})),0)</f>
+        <v>4</v>
       </c>
       <c r="M116" s="1"/>
       <c r="O116" s="16">
+        <v>6</v>
+      </c>
+      <c r="P116" s="28">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="P116" s="28">
-        <f t="shared" si="5"/>
+      <c r="R116" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="16">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="W116" s="16">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="X116" s="16">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="R116" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <v>115</v>
       </c>
@@ -7166,8 +8569,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K117" s="1">
-        <f t="shared" si="4"/>
+      <c r="K117" s="16">
+        <f>ROUND(AVERAGE(LARGE(V117:X117,{1,2})),0)</f>
         <v>0</v>
       </c>
       <c r="M117" s="1"/>
@@ -7175,15 +8578,27 @@
         <v>0</v>
       </c>
       <c r="P117" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R117" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V117" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W117" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X117" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>116</v>
       </c>
@@ -7209,31 +8624,43 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1">
         <f t="shared" si="7"/>
-        <v>62.5</v>
-      </c>
-      <c r="K118" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <v>76</v>
+      </c>
+      <c r="K118" s="16">
+        <f>ROUND(AVERAGE(LARGE(V118:X118,{1,2})),0)</f>
+        <v>19</v>
       </c>
       <c r="M118" s="1">
         <v>35</v>
       </c>
       <c r="O118" s="16">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P118" s="28">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="Q118" s="16">
         <v>25</v>
       </c>
       <c r="R118" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V118" s="16">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="W118" s="16">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="X118" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>117</v>
       </c>
@@ -7259,31 +8686,43 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="K119" s="1">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <v>88</v>
+      </c>
+      <c r="K119" s="16">
+        <f>ROUND(AVERAGE(LARGE(V119:X119,{1,2})),0)</f>
+        <v>25</v>
       </c>
       <c r="M119" s="1">
         <v>35</v>
       </c>
       <c r="O119" s="16">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="P119" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q119" s="16">
         <v>25</v>
       </c>
       <c r="R119" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V119" s="16">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="W119" s="16">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="X119" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>118</v>
       </c>
@@ -7308,29 +8747,41 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1">
         <f t="shared" si="7"/>
-        <v>37.5</v>
-      </c>
-      <c r="K120" s="1">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="K120" s="16">
+        <f>ROUND(AVERAGE(LARGE(V120:X120,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M120" s="1"/>
       <c r="O120" s="16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P120" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q120" s="16">
         <v>20</v>
       </c>
       <c r="R120" s="16">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V120" s="16">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="W120" s="16">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="X120" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>119</v>
       </c>
@@ -7355,31 +8806,43 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1">
         <f t="shared" si="7"/>
-        <v>37.5</v>
-      </c>
-      <c r="K121" s="1">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="K121" s="16">
+        <f>ROUND(AVERAGE(LARGE(V121:X121,{1,2})),0)</f>
+        <v>12</v>
       </c>
       <c r="M121" s="1">
         <v>35</v>
       </c>
       <c r="O121" s="16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P121" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q121" s="16">
         <v>25</v>
       </c>
       <c r="R121" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V121" s="16">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="W121" s="16">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="X121" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>120</v>
       </c>
@@ -7404,31 +8867,43 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1">
         <f t="shared" si="7"/>
-        <v>62.5</v>
-      </c>
-      <c r="K122" s="1">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <v>88</v>
+      </c>
+      <c r="K122" s="16">
+        <f>ROUND(AVERAGE(LARGE(V122:X122,{1,2})),0)</f>
+        <v>28</v>
       </c>
       <c r="M122" s="1">
         <v>30</v>
       </c>
       <c r="O122" s="16">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="P122" s="28">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="Q122" s="16">
         <v>25</v>
       </c>
       <c r="R122" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V122" s="16">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="W122" s="16">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="X122" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <v>121</v>
       </c>
@@ -7452,26 +8927,38 @@
       </c>
       <c r="J123" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K123" s="1">
-        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="K123" s="16">
+        <f>ROUND(AVERAGE(LARGE(V123:X123,{1,2})),0)</f>
         <v>8</v>
       </c>
       <c r="M123" s="1"/>
       <c r="O123" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P123" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="R123" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V123" s="16">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="W123" s="16">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="X123" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>122</v>
       </c>
@@ -7495,29 +8982,41 @@
       </c>
       <c r="J124" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K124" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="K124" s="16">
+        <f>ROUND(AVERAGE(LARGE(V124:X124,{1,2})),0)</f>
+        <v>15</v>
       </c>
       <c r="M124" s="1"/>
       <c r="O124" s="16">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P124" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q124" s="16">
         <v>25</v>
       </c>
       <c r="R124" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V124" s="16">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="W124" s="16">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="X124" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>123</v>
       </c>
@@ -7541,31 +9040,43 @@
       </c>
       <c r="J125" s="1">
         <f t="shared" si="7"/>
-        <v>87.5</v>
-      </c>
-      <c r="K125" s="1">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="K125" s="16">
+        <f>ROUND(AVERAGE(LARGE(V125:X125,{1,2})),0)</f>
+        <v>30</v>
       </c>
       <c r="M125" s="1">
         <v>35</v>
       </c>
       <c r="O125" s="16">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="P125" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q125" s="16">
         <v>25</v>
       </c>
       <c r="R125" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V125" s="16">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="W125" s="16">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="X125" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>124</v>
       </c>
@@ -7589,31 +9100,43 @@
       </c>
       <c r="J126" s="1">
         <f t="shared" si="7"/>
-        <v>37.5</v>
-      </c>
-      <c r="K126" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="K126" s="16">
+        <f>ROUND(AVERAGE(LARGE(V126:X126,{1,2})),0)</f>
+        <v>8</v>
       </c>
       <c r="M126" s="1">
         <v>35</v>
       </c>
       <c r="O126" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P126" s="28">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="Q126" s="16">
         <v>15</v>
       </c>
       <c r="R126" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V126" s="16">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="W126" s="16">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="X126" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>125</v>
       </c>
@@ -7637,29 +9160,41 @@
       </c>
       <c r="J127" s="1">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="K127" s="1">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="K127" s="16">
+        <f>ROUND(AVERAGE(LARGE(V127:X127,{1,2})),0)</f>
+        <v>17</v>
       </c>
       <c r="M127" s="1"/>
       <c r="O127" s="16">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P127" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q127" s="16">
         <v>25</v>
       </c>
       <c r="R127" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V127" s="16">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="W127" s="16">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="X127" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>126</v>
       </c>
@@ -7683,31 +9218,43 @@
       </c>
       <c r="J128" s="1">
         <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="K128" s="1">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="K128" s="16">
+        <f>ROUND(AVERAGE(LARGE(V128:X128,{1,2})),0)</f>
+        <v>13</v>
       </c>
       <c r="M128" s="1">
         <v>35</v>
       </c>
       <c r="O128" s="16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P128" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q128" s="16">
         <v>25</v>
       </c>
       <c r="R128" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V128" s="16">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="W128" s="16">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="X128" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <v>127</v>
       </c>
@@ -7731,31 +9278,43 @@
       </c>
       <c r="J129" s="1">
         <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="K129" s="1">
-        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="K129" s="16">
+        <f>ROUND(AVERAGE(LARGE(V129:X129,{1,2})),0)</f>
         <v>8</v>
       </c>
       <c r="M129" s="1">
         <v>35</v>
       </c>
       <c r="O129" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P129" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Q129" s="16">
         <v>15</v>
       </c>
       <c r="R129" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V129" s="16">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="W129" s="16">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="X129" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <v>128</v>
       </c>
@@ -7779,31 +9338,43 @@
       </c>
       <c r="J130" s="1">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="K130" s="1">
-        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K130" s="16">
+        <f>ROUND(AVERAGE(LARGE(V130:X130,{1,2})),0)</f>
         <v>21</v>
       </c>
       <c r="M130" s="1">
         <v>35</v>
       </c>
       <c r="O130" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P130" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Q130" s="16">
         <v>25</v>
       </c>
       <c r="R130" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V130" s="16">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="W130" s="16">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="X130" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>129</v>
       </c>
@@ -7827,29 +9398,41 @@
       </c>
       <c r="J131" s="1">
         <f t="shared" si="7"/>
-        <v>62.5</v>
-      </c>
-      <c r="K131" s="1">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <v>76</v>
+      </c>
+      <c r="K131" s="16">
+        <f>ROUND(AVERAGE(LARGE(V131:X131,{1,2})),0)</f>
+        <v>19</v>
       </c>
       <c r="M131" s="1"/>
       <c r="O131" s="16">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="P131" s="28">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="Q131" s="16">
         <v>22</v>
       </c>
       <c r="R131" s="16">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V131" s="16">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="W131" s="16">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="X131" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <v>130</v>
       </c>
@@ -7872,31 +9455,48 @@
         <v>0</v>
       </c>
       <c r="J132" s="1">
-        <f t="shared" si="7"/>
-        <v>37.5</v>
-      </c>
-      <c r="K132" s="1">
-        <f t="shared" ref="K132" si="8">SUM(D132,G132,P132)</f>
-        <v>7</v>
+        <f t="shared" ref="J132" si="13">ROUNDUP(O132/25*100,1)</f>
+        <v>32</v>
+      </c>
+      <c r="K132" s="16">
+        <f>ROUND(AVERAGE(LARGE(V132:X132,{1,2})),0)</f>
+        <v>4</v>
       </c>
       <c r="M132" s="1"/>
       <c r="O132" s="16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P132" s="28">
-        <f t="shared" ref="P132" si="9">VLOOKUP(J132,$T$3:$U$6,2)</f>
-        <v>3</v>
+        <f t="shared" ref="P132" si="14">VLOOKUP(J132,$T$3:$U$7,2)</f>
+        <v>2</v>
       </c>
       <c r="R132" s="16">
-        <f t="shared" ref="R132" si="10">ROUNDUP(Q132/25*5,0)</f>
-        <v>0</v>
+        <f t="shared" ref="R132" si="15">ROUNDUP(Q132/25*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V132" s="16">
+        <f t="shared" ref="V132" si="16">ROUND(SUM(D132)+G132,0)+P132</f>
+        <v>6</v>
+      </c>
+      <c r="W132" s="16">
+        <f t="shared" ref="W132" si="17">ROUND(SUM(E132)+H132,0)+P132</f>
+        <v>2</v>
+      </c>
+      <c r="X132" s="16">
+        <f t="shared" ref="X132" si="18">ROUND(SUM(F132)+I132,0)+P132</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:M132"/>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="K1:K2 K133:K1048576">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K132">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7924,20 +9524,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -12454,20 +14054,20 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D120">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",D3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K120">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1098,16 +1098,6 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <sz val="10"/>
@@ -1148,6 +1138,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1507,10 +1507,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="B113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9495,7 +9495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K132">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14054,20 +14054,20 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D120">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",D3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K120">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1505,12 +1505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="B113" sqref="A113:XFD113"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>35</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>39</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>41</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>47</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>48</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>50</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>52</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>58</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>59</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>60</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>62</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>63</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>64</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>65</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>66</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>67</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>68</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>69</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>70</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>71</v>
       </c>
@@ -5962,7 +5963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>72</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>73</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>74</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>75</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>76</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>77</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>78</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>79</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>80</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>81</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>82</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>83</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
@@ -6870,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>87</v>
       </c>
@@ -6932,7 +6933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>88</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>91</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>93</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>94</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>95</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>96</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>97</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>98</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>99</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>100</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>101</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>102</v>
       </c>
@@ -7827,7 +7828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>103</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>106</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>107</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>109</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>110</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>111</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>112</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>113</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>114</v>
       </c>
@@ -8598,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>116</v>
       </c>
@@ -8660,7 +8661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>117</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>118</v>
       </c>
@@ -8842,7 +8843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>120</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <v>121</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>122</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>123</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>124</v>
       </c>
@@ -9136,7 +9137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>125</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>126</v>
       </c>
@@ -9254,7 +9255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <v>127</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <v>128</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>129</v>
       </c>
@@ -9488,7 +9489,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M132"/>
+  <autoFilter ref="A2:M132">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="K1:K2 K133:K1048576">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>10</formula>

--- a/static/Upload/2nd sem.xlsx
+++ b/static/Upload/2nd sem.xlsx
@@ -1505,13 +1505,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B84" sqref="B84"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3:E63"/>
+      <selection pane="topRight" activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -1848,7 +1847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -2727,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>35</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>39</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>41</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>47</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>48</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>50</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>52</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1">
@@ -5077,7 +5076,7 @@
       </c>
       <c r="K59" s="16">
         <f>ROUND(AVERAGE(LARGE(V59:X59,{1,2})),0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M59" s="1">
         <v>42</v>
@@ -5099,14 +5098,14 @@
       </c>
       <c r="W59" s="16">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X59" s="16">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>58</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>59</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>60</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>62</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>63</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>64</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>65</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
         <v>66</v>
       </c>
@@ -5658,7 +5657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>67</v>
       </c>
@@ -5720,7 +5719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>68</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>69</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>70</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>71</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>72</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>73</v>
       </c>
@@ -6085,7 +6084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>74</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>75</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <v>76</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>77</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>78</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>79</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <v>80</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>81</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>82</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>83</v>
       </c>
@@ -6749,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <v>85</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <v>86</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <v>87</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <v>88</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <v>91</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <v>93</v>
       </c>
@@ -7280,7 +7279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <v>94</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <v>95</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>96</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>97</v>
       </c>
@@ -7526,7 +7525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>98</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>99</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>100</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>101</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <v>102</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <v>103</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <v>106</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>107</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <v>109</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>110</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>111</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>112</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>113</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>114</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>116</v>
       </c>
@@ -8661,7 +8660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>117</v>
       </c>
@@ -8723,7 +8722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>118</v>
       </c>
@@ -8843,7 +8842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>120</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <v>121</v>
       </c>
@@ -8959,7 +8958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>122</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>123</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>124</v>
       </c>
@@ -9137,7 +9136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>125</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>126</v>
       </c>
@@ -9255,7 +9254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <v>127</v>
       </c>
@@ -9315,7 +9314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <v>128</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>129</v>
       </c>
@@ -9489,13 +9488,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M132">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="K1:K2 K133:K1048576">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>10</formula>
